--- a/deuChatbot/research_result/version_2(2500_400).xlsx
+++ b/deuChatbot/research_result/version_2(2500_400).xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F201"/>
+  <dimension ref="A1:F301"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -13722,6 +13722,7342 @@
         </is>
       </c>
     </row>
+    <row r="202">
+      <c r="A202" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B202" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 5
+   - 설명: 생성된 응답은 원본 텍스트의 모든 주요 사실과 세부 사항을 정확하게 반영하고 있습니다. 모집단위, 실기종목, 준비물, 실기주제, 화지크기 및 시험시간 등 모든 정보가 일치합니다.
+2. Consistency Score (1-5): 5
+   - 설명: 생성된 응답은 원본 텍스트와 일관되며, 모든 정보가 서로 충돌하지 않고 잘 연결되어 있습니다. 각 항목이 명확하게 정리되어 있어 일관성을 유지하고 있습니다.
+3. Relevance Score (1-5): 5
+   - 설명: 생성된 응답은 원본 텍스트의 주요 주제와 핵심 사항에 직접적으로 관련이 있으며, 실기시험에 대한 정보를 잘 전달하고 있습니다.
+4. Fluency Score (1-5): 5
+   - 설명: 생성된 응답은 문법적으로 정확하고, 문장 구조가 매끄러우며, 읽기 쉽습니다. 자연스러운 표현이 사용되어 유창성이 높습니다.
+5. Coherence Score (1-5): 5
+   - 설명: 생성된 응답은 논리적인 흐름을 가지고 있으며, 각 항목이 잘 연결되어 있어 전체적으로 일관된 구조를 유지하고 있습니다.
+6. Accuracy Score (1-5): 5
+   - 설명: 생성된 응답은 원본 텍스트의 모든 사실을 정확하게 반영하고 있으며, 잘못된 정보나 누락된 내용이 없습니다.
+7. Multidimensional Quality Score (1-5): 5
+   - 설명: 생성된 응답은 사실성, 일관성, 관련성, 유창성, 일관성, 정확성 등 모든 품질 차원에서 우수한 성과를 보이고 있습니다.
+8. Semantic Appropriateness Score (1-5): 5
+   - 설명: 생성된 응답은 원본 텍스트의 의미와 맥락에 완전히 부합하며, 적절한 의미를 전달하고 있습니다.
+9. Understandability Score (1-5): 5
+   - 설명: 생성된 응답은 명확하고 이해하기 쉬우며, 정보가 잘 정리되어 있어 독자가 쉽게 따라갈 수 있습니다.
+{
+    "Factuality Score": 5,
+    "Consistency Score": 5,
+    "Relevance Score": 5,
+    "Fluency Score": 5,
+    "Coherence Score": 5,
+    "Accuracy Score": 5,
+    "Multidimensional Quality Score": 5,
+    "Semantic Appropriateness Score": 5,
+    "Understandability Score": 5
+}</t>
+        </is>
+      </c>
+      <c r="C202" t="n">
+        <v>0.8391775489093668</v>
+      </c>
+      <c r="D202" t="inlineStr">
+        <is>
+          <t>디자인조형학과의 실기시험에 대해서 설명해줘.</t>
+        </is>
+      </c>
+      <c r="E202" t="inlineStr">
+        <is>
+          <t>디자인조형학과의 실기시험은 시각디자인, 산업디자인, 공예디자인 세 분야에서 각각 진행되며, 주요 내용은 다음과 같습니다:
+1. **모집단위 및 종목**:
+   - 모집단위: 시각디자인 / 산업디자인 / 공예디자인
+   - 종목: 기초디자인, 사고의 전환
+2. **준비물**:
+   - 볼펜, 연필, 색연필, 수채물감 등 표현에 필요한 도구가 필요합니다.
+3. **실기주제 및 화지크기**:
+   - **기초디자인**:
+     - 주제: 주제A와 주제B에서 각 1개씩 선정하여 연결된 주제를 당일 추첨
+       - 예시: 잠자리와 저울 (주제A: 잠자리, 무궁화, 피망, 고양이, 양파, 달팽이, 오렌지 / 주제B: 악보, 줄자, 스카치테이프, 자물쇠, 반코팅장갑, 저울, 얼음)
+     - 화지크기: 켄트지3절
+     - 시간: 5시간
+   - **사고의 전환**:
+     - 주제: 주제A와 주제B에서 각 1개씩 선정하여 연결된 주제를 당일 추첨
+       - 예시: 콜라병과 계절 (주제A: 콜라병, 포카리스웨트(캔), 마스크, 시계, 맥가이버 칼 / 주제B: 바이러스, 자유, 여행, 계절, 꿈)
+     - 화지크기: 켄트지2절
+     - 시간: 5시간
+4. **주의사항**:
+   - 제공된 사물과 이미지 이외의 형상은 표현하지 마세요.
+   - 제공된 사물은 모두 1회 이상 표현해야 합니다.
+   - 제공된 사물의 색상은 변경하지 마세요.
+이러한 실기시험을 준비하면서, 다양한 주제와 상황에 대한 창의적인 접근법과 표현 능력을 키우는 것이 중요합니다. 또한 시간 관리와 효율적인 작업 방법도 함께 고려해야 합니다.</t>
+        </is>
+      </c>
+      <c r="F202" t="inlineStr">
+        <is>
+          <t>디자인조형학과의 실기시험에 대한 정보는 다음과 같습니다:
+ 모집단위 및 실기종목
+- 모집단위: 시각디자인, 산업디자인, 공예디자인
+- 실기종목: 기초디자인, 사고의 전환
+종목별 배점(비율)
+- 배점 : 700점 (70%)
+실기종목별 준비물, 실기주제, 화지크기 및 시험시간
+1. 기초디자인
+- 준비물 : 볼펜, 연필, 색연필, 수채물감 등 표현에 필요한 도구
+- 실기주제 : 주제A, 주제B에서 각 1개씩 선정하여 연결된 주제를 당일 추첨 (예시: 잠자리와 저울)
+- 주제A: 잠자리, 무궁화, 피망, 고양이, 양파, 달팽이, 오렌지
+- 주제B: 악보, 줄자, 스카치테이프, 자물쇠, 반코팅장갑, 저울, 얼음
+- 조건: 제공된 사물과 이미지 이외의 형상은 표현하지 마시오. 제공된 사물은 모두 1회 이상 표현하시오. 제공된 사물의 색상은 변경하지 마시오.
+- 화지크기 : 켄트지 3절
+- 시험시간 : 5시간
+2.사고의 전환
+- 준비물: 볼펜, 연필, 색연필, 수채물감 등 표현에 필요한 도구
+- 실기주제 : 주제A, 주제B에서 각 1개씩 선정하여 연결된 주제를 당일 추첨 (예시: 콜라병과 계절)
+- 주제A: 콜라병, 포카리스웨트(캔), 마스크, 시계, 맥가이버 칼
+- 주제B: 바이러스, 자유, 여행, 계절, 꿈
+- 화지크기: 켄트지 2절
+- 시험시간: 5시간
+이와 같은 정보는 디자인조형학과 실기시험을 준비하는 데 중요한 요소들입니다. 추가적인 정보나 문의사항이 있다면 "https://ipsi.deu.ac.kr/main.do"를 방문하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="203">
+      <c r="A203" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B203" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 5
+   - 설명: 생성된 응답은 원본 텍스트의 모든 사실을 정확하게 반영하고 있으며, 실기 종목, 준비물, 실기 주제, 화지 크기, 시간에 대한 정보가 모두 포함되어 있습니다.
+2. Consistency Score (1-5): 5
+   - 설명: 생성된 응답은 원본 텍스트와 일관되며, 모든 정보가 서로 충돌하지 않고 잘 연결되어 있습니다.
+3. Relevance Score (1-5): 5
+   - 설명: 생성된 응답은 원본 텍스트의 주요 주제와 관련이 깊으며, 실기 종목에 대한 정보를 직접적으로 다루고 있습니다.
+4. Fluency Score (1-5): 5
+   - 설명: 생성된 응답은 문법적으로 정확하고, 문장 구조가 매끄러워 읽기 쉽습니다.
+5. Coherence Score (1-5): 5
+   - 설명: 생성된 응답은 논리적으로 잘 구성되어 있으며, 각 항목이 명확하게 구분되어 있어 이해하기 쉽습니다.
+6. Accuracy Score (1-5): 5
+   - 설명: 생성된 응답은 원본 텍스트의 모든 세부 사항을 정확하게 반영하고 있으며, 사실에 대한 왜곡이 없습니다.
+7. Multidimensional Quality Score (1-5): 5
+   - 설명: 생성된 응답은 사실성, 일관성, 관련성, 유창성, 일관성, 정확성 등 모든 품질 차원에서 우수한 성과를 보이고 있습니다.
+8. Semantic Appropriateness Score (1-5): 5
+   - 설명: 생성된 응답은 원본 텍스트의 의미와 맥락에 완전히 부합하며, 적절한 의미를 전달하고 있습니다.
+9. Understandability Score (1-5): 5
+   - 설명: 생성된 응답은 매우 명확하고 이해하기 쉬우며, 정보가 잘 전달되고 있습니다.
+{
+    "Factuality Score": 5,
+    "Consistency Score": 5,
+    "Relevance Score": 5,
+    "Fluency Score": 5,
+    "Coherence Score": 5,
+    "Accuracy Score": 5,
+    "Multidimensional Quality Score": 5,
+    "Semantic Appropriateness Score": 5,
+    "Understandability Score": 5
+}</t>
+        </is>
+      </c>
+      <c r="C203" t="n">
+        <v>0.8792088296149446</v>
+      </c>
+      <c r="D203" t="inlineStr">
+        <is>
+          <t>디자인조형학과의 실기종목과 준비물, 실기주제, 화지크기, 시간에 대해서 알려줘.</t>
+        </is>
+      </c>
+      <c r="E203" t="inlineStr">
+        <is>
+          <t>디자인조형학과의 실기 종목은 두 가지가 있습니다:
+1. **기초디자인**
+   - **준비물**: 볼펜, 연필, 색연필, 수채물감 등 표현에 필요한 도구
+   - **실기주제**: 주제A와 주제B에서 각 1개씩 선정하여 연결된 주제를 당일 추첨으로 결정합니다. 예시로는 "잠자리와 저울"과 같은 주제가 있습니다.
+   - **화지크기**: 켄트지3절
+   - **시간**: 5시간
+2. **사고의 전환**
+   - **준비물**: 볼펜, 연필, 색연필, 수채물감 등 표현에 필요한 도구
+   - **실기주제**: 주제A와 주제B에서 각 1개씩 선정하여 연결된 주제를 당일 추첨으로 결정합니다. 예시로는 "콜라병과 계절"과 같은 주제가 있습니다.
+   - **화지크기**: 켄트지2절
+   - **시간**: 5시간
+이러한 실기 종목들은 각각의 준비물과 시간을 고려하여 충분히 준비하고, 당일 추첨된 주제에 따라 작업을 진행해야 합니다.</t>
+        </is>
+      </c>
+      <c r="F203" t="inlineStr">
+        <is>
+          <t>디자인조형학과의 실기종목, 준비물, 실기주제, 화지크기, 시간에 대한 정보는 다음과 같습니다:
+1.실기종목: 기초디자인
+- 준비물: 볼펜, 연필, 색연필, 수채물감 등 표현에 필요한 도구
+- 실기주제: 주제A, 주제B에서 각 1개씩 선정하여 연결된 주제를 당일 추첨 (예시: 잠자리와 저울)
+- 주제A: 잠자리, 무궁화, 피망, 고양이, 양파, 달팽이, 오렌지
+- 주제B: 악보, 줄자, 스카치테이프, 자물쇠, 반코팅장갑, 저울, 얼음
+- 조건: 제공된 사물과 이미지 이외의 형상은 표현하지 마시오. 제공된 사물은 모두 1회 이상 표현하시오. 제공된 사물의 색상은 변경하지 마시오.
+- 화지크기: 켄트지 3절
+- 시간: 5시간
+2.실기종목: 사고의 전환
+- 준비물: 볼펜, 연필, 색연필, 수채물감 등 표현에 필요한 도구
+- 실기주제: 주제A, 주제B에서 각 1개씩 선정하여 연결된 주제를 당일 추첨 (예시: 콜라병과 계절)
+- 주제A: 콜라병, 포카리스웨트(캔), 마스크, 시계, 맥가이버 칼
+- 주제B: 바이러스, 자유, 여행, 계절, 꿈
+- 화지크기: 켄트지 2절
+- 시간: 5시간</t>
+        </is>
+      </c>
+    </row>
+    <row r="204">
+      <c r="A204" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B204" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 모든 사실을 정확하게 반영하고 있으며, 대회 목록과 관련된 정보가 일치합니다.
+2. Consistency Score (1-5): 5
+   - 생성된 응답은 원본 텍스트와 일관되며, 대회 목록과 설명이 서로 충돌하지 않고 일관성을 유지합니다.
+3. Relevance Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 주요 주제와 관련이 있으며, 모든 중요한 포인트를 다루고 있습니다.
+4. Fluency Score (1-5): 4
+   - 생성된 응답은 전반적으로 유창하게 작성되었으나, 일부 문장에서 약간의 어색함이 느껴질 수 있습니다.
+5. Coherence Score (1-5): 5
+   - 생성된 응답은 논리적으로 잘 구성되어 있으며, 각 대회에 대한 설명이 명확하게 연결되어 있습니다.
+6. Accuracy Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 모든 사실을 정확하게 반영하고 있으며, 정보의 정확성이 높습니다.
+7. Multidimensional Quality Score (1-5): 5
+   - 생성된 응답은 사실성, 일관성, 관련성, 정확성 등 모든 품질 차원에서 우수한 성과를 보입니다.
+8. Semantic Appropriateness Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 의미와 맥락에 완전히 부합하며, 적절한 의미를 전달하고 있습니다.
+9. Understandability Score (1-5): 5
+   - 생성된 응답은 매우 명확하고 이해하기 쉬우며, 정보가 잘 전달됩니다.
+{
+    "Factuality Score": 5,
+    "Consistency Score": 5,
+    "Relevance Score": 5,
+    "Fluency Score": 4,
+    "Coherence Score": 5,
+    "Accuracy Score": 5,
+    "Multidimensional Quality Score": 5,
+    "Semantic Appropriateness Score": 5,
+    "Understandability Score": 5
+}</t>
+        </is>
+      </c>
+      <c r="C204" t="n">
+        <v>0.9119733235123774</v>
+      </c>
+      <c r="D204" t="inlineStr">
+        <is>
+          <t>경기지도학과 모집종목별 인정대회에는 어떤 대회들이 있는지 알려줘.</t>
+        </is>
+      </c>
+      <c r="E204" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 경기지도학과 모집종목별 인정대회에서는 다음과 같은 대회들을 인정합니다:
+1. 배드민턴(남):
+- 한국중·고연맹회장기전국학생선수권대회
+- 대한배드민턴협회장기전국종별배드민턴선수권대회 
+- 전국학교대항배드민턴선수권대회
+- 전국종별배드민턴선수권대회
+- 전국연맹종별배드민턴선수권대회
+- 전국체육대회
+- 각 종목별 국제대회 (국가대표팀, 주니어팀 소속으로 참가한 대회만 인정)
+2. 축구(남):
+-춘계한국고등학교축구연맹전
+-추계한국고등학교축구연맹전
+-대한축구협회장배전국고등학교축구대회
+-문화체육관광부장관기전국고등학교축구대회
+-문화체육관광부장관배전국고등학교축구대회
+-백운기전국고등학교축구대회
+-전국고등축구리그(권역별고교축구리그)
+-전국고등축구리그왕중왕전
+-무학기전국고등학교축구대회
+-청룡기전국고등학교축구대회
+-백록기전국고등학교축구대회
+-금강대기전국고등학교축구대회
+-대통령금배전국고등학교축구대회
+-금석배전국고등학생축구대회
+-K리그 U18 챔피언십
+-K리그 U18 챔피언십왕중왕전
+이러한 대회의 성적을 기반으로 학생들의 실력을 평가합니다.</t>
+        </is>
+      </c>
+      <c r="F204" t="inlineStr">
+        <is>
+          <t>경기지도학과 모집종목별 인정대회는 다음과 같습니다:
+배드민턴(남)
+- 한국중·고연맹회장기전국학생선수권대회
+- 대한배드민턴협회장기전국종별배드민턴선수권대회
+- 전국학교대항배드민턴선수권대회
+- 전국종별배드민턴선수권대회
+- 전국연맹종별배드민턴선수권대회
+- 전국체육대회
+- 각종국제대회
+- 주니어국제대회(국가대표팀, 주니어팀 소속으로 출전한 대회만 인정)
+- 광역시·도 협회장기 종별대회
+축구(남)
+- 춘계한국고등학교축구연맹전
+- 추계한국고등학교축구연맹전
+- 대한축구협회장배전국고등학교축구대회
+- 문화체육관광부장관기전국고등학교축구대회
+- 문화체육관광부장관배전국고등학교축구대회
+- 백운기전국고등학교축구대회
+- 전국고등축구리그(권역별고교축구리그)
+- 전국고등축구리그왕중왕전
+- 무학기전국고등학교축구대회
+- 청룡기전국고등학교축구대회
+- 백록기전국고등학교축구대회
+- 금강대기전국고등학교축구대회
+- 대통령금배전국고등학교축구대회
+- 금석배전국고등학생축구대회
+- 부산MBC전국고등학생축구대회
+- K리그 U18 챔피언십
+- K리그 U18 챔피언십왕중왕전</t>
+        </is>
+      </c>
+    </row>
+    <row r="205">
+      <c r="A205" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B205" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 4
+   - 설명: 생성된 응답은 원본 텍스트의 주제와 내용을 잘 반영하고 있으며, 주제A와 주제B의 항목들을 정확하게 나열하고 있습니다. 그러나 "피망 (灯笼)"이라는 표현은 원본 텍스트에 없는 추가적인 정보로, 약간의 부정확성을 나타냅니다.
+2. Consistency Score (1-5): 4
+   - 설명: 생성된 응답은 원본 텍스트와 일관되게 주제를 설명하고 있으며, 주제의 선택 및 연결 방식에 대한 설명도 일치합니다. 다만, "연결된 주제를 작성해야 합니다"라는 문구는 원본 텍스트의 내용과 약간의 차이가 있어 완전한 일관성은 아닙니다.
+3. Relevance Score (1-5): 5
+   - 설명: 생성된 응답은 원본 텍스트의 주요 주제와 내용을 직접적으로 다루고 있으며, 관련성이 매우 높습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 구조를 가지고 있습니다. 그러나 일부 문장에서 약간의 어색함이 느껴질 수 있습니다.
+5. Coherence Score (1-5): 4
+   - 설명: 생성된 응답은 논리적으로 잘 구성되어 있으며, 주제에 대한 설명이 명확하게 이어집니다. 그러나 연결 방식에 대한 설명이 조금 더 명확하게 표현될 수 있었습니다.
+6. Accuracy Score (1-5): 4
+   - 설명: 생성된 응답은 원본 텍스트의 사실을 잘 반영하고 있으나, "피망 (灯笼)"이라는 추가 정보가 정확성을 약간 떨어뜨립니다.
+7. Multidimensional Quality Score (1-5): 4
+   - 설명: 생성된 응답은 여러 품질 차원에서 잘 수행하고 있으며, 전반적으로 높은 점수를 받을 수 있습니다. 그러나 약간의 부정확성과 일관성 문제로 인해 완벽하지는 않습니다.
+8. Semantic Appropriateness Score (1-5): 4
+   - 설명: 생성된 응답은 원본 텍스트의 의미와 맥락에 잘 부합하지만, 추가된 정보가 의미를 약간 왜곡할 수 있습니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 이해하기 쉽고 명확하게 작성되어 있습니다. 그러나 일부 문장은 더 간결하게 표현될 수 있습니다.
+{
+    "Factuality Score": 4,
+    "Consistency Score": 4,
+    "Relevance Score": 5,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 4,
+    "Multidimensional Quality Score": 4,
+    "Semantic Appropriateness Score": 4,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C205" t="n">
+        <v>0.7895973897757039</v>
+      </c>
+      <c r="D205" t="inlineStr">
+        <is>
+          <t>디자인조형학과의 기초디자인 실기시험에 있는 주제들을 모두 알려줘.</t>
+        </is>
+      </c>
+      <c r="E205" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 디자인조형학과의 기초디자인 실기시험에서는 주제A와 주제B 중 각각 하나씩을 선택하여 연결된 주제를 작성해야 합니다. 제공된 주제들은 다음과 같습니다:
+주제A:
+- 잠자리
+- 무궁화
+- 피망 (灯笼)
+- 고양이 
+- 양파
+- 달팽이
+- 오렌지
+주제B:
+- 악보
+- 줄자
+- 스카치테이프
+- 자물쇠
+- 반코팅장갑
+- 저울
+- 얼음
+각 주제는 당일에 추첨되어 선택됩니다. 준비할 때는 제공된 모든 주제를 고려하여 다양한 연결 방식을 생각해보세요.</t>
+        </is>
+      </c>
+      <c r="F205" t="inlineStr">
+        <is>
+          <t>디자인조형학과의 기초디자인 실기시험 주제는 다음과 같습니다:
+- 주제A: 잠자리, 무궁화, 피망, 고양이, 양파, 달팽이, 오렌지
+- 주제B: 악보, 줄자, 스카치테이프, 자물쇠, 반코팅장갑, 저울, 얼음
+시험 당일에는 주제A와 주제B에서 각각 1개씩 선정하여 연결된 주제를 추첨하게 됩니다. 예시로는 "잠자리와 저울"이 있습니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="206">
+      <c r="A206" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B206" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 1
+   - 설명: 생성된 응답은 학생부 교과 전형에서 출결 점수가 반영된다고 주장하고 있지만, 원문에서는 출결 점수가 반영되지 않는다고 명확히 언급하고 있습니다. 따라서 사실과 완전히 반대되는 내용을 포함하고 있습니다.
+2. Consistency Score (1-5): 1
+   - 설명: 생성된 응답은 원문과 상충되는 정보를 제공하고 있습니다. 원문에서는 출결 점수가 반영되지 않는다고 했으나, 생성된 응답에서는 반영된다고 주장하고 있어 일관성이 전혀 없습니다.
+3. Relevance Score (1-5): 2
+   - 설명: 생성된 응답은 출결 점수에 대한 구체적인 정보를 제공하고 있지만, 원문과는 전혀 다른 내용을 다루고 있어 관련성이 낮습니다. 원문에서의 질문에 대한 직접적인 답변이 아닙니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 문법적으로 잘 구성되어 있으며, 읽기에도 무리가 없습니다. 그러나 내용의 정확성과 관련성 문제로 인해 전체적인 평가에 영향을 미칩니다.
+5. Coherence Score (1-5): 3
+   - 설명: 생성된 응답은 출결 점수에 대한 정보를 체계적으로 나열하고 있지만, 원문과의 불일치로 인해 전체적인 일관성이 떨어집니다. 그러나 내부적으로는 논리적인 흐름이 있습니다.
+6. Accuracy Score (1-5): 1
+   - 설명: 생성된 응답은 원문에서 제공된 정보와 완전히 반대되는 내용을 포함하고 있어 정확성이 매우 낮습니다.
+7. Multidimensional Quality Score (1-5): 1
+   - 설명: 생성된 응답은 사실성, 일관성, 관련성, 정확성 등 모든 차원에서 매우 낮은 점수를 받습니다. 원문과의 불일치로 인해 전반적인 품질이 저하되었습니다.
+8. Semantic Appropriateness Score (1-5): 1
+   - 설명: 생성된 응답은 원문의 의미와 맥락에 맞지 않으며, 잘못된 정보를 전달하고 있습니다. 따라서 의미적으로 부적절합니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 문법적으로 잘 작성되어 있어 이해하기는 쉽지만, 내용의 정확성과 관련성 문제로 인해 전체적인 이해에 혼란을 줄 수 있습니다.
+{
+    "Factuality Score": 1,
+    "Consistency Score": 1,
+    "Relevance Score": 2,
+    "Fluency Score": 4,
+    "Coherence Score": 3,
+    "Accuracy Score": 1,
+    "Multidimensional Quality Score": 1,
+    "Semantic Appropriateness Score": 1,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C206" t="n">
+        <v>0.6149327148489574</v>
+      </c>
+      <c r="D206" t="inlineStr">
+        <is>
+          <t>학생부교과 전형에서 출결 점수가 반영되나요?</t>
+        </is>
+      </c>
+      <c r="E206" t="inlineStr">
+        <is>
+          <t>2024학년도 동시에 실시되는 학생부교과 전형에서는 출결 점수가 반영됩니다. 
+출결 점수는 다음과 같이 반영됩니다:
+- 출결이 0~2일인 경우 : 120점
+- 출결이 3~6일인 경우 : 90점 
+- 출결이 7~12일인 경우 : 60점
+- 출결이 13~20일인 경우 : 30점
+- 출결이 21일 이상인 경우 : 0점
+따라서 학생부교과 전형에서는 출결도 중요한 평가 요소로 고려됩니다.</t>
+        </is>
+      </c>
+      <c r="F206" t="inlineStr">
+        <is>
+          <t>아니요. 학생부 교과 전형에서는 출결 점수가 반영되지 않습니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="207">
+      <c r="A207" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B207" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 5
+   - 설명: 생성된 응답은 원본 텍스트의 내용을 정확하게 반영하고 있으며, 모집 인원인 17명을 정확히 언급하고 있습니다.
+2. Consistency Score (1-5): 5
+   - 설명: 생성된 응답은 원본 텍스트와 일관되며, 정보가 서로 충돌하지 않습니다.
+3. Relevance Score (1-5): 5
+   - 설명: 생성된 응답은 원본 텍스트의 주요 내용을 직접적으로 다루고 있으며, 관련성이 높습니다.
+4. Fluency Score (1-5): 5
+   - 설명: 생성된 응답은 문법적으로 정확하고 읽기 쉬우며, 자연스럽게 표현되어 있습니다.
+5. Coherence Score (1-5): 5
+   - 설명: 생성된 응답은 논리적으로 잘 구성되어 있으며, 일관된 흐름을 유지하고 있습니다.
+6. Accuracy Score (1-5): 5
+   - 설명: 생성된 응답은 원본 텍스트의 사실을 정확하게 반영하고 있으며, 잘못된 정보가 없습니다.
+7. Multidimensional Quality Score (1-5): 5
+   - 설명: 생성된 응답은 모든 품질 차원에서 우수한 성과를 보이고 있습니다.
+8. Semantic Appropriateness Score (1-5): 5
+   - 설명: 생성된 응답은 원본 텍스트의 의미와 맥락에 완전히 부합하며, 적절한 의미를 전달하고 있습니다.
+9. Understandability Score (1-5): 5
+   - 설명: 생성된 응답은 매우 명확하고 이해하기 쉬우며, 독자가 쉽게 따라갈 수 있습니다.
+{
+    "Factuality Score": 5,
+    "Consistency Score": 5,
+    "Relevance Score": 5,
+    "Fluency Score": 5,
+    "Coherence Score": 5,
+    "Accuracy Score": 5,
+    "Multidimensional Quality Score": 5,
+    "Semantic Appropriateness Score": 5,
+    "Understandability Score": 5
+}</t>
+        </is>
+      </c>
+      <c r="C207" t="n">
+        <v>0.7298801999159188</v>
+      </c>
+      <c r="D207" t="inlineStr">
+        <is>
+          <t>인문사회과학대학의 국어국문학과에서 가군 일반학생 전형으로 몇 명을 모집하나요?</t>
+        </is>
+      </c>
+      <c r="E207" t="inlineStr">
+        <is>
+          <t>17명을 모집합니다. 
+이 정보는 다음과 같은 문단에서 얻었습니다:
+"전형별 모집단위별 모집인원에서 단과대학은 인문사회과학대학이며, 모집단위은 국어국문학과 - 교직이며, 정원 내 모집인원은 45이며, &lt;가군&gt;의 일반 학생은 17이며, ... 등록금 고지서에 기재"</t>
+        </is>
+      </c>
+      <c r="F207" t="inlineStr">
+        <is>
+          <t>인문사회과학대학의 국어국문학과에서 가군 일반학생 전형으로 17명을 모집합니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="208">
+      <c r="A208" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B208" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 내용을 정확하게 반영하고 있으며, 모집 인원인 28명을 명확히 언급하고 있습니다.
+2. Consistency Score (1-5): 5
+   - 생성된 응답은 원본 텍스트와 일관되며, 모집 인원에 대한 정보가 일치합니다.
+3. Relevance Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 주요 내용을 직접적으로 다루고 있으며, 관련성이 높습니다.
+4. Fluency Score (1-5): 4
+   - 생성된 응답은 전반적으로 유창하게 작성되었으나, 약간의 문장 구조 개선이 필요할 수 있습니다.
+5. Coherence Score (1-5): 5
+   - 생성된 응답은 논리적으로 잘 구성되어 있으며, 정보의 흐름이 매끄럽습니다.
+6. Accuracy Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 사실을 정확하게 반영하고 있습니다.
+7. Multidimensional Quality Score (1-5): 5
+   - 생성된 응답은 모든 품질 차원에서 우수한 성과를 보이고 있습니다.
+8. Semantic Appropriateness Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 의미와 맥락에 적절하게 부합합니다.
+9. Understandability Score (1-5): 5
+   - 생성된 응답은 명확하고 이해하기 쉬운 방식으로 작성되었습니다.
+{
+    "Factuality Score": 5,
+    "Consistency Score": 5,
+    "Relevance Score": 5,
+    "Fluency Score": 4,
+    "Coherence Score": 5,
+    "Accuracy Score": 5,
+    "Multidimensional Quality Score": 5,
+    "Semantic Appropriateness Score": 5,
+    "Understandability Score": 5
+}</t>
+        </is>
+      </c>
+      <c r="C208" t="n">
+        <v>0.6469257888139853</v>
+      </c>
+      <c r="D208" t="inlineStr">
+        <is>
+          <t>인문사회과학대학의 영어영문학과에서 다군 일반학생 전형으로 몇 명을 모집하나요?</t>
+        </is>
+      </c>
+      <c r="E208" t="inlineStr">
+        <is>
+          <t>28명을 모집합니다.
+인문사회과학대학의 영어영문학과 - 교직 분야는 다군 수능(일반학생전형) 모집단위로, 정원 내 모집 인원이 28명이라고 명시되어 있습니다.</t>
+        </is>
+      </c>
+      <c r="F208" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 인문사회과학대학 영어영문학과의 경우, 다군 일반학생 전형을 통해 총 28명의 신입생을 선발합니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="209">
+      <c r="A209" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B209" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 내용을 정확하게 반영하고 있으며, 모집 인원인 22명을 명확히 언급하고 있습니다.
+2. Consistency Score (1-5): 5
+   - 생성된 응답은 원본 텍스트와 일관되며, 정보가 서로 충돌하지 않습니다.
+3. Relevance Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 주요 내용을 직접적으로 다루고 있으며, 매우 관련성이 높습니다.
+4. Fluency Score (1-5): 5
+   - 생성된 응답은 문법적으로 정확하고 자연스럽게 읽히며, 유창합니다.
+5. Coherence Score (1-5): 5
+   - 생성된 응답은 논리적으로 잘 구성되어 있으며, 일관된 흐름을 유지하고 있습니다.
+6. Accuracy Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 사실을 정확하게 반영하고 있으며, 오류가 없습니다.
+7. Multidimensional Quality Score (1-5): 5
+   - 생성된 응답은 모든 품질 차원에서 우수한 성과를 보이고 있습니다.
+8. Semantic Appropriateness Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 의미와 맥락에 완전히 부합합니다.
+9. Understandability Score (1-5): 5
+   - 생성된 응답은 매우 명확하고 이해하기 쉬우며, 독자가 쉽게 따라갈 수 있습니다.
+{
+    "Factuality Score": 5,
+    "Consistency Score": 5,
+    "Relevance Score": 5,
+    "Fluency Score": 5,
+    "Coherence Score": 5,
+    "Accuracy Score": 5,
+    "Multidimensional Quality Score": 5,
+    "Semantic Appropriateness Score": 5,
+    "Understandability Score": 5
+}</t>
+        </is>
+      </c>
+      <c r="C209" t="n">
+        <v>0.779491086579123</v>
+      </c>
+      <c r="D209" t="inlineStr">
+        <is>
+          <t>의료보건생활대학 간호학과 나군 일반학생 전형 모집 인원을 알려줘.</t>
+        </is>
+      </c>
+      <c r="E209" t="inlineStr">
+        <is>
+          <t>22명입니다. 의료보건생활대학 간호학과 나군 일반 학생 전형의 모집 인원은 22명입니다.</t>
+        </is>
+      </c>
+      <c r="F209" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 의료보건생활대학 간호학과의 경우, 나군 일반학생 전형을 통해 총 22명의 신입생을 선발합니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="210">
+      <c r="A210" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B210" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 내용을 정확하게 반영하고 있으며, 모든 점수와 등급이 일치합니다.
+2. Consistency Score (1-5): 5
+   - 생성된 응답은 원본 텍스트와 일관되며, 정보의 충돌이나 모순이 없습니다.
+3. Relevance Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 주요 주제를 직접적으로 다루고 있으며, 매우 관련성이 높습니다.
+4. Fluency Score (1-5): 5
+   - 생성된 응답은 문법적으로 정확하고 읽기 쉬우며, 자연스럽게 표현되어 있습니다.
+5. Coherence Score (1-5): 5
+   - 생성된 응답은 논리적으로 잘 구성되어 있으며, 일관된 흐름을 유지하고 있습니다.
+6. Accuracy Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 모든 사실을 정확하게 반영하고 있습니다.
+7. Multidimensional Quality Score (1-5): 5
+   - 생성된 응답은 모든 품질 차원에서 우수한 성능을 보이고 있습니다.
+8. Semantic Appropriateness Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 의미와 맥락에 완전히 부합합니다.
+9. Understandability Score (1-5): 5
+   - 생성된 응답은 매우 명확하고 이해하기 쉬우며, 정보가 잘 전달됩니다.
+{
+    "Factuality Score": 5,
+    "Consistency Score": 5,
+    "Relevance Score": 5,
+    "Fluency Score": 5,
+    "Coherence Score": 5,
+    "Accuracy Score": 5,
+    "Multidimensional Quality Score": 5,
+    "Semantic Appropriateness Score": 5,
+    "Understandability Score": 5
+}</t>
+        </is>
+      </c>
+      <c r="C210" t="n">
+        <v>0.9478527570388584</v>
+      </c>
+      <c r="D210" t="inlineStr">
+        <is>
+          <t>수능 영어 등급에 따른 점수를 알려줘.</t>
+        </is>
+      </c>
+      <c r="E210" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 수능 영어 등급에 따른 점수는 다음과 같습니다:
+- 등급 1 : 139점
+- 등급 2 : 131점 
+- 등급 3 : 123점
+- 등급 4 : 115점
+- 등급 5 : 107점
+- 등급 6 : 99점
+- 등급 7 : 91점
+- 등급 8 : 83점
+- 등급 9 : 75점</t>
+        </is>
+      </c>
+      <c r="F210" t="inlineStr">
+        <is>
+          <t>수능 영어영역 등급에 따른 점수는 다음과 같습니다:
+- 1등급: 139점
+- 2등급: 131점
+- 3등급: 123점
+- 4등급: 115점
+- 5등급: 107점
+- 6등급: 99점
+- 7등급: 91점
+- 8등급: 83점
+- 9등급: 75점</t>
+        </is>
+      </c>
+    </row>
+    <row r="211">
+      <c r="A211" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B211" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 1
+   - 설명: 생성된 응답은 예술고 학생이 나군 학생부교과 농어촌학생전형으로 지원할 수 있다고 잘못된 정보를 제공하고 있습니다. 원문에서는 예술고 학생이 지원할 수 없다고 명확히 언급하고 있습니다.
+2. Consistency Score (1-5): 1
+   - 설명: 생성된 응답은 원문과 상반된 내용을 포함하고 있어 일관성이 없습니다. 원문에서 예술고 학생의 지원 불가능성을 명시했음에도 불구하고, 생성된 응답은 지원 가능하다고 주장하고 있습니다.
+3. Relevance Score (1-5): 2
+   - 설명: 생성된 응답은 원문과 관련된 정보를 제공하려고 하지만, 잘못된 주장을 바탕으로 하고 있어 관련성이 낮습니다. 원문에서의 핵심 정보는 예술고 학생의 지원 불가능성입니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 문법적으로 잘 구성되어 있으며, 읽기에도 무리가 없습니다. 그러나 내용의 정확성 문제로 인해 전체적인 평가에 영향을 미칩니다.
+5. Coherence Score (1-5): 3
+   - 설명: 생성된 응답은 여러 정보를 나열하고 있지만, 잘못된 주장을 바탕으로 하고 있어 논리적인 일관성이 떨어집니다. 원문과의 연결이 약해 보입니다.
+6. Accuracy Score (1-5): 1
+   - 설명: 생성된 응답은 원문에서 제공하는 사실과 완전히 반대되는 정보를 포함하고 있어 정확성이 매우 낮습니다.
+7. Multidimensional Quality Score (1-5): 1
+   - 설명: 생성된 응답은 사실성, 일관성, 관련성, 정확성 등 모든 차원에서 매우 낮은 점수를 받습니다.
+8. Semantic Appropriateness Score (1-5): 1
+   - 설명: 생성된 응답은 원문과 의미적으로 완전히 상반된 내용을 담고 있어 의미적으로 부적절합니다.
+9. Understandability Score (1-5): 4
+   - 설명: 문장은 명확하게 작성되어 있어 이해하기는 쉽지만, 잘못된 정보로 인해 전체적인 이해에 혼란을 줄 수 있습니다.
+{
+    "Factuality Score": 1,
+    "Consistency Score": 1,
+    "Relevance Score": 2,
+    "Fluency Score": 4,
+    "Coherence Score": 3,
+    "Accuracy Score": 1,
+    "Multidimensional Quality Score": 1,
+    "Semantic Appropriateness Score": 1,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C211" t="n">
+        <v>0.7314879379631746</v>
+      </c>
+      <c r="D211" t="inlineStr">
+        <is>
+          <t>예술고 학생이 나군 학생부교과 농어촌학생전형으로 지원할 수 있나요?</t>
+        </is>
+      </c>
+      <c r="E211" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 예, 예술고 학생은 나군 학생부교과 농어촌학생전형으로 지원 가능합니다.
+관련 정보:
+- **고교유형별 지원자격**에서 나군 (농어촌학생전형)의 경우:
+  - 일반고는 지원 가능
+  - 자율고는 지원 가능
+  - 특수목적고의 과학고, 국제고, 외국어고는 지원 가능
+  - 특수목적고의 예술고는 지원 불가능 (단, 이 부분은 예외적으로 지원이 가능한 경우도 있으므로 확인 필요)
+  - 특수목적고의 체육고는 지원 가능
+  - 특성화고의 특성(직업)은 지원 가능
+  - 특성화고의 특성(대안)은 지원 가능
+  - 영재학교는 지원 가능
+  - 기타의 학력인정고는 지원 가능
+  - 기타의 방송통신고는 지원 불가능
+  - 기타의 각종학교는 지원 가능
+  - 검정고시는 지원 불가능
+  - 외국고는 지원 불가능
+따라서 예술고 학생은 일반고, 자율고, 체육고, 특성화고(특성: 직업), 기타의 학력인정고 등에서 지원이 가능합니다. 하지만 특수목적고의 예술고에서는 지원이 불가능하므로 주의해야 합니다.
+추가적으로, 지원 자격에 대한 세부 사항이나 변경사항은 공식 홈페이지를 확인하는 것이 가장 정확할 것입니다.</t>
+        </is>
+      </c>
+      <c r="F211" t="inlineStr">
+        <is>
+          <t>아니요, 예술고 학생은 나군 학생부교과 농어촌학생전형으로 지원할 수 없습니다. 지원자격에 따르면 농어촌지역 또는 도서·벽지에 소재한 특수목적고 중 과학고, 국제고, 외국어고, 체육고, 예술고 출신자는 지원할 수 없습니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="212">
+      <c r="A212" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B212" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 2
+   - 설명: 생성된 응답에서 "남은 268～271cm"라는 부분은 사실과 다릅니다. 원본 텍스트에서는 4등급의 기록이 218~221 cm로 명시되어 있으며, 이 부분이 잘못 전달되었습니다.
+2. Consistency Score (1-5): 2
+   - 설명: 생성된 응답은 원본 텍스트와 일치하지 않는 정보를 포함하고 있습니다. "남은 268～271cm"라는 기록은 원본과 상충하며, 이로 인해 일관성이 떨어집니다.
+3. Relevance Score (1-5): 5
+   - 설명: 생성된 응답은 원본 텍스트의 주제와 관련이 있으며, 4등급의 기록과 배점에 대한 정보를 제공하고 있습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 문법적으로 올바르며 읽기 쉬운 구조를 가지고 있습니다. 다만, "여은"이라는 표현이 어색하게 사용되었습니다.
+5. Coherence Score (1-5): 3
+   - 설명: 생성된 응답은 정보가 연결되어 있지만, "남은 268～271cm"라는 잘못된 정보로 인해 전체적인 일관성이 떨어집니다.
+6. Accuracy Score (1-5): 2
+   - 설명: 생성된 응답은 기록에 대한 정확한 정보를 제공하지 않으며, 잘못된 수치를 포함하고 있습니다. 이는 정확성에 큰 영향을 미칩니다.
+7. Multidimensional Quality Score (1-5): 3
+   - 설명: 생성된 응답은 일부 차원에서 양호하지만, 사실성과 정확성에서 큰 문제가 있어 전반적인 품질이 떨어집니다.
+8. Semantic Appropriateness Score (1-5): 3
+   - 설명: 생성된 응답은 주제와 관련이 있지만, 잘못된 정보로 인해 의미 전달이 부정확합니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 이해하기 쉽지만, 잘못된 정보로 인해 혼란을 줄 수 있습니다.
+{
+    "Factuality Score": 2,
+    "Consistency Score": 2,
+    "Relevance Score": 5,
+    "Fluency Score": 4,
+    "Coherence Score": 3,
+    "Accuracy Score": 2,
+    "Multidimensional Quality Score": 3,
+    "Semantic Appropriateness Score": 3,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C212" t="n">
+        <v>0.8505985549761438</v>
+      </c>
+      <c r="D212" t="inlineStr">
+        <is>
+          <t>레저스포츠학과 여자 제자리 멀리뛰기 4등급 기록과 배점을 알려줘.</t>
+        </is>
+      </c>
+      <c r="E212" t="inlineStr">
+        <is>
+          <t>4등급의 레저스포츠학과 여자 제자리 멀리뛰기 기록은 남은 268～271cm, 여은 218~221cm이며, 배점은 275점입니다.</t>
+        </is>
+      </c>
+      <c r="F212" t="inlineStr">
+        <is>
+          <t>레저스포츠학과 여자 제자리 멀리뛰기 4등급 기록과 배점은 다음과 같습니다:
+- 기록: 218~221 cm
+- 배점: 275점</t>
+        </is>
+      </c>
+    </row>
+    <row r="213">
+      <c r="A213" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B213" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 5
+   - 생성된 응답은 출결 반영 비율이 12%라는 사실을 정확하게 반영하고 있으며, 추가적인 설명도 사실에 기반하고 있습니다.
+2. Consistency Score (1-5): 5
+   - 생성된 응답은 원본 텍스트와 일관되며, 출결 반영 비율에 대한 정보가 일치합니다.
+3. Relevance Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 주요 내용을 직접적으로 다루고 있으며, 관련성이 높습니다.
+4. Fluency Score (1-5): 5
+   - 생성된 응답은 문법적으로 정확하고 자연스럽게 읽히며, 유창합니다.
+5. Coherence Score (1-5): 5
+   - 생성된 응답은 논리적으로 잘 구성되어 있으며, 내용이 일관되게 연결되어 있습니다.
+6. Accuracy Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 사실을 정확하게 반영하고 있으며, 추가적인 정보도 정확합니다.
+7. Multidimensional Quality Score (1-5): 5
+   - 생성된 응답은 모든 품질 차원에서 우수한 성과를 보이고 있습니다.
+8. Semantic Appropriateness Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 의미와 맥락에 완전히 부합하며, 적절합니다.
+9. Understandability Score (1-5): 5
+   - 생성된 응답은 명확하고 이해하기 쉬우며, 독자가 쉽게 따라갈 수 있습니다.
+{
+    "Factuality Score": 5,
+    "Consistency Score": 5,
+    "Relevance Score": 5,
+    "Fluency Score": 5,
+    "Coherence Score": 5,
+    "Accuracy Score": 5,
+    "Multidimensional Quality Score": 5,
+    "Semantic Appropriateness Score": 5,
+    "Understandability Score": 5
+}</t>
+        </is>
+      </c>
+      <c r="C213" t="n">
+        <v>0.7009749052661024</v>
+      </c>
+      <c r="D213" t="inlineStr">
+        <is>
+          <t>동의대학교 경기지도학과 출결 반영 비율을 알려줘.</t>
+        </is>
+      </c>
+      <c r="E213" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대학교 경기지도학과에서는 출결의 반영 비율이 12%입니다. 이는 전형요소 반영비율에서 학생부 교과, 출결, 서류 등의 요소 중 출결에 대한 부분으로, 전체 반영 비율 중에서 12%를 차지하고 있습니다.</t>
+        </is>
+      </c>
+      <c r="F213" t="inlineStr">
+        <is>
+          <t>경기지도학과의 출결 반영 비율은 12%입니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="214">
+      <c r="A214" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B214" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 내용을 정확하게 반영하고 있습니다. 모집 인원과 학과명, 학년도 모두 일치합니다.
+2. Consistency Score (1-5): 5
+   - 생성된 응답은 원본 텍스트와 일관성이 있으며, 정보가 서로 충돌하지 않습니다.
+3. Relevance Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 주요 내용을 직접적으로 다루고 있어 매우 관련성이 높습니다.
+4. Fluency Score (1-5): 5
+   - 생성된 응답은 문법적으로 정확하고 자연스럽게 읽히며, 유창합니다.
+5. Coherence Score (1-5): 5
+   - 생성된 응답은 논리적으로 잘 구성되어 있으며, 일관된 흐름을 가지고 있습니다.
+6. Accuracy Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 사실을 완벽하게 반영하고 있으며, 정확합니다.
+7. Multidimensional Quality Score (1-5): 5
+   - 모든 품질 차원에서 생성된 응답은 우수한 성과를 보이고 있습니다.
+8. Semantic Appropriateness Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 의미와 맥락에 완전히 부합합니다.
+9. Understandability Score (1-5): 5
+   - 생성된 응답은 매우 명확하고 이해하기 쉬우며, 독자가 쉽게 따라갈 수 있습니다.
+{
+    "Factuality Score": 5,
+    "Consistency Score": 5,
+    "Relevance Score": 5,
+    "Fluency Score": 5,
+    "Coherence Score": 5,
+    "Accuracy Score": 5,
+    "Multidimensional Quality Score": 5,
+    "Semantic Appropriateness Score": 5,
+    "Understandability Score": 5
+}</t>
+        </is>
+      </c>
+      <c r="C214" t="n">
+        <v>0.9452619784692259</v>
+      </c>
+      <c r="D214" t="inlineStr">
+        <is>
+          <t>동의대 2024학년도 가군에서 물리치료학과에 몇 명을 모집하나요?</t>
+        </is>
+      </c>
+      <c r="E214" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대학교 가군에서 물리치료학과는 4명을 모집합니다.</t>
+        </is>
+      </c>
+      <c r="F214" t="inlineStr">
+        <is>
+          <t>동의대학교 2024학년도 가군에서 물리치료학과는 4명을 모집합니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="215">
+      <c r="A215" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B215" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 4
+   - 설명: 생성된 응답은 실기고사 일정인 2024년 1월 17일(수)을 정확하게 반영하고 있습니다. 그러나 추가 정보로 제공된 모집단위와 실기종목, 배점에 대한 내용은 원본 텍스트에 포함되어 있지 않으므로, 이 부분에서 약간의 부정확성이 있습니다.
+2. Consistency Score (1-5): 3
+   - 설명: 생성된 응답은 원본 텍스트의 날짜 정보와 일치하지만, 추가 정보는 원본 텍스트와 일관성이 없습니다. 따라서 일관성 점수는 중간 정도로 평가됩니다.
+3. Relevance Score (1-5): 5
+   - 설명: 생성된 응답은 원본 텍스트의 주제와 관련이 깊으며, 실기고사 일정에 대한 정보를 직접적으로 다루고 있습니다. 추가 정보도 관련성이 높습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 문법적으로 잘 구성되어 있으며, 읽기에도 무리가 없습니다. 다만, 약간의 어색한 표현이 있을 수 있습니다.
+5. Coherence Score (1-5): 4
+   - 설명: 생성된 응답은 논리적으로 잘 구성되어 있으며, 정보가 명확하게 전달됩니다. 그러나 추가 정보가 원본 텍스트와 연결되지 않아 약간의 일관성이 떨어질 수 있습니다.
+6. Accuracy Score (1-5): 4
+   - 설명: 실기고사 일정에 대한 정보는 정확하지만, 추가 정보는 원본 텍스트에 포함되어 있지 않으므로 정확성 점수는 약간 낮습니다.
+7. Multidimensional Quality Score (1-5): 4
+   - 설명: 전반적으로 생성된 응답은 높은 품질을 보이며, 주제와 관련된 정보가 잘 전달됩니다. 그러나 원본 텍스트와의 일관성 문제로 인해 완벽하지는 않습니다.
+8. Semantic Appropriateness Score (1-5): 4
+   - 설명: 생성된 응답은 원본 텍스트의 의미와 맥락에 적절하게 부합합니다. 그러나 추가 정보가 원본 텍스트와 관련이 없기 때문에 약간의 부적절성이 있습니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 이해하기 쉽고 명확하게 작성되었습니다. 그러나 추가 정보가 원본 텍스트와 연결되지 않아 약간의 혼란을 줄 수 있습니다.
+{
+    "Factuality Score": 4,
+    "Consistency Score": 3,
+    "Relevance Score": 5,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 4,
+    "Multidimensional Quality Score": 4,
+    "Semantic Appropriateness Score": 4,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C215" t="n">
+        <v>0.4584727508786735</v>
+      </c>
+      <c r="D215" t="inlineStr">
+        <is>
+          <t>2024학년도 나군 실기/실적 전형에서 디자인조형학과의 실기고사 일정은 언제인가요?</t>
+        </is>
+      </c>
+      <c r="E215" t="inlineStr">
+        <is>
+          <t>2024학년도 나군 실기/실적 전형에서 디자인조형학과의 실기고사는 2024년 1월 17일(수)에 진행됩니다.
+추가 정보:
+- 모집단위: 시각디자인 / 산업디자인 / 공예디자인
+- 실기종목: 기초디자인, 사고의 전환 중 선택 (택1)
+- 종목별 배점(비율): 기초디자인 700점 (70%), 사고의 전환 650점 (65%)
+실기고사 일정을 확인하시려면 [입학 안내 홈페이지](http://ipsi.deu.ac.kr) 또는 [UWAY APPLY 사이트](http://www.uwayapply.com)를 참조해 주세요.</t>
+        </is>
+      </c>
+      <c r="F215" t="inlineStr">
+        <is>
+          <t>2024. 01. 17.(수) 입니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="216">
+      <c r="A216" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B216" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 2
+   - 설명: 생성된 응답은 수능 최저 학력 기준이 없다는 사실을 명확히 반영하지 않고 있으며, 구체적인 입학 기준에 대한 정보가 없다고 언급하고 있습니다. 그러나 수능 최저 기준이 없다는 점을 명확히 전달하지 않아 사실과 일치하지 않습니다.
+2. Consistency Score (1-5): 2
+   - 설명: 생성된 응답은 수능 최저 기준이 없다는 원문과 일치하지 않으며, 추가적인 정보(전공, 모집 인원 등)를 제공하지만, 원문과의 일관성이 부족합니다.
+3. Relevance Score (1-5): 4
+   - 설명: 생성된 응답은 동의대학교의 응용화학과에 대한 정보를 제공하고 있으나, 수능 최저 기준에 대한 질문에 대한 직접적인 답변이 부족합니다. 그러나 관련된 정보는 포함되어 있습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 구조를 가지고 있습니다. 다만, 일부 문장이 길어 가독성이 떨어질 수 있습니다.
+5. Coherence Score (1-5): 3
+   - 설명: 생성된 응답은 여러 정보를 포함하고 있지만, 주제 간의 연결이 다소 약해 보입니다. 수능 최저 기준에 대한 질문에 대한 답변이 명확하지 않아 일관성이 떨어집니다.
+6. Accuracy Score (1-5): 2
+   - 설명: 수능 최저 기준이 없다는 사실을 명확히 반영하지 못하고 있으며, 잘못된 정보가 포함되어 있습니다. 따라서 정확성 점수는 낮습니다.
+7. Multidimensional Quality Score (1-5): 2
+   - 설명: 여러 차원에서 응답의 질이 낮습니다. 사실성, 일관성, 정확성 모두 부족하여 전반적인 품질이 떨어집니다.
+8. Semantic Appropriateness Score (1-5): 3
+   - 설명: 생성된 응답은 의미적으로 적절한 부분도 있지만, 원문과의 일치성이 부족하여 의미 전달이 완벽하지 않습니다.
+9. Understandability Score (1-5): 4
+   - 설명: 전반적으로 이해하기 쉬운 내용이지만, 주제와 관련된 정보가 혼재되어 있어 다소 혼란스러울 수 있습니다.
+{
+    "Factuality Score": 2,
+    "Consistency Score": 2,
+    "Relevance Score": 4,
+    "Fluency Score": 4,
+    "Coherence Score": 3,
+    "Accuracy Score": 2,
+    "Multidimensional Quality Score": 2,
+    "Semantic Appropriateness Score": 3,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C216" t="n">
+        <v>0.3234386670530188</v>
+      </c>
+      <c r="D216" t="inlineStr">
+        <is>
+          <t>동의대학교의 2024학년도 응용화학과의 수능 최저기준은 어떻게 되나요?</t>
+        </is>
+      </c>
+      <c r="E216" t="inlineStr">
+        <is>
+          <t>提供的信息中没有直接提到东义大学2024学年应用化学专业的具体录取标准，包括最低分数要求。根据您给出的信息，可以确定的是：
+1. 应用化学专业属于工科学院（공과대학）。
+2. 在2024年的招生计划中，该专业有56个名额。
+但是，关于具体的最低录取分数线（수능 최저기준），信息中并没有明确列出。通常情况下，大学会在其官方网站上公布详细的招生简章和最低录取标准。
+建议您直接访问东义大学的官方网站 [https://ipsi.deu.ac.kr/main.do](https://ipsi.deu.ac.kr/main.do) 查看最新的招生公告或联系学校的招生办公室以获取准确的信息。</t>
+        </is>
+      </c>
+      <c r="F216" t="inlineStr">
+        <is>
+          <t>수능 최저 학력 기준은 없습니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="217">
+      <c r="A217" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B217" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 4
+   - 설명: 생성된 응답은 동의대학교 2024학년도에 신설된 학과 목록을 정확하게 나열하고 있으며, 각 학과에 "(신설)"이라는 추가 정보를 제공하고 있습니다. 그러나 "총 4개의 신설 학과/계열을 추가하였습니다"라는 문장은 사실과 다릅니다. 실제로는 5개의 학과가 신설되었습니다.
+2. Consistency Score (1-5): 3
+   - 설명: 생성된 응답은 신설된 학과 목록을 일관되게 제시하고 있지만, 마지막 문장에서 "총 4개의 신설 학과/계열"이라는 표현이 사실과 일치하지 않아 일관성이 떨어집니다.
+3. Relevance Score (1-5): 5
+   - 설명: 생성된 응답은 원본 텍스트의 주요 내용을 직접적으로 다루고 있으며, 신설된 학과에 대한 정보를 명확하게 전달하고 있습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 문장 구조를 가지고 있습니다. 다만, "(신설)"이라는 표현이 반복적으로 사용되어 약간의 어색함이 느껴질 수 있습니다.
+5. Coherence Score (1-5): 4
+   - 설명: 생성된 응답은 논리적으로 잘 구성되어 있으며, 신설된 학과 목록과 관련된 정보를 명확하게 전달하고 있습니다. 그러나 마지막 문장에서의 정보가 부정확하여 완전한 일관성을 제공하지는 않습니다.
+6. Accuracy Score (1-5): 3
+   - 설명: 신설된 학과 목록은 정확하지만, "총 4개의 신설 학과/계열"이라는 부분이 사실과 다르기 때문에 정확성 점수가 낮아졌습니다.
+7. Multidimensional Quality Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 높은 품질을 가지고 있으나, 정확성과 일관성에서 약간의 문제가 있어 점수가 다소 낮아졌습니다.
+8. Semantic Appropriateness Score (1-5): 4
+   - 설명: 생성된 응답은 원본 텍스트의 의미와 맥락에 잘 부합하며, 신설된 학과에 대한 정보를 적절하게 전달하고 있습니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 명확하고 이해하기 쉬운 방식으로 정보를 전달하고 있으며, 전반적으로 잘 구성되어 있습니다.
+{
+    "Factuality Score": 4,
+    "Consistency Score": 3,
+    "Relevance Score": 5,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 3,
+    "Multidimensional Quality Score": 4,
+    "Semantic Appropriateness Score": 4,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C217" t="n">
+        <v>0.7865078178651189</v>
+      </c>
+      <c r="D217" t="inlineStr">
+        <is>
+          <t>동의대학교 2024학년도에 신설된 학과는 무엇이 있나요?</t>
+        </is>
+      </c>
+      <c r="E217" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대학교에서 신설된 학과로는 다음과 같습니다:
+1. 심리학과 (신설)
+2. 스마트항만물류학과 (신설) 
+3. 창업투자경영학과 (신설)
+4. 라이프융합학부 (신설)(스타트업창업투자학, 뷰티비즈니스학, 라이프생활문화학)
+위와 같이 2024학년도에 동의대학교에서는 총 4개의 신설 학과/계열을 추가하였습니다.</t>
+        </is>
+      </c>
+      <c r="F217" t="inlineStr">
+        <is>
+          <t>동의대학교 2024학년도에 신설된 학과는 다음과 같습니다:
+1. 심리학과
+2. 스마트항만물류학과
+3. 창업투자경영학과
+4. 라이프융합학부 (스타트업창업투자학, 뷰티비즈니스학, 라이프생활문화학)
+5. 경기지도학과</t>
+        </is>
+      </c>
+    </row>
+    <row r="218">
+      <c r="A218" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B218" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 내용을 정확하게 반영하고 있으며, 전형요소 반영비율에 대한 정보가 일치합니다.
+2. Consistency Score (1-5): 5
+   - 생성된 응답은 원본 텍스트와 일관되며, 추가적인 설명이 포함되어 있지만 원본의 정보와 모순되지 않습니다.
+3. Relevance Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 주요 내용을 직접적으로 다루고 있으며, 관련성이 높습니다.
+4. Fluency Score (1-5): 5
+   - 생성된 응답은 문법적으로 정확하고 읽기 쉬우며, 자연스러운 표현을 사용하고 있습니다.
+5. Coherence Score (1-5): 5
+   - 생성된 응답은 논리적으로 잘 구성되어 있으며, 정보의 흐름이 매끄럽습니다.
+6. Accuracy Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 사실을 정확하게 반영하고 있으며, 잘못된 정보가 없습니다.
+7. Multidimensional Quality Score (1-5): 5
+   - 생성된 응답은 모든 품질 차원에서 우수한 성과를 보이고 있습니다.
+8. Semantic Appropriateness Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 의미와 맥락에 완전히 부합하며, 적절한 의미를 전달하고 있습니다.
+9. Understandability Score (1-5): 5
+   - 생성된 응답은 매우 명확하고 이해하기 쉬우며, 정보가 잘 전달됩니다.
+{
+    "Factuality Score": 5,
+    "Consistency Score": 5,
+    "Relevance Score": 5,
+    "Fluency Score": 5,
+    "Coherence Score": 5,
+    "Accuracy Score": 5,
+    "Multidimensional Quality Score": 5,
+    "Semantic Appropriateness Score": 5,
+    "Understandability Score": 5
+}</t>
+        </is>
+      </c>
+      <c r="C218" t="n">
+        <v>0.8467866173236462</v>
+      </c>
+      <c r="D218" t="inlineStr">
+        <is>
+          <t>동의대학교 2024학년도 나군의 학생부종합(성인학습자전형)의 전형요소 반영비율은 어떻게 되나요?</t>
+        </is>
+      </c>
+      <c r="E218" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대학교 나군의 학생부종합(성인학습자전형)의 전형요소 반영비율은 다음과 같습니다:
+- 서류: 70%
+- 면접: 30%
+이 비율로 지원자의 학업역량과 전공적합성을 평가하게 됩니다.</t>
+        </is>
+      </c>
+      <c r="F218" t="inlineStr">
+        <is>
+          <t>동의대학교 2024학년도 나군의 학생부종합(성인학습자전형)의 전형요소 반영비율은 서류 70%, 면접 30%입니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="219">
+      <c r="A219" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B219" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 4
+   - 설명: 생성된 응답은 동의대학교에서 수능 가산점을 적용하는 모집단위와 가산점 부여 조건을 정확하게 반영하고 있습니다. 그러나 "모집단위은"이라는 표현에서 문법적 오류가 있어 약간의 부정확성이 있습니다.
+2. Consistency Score (1-5): 4
+   - 설명: 생성된 응답은 원본 텍스트와 일관되게 정보를 제공하고 있습니다. 다만, "모집단위은"이라는 표현이 원본 텍스트의 문맥과 일치하지 않아 약간의 불일치가 발생합니다.
+3. Relevance Score (1-5): 5
+   - 설명: 생성된 응답은 원본 텍스트의 주요 내용과 관련이 깊으며, 수능 가산점에 대한 정보를 직접적으로 다루고 있습니다.
+4. Fluency Score (1-5): 3
+   - 설명: 생성된 응답은 전반적으로 이해할 수 있지만, "모집단위은"과 같은 문법적 오류로 인해 유창성이 떨어집니다. 문장이 매끄럽지 않은 부분이 있습니다.
+5. Coherence Score (1-5): 4
+   - 설명: 생성된 응답은 논리적으로 잘 구성되어 있으며, 정보의 흐름이 자연스럽습니다. 그러나 일부 문장 구조가 다소 어색하여 완전한 일관성을 제공하지는 않습니다.
+6. Accuracy Score (1-5): 4
+   - 설명: 응답은 원본 텍스트의 사실을 잘 반영하고 있으나, 문법적 오류로 인해 정확성이 약간 떨어집니다.
+7. Multidimensional Quality Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 높은 품질을 유지하고 있으며, 사실성, 일관성, 관련성, 정확성에서 좋은 점수를 받았습니다. 그러나 유창성과 문법적 정확성에서 약간의 개선이 필요합니다.
+8. Semantic Appropriateness Score (1-5): 4
+   - 설명: 생성된 응답은 원본 텍스트의 의미와 맥락에 잘 부합하지만, 문법적 오류로 인해 의미 전달이 약간 저해됩니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 이해하기 쉽지만, 문법적 오류로 인해 일부 문장이 혼란스러울 수 있습니다.
+{
+    "Factuality Score": 4,
+    "Consistency Score": 4,
+    "Relevance Score": 5,
+    "Fluency Score": 3,
+    "Coherence Score": 4,
+    "Accuracy Score": 4,
+    "Multidimensional Quality Score": 4,
+    "Semantic Appropriateness Score": 4,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C219" t="n">
+        <v>0.7612783397062637</v>
+      </c>
+      <c r="D219" t="inlineStr">
+        <is>
+          <t>동의대학교에서는 어떤 학과에서 수능 가산점을 적용하나요?</t>
+        </is>
+      </c>
+      <c r="E219" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 동의대학교에서는 공과대학, ICT융합공과대학 모집단위에 수학(미적분 또는 기하) 응시자의 경우 수학 표준점수에 10% 가산점을 부여합니다.
+이 정보는 "수능 반영영역 및 가산점" 섹션에서 확인할 수 있습니다:
+- 모집단위은 공과대학, ICT융합공과대학 모집단위이며,
+- 수능 반영영역 및 잔영비율은 국어(화법과작문 또는 언어와매체) 25% + 수학(확률과통계 또는 미적분 또는 기하) 25% + 영어 25% + 탐구(사회탐구 또는 과학탐구 또는 직업탐구 - 2개 과목 합) 25%이며,
+- 가산점은 수학(미적분 또는 기하) 응시자 : 수학 취득 표준점수의 10% 가산점이다.</t>
+        </is>
+      </c>
+      <c r="F219" t="inlineStr">
+        <is>
+          <t>동의대학교에서는 다음 모집단위에서 수능 가산점을 적용합니다:
+- 의료·보건·생활대학
+- 공과대학
+- ICT융합공과대학
+이들 모집단위에서 수학(미적분 또는 기하)을 응시한 경우, 수학 취득 표준점수의 10%를 가산점으로 부여합니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="220">
+      <c r="A220" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B220" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 1
+   - 설명: 생성된 응답은 수능 성적을 100% 반영한다고 명시된 원문과 상충하는 내용을 포함하고 있습니다. 원문에서는 수능 성적을 100% 반영한다고 했지만, 생성된 응답에서는 각 영역을 25%씩 반영한다고 설명하고 있어 사실과 다릅니다.
+2. Consistency Score (1-5): 1
+   - 설명: 생성된 응답은 원문과 일관성이 없습니다. 원문은 수능 성적을 100% 반영한다고 명시하고 있지만, 생성된 응답은 각 과목의 비율을 다르게 제시하고 있어 서로 모순됩니다.
+3. Relevance Score (1-5): 3
+   - 설명: 생성된 응답은 수능 성적 반영 방법에 대한 정보를 제공하고 있지만, 원문에서 요구하는 100% 반영이라는 핵심 정보를 간과하고 있습니다. 따라서 관련성은 있지만, 핵심 내용이 누락되어 있습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 문법적으로 잘 작성되어 있으며, 읽기에도 무리가 없습니다. 그러나 일부 표현이 다소 복잡할 수 있습니다.
+5. Coherence Score (1-5): 3
+   - 설명: 생성된 응답은 구조적으로 나열되어 있지만, 원문과의 일관성이 부족하여 전체적인 논리적 흐름이 약간 떨어집니다.
+6. Accuracy Score (1-5): 1
+   - 설명: 생성된 응답은 원문에서 제시한 사실과 크게 다르며, 잘못된 정보를 포함하고 있습니다. 수능 성적 반영 비율에 대한 정보가 잘못되었습니다.
+7. Multidimensional Quality Score (1-5): 1
+   - 설명: 생성된 응답은 사실성, 일관성, 정확성 등 여러 차원에서 낮은 점수를 받았습니다. 전반적으로 원문과의 불일치가 심각합니다.
+8. Semantic Appropriateness Score (1-5): 2
+   - 설명: 생성된 응답은 원문과의 의미적 일치가 부족합니다. 원문에서 강조하는 100% 반영이라는 의미가 왜곡되었습니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 이해하기 쉬운 구조를 가지고 있지만, 원문과의 불일치로 인해 혼란을 줄 수 있습니다.
+{
+    "Factuality Score": 1,
+    "Consistency Score": 1,
+    "Relevance Score": 3,
+    "Fluency Score": 4,
+    "Coherence Score": 3,
+    "Accuracy Score": 1,
+    "Multidimensional Quality Score": 1,
+    "Semantic Appropriateness Score": 2,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C220" t="n">
+        <v>0.7230178385734867</v>
+      </c>
+      <c r="D220" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대의 가군에서 수능 성적을 어떻게 반영하나요?</t>
+        </is>
+      </c>
+      <c r="E220" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대학교의 가군에서는 수능 성적을 다음과 같이 반영합니다:
+1. **모집단위**: 전 모집단위 (레저스포츠학과, 태권도학과 제외)
+2. **반영 영역 및 비율**:
+   - 국어(화법과작문 또는 언어와매체) : 25%
+   - 수학(확률과통계 또는 미적분 또는 기하) : 25%
+   - 영어 : 25%
+   - 탐구 (사회탐구 또는 과학탐구 또는 직업탐구 중 2개 과목 합) : 25%
+3. **가산점**: 가산점이 없습니다.
+따라서, 가군에서는 수능 성적의 네 가지 영역을 각각 25%씩 반영하며, 추가적인 가산점은 적용되지 않습니다.</t>
+        </is>
+      </c>
+      <c r="F220" t="inlineStr">
+        <is>
+          <t>동의대학교의 2024학년도 가군 수능(일반학생전형)에서는 수능 성적을 100% 반영합니다. 자세한 수능 성적 반영 방법은 '38페이지 Ⅴ. 수능성적 반영방법'을 참조하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="221">
+      <c r="A221" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B221" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 5
+   - 설명: 생성된 응답은 원본 텍스트의 사실을 정확하게 반영하고 있으며, 실기고사 날짜와 관련된 모든 정보를 포함하고 있습니다.
+2. Consistency Score (1-5): 5
+   - 설명: 생성된 응답은 원본 텍스트와 일관되며, 추가된 정보도 원본의 내용과 충돌하지 않습니다.
+3. Relevance Score (1-5): 5
+   - 설명: 생성된 응답은 원본 텍스트의 주요 주제와 관련이 있으며, 실기고사 일정에 대한 정보를 직접적으로 다루고 있습니다.
+4. Fluency Score (1-5): 5
+   - 설명: 생성된 응답은 문법적으로 정확하고 읽기 쉬우며, 자연스러운 표현을 사용하고 있습니다.
+5. Coherence Score (1-5): 5
+   - 설명: 생성된 응답은 논리적으로 잘 구성되어 있으며, 정보의 흐름이 매끄럽습니다.
+6. Accuracy Score (1-5): 5
+   - 설명: 생성된 응답은 원본 텍스트의 사실을 정확하게 반영하고 있으며, 잘못된 정보가 없습니다.
+7. Multidimensional Quality Score (1-5): 5
+   - 설명: 생성된 응답은 모든 품질 차원에서 우수한 성능을 보이며, 사실성, 일관성, 관련성, 정확성 모두에서 높은 점수를 받았습니다.
+8. Semantic Appropriateness Score (1-5): 5
+   - 설명: 생성된 응답은 원본 텍스트의 의미와 맥락에 완전히 부합하며, 적절한 의미를 전달하고 있습니다.
+9. Understandability Score (1-5): 5
+   - 설명: 생성된 응답은 명확하고 이해하기 쉬우며, 정보가 잘 전달됩니다.
+{
+    "Factuality Score": 5,
+    "Consistency Score": 5,
+    "Relevance Score": 5,
+    "Fluency Score": 5,
+    "Coherence Score": 5,
+    "Accuracy Score": 5,
+    "Multidimensional Quality Score": 5,
+    "Semantic Appropriateness Score": 5,
+    "Understandability Score": 5
+}</t>
+        </is>
+      </c>
+      <c r="C221" t="n">
+        <v>0.8405598865573319</v>
+      </c>
+      <c r="D221" t="inlineStr">
+        <is>
+          <t>동의대 2024학년도 가군 실기고사 날짜는 언제인가요?</t>
+        </is>
+      </c>
+      <c r="E221" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대학교 가군 실기고사는 2024년 1월 16일(화)에 진행됩니다. 
+참조 정보:
+전형일정에서 내용은 &lt;가&gt;군 실기고사 레저스포츠학과 태권도학과이며, 일정은 2024. 01. 16.(화)입니다.</t>
+        </is>
+      </c>
+      <c r="F221" t="inlineStr">
+        <is>
+          <t>동의대학교 2024학년도 가군 실기고사는 2024년 1월 16일(화)에 진행됩니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="222">
+      <c r="A222" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B222" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 2
+   - 생성된 응답은 한의예과와 경기지도학과를 제외한 다른 학과들을 언급하고 있으나, 레저스포츠학과와 태권도학과는 원본 텍스트에 포함되지 않은 잘못된 정보입니다. 따라서 사실성 점수는 낮습니다.
+2. Consistency Score (1-5): 2
+   - 생성된 응답은 원본 텍스트와 일치하지 않는 정보를 포함하고 있어 일관성이 부족합니다. 특히, 제외된 학과 목록에서 원본 텍스트와의 불일치가 있습니다.
+3. Relevance Score (1-5): 4
+   - 생성된 응답은 주제와 관련된 정보를 제공하고 있으나, 잘못된 학과 정보를 포함하고 있어 완전한 관련성을 보이지는 않습니다.
+4. Fluency Score (1-5): 4
+   - 문장은 전반적으로 잘 구성되어 있으며, 문법적으로도 큰 문제가 없습니다. 그러나 일부 표현이 다소 어색할 수 있습니다.
+5. Coherence Score (1-5): 3
+   - 응답의 구조는 비교적 일관되지만, 잘못된 정보로 인해 전체적인 논리적 흐름이 약간 손상되었습니다.
+6. Accuracy Score (1-5): 2
+   - 생성된 응답은 원본 텍스트의 사실과 일치하지 않는 부분이 많아 정확성 점수가 낮습니다.
+7. Multidimensional Quality Score (1-5): 2
+   - 여러 차원에서 응답의 질이 낮으며, 사실성, 일관성, 정확성에서 큰 문제가 있습니다.
+8. Semantic Appropriateness Score (1-5): 3
+   - 의미적으로는 어느 정도 적절하지만, 잘못된 정보로 인해 원본 텍스트의 의미와 다르게 해석될 수 있습니다.
+9. Understandability Score (1-5): 4
+   - 전반적으로 이해하기 쉬운 문장 구조를 가지고 있으나, 잘못된 정보로 인해 혼란을 줄 수 있습니다.
+{
+    "Factuality Score": 2,
+    "Consistency Score": 2,
+    "Relevance Score": 4,
+    "Fluency Score": 4,
+    "Coherence Score": 3,
+    "Accuracy Score": 2,
+    "Multidimensional Quality Score": 2,
+    "Semantic Appropriateness Score": 3,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C222" t="n">
+        <v>0.7622384359262261</v>
+      </c>
+      <c r="D222" t="inlineStr">
+        <is>
+          <t>동의대 2024학년도 나군 수능(일반학생전형) 전형에서는 어떤 모집단위가 제외되나요?</t>
+        </is>
+      </c>
+      <c r="E222" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대학교 나군 수능(일반학생전형) 전형에서 디자인조형학과, 체육학과, 레저스포츠학과, 태권도학과는 제외됩니다. 
+이러한 결론은 다음과 같은 정보에서 도출되었습니다:
+- 나군 수능(일반학생전형) 전형료 항목에서 "모집단위은 전 모집단위(디자인조형학과, 체육학과, 레저스포츠학과, 태권도학과 제외)"라고 명시되어 있습니다.
+- 이는 나군 수능(일반학생전형)에서 디자인조형학과, 체육학과, 레저스포츠학과, 태권도학과가 전형에서 제외된다는 것을 의미합니다.</t>
+        </is>
+      </c>
+      <c r="F222" t="inlineStr">
+        <is>
+          <t>동의대학교 2024학년도 나군 수능(일반학생전형) 전형에서는 한의예과, 디자인조형학과와 체육학과, 경기지도학과가 제외됩니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="223">
+      <c r="A223" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B223" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 내용을 정확하게 반영하고 있으며, 수능 최저기준이 적용되지 않는다는 사실을 명확히 전달하고 있습니다.
+2. Consistency Score (1-5): 5
+   - 생성된 응답은 원본 텍스트와 일관되며, 수능 최저기준이 적용되지 않는다는 정보가 일관되게 유지되고 있습니다.
+3. Relevance Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 주요 내용을 직접적으로 다루고 있으며, 관련성이 높습니다.
+4. Fluency Score (1-5): 5
+   - 생성된 응답은 문법적으로 정확하고, 읽기 쉽게 잘 구성되어 있습니다.
+5. Coherence Score (1-5): 5
+   - 생성된 응답은 논리적으로 잘 구성되어 있으며, 내용이 일관되게 연결되어 있습니다.
+6. Accuracy Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 사실을 정확하게 반영하고 있으며, 잘못된 정보가 없습니다.
+7. Multidimensional Quality Score (1-5): 5
+   - 생성된 응답은 모든 품질 차원에서 우수한 성과를 보이고 있습니다.
+8. Semantic Appropriateness Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 의미와 맥락에 완전히 부합하며, 적절한 의미를 전달하고 있습니다.
+9. Understandability Score (1-5): 5
+   - 생성된 응답은 매우 명확하고 이해하기 쉬우며, 독자가 쉽게 따라갈 수 있습니다.
+{
+    "Factuality Score": 5,
+    "Consistency Score": 5,
+    "Relevance Score": 5,
+    "Fluency Score": 5,
+    "Coherence Score": 5,
+    "Accuracy Score": 5,
+    "Multidimensional Quality Score": 5,
+    "Semantic Appropriateness Score": 5,
+    "Understandability Score": 5
+}</t>
+        </is>
+      </c>
+      <c r="C223" t="n">
+        <v>0.8471782774600501</v>
+      </c>
+      <c r="D223" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대의 다군 전형에서 수능 최저기준이 적용되나요?</t>
+        </is>
+      </c>
+      <c r="E223" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대학교의 다군 전형에서는 수능 최저기준이 적용되지 않습니다.
+이는 "전형요소 반영비율" 섹션에서 확인할 수 있습니다:
+- 다군 수능(일반학생전형) 전 모집단위에 대한 정보에서, 
+- "수능최저기준" 항목은 "수능최저기준 없음"으로 표시되어 있습니다.
+따라서 동의대학교 2024학년도 다군 전형에서는 수능 최저기준이 적용되지 않습니다.</t>
+        </is>
+      </c>
+      <c r="F223" t="inlineStr">
+        <is>
+          <t xml:space="preserve">2024학년도 동의대의 다군 전형에서는 수능 최저기준이 적용되지 않습니다. </t>
+        </is>
+      </c>
+    </row>
+    <row r="224">
+      <c r="A224" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B224" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 모든 사실을 정확하게 반영하고 있으며, 학부에서 학과로 분리된 학과 목록이 일치합니다.
+2. Consistency Score (1-5): 5
+   - 생성된 응답은 원본 텍스트와 일관되며, 모든 정보가 충돌 없이 잘 연결되어 있습니다.
+3. Relevance Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 주요 주제와 핵심 사항을 직접적으로 다루고 있어 매우 관련성이 높습니다.
+4. Fluency Score (1-5): 5
+   - 생성된 응답은 문법적으로 정확하고 읽기 쉬우며, 자연스러운 표현을 사용하고 있습니다.
+5. Coherence Score (1-5): 5
+   - 생성된 응답은 논리적으로 잘 구성되어 있으며, 정보의 흐름이 매끄럽습니다.
+6. Accuracy Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 모든 세부 사항을 정확하게 반영하고 있으며, 사실에 대한 왜곡이 없습니다.
+7. Multidimensional Quality Score (1-5): 5
+   - 생성된 응답은 사실성, 일관성, 관련성, 정확성 등 모든 품질 차원에서 우수한 성과를 보이고 있습니다.
+8. Semantic Appropriateness Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 의미와 맥락에 완전히 부합하며, 적절한 의미를 전달하고 있습니다.
+9. Understandability Score (1-5): 5
+   - 생성된 응답은 매우 명확하고 이해하기 쉬우며, 정보가 잘 전달됩니다.
+{
+    "Factuality Score": 5,
+    "Consistency Score": 5,
+    "Relevance Score": 5,
+    "Fluency Score": 5,
+    "Coherence Score": 5,
+    "Accuracy Score": 5,
+    "Multidimensional Quality Score": 5,
+    "Semantic Appropriateness Score": 5,
+    "Understandability Score": 5
+}</t>
+        </is>
+      </c>
+      <c r="C224" t="n">
+        <v>0.838195992554762</v>
+      </c>
+      <c r="D224" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대에서 어떤 학과가 학부에서 학과로 분리되었나요?</t>
+        </is>
+      </c>
+      <c r="E224" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대학교에서는 다음과 같은 학과가 학부에서 학과로 분리되었습니다:
+1. 보육·가정상담학과 → 아동학과
+2. 경제금융보험학과 → 금융경영학과
+3. 정보경영학부(경영정보학, e비즈니스학) → 경영정보학과, e비즈니스학과
+4. 부동산금융·자산경영학과 → 부동산자산경영학부(부동산투자학, 부동산개발경영학)
+5. 기계자동차로봇부품공학부(기계공학, 로봇·자동화공학, 자동차공학) → 기계공학과, 로봇자동화공학과, 자동차공학과
+6. 신소재공학부(금속소재공학, 전기전자소재공학, 고분자소재공학) → 신소재공학과, 고분자나노공학과
+7. 건설공학부(건축학(5년제), 건축공학, 토목공학, 도시공학) → 건축학과(5년제), 건축공학과, 토목공학과, 도시공학과
+8. 화학환경공학부(화학공학, 환경공학, 응용화학) → 화학공학과, 환경공학과, 응용화학과
+9. 바이오응용공학부(의생명공학, 바이오의약공학, 식품공학) → 의생명공학과, 바이오의약공학과, 식품공학과
+10. 디자인공학부(인간·시스템디자인공학, 제품디자인공학) → 인간공학과, 제품디자인공학과
+위와 같이 2024년도에 동의대학교에서는 여러 학과가 학부에서 학과로 분리되었습니다.</t>
+        </is>
+      </c>
+      <c r="F224" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대에서 학부에서 학과로 분리된 학과는 다음과 같습니다:
+1. 보육가정상담학과 → 아동학과
+2. 경제금융보험학과 → 금융경영학과
+3. 정보경영학부 → 경영정보학과, e비즈니스학과
+4. 부동산금융자산경영학과 → 부동산자산경영학부(부동산투자학, 부동산개발경영학)
+5. 기계자동차로봇부품공학부 → 기계공학과, 로봇자동화공학과, 자동차공학과
+6. 신소재공학부(금속소재공학, 전기전자소재공학, 고분자소재공학) → 신소재공학과, 고분자나노공학과
+7. 건설공학부(건축학(5년제), 건축공학, 토목공학, 도시공학) → 건축학과(5년제), 건축공학과, 토목공학과, 도시공학과
+8. 화학환경공학부(화학공학, 환경공학, 응용화학) → 화학공학과, 환경공학과, 응용화학과
+9. 바이오응용공학부(의생명공학, 바이오의약공학, 식품공학) → 의생명공학과, 바이오의약공학과, 식품공학과
+10. 디자인공학부(인간시스템디자인공학, 제품디자인공학) → 인간공학과, 제품디자인공학과
+11. 산업융합시스템공학부(산업ICT기술공학, 산업경영빅데이터공학) → 산업경영빅데이터공학과
+12. 창의소프트웨어공학부(컴퓨터소프트웨어공학, 응용소프트웨어공학) → 소프트웨어공학부(컴퓨터소프트웨어공학, 응용소프트웨어공학)
+13. 전기전자통신공학부(전기공학, 전자공학, 정보통신공학) → 전기공학과, 전자공학과
+14. 음악학과(성악, 피아노, 관현타악, 실용음악뮤지컬, 뉴미디어작곡) → 음악학과(클래식, 실용음악, 뉴미디어작곡)</t>
+        </is>
+      </c>
+    </row>
+    <row r="225">
+      <c r="A225" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B225" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 5
+   - 생성된 응답은 원서접수 마감일과 시간을 정확하게 반영하고 있으며, 모든 사실이 일치합니다.
+2. Consistency Score (1-5): 5
+   - 생성된 응답은 원본 텍스트와 일관되며, 서로 모순되는 정보가 없습니다.
+3. Relevance Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 주요 내용을 직접적으로 다루고 있으며, 매우 관련성이 높습니다.
+4. Fluency Score (1-5): 5
+   - 생성된 응답은 문법적으로 정확하고, 읽기 쉽게 잘 구성되어 있습니다.
+5. Coherence Score (1-5): 5
+   - 생성된 응답은 논리적으로 잘 구성되어 있으며, 일관된 흐름을 유지하고 있습니다.
+6. Accuracy Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 모든 사실을 정확하게 반영하고 있습니다.
+7. Multidimensional Quality Score (1-5): 5
+   - 생성된 응답은 모든 품질 차원에서 우수한 성과를 보이고 있습니다.
+8. Semantic Appropriateness Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 의미와 맥락에 완전히 부합합니다.
+9. Understandability Score (1-5): 5
+   - 생성된 응답은 매우 명확하고 이해하기 쉬운 방식으로 정보를 전달하고 있습니다.
+{
+    "Factuality Score": 5,
+    "Consistency Score": 5,
+    "Relevance Score": 5,
+    "Fluency Score": 5,
+    "Coherence Score": 5,
+    "Accuracy Score": 5,
+    "Multidimensional Quality Score": 5,
+    "Semantic Appropriateness Score": 5,
+    "Understandability Score": 5
+}</t>
+        </is>
+      </c>
+      <c r="C225" t="n">
+        <v>0.7455367126583209</v>
+      </c>
+      <c r="D225" t="inlineStr">
+        <is>
+          <t>동의대 2024학년도 전형일정에서 원서접수 마감일은 언제인가요?</t>
+        </is>
+      </c>
+      <c r="E225" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대학교 전형일정에 따르면, 원서 접수(인터넷)의 마감일은 2024년 1월 6일(토)까지이며, 접수 마감 시간은 18시까지입니다.
+따라서 원서접수 마감일은 **2024년 1월 6일(토) 18시**까지입니다.</t>
+        </is>
+      </c>
+      <c r="F225" t="inlineStr">
+        <is>
+          <t>동의대학교 2024학년도 전형일정에서 원서접수 마감일은 2024년 1월 6일(토) 18시입니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="226">
+      <c r="A226" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B226" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 2
+   - 생성된 응답은 원본 텍스트의 전형 요소 변화에 대한 정확한 정보를 제공하지 않고, 잘못된 비율과 평가 영역을 포함하고 있습니다. 예를 들어, 학생부종합 평가영역의 변경 사항이 원본과 다릅니다.
+2. Consistency Score (1-5): 2
+   - 생성된 응답은 원본 텍스트와 일관성이 부족합니다. 전형 요소의 비율과 평가 영역이 원본과 상충하는 부분이 많아 일관성이 떨어집니다.
+3. Relevance Score (1-5): 4
+   - 생성된 응답은 전형 요소 변화에 대한 정보를 제공하고 있으나, 원본 텍스트의 세부 사항과는 다소 차이가 있어 완전한 관련성을 가지지 않습니다.
+4. Fluency Score (1-5): 4
+   - 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 구조를 가지고 있습니다. 그러나 일부 문장은 다소 복잡하게 느껴질 수 있습니다.
+5. Coherence Score (1-5): 3
+   - 생성된 응답은 논리적인 흐름이 있지만, 원본 텍스트와의 불일치로 인해 전체적인 일관성이 떨어집니다. 정보가 명확하게 연결되지 않는 부분이 있습니다.
+6. Accuracy Score (1-5): 2
+   - 생성된 응답은 원본 텍스트의 사실과 다르게 정보를 제공하고 있어 정확성이 낮습니다. 특히 전형 요소의 비율과 평가 기준이 잘못 기재되어 있습니다.
+7. Multidimensional Quality Score (1-5): 2
+   - 전반적으로 생성된 응답은 여러 품질 차원에서 낮은 점수를 받고 있으며, 사실성, 일관성, 정확성에서 큰 문제를 보이고 있습니다.
+8. Semantic Appropriateness Score (1-5): 3
+   - 생성된 응답은 의미적으로 적절한 부분도 있지만, 원본 텍스트와의 불일치로 인해 일부 내용이 부적절하게 해석될 수 있습니다.
+9. Understandability Score (1-5): 4
+   - 생성된 응답은 전반적으로 이해하기 쉬운 구조를 가지고 있으나, 정보의 정확성과 일관성이 부족하여 혼란을 줄 수 있습니다.
+{
+    "Factuality Score": 2,
+    "Consistency Score": 2,
+    "Relevance Score": 4,
+    "Fluency Score": 4,
+    "Coherence Score": 3,
+    "Accuracy Score": 2,
+    "Multidimensional Quality Score": 2,
+    "Semantic Appropriateness Score": 3,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C226" t="n">
+        <v>0.7977771603373329</v>
+      </c>
+      <c r="D226" t="inlineStr">
+        <is>
+          <t>동의대 2024학년도에 전형 요소 변화가 있는 전형은 무엇이 있나요?</t>
+        </is>
+      </c>
+      <c r="E226" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대학교에서 전형 요소 변화가 있는 주요 전형들은 다음과 같습니다:
+1. **학생부종합 평가영역 변경**
+   - 2023학년도: 인성 | 학업역량 | 전공적합성
+   - 2024학년도: 공동체역량 | 학업역량 | 전공적합성
+2. **전형요소 반영비율 변경**
+   - 학생부 교과: 
+     - 2023학년도: 8과목 중 석차등급 상위 8과목 4과목
+     - 2024학년도: 12과목 중 석차등급 상위 12과목
+   - 출결: 
+     - 2023학년도: 없음 (0%)
+     - 2024학년도: 12%
+   - 서류: 
+     - 2023학년도: 70%
+     - 2024학년도: 60%
+3. **전형요소 반영비율 변경 (실기/실적 위주 전형)**
+   - 실기: 
+     - 2023학년도: 없음 (0%)
+     - 2024학년도: 70%
+   - 수능: 
+     - 2023학년도: 30%
+     - 2024학년도: 30%
+4. **전형명 및 지원자격 변경**
+   - 학생부종합(성인학습자(정원내)전형): 
+     - 2023학년도: 특성화고 등을 졸업한 재직자
+     - 2024학년도: 고교 졸업(예정)자 또는 법령에 의한 동등 학력 소지자로서 만 30세 이상인 자
+5. **전형요소 반영비율 변경 (학생부교과 위주 전형)**
+   - 면접: 
+     - 2023학년도: 40%
+     - 2024학년도: 30%
+이러한 변화들은 주로 학생부와 실적, 출결 등의 요소를 더 강화하고 있으며, 특히 학생부의 중요성을 더욱 높이고 있습니다.</t>
+        </is>
+      </c>
+      <c r="F226" t="inlineStr">
+        <is>
+          <t xml:space="preserve">동의대 2024학년도에 전형 요소 변화가 있는 전형은 다음과 같습니다:
+1.  학생부종합(성인학습자전형):
+ - 2023학년도: 특성화고 등을 졸업한 재직자
+ - 2024학년도: 고교 졸업(예정)자 또는 법령에 의한 동등 학력 소지자로서 만 30세 이상인 자
+2.  학생부종합(조기취업형계약학과전형):
+  - 2023학년도: 서류(학생부) 70% + 면접 30%
+  - 2024학년도: 서류(학생부) 60% + 면접 40%
+3. 실기/실적(경기실적우수자전형):
+  - 2023학년도: 학생부교과(출결 포함) 30% + 서류(실적) 70%
+  - 2024학년도: 학생부교과 18% + 출결 12% + 서류(실적) 70%
+4. 반영학기(학생부교과, 실기/실적 위주전형):
+ - 2023학년도: 
+  - 고교 졸업예정자 : 1학년 1학기~3학년 1학기
+  - 고교 졸업자 : 1학년 1학기~3학년 2학기
+ - 2024학년도: 
+  -고교 졸업(예정)자 : 1학년 1학기~3학년 1학기
+5. 반영과목(학생부교과, 실기/실적 위주전형):
+ - 2023학년도:
+  -전 모집단위(한의예과 제외):
+   -국어, 수학, 영어교과 중 석차등급 상위 8과목
+   -8과목을 제외한 국어, 수학, 영어, 한국사, 사회(역사/도덕 포함), 과학교과 중 석차등급 상위 4과목
+   -반영교과 중 진로선택과목 최대 2개 이내 반영 가능
+   -진로선택과목 성적반영: A: 2등급, B: 4등급, C: 6등급
+  -한의예과:
+   -국어, 수학, 영어, 한국사, 사회(역사/도덕 포함), 과학, 한문교과 전과목
+   -진로선택과목: 미반영
+- 2024학년도:
+  -전 모집단위(한의예과 제외):
+   -국어, 수학, 영어, 한국사, 사회(역사/도덕 포함), 과학교과 중 석차등급 상위 12과목
+   -반영교과 중 진로선택과목 최대 2개 이내 반영 가능
+   -진로선택과목 성적반영: A: 1등급, B: 3등급, C: 5등급
+  -한의예과:
+   -국어, 수학, 영어, 한국사, 사회(역사/도덕 포함), 과학, 한문교과 전과목
+   -진로선택과목: 반영교과 전과목 반영
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="227">
+      <c r="A227" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B227" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 사실을 정확하게 반영하고 있으며, 실기 비중이 70%라는 정보가 일관되게 전달되고 있습니다.
+2. Consistency Score (1-5): 5
+   - 생성된 응답은 원본 텍스트와 일관되며, 추가적인 정보도 원본의 내용을 보완하는 형태로 제공되고 있습니다.
+3. Relevance Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 주제와 관련이 깊으며, 실기 비중에 대한 정보를 명확하게 다루고 있습니다.
+4. Fluency Score (1-5): 5
+   - 생성된 응답은 문법적으로 정확하고 자연스럽게 읽히며, 문장 구조도 잘 구성되어 있습니다.
+5. Coherence Score (1-5): 5
+   - 생성된 응답은 논리적으로 잘 연결되어 있으며, 정보가 명확하게 전달되고 있습니다.
+6. Accuracy Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 사실을 정확하게 반영하고 있으며, 추가적인 세부사항도 정확합니다.
+7. Multidimensional Quality Score (1-5): 5
+   - 생성된 응답은 모든 품질 차원에서 우수한 성과를 보이고 있습니다.
+8. Semantic Appropriateness Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 의미와 맥락에 완전히 부합하며, 적절한 의미를 전달하고 있습니다.
+9. Understandability Score (1-5): 5
+   - 생성된 응답은 매우 명확하고 이해하기 쉬우며, 정보가 잘 정리되어 있습니다.
+{
+    "Factuality Score": 5,
+    "Consistency Score": 5,
+    "Relevance Score": 5,
+    "Fluency Score": 5,
+    "Coherence Score": 5,
+    "Accuracy Score": 5,
+    "Multidimensional Quality Score": 5,
+    "Semantic Appropriateness Score": 5,
+    "Understandability Score": 5
+}</t>
+        </is>
+      </c>
+      <c r="C227" t="n">
+        <v>0.7886361473133741</v>
+      </c>
+      <c r="D227" t="inlineStr">
+        <is>
+          <t>동의대 2024학년도 가군 실기/실적 전형에서 실기 비중은 얼마인가요?</t>
+        </is>
+      </c>
+      <c r="E227" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대학교 가군 실기/실적 전형에서 실기 비중은 70%입니다.
+이 정보는 "가군 수능(일반학생전형), 실기/실적(일반학생전형) 전형요소 반영비율" 섹션에서 확인할 수 있습니다. 해당 내용에 따르면, 가군 실기/실적(일반학생전형) 모집단위의 경우, 레저스포츠학과와 태권도학과는 수능 30%, 실기 70%로 반영됩니다.
+따라서, 동의대학교 2024학년도 가군 실기/실적 전형에서 실기 부분은 전체 점수 중 70%를 차지합니다.</t>
+        </is>
+      </c>
+      <c r="F227" t="inlineStr">
+        <is>
+          <t>동의대학교 2024학년도 가군 실기/실적 전형에서 실기 비중은 70%입니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="228">
+      <c r="A228" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B228" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 4
+   - 설명: 생성된 응답은 라이프융합학부의 세부 전공을 정확하게 나열하고 있으며, 추가적인 정보도 제공하고 있습니다. 그러나 원본 텍스트에 포함되지 않은 내용이 있어 완전한 정확성은 다소 떨어집니다.
+2. Consistency Score (1-5): 4
+   - 설명: 생성된 응답은 원본 텍스트의 내용을 잘 반영하고 있으며, 전공 목록과 관련된 설명이 일관되게 연결되어 있습니다. 다만, 추가된 정보가 원본과의 일관성을 약간 해칠 수 있습니다.
+3. Relevance Score (1-5): 5
+   - 설명: 생성된 응답은 원본 텍스트의 주제와 관련된 내용을 잘 다루고 있으며, 세부 전공에 대한 설명이 주제와 직접적으로 연결되어 있습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 문법적으로 올바르며 읽기 쉽습니다. 다만, 일부 문장에서 약간의 어색함이 느껴질 수 있습니다.
+5. Coherence Score (1-5): 4
+   - 설명: 생성된 응답은 논리적으로 잘 구성되어 있으며, 각 문장이 자연스럽게 연결되어 있습니다. 그러나 추가된 정보가 원본 텍스트의 흐름과 약간의 차이를 보일 수 있습니다.
+6. Accuracy Score (1-5): 4
+   - 설명: 생성된 응답은 원본 텍스트의 사실을 잘 반영하고 있지만, 추가된 정보가 원본에 포함되지 않은 점에서 완전한 정확성은 다소 떨어집니다.
+7. Multidimensional Quality Score (1-5): 4
+   - 설명: 생성된 응답은 여러 품질 차원에서 잘 수행되고 있으며, 전반적으로 높은 점수를 받을 수 있습니다. 그러나 일부 세부 사항에서 약간의 차이가 있습니다.
+8. Semantic Appropriateness Score (1-5): 4
+   - 설명: 생성된 응답은 원본 텍스트의 의미와 맥락에 잘 부합하지만, 추가된 정보가 원본의 의미를 약간 변경할 수 있습니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 명확하고 이해하기 쉬우며, 정보가 잘 전달되고 있습니다. 다만, 일부 문장에서 약간의 혼란을 줄 수 있는 요소가 있습니다.
+{
+    "Factuality Score": 4,
+    "Consistency Score": 4,
+    "Relevance Score": 5,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 4,
+    "Multidimensional Quality Score": 4,
+    "Semantic Appropriateness Score": 4,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C228" t="n">
+        <v>0.7931301734111653</v>
+      </c>
+      <c r="D228" t="inlineStr">
+        <is>
+          <t>동의대 2024학년도 신설된 학과 중 라이프융합학부의 세부 전공은 어떻게 구성되어 있나요?</t>
+        </is>
+      </c>
+      <c r="E228" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대학교에서 신설된 라이프융합학부는 세부 전공으로 다음과 같이 구성되어 있습니다:
+- 스타트업 창업 투자학
+- 뷰티 비즈니스학 
+- 라이프 생활 문화학
+이 학부는 미래 사회에서 요구되는 다양한 산업 분야와 연계하여 인재를 양성하기 위해 설립되었습니다. 세부 전공별로 특화된 교육 프로그램을 제공하여 학생들이 실용적인 기술과 지식을 습득할 수 있도록 하고 있습니다.
+이러한 신설학부는 동의대학교가 미래 산업 트렌드를 반영하고, 다양한 산업 분야와 연계된 교육 프로그램을 통해 학생들의 취업 역량을 강화하기 위한 노력의 일환으로 이루어졌습니다.</t>
+        </is>
+      </c>
+      <c r="F228" t="inlineStr">
+        <is>
+          <t>동의대 2024학년도 신설된 라이프융합학부의 세부 전공은 다음과 같이 구성되어 있습니다:
+ - 스타트업창업투자학
+ - 뷰티비즈니스학
+ - 라이프생활문화학</t>
+        </is>
+      </c>
+    </row>
+    <row r="229">
+      <c r="A229" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B229" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 2
+   - 설명: 생성된 응답은 '태권도학과'를 포함하고 있지만, 원본 텍스트에는 '체육학과'가 포함되어 있습니다. 또한, '이 두 학과에서만 실기고사가 진행된다'는 내용은 원본 텍스트와 일치하지 않으며, 다른 학과에 대한 정보도 잘못된 것으로 보입니다.
+2. Consistency Score (1-5): 2
+   - 설명: 생성된 응답은 원본 텍스트와 일치하지 않는 정보를 포함하고 있으며, '태권도학과'와 '레저스포츠학과'만 실기고사를 진행한다고 주장하지만, 원본 텍스트는 '체육학과'와 '레저스포츠학과'를 언급하고 있습니다. 이로 인해 일관성이 떨어집니다.
+3. Relevance Score (1-5): 4
+   - 설명: 생성된 응답은 실기고사에 참여해야 하는 학과에 대한 정보를 제공하고 있으나, 잘못된 정보를 포함하고 있어 일부 관련성이 떨어집니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 문법적으로 잘 작성되어 있으며, 읽기에도 무리가 없습니다. 그러나 일부 표현이 다소 어색할 수 있습니다.
+5. Coherence Score (1-5): 3
+   - 설명: 생성된 응답은 전체적으로 구조가 있지만, 원본 텍스트와의 불일치로 인해 논리적 흐름이 약간 깨집니다.
+6. Accuracy Score (1-5): 2
+   - 설명: 생성된 응답은 원본 텍스트의 사실과 일치하지 않는 정보를 포함하고 있으며, '태권도학과'와 관련된 내용은 사실이 아닙니다.
+7. Multidimensional Quality Score (1-5): 2
+   - 설명: 여러 차원에서 응답의 질이 낮습니다. 사실성, 일관성, 정확성에서 문제가 있으며, 전반적으로 신뢰할 수 없는 정보가 포함되어 있습니다.
+8. Semantic Appropriateness Score (1-5): 3
+   - 설명: 생성된 응답은 주제와 관련된 내용을 다루고 있지만, 잘못된 정보로 인해 의미적으로 적절하지 않은 부분이 있습니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 이해하기 쉬우나, 잘못된 정보로 인해 혼란을 줄 수 있습니다.
+{
+    "Factuality Score": 2,
+    "Consistency Score": 2,
+    "Relevance Score": 4,
+    "Fluency Score": 4,
+    "Coherence Score": 3,
+    "Accuracy Score": 2,
+    "Multidimensional Quality Score": 2,
+    "Semantic Appropriateness Score": 3,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C229" t="n">
+        <v>0.7266319676520873</v>
+      </c>
+      <c r="D229" t="inlineStr">
+        <is>
+          <t>동의대 2024학년도 가군에서 실기고사에 참여해야 하는 학과는 어떤 것들이 있나요?</t>
+        </is>
+      </c>
+      <c r="E229" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대학교 가군에서 실기고사를 진행하는 학과는 다음과 같습니다:
+1. 레저스포츠학과 (가군 실기/실적(일반학생전형))
+2. 태권도학과 (가군 실기/실적(일반학생전형))
+이 두 학과에서만 실기고사가 진행되며, 다른 학과에서는 수능 성적이 전부입니다.</t>
+        </is>
+      </c>
+      <c r="F229" t="inlineStr">
+        <is>
+          <t>동의대 2024학년도 가군에서 실기고사에 참여해야 하는 학과는 다음과 같습니다:
+1. 체육학과
+2. 레저스포츠학과</t>
+        </is>
+      </c>
+    </row>
+    <row r="230">
+      <c r="A230" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B230" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 2
+   - 설명: 생성된 응답은 지원 가능한 학과 목록에서 '레저스포츠학과'와 '태권도학과'를 누락하고 '디자인조형학과'에 대한 세부 정보를 추가했습니다. 이는 원본 텍스트의 사실과 일치하지 않으며, 중요한 정보를 생략했습니다.
+2. Consistency Score (1-5): 2
+   - 설명: 생성된 응답은 원본 텍스트와 일치하지 않는 정보를 포함하고 있습니다. '디자인조형학과'에 대한 세부 사항이 추가되었지만, 원본 텍스트에 포함된 다른 학과들은 언급되지 않아 일관성이 떨어집니다.
+3. Relevance Score (1-5): 4
+   - 설명: 생성된 응답은 주제와 관련된 정보를 제공하고 있지만, 원본 텍스트에 포함된 모든 학과를 다루지 않아 일부 관련성이 결여되어 있습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 구조를 가지고 있습니다. 그러나 약간의 어색함이 느껴질 수 있습니다.
+5. Coherence Score (1-5): 4
+   - 설명: 생성된 응답은 논리적으로 잘 구성되어 있으며, 정보가 명확하게 전달됩니다. 그러나 원본 텍스트와의 불일치로 인해 완전한 일관성을 유지하지는 못합니다.
+6. Accuracy Score (1-5): 2
+   - 설명: 생성된 응답은 원본 텍스트의 사실을 정확하게 반영하지 않으며, 중요한 학과를 누락하고 잘못된 정보를 포함하고 있습니다.
+7. Multidimensional Quality Score (1-5): 2
+   - 설명: 여러 차원에서 응답의 질이 낮습니다. 사실성, 일관성, 정확성에서 문제가 있으며, 전반적으로 원본 텍스트와의 일치성이 부족합니다.
+8. Semantic Appropriateness Score (1-5): 3
+   - 설명: 생성된 응답은 주제와 관련된 의미를 전달하지만, 원본 텍스트의 맥락과 일치하지 않는 부분이 있어 의미적으로 완전하지 않습니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 이해하기 쉽지만, 원본 텍스트와의 불일치로 인해 혼란을 줄 수 있습니다.
+{
+    "Factuality Score": 2,
+    "Consistency Score": 2,
+    "Relevance Score": 4,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 2,
+    "Multidimensional Quality Score": 2,
+    "Semantic Appropriateness Score": 3,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C230" t="n">
+        <v>0.6502651572860214</v>
+      </c>
+      <c r="D230" t="inlineStr">
+        <is>
+          <t>동의대 2024학년도에 실기/실적 위주 전형을 지원하려고 하는데, 어떤 학과가 해당되나요?</t>
+        </is>
+      </c>
+      <c r="E230" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대학교에서 실기/실적 위주 전형을 지원할 수 있는 학과는 다음과 같습니다:
+1. 디자인조형학과 (시각디자인, 산업디자인, 공예디자인)
+2. 체육학과
+이 두 학과의 경우, 실기/실적 위주 전형으로 지원할 수 있습니다.
+추가 정보:
+- 해당 전형은 1월 17일에 실기고사를 치릅니다.
+- 대기실 및 입실시간 안내는 1월 12일 오후 2시 이후 입학안내 홈페이지에서 확인 가능합니다.</t>
+        </is>
+      </c>
+      <c r="F230" t="inlineStr">
+        <is>
+          <t xml:space="preserve">동의대 2024학년도 실기/실적 위주 전형 지원 가능한 학과는 다음과 같습니다:
+1. 레저스포츠학과
+2. 태권도학과
+3. 디자인조형학과
+4. 체육학과
+5. 경기지도학과 </t>
+        </is>
+      </c>
+    </row>
+    <row r="231">
+      <c r="A231" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B231" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 4
+   - 설명: 생성된 응답은 동의대학교의 라이프융합학부가 제공하는 전공을 정확하게 나열하고 있으며, 전공의 명칭을 올바르게 전달하고 있습니다. 그러나 "2024년도"라는 언급은 원본 텍스트에 포함되어 있지 않으므로 약간의 부정확성이 있습니다.
+2. Consistency Score (1-5): 3
+   - 설명: 생성된 응답은 원본 텍스트의 내용을 대체로 일관되게 반영하고 있지만, "미래융합대학"이라는 새로운 명칭이 원본 텍스트에 나타나지 않아 일관성이 떨어집니다.
+3. Relevance Score (1-5): 5
+   - 설명: 생성된 응답은 원본 텍스트의 주요 주제와 관련된 정보를 잘 전달하고 있으며, 전공 목록과 관련된 추가 설명도 포함되어 있어 매우 관련성이 높습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 구조를 가지고 있지만, 일부 문장에서 약간의 어색함이 느껴질 수 있습니다.
+5. Coherence Score (1-5): 4
+   - 설명: 생성된 응답은 논리적으로 잘 구성되어 있으며, 전공 목록과 그에 대한 설명이 잘 연결되어 있습니다. 그러나 "신설하여 제공합니다"라는 표현이 다소 중복적으로 느껴질 수 있습니다.
+6. Accuracy Score (1-5): 4
+   - 설명: 전공의 명칭과 관련된 정보는 정확하지만, "2024년도"와 "미래융합대학"이라는 추가 정보는 원본 텍스트에 없으므로 정확성에서 약간의 차이가 있습니다.
+7. Multidimensional Quality Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 높은 품질을 유지하고 있으며, 사실성, 일관성, 관련성, 정확성에서 좋은 점수를 받았습니다. 그러나 일부 세부 사항에서 약간의 부정확성이 있습니다.
+8. Semantic Appropriateness Score (1-5): 4
+   - 설명: 생성된 응답은 원본 텍스트의 의미와 맥락에 잘 부합하지만, 새로운 명칭의 사용이 다소 혼란을 줄 수 있습니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 명확하고 이해하기 쉬우나, 일부 표현에서 약간의 혼란을 줄 수 있는 요소가 있습니다.
+{
+    "Factuality Score": 4,
+    "Consistency Score": 3,
+    "Relevance Score": 5,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 4,
+    "Multidimensional Quality Score": 4,
+    "Semantic Appropriateness Score": 4,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C231" t="n">
+        <v>0.8027265601949871</v>
+      </c>
+      <c r="D231" t="inlineStr">
+        <is>
+          <t>동의대의 라이프융합학부에서는 어떤 전공을 제공하나요?</t>
+        </is>
+      </c>
+      <c r="E231" t="inlineStr">
+        <is>
+          <t>2024년도 동의대학교 미래융합대학 라이프융합학부는 다음과 같은 전공을 신설하여 제공합니다:
+1. 스타트업 창업 투자학 (스타트업창업투자학)
+2. 뷰티 비즈니스학 (뷰티비즈니스학) 
+3. 라이프 생활 문화학 (라이프생활문화학)
+이러한 세 가지 전공으로 구성된 신설 학부는 다양한 삶의 질 향상과 관련된 분야를 다루게 됩니다.</t>
+        </is>
+      </c>
+      <c r="F231" t="inlineStr">
+        <is>
+          <t>동의대학교의 라이프융합학부는 신설된 학부로, 다음과 같은 전공을 제공합니다:
+ - 스타트업창업투자학
+ - 뷰티비즈니스학
+ - 라이프생활문화학</t>
+        </is>
+      </c>
+    </row>
+    <row r="232">
+      <c r="A232" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B232" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 2
+   - 생성된 응답은 특수목적고등학교 출신 학생이 일반학생전형으로 지원할 수 있다는 사실을 언급하고 있지만, 추가적으로 제시된 조건들이 원문에 명시된 내용과 일치하지 않으며, 잘못된 정보를 포함하고 있습니다.
+2. Consistency Score (1-5): 2
+   - 생성된 응답은 원문과 일치하지 않는 정보를 제공하고 있으며, 특히 지원 가능한 조건에 대한 설명이 원문과 상충합니다. 따라서 일관성이 낮습니다.
+3. Relevance Score (1-5): 3
+   - 생성된 응답은 질문에 대한 일부 관련 정보를 제공하지만, 원문에서 언급된 특정 조건이나 세부사항을 충분히 반영하지 못하고 있습니다. 따라서 관련성이 중간 정도입니다.
+4. Fluency Score (1-5): 4
+   - 생성된 응답은 문법적으로 잘 구성되어 있으며, 읽기에도 무리가 없습니다. 그러나 한국어로 질문이 주어졌음에도 불구하고 중국어로 응답한 점은 유의해야 합니다.
+5. Coherence Score (1-5): 3
+   - 생성된 응답은 논리적인 흐름이 있지만, 원문과의 연결이 부족하여 전체적으로 일관된 구조를 갖추지 못하고 있습니다.
+6. Accuracy Score (1-5): 2
+   - 생성된 응답은 원문에서 제공된 정보와 다르게 잘못된 조건을 제시하고 있어 정확성이 낮습니다.
+7. Multidimensional Quality Score (1-5): 2
+   - 여러 차원에서 평가했을 때, 사실성, 일관성, 정확성 모두 낮은 점수를 받았기 때문에 전반적인 품질이 낮습니다.
+8. Semantic Appropriateness Score (1-5): 2
+   - 생성된 응답은 원문의 의미와 맥락에 맞지 않는 정보를 포함하고 있어 의미적으로 부적절합니다.
+9. Understandability Score (1-5): 4
+   - 생성된 응답은 문법적으로 잘 작성되어 있어 이해하기 쉬운 편이지만, 내용의 부정확성으로 인해 혼란을 줄 수 있습니다.
+{
+    "Factuality Score": 2,
+    "Consistency Score": 2,
+    "Relevance Score": 3,
+    "Fluency Score": 4,
+    "Coherence Score": 3,
+    "Accuracy Score": 2,
+    "Multidimensional Quality Score": 2,
+    "Semantic Appropriateness Score": 2,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C232" t="n">
+        <v>0.5678580845911207</v>
+      </c>
+      <c r="D232" t="inlineStr">
+        <is>
+          <t>나는 특수목적고등학교 학생인데, 동의대 일반학생전형으로 지원 가능한가요?</t>
+        </is>
+      </c>
+      <c r="E232" t="inlineStr">
+        <is>
+          <t>你是韩国学生吗？根据提供的信息，如果你是特殊教育高中（特수목적고등학교）的学生，并且符合以下条件之一，则可以申请东义大学的一般学生入学考试：
+1. 科学高中 (과학고)
+2. 国际高中 (국제고)
+3. 外语高中 (외국어고)
+你需要满足的条件是：
+- 完成特殊教育高中的专业课程
+- 或者完成一年以上的职业教育训练课程
+因此，如果你属于上述类别之一，并且完成了相应的课程要求，那么你是可以申请东义大学的一般学生入学考试的。
+如果以上信息不足以回答你的问题，请提供更多详细信息。你可以访问 [https://ipsi.deu.ac.kr/main.do](https://ipsi.deu.ac.kr/main.do) 以获取更多具体的信息和指导。</t>
+        </is>
+      </c>
+      <c r="F232" t="inlineStr">
+        <is>
+          <t>특수목적고등학교 출신 학생은 일반학생전형으로 지원할 수 있습니다. 다만, 농어촌학생전형의 경우 마이스터고를 제외한 특수목적고등학교 출신자는 지원할 수 없습니다. 일반학생전형에 대한 자세한 정보는 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="233">
+      <c r="A233" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B233" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 1
+   - 설명: 생성된 응답은 동의대 나군 전형에서 가장 많이 모집하는 학과에 대한 잘못된 정보를 제공합니다. 실제로는 중어중국학과와 신소재공학과가 가장 많이 모집하며, 금융경영학과는 언급되지 않았습니다.
+2. Consistency Score (1-5): 1
+   - 설명: 생성된 응답은 원본 텍스트와 상충되는 정보를 제공합니다. 원본 텍스트에서 언급된 학과와 모집 인원과는 전혀 일치하지 않습니다.
+3. Relevance Score (1-5): 2
+   - 설명: 생성된 응답은 원본 텍스트의 주제와 관련이 있지만, 잘못된 정보를 제공하여 주제에 대한 신뢰성을 떨어뜨립니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 문법적으로 잘 작성되어 있으며, 읽기에도 무리가 없습니다. 그러나 내용의 정확성이 떨어지므로 전체적인 품질에 영향을 미칩니다.
+5. Coherence Score (1-5): 3
+   - 설명: 생성된 응답은 구조적으로 일관성이 있지만, 잘못된 정보로 인해 전체적인 논리적 흐름이 약해집니다.
+6. Accuracy Score (1-5): 1
+   - 설명: 생성된 응답은 사실과 크게 다르며, 정확한 정보를 제공하지 않습니다.
+7. Multidimensional Quality Score (1-5): 1
+   - 설명: 여러 품질 차원에서 모두 낮은 점수를 받았으며, 전반적으로 품질이 매우 낮습니다.
+8. Semantic Appropriateness Score (1-5): 2
+   - 설명: 생성된 응답은 주제와 관련이 있지만, 잘못된 정보로 인해 의미적으로 적절하지 않습니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 문장이 명확하고 이해하기 쉬우나, 잘못된 정보로 인해 혼란을 줄 수 있습니다.
+{
+    "Factuality Score": 1,
+    "Consistency Score": 1,
+    "Relevance Score": 2,
+    "Fluency Score": 4,
+    "Coherence Score": 3,
+    "Accuracy Score": 1,
+    "Multidimensional Quality Score": 1,
+    "Semantic Appropriateness Score": 2,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C233" t="n">
+        <v>0.678867079795284</v>
+      </c>
+      <c r="D233" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대 나군 전형에서 가장 많이 모집하는 학과는 어떤 학과인가요?</t>
+        </is>
+      </c>
+      <c r="E233" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대학교 나군 전형에서 가장 많이 모집하는 학과를 확인해보겠습니다.
+1. **금융경영학과** - 정원 내 모집 인원은 32명입니다.
+2. **응용화학과** - 정원 내 모집 인원은 26명입니다.
+3. **바이오의약공학과** - 정원 내 모집 인원은 21명입니다.
+위에서 볼 수 있듯이, 가장 많이 모집하는 학과는 **금융경영학과**로 32명을 모집하고 있습니다.</t>
+        </is>
+      </c>
+      <c r="F233" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대 나군 전형에서 가장 많이 모집하는 학과는 인문사회과학대학의 중어중국학과와 공과대학 신소재공학과로, 나군 일반학생 전형에서 32명을 모집합니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="234">
+      <c r="A234" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B234" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 1
+   - 설명: 생성된 응답은 원본 텍스트의 내용을 완전히 왜곡하고 있으며, 동의대 학생부교과 농어촌학생전형에 대한 지원 자격을 잘못 설명하고 있습니다. 원본 텍스트는 특수목적고등학교 출신자가 지원할 수 없다고 명시하고 있지만, 생성된 응답은 지원 가능성을 언급하고 있습니다.
+2. Consistency Score (1-5): 1
+   - 설명: 생성된 응답은 원본 텍스트와 상충되는 정보를 제공합니다. 원본 텍스트는 특정 조건을 충족하지 않는 한 지원할 수 없다고 명시하고 있으나, 생성된 응답은 조건을 제시하며 지원 가능성을 언급하고 있습니다.
+3. Relevance Score (1-5): 1
+   - 설명: 생성된 응답은 원본 텍스트의 주제와 관련이 없습니다. 원본 텍스트는 지원 자격에 대한 명확한 정보를 제공하고 있지만, 생성된 응답은 전혀 다른 내용을 다루고 있습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 문법적으로는 비교적 잘 작성되어 있으나, 내용이 원본 텍스트와 관련이 없기 때문에 전체적인 맥락에서의 유창성은 떨어집니다.
+5. Coherence Score (1-5): 2
+   - 설명: 생성된 응답은 일관된 구조를 가지고 있으나, 원본 텍스트와의 관련성이 없기 때문에 전체적인 일관성은 낮습니다.
+6. Accuracy Score (1-5): 1
+   - 설명: 생성된 응답은 원본 텍스트의 사실과 완전히 일치하지 않으며, 잘못된 정보를 포함하고 있습니다.
+7. Multidimensional Quality Score (1-5): 1
+   - 설명: 생성된 응답은 사실성, 일관성, 관련성, 정확성 등 모든 차원에서 매우 낮은 점수를 받습니다.
+8. Semantic Appropriateness Score (1-5): 1
+   - 설명: 생성된 응답은 원본 텍스트의 의미와 맥락에 전혀 부합하지 않으며, 의미적으로 부적절합니다.
+9. Understandability Score (1-5): 3
+   - 설명: 생성된 응답은 문법적으로는 이해할 수 있지만, 내용이 원본 텍스트와 관련이 없기 때문에 이해하기 어려운 부분이 있습니다.
+{
+    "Factuality Score": 1,
+    "Consistency Score": 1,
+    "Relevance Score": 1,
+    "Fluency Score": 4,
+    "Coherence Score": 2,
+    "Accuracy Score": 1,
+    "Multidimensional Quality Score": 1,
+    "Semantic Appropriateness Score": 1,
+    "Understandability Score": 3
+}</t>
+        </is>
+      </c>
+      <c r="C234" t="n">
+        <v>0.446262882644526</v>
+      </c>
+      <c r="D234" t="inlineStr">
+        <is>
+          <t>나는 특수목적고등학교 학생인데, 동의대 학생부교과 농어촌학생전형으로 지원 가능한가요?</t>
+        </is>
+      </c>
+      <c r="E234" t="inlineStr">
+        <is>
+          <t>你是韩国学生吗？根据提供的信息，如果你是特殊教育高中（特수목적고등학교）的学生，并且满足以下条件之一，则有可能符合东义大学学生部综合（农村学生类型）的申请资格：
+1. **6年制课程**：
+   - 在农村（邑·面）地区中学和高中期间全程就读并居住。
+2. **12年制课程**：
+   - 无论父母是否在农村居住，你本人在农村（邑·面）地区的初中、高中期间全程就读并居住。
+具体来说，你需要提供以下文件：
+- 对于6年制课程： 
+  - 支持者本人的亲属关系证明书1份
+  - 支持者本人及其父母的居民登记副本各1份（总计3份）
+  - 初中学生生活记录簿1份（教育机构、公共机关、自助服务终端机或互联网政府24系统提供）
+  - 高中学生生活记录簿1份（对于未在线提供的学校及未同意的学生，需要纸质版）
+- 对于12年制课程：
+  - 支持者本人的居民登记副本1份
+  - 小学学生生活记录簿1份
+  - 初中学生生活记录簿1份
+  - 高中学生生活记录簿1份（对于未在线提供的学校及未同意的学生，需要纸质版）
+如果你符合上述条件并准备了相应的文件，则可以尝试申请东义大学的学生部综合（农村学生类型）。
+建议你访问 [https://ipsi.deu.ac.kr/main.do](https://ipsi.deu.ac.kr/main.do) 获取更多详细信息和具体要求。</t>
+        </is>
+      </c>
+      <c r="F234" t="inlineStr">
+        <is>
+          <t>마이스터고를 제외한 특수목적고등학교 출신자는 동의대 학생부교과 농어촌학생전형으로 지원할 수 없습니다.  지원 자격에 따르면, 농어촌지역 또는 도서·벽지에 소재한 특수목적고 중 과학고, 국제고, 외국어고, 체육고, 예술고 출신자는 지원할 수 없습니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="235">
+      <c r="A235" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B235" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 1
+   - 설명: 생성된 응답은 2024학년도 소프트웨어공학부 합격자 평균 성적에 대한 정보가 포함되어 있지 않다는 원문과 상충되는 내용을 담고 있습니다. 원문에서는 해당 정보가 없다고 명시하고 있지만, 생성된 응답은 구체적인 평균 성적을 제시하고 있습니다. 이는 명백한 사실 오류입니다.
+2. Consistency Score (1-5): 1
+   - 설명: 생성된 응답은 원문과 일관성이 없습니다. 원문은 평균 성적에 대한 정보가 없다고 명시하고 있는데, 생성된 응답은 구체적인 수치를 제공하고 있어 서로 모순됩니다.
+3. Relevance Score (1-5): 1
+   - 설명: 생성된 응답은 원문에서 요청한 정보와 관련이 없습니다. 원문은 평균 성적에 대한 정보가 없다고 하였으나, 생성된 응답은 구체적인 성적을 제시하고 있어 주제와 관련이 없습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 문법적으로 잘 구성되어 있으며, 읽기에도 무리가 없습니다. 그러나 내용의 정확성과 관련성을 고려할 때, 플루언시 점수는 다소 낮게 평가됩니다.
+5. Coherence Score (1-5): 3
+   - 설명: 생성된 응답은 내부적으로는 일관된 구조를 가지고 있으나, 원문과의 관계에서 비논리적인 흐름이 있습니다. 원문과의 연결이 부족하여 전체적인 일관성이 떨어집니다.
+6. Accuracy Score (1-5): 1
+   - 설명: 생성된 응답은 원문에서 제공된 정보와 상충되는 내용을 포함하고 있어 정확성이 매우 낮습니다. 원문에서 명시된 정보가 없다는 사실을 무시하고 구체적인 수치를 제시하고 있습니다.
+7. Multidimensional Quality Score (1-5): 1
+   - 설명: 생성된 응답은 사실성, 일관성, 관련성, 정확성 등 모든 차원에서 매우 낮은 점수를 받습니다. 원문과의 관계에서 전반적으로 부적합한 내용을 담고 있습니다.
+8. Semantic Appropriateness Score (1-5): 1
+   - 설명: 생성된 응답은 원문과의 의미적 일치가 전혀 없으며, 원문에서 요청한 정보와는 전혀 다른 내용을 담고 있습니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 문법적으로 잘 구성되어 있어 이해하기는 쉽지만, 내용의 정확성과 관련성 부족으로 인해 전체적인 이해에 혼란을 줄 수 있습니다.
+{
+    "Factuality Score": 1,
+    "Consistency Score": 1,
+    "Relevance Score": 1,
+    "Fluency Score": 4,
+    "Coherence Score": 3,
+    "Accuracy Score": 1,
+    "Multidimensional Quality Score": 1,
+    "Semantic Appropriateness Score": 1,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C235" t="n">
+        <v>0.5517846057715985</v>
+      </c>
+      <c r="D235" t="inlineStr">
+        <is>
+          <t>2024학년도 소프트웨어공학부 합격자 평균 성적을 알려줘.</t>
+        </is>
+      </c>
+      <c r="E235" t="inlineStr">
+        <is>
+          <t>2024학년도 소프트웨어공학부의 최초합격자와 최종등록자의 국어 + 수학 + 탐구(2개) (가산점 포함) 표준 변환 점수 합 평균을 볼 수 있습니다.
+- **최초합격자**에서 소프트웨어공학부의 모집단위는 두 가지로 나뉘어져 있으며, 각각의 평균은 다음과 같습니다:
+  - 한의예과(수학&lt;미적분/기하&gt;): 396.29
+  - 한의예과(수학&lt;확률과통계&gt;): 398.71 (이 값은 제공된 데이터에서 찾을 수 없으므로, 이전 값인 396.29를 사용하겠습니다.)
+- **최종등록자**에서 소프트웨어공학부의 모집단위는 다음과 같습니다:
+  - 최초합격자의 두 가지 평균 값을 기반으로 추정할 수 있습니다.
+    - 317.87 (이 값은 제공된 데이터에서 찾을 수 있음)
+따라서, 2024학년도 소프트웨어공학부의 합격자 평균 성적은 **최종등록자의 평균**인 **317.87**입니다.
+만약 최초합격자의 두 가지 모집단위를 모두 고려하려면, 두 값을 평균내는 것이 적절할 수 있습니다:
+\[ \frac{396.29 + 398.71}{2} = 397.50 \]
+따라서, 소프트웨어공학부 합격자들의 평균 성적은 **317.87**입니다.</t>
+        </is>
+      </c>
+      <c r="F235" t="inlineStr">
+        <is>
+          <t>제공된 정시 모집요강에는 2024학년도 소프트웨어공학부 합격자 평균 성적에 대한 정보가 포함되어 있지 않습니다. 해당 정보를 확인하려면 "https://ipsi.deu.ac.kr/main.do"를 방문하여 문의하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="236">
+      <c r="A236" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B236" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 1
+   - 설명: 생성된 응답은 2024학년도 소프트웨어공학부 합격자 평균 성적에 대한 정보가 포함되어 있지 않다는 원문과 상충되는 내용을 담고 있습니다. 원문에서는 해당 정보가 없다고 명시하고 있지만, 생성된 응답은 구체적인 평균 점수를 제시하고 있어 사실과 일치하지 않습니다.
+2. Consistency Score (1-5): 1
+   - 설명: 생성된 응답은 원문과 완전히 모순됩니다. 원문은 평균 성적에 대한 정보가 없다고 명시하고 있는데, 생성된 응답은 특정 점수를 제공하고 있어 일관성이 없습니다.
+3. Relevance Score (1-5): 1
+   - 설명: 생성된 응답은 원문에서 요청한 정보와 관련이 없습니다. 원문은 평균 성적에 대한 정보가 없음을 알리고 있으며, 생성된 응답은 그와는 전혀 다른 내용을 다루고 있습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 문법적으로 잘 구성되어 있으며, 읽기에도 무리가 없습니다. 그러나 내용의 정확성과 관련성 문제로 인해 전체적인 평가에 영향을 미칩니다.
+5. Coherence Score (1-5): 3
+   - 설명: 생성된 응답은 내부적으로는 일관된 구조를 가지고 있지만, 원문과의 관계에서 비논리적입니다. 원문과의 연결이 없기 때문에 전체적인 일관성은 떨어집니다.
+6. Accuracy Score (1-5): 1
+   - 설명: 생성된 응답은 원문에서 제공된 정보와 완전히 다릅니다. 원문은 평균 성적에 대한 정보가 없다고 명시하고 있으므로, 생성된 응답의 정보는 부정확합니다.
+7. Multidimensional Quality Score (1-5): 1
+   - 설명: 생성된 응답은 사실성, 일관성, 관련성, 정확성 등 모든 차원에서 매우 낮은 점수를 받습니다. 원문과의 관계가 전혀 없기 때문에 전반적인 품질이 떨어집니다.
+8. Semantic Appropriateness Score (1-5): 1
+   - 설명: 생성된 응답은 원문과의 의미적 일치가 전혀 없습니다. 원문에서 요청한 정보와는 상관없는 내용을 담고 있어 의미적으로 부적절합니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 문법적으로 명확하고 이해하기 쉬운 구조를 가지고 있습니다. 그러나 내용의 부정확성으로 인해 전체적인 이해도에 영향을 미칩니다.
+{
+    "Factuality Score": 1,
+    "Consistency Score": 1,
+    "Relevance Score": 1,
+    "Fluency Score": 4,
+    "Coherence Score": 3,
+    "Accuracy Score": 1,
+    "Multidimensional Quality Score": 1,
+    "Semantic Appropriateness Score": 1,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C236" t="n">
+        <v>0.5304633073860365</v>
+      </c>
+      <c r="D236" t="inlineStr">
+        <is>
+          <t>2024학년도 소프트웨어공학부 최초 합격자 평균 성적을 알려줘.</t>
+        </is>
+      </c>
+      <c r="E236" t="inlineStr">
+        <is>
+          <t>2024학년도 ICT융합공과대학 소프트웨어공학부 최초 합격자의 국어 + 수학 + 탐구(2개) (가산점 포함) 표준 변환 점수 합의 평균은 **330.11**입니다.</t>
+        </is>
+      </c>
+      <c r="F236" t="inlineStr">
+        <is>
+          <t>제공된 정시 모집요강에는 2024학년도 소프트웨어공학부 합격자 평균 성적에 대한 정보가 포함되어 있지 않습니다. 해당 정보를 확인하려면 "https://ipsi.deu.ac.kr/main.do"를 방문하여 문의하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="237">
+      <c r="A237" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B237" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 3
+   - 설명: 생성된 응답은 최초 합격자 발표일과 충원 합격자 발표일을 포함하고 있지만, 최초 합격자 등록일에 대한 정보가 추가되어 있어 원본 텍스트와 다소 차이가 있습니다. 원본에는 등록일에 대한 언급이 없으므로, 이 부분에서 사실성이 떨어집니다.
+2. Consistency Score (1-5): 3
+   - 설명: 생성된 응답은 원본 텍스트의 일부 정보를 포함하고 있지만, 추가된 정보(등록일 등)로 인해 일관성이 떨어집니다. 원본 텍스트와의 일관성이 부족합니다.
+3. Relevance Score (1-5): 5
+   - 설명: 생성된 응답은 합격자 발표 일정에 대한 정보를 제공하며, 원본 텍스트의 주제와 매우 관련이 있습니다. 모든 주요 포인트를 다루고 있습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 구조를 가지고 있습니다. 그러나 일부 문장이 다소 길어 가독성이 떨어질 수 있습니다.
+5. Coherence Score (1-5): 4
+   - 설명: 생성된 응답은 논리적으로 잘 구성되어 있으며, 발표 일정에 대한 흐름이 자연스럽습니다. 그러나 추가된 정보로 인해 약간의 혼란이 있을 수 있습니다.
+6. Accuracy Score (1-5): 3
+   - 설명: 생성된 응답은 일부 정확한 정보를 포함하고 있지만, 원본 텍스트에 없는 정보(등록일 등)가 포함되어 있어 정확성이 떨어집니다.
+7. Multidimensional Quality Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 높은 품질을 가지고 있지만, 사실성과 일관성에서 약간의 문제가 있어 완벽하지는 않습니다.
+8. Semantic Appropriateness Score (1-5): 4
+   - 설명: 생성된 응답은 원본 텍스트의 의미와 맥락에 잘 맞지만, 추가된 정보로 인해 약간의 의미 왜곡이 발생할 수 있습니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 이해하기 쉽지만, 일부 문장이 길어 다소 복잡하게 느껴질 수 있습니다.
+{
+    "Factuality Score": 3,
+    "Consistency Score": 3,
+    "Relevance Score": 5,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 3,
+    "Multidimensional Quality Score": 4,
+    "Semantic Appropriateness Score": 4,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C237" t="n">
+        <v>0.8676856907193917</v>
+      </c>
+      <c r="D237" t="inlineStr">
+        <is>
+          <t>합격자발표 언제</t>
+        </is>
+      </c>
+      <c r="E237" t="inlineStr">
+        <is>
+          <t>2024학년도 입시에서는 합격자 발표 일정이 다음과 같습니다:
+- 최초 합격자 발표는 2024년 2월 2일(금) 14:00입니다.
+- 이어서 2024년 2월 7일(수)부터 2월 13일(화)까지 최초 합격자 등록이 이루어집니다.
+- 그 다음으로, 충원 합격자는 다음과 같이 발표 및 등록됩니다:
+  - 2024년 2월 14일(수) 9:00에 1차 충원 합격자 발표
+  - 2024년 2월 14일(수) 9:00부터 16:00까지 1차 충원 합격자 등록
+  - 2024년 2월 15일(목) 9:00에 2차 충원 합격자 발표
+  - 2024년 2월 15일(목) 9:00부터 16:00까지 2차 충원 합격자 등록
+  - 마지막으로, 3차 이후 충원 합격자는 개별 전화 통보를 통해 발표되며, 이 시점은 2024년 2월 15일(목) 19:00부터 2024년 2월 20일(화) 18시까지입니다.
+따라서 합격자 발표는 최초로 2024년 2월 2일(금)이며, 이후 충원 합격자는 여러 차례에 걸쳐 이루어집니다.</t>
+        </is>
+      </c>
+      <c r="F237" t="inlineStr">
+        <is>
+          <t>합격자 발표 일정은 다음과 같습니다:
+ - 최초 합격자 발표: 2024년 2월 2일(금) 14:00
+ - 충원 합격자 1차 발표: 2024년 2월 14일(수) 09:00
+ - 충원 합격자 2차 발표: 2024년 2월 15일(목) 09:00
+ - 충원 합격자 3차 이후 발표: 2024년 2월 15일(목) 19:00부터 2024년 2월 20일(화) 18:00까지
+ 모든 발표는 홈페이지를 통해 개별 조회해야 합니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="238">
+      <c r="A238" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B238" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 1
+   - 설명: 생성된 응답은 면접고사 일정에 대한 잘못된 정보를 포함하고 있습니다. 원본 텍스트에서는 면접고사가 2024년 1월 20일(토)로 명시되어 있지만, 생성된 응답에서는 2024년 1월 17일(수)로 잘못 언급하고 있습니다. 또한, 실기고사 일정도 원본 텍스트와 관련이 없습니다.
+2. Consistency Score (1-5): 1
+   - 설명: 생성된 응답은 원본 텍스트와 일치하지 않으며, 서로 다른 날짜와 정보를 제공하고 있습니다. 따라서 일관성이 전혀 없습니다.
+3. Relevance Score (1-5): 1
+   - 설명: 생성된 응답은 원본 텍스트의 주제와 관련이 없으며, 면접고사 일정에 대한 정보가 아닌 실기고사에 대한 정보를 포함하고 있습니다. 이는 원본 텍스트의 핵심 내용을 다루지 않고 있습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 문법적으로 잘 구성되어 있으며, 읽기에도 무리가 없습니다. 그러나 내용의 정확성과 관련성 부족으로 인해 전체적인 평가에 영향을 미칩니다.
+5. Coherence Score (1-5): 3
+   - 설명: 생성된 응답은 문장 구조가 비교적 잘 구성되어 있지만, 원본 텍스트와의 관련성이 떨어져서 전체적인 일관성이 부족합니다.
+6. Accuracy Score (1-5): 1
+   - 설명: 생성된 응답은 원본 텍스트의 사실과 크게 다르며, 잘못된 정보를 포함하고 있습니다. 따라서 정확성 점수는 매우 낮습니다.
+7. Multidimensional Quality Score (1-5): 1
+   - 설명: 생성된 응답은 사실성, 일관성, 관련성, 정확성 등 모든 차원에서 매우 낮은 점수를 받습니다.
+8. Semantic Appropriateness Score (1-5): 1
+   - 설명: 생성된 응답은 원본 텍스트의 의미와 맥락에 맞지 않으며, 부적절한 정보를 제공합니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 문법적으로 명확하고 이해하기 쉬운 구조를 가지고 있지만, 내용의 부정확성으로 인해 전체적인 이해에 혼란을 줄 수 있습니다.
+{
+    "Factuality Score": 1,
+    "Consistency Score": 1,
+    "Relevance Score": 1,
+    "Fluency Score": 4,
+    "Coherence Score": 3,
+    "Accuracy Score": 1,
+    "Multidimensional Quality Score": 1,
+    "Semantic Appropriateness Score": 1,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C238" t="n">
+        <v>0.4742292723275702</v>
+      </c>
+      <c r="D238" t="inlineStr">
+        <is>
+          <t>면접고사는 언제 보러 가나요</t>
+        </is>
+      </c>
+      <c r="E238" t="inlineStr">
+        <is>
+          <t>2024년 1월 17일(수)에 실기고사가 있습니다. 이 날짜는 입학 안내 홈페이지에서 대기실 및 입실 시간을 확인할 수 있으므로, 해당 일정을 참고하시면 됩니다.
+면접고사는 2024년 1월 17일(수)에 진행되며, 대기실 및 입실 시간은 2024년 1월 12일(금) 오후 2시 이후에 입학 안내 홈페이지에서 확인할 수 있습니다.
+만약 추가로 도움이 필요하시면 [입학정보 홈페이지](http://ipsi.deu.ac.kr)를 참조해 주세요.</t>
+        </is>
+      </c>
+      <c r="F238" t="inlineStr">
+        <is>
+          <t>나군 평생학습자전형, 성인학습자(정원내)전형, 성인학습자(정원외)전형, 재직자전형, 조기취업형계약학과전형의 면접고사 일정은 2024. 01. 20.(토)입니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="239">
+      <c r="A239" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B239" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 1
+   - 설명: 생성된 응답은 동의대 한의예과의 최저학력 기준이 없다는 사실을 무시하고, 여러 가지 추측을 제시하고 있습니다. 이는 원문과 상충되는 정보로, 사실과 일치하지 않습니다.
+2. Consistency Score (1-5): 1
+   - 설명: 생성된 응답은 원문과 일치하지 않는 정보를 포함하고 있으며, 원문에서 명시된 내용과 상반되는 주장을 하고 있습니다. 따라서 일관성이 없습니다.
+3. Relevance Score (1-5): 2
+   - 설명: 생성된 응답은 원문과 관련된 내용을 다루고 있지만, 원문에서 명시된 '최저학력 기준이 없다'는 점을 간과하고 여러 가지 추측을 제시하여 관련성이 떨어집니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 문법적으로 잘 구성되어 있으며, 읽기에도 무리가 없습니다. 그러나 내용의 정확성 문제로 인해 전체적인 평가에 영향을 미칠 수 있습니다.
+5. Coherence Score (1-5): 3
+   - 설명: 생성된 응답은 여러 가지 정보를 나열하고 있지만, 원문과의 연결이 부족하여 논리적인 흐름이 약간 떨어집니다. 원문과의 관계가 명확하지 않습니다.
+6. Accuracy Score (1-5): 1
+   - 설명: 생성된 응답은 원문에서 제공된 정보와 상충되는 내용을 포함하고 있으며, 사실적으로 부정확합니다.
+7. Multidimensional Quality Score (1-5): 1
+   - 설명: 생성된 응답은 사실성, 일관성, 관련성, 정확성 등 여러 차원에서 낮은 점수를 받고 있습니다. 전반적으로 품질이 낮습니다.
+8. Semantic Appropriateness Score (1-5): 2
+   - 설명: 생성된 응답은 원문과의 의미적 일치가 부족하며, 원문에서 제시된 정보와는 다른 방향으로 해석하고 있습니다.
+9. Understandability Score (1-5): 3
+   - 설명: 생성된 응답은 문법적으로는 이해할 수 있지만, 내용의 정확성이 떨어져 혼란을 줄 수 있습니다. 따라서 이해 가능성은 중간 정도입니다.
+{
+    "Factuality Score": 1,
+    "Consistency Score": 1,
+    "Relevance Score": 2,
+    "Fluency Score": 4,
+    "Coherence Score": 3,
+    "Accuracy Score": 1,
+    "Multidimensional Quality Score": 1,
+    "Semantic Appropriateness Score": 2,
+    "Understandability Score": 3
+}</t>
+        </is>
+      </c>
+      <c r="C239" t="n">
+        <v>0.4205700448337911</v>
+      </c>
+      <c r="D239" t="inlineStr">
+        <is>
+          <t>한의예과 최저학력기준</t>
+        </is>
+      </c>
+      <c r="E239" t="inlineStr">
+        <is>
+          <t>从提供的信息来看，并没有直接提到韩医学部（한의예과）的具体最低学历标准。不过，根据上下文和其他相关信息可以推测：
+1. 对于一般学生入学（가군 수능(일반학생전형)），韩医学部的最低标准是：
+   - 无需考虑学生的学业成绩
+   - 不需要参加面试或能力测试
+2. 在其他类型的招生中，如农林水产部的学生（나군 학생부교과(농어촌학생전형) - 정원외）和成人教育学生（나군 학생부종합(성인학습자전형)），对学历的要求是：
+   - 高中毕业或同等学力
+   - 年龄在30岁以上
+因此，可以推断韩医学部的一般最低入学要求可能是高中毕业或同等学力。但具体的标准可能因招生类型和年份的不同而有所变化。
+为了获得最准确的信息，建议直接咨询学校招生办公室或查看最新的官方招生简章。</t>
+        </is>
+      </c>
+      <c r="F239" t="inlineStr">
+        <is>
+          <t>동의대 한의예과의 최저학력 기준이 없습니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="240">
+      <c r="A240" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B240" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 5
+   - 설명: 생성된 응답은 동의대학교의 수능 최저학력 기준이 없다는 사실을 정확하게 반영하고 있으며, 추가적인 정보도 제공하고 있습니다.
+2. Consistency Score (1-5): 5
+   - 설명: 생성된 응답은 원본 텍스트와 일관되며, 수능 최저학력 기준이 없다는 내용을 일관되게 전달하고 있습니다.
+3. Relevance Score (1-5): 5
+   - 설명: 생성된 응답은 원본 텍스트의 주제와 관련이 깊으며, 수능 최저학력 기준에 대한 정보를 직접적으로 다루고 있습니다.
+4. Fluency Score (1-5): 5
+   - 설명: 생성된 응답은 문법적으로 정확하고 자연스럽게 작성되어 있으며, 읽기에도 무리가 없습니다.
+5. Coherence Score (1-5): 5
+   - 설명: 생성된 응답은 논리적으로 잘 구성되어 있으며, 정보의 흐름이 매끄럽습니다.
+6. Accuracy Score (1-5): 5
+   - 설명: 생성된 응답은 원본 텍스트의 사실을 정확하게 반영하고 있으며, 추가적인 정보도 사실에 기반하고 있습니다.
+7. Multidimensional Quality Score (1-5): 5
+   - 설명: 생성된 응답은 모든 품질 차원에서 우수한 성과를 보이고 있습니다.
+8. Semantic Appropriateness Score (1-5): 5
+   - 설명: 생성된 응답은 원본 텍스트의 의미와 맥락에 적절하게 부합합니다.
+9. Understandability Score (1-5): 5
+   - 설명: 생성된 응답은 명확하고 이해하기 쉬우며, 독자가 쉽게 따라갈 수 있습니다.
+{
+    "Factuality Score": 5,
+    "Consistency Score": 5,
+    "Relevance Score": 5,
+    "Fluency Score": 5,
+    "Coherence Score": 5,
+    "Accuracy Score": 5,
+    "Multidimensional Quality Score": 5,
+    "Semantic Appropriateness Score": 5,
+    "Understandability Score": 5
+}</t>
+        </is>
+      </c>
+      <c r="C240" t="n">
+        <v>0.5443547551532879</v>
+      </c>
+      <c r="D240" t="inlineStr">
+        <is>
+          <t>정시에서 수능최저학력기준이 있나요?</t>
+        </is>
+      </c>
+      <c r="E240" t="inlineStr">
+        <is>
+          <t>2024학년도에 대한 정보를 바탕으로, 제공된 내용에서는 특정 전형별로 수능 최저학력 기준이 명시되어 있지 않습니다. 
+특히 "전형요소 반영비율" 섹션에서 다음과 같이 언급되어 있습니다:
+- 가군 수능(일반학생전형) 전 모집단위: 수능최저기준 없음
+- 나군 수능(일반학생전형) 전 모집단위: 수능최저기준 없음
+- 다군 수능(일반학생전형) 전 모집단위: 수능최저기준 없음
+따라서, 현재 제공된 정보로는 특정 전형별로 수능 최저학력 기준이 없다고 볼 수 있습니다. 하지만 각 학과나 전형별로 개별적으로 수능 최저학력 기준을 설정할 수도 있으므로, 정확한 정보를 얻기 위해서는 해당 대학의 공식 웹사이트(https://ipsi.deu.ac.kr/main.do)를 참조하거나 입학처에 직접 문의하는 것이 좋습니다.</t>
+        </is>
+      </c>
+      <c r="F240" t="inlineStr">
+        <is>
+          <t>동의대학교는 수능 최저학력 기준이 없습니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="241">
+      <c r="A241" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B241" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 4
+   - 설명: 생성된 응답은 충원합격자 발표 일정의 주요 내용을 잘 반영하고 있으며, 1차 발표일인 2024년 2월 14일(수) 09:00을 정확히 언급하고 있습니다. 그러나 2차 및 3차 발표 일정에 대한 정보가 누락되어 있어 완전한 사실성을 갖추지 못했습니다.
+2. Consistency Score (1-5): 3
+   - 설명: 생성된 응답은 일부 일정을 일관되게 언급하고 있지만, 2차 및 3차 발표 일정에 대한 정보가 포함되어 있지 않아 일관성이 떨어집니다. 전체적인 발표 일정에 대한 정보가 부족하여 일관된 정보 제공이 이루어지지 않았습니다.
+3. Relevance Score (1-5): 5
+   - 설명: 생성된 응답은 충원합격자 발표 일정과 관련된 정보를 잘 다루고 있으며, 주제와 관련된 내용을 충실히 반영하고 있습니다. 따라서 매우 높은 관련성을 보입니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 문장으로 구성되어 있습니다. 다만, 일부 문장이 다소 복잡하게 느껴질 수 있어 약간의 개선 여지가 있습니다.
+5. Coherence Score (1-5): 4
+   - 설명: 생성된 응답은 논리적으로 잘 구성되어 있으며, 정보가 명확하게 전달됩니다. 그러나 2차 및 3차 발표 일정에 대한 언급이 없어서 전체적인 일관성이 약간 떨어질 수 있습니다.
+6. Accuracy Score (1-5): 4
+   - 설명: 생성된 응답은 1차 발표 일정에 대한 정확한 정보를 제공하고 있지만, 2차 및 3차 발표 일정에 대한 정보가 누락되어 있어 정확성에서 약간의 부족함이 있습니다.
+7. Multidimensional Quality Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 높은 품질을 보이며, 사실성, 관련성, 유창성, 일관성 등에서 좋은 점수를 받았습니다. 그러나 일부 정보의 누락으로 인해 완전한 점수를 주기에는 부족합니다.
+8. Semantic Appropriateness Score (1-5): 4
+   - 설명: 생성된 응답은 주제와 관련된 의미를 잘 전달하고 있으며, 문맥에 적합한 내용을 포함하고 있습니다. 다만, 일부 추가 정보가 필요할 수 있습니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 이해하기 쉬운 내용으로 구성되어 있으며, 명확하게 전달됩니다. 그러나 일부 문장이 복잡하게 느껴질 수 있어 약간의 개선이 필요합니다.
+{
+    "Factuality Score": 4,
+    "Consistency Score": 3,
+    "Relevance Score": 5,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 4,
+    "Multidimensional Quality Score": 4,
+    "Semantic Appropriateness Score": 4,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C241" t="n">
+        <v>0.7743357205077576</v>
+      </c>
+      <c r="D241" t="inlineStr">
+        <is>
+          <t>충원합격자 발표는 언제?</t>
+        </is>
+      </c>
+      <c r="E241" t="inlineStr">
+        <is>
+          <t>2024학년도의 충원합격자 발표 일정은 2월 14일(수) 09:00부터 시작됩니다. 이날 이후에도 추가적으로 충원합격자가 발생할 경우, 그에 따른 발표는 계속될 수 있습니다.
+관련된 정보를 정리하면 다음과 같습니다:
+- **일시**: 2024년 2월 14일(수) 09:00
+- **내용**: 충원 합격자 1차 (인터넷) 발표
+- **비고**:
+  - *발표*: 홈페이지에서 개별 조회 가능
+  - *고지서 교부*: 홈페이지에서 출력 또는 입학관리팀에서 수령 가능
+  - *등록장소*: 학교 지정은행(등록금 고지서에 기재)
+이 정보를 참고하여 해당 일정을 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+      <c r="F241" t="inlineStr">
+        <is>
+          <t>충원합격자 발표 일정은 다음과 같습니다:
+ 1. 1차 충원합격자 발표: 2024년 2월 14일(수) 09:00
+ 2. 2차 충원합격자 발표: 2024년 2월 15일(목) 09:00
+ 3. 3차 이후 충원합격자 발표: 2024년 2월 15일(목) 19:00부터 2024년 2월 20일(화) 18시까지</t>
+        </is>
+      </c>
+    </row>
+    <row r="242">
+      <c r="A242" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B242" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 3
+   - 설명: 생성된 응답은 1차 및 2차 충원합격자 발표 일정을 누락하고, 3차 추가합격자 발표에 대한 정보만 포함하고 있습니다. 또한, 등록 기간이 잘못 기재되어 있습니다. 따라서 사실성 점수는 3입니다.
+2. Consistency Score (1-5): 3
+   - 설명: 생성된 응답은 일부 일정을 포함하고 있지만, 원본 텍스트의 모든 정보를 일관되게 반영하지 못하고 있습니다. 특히 1차와 2차 발표 일정이 누락되어 있어 일관성이 떨어집니다. 점수는 3입니다.
+3. Relevance Score (1-5): 4
+   - 설명: 생성된 응답은 추가합격자 발표에 대한 정보를 제공하고 있으나, 원본 텍스트의 모든 내용을 다루지 않기 때문에 약간의 관련성 부족이 있습니다. 점수는 4입니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 구조를 가지고 있습니다. 그러나 약간의 어색한 표현이 있어 점수는 4입니다.
+5. Coherence Score (1-5): 4
+   - 설명: 생성된 응답은 논리적으로 잘 구성되어 있으며, 발표 일정에 대한 정보가 명확하게 전달됩니다. 그러나 원본 텍스트와의 연결이 부족하여 점수는 4입니다.
+6. Accuracy Score (1-5): 3
+   - 설명: 생성된 응답은 일부 정확한 정보를 포함하고 있지만, 중요한 발표 일정이 누락되어 있어 정확성 점수는 3입니다.
+7. Multidimensional Quality Score (1-5): 3
+   - 설명: 여러 차원에서 평가했을 때, 생성된 응답은 전반적으로 평균적인 품질을 보이며, 여러 요소에서 부족함이 있습니다. 점수는 3입니다.
+8. Semantic Appropriateness Score (1-5): 4
+   - 설명: 생성된 응답은 의미적으로 적절하며, 발표 일정에 대한 정보를 잘 전달하고 있습니다. 그러나 원본 텍스트와의 일치성이 떨어져 점수는 4입니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 이해하기 쉬우나, 일부 정보가 누락되어 있어 완전한 이해를 방해할 수 있습니다. 점수는 4입니다.
+{
+    "Factuality Score": 3,
+    "Consistency Score": 3,
+    "Relevance Score": 4,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 3,
+    "Multidimensional Quality Score": 3,
+    "Semantic Appropriateness Score": 4,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C242" t="n">
+        <v>0.6888397426781845</v>
+      </c>
+      <c r="D242" t="inlineStr">
+        <is>
+          <t>추가합격자 발표는 언제?</t>
+        </is>
+      </c>
+      <c r="E242" t="inlineStr">
+        <is>
+          <t>2024. 02. 15.(목) 09:00부터 추가합격자 발표가 시작됩니다.
+추가합격자 발표 일정은 다음과 같습니다:
+- **일시:** 2024. 02. 15.(목) 09:00
+- **내용:** 3차 추가합격자 발표 및 등록
+- **등록 기간:** 2024. 02. 15.(목) 09:00~16:00
+추가합격자 발표 이후에도 합격자 발표는 계속될 수 있으므로, 해당 날짜 이후에도 홈페이지를 통해 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+      <c r="F242" t="inlineStr">
+        <is>
+          <t>충원합격자 발표 일정은 다음과 같습니다:
+ 1. 1차 충원합격자 발표: 2024년 2월 14일(수) 09:00
+ 2. 2차 충원합격자 발표: 2024년 2월 15일(목) 09:00
+ 3. 3차 이후 충원합격자 발표: 2024년 2월 15일(목) 19:00부터 2024년 2월 20일(화) 18시까지</t>
+        </is>
+      </c>
+    </row>
+    <row r="243">
+      <c r="A243" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B243" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 2
+   - 설명: 생성된 응답은 추가 모집에 대한 직접적인 언급이 없다고 주장하지만, 원본 텍스트에서는 추가 모집이 이루어진다고 명확히 설명하고 있습니다. 따라서 사실성 점수는 낮습니다.
+2. Consistency Score (1-5): 2
+   - 설명: 생성된 응답은 원본 텍스트의 내용과 일치하지 않으며, 원본에서 제공하는 정보와 상충하는 내용을 포함하고 있습니다. 이는 일관성 점수를 낮춥니다.
+3. Relevance Score (1-5): 3
+   - 설명: 생성된 응답은 관련 정보를 제공하려고 하지만, 원본 텍스트의 핵심 내용과는 거리가 있습니다. 따라서 관련성 점수는 중간 정도입니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 문법적으로 잘 작성되어 있으며, 읽기에도 무리가 없습니다. 따라서 유창성 점수는 높습니다.
+5. Coherence Score (1-5): 3
+   - 설명: 생성된 응답은 논리적인 흐름이 있지만, 원본 텍스트와의 연결이 약해 전체적인 일관성이 떨어집니다. 따라서 일관성 점수는 중간입니다.
+6. Accuracy Score (1-5): 2
+   - 설명: 생성된 응답은 원본 텍스트의 사실을 잘못 해석하고 있으며, 중요한 정보를 누락하고 있습니다. 따라서 정확성 점수는 낮습니다.
+7. Multidimensional Quality Score (1-5): 2
+   - 설명: 여러 차원에서 평가했을 때, 생성된 응답은 전반적으로 낮은 점수를 받았습니다. 사실성, 일관성, 정확성에서 큰 문제가 있습니다.
+8. Semantic Appropriateness Score (1-5): 3
+   - 설명: 생성된 응답은 의미적으로 적절한 부분도 있지만, 원본 텍스트의 맥락과는 다소 어긋나는 부분이 있습니다. 따라서 의미 적합성 점수는 중간입니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 이해하기 쉬우며, 명확하게 전달되고 있습니다. 따라서 이해 가능성 점수는 높습니다.
+{
+    "Factuality Score": 2,
+    "Consistency Score": 2,
+    "Relevance Score": 3,
+    "Fluency Score": 4,
+    "Coherence Score": 3,
+    "Accuracy Score": 2,
+    "Multidimensional Quality Score": 2,
+    "Semantic Appropriateness Score": 3,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C243" t="n">
+        <v>0.481298556242368</v>
+      </c>
+      <c r="D243" t="inlineStr">
+        <is>
+          <t>추가모집을 하나요?</t>
+        </is>
+      </c>
+      <c r="E243" t="inlineStr">
+        <is>
+          <t>提供的信息中并没有直接提到是否进行额外招生（추가모집）的内容。为了给出准确的回答，需要具体查看相关招生简章或官方通知中的详细规定。
+如果您想了解具体的额外招生信息，建议访问以下网站获取最新和最准确的信息：
+https://ipsi.deu.ac.kr/main.do
+或者您可以直接联系学校招生办公室进行咨询。</t>
+        </is>
+      </c>
+      <c r="F243" t="inlineStr">
+        <is>
+          <t>2024년 1월 2일(화) 이후 수시모집 등록자의 등록(입학) 포기로 인한 결원은 정시 일반학생전형 모집인원으로 이월하여 추가로 합격자를 선발합니다. 정시모집 모집단위별 등록인원이 모집인원에 미달된 경우에는 그 인원을 추가모집으로 이월하여 모집합니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="244">
+      <c r="A244" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B244" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 3
+   - 생성된 응답은 평생학습자전형에 대한 여러 정보를 포함하고 있지만, 일부 세부사항이 원본 텍스트와 일치하지 않거나 누락되었습니다. 예를 들어, 모집인원이나 전형요소 반영 비율에 대한 정보가 포함되지 않았습니다.
+2. Consistency Score (1-5): 3
+   - 생성된 응답은 원본 텍스트의 일부 내용을 반영하고 있지만, 전형의 세부사항에 대한 설명이 다소 다르게 표현되어 있어 일관성이 떨어집니다. 예를 들어, 서류 평가 영역에 대한 설명이 원본 텍스트와는 다른 방식으로 제시되었습니다.
+3. Relevance Score (1-5): 4
+   - 생성된 응답은 평생학습자전형에 대한 주요 내용을 다루고 있으며, 원본 텍스트의 핵심 주제와 관련이 있습니다. 그러나 일부 세부사항이 누락되어 있어 완전한 관련성을 제공하지는 않습니다.
+4. Fluency Score (1-5): 4
+   - 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 구조를 가지고 있습니다. 다만, 일부 문장이 다소 복잡하게 구성되어 있어 약간의 가독성 저하가 있을 수 있습니다.
+5. Coherence Score (1-5): 4
+   - 생성된 응답은 논리적으로 잘 구성되어 있으며, 각 항목이 명확하게 구분되어 있습니다. 그러나 일부 내용이 원본 텍스트와 다르게 배열되어 있어 완전한 일관성을 제공하지는 않습니다.
+6. Accuracy Score (1-5): 3
+   - 생성된 응답은 일부 정확한 정보를 포함하고 있지만, 원본 텍스트의 특정 세부사항이 누락되거나 잘못 해석된 부분이 있어 정확성이 떨어집니다.
+7. Multidimensional Quality Score (1-5): 3
+   - 생성된 응답은 여러 차원에서 평균적인 품질을 보이고 있으며, 일부 강점과 약점이 혼재되어 있습니다. 전반적으로 정보의 정확성과 일관성이 부족합니다.
+8. Semantic Appropriateness Score (1-5): 4
+   - 생성된 응답은 원본 텍스트의 의미와 맥락에 적절하게 부합하며, 전반적으로 의미 전달이 잘 이루어졌습니다.
+9. Understandability Score (1-5): 4
+   - 생성된 응답은 전반적으로 이해하기 쉬우며, 주요 내용이 명확하게 전달됩니다. 그러나 일부 복잡한 문장 구조로 인해 약간의 혼란이 있을 수 있습니다.
+{
+    "Factuality Score": 3,
+    "Consistency Score": 3,
+    "Relevance Score": 4,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 3,
+    "Multidimensional Quality Score": 3,
+    "Semantic Appropriateness Score": 4,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C244" t="n">
+        <v>0.6859240552092908</v>
+      </c>
+      <c r="D244" t="inlineStr">
+        <is>
+          <t>평생학습자전형에 대해 알려줘.</t>
+        </is>
+      </c>
+      <c r="E244" t="inlineStr">
+        <is>
+          <t>평생학습자전형은 대학에서 성인 학습자를 위한 특별한 입학 전형 중 하나입니다. 주요 내용을 요약하면 다음과 같습니다:
+1. 지원 자격:
+   - 고교 졸업(예정)자, 검정고시 출신자 또는 외국고교 졸업(예정)자를 대상으로 합니다.
+   - 재직자나 평생학습을 진행한 경험이 있는 성인 학습자를 위한 전형입니다.
+2. 모집 단과대학 및 계열:
+   - 미래융합대학의 인문사회계열, 라이프융합학부
+   - 부동산자산경영학부 등 다양한 분야
+3. 제출 서류:
+   - 고교 졸업(예정)자는 학교생활기록부 1부를 제출합니다.
+   - 검정고시 출신자는 검정고시 합격증서 사본, 성적증명서 등을 제출합니다.
+   - 외국고교 졸업(예정)자는 공증받은 외국고교 졸업증명서와 성적증명서를 제출해야 합니다.
+4. 서류 평가 영역:
+   - 공동체역량: 협업능력, 학교폭력 여부 등
+   - 학업역량: 학업태도/성취, 주요 과목 성적 등
+   - 전공적합성: 지원전공 관련 활동 및 경험
+5. 면접 평가:
+   - 개별면접으로 진행되며, 10분 이내로 이루어집니다.
+   - 지원 동기와 학업 계획, 학업역량, 전공적합성 등을 평가합니다.
+6. 동점자 처리 기준:
+   - 면접 성적이 우선 순위
+   - 서류평가 공동체역량 영역 성적이 높은 자
+   - 서류평가 전공적합성 영역 성적이 높은 자
+7. 기타 사항:
+   - 외국고교 졸업예정자는 2024년 2월 16일까지 추가 제출해야 합니다.
+   - 지원자격 증빙서류는 3년 이상의 재직 기간을 보유하고 있어야 합니다.
+이 전형은 성인 학습자들이 자신의 경력과 경험을 바탕으로 대학에 입학할 수 있는 좋은 기회를 제공합니다.</t>
+        </is>
+      </c>
+      <c r="F244" t="inlineStr">
+        <is>
+          <t>평생학습자전형에 대한 정보는 다음과 같습니다.  
+모집단위 및 모집인원
+  - 미래융합대학 라이프융합학부
+  - 전형명: 학생부종합(평생학습자전형)
+  - 모집인원: 11명
+ 지원자격
+ - 평생학습자전형: 고교 졸업(예정)자 또는 법령에 의한 동등학력 소지자
+전형요소 반영 비율
+ - 서류: 70%
+ - 면접: 30%
+ 제출서류
+ - 고교 졸업(예정)자:
+  - 고교 학교생활기록부 1부 (학생부 온라인 제공 동의자는 제출할 필요 없음)
+- 검정고시출신자:
+  - 검정고시 합격증서 사본 또는 합격증명서 1부
+  - 검정고시 성적증명서 1부 (온라인 제공 동의자는 제출할 필요 없음)
+  - 학교생활기록부 대체 서류 (제출여부 선택 가능)
+ - 외국고교 졸업(예정)자:
+  - 공증받은 외국고교 졸업(예정)증명서 1부
+  - 공증받은 외국고교 성적증명서 1부
+  - 학교생활기록부 대체 서류(제출여부 선택 가능)
+  - 외국어로 작성된 경우, 원본과 공증받은 한국어 번역본을 함께 제출
+  - 고교 졸업(예정)증명서, 성적증명서는 해당국가의 정부기관으로부터 아포스티유 확인서 또는 해당국가 주재 한국영사관에서 영사 확인을 발급받아 제출(단, 교육부에서 인정한 재외한국학교는 영사확인 없이 증명서 원본 제출 가능)
+  - 만점이 명시된 고교성적 체계자료를 성적증명서 뒤에 첨부
+  - 최종 등록자 중 외국고교 졸업예정자는 졸업 이후 졸업증명서(아포스티유 확인서 또는 영사확인 
+발급)를 2024. 02. 16.(금)까지 추가 제출하여야 합니다.
+제출기간 및 장소
+ - 제출기간: 2024. 01. 03.(수) ~ 01. 12.(금) 17:00까지 도착분에 한함
+ - 제출장소: (우: 47340) 부산광역시 부산진구 엄광로 176, 동의대학교 입학관리팀
+ 추가사항
+ - 검정고시출신자 및 외국고교 졸업(예정)자의 제출서류 중 학교생활기록부 대체 서류는 선택 제출서류로 ‘학교생활기록부 대체 서류’ 양식을 참조.
+ 자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인할 수 있습니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="245">
+      <c r="A245" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B245" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 1
+   - 생성된 응답은 평생학습자전형의 지원자격에 대한 정확한 정보를 제공하지 않고, 전혀 다른 내용(산업체 적용 범위 및 재직기간 등)을 포함하고 있습니다. 원본 텍스트의 핵심 정보인 "고교 졸업(예정)자 또는 법령에 의한 동등학력 소지자"와는 관련이 없습니다.
+2. Consistency Score (1-5): 1
+   - 생성된 응답은 원본 텍스트와 일치하지 않으며, 서로 상충하는 정보를 제공합니다. 원본의 지원자격과는 전혀 다른 조건을 제시하고 있어 일관성이 없습니다.
+3. Relevance Score (1-5): 1
+   - 생성된 응답은 원본 텍스트의 주제와 관련이 없으며, 평생학습자전형의 지원자격에 대한 질문에 대한 적절한 답변이 아닙니다. 주제와 관련된 정보가 전혀 포함되어 있지 않습니다.
+4. Fluency Score (1-5): 4
+   - 생성된 응답은 문법적으로 잘 작성되어 있으며, 읽기에도 무리가 없습니다. 그러나 내용이 부적절하여 전체적인 맥락에서의 유창성은 떨어집니다.
+5. Coherence Score (1-5): 3
+   - 생성된 응답은 내부적으로는 일관된 구조를 가지고 있지만, 원본 텍스트와의 관련성이 없기 때문에 전체적인 일관성은 떨어집니다. 주제와 관련된 내용이 아니므로 논리적 흐름이 약합니다.
+6. Accuracy Score (1-5): 1
+   - 생성된 응답은 원본 텍스트의 사실과 전혀 일치하지 않으며, 잘못된 정보를 포함하고 있습니다. 따라서 정확성 점수는 매우 낮습니다.
+7. Multidimensional Quality Score (1-5): 1
+   - 생성된 응답은 사실성, 일관성, 관련성, 정확성 등 모든 차원에서 매우 낮은 점수를 받습니다. 전반적으로 품질이 매우 낮습니다.
+8. Semantic Appropriateness Score (1-5): 1
+   - 생성된 응답은 원본 텍스트의 의미와 맥락에 전혀 부합하지 않으며, 주제와 관련이 없는 내용을 담고 있습니다.
+9. Understandability Score (1-5): 3
+   - 생성된 응답은 문법적으로는 이해할 수 있지만, 주제와 관련이 없기 때문에 전체적인 이해도는 떨어집니다. 내용이 부적절하여 혼란을 줄 수 있습니다.
+{
+    "Factuality Score": 1,
+    "Consistency Score": 1,
+    "Relevance Score": 1,
+    "Fluency Score": 4,
+    "Coherence Score": 3,
+    "Accuracy Score": 1,
+    "Multidimensional Quality Score": 1,
+    "Semantic Appropriateness Score": 1,
+    "Understandability Score": 3
+}</t>
+        </is>
+      </c>
+      <c r="C245" t="n">
+        <v>0.6738227465958785</v>
+      </c>
+      <c r="D245" t="inlineStr">
+        <is>
+          <t>평생학습자전형 지원자격은?</t>
+        </is>
+      </c>
+      <c r="E245" t="inlineStr">
+        <is>
+          <t>평생학습자전형의 지원 자격은 다음과 같습니다:
+1. 산업체 적용 범위:
+   - 국가·지방자치단체 및 공공단체 (소속 직원의 경우)
+   - 근로기준법 제11조에 의거 상시근로자 5인(사업주 포함) 이상 사업체
+   - 4대 보험 중 1개 이상 가입 사업체 (창업·자영업자 포함)
+     ※ 단, 4대 보험 가입 대상 사업체가 아닌 1차 산업 종사자는 국가·지방자치단체가 발급하는 공적증명서 확인을 통해 인정할 수 있음
+2. 재직기간:
+   - 2024년 3월 1일 기준으로 총 재직기간이 3년 이상(예정)이어야 함
+   - 재직기간은 제출한 지원 자격 증빙 서류 상으로 증명되는 기간만 산정
+   - 2개 이상의 산업체에 재직한 경우 총 재직기간은 합산하여 산정하되, 중복되는 기간은 이중으로 합산하지 않음
+   - 군 의무복무 경력도 재직기간으로 인정함
+이러한 자격 요건을 충족해야 평생학습자전형에 지원할 수 있습니다.</t>
+        </is>
+      </c>
+      <c r="F245" t="inlineStr">
+        <is>
+          <t>평생학습자전형의 지원자격은 다음과 같습니다
+ - 고교 졸업(예정)자 또는 법령에 의한 동등학력 소지자</t>
+        </is>
+      </c>
+    </row>
+    <row r="246">
+      <c r="A246" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B246" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 4
+   - 설명: 생성된 응답은 실기고사 날짜와 대기실 및 입실시간에 대한 정보를 정확하게 포함하고 있습니다. 그러나 "디자인조형학과와 체육학과의 실기고사를 치르는 날입니다."라는 문장은 추가적인 정보이지만, 원본 텍스트에는 포함되어 있지 않으므로 약간의 부정확성이 있습니다.
+2. Consistency Score (1-5): 4
+   - 설명: 생성된 응답은 원본 텍스트와 대체로 일관성을 유지하고 있습니다. 실기고사 일정과 대기실 및 입실시간에 대한 정보가 일치하지만, 추가된 학과 정보가 원본 텍스트에 없기 때문에 완전한 일관성은 아닙니다.
+3. Relevance Score (1-5): 5
+   - 설명: 생성된 응답은 원본 텍스트의 주요 주제인 실기고사 일정과 대기실 및 입실시간에 직접적으로 관련이 있습니다. 따라서 매우 높은 관련성을 가지고 있습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 구조를 가지고 있습니다. 그러나 약간의 어색한 표현이 있을 수 있습니다.
+5. Coherence Score (1-5): 4
+   - 설명: 생성된 응답은 논리적으로 잘 구성되어 있으며, 실기고사 일정과 관련된 정보가 명확하게 연결되어 있습니다. 그러나 추가된 정보가 약간의 혼란을 줄 수 있습니다.
+6. Accuracy Score (1-5): 4
+   - 설명: 생성된 응답은 실기고사 일정과 대기실 및 입실시간에 대한 정보를 정확하게 반영하고 있습니다. 그러나 추가된 학과 정보는 원본 텍스트에 없으므로 완전한 정확성은 아닙니다.
+7. Multidimensional Quality Score (1-5): 4
+   - 설명: 생성된 응답은 여러 품질 차원에서 잘 수행되고 있으며, 특히 관련성과 사실성에서 높은 점수를 받았습니다. 그러나 약간의 부정확성과 일관성 문제로 인해 완전한 점수는 아닙니다.
+8. Semantic Appropriateness Score (1-5): 4
+   - 설명: 생성된 응답은 원본 텍스트의 의미와 맥락에 적절하게 부합합니다. 그러나 추가된 정보가 원본의 의미를 약간 벗어날 수 있습니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 명확하고 이해하기 쉬운 구조를 가지고 있습니다. 그러나 추가된 정보가 약간의 혼란을 줄 수 있습니다.
+{
+    "Factuality Score": 4,
+    "Consistency Score": 4,
+    "Relevance Score": 5,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 4,
+    "Multidimensional Quality Score": 4,
+    "Semantic Appropriateness Score": 4,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C246" t="n">
+        <v>0.6066022060200227</v>
+      </c>
+      <c r="D246" t="inlineStr">
+        <is>
+          <t>실기고사는 어디로 가면 되나요?</t>
+        </is>
+      </c>
+      <c r="E246" t="inlineStr">
+        <is>
+          <t>2024년 1월 17일(수)에 실기고사가 있습니다. 이 날짜는 디자인조형학과와 체육학과의 실기고사를 치르는 날입니다.
+실기고사 일정:
+- **일시:** 2024년 1월 17일(수)
+- **대기실 및 입실시간 안내:** 2024년 1월 12일(금) 14:00 이후, 입학안내 홈페이지에서 확인 가능합니다.
+따라서 실기고사는 2024년 1월 17일에 해당 학과의 대기실로 가셔야 합니다.</t>
+        </is>
+      </c>
+      <c r="F246" t="inlineStr">
+        <is>
+          <t>실기고사 대기실 및 입실시간은 2024. 01. 12.(금) 14:00 이후 입학안내 홈페이지에서 조회 가능합니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="247">
+      <c r="A247" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B247" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 2
+   - 설명: 생성된 응답은 실기고사 대기실 및 입실시간에 대한 정보가 포함되어 있지 않으며, 실기종목과 관련된 정보만 제공하고 있습니다. 따라서 사실성 점수는 낮습니다.
+2. Consistency Score (1-5): 2
+   - 설명: 생성된 응답은 원본 텍스트와 일치하지 않으며, 실기고사에 대한 구체적인 정보가 부족합니다. 원본 텍스트의 핵심 정보인 대기실 및 입실시간에 대한 언급이 없기 때문에 일관성 점수는 낮습니다.
+3. Relevance Score (1-5): 3
+   - 설명: 생성된 응답은 체육학과의 실기고사에 대한 정보를 제공하지만, 원본 텍스트의 주제인 대기실 및 입실시간과는 관련이 적습니다. 따라서 관련성 점수는 중간 정도입니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 문법적으로 잘 작성되어 있으며, 읽기에도 무리가 없습니다. 따라서 유창성 점수는 높습니다.
+5. Coherence Score (1-5): 4
+   - 설명: 생성된 응답은 논리적으로 잘 구성되어 있으며, 각 항목이 명확하게 구분되어 있습니다. 따라서 일관성 점수는 높습니다.
+6. Accuracy Score (1-5): 2
+   - 설명: 생성된 응답은 원본 텍스트의 사실과 일치하지 않으며, 중요한 정보가 누락되어 있습니다. 따라서 정확성 점수는 낮습니다.
+7. Multidimensional Quality Score (1-5): 2
+   - 설명: 여러 차원에서 평가했을 때, 생성된 응답은 사실성, 일관성, 정확성에서 낮은 점수를 받았기 때문에 전반적인 품질 점수도 낮습니다.
+8. Semantic Appropriateness Score (1-5): 3
+   - 설명: 생성된 응답은 체육학과의 실기고사에 대한 정보를 제공하지만, 원본 텍스트의 맥락과는 다소 어긋납니다. 따라서 의미 적합성 점수는 중간 정도입니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 명확하게 작성되어 있어 이해하기 쉽습니다. 따라서 이해 가능성 점수는 높습니다.
+{
+    "Factuality Score": 2,
+    "Consistency Score": 2,
+    "Relevance Score": 3,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 2,
+    "Multidimensional Quality Score": 2,
+    "Semantic Appropriateness Score": 3,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C247" t="n">
+        <v>0.3804749502577526</v>
+      </c>
+      <c r="D247" t="inlineStr">
+        <is>
+          <t>체육학과의 실기고사는 어디로 가면 되나요?</t>
+        </is>
+      </c>
+      <c r="E247" t="inlineStr">
+        <is>
+          <t>체육학과의 실기고사는 다음과 같이 진행됩니다:
+1. **모집단위**: 체육학과입니다.
+2. **실기종목**:
+   - 제자리 멀리뛰기 (배점: 240점, 비율: 24%)
+   - 메디신볼 던지기 (배점: 243점, 비율: 23%)
+   - Z-런 (배점: 230점, 비율: 23%)
+실기고사는 이 세 가지 종목 중 하나를 선택하여 응시하게 됩니다. 각 종목의 배점과 비율은 다음과 같습니다:
+- 제자리 멀리뛰기는 240점 (24%)
+- 메디신볼 던지는 243점 (23%)
+- Z-런은 230점 (23%)
+실기고사는 해당 종목에 따라 준비물과 시간이 다르므로, 응시 전 각각의 세부 사항을 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+      <c r="F247" t="inlineStr">
+        <is>
+          <t>실기고사 대기실 및 입실시간은 2024. 01. 12.(금) 14:00 이후 입학안내 홈페이지에서 조회 가능합니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="248">
+      <c r="A248" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B248" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 1
+   - 설명: 생성된 응답은 수시 충원합격자 발표가 전화로 개별 연락이 이루어진다고 잘못된 정보를 제공하고 있습니다. 이는 원본 텍스트와 명백히 상충합니다.
+2. Consistency Score (1-5): 1
+   - 설명: 생성된 응답은 원본 텍스트와 완전히 모순됩니다. 원본에서는 전화로 개별 연락을 하지 않는다고 명시하고 있지만, 생성된 응답에서는 전화 통보가 이루어진다고 주장하고 있습니다.
+3. Relevance Score (1-5): 3
+   - 설명: 생성된 응답은 원본 텍스트의 주제와 관련이 있지만, 잘못된 정보를 바탕으로 하고 있어 관련성은 있지만 신뢰할 수 없습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 문법적으로 잘 작성되어 있으며, 읽기에도 무리가 없습니다. 그러나 내용의 정확성 문제로 인해 전체적인 품질이 저하됩니다.
+5. Coherence Score (1-5): 4
+   - 설명: 생성된 응답은 내부적으로 일관된 구조를 가지고 있으며, 논리적인 흐름이 있습니다. 그러나 원본과의 불일치로 인해 전체적인 일관성은 떨어집니다.
+6. Accuracy Score (1-5): 1
+   - 설명: 생성된 응답은 원본 텍스트의 사실과 완전히 다릅니다. 전화 통보가 이루어진다는 주장은 사실이 아닙니다.
+7. Multidimensional Quality Score (1-5): 1
+   - 설명: 생성된 응답은 사실성, 일관성, 정확성 등 여러 차원에서 매우 낮은 점수를 받습니다. 잘못된 정보로 인해 전반적인 품질이 저하되었습니다.
+8. Semantic Appropriateness Score (1-5): 2
+   - 설명: 생성된 응답은 원본 텍스트의 의미와 맥락에 맞지 않으며, 잘못된 정보를 전달하고 있습니다. 그러나 일부 내용은 관련이 있을 수 있습니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 문장이 명확하고 이해하기 쉬운 편입니다. 그러나 잘못된 정보로 인해 혼란을 초래할 수 있습니다.
+{
+    "Factuality Score": 1,
+    "Consistency Score": 1,
+    "Relevance Score": 3,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 1,
+    "Multidimensional Quality Score": 1,
+    "Semantic Appropriateness Score": 2,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C248" t="n">
+        <v>0.7562549646335973</v>
+      </c>
+      <c r="D248" t="inlineStr">
+        <is>
+          <t>수시 충원합격자 발표하면 전화 주시는건가요?</t>
+        </is>
+      </c>
+      <c r="E248" t="inlineStr">
+        <is>
+          <t>2024년도 입학전형 일정에 따르면, 수시 충원 합격자 발표 후에는 개별 전화 통보가 이루어집니다. 따라서 충원 합격자가 발표되면 대개 합격자에게 전화로 연락이 가게 됩니다.
+만약 전화를 받지 못한 경우나 추가적인 정보가 필요하다면, 입학관리팀에 문의하시거나 공지된 입학안내 홈페이지에서 확인해 보시는 것이 좋습니다.</t>
+        </is>
+      </c>
+      <c r="F248" t="inlineStr">
+        <is>
+          <t>아니요, 수시 충원합격자 발표는 전화로 개별 연락을 하지 않습니다. 최초합격자 및 1차, 2차 충원합격자 발표는 홈페이지를 통해 실시하며, 모든 지원자는 전형 일정에 명시된 합격자 발표일에 합격 여부를 반드시 홈페이지를 통해 확인해야 합니다. 3차 이후 충원합격자 발표 과정에서만 개별 전화 통보가 이루어집니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="249">
+      <c r="A249" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B249" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 4
+   - 설명: 생성된 응답은 2023학년도 경찰행정학과 수시모집 결과에 대한 정보가 제공되지 않는다는 사실을 정확하게 반영하고 있습니다. 그러나 2024학년도에 대한 정보는 원문에 포함되어 있지 않으며, 이는 사실과 다릅니다. 따라서 점수는 4로 평가합니다.
+2. Consistency Score (1-5): 3
+   - 설명: 생성된 응답은 2023학년도 수시모집 결과에 대한 정보가 없다는 점에서 원문과 일치하지만, 2024학년도에 대한 정보가 포함되어 있어 일관성이 떨어집니다. 원문에서는 2024학년도에 대한 정보가 언급되지 않았기 때문에 점수는 3으로 평가합니다.
+3. Relevance Score (1-5): 5
+   - 설명: 생성된 응답은 원문에서 요청된 정보와 관련이 있으며, 2023학년도 수시모집 결과에 대한 질문에 적절하게 대응하고 있습니다. 따라서 점수는 5로 평가합니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 구조를 가지고 있습니다. 다만, 약간의 어색한 표현이 있을 수 있어 점수는 4로 평가합니다.
+5. Coherence Score (1-5): 4
+   - 설명: 생성된 응답은 논리적으로 잘 구성되어 있으며, 정보가 명확하게 전달됩니다. 그러나 2024학년도에 대한 정보가 포함되어 있어 약간의 일관성이 떨어지므로 점수는 4로 평가합니다.
+6. Accuracy Score (1-5): 4
+   - 설명: 생성된 응답은 2023학년도 수시모집 결과에 대한 정보가 없다는 점에서 정확하지만, 2024학년도에 대한 정보는 원문에 포함되어 있지 않으므로 점수는 4로 평가합니다.
+7. Multidimensional Quality Score (1-5): 4
+   - 설명: 생성된 응답은 여러 차원에서 양호한 성과를 보이지만, 2024학년도에 대한 정보가 포함되어 있어 일부 차원에서 일관성이 떨어지므로 점수는 4로 평가합니다.
+8. Semantic Appropriateness Score (1-5): 4
+   - 설명: 생성된 응답은 원문과 의미적으로 잘 연결되어 있으나, 2024학년도에 대한 정보가 포함되어 있어 약간의 부적절함이 있으므로 점수는 4로 평가합니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 이해하기 쉽고 명확하게 작성되었으나, 일부 정보가 추가되어 혼란을 줄 수 있으므로 점수는 4로 평가합니다.
+{
+    "Factuality Score": 4,
+    "Consistency Score": 3,
+    "Relevance Score": 5,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 4,
+    "Multidimensional Quality Score": 4,
+    "Semantic Appropriateness Score": 4,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C249" t="n">
+        <v>0.8024386082252994</v>
+      </c>
+      <c r="D249" t="inlineStr">
+        <is>
+          <t>2023학년도 경찰행정학과 수시모집 결과는?</t>
+        </is>
+      </c>
+      <c r="E249" t="inlineStr">
+        <is>
+          <t>2023학년도 경찰행정학과의 수시모집 결과에 대한 정보는 제공된 자료에서 직접적으로 확인할 수 없습니다. 하지만, 2024학년도의 모집 인원과 지원 인원, 경쟁률 등의 데이터가 포함되어 있습니다.
+2024학년도 경찰행정학과의 경우:
+- 모집인원: 7명
+- 지원인원: 29명
+- 경쟁률: 4.14
+이 정보를 바탕으로 추정할 수는 있지만, 정확한 2023학년도의 결과는 제공된 자료에는 포함되어 있지 않습니다.
+더 구체적인 2023학년도 경찰행정학과의 수시모집 결과가 필요하시다면, 해당 대학의 입학처 웹사이트(https://ipsi.deu.ac.kr/main.do)를 참조하거나 직접 문의하시는 것이 가장 정확할 것입니다.</t>
+        </is>
+      </c>
+      <c r="F249" t="inlineStr">
+        <is>
+          <t>제공된 정시 모집요강에는 2023학년도 경찰행정학과 수시모집 결과에 대한 정보가 포함되어 있지 않습니다. 해당 정보를 확인하려면 "https://ipsi.deu.ac.kr/main.do"를 방문하여 문의하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="250">
+      <c r="A250" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B250" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 2
+   - 설명: 생성된 응답은 정시모집 지원자가 수능에 응시하지 않으면 지원할 수 없다는 원문과 상충하는 내용을 포함하고 있습니다. 학생부종합 전형과 실기/실적 위주 전형에서는 수능 응시 여부에 관계없이 지원이 가능하다고 언급하고 있지만, 이는 원문에서 명시된 사실과 모순됩니다.
+2. Consistency Score (1-5): 2
+   - 설명: 생성된 응답은 원문과 일관성이 부족합니다. 원문은 정시모집 지원자가 수능에 응시하지 않으면 지원할 수 없다고 명확히 말하고 있지만, 생성된 응답은 특정 전형에서는 수능 응시가 필요 없다고 주장하여 일관성을 잃고 있습니다.
+3. Relevance Score (1-5): 4
+   - 설명: 생성된 응답은 원문과 관련된 내용을 다루고 있지만, 원문에서 제시된 핵심 질문에 대한 직접적인 답변이 부족합니다. 그러나 추가적인 정보는 제공하고 있어 관련성이 높습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 구조를 가지고 있습니다. 다만, 일부 문장이 길어 가독성이 떨어질 수 있습니다.
+5. Coherence Score (1-5): 3
+   - 설명: 생성된 응답은 여러 정보를 포함하고 있지만, 논리적인 흐름이 다소 부족합니다. 원문과의 연결이 명확하지 않아 독자가 혼란스러울 수 있습니다.
+6. Accuracy Score (1-5): 2
+   - 설명: 생성된 응답은 원문에서 제시된 사실과 상충하는 내용을 포함하고 있어 정확성이 낮습니다. 원문이 명확히 수능 응시가 필수라고 언급한 반면, 생성된 응답은 이를 부정하는 내용을 담고 있습니다.
+7. Multidimensional Quality Score (1-5): 2
+   - 설명: 생성된 응답은 여러 차원에서 원문과의 불일치가 있으며, 사실성, 일관성, 정확성에서 낮은 점수를 받았습니다. 전반적으로 품질이 낮습니다.
+8. Semantic Appropriateness Score (1-5): 3
+   - 설명: 생성된 응답은 원문과 관련된 내용을 다루고 있지만, 원문의 의미와 다르게 해석될 수 있는 부분이 있어 의미적으로 적절하지 않은 부분이 있습니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 이해하기 쉬운 구조를 가지고 있지만, 원문과의 관계가 명확하지 않아 일부 독자에게 혼란을 줄 수 있습니다.
+{
+    "Factuality Score": 2,
+    "Consistency Score": 2,
+    "Relevance Score": 4,
+    "Fluency Score": 4,
+    "Coherence Score": 3,
+    "Accuracy Score": 2,
+    "Multidimensional Quality Score": 2,
+    "Semantic Appropriateness Score": 3,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C250" t="n">
+        <v>0.4909705438871617</v>
+      </c>
+      <c r="D250" t="inlineStr">
+        <is>
+          <t>정시에 수능 응시하지 않아도 지원할 수 있나요?</t>
+        </is>
+      </c>
+      <c r="E250" t="inlineStr">
+        <is>
+          <t>2024학년도 입학사정관제(학생부종합)와 실기/실적 위주전형에서는 수능 응시 여부에 관계없이 지원이 가능합니다. 그러나 일반학생전형인 다군의 경우, 해당 모집단위는 수능 응시가 필수입니다.
+예를 들어:
+- 나군 학생부종합(조기취업형계약학과전형) 등은 수능 응시 여부에 관계없이 지원 가능합니다.
+- 다군 수능(일반학생전형) 등은 수능 응시가 필수입니다.
+따라서, 정시에 수능을 응시하지 않아도 학생부종합 등의 전형에서는 지원이 가능합니다. 하지만 특정 모집단위는 수능 응시가 필요할 수 있으므로, 지원하고자 하는 모집단위의 자세한 조건을 확인하시기 바랍니다.
+더 궁금하신 점이 있으면 https://ipsi.deu.ac.kr/main.do를 참조하거나 학교 입학처에 문의하시는 것이 좋습니다.</t>
+        </is>
+      </c>
+      <c r="F250" t="inlineStr">
+        <is>
+          <t>아니요, 정시모집 지원자는 수능에 응시하지 않으면 지원할 수 없습니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="251">
+      <c r="A251" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B251" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 3
+   - 설명: 생성된 응답은 고등학교 졸업 후 10년이 지났더라도 정시 지원이 가능하다는 원문 내용을 일부 반영하고 있지만, "일반적으로 정시모집에 지원하기 어렵다"는 부분은 원문과 상충하는 정보입니다. 따라서 사실성 점수는 3으로 평가합니다.
+2. Consistency Score (1-5): 2
+   - 설명: 생성된 응답은 원문과 일치하지 않는 정보가 포함되어 있습니다. 특히, 고등학교 졸업 후 10년이 지났다면 지원이 어렵다는 주장은 원문과 모순됩니다. 따라서 일관성 점수는 2로 평가합니다.
+3. Relevance Score (1-5): 4
+   - 설명: 생성된 응답은 주제와 관련된 정보를 제공하고 있지만, 원문에서 강조한 "정시 지원 가능성"에 대한 명확한 답변이 부족합니다. 따라서 관련성 점수는 4로 평가합니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 구조를 가지고 있습니다. 그러나 일부 문장이 다소 길어 가독성이 떨어질 수 있습니다. 따라서 유창성 점수는 4로 평가합니다.
+5. Coherence Score (1-5): 3
+   - 설명: 생성된 응답은 여러 정보를 포함하고 있지만, 논리적인 흐름이 다소 불명확합니다. 특히, 고등학교 졸업 후 10년이 지났을 때의 지원 가능성에 대한 설명이 혼란스러울 수 있습니다. 따라서 일관성 점수는 3으로 평가합니다.
+6. Accuracy Score (1-5): 3
+   - 설명: 생성된 응답은 일부 정확한 정보를 포함하고 있지만, 고등학교 졸업 후 10년이 지났을 때의 지원 가능성에 대한 정보가 원문과 상충합니다. 따라서 정확성 점수는 3으로 평가합니다.
+7. Multidimensional Quality Score (1-5): 3
+   - 설명: 생성된 응답은 여러 차원에서 중간 정도의 품질을 보입니다. 사실성과 일관성에서 문제가 있지만, 관련성과 유창성은 양호합니다. 따라서 다차원 품질 점수는 3으로 평가합니다.
+8. Semantic Appropriateness Score (1-5): 3
+   - 설명: 생성된 응답은 원문과 관련된 의미를 전달하고 있지만, 일부 내용이 원문과 다르게 해석될 수 있습니다. 따라서 의미 적합성 점수는 3으로 평가합니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 이해하기 쉬운 구조를 가지고 있지만, 일부 문장이 길어 다소 복잡하게 느껴질 수 있습니다. 따라서 이해 가능성 점수는 4로 평가합니다.
+{
+    "Factuality Score": 3,
+    "Consistency Score": 2,
+    "Relevance Score": 4,
+    "Fluency Score": 4,
+    "Coherence Score": 3,
+    "Accuracy Score": 3,
+    "Multidimensional Quality Score": 3,
+    "Semantic Appropriateness Score": 3,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C251" t="n">
+        <v>0.6700202844917212</v>
+      </c>
+      <c r="D251" t="inlineStr">
+        <is>
+          <t>고등학교 졸업한지 10년이 지났는데 정시 지원 가능한가요?</t>
+        </is>
+      </c>
+      <c r="E251" t="inlineStr">
+        <is>
+          <t>2024학년도 동아대학교의 정시모집 전형을 보면, 일반고 및 자율고 출신자 외에 특수목적고(과학고, 국제고, 외국어고), 예술고, 체육고, 마이스터고, 특성화고(특성, 대안), 영재학교, 학력인정고, 방송통신고, 각종학교 출신자도 지원 가능합니다. 
+하지만, 고등학교 졸업 후 10년 이상 경과한 경우 일반적으로 정시모집에 지원하기 어렵습니다. 동아대학교의 정시모집은 주로 고등학교 졸업생을 대상으로 하고 있습니다.
+특히, 2024학년도부터 일부 전형에서 다음과 같은 변화가 있었습니다:
+- 학생부종합(성인학습자(정원내)전형): 만 30세 이상인 자를 대상으로 지원 가능해졌습니다.
+- 학생부종합(재직자전형): 특성화고 교육과정 또는 1년 이상의 직업교육훈련과정을 이수한 경우만 지원 가능하게 되었습니다.
+따라서, 고등학교 졸업 후 10년이 지났다면 정시모집에 지원하기 위해서는 위와 같은 조건 중 적합한 것을 찾아보시거나, 동아대학교 입학처 웹사이트(https://ipsi.deu.ac.kr/main.do)를 참조하시기 바랍니다. 
+더 자세한 정보가 필요하시면 동아대학교 입학처로 문의하시는 것이 좋습니다.</t>
+        </is>
+      </c>
+      <c r="F251" t="inlineStr">
+        <is>
+          <t>네, 고등학교 졸업한지 10년이 지났더라도 정시 지원이 가능합니다. "고교유형별 지원자격" 표에 따르면, 일반고, 자율고, 특수목적고, 특성화고, 영재학교, 기타 학교, 검정고시, 외국고 출신자 모두 정시 지원이 가능합니다. 따라서 고등학교 졸업 시기와 상관없이 지원할 수 있습니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="252">
+      <c r="A252" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B252" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 모든 사실을 정확하게 반영하고 있으며, 일정과 비고 내용이 일치합니다.
+2. Consistency Score (1-5): 5
+   - 생성된 응답은 원본 텍스트와 일관되며, 모든 정보가 충돌 없이 잘 연결되어 있습니다.
+3. Relevance Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 주요 주제와 핵심 사항을 직접적으로 다루고 있어 매우 관련성이 높습니다.
+4. Fluency Score (1-5): 5
+   - 생성된 응답은 문법적으로 정확하고, 문장 구조가 매끄러워 읽기 쉽습니다.
+5. Coherence Score (1-5): 5
+   - 생성된 응답은 논리적으로 잘 구성되어 있으며, 각 항목이 자연스럽게 이어집니다.
+6. Accuracy Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 모든 세부 사항을 정확하게 반영하고 있습니다.
+7. Multidimensional Quality Score (1-5): 5
+   - 생성된 응답은 사실성, 일관성, 관련성, 정확성 등 모든 품질 차원에서 우수한 성과를 보입니다.
+8. Semantic Appropriateness Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 의미와 맥락에 완전히 부합하며, 적절한 의미를 전달합니다.
+9. Understandability Score (1-5): 5
+   - 생성된 응답은 매우 명확하고 이해하기 쉬우며, 정보가 잘 전달됩니다.
+{
+    "Factuality Score": 5,
+    "Consistency Score": 5,
+    "Relevance Score": 5,
+    "Fluency Score": 5,
+    "Coherence Score": 5,
+    "Accuracy Score": 5,
+    "Multidimensional Quality Score": 5,
+    "Semantic Appropriateness Score": 5,
+    "Understandability Score": 5
+}</t>
+        </is>
+      </c>
+      <c r="C252" t="n">
+        <v>0.8311670829225615</v>
+      </c>
+      <c r="D252" t="inlineStr">
+        <is>
+          <t>동의대학교 정시 일정에 대해 설명해주세요.</t>
+        </is>
+      </c>
+      <c r="E252" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대학교의 정시 모집일정은 다음과 같습니다:
+1. **모집인원 확정 공고**:
+   - 날짜: 2024. 01. 02.(화)
+   - 비고: 입학안내 홈페이지 공고
+2. **원서접수(인터넷)**:
+   - 기간: 2024. 01. 03.(수) ~ 2024. 01. 06.(토) 마감일 18시까지
+   - 비고: http://ipsi.deu.ac.kr 또는 http://www.uwayapply.com
+3. **서류 제출 (제출서류가 있는 경우)**:
+   - 기간: 2024. 01. 03.(수) ~ 2024. 01. 12.(금) 마감일 17시까지 도착
+   - 비고: 서류 제출대상 (Ⅳ. 전형별 세부 안내 참조) 제출방법 : 접수사이트에서 우편발송용 표지를 출력하여 부착 후 제출 또는 우편발송
+4. **&lt;가&gt;군 실기고사 레저스포츠학과 태권도학과**:
+   - 날짜: 2024. 01. 16.(화)
+   - 비고: 대기실 및 입실시간 안내 2024. 01. 12.(금) 14:00 이후 입학안내 홈페이지에서 조회
+5. **&lt;나&gt;군 실기고사 디자인조형학과 (시각디자인, 산업디자인, 공예디자인) 체육학과**:
+   - 날짜: 2024. 01. 17.(수)
+   - 비고: 대기실 및 입실시간 안내 2024. 01. 12.(금) 14:00 이후 입학안내 홈페이지에서 조회
+6. **합격자 발표 및 등록금 납부**:
+   - 최초 합격자 발표: &lt;가&gt;군, &lt;나&gt;군, &lt;다&gt;군 2024. 02. 02.(금) 14:00
+     - 비고: * 발표 : 홈페이지에서 개별 조회 * 고지서 교부 : 홈페이지에서 출력 또는 입학관리팀에서 수령 * 등록장소 : 학교 지정은행(등록금 고지서에 기재)
+   - 최초 합격자 등록: 2024. 02. 07.(수) ~ 02. 13.(화) (은행마감시간 내)
+     - 비고: * 발표 : 홈페이지에서 개별 조회 * 고지서 교부 : 홈페이지에서 출력 또는 입학관리팀에서 수령 * 등록장소 : 학교 지정은행 (등록금 고지서에 기재)
+   - 충원 합격자 1차 (인터넷) 발표: 2024. 02. 14.(수) 09:00
+     - 비고: * 발표 : 홈페이지에서 개별 조회 * 고지서 교부 : 홈페이지에서 출력 또는 입학관리팀에서 수령 * 등록장소 : 학교 지정은행 (등록금 고지서에 기재)
+   - 충원 합격자 1차 (인터넷) 등록: 2024. 02. 14.(수) 09:00~16:00
+     - 비고: * 발표 : 홈페이지에서 개별 조회 * 고지서 교부 : 홈페이지에서 출력 또는 입학관리팀에서 수령 * 등록장소 : 학교 지정은행 (등록금 고지서에 기재)
+   - 충원 합격자 2차 (인터넷) 발표: 2024. 02. 15.(목) 09:00
+     - 비고: * 발표 : 홈페이지에서 개별 조회 * 고지서 교부 : 홈페이지에서 출력 또는 입학관리팀에서 수령 * 등록장소 : 학교 지정은행 (등록금 고지서에 기재)
+   - 충원 합격자 2차 (인터넷) 등록: 2024. 02. 15.(목) 09:00~16:00
+     - 비고: * 발표 : 홈페이지에서 개별 조회 * 고지서 교부 : 홈페이지에서 출력 또는 입학관리팀에서 수령 * 등록장소 : 학교 지정은행 (등록금 고지서에 기재)
+   - 충원 합격자 3차 이후 (개별 전화 통보) 발표: 2024. 02. 15.(목) 19:00 ~ 2024. 02. 20.(화) 18시까지
+     - 비고: * 발표 : 홈페이지에서 개별 조회 * 고지서 교부 : 홈페이지에서 출력 또는 입학관리팀에서 수령 * 등록장소 : 학교 지정은행 (등록금 고지서에 기재)
+   - 충원 합격자 3차 이후 (개별 전화 통보) 등록: 개별 전화 통보 시 안내
+     - 비고: * 발표 : 홈페이지에서 개별 조회 * 고지서 교부 : 홈페이지에서 출력 또는 입학관리팀에서 수령 * 등록장소 : 학교 지정은행 (등록금 고지서에 기재)
+이 일정들은 동의대학교 2024학년도 정시 모집을 위한 주요 단계를 포함하고 있으며, 각 단계별로 필요한 준비와 제출 사항들이 명확히 안내되어 있습니다.</t>
+        </is>
+      </c>
+      <c r="F252" t="inlineStr">
+        <is>
+          <t>동의대학교의 2024학년도 정시 일정은 다음과 같습니다
+1. 모집인원 확정 공고
+   - 일정: 2024년 1월 2일(화)
+   - 비고: 입학안내 홈페이지 공고
+2. 원서접수(인터넷)
+   - 일정: 2024년 1월 3일(수) ~ 2024년 1월 6일(토) 마감일 18시까지
+   - 비고: http://ipsi.deu.ac.kr 또는 http://www.uwayapply.com
+3. 서류 제출 (제출서류가 있는 경우)
+   - 일정: 2024년 1월 3일(수) ~ 2024년 1월 12일(금) 마감일 17시까지 도착
+   - 비고: 서류 제출대상 (Ⅳ. 전형별 세부 안내 참조)
+   - 제출방법: 접수사이트에서 우편발송용 표지를 출력하여 부착 후 제출 또는 우편발송
+4. 실기고사
+   - &lt;가&gt;군 실기고사 레저스포츠학과 태권도학과
+     - 일정: 2024년 1월 16일(화)
+     - 비고: 대기실 및 입실시간 안내 2024년 1월 12일(금) 14:00 이후 입학안내 홈페이지에서 조회
+   - &lt;나&gt;군 실기고사 디자인조형학과 (시각디자인, 산업디자인, 공예디자인) 체육학과
+     - 일정: 2024년 1월 17일(수)
+     - 비고: 대기실 및 입실시간 안내 2024년 1월 12일(금) 14:00 이후 입학안내 홈페이지에서 조회
+5. 합격자 발표 및 등록금 납부
+   - 최초 합격자 발표
+     - 일정: 2024년 2월 2일(금) 14:00
+     - 비고: 홈페이지에서 개별 조회, 고지서 교부: 홈페이지에서 출력 또는 입학관리팀에서 수령, 등록장소: 학교 지정은행(등록금 고지서에 기재)
+   - 최초 합격자 등록
+     - 일정: 2024년 2월 7일(수) ~ 2월 13일(화) (은행마감시간 내)
+     - 비고: 홈페이지에서 개별 조회, 고지서 교부: 홈페이지에서 출력 또는 입학관리팀에서 수령, 등록장소: 학교 지정은행(등록금 고지서에 기재)
+   - 충원 합격자 1차 (인터넷) 발표
+     - 일정: 2024년 2월 14일(수) 09:00
+     - 비고: 홈페이지에서 개별 조회, 고지서 교부: 홈페이지에서 출력 또는 입학관리팀에서 수령, 등록장소: 학교 지정은행(등록금 고지서에 기재)
+   - 충원 합격자 1차 (인터넷) 등록
+     - 일정: 2024년 2월 14일(수) 09:00 ~ 16:00
+     - 비고: 홈페이지에서 개별 조회, 고지서 교부: 홈페이지에서 출력 또는 입학관리팀에서 수령, 등록장소: 학교 지정은행(등록금 고지서에 기재)
+   - 충원 합격자 2차 (인터넷) 발표
+     - 일정: 2024년 2월 15일(목) 09:00
+     - 비고: 홈페이지에서 개별 조회, 고지서 교부: 홈페이지에서 출력 또는 입학관리팀에서 수령, 등록장소: 학교 지정은행(등록금 고지서에 기재)
+   - 충원 합격자 2차 (인터넷) 등록
+     - 일정: 2024년 2월 15일(목) 09:00 ~ 16:00
+     - 비고: 홈페이지에서 개별 조회, 고지서 교부: 홈페이지에서 출력 또는 입학관리팀에서 수령, 등록장소: 학교 지정은행(등록금 고지서에 기재)
+   - 충원 합격자 3차 이후 (개별 전화 통보) 발표
+     - 일정: 2024년 2월 15일(목) 19:00 ~ 2024년 2월 20일(화) 18시까지
+     - 비고: 홈페이지에서 개별 조회, 고지서 교부: 홈페이지에서 출력 또는 입학관리팀에서 수령, 등록장소: 학교 지정은행(등록금 고지서에 기재)
+   - 충원 합격자 3차 이후 (개별 전화 통보) 등록
+     - 일정: 개별 전화 통보 시 안내
+     - 비고: 홈페이지에서 개별 조회, 고지서 교부: 홈페이지에서 출력 또는 입학관리팀에서 수령, 등록장소: 학교 지정은행(등록금 고지서에 기재)
+추가 유의사항:
+- 최초합격자 및 1차, 2차 충원합격자 발표는 홈페이지를 통해 실시하며, 모든 지원자는 전형일정에 명시된 합격자 발표일에 합격 여부를 홈페이지를 통해 확인해야 합니다. 별도 개별 연락을 실시하지 않으며, 합격 여부 미확인으로 인해 등록하지 못했다 하더라도 등록(입학) 포기자로 간주합니다.
+- 최초 및 충원합격자는 전형일정에 명시된 등록 일정을 참고하여 지정 기일 내에 등록금을 납부해야 하며, 지정 기일 내에 등록금을 납부하지 않는 경우 입학을 포기하는 것으로 간주합니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="253">
+      <c r="A253" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B253" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 모든 사실을 정확하게 반영하고 있으며, 날짜와 세부 사항이 일치합니다.
+2. Consistency Score (1-5): 5
+   - 생성된 응답은 원본 텍스트와 일관되며, 모든 정보가 충돌 없이 잘 연결되어 있습니다.
+3. Relevance Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 주요 주제와 포인트를 직접적으로 다루고 있어 매우 관련성이 높습니다.
+4. Fluency Score (1-5): 5
+   - 생성된 응답은 문법적으로 정확하고 읽기 쉬우며, 자연스러운 흐름을 가지고 있습니다.
+5. Coherence Score (1-5): 5
+   - 생성된 응답은 논리적으로 잘 구성되어 있으며, 각 항목이 명확하게 연결되어 있습니다.
+6. Accuracy Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 모든 사실을 정확하게 반영하고 있으며, 잘못된 정보가 없습니다.
+7. Multidimensional Quality Score (1-5): 5
+   - 생성된 응답은 사실성, 일관성, 관련성, 정확성 등 모든 품질 차원에서 우수한 성과를 보입니다.
+8. Semantic Appropriateness Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 의미와 맥락에 완전히 부합하며, 적절한 의미를 전달하고 있습니다.
+9. Understandability Score (1-5): 5
+   - 생성된 응답은 매우 명확하고 이해하기 쉬우며, 정보가 잘 전달됩니다.
+{
+    "Factuality Score": 5,
+    "Consistency Score": 5,
+    "Relevance Score": 5,
+    "Fluency Score": 5,
+    "Coherence Score": 5,
+    "Accuracy Score": 5,
+    "Multidimensional Quality Score": 5,
+    "Semantic Appropriateness Score": 5,
+    "Understandability Score": 5
+}</t>
+        </is>
+      </c>
+      <c r="C253" t="n">
+        <v>0.8770574407288017</v>
+      </c>
+      <c r="D253" t="inlineStr">
+        <is>
+          <t>동의대학교 정시 모집 일정에 대해 설명해주세요.</t>
+        </is>
+      </c>
+      <c r="E253" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대학교 정시 모집 일정은 다음과 같습니다:
+1. **모집인원 확정 공고**:
+   - 날짜: 2024. 01. 02.(화)
+   - 비고: 입학안내 홈페이지 공고
+2. **원서접수(인터넷)**:
+   - 시작일: 2024. 01. 03.(수)
+   - 마감일: 2024. 01. 06.(토) 18시까지
+   - 참고 사이트: http://ipsi.deu.ac.kr 또는 http://www.uwayapply.com
+3. **서류 제출 (제출서류가 있는 경우)**:
+   - 시작일: 2024. 01. 03.(수)
+   - 마감일: 2024. 01. 12.(금) 17시까지 도착
+   - 제출방법: 접수사이트에서 우편발송용 표지를 출력하여 부착 후 제출 또는 우편발송 (서류 제출대상은 IV. 전형별 세부 안내 참조)
+4. **&lt;가&gt;군 실기고사 레저스포츠학과 태권도학과**:
+   - 날짜: 2024. 01. 16.(화)
+   - 비고: 대기실 및 입실시간 안내는 2024. 01. 12.(금) 14:00 이후 입학안내 홈페이지에서 조회
+5. **&lt;나&gt;군 실기고사 디자인조형학과 (시각디자인, 산업디자인, 공예디자인) 체육학과**:
+   - 날짜: 2024. 01. 17.(수)
+   - 비고: 대기실 및 입실시간 안내는 2024. 01. 12.(금) 14:00 이후 입학안내 홈페이지에서 조회
+6. **합격자 발표 및 등록금 납부**:
+   - 최초 합격자 발표: 2024. 02. 02.(금) 14:00
+     - 비고: * 발표 : 홈페이지에서 개별 조회 * 고지서 교부 : 홈페이지에서 출력 또는 입학관리팀에서 수령 * 등록장소 : 학교 지정은행(등록금 고지서에 기재)
+   - 최초 합격자 등록: 2024. 02. 07.(수) ~ 02. 13.(화) (은행마감시간 내)
+     - 비고: * 발표 : 홈페이지에서 개별 조회 * 고지서 교부 : 홈페이지에서 출력 또는 입학관리팀에서 수령 * 등록장소 : 학교 지정은행(등록금 고지서에 기재)
+   - 충원 합격자 1차 (인터넷) 발표: 2024. 02. 14.(수) 09:00
+     - 비고: * 발표 : 홈페이지에서 개별 조회 * 고지서 교부 : 홈페이지에서 출력 또는 입학관리팀에서 수령 * 등록장소 : 학교 지정은행(등록금 고지서에 기재)
+   - 충원 합격자 1차 (인터넷) 등록: 2024. 02. 14.(수) 09:00~16:00
+     - 비고: * 발표 : 홈페이지에서 개별 조회 * 고지서 교부 : 홈페이지에서 출력 또는 입학관리팀에서 수령 * 등록장소 : 학교 지정은행(등록금 고지서에 기재)
+   - 충원 합격자 2차 (인터넷) 발표: 2024. 02. 15.(목) 09:00
+     - 비고: * 발표 : 홈페이지에서 개별 조회 * 고지서 교부 : 홈페이지에서 출력 또는 입학관리팀에서 수령 * 등록장소 : 학교 지정은행(등록금 고지서에 기재)
+   - 충원 합격자 2차 (인터넷) 등록: 2024. 02. 15.(목) 09:00~16:00
+     - 비고: * 발표 : 홈페이지에서 개별 조회 * 고지서 교부 : 홈페이지에서 출력 또는 입학관리팀에서 수령 * 등록장소 : 학교 지정은행(등록금 고지서에 기재)
+   - 충원 합격자 3차 이후 (개별 전화 통보) 발표: 2024. 02. 15.(목) 19:00 ~ 2024. 02. 20.(화) 18시까지
+     - 비고: * 발표 : 홈페이지에서 개별 조회 * 고지서 교부 : 홈페이지에서 출력 또는 입학관리팀에서 수령 * 등록장소 : 학교 지정은행(등록금 고지서에 기재)
+   - 충원 합격자 3차 이후 (개별 전화 통보) 등록: 개별 전화 통보 시 안내
+     - 비고: * 발표 : 홈페이지에서 개별 조회 * 고지서 교부 : 홈페이지에서 출력 또는 입학관리팀에서 수령 * 등록장소 : 학교 지정은행(등록금 고지서에 기재)
+이 일정들은 동의대학교 2024학년도 정시 모집을 위한 주요 단계를 포함하고 있으며, 각 단계별로 필요한 준비와 제출 사항들이 명확히 안내되어 있습니다.</t>
+        </is>
+      </c>
+      <c r="F253" t="inlineStr">
+        <is>
+          <t>동의대학교 정시 모집 일정은 다음과 같습니다:
+1. 모집인원 확정 공고: 2024년 1월 2일(화)에 입학안내 홈페이지에 공고됩니다.
+2. 원서접수(인터넷): 2024년 1월 3일(수)부터 2024년 1월 6일(토) 18시까지 진행됩니다. 접수는 [입학안내 홈페이지](http://ipsi.deu.ac.kr) 또는 [유웨이 어플라이](http://www.uwayapply.com)에서 가능합니다.
+3. 서류 제출 (제출서류가 있는 경우): 2024년 1월 3일(수)부터 2024년 1월 12일(금) 17시까지 도착해야 합니다. 서류 제출 대상자는 접수 사이트에서 우편발송용 표지를 출력하여 부착 후 제출하거나 우편으로 발송해야 합니다.
+4. 실기고사 일정:
+   - &lt;가&gt;군 실기고사: 레저스포츠학과, 태권도학과는 2024년 1월 16일(화)에 실시됩니다. 대기실 및 입실시간 안내는 2024년 1월 12일(금) 14:00 이후 입학안내 홈페이지에서 조회할 수 있습니다.
+   - &lt;나&gt;군 실기고사: 디자인조형학과(시각디자인, 산업디자인, 공예디자인), 체육학과는 2024년 1월 17일(수)에 실시됩니다. 대기실 및 입실시간 안내는 2024년 1월 12일(금) 14:00 이후 입학안내 홈페이지에서 조회할 수 있습니다.
+5. 합격자 발표 및 등록금 납부:
+   - 최초 합격자 발표: &lt;가&gt;군, &lt;나&gt;군, &lt;다&gt;군 모두 2024년 2월 2일(금) 14:00에 발표됩니다. 발표는 홈페이지에서 개별 조회할 수 있으며, 고지서는 홈페이지에서 출력하거나 입학관리팀에서 수령할 수 있습니다. 등록장소는 학교 지정은행입니다.
+   - 최초 합격자 등록: 2024년 2월 7일(수)부터 2월 13일(화)까지 은행 마감시간 내에 등록해야 합니다.
+   - 충원 합격자 발표 및 등록:
+     - 1차 발표: 2024년 2월 14일(수) 09:00, 등록은 같은 날 09:00~16:00
+     - 2차 발표: 2024년 2월 15일(목) 09:00, 등록은 같은 날 09:00~16:00
+     - 3차 이후 발표: 2024년 2월 15일(목) 19:00부터 2024년 2월 20일(화) 18:00까지 개별 전화 통보, 등록은 개별 전화 통보 시 안내됩니다.
+모든 지원자는 전형일정에 명시된 합격자 발표일에 홈페이지를 통해 합격 여부를 확인해야 하며, 지정 기일 내에 등록금을 납부하지 않으면 입학을 포기하는 것으로 간주됩니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="254">
+      <c r="A254" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B254" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 1  
+   - 설명: 생성된 응답은 동의대학교 정시 모집 전형에서 수능 미응시자가 지원할 수 있는 전형이 있다고 주장하지만, 원문에서는 수능 성적이 요구되며 수능 미응시자는 지원이 불가능하다고 명시하고 있습니다. 따라서 생성된 응답은 사실과 크게 다릅니다.
+2. Consistency Score (1-5): 1  
+   - 설명: 생성된 응답은 원문과 상충되는 정보를 제공합니다. 원문에서는 수능 미응시자가 지원할 수 없다고 명시하고 있는데, 생성된 응답은 수능 미응시자가 지원 가능한 전형을 나열하고 있습니다. 이는 일관성이 없습니다.
+3. Relevance Score (1-5): 2  
+   - 설명: 생성된 응답은 원문과 관련된 내용을 다루고 있지만, 잘못된 정보를 바탕으로 하고 있어 관련성이 낮습니다. 원문에서의 핵심 정보인 수능 미응시자의 지원 불가능성을 무시하고 있습니다.
+4. Fluency Score (1-5): 4  
+   - 설명: 생성된 응답은 문법적으로 잘 작성되어 있으며, 읽기에도 무리가 없습니다. 그러나 내용의 정확성 문제로 인해 전체적인 품질이 저하됩니다.
+5. Coherence Score (1-5): 3  
+   - 설명: 생성된 응답은 구조적으로는 일관성을 가지고 있지만, 원문과의 내용적 불일치로 인해 전체적인 논리적 흐름이 약해집니다.
+6. Accuracy Score (1-5): 1  
+   - 설명: 생성된 응답은 원문에서 제공하는 사실과 완전히 반대되는 정보를 포함하고 있습니다. 수능 미응시자는 지원이 불가능하다는 사실을 무시하고 있습니다.
+7. Multidimensional Quality Score (1-5): 1  
+   - 설명: 생성된 응답은 사실성, 일관성, 정확성 등 여러 차원에서 매우 낮은 점수를 받습니다. 전반적으로 원문과의 불일치로 인해 품질이 저하되었습니다.
+8. Semantic Appropriateness Score (1-5): 1  
+   - 설명: 생성된 응답은 원문의 의미와 맥락에 맞지 않으며, 잘못된 정보를 전달하고 있습니다. 따라서 의미적으로 부적절합니다.
+9. Understandability Score (1-5): 4  
+   - 설명: 생성된 응답은 문법적으로 명확하고 이해하기 쉬운 구조를 가지고 있지만, 잘못된 정보로 인해 혼란을 초래할 수 있습니다.
+{
+    "Factuality Score": 1,
+    "Consistency Score": 1,
+    "Relevance Score": 2,
+    "Fluency Score": 4,
+    "Coherence Score": 3,
+    "Accuracy Score": 1,
+    "Multidimensional Quality Score": 1,
+    "Semantic Appropriateness Score": 1,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C254" t="n">
+        <v>0.6258837845806815</v>
+      </c>
+      <c r="D254" t="inlineStr">
+        <is>
+          <t>동의대학교 정시 모집 전형 중 수능 미응시자도 지원 가능한 전형은 어떤 것이 있나요?</t>
+        </is>
+      </c>
+      <c r="E254" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대학교 정시모집에서 수능 미응시자도 지원이 가능한 전형은 다음과 같습니다:
+1. **가군 실기/실적(일반학생전형)**:
+   - 레저스포츠학과, 태권도학과
+   - 이 전형에서는 수능 점수가 필요하지 않습니다.
+2. **나군 실기/실적(경기실적우수자전형)**:
+   - 모든 모집단위에서 수능 점수가 필요하지 않습니다.
+3. **학생부종합(조기취업형계약학과전형)**:
+   - 이 전형에서도 수능 점수가 필요하지 않습니다.
+이러한 전형들은 주로 실기 또는 경험이나 학생부 성적을 중점적으로 평가하므로, 수능 미응시자도 지원할 수 있는 기회가 있습니다.</t>
+        </is>
+      </c>
+      <c r="F254" t="inlineStr">
+        <is>
+          <t>동의대학교 정시 모집 전형에서는 수능 성적자료의 온라인 제공에 동의하는 것으로 간주되며, 수능 성적이 요구됩니다. 따라서 수능 미응시자는 지원이 불가능합니다. 자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="255">
+      <c r="A255" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B255" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 2
+   - 생성된 응답은 전자공학과의 충원 합격자가 34명이라고 언급하고 있지만, 원본 텍스트에서는 전년도 충원 합격자가 36명이라고 명시되어 있습니다. 또한, 원본 텍스트는 충원 합격 차수에 대한 정보가 없다고 명확히 언급하고 있으나, 생성된 응답은 이를 간접적으로 부정확하게 전달하고 있습니다.
+2. Consistency Score (1-5): 2
+   - 생성된 응답은 원본 텍스트와 일치하지 않는 정보를 포함하고 있습니다. 원본 텍스트는 충원 합격 차수에 대한 정보가 없다고 명시했지만, 생성된 응답은 전년도에 대한 구체적인 정보가 없다고 하면서도 34명이라는 숫자를 제시하고 있어 일관성이 부족합니다.
+3. Relevance Score (1-5): 4
+   - 생성된 응답은 원본 텍스트의 주제와 관련이 있지만, 전년도 충원 합격자 수에 대한 질문에 대한 직접적인 답변을 제공하지 않고 있습니다. 그러나 추가적인 정보와 웹사이트 링크를 제공하여 관련성을 유지하고 있습니다.
+4. Fluency Score (1-5): 4
+   - 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 구조를 가지고 있습니다. 다만, 일부 문장이 다소 복잡하게 느껴질 수 있습니다.
+5. Coherence Score (1-5): 4
+   - 생성된 응답은 논리적으로 잘 구성되어 있으며, 정보가 일관되게 연결되어 있습니다. 그러나 원본 텍스트와의 불일치로 인해 완전한 일관성을 보장하지는 않습니다.
+6. Accuracy Score (1-5): 2
+   - 생성된 응답은 전년도 충원 합격자 수에 대한 잘못된 정보를 포함하고 있으며, 원본 텍스트의 사실과 상충합니다. 따라서 정확성 점수는 낮습니다.
+7. Multidimensional Quality Score (1-5): 3
+   - 여러 차원에서의 품질이 평균적입니다. 일부 요소는 잘 수행되었지만, 사실성과 일관성에서 큰 문제가 있어 전반적인 품질이 저하되었습니다.
+8. Semantic Appropriateness Score (1-5): 3
+   - 생성된 응답은 원본 텍스트의 의미와 어느 정도 일치하지만, 잘못된 정보로 인해 의미 전달이 완벽하지 않습니다.
+9. Understandability Score (1-5): 4
+   - 생성된 응답은 전반적으로 이해하기 쉽고 명확하게 작성되었습니다. 그러나 일부 정보의 불일치로 인해 혼란을 줄 수 있습니다.
+{
+    "Factuality Score": 2,
+    "Consistency Score": 2,
+    "Relevance Score": 4,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 2,
+    "Multidimensional Quality Score": 3,
+    "Semantic Appropriateness Score": 3,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C255" t="n">
+        <v>0.748214350314915</v>
+      </c>
+      <c r="D255" t="inlineStr">
+        <is>
+          <t>전년도에 전자공학과의 충원 합격은 몇차까지 이루어졌습니까?</t>
+        </is>
+      </c>
+      <c r="E255" t="inlineStr">
+        <is>
+          <t>2024학년도 데이터를 바탕으로 전자공학과의 충원 합격자는 34명이며, 지원자는 146명으로 경쟁률이 4.29입니다. 하지만 전년도에 대한 구체적인 정보가 제공되지 않았기 때문에 전년도의 충원 합격 차수를 알려드리기는 어렵습니다.
+만약 더 정확한 정보를 얻으시려면 [https://ipsi.deu.ac.kr/main.do](https://ipsi.deu.ac.kr/main.do) 웹사이트를 참조하시거나 입학처에 직접 문의하시는 것이 좋겠습니다.</t>
+        </is>
+      </c>
+      <c r="F255" t="inlineStr">
+        <is>
+          <t>동의대학교 정시 모집 전형에는 충원 합격 차수에 대한 정보가 존재하지않습니다.
+전년도의 전자공학과의 충원 합격은 36명까지 이루어졌습니다.
+자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="256">
+      <c r="A256" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B256" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 1
+   - 설명: 생성된 응답은 동의대학교 입학관리팀의 전화번호를 명시적으로 언급하지 않고 있으며, 제공된 정보와 상반되는 내용을 포함하고 있습니다. 따라서 사실성이 매우 낮습니다.
+2. Consistency Score (1-5): 1
+   - 설명: 생성된 응답은 원본 텍스트와 상충되는 정보를 제공하고 있습니다. 원본 텍스트는 명확한 전화번호를 제공하고 있지만, 생성된 응답은 이를 부정하고 있습니다. 따라서 일관성이 없습니다.
+3. Relevance Score (1-5): 2
+   - 설명: 생성된 응답은 원본 텍스트의 주제와 관련이 있지만, 전화번호에 대한 직접적인 정보가 없기 때문에 관련성이 낮습니다. 원본 텍스트의 핵심 정보를 다루지 않고 있습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 문법적으로 올바르고 읽기 쉬운 구조를 가지고 있습니다. 그러나 내용의 적절성 때문에 전체적인 평가에 영향을 미칩니다.
+5. Coherence Score (1-5): 3
+   - 설명: 생성된 응답은 논리적으로 연결된 문장을 가지고 있지만, 원본 텍스트와의 관계가 명확하지 않아 일관성이 떨어집니다. 따라서 중간 정도의 일관성을 보입니다.
+6. Accuracy Score (1-5): 1
+   - 설명: 생성된 응답은 원본 텍스트의 사실과 크게 다르며, 전화번호에 대한 정보가 전혀 포함되어 있지 않습니다. 따라서 정확성이 매우 낮습니다.
+7. Multidimensional Quality Score (1-5): 1
+   - 설명: 생성된 응답은 사실성, 일관성, 관련성, 정확성 등 모든 차원에서 매우 낮은 점수를 받습니다. 전반적으로 품질이 좋지 않습니다.
+8. Semantic Appropriateness Score (1-5): 2
+   - 설명: 생성된 응답은 원본 텍스트의 의미와 맥락에 부합하지 않으며, 전화번호에 대한 정보가 없기 때문에 의미적으로 적절하지 않습니다.
+9. Understandability Score (1-5): 3
+   - 설명: 생성된 응답은 문법적으로 이해할 수 있지만, 내용이 원본 텍스트와 관련이 없기 때문에 이해하기 어려운 부분이 있습니다.
+{
+    "Factuality Score": 1,
+    "Consistency Score": 1,
+    "Relevance Score": 2,
+    "Fluency Score": 4,
+    "Coherence Score": 3,
+    "Accuracy Score": 1,
+    "Multidimensional Quality Score": 1,
+    "Semantic Appropriateness Score": 2,
+    "Understandability Score": 3
+}</t>
+        </is>
+      </c>
+      <c r="C256" t="n">
+        <v>0.6289900478244533</v>
+      </c>
+      <c r="D256" t="inlineStr">
+        <is>
+          <t>동의대학교 입학처 전화번호는 무엇입니까?</t>
+        </is>
+      </c>
+      <c r="E256" t="inlineStr">
+        <is>
+          <t>提供的信息中并没有直接提到东义大学入学处的电话号码。为了获取准确的信息，建议访问东义大学官方网站（https://ipsi.deu.ac.kr/main.do）上的招生页面或联系学校的招生办公室以获得最新的联系电话和其他重要信息。
+如果您需要其他帮助或有其他问题，请告诉我！</t>
+        </is>
+      </c>
+      <c r="F256" t="inlineStr">
+        <is>
+          <t>동의대학교 입학관리팀 연락처는 051-890-4379~89입니다. 자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="257">
+      <c r="A257" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B257" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 4
+   - 설명: 생성된 응답은 전화 통화가 되지 않을 경우의 절차에 대해 구체적으로 설명하고 있으며, 원본 텍스트의 내용을 대체로 잘 반영하고 있습니다. 그러나 원본 텍스트에서 강조된 '등록 의사가 없는 것으로 간주되어 등록 포기자로 처리된다'는 부분이 누락되어 있어 완전한 사실성을 보장하지는 않습니다.
+2. Consistency Score (1-5): 3
+   - 설명: 생성된 응답은 원본 텍스트와 일부 일치하지만, 전화 통화가 되지 않을 경우의 처리 방식에 대한 정보가 다소 다르게 표현되어 있습니다. 원본 텍스트의 핵심 내용과는 일치하지 않는 부분이 있어 일관성이 떨어집니다.
+3. Relevance Score (1-5): 5
+   - 설명: 생성된 응답은 원본 텍스트의 주제와 관련된 정보를 제공하고 있으며, 전화 통화가 되지 않을 경우의 절차에 대한 설명이 포함되어 있어 매우 관련성이 높습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 구조를 가지고 있습니다. 다만, 약간의 어색한 표현이 있을 수 있습니다.
+5. Coherence Score (1-5): 4
+   - 설명: 생성된 응답은 논리적으로 잘 구성되어 있으며, 각 절차가 명확하게 나열되어 있어 일관된 흐름을 유지하고 있습니다. 그러나 원본 텍스트와의 연결이 약간 부족할 수 있습니다.
+6. Accuracy Score (1-5): 4
+   - 설명: 생성된 응답은 원본 텍스트의 내용을 대체로 정확하게 반영하고 있지만, 일부 중요한 세부사항이 누락되어 있어 완전한 정확성을 보장하지는 않습니다.
+7. Multidimensional Quality Score (1-5): 4
+   - 설명: 생성된 응답은 여러 품질 차원에서 좋은 성과를 보이고 있으며, 특히 관련성과 유창성에서 높은 점수를 받았습니다. 그러나 사실성과 일관성에서 약간의 부족함이 있습니다.
+8. Semantic Appropriateness Score (1-5): 4
+   - 설명: 생성된 응답은 원본 텍스트의 의미와 맥락에 잘 부합하고 있으며, 적절한 의미를 전달하고 있습니다. 다만, 일부 세부사항이 누락되어 있어 완전한 적절성은 아닙니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 명확하고 이해하기 쉬운 구조를 가지고 있습니다. 그러나 일부 내용이 원본 텍스트와의 연결이 약간 부족하여 이해하는 데 다소 혼란을 줄 수 있습니다.
+{
+    "Factuality Score": 4,
+    "Consistency Score": 3,
+    "Relevance Score": 5,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 4,
+    "Multidimensional Quality Score": 4,
+    "Semantic Appropriateness Score": 4,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C257" t="n">
+        <v>0.7609855711785355</v>
+      </c>
+      <c r="D257" t="inlineStr">
+        <is>
+          <t>3차 이후 충원합격자에 대해 개별 전화 통보를 할 때 전화 통화가 되지 않으면 어떻게 처리되나요?</t>
+        </is>
+      </c>
+      <c r="E257" t="inlineStr">
+        <is>
+          <t>2024년 2월 15일(목) 19시부터 20일(화) 18시까지는 충원합격자 3차 이후 발표 및 등록이 이루어집니다. 이 기간 동안 개별 전화 통보가 진행되지만, 전화 통화가 되지 않는 경우에도 다음과 같은 절차를 따릅니다:
+1. **발표**: 홈페이지에서 개별 조회 가능합니다.
+2. **고지서 교부**: 홈페이지에서 출력하거나 입학관리팀에서 수령이 가능합니다.
+3. **등록장소**: 학교 지정은행으로 등록을 진행해야 합니다 (등록금 고지서에 기재된 정보를 확인하세요).
+따라서, 전화 통화가 되지 않더라도 위의 절차를 따르면 충원합격자로 선발되신 후 등록이 가능합니다.</t>
+        </is>
+      </c>
+      <c r="F257" t="inlineStr">
+        <is>
+          <t>3차 이후 충원합격자 발표 과정에서 전화 연락이 두절되어(3회 통화 시도) 충원합격 통보가 어려운 경우, 해당 지원자는 등록 의사가 없는 것으로 간주되어 등록 포기자로 처리됩니다. 따라서 충원합격자 발표 기간(2024년 2월 15일(목)~2024년 2월 20일(화)) 동안 전화 연락을 받을 수 있도록 유의해야 합니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="258">
+      <c r="A258" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B258" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 4
+   - 생성된 응답은 원본 텍스트의 주요 내용을 잘 반영하고 있으며, 필요한 서류 목록을 정확하게 나열하고 있습니다. 그러나 "최종 등록 시 추가 제출서류" 부분에서 고교 졸업증명서가 언급되었으나, 원본 텍스트에는 해당 내용이 포함되어 있지 않아 약간의 부정확성이 있습니다.
+2. Consistency Score (1-5): 4
+   - 생성된 응답은 원본 텍스트와 대체로 일관성을 유지하고 있습니다. 그러나 "최종 등록 시 추가 제출서류" 부분에서 원본 텍스트에 없는 정보를 추가하여 약간의 불일치가 발생했습니다.
+3. Relevance Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 주제와 관련이 깊으며, 필요한 서류에 대한 정보를 명확하게 전달하고 있습니다.
+4. Fluency Score (1-5): 4
+   - 생성된 응답은 전반적으로 문법적으로 올바르며 읽기 쉽습니다. 다만, 일부 문장에서 약간의 어색함이 느껴질 수 있습니다.
+5. Coherence Score (1-5): 4
+   - 생성된 응답은 논리적으로 잘 구성되어 있으며, 각 항목이 명확하게 구분되어 있습니다. 그러나 "최종 등록 시 추가 제출서류" 부분이 원본 텍스트와의 일관성 문제로 인해 약간의 혼란을 줄 수 있습니다.
+6. Accuracy Score (1-5): 4
+   - 생성된 응답은 대부분의 정보가 정확하지만, 원본 텍스트에 없는 정보를 포함하고 있어 완전한 정확성을 보장하지는 않습니다.
+7. Multidimensional Quality Score (1-5): 4
+   - 전반적으로 생성된 응답은 높은 품질을 유지하고 있으며, 사실성, 일관성, 관련성, 정확성 등 여러 차원에서 잘 수행하고 있습니다. 그러나 일부 정보의 추가로 인해 약간의 점수가 낮아졌습니다.
+8. Semantic Appropriateness Score (1-5): 4
+   - 생성된 응답은 원본 텍스트의 의미와 맥락에 잘 부합하지만, 추가된 정보로 인해 약간의 의미적 불일치가 발생할 수 있습니다.
+9. Understandability Score (1-5): 4
+   - 생성된 응답은 전반적으로 이해하기 쉽고 명확하게 작성되어 있습니다. 그러나 일부 문장에서 약간의 혼란을 줄 수 있는 요소가 있습니다.
+{
+    "Factuality Score": 4,
+    "Consistency Score": 4,
+    "Relevance Score": 5,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 4,
+    "Multidimensional Quality Score": 4,
+    "Semantic Appropriateness Score": 4,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C258" t="n">
+        <v>0.7623559670468316</v>
+      </c>
+      <c r="D258" t="inlineStr">
+        <is>
+          <t>농어촌학생전형으로 지원 시 제출해야할 서류를 알려줘</t>
+        </is>
+      </c>
+      <c r="E258" t="inlineStr">
+        <is>
+          <t>농어촌학생전형으로 지원시 다음과 같은 서류를 제출해야 합니다:
+1. **6년 과정 유형**
+   - 지원자 본인의 가족관계증명서 1부
+   - 지원자 본인, 부모의 주민등록초본 각 1부 (총 3부)
+   - 중학교 학교생활기록부 1부 (교육기관, 공공기관, 무인민원발급기, 인터넷 정부24에서 발급 가능)
+   - 고등학교 학교생활기록부 1부 (학생부 온라인 제공 비대상 교 또는 미동의자) 
+     - 부모가 사망한 경우: 사망한 부 또는 모의 기본증명서 1부
+     - 부모가 이혼한 경우: 친권이 있는 부 또는 모의 혼인관계증명서(상세) 1부, 본인의 기본증명서(상세) 1부
+2. **12년 과정 유형**
+   - 지원자 본인의 주민등록초본 1부
+   - 초등학교 학교생활기록부 1부 
+   - 중학교 학교생활기록부 1부 
+   - 고등학교 학교생활기록부 1부 (학생부 온라인 제공 비대상 교 또는 미동의자) 
+3. **최종 등록 시 추가 제출서류**
+   - 고교 졸업증명서
+   - 지원자 본인, 부모의 초본 각 1부 (총 3부)
+이러한 서류들은 농어촌 지역에 거주하고 있는 자격을 갖춘 지원자를 확인하기 위한 것입니다.</t>
+        </is>
+      </c>
+      <c r="F258" t="inlineStr">
+        <is>
+          <t>농어촌학생전형으로 지원 시 제출해야 할 서류는 다음과 같습니다
+6년 과정
+지원자 본인의 가족관계증명서 1부
+지원자 본인, 부, 모의 주민등록초본 각 1부 (총 3부)
+중학교 학교생활기록부 1부
+교육기관(초·중·고교), 공공기관, 무인민원발급기, 인터넷 정부24에서 발급
+고등학교 학교생활기록부 1부 (학생부 온라인 제공 비대상교 및 미동의자)
+부모가 사망한 경우: 사망한 부 또는 모의 기본증명서 1부 (기본증명서에 ‘사망’이 명시되어 있지 않은 경우 제적등본 1부 추가 제출)
+부모가 이혼한 경우: 친권이 있는 부 또는 모의 혼인관계증명서(상세) 1부, 본인의 기본증명서(상세) 1부 추가 제출
+12년 과정
+지원자 본인의 주민등록초본 1부
+초등학교 학교생활기록부 1부
+중학교 학교생활기록부 1부
+고등학교 학교생활기록부 1부 (학생부 온라인 제공 비대상교 및 미동의자)
+중·고등학교 재학 시 부, 모 모두 농어촌(읍·면)지역에서 거주한 자는 ‘6년과정' 서류 제출 가능
+교육기관(초·중·고교), 공공기관, 무인민원발급기, 인터넷 정부24에서 발급
+추가 정보
+제출기간: 2024. 01. 03.(수) ~ 01. 12.(금) 17:00까지 도착분에 한함
+제출장소: (우: 47340) 부산광역시 부산진구 엄광로 176, 동의대학교 입학관리팀
+주의사항: 제출서류 미제출자는 불합격 처리됩니다. 
+주민등록초본, 가족관계증명서, 혼인관계증명서, 기본증명서는 주민등록번호 전체가 기재되어 있어야 하며, 주소변동사항이 포함된 서류를 발급받아 제출하여야 합니다.
+상기 서류는 2024년 1월 1일 이후에 발급된 서류에 한해 제출해야 합니다. 
+최종등록자 중 고교 졸업예정자는 졸업 이후 지원자격 증빙서류를 2024. 02. 16.(금)까지 추가 제출하여야 합니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="259">
+      <c r="A259" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B259" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 4
+   - 설명: 생성된 응답은 원본 텍스트의 주요 내용을 잘 반영하고 있으며, 필요한 서류 목록을 정확하게 나열하고 있습니다. 그러나 "이 외에 추가로 제출해야 할 서류는 없습니다"라는 문장은 원본 텍스트의 추가 서류에 대한 언급과 상충하므로 약간의 부정확성이 있습니다.
+2. Consistency Score (1-5): 3
+   - 설명: 생성된 응답은 원본 텍스트의 정보와 대체로 일치하지만, 추가 서류에 대한 언급이 부족하여 일관성이 떨어집니다. 원본 텍스트에서는 최종 등록자에게 제출해야 할 서류가 명시되어 있으나, 생성된 응답에서는 이를 누락했습니다.
+3. Relevance Score (1-5): 5
+   - 설명: 생성된 응답은 원본 텍스트의 주제와 관련이 깊으며, 필요한 서류에 대한 정보를 직접적으로 다루고 있습니다. 모든 주요 포인트가 잘 반영되어 있습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 문법적으로 올바르며 읽기 쉽습니다. 다만, 일부 문장에서 약간의 어색함이 느껴질 수 있습니다.
+5. Coherence Score (1-5): 4
+   - 설명: 생성된 응답은 논리적으로 잘 구성되어 있으며, 정보가 명확하게 전달됩니다. 그러나 추가 서류에 대한 언급이 부족하여 완전한 일관성을 제공하지는 못합니다.
+6. Accuracy Score (1-5): 4
+   - 설명: 생성된 응답은 원본 텍스트의 사실을 대체로 정확하게 반영하고 있지만, 추가 서류에 대한 정보가 누락되어 있어 완전한 정확성을 보장하지는 않습니다.
+7. Multidimensional Quality Score (1-5): 4
+   - 설명: 생성된 응답은 여러 품질 차원에서 좋은 성과를 보이고 있으며, 특히 관련성과 유창성에서 높은 점수를 받았습니다. 그러나 일관성과 정확성에서 약간의 부족함이 있습니다.
+8. Semantic Appropriateness Score (1-5): 4
+   - 설명: 생성된 응답은 원본 텍스트의 의미와 맥락에 잘 부합하며, 적절한 정보를 제공합니다. 그러나 일부 문장에서 의미가 약간 왜곡될 수 있습니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 이해하기 쉽고 명확하게 작성되었습니다. 그러나 일부 문장에서 약간의 혼란을 줄 수 있는 요소가 있습니다.
+{
+    "Factuality Score": 4,
+    "Consistency Score": 3,
+    "Relevance Score": 5,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 4,
+    "Multidimensional Quality Score": 4,
+    "Semantic Appropriateness Score": 4,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C259" t="n">
+        <v>0.7730066948166391</v>
+      </c>
+      <c r="D259" t="inlineStr">
+        <is>
+          <t>농어촌학생전형으로 지원 시 12년 과정이 제출해야할 서류는?</t>
+        </is>
+      </c>
+      <c r="E259" t="inlineStr">
+        <is>
+          <t>12년 과정의 농어촌학생전형 지원시 제출해야하는 서류는 다음과 같습니다:
+1. 지원자 본인의 주민등록초본 1부
+2. 초등학교 학교생활기록부 1부 
+3. 중학교 학교생활기록부 1부
+4. 고등학교 학교생활기록부 1부(학생부 온라인 제공 비대상교 및 미동의자)
+   - 교육기관(초·중·고교), 공공기관, 무인민원발급기, 인터넷 정부24에서 발급
+이 외에 추가로 제출해야 할 서류는 없습니다. 다만, 중·고등학교 재학 시 부모 모두 농어촌 지역에서 거주한 자라면 '6년 과정'의 서류를 제출할 수 있다는 점을 참고하시기 바랍니다.
+참조: 나군 학생부교과(농어촌학생전형) - 정원외 제출서류에서 유형은 12년 과정이며, 구분은 부모의 거주지와는 상관없이 지원자 본인이 초·중·고등학교 전 과정을 농어촌(읍·면)지역 소재 학교에서 이수하고 거주한 자이며, 제출서류은 1. 지원자 본인의 주민등록초본 1부 2. 초등학교 학교생활기록부 1부 3. 중학교 학교생활기록부 1부 4. 고등학교 학교생활기록부 1부(학생부 온라인 제공 비대상교 및 미동의자) ※ 중·고등학교 재학 시 부, 모 모두 농어촌(읍∙면)지역에서 거주한 자는 '6년과정' 서류제출 가능 ※ 교육기관(초·중·고교), 공공기관, 무인민원발급기, 인터넷 정부24에서 발급이다.</t>
+        </is>
+      </c>
+      <c r="F259" t="inlineStr">
+        <is>
+          <t>농어촌학생전형으로 지원 시 12년 과정이 제출해야 할 서류는 다음과 같습니다
+1. 지원자 본인의 주민등록초본 1부
+2. 초등학교 학교생활기록부 1부
+3. 중학교 학교생활기록부 1부
+4. 고등학교 학교생활기록부 1부 (학생부 온라인 제공 비대상교 및 미동의자)
+추가로, 최종등록자라면 다음 서류도 제출해야 합니다
+1. 고교 졸업증명서
+2. 지원자 본인의 주민등록초본 1부 주민등록초본은 고교 졸업 이후 발급된 것이어야 하며, 주소변동사항이 포함된 서류를 발급받아 제출해야 합니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="260">
+      <c r="A260" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B260" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 2
+   - 생성된 응답은 기회균등 전형의 존재 여부에 대한 명확한 정보를 제공하지 않고 있으며, 2024년 모집 계획에 대한 언급이 없습니다. 따라서 사실성 점수는 낮습니다.
+2. Consistency Score (1-5): 2
+   - 생성된 응답은 원본 텍스트와 일치하지 않으며, 기회균등 전형이 존재하지 않는다는 사실을 부정하는 듯한 내용이 포함되어 있습니다. 이로 인해 일관성 점수는 낮습니다.
+3. Relevance Score (1-5): 3
+   - 생성된 응답은 원본 텍스트의 주제와 관련이 있지만, 기회균등 전형에 대한 명확한 답변을 제공하지 않기 때문에 관련성 점수는 중간입니다.
+4. Fluency Score (1-5): 4
+   - 생성된 응답은 문법적으로 잘 작성되어 있으며, 읽기에도 무리가 없습니다. 따라서 유창성 점수는 높습니다.
+5. Coherence Score (1-5): 3
+   - 생성된 응답은 논리적인 흐름이 있지만, 원본 텍스트와의 연결이 약해 일관된 구조를 유지하지 못하고 있습니다. 따라서 일관성 점수는 중간입니다.
+6. Accuracy Score (1-5): 2
+   - 생성된 응답은 원본 텍스트의 사실과 일치하지 않으며, 기회균등 전형의 존재 여부에 대한 잘못된 정보를 포함하고 있습니다. 따라서 정확성 점수는 낮습니다.
+7. Multidimensional Quality Score (1-5): 2
+   - 여러 차원에서 평가했을 때, 생성된 응답은 사실성, 일관성, 정확성에서 낮은 점수를 받았기 때문에 전반적인 품질 점수도 낮습니다.
+8. Semantic Appropriateness Score (1-5): 3
+   - 생성된 응답은 의미적으로 적절한 부분이 있지만, 원본 텍스트의 맥락과는 다소 어긋나는 내용이 포함되어 있습니다. 따라서 의미 적합성 점수는 중간입니다.
+9. Understandability Score (1-5): 4
+   - 생성된 응답은 전반적으로 이해하기 쉬우며, 명확하게 전달되고 있습니다. 따라서 이해 가능성 점수는 높습니다.
+{
+    "Factuality Score": 2,
+    "Consistency Score": 2,
+    "Relevance Score": 3,
+    "Fluency Score": 4,
+    "Coherence Score": 3,
+    "Accuracy Score": 2,
+    "Multidimensional Quality Score": 2,
+    "Semantic Appropriateness Score": 3,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C260" t="n">
+        <v>0.4840051520886697</v>
+      </c>
+      <c r="D260" t="inlineStr">
+        <is>
+          <t>정시모집에서 저소득 기회균등 전형은 선발하지 않나요?</t>
+        </is>
+      </c>
+      <c r="E260" t="inlineStr">
+        <is>
+          <t>提供的信息中没有明确提到2024年招生计划中是否取消了针对低收入家庭的公平机会选拔类型。为了获取最准确的信息，建议直接访问学校官网或联系学校的招生办公室进行确认。
+您可以参考以下链接以获得更多信息：
+https://ipsi.deu.ac.kr/main.do
+如果有更具体的问题或者需要进一步的帮助，请告诉我！</t>
+        </is>
+      </c>
+      <c r="F260" t="inlineStr">
+        <is>
+          <t>동의대학교 정시 모집 전형에는 기회균등 전형이라는 전형이 존재하지 않습니다. 자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="261">
+      <c r="A261" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B261" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 3
+   - 설명: 생성된 응답은 2.5등급이 반올림될 가능성이 높다고 언급하고 있지만, 원본 텍스트에서는 절사 여부에 대한 구체적인 정보가 없다고 명시하고 있습니다. 따라서, 생성된 응답은 원본 텍스트의 내용을 완전히 반영하지 못하고 있습니다.
+2. Consistency Score (1-5): 3
+   - 설명: 생성된 응답은 원본 텍스트의 정보와 일부 일치하지만, 반올림에 대한 언급이 원본 텍스트의 주제와는 다소 다릅니다. 원본 텍스트는 절사 여부에 대한 정보가 없다고 명시하고 있으므로, 일관성이 떨어집니다.
+3. Relevance Score (1-5): 4
+   - 설명: 생성된 응답은 수능 최저등급과 관련된 정보를 제공하고 있으며, 질문의 맥락에 적절하게 대응하고 있습니다. 그러나 원본 텍스트의 핵심 정보인 절사 여부에 대한 언급이 부족합니다.
+4. Fluency Score (1-5): 5
+   - 설명: 생성된 응답은 문법적으로 정확하고 읽기 쉽게 작성되어 있습니다. 문장 구조와 표현이 매끄럽습니다.
+5. Coherence Score (1-5): 4
+   - 설명: 생성된 응답은 논리적으로 잘 구성되어 있으며, 각 문장이 자연스럽게 연결되어 있습니다. 그러나 원본 텍스트와의 연결성이 약간 부족합니다.
+6. Accuracy Score (1-5): 3
+   - 설명: 생성된 응답은 반올림에 대한 정보를 제공하지만, 원본 텍스트에서 명시된 절사 여부에 대한 정보가 없다는 점을 간과하고 있습니다. 따라서 정확성이 떨어집니다.
+7. Multidimensional Quality Score (1-5): 3
+   - 설명: 생성된 응답은 여러 차원에서 평균적인 성과를 보이지만, 원본 텍스트와의 일치성 및 정확성이 부족하여 전반적인 품질이 떨어집니다.
+8. Semantic Appropriateness Score (1-5): 4
+   - 설명: 생성된 응답은 의미적으로 적절하며, 질문의 맥락에 맞는 정보를 제공합니다. 그러나 원본 텍스트의 핵심 정보와는 다소 차이가 있습니다.
+9. Understandability Score (1-5): 5
+   - 설명: 생성된 응답은 명확하고 이해하기 쉬운 표현으로 작성되어 있습니다. 독자가 쉽게 이해할 수 있습니다.
+{
+    "Factuality Score": 3,
+    "Consistency Score": 3,
+    "Relevance Score": 4,
+    "Fluency Score": 5,
+    "Coherence Score": 4,
+    "Accuracy Score": 3,
+    "Multidimensional Quality Score": 3,
+    "Semantic Appropriateness Score": 4,
+    "Understandability Score": 5
+}</t>
+        </is>
+      </c>
+      <c r="C261" t="n">
+        <v>0.5379662221177326</v>
+      </c>
+      <c r="D261" t="inlineStr">
+        <is>
+          <t>수능 최저등급에서 사탐 2 과목 평균산출이라고 나와있는데 만약 2.5등급이 나오면 절사하나요? 아님 그대로 2.5등급으로 보는건가요?</t>
+        </is>
+      </c>
+      <c r="E261" t="inlineStr">
+        <is>
+          <t>2.5등급은 등급평균을 반올림한 값일 가능성이 높습니다. 대학마다 수능 최저등급 기준에 대한 정확한 처리 방법이 다를 수 있으나, 일반적으로 절사법보다는 반올림을 더 많이 사용합니다.
+따라서 2.5등급은 보통 3등급으로 반올림되어 평균 등급을 계산하게 됩니다. 예를 들어 두 과목의 등급이 각각 2등급과 3등급이라면, 평균 등급은 (2+3)/2 = 2.5로 나옵니다. 이 경우 대다수의 대학에서는 2.5를 3으로 반올림하여 처리합니다.
+하지만 정확한 처리 방법은 해당 대학의 입시 안내나 홈페이지를 확인하는 것이 가장 확실합니다. 만약 불확실하다면, 학교 관계자에게 직접 문의하시는 것도 좋은 방법입니다.</t>
+        </is>
+      </c>
+      <c r="F261" t="inlineStr">
+        <is>
+          <t>제공된 데이터에는 수능 최저등급에 대한 구체적인 절사 여부에 대한 정보가 포함되어 있지 않습니다. 따라서, 수능 최저등급에서 사탐 2 과목 평균산출 시 2.5등급이 나올 경우 절사 여부에 대한 정확한 정보를 확인하려면 입학안내 홈페이지(http://ipsi.deu.ac.kr)에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="262">
+      <c r="A262" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B262" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 5
+   - 설명: 생성된 응답은 원본 텍스트의 모든 사실을 정확하게 반영하고 있으며, 발표 일정과 내용이 일치합니다.
+2. Consistency Score (1-5): 5
+   - 설명: 생성된 응답은 원본 텍스트와 일관되며, 발표 일정과 절차에 대한 정보가 충돌 없이 잘 연결되어 있습니다.
+3. Relevance Score (1-5): 5
+   - 설명: 생성된 응답은 원본 텍스트의 주요 주제와 핵심 사항을 직접적으로 다루고 있어 매우 관련성이 높습니다.
+4. Fluency Score (1-5): 5
+   - 설명: 생성된 응답은 문법적으로 정확하고, 문장 구조가 매끄러워 읽기 쉽습니다.
+5. Coherence Score (1-5): 5
+   - 설명: 생성된 응답은 논리적으로 잘 구성되어 있으며, 각 발표 일정이 명확하게 연결되어 있습니다.
+6. Accuracy Score (1-5): 5
+   - 설명: 생성된 응답은 원본 텍스트의 모든 사실을 정확하게 반영하고 있으며, 잘못된 정보가 없습니다.
+7. Multidimensional Quality Score (1-5): 5
+   - 설명: 생성된 응답은 사실성, 일관성, 관련성, 정확성 등 모든 품질 차원에서 우수한 성과를 보입니다.
+8. Semantic Appropriateness Score (1-5): 5
+   - 설명: 생성된 응답은 원본 텍스트의 의미와 맥락에 완전히 부합하며, 적절한 의미를 전달하고 있습니다.
+9. Understandability Score (1-5): 5
+   - 설명: 생성된 응답은 매우 명확하고 이해하기 쉬우며, 정보가 잘 전달됩니다.
+{
+    "Factuality Score": 5,
+    "Consistency Score": 5,
+    "Relevance Score": 5,
+    "Fluency Score": 5,
+    "Coherence Score": 5,
+    "Accuracy Score": 5,
+    "Multidimensional Quality Score": 5,
+    "Semantic Appropriateness Score": 5,
+    "Understandability Score": 5
+}</t>
+        </is>
+      </c>
+      <c r="C262" t="n">
+        <v>0.7668729818064822</v>
+      </c>
+      <c r="D262" t="inlineStr">
+        <is>
+          <t>정시 충원 합격자 발표는 몇차까지 있나요?</t>
+        </is>
+      </c>
+      <c r="E262" t="inlineStr">
+        <is>
+          <t>2024년 정시 충원 합격자는 총 3차로 발표됩니다.
+1. **1차 충원 합격자 발표 및 등록**:
+   - 일정: 2024. 02. 14.(수) 09:00
+   - 내용: 1차 충원 합격자 발표와 등록
+2. **2차 충원 합격자 발표 및 등록**:
+   - 일정: 2024. 02. 15.(목) 09:00
+   - 내용: 2차 충원 합격자 발표와 등록
+3. **3차 이후 충원 합격자 발표 및 등록**:
+   - 일정: 2024. 02. 15.(목) 19:00 ~ 2024. 02. 20.(화) 18시까지
+   - 내용: 3차 이후 충원 합격자 발표와 등록 (개별 전화 통보)
+이러한 일정에 따라 합격자는 각 차례에 맞춰 발표되고 등록이 이루어집니다.</t>
+        </is>
+      </c>
+      <c r="F262" t="inlineStr">
+        <is>
+          <t>정시 충원 합격자 발표는 3차까지 있으며, 3차 이후에는 개별 전화 통보로 발표됩니다. - 1차 발표: 2024. 02. 14.(수) 09:00 - 2차 발표: 2024. 02. 15.(목) 09:00 - 3차 이후 발표: 2024. 02. 15.(목) 19:00 ~ 2024. 02. 20.(화) 18시까지 3차 이후 발표는 개별 전화 통보로 진행됩니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="263">
+      <c r="A263" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B263" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 3
+   - 생성된 응답은 일부 사실을 포함하고 있지만, 원본 텍스트에서 제공된 정보와 일치하지 않는 부분이 있습니다. 예를 들어, 모집 인원과 지원 인원, 경쟁률 등의 정보는 원본 텍스트에 포함되어 있지 않으며, 이는 사실적 정확성을 떨어뜨립니다.
+2. Consistency Score (1-5): 3
+   - 생성된 응답은 원본 텍스트의 일부 정보를 반영하고 있지만, 추가된 정보가 원본과 일치하지 않거나 모순되는 부분이 있습니다. 예를 들어, 경쟁률과 모집 인원에 대한 정보는 원본 텍스트에 없으므로 일관성이 떨어집니다.
+3. Relevance Score (1-5): 4
+   - 생성된 응답은 원본 텍스트의 주제와 관련이 있지만, 추가된 정보가 원본의 핵심 질문에 대한 직접적인 답변이 아닙니다. 그러나 여전히 관련된 정보를 제공하고 있습니다.
+4. Fluency Score (1-5): 4
+   - 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 구조를 가지고 있습니다. 다만, 일부 문장이 다소 복잡하게 느껴질 수 있습니다.
+5. Coherence Score (1-5): 4
+   - 생성된 응답은 논리적으로 잘 구성되어 있으며, 정보가 일관되게 연결되어 있습니다. 그러나 원본 텍스트와의 연결이 약간 느슨할 수 있습니다.
+6. Accuracy Score (1-5): 3
+   - 생성된 응답은 일부 정확한 정보를 포함하고 있지만, 원본 텍스트와의 불일치로 인해 정확성이 떨어집니다. 특히, 추가된 데이터가 원본에 명시되지 않았습니다.
+7. Multidimensional Quality Score (1-5): 3
+   - 전반적으로 생성된 응답은 여러 차원에서 중간 정도의 품질을 보입니다. 사실성과 일관성에서 부족함이 있지만, 관련성과 유창성은 양호합니다.
+8. Semantic Appropriateness Score (1-5): 4
+   - 생성된 응답은 원본 텍스트의 의미와 맥락에 적절하게 부합합니다. 그러나 추가된 정보가 원본의 질문에 대한 직접적인 답변이 아니므로 약간의 차이가 있습니다.
+9. Understandability Score (1-5): 4
+   - 생성된 응답은 전반적으로 이해하기 쉽고 명확하게 작성되었습니다. 다만, 일부 복잡한 문장 구조가 이해를 어렵게 할 수 있습니다.
+{
+    "Factuality Score": 3,
+    "Consistency Score": 3,
+    "Relevance Score": 4,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 3,
+    "Multidimensional Quality Score": 3,
+    "Semantic Appropriateness Score": 4,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C263" t="n">
+        <v>0.6038545067724836</v>
+      </c>
+      <c r="D263" t="inlineStr">
+        <is>
+          <t>e비즈니스학과 수능 성적이 4.6이면 정시 전형으로 추가 합격 가능할까요?</t>
+        </is>
+      </c>
+      <c r="E263" t="inlineStr">
+        <is>
+          <t>2024학년도의 정시 모집에 대한 자세한 정보를 제공하기 위해서는 해당 단과대학 및 모집단위의 최종 등록자들의 성적 분포와 경쟁률 등을 고려해야 합니다. 주어진 데이터에서 e비즈니스학과의 경우 다음과 같은 특징이 있습니다:
+- 2024학년도 모집인원: 10명
+- 지원 인원: 89명
+- 경쟁률: 8.90
+- 충원 합격 (후보순위): 31명
+- 국어 + 수학 + 탐구(2개) (가산점 포함) 표준 변환 점수 합의 평균: 308.58
+- 영어 등급의 평균: 3.66
+- 수능 4개 영역 (가산점 포함) 표준 변환 점수 합의 평균: 426.25
+주요 성적 데이터를 보면, e비즈니스학과의 평균 수능 4개 영역 (가산점 포함) 표준 변환 점수 합은 426.25로, 이는 4.6이라는 점수보다 높습니다.
+따라서, 단순히 수능 성적이 4.6이었다면 추가적으로 정시 전형으로 합격하기는 어려울 것으로 보입니다. 하지만 다음과 같은 요인들을 고려해야 합니다:
+1. **개별 지원자의 경쟁력**: 다른 지원자들의 성적과 경쟁률을 고려해야 합니다.
+2. **가산점**: 특정 모집단위에서는 수능 가산점을 받을 수 있으므로, 이 점수를 포함하면 실제 평균이 더 낮아질 수도 있습니다.
+3. **면접 및 서류평가**: 면접과 서류 평가에서 우수한 성적을 거두는 경우 합격 가능성은 높아집니다.
+따라서, 정확한 답변을 위해서는 해당 단과대학의 최종 등록자들의 전체 성적 분포와 경쟁률 등을 확인해야 합니다. 더 자세한 정보를 얻기 위해서는 [https://ipsi.deu.ac.kr/main.do](https://ipsi.deu.ac.kr/main.do) 웹사이트를 참조하거나 입학처에 문의하는 것이 좋습니다.</t>
+        </is>
+      </c>
+      <c r="F263" t="inlineStr">
+        <is>
+          <t>제공된 컨텍스트에 따라 e-비즈니스학과(e-비즈니스학과)의 최초 합격자 및 최종 등록생의 평균 점수는 다음과 같습니다:
+- 최초합격자:
+  - 국어 + 수학 + 탐구(2개) (가산점 포함) 표준 환산 점수 합: 317.20 (평균)
+  - 영어 등급 3.20 (평균)
+  - 수능 4개 영역 등급 4.17 (평균)
+  - 수능 4개 영역 (가산점 포함) 표준 변환 점수 합: 438.60 (평균)
+- 최종 등록 학생:
+  - 국어 + 수학 + 탐구(2개) (가산점 포함) 표준 변환 점수 합: 308.58 (평균)
+  - 영어 등급 3.66 (평균)
+  - 수능 4개 영역 등급 4.53 (평균)
+  - 수능 4개 영역 (가산점 포함) 표준 변환 점수 합: 426.25 (평균)
+수능 4개 영역 등급이 4.6점이라면 최초 합격자(4.17점)와 최종 등록자(4.53점) 모두 평균을 약간 상회하는 수준입니다. 반드시 합격이 보장되는 것은 아니지만 다른 영역(국어, 수학, 탐구, 영어) 성적이 경쟁력이 있다면 충원 합격(추가모집)을 통해 합격할 가능성이 있습니다. 
+보다 정확한 평가를 위해 총 표준 변환 점수 합과 제공된 평균을 비교하는 것이 좋습니다. 총점이 평균에 근접하거나 그 이상이면 충원 합격을 통해 합격할 가능성이 더 높을 수 있습니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="264">
+      <c r="A264" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B264" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 2
+   - 설명: 생성된 응답은 e비즈니스학과의 평균 영어 등급과 수능 4개 영역 등급 평균에 대한 정보를 잘못 전달하고 있습니다. 원본 텍스트에서는 영어 등급 평균이 3.66이고 수능 4개 영역 등급 평균이 4.53이라고 명시되어 있지만, 생성된 응답에서는 영어 등급 평균이 3.20로 잘못 기재되어 있습니다. 이로 인해 사실성이 낮아졌습니다.
+2. Consistency Score (1-5): 2
+   - 설명: 생성된 응답은 원본 텍스트와 일관성이 부족합니다. 원본 텍스트는 정시 등급이 5.3일 경우 합격 가능성이 낮다고 언급하고 있지만, 생성된 응답은 영어 등급이 5.3이라면 합격 가능성이 매우 높다고 주장하고 있습니다. 이로 인해 일관성이 떨어집니다.
+3. Relevance Score (1-5): 4
+   - 설명: 생성된 응답은 e비즈니스학과의 합격 가능성에 대한 질문에 관련된 정보를 제공하고 있지만, 원본 텍스트의 핵심 내용과는 다소 차이가 있습니다. 그러나 여전히 관련된 통계와 정보를 포함하고 있어 높은 점수를 부여합니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 구조를 가지고 있습니다. 다만, 일부 문장이 다소 복잡하게 구성되어 있어 약간의 유창성 저하가 있습니다.
+5. Coherence Score (1-5): 3
+   - 설명: 생성된 응답은 여러 통계 데이터를 포함하고 있지만, 전체적으로 논리적인 흐름이 부족합니다. 원본 텍스트의 주제와 다소 동떨어진 정보가 포함되어 있어 일관된 주제를 유지하지 못하고 있습니다.
+6. Accuracy Score (1-5): 2
+   - 설명: 생성된 응답은 원본 텍스트의 사실과 다르게 잘못된 정보를 포함하고 있습니다. 특히, 영어 등급 평균에 대한 잘못된 수치가 포함되어 있어 정확성이 낮습니다.
+7. Multidimensional Quality Score (1-5): 2
+   - 설명: 생성된 응답은 여러 차원에서 낮은 점수를 받았습니다. 사실성, 일관성, 정확성 모두 부족하여 전반적인 품질이 낮습니다.
+8. Semantic Appropriateness Score (1-5): 3
+   - 설명: 생성된 응답은 원본 텍스트의 의미와 다소 일치하지만, 잘못된 정보로 인해 의미 전달이 왜곡되었습니다. 따라서 적절성 점수는 중간 정도로 평가됩니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 이해하기 쉬운 구조를 가지고 있으며, 정보가 명확하게 전달되고 있습니다. 그러나 일부 복잡한 문장 구조로 인해 약간의 혼란을 줄 수 있습니다.
+{
+    "Factuality Score": 2,
+    "Consistency Score": 2,
+    "Relevance Score": 4,
+    "Fluency Score": 4,
+    "Coherence Score": 3,
+    "Accuracy Score": 2,
+    "Multidimensional Quality Score": 2,
+    "Semantic Appropriateness Score": 3,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C264" t="n">
+        <v>0.7416614163577867</v>
+      </c>
+      <c r="D264" t="inlineStr">
+        <is>
+          <t>정시 등급 5.3이면 동의대학교에 e비즈니스학과에 최초 합격 가능성 있을까?</t>
+        </is>
+      </c>
+      <c r="E264" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대학교 e비즈니스학과의 수능 전형성적 산출방법은 다음과 같습니다:
+- 국어 + 수학 + 탐구(2개) (가산점 포함) 표준 변환 점수 합
+- 영어 등급
+주요 통계 데이터:
+- 평균: 317.20
+- 표준 편차: 7.56
+- 영어 등급 평균: 3.20
+- 영어 등급 표준 편차: 1.24
+등급 5.3은 등급 점수로 약 98점에 해당합니다 (참조: 제공된 데이터에서 확인 가능).
+이를 고려할 때, e비즈니스학과의 평균 점수가 317.20이고 표준 편차가 7.56이라는 것을 보면, 등급 5.3은 상당히 높은 점수입니다.
+- 영어 등급이 5.3이라면, 이는 매우 높은 수준이며, 평균보다 약 10점 이상 높습니다.
+- 국어 + 수학 + 탐구(2개) (가산점 포함) 표준 변환 점수 합의 평균이 317.20이고 표준 편차가 7.56이라면, 등급 5.3은 상당히 높은 수준입니다.
+따라서, 영어 등급이 매우 높다면, 이 점수로는 e비즈니스학과에 최초 합격 가능성은 매우 높습니다. 그러나 정확한 확률을 예측하기 위해서는 전체 지원자의 성적 분포와 비교해야 합니다.
+결론적으로, 영어 등급이 5.3이라면 e비즈니스학과에 최초 합격 가능성이 매우 높다고 볼 수 있습니다. 하지만 최종 결정은 전체 지원자들의 성적 분포를 고려하여 내려야 합니다.</t>
+        </is>
+      </c>
+      <c r="F264" t="inlineStr">
+        <is>
+          <t>e비즈니스학과의 최종등록자 데이터를 기준으로 보면, e비즈니스학과의 영어 등급 평균은 3.66이고, 수능 4개 영역 등급 평균은 4.53입니다. 따라서, 현재 정시 등급이 5.3이라면 e비즈니스학과에 합격하기 어려울 수 있습니다. e비즈니스학과의 평균 등급보다 높은 성적을 가지고 있어야 합격 가능성이 높아집니다. 자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="265">
+      <c r="A265" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B265" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 2
+   - 생성된 응답은 e비즈니스학과의 예비합격 가능성에 대한 정보를 제공하지만, 원본 텍스트에서 명시된 "현재 예비 38번이라면 예비 합격할 가능성이 낮습니다"라는 핵심 사실을 간과하고 있습니다. 또한, 제공된 점수와 경쟁률에 대한 정보는 원본 텍스트와 관련이 없으며, 잘못된 해석을 포함하고 있습니다.
+2. Consistency Score (1-5): 2
+   - 생성된 응답은 원본 텍스트의 주제와 일치하지 않으며, 예비합격 가능성에 대한 결론이 원본의 내용과 상충합니다. 원본 텍스트는 예비 38번의 가능성이 낮다고 명확히 언급하고 있지만, 생성된 응답은 여러 요소를 고려해야 한다고 하여 모호한 결론을 내리고 있습니다.
+3. Relevance Score (1-5): 3
+   - 생성된 응답은 e비즈니스학과에 대한 정보를 제공하지만, 원본 텍스트의 핵심 질문인 예비합격 가능성에 대한 직접적인 답변을 제공하지 않고 있습니다. 여러 요소를 고려해야 한다는 점은 관련성이 있지만, 원본의 주제를 벗어난 정보가 많습니다.
+4. Fluency Score (1-5): 4
+   - 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 구조를 가지고 있습니다. 그러나 일부 문장은 다소 복잡하게 구성되어 있어 이해하기 어려울 수 있습니다.
+5. Coherence Score (1-5): 3
+   - 생성된 응답은 여러 요소를 나열하고 있지만, 각 요소 간의 연결이 명확하지 않아 일관성이 떨어집니다. 정보가 나열되어 있지만, 전체적인 흐름이 부족합니다.
+6. Accuracy Score (1-5): 2
+   - 생성된 응답은 원본 텍스트의 사실과 일치하지 않으며, 예비합격 가능성에 대한 잘못된 해석을 포함하고 있습니다. 원본의 핵심 사실을 무시하고 다른 정보를 제공하고 있습니다.
+7. Multidimensional Quality Score (1-5): 2
+   - 생성된 응답은 여러 차원에서 낮은 점수를 받았습니다. 사실성, 일관성, 정확성 모두 부족하여 전반적인 품질이 낮습니다.
+8. Semantic Appropriateness Score (1-5): 3
+   - 생성된 응답은 원본 텍스트의 의미와 다소 일치하지만, 예비합격 가능성에 대한 명확한 답변을 제공하지 않아 의미적으로 적절하지 않습니다.
+9. Understandability Score (1-5): 3
+   - 생성된 응답은 정보가 많지만, 명확한 결론이 부족하여 이해하기 어려운 부분이 있습니다. 정보가 나열되어 있지만, 핵심 메시지가 불분명합니다.
+{
+    "Factuality Score": 2,
+    "Consistency Score": 2,
+    "Relevance Score": 3,
+    "Fluency Score": 4,
+    "Coherence Score": 3,
+    "Accuracy Score": 2,
+    "Multidimensional Quality Score": 2,
+    "Semantic Appropriateness Score": 3,
+    "Understandability Score": 3
+}</t>
+        </is>
+      </c>
+      <c r="C265" t="n">
+        <v>0.568020785285044</v>
+      </c>
+      <c r="D265" t="inlineStr">
+        <is>
+          <t>e비즈니스학전공 예비 38번 이정도면 예비합격 가능할까요?</t>
+        </is>
+      </c>
+      <c r="E265" t="inlineStr">
+        <is>
+          <t>2024학년도 입시 정보를 바탕으로 분석해보겠습니다. 하지만 정확한 예비합격 가능성 판단을 위해서는 여러 요소들을 고려해야 합니다.
+1. **전형별 평균 점수와 경쟁률**:
+   - e비즈니스학과의 경우, 2024학년도 최종등록자에서 국어 + 수학 + 탐구(2개) (가산점 포함) 표준 변환 점수 합의 평균은 313.13이며, 표준 편차는 5.75입니다.
+   - 경쟁률은 10.56으로 매우 높습니다.
+2. **개인 성적**:
+   - e비즈니스학과의 경우, 국어 + 수학 + 탐구(2개) (가산점 포함) 표준 변환 점수 합의 평균이 313.13이고, 이정도면 경쟁률을 고려할 때 상당히 높은 점수를 받으셨습니다.
+   - 하지만 표준 편차가 5.75로 비교적 낮기 때문에, 개인의 성적이 평균보다 약간 떨어진다면 합격 가능성은 낮아질 수 있습니다.
+3. **전형요소**:
+   - e비즈니스학과는 실기/실적(일반학생전형) 모집단위이며, 전형요소 반영비율의 수능은 30%이고, 실기는 70%입니다.
+   - 이 점수만으로는 실기 부분을 고려하면 합격 가능성은 낮아 보입니다.
+4. **추천서 및 면접**:
+   - e비즈니스학과의 경우, 서류평가와 면접 평가가 중요합니다.
+   - 서류평가에서는 학업역량, 전공적합성 등을 평가받습니다.
+   - 면접에서도 지원동기 및 학업계획, 학업역량, 전공적합성 관련 공통문항을 발표하고 질의응답을 받게 됩니다.
+5. **추천서와 자기소개서**:
+   - 추천서와 자기소개서는 학교생활과 성격, 전공 적합성을 평가받습니다.
+   - 이 부분에서 좋은 내용을 담아야 합니다.
+6. **면접 준비**:
+   - 면접에서는 지원동기와 학업계획, 학업역량, 전공적합성 등을 잘 준비해야 합니다.
+   - 실제 질문들을 미리 예상하고 대비하는 것이 중요합니다.
+결론적으로, e비즈니스학과의 경우 국어 + 수학 + 탐구(2개) (가산점 포함) 표준 변환 점수 합이 313.13 이상이라면 이미 경쟁력을 갖추고 있습니다. 하지만 실기 부분을 고려하면, 추가적인 준비와 노력이 필요할 것입니다.
+**추천 사항:**
+- 면접 준비를 철저히 하세요.
+- 추천서와 자기소개서에서 지원자의 학업역량과 전공적합성을 잘 표현하세요.
+- 실제 질문들을 미리 예상하고 대비하세요.
+이렇게 준비하시면 더 높은 가능성으로 예비합격을 이룰 수 있을 것입니다.</t>
+        </is>
+      </c>
+      <c r="F265" t="inlineStr">
+        <is>
+          <t>e비즈니스학과의 최종등록자 데이터를 기준으로 보면, 충원합격(후보 순위) 31번까지 충원합격 된 것으로 나온다. 따라서, 현재 예비 38번이라면 e비즈니스학과에 예비 합격할 가능성이 낮습니다. 자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="266">
+      <c r="A266" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B266" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 4
+   - 설명: 생성된 응답은 간호학과의 평균 영어 등급과 수능 4개 영역 등급에 대한 정보를 포함하고 있으며, 3.44 등급이 합격하기 어려울 수 있다는 점을 언급하고 있습니다. 그러나 수능 4개 영역 등급의 평균이 3.37에서 6.12 사이라는 정보는 원문에 명시되어 있지 않으므로, 이 부분에서 약간의 부정확성이 있습니다.
+2. Consistency Score (1-5): 3
+   - 설명: 생성된 응답은 원문과 일치하는 부분이 많지만, 수능 4개 영역 등급의 범위를 제시하면서 원문에서 제공된 정보와 다소 상충하는 부분이 있습니다. 또한, 경쟁률에 대한 언급이 원문에 없기 때문에 일관성이 떨어집니다.
+3. Relevance Score (1-5): 5
+   - 설명: 생성된 응답은 원문에서 다루고 있는 주제와 관련이 깊으며, 간호학과의 합격 가능성에 대한 질문에 직접적으로 답변하고 있습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 문법적으로 올바르며 읽기 쉬운 구조를 가지고 있습니다. 다만, 일부 문장에서 약간의 어색함이 느껴질 수 있습니다.
+5. Coherence Score (1-5): 4
+   - 설명: 생성된 응답은 논리적으로 잘 구성되어 있으며, 각 문장이 자연스럽게 연결되어 있습니다. 그러나 일부 정보가 추가되면서 흐름이 약간 끊기는 느낌이 있습니다.
+6. Accuracy Score (1-5): 4
+   - 설명: 생성된 응답은 대부분의 정보가 정확하지만, 수능 4개 영역 등급의 범위에 대한 정보가 원문과 일치하지 않으므로 완전한 정확성은 아닙니다.
+7. Multidimensional Quality Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 높은 품질을 유지하고 있으며, 사실성, 일관성, 관련성, 정확성에서 좋은 점수를 받았습니다. 그러나 일부 부정확성과 일관성 문제로 인해 완벽하지는 않습니다.
+8. Semantic Appropriateness Score (1-5): 4
+   - 설명: 생성된 응답은 원문과 의미적으로 잘 맞아떨어지며, 질문에 대한 적절한 답변을 제공합니다. 그러나 일부 추가 정보가 원문과 다소 다르게 해석될 수 있습니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 이해하기 쉽고 명확하게 작성되었습니다. 그러나 일부 문장에서 약간의 혼란을 줄 수 있는 표현이 있을 수 있습니다.
+{
+    "Factuality Score": 4,
+    "Consistency Score": 3,
+    "Relevance Score": 5,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 4,
+    "Multidimensional Quality Score": 4,
+    "Semantic Appropriateness Score": 4,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C266" t="n">
+        <v>0.746869285064876</v>
+      </c>
+      <c r="D266" t="inlineStr">
+        <is>
+          <t>정시 성적 3.44인데 동의대학교 간호학과에 합격 가능성 없을까요?</t>
+        </is>
+      </c>
+      <c r="E266" t="inlineStr">
+        <is>
+          <t>3.44 등급으로 동의대학교 간호학과에 합격하기는 어렵다고 볼 수 있습니다. 간호학과의 최종등록자들의 성적 분포를 보면:
+- 평균 영어 등급은 대략 2.34에서 5.00 사이입니다.
+- 평균 수능 4개 영역 등급의 평균은 3.37에서 6.12 사이입니다.
+당신의 영어 등급이 3.44로, 이는 평균보다 약간 낮습니다. 그러나 수능 4개 영역 등급의 평균이 3.37에서 6.12 사이라는 점을 고려하면, 당신의 등급은 상당히 높은 편입니다.
+또한, 간호학과는 경쟁률이 높은 학과 중 하나로 보입니다 (예: 최초합격자의 경우 6.59, 최종등록자의 경우 6.59). 이는 많은 지원자가 좋은 성적을 가지고 있어 경쟁이 치열하다는 것을 의미합니다.
+결론적으로, 당신의 영어 등급은 약간 낮지만 수능 4개 영역 등급이 높기 때문에 합격 가능성은 있으나 매우 낮습니다. 최선을 다해 지원하시되, 다른 대학이나 전형을 고려하는 것도 좋을 것 같습니다.
+추가적으로, 간호학과는 실기 및 면접 평가도 포함되어 있을 수 있으므로, 이 부분에서도 좋은 성적을 거두는 것이 중요할 것입니다.</t>
+        </is>
+      </c>
+      <c r="F266" t="inlineStr">
+        <is>
+          <t>간호학과의 최종등록자 데이터를 기준으로 보면, 간호학과의 영어 등급 평균은 2.34이고, 수능 4개 영역 등급 평균은 3.37입니다. 따라서, 현재 정시 등급이 3.44이라면 간호학과에 합격하기 어려울 수 있습니다. 간호학과의 평균 등급보다 높은 성적을 가지고 있어야 합격 가능성이 높아집니다. 자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="267">
+      <c r="A267" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B267" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 4
+   - 설명: 생성된 응답은 간호학과의 평균 영어 등급과 수능 4개 영역 등급 평균에 대한 정보를 포함하고 있으며, 2.52라는 점수가 평균 등급보다 높은 성적이라는 점을 잘 반영하고 있습니다. 그러나 영어 점수만으로 합격 여부를 판단하기 어렵다는 점을 강조하고 있어, 일부 정보가 추가되었지만 전반적으로 사실에 부합합니다.
+2. Consistency Score (1-5): 4
+   - 설명: 생성된 응답은 원본 텍스트의 정보와 일관되며, 간호학과의 전형 성적 산출 방법과 관련된 추가 정보를 제공합니다. 다만, 영어 점수에 대한 해석이 다소 다르게 나타나지만, 전반적으로 일관성을 유지하고 있습니다.
+3. Relevance Score (1-5): 5
+   - 설명: 생성된 응답은 원본 텍스트의 주제와 관련이 깊으며, 간호학과의 합격 가능성에 대한 질문에 적절하게 답변하고 있습니다. 추가적인 정보도 관련성이 높습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 문법적으로 올바르며 읽기 쉽습니다. 그러나 일부 문장이 다소 길어 가독성이 떨어질 수 있습니다.
+5. Coherence Score (1-5): 4
+   - 설명: 생성된 응답은 논리적으로 잘 구성되어 있으며, 각 포인트가 명확하게 연결되어 있습니다. 그러나 일부 부분에서 정보의 흐름이 약간 끊길 수 있습니다.
+6. Accuracy Score (1-5): 4
+   - 설명: 생성된 응답은 원본 텍스트의 사실을 잘 반영하고 있으며, 추가된 정보도 정확합니다. 그러나 영어 점수에 대한 해석이 다소 주관적일 수 있습니다.
+7. Multidimensional Quality Score (1-5): 4
+   - 설명: 생성된 응답은 사실성, 일관성, 관련성, 유창성 등 여러 차원에서 좋은 성과를 보이고 있습니다. 그러나 일부 부분에서 개선의 여지가 있습니다.
+8. Semantic Appropriateness Score (1-5): 4
+   - 설명: 생성된 응답은 원본 텍스트의 의미와 맥락에 잘 부합하며, 적절한 정보를 제공합니다. 그러나 일부 해석이 다소 주관적일 수 있습니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 이해하기 쉽지만, 일부 문장이 길어져서 약간의 혼란을 줄 수 있습니다.
+{
+    "Factuality Score": 4,
+    "Consistency Score": 4,
+    "Relevance Score": 5,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 4,
+    "Multidimensional Quality Score": 4,
+    "Semantic Appropriateness Score": 4,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C267" t="n">
+        <v>0.5632655126736759</v>
+      </c>
+      <c r="D267" t="inlineStr">
+        <is>
+          <t>정시 성적이 2.52인데 동의대학교 간호학과 최종 합격 가능할까요?</t>
+        </is>
+      </c>
+      <c r="E267" t="inlineStr">
+        <is>
+          <t>2.52라는 점수는 영어 등급 점수로 보이는데, 동의대학교 간호학과의 경우 수능 전형성적 산출 방법은 다음과 같습니다:
+- 국어 표준점수 + 수학 표준점수 + 영어 등급점수 + 탐구 표준점수 (가군)
+- 또는 국어 표준점수 + 수학 표준점수 + 영어 등급점수 + 탐구 표준점수 + 가산점 (나군)
+간호학과는 주로 나군으로 모집되며, 다음과 같은 특징이 있습니다:
+1. **모집인원**: 22명
+2. **지원 인원**: 145명
+3. **경쟁률**: 6.59
+4. **최종 합격 (후보순위)**: 37명
+**영어 등급점수**는 간호학과에서 중요한 요소 중 하나입니다. 하지만, 단순히 영어 점수가 2.52라는 것만으로는 최종합격 여부를 판단하기 어렵습니다.
+다음은 고려해야 할 몇 가지 포인트입니다:
+1. **전반적인 성적**: 국어, 수학, 탐구 등 다른 과목의 성적이 중요합니다.
+2. **가산점**: 수학(미적분 또는 기하) 응시자에게는 0.1 가산점이 적용됩니다.
+3. **경쟁률 및 모집인원**: 매우 높은 경쟁률을 고려해야 합니다.
+**추천 사항:**
+- **전반적인 성적 분석**: 국어, 수학, 탐구 등 다른 과목의 성적도 함께 확인해보세요.
+- **가산점 활용**: 만약 수학(미적분 또는 기하)을 응시했다면 가산점을 활용해볼 만합니다.
+- **추천 학과**: 경쟁률이 낮은 다른 학과를 고려해 볼 수도 있습니다.
+결론적으로, 단순히 영어 점수만으로는 최종합격 여부를 판단하기 어렵습니다. 전반적인 성적을 종합적으로 분석하고, 필요하다면 추가 지원을 고려하는 것이 좋습니다.</t>
+        </is>
+      </c>
+      <c r="F267" t="inlineStr">
+        <is>
+          <t>간호학과의 최종등록자 데이터를 보면, 평균 영어 등급은 2.34이고,  수능 4개 영역 등급 평균은 3.37입니다. 
+따라서, 현재 정시 등급이 2.52이라면 간호학과의 평균 등급보다 높은 성적을 가지고 있기 때문에 합격 가능성이 높습니다. 
+자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="268">
+      <c r="A268" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B268" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 4
+   - 설명: 생성된 응답은 간호학과의 평균 영어 등급과 수능 4개 영역 등급 평균에 대한 정보를 포함하고 있으며, 3.7의 성적이 평균보다 낮다는 점을 언급하고 있습니다. 그러나 "3.7의 영어 등급 점수는 상당히 좋은 성적입니다"라는 부분은 다소 모순적입니다. 전체적으로 정확한 정보가 포함되어 있지만, 일부 표현에서 혼란을 줄 수 있습니다.
+2. Consistency Score (1-5): 3
+   - 설명: 생성된 응답은 간호학과의 경쟁률과 3.7의 성적에 대한 정보를 제공하지만, 간호학과의 평균 등급보다 낮다고 언급한 부분과 "상당히 좋은 성적"이라는 표현이 서로 일치하지 않습니다. 이로 인해 일관성이 떨어집니다.
+3. Relevance Score (1-5): 5
+   - 설명: 생성된 응답은 질문에 대한 직접적인 답변을 제공하며, 간호학과에 합격하기 위한 여러 요소를 고려하고 있습니다. 이는 원본 텍스트와 매우 관련성이 높습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 문법적으로 올바르며 읽기 쉽습니다. 그러나 일부 문장에서 약간의 어색함이 느껴질 수 있습니다.
+5. Coherence Score (1-5): 4
+   - 설명: 생성된 응답은 논리적으로 잘 구성되어 있으며, 각 요소가 명확하게 연결되어 있습니다. 그러나 일부 부분에서 논리적 흐름이 약간 끊길 수 있습니다.
+6. Accuracy Score (1-5): 4
+   - 설명: 응답은 대부분의 사실을 정확하게 반영하고 있지만, 3.7의 성적에 대한 해석에서 약간의 부정확성이 있습니다. 
+7. Multidimensional Quality Score (1-5): 4
+   - 설명: 전반적으로 응답은 여러 품질 차원에서 잘 수행되고 있으며, 특히 관련성과 유창성에서 강점을 보입니다. 그러나 일관성과 정확성에서 약간의 개선이 필요합니다.
+8. Semantic Appropriateness Score (1-5): 4
+   - 설명: 생성된 응답은 원본 텍스트의 의미와 맥락에 잘 부합하지만, 일부 표현에서 혼란을 줄 수 있는 부분이 있습니다.
+9. Understandability Score (1-5): 4
+   - 설명: 응답은 전반적으로 명확하고 이해하기 쉬우나, 일부 문장에서 약간의 혼란을 줄 수 있는 표현이 있습니다.
+{
+    "Factuality Score": 4,
+    "Consistency Score": 3,
+    "Relevance Score": 5,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 4,
+    "Multidimensional Quality Score": 4,
+    "Semantic Appropriateness Score": 4,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C268" t="n">
+        <v>0.6796075866762711</v>
+      </c>
+      <c r="D268" t="inlineStr">
+        <is>
+          <t>정시 성적이 3.7인데 정시 전형으로 간호학과에 합격할 수 있을까요?</t>
+        </is>
+      </c>
+      <c r="E268" t="inlineStr">
+        <is>
+          <t>3.7의 영어 등급 점수는 상당히 좋은 성적입니다. 하지만 간호학과의 경쟁률이 매우 높습니다 (예를 들어, 간호학과의 경우 6.59의 경쟁률을 보였습니다). 따라서 정시 성적이 3.7이라면 합격 가능성은 낮을 수 있습니다.
+간호학과에 합격하기 위해서는 다음과 같은 요소들을 고려해야 합니다:
+1. **전반적인 성적**: 영어 등급이 높으므로 이 부분에서는 우위를 점할 수 있지만, 다른 과목의 성적이 낮다면 전체적으로 좋은 평가를 받기 어렵습니다.
+2. **면접 및 실기**: 간호학과는 실무 능력과 인성을 중요하게 평가하기 때문에 면접이나 실기 시험에서 좋은 점수를 받는 것이 중요합니다.
+3. **추천서나 자소서**: 추천서나 자기소개서 등에서 자신의 열정과 적합성, 그리고 미래 계획을 잘 표현하는 것이 도움이 될 수 있습니다.
+4. **추가 지원자료**: 학교생활기록부 외에 추가로 제출해야 하는 서류들이 있는지 확인하고 준비해야 합니다.
+5. **경쟁률 및 모집인원**: 간호학과의 경쟁률이 높으므로, 충원 합격자 수와 지원자의 수를 고려하여 합격 가능성을 판단해야 합니다.
+6. **추천사**: 교사나 지도교사의 추천서가 있다면 이를 활용할 수 있습니다.
+결론적으로 3.7의 성적만으로는 간호학과에 합격하기 어렵다고 볼 수 있지만, 전반적인 지원 자질을 잘 보여주고 면접 등에서 좋은 평가를 받으면 가능성을 높일 수 있습니다. 따라서 추가 준비와 노력이 필요합니다.</t>
+        </is>
+      </c>
+      <c r="F268" t="inlineStr">
+        <is>
+          <t>간호학과의 최종등록자 데이터를 기준으로 보면, 간호학과의 영어 등급 평균은 2.34이고, 수능 4개 영역 등급 평균은 3.37입니다. 따라서, 현재 정시 등급이 3.7이라면 간호학과의 평균 등급보다 낮은 성적을 가지고 있기 때문에 합격 가능성이 낮습니다. 자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="269">
+      <c r="A269" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B269" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 4
+   - 설명: 생성된 응답은 간호학과의 평균 등급과 지원 인원, 경쟁률 등의 정보를 포함하고 있으며, 성적 2.58에 대한 합격 가능성을 논의하고 있습니다. 그러나 일부 수치(예: 표준 변환 점수 합 평균)와 관련된 정보는 출처 텍스트에 명시되어 있지 않아 정확성을 떨어뜨립니다.
+2. Consistency Score (1-5): 3
+   - 설명: 생성된 응답은 출처 텍스트의 정보와 일부 일치하지만, 성적 2.58이 평균 등급보다 높다는 주장은 출처 텍스트와 모순됩니다. 출처 텍스트는 2.58이 평균보다 높은 성적이라고 언급하고 있지만, 생성된 응답은 이를 반박하는 내용을 포함하고 있습니다.
+3. Relevance Score (1-5): 5
+   - 설명: 생성된 응답은 질문의 주제와 관련된 정보를 제공하며, 간호학과의 정시 모집에 대한 구체적인 세부사항을 포함하고 있습니다. 따라서 매우 관련성이 높습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 문법적으로 올바르며 읽기 쉽습니다. 그러나 일부 문장에서 약간의 어색함이 느껴질 수 있습니다.
+5. Coherence Score (1-5): 4
+   - 설명: 생성된 응답은 논리적으로 잘 구성되어 있으며, 각 문장이 자연스럽게 이어집니다. 그러나 일부 정보가 서로 충돌하여 완전한 일관성을 떨어뜨립니다.
+6. Accuracy Score (1-5): 3
+   - 설명: 생성된 응답은 일부 정확한 정보를 포함하고 있지만, 성적 2.58에 대한 해석이 출처 텍스트와 일치하지 않아 정확성이 떨어집니다.
+7. Multidimensional Quality Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 높은 품질을 유지하고 있으며, 관련성과 유창성에서 강점을 보입니다. 그러나 사실성과 일관성에서 약간의 문제가 있습니다.
+8. Semantic Appropriateness Score (1-5): 4
+   - 설명: 생성된 응답은 주제와 관련된 의미를 잘 전달하고 있으며, 전반적으로 적절한 맥락을 유지하고 있습니다. 그러나 일부 내용은 출처와 다르게 해석될 수 있습니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 명확하게 작성되어 있으며, 이해하기 쉽습니다. 그러나 일부 문장은 다소 복잡할 수 있습니다.
+{
+    "Factuality Score": 4,
+    "Consistency Score": 3,
+    "Relevance Score": 5,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 3,
+    "Multidimensional Quality Score": 4,
+    "Semantic Appropriateness Score": 4,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C269" t="n">
+        <v>0.6091779060320781</v>
+      </c>
+      <c r="D269" t="inlineStr">
+        <is>
+          <t>정시 성적이 2.58인데 동의대학교 간호학과에 정시 전형으로 합격할 수 있을까요?</t>
+        </is>
+      </c>
+      <c r="E269" t="inlineStr">
+        <is>
+          <t>2024년 동의대학교 간호학과의 정시 모집에서 국어+수학+탐구(2개) (가산점 포함) 표준 변환 점수 합 평균은 357.63으로, 이는 성적이 2.58인 경우 상당히 높습니다.
+다음은 간호학과의 정시 모집에 대한 주요 정보입니다:
+1. **모집 인원**: 22명
+2. **지원 인원**: 145명
+3. **경쟁률**: 6.59 (145/22)
+4. **국어+수학+탐구(가산점 포함) 표준 변환 점수 합 평균**: 357.63
+성적이 2.58인 경우, 이는 대략 3등급 정도를 의미합니다. 동의대학교 간호학과의 정시 모집에서 국어+수학+탐구(가산점 포함) 표준 변환 점수 합 평균은 357.63으로, 이 점수가 2.58보다 훨씬 높습니다.
+따라서 성적이 2.58인 경우, 동의대학교 간호학과에 정시 전형으로 합격하기는 매우 어려울 것으로 예상됩니다. 
+이러한 상황에서는 다음과 같은 대안을 고려해볼 수 있습니다:
+1. **학생부 종합전형**: 이전에 언급된 정보에서, 동의대학교는 여러 학생부종합 전형을 운영하고 있으며, 이들 전형은 성적 외에도 다양한 요소를 평가하므로 고려해 볼 만합니다.
+2. **재수 시도**: 성적이 조금 낮더라도 재수를 통해 성적을 향상시키는 방법도 있습니다.
+3. **다른 대학/과 선택**: 동의대학교 간호학과 외에도 다른 대학이나 과정을 고려해 볼 수 있습니다.
+결론적으로, 현재의 성적이 2.58인 경우 동의대학교 간호학과에 정시 전형으로 합격하기는 매우 어려울 것으로 보입니다.</t>
+        </is>
+      </c>
+      <c r="F269" t="inlineStr">
+        <is>
+          <t>간호학과의 최종등록자 데이터를 기준으로 보면, 간호학과의 영어 등급 평균은 2.34이고, 수능 4개 영역 등급 평균은 3.37입니다. 따라서, 현재 정시 등급이 2.58이라면 간호학과의 평균 등급보다 높은 성적을 가지고 있기 때문에 합격 가능성이 높습니다. 자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="270">
+      <c r="A270" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B270" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 3
+   - 생성된 응답은 게임공학과의 모집인원과 전형요소에 대한 정보를 제공하지만, 예비번호 7번에 대한 가능성에 대한 언급이 원본 텍스트와 일치하지 않음. 원본에서는 예비번호 7번의 합격 가능성이 낮다고 명시하고 있으나, 생성된 응답은 최상위권 성적을 보유할 경우 가능성이 있다고 언급함.
+2. Consistency Score (1-5): 3
+   - 생성된 응답은 원본 텍스트의 정보와 일부 일치하지만, 예비번호 7번의 합격 가능성에 대한 해석이 다르기 때문에 일관성이 떨어짐.
+3. Relevance Score (1-5): 4
+   - 생성된 응답은 원본 텍스트의 주제와 관련된 정보를 제공하지만, 예비번호 7번에 대한 직접적인 답변이 부족하여 완전한 관련성을 갖추지 못함.
+4. Fluency Score (1-5): 4
+   - 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 구조를 가지고 있으나, 일부 문장이 다소 길어 가독성이 떨어질 수 있음.
+5. Coherence Score (1-5): 4
+   - 생성된 응답은 논리적으로 잘 구성되어 있으며, 각 항목이 명확하게 구분되어 있어 이해하기 쉬움.
+6. Accuracy Score (1-5): 3
+   - 생성된 응답은 일부 정확한 정보를 포함하고 있지만, 예비번호 7번에 대한 합격 가능성에 대한 해석이 원본과 다르기 때문에 정확성이 떨어짐.
+7. Multidimensional Quality Score (1-5): 3
+   - 여러 차원에서 평균적인 성과를 보이나, 특히 사실성과 일관성에서 부족함이 있어 전반적인 품질이 떨어짐.
+8. Semantic Appropriateness Score (1-5): 3
+   - 생성된 응답은 원본 텍스트의 의미와 다소 다르게 해석되고 있어 의미적으로 적절하지 않음.
+9. Understandability Score (1-5): 4
+   - 생성된 응답은 전반적으로 이해하기 쉬우나, 일부 내용이 원본과 다르게 해석되어 혼란을 줄 수 있음.
+{
+    "Factuality Score": 3,
+    "Consistency Score": 3,
+    "Relevance Score": 4,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 3,
+    "Multidimensional Quality Score": 3,
+    "Semantic Appropriateness Score": 3,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C270" t="n">
+        <v>0.6087891121188503</v>
+      </c>
+      <c r="D270" t="inlineStr">
+        <is>
+          <t>게임공학과 예비번호 7번인데요 붙을까요?</t>
+        </is>
+      </c>
+      <c r="E270" t="inlineStr">
+        <is>
+          <t>2024년 입시 일정과 모집인원 등을 고려해보겠습니다.
+1. **모집단위와 모집인원 확인**:
+   - 게임공학과는 ICT융합공과대학에 속합니다.
+   - 게임공학과의 모집인원은 3명입니다 (2024년 예시).
+2. **전형요소 및 성적 산출방법**:
+   - 전형요소 반영비율: 수능 100%, 실기 0%
+   - 성적 산출방법: 국어 + 수학 + 영어 등급점수 + 탐구
+3. **성적 예시 및 점수**:
+   - 예를 들어, 국어 95점 (표준점수), 수학 100점 (표준점수), 영어 4등급 (123점), 탐구 87점 (표준점수)이라면,
+     - 성적 합산 점수 = 95 + 100 + 123 + 87 = 305
+4. **입학 확정 가능성**:
+   - 게임공학과는 모집인원이 3명이고, 수능 성적이 높은 학생들이 많이 지원할 가능성이 있습니다.
+   - 따라서 붙을 확률은 상대적으로 낮지만, 최상위권의 성적을 보유하고 있다면 기회가 있을 수 있습니다.
+5. **추천**:
+   - 정확한 입학 확률을 파악하기 위해서는 해당 학과의 전형요소와 성적 산출방법을 잘 이해하는 것이 중요합니다.
+   - 또한, 다른 모집단위에서도 지원해보는 것을 고려해볼 수 있습니다.
+결론적으로, 게임공학과 예비번호 7번이라면 최상위권의 성적을 보유하고 있다면 붙을 가능성이 있지만, 확실한 것은 아닙니다. 정확한 정보와 전략을 갖추고 지원하시길 바랍니다.</t>
+        </is>
+      </c>
+      <c r="F270" t="inlineStr">
+        <is>
+          <t>게임공학과의 최종등록자 데이터를 기준으로 보면, 충원합격(후보 순위) 3번까지 충원합격 된 것으로 나온다. 따라서, 현재 예비 7번이라면 게임공학과에 예비 합격할 가능성이 낮다. 자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="271">
+      <c r="A271" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B271" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 4
+   - 생성된 응답은 수능 성적과 관련된 정보와 추가 합격 가능성에 대한 예측을 포함하고 있으며, 이는 원본 텍스트의 내용과 대체로 일치합니다. 그러나 원본 텍스트에서 제공된 평균 등급과 관련된 구체적인 수치는 언급되지 않았습니다.
+2. Consistency Score (1-5): 3
+   - 생성된 응답은 원본 텍스트의 정보와 일부 일치하지만, 경쟁률과 충원 합격자 수에 대한 추가 정보를 제공하여 원본 텍스트와의 일관성이 떨어질 수 있습니다. 특히, 원본 텍스트에서 언급된 "추가 합격 몇 번을 받을지는 예측하기 어렵습니다"라는 부분과는 다소 상충하는 내용이 포함되어 있습니다.
+3. Relevance Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 주제와 관련된 정보를 잘 다루고 있으며, 수능 성적과 추가 합격 가능성에 대한 질문에 직접적으로 답변하고 있습니다.
+4. Fluency Score (1-5): 4
+   - 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 구조를 가지고 있습니다. 다만, 일부 문장이 다소 길어 가독성이 떨어질 수 있습니다.
+5. Coherence Score (1-5): 4
+   - 생성된 응답은 논리적으로 잘 구성되어 있으며, 각 문장이 자연스럽게 연결되어 있습니다. 그러나 일부 정보가 추가되어 원본 텍스트의 흐름과 약간의 차이를 보입니다.
+6. Accuracy Score (1-5): 4
+   - 생성된 응답은 수능 성적과 관련된 정보에 대해 정확하게 설명하고 있으며, 원본 텍스트의 사실과 잘 일치합니다. 그러나 추가 합격자 수와 경쟁률에 대한 정보는 원본 텍스트에 명시되어 있지 않으므로 완전한 정확성을 보장하지는 않습니다.
+7. Multidimensional Quality Score (1-5): 4
+   - 생성된 응답은 여러 품질 차원에서 잘 수행되고 있으며, 전반적으로 높은 점수를 받았습니다. 그러나 일부 일관성 문제로 인해 완벽한 점수를 받지 못했습니다.
+8. Semantic Appropriateness Score (1-5): 4
+   - 생성된 응답은 원본 텍스트의 의미와 맥락에 잘 부합하며, 관련된 정보를 적절하게 전달하고 있습니다. 다만, 일부 추가 정보가 원본 텍스트의 의도와 다소 다를 수 있습니다.
+9. Understandability Score (1-5): 4
+   - 생성된 응답은 전반적으로 이해하기 쉽고 명확하게 작성되었습니다. 그러나 일부 문장이 길어져서 약간의 혼란을 줄 수 있습니다.
+{
+    "Factuality Score": 4,
+    "Consistency Score": 3,
+    "Relevance Score": 5,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 4,
+    "Multidimensional Quality Score": 4,
+    "Semantic Appropriateness Score": 4,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C271" t="n">
+        <v>0.6443918030308977</v>
+      </c>
+      <c r="D271" t="inlineStr">
+        <is>
+          <t>수능 성적이 4.16정도인데 정시 전형으로 동의대학교 게임공학과에 지원하면 추가 합격 몇 번정도 받을 수 있을까요?</t>
+        </is>
+      </c>
+      <c r="E271" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대학교 게임공학과의 경우, 수능 최종등록자의 경쟁률이 5.33이며, 충원 합격자는 3명입니다.
+수능 성적이 4.16정도라면, 평균적인 경쟁률을 고려할 때 대략적으로 20-30위 안에 들 것으로 예상됩니다. 따라서 추가 합격 가능성이 높아 보이지만, 정확한 확률은 지원자의 전체 성적 분포와 입학사정관의 평가 결과 등 다양한 요인에 따라 달라질 수 있습니다.
+따라서 4.16 정도의 점수로는 충원 합격자(3명)보다 높은 순위를 받을 가능성이 있지만, 정확한 예상 순위는 입학사정관들의 평가 결과와 지원자의 전체 성적 분포에 따라 달라질 수 있습니다. 따라서 최종적인 확률을 파악하기 위해서는 동의대학교 입학처 웹사이트나 전화로 상세 문의를 하는 것이 좋습니다.
+추가적으로, 동의대학교의 정시모집에서 게임공학과는 나군 학생부종합(성인학습자)으로 모집되므로, 학업역량, 전공적합성 등 다양한 평가 요소들이 고려됩니다. 따라서 수능 점수 외에도 지원자의 학교생활기록부와 면접 성과 등을 종합적으로 평가받게 됩니다.
+추천되는 조치:
+1. 동의대학교 입학처 웹사이트를 확인하여 최신 정보를 얻습니다.
+2. 전화로 상담을 받거나, 온라인으로 문의를 하세요.
+3. 게임공학과에 관심 있는 학생들의 성적 분포와 평균 점수를 참고하세요.
+이러한 정보들을 종합적으로 고려하여 지원 계획을 세우시는 것이 좋습니다.</t>
+        </is>
+      </c>
+      <c r="F271" t="inlineStr">
+        <is>
+          <t>게임공학과의 최종등록자 데이터를 기준으로 보면, 게임공학과의 영어 등급 평균은 3.25이고, 수능 4개 영역 등급 평균은 4.78입니다. 따라서, 현재 정시 등급이 4.16이라면 게임공학과의 평균 등급보다 높은 성적을 가지고 있어 합격 가능성이 높습니다. 단, 추가 합격 몇 번을 받을지는 예측하기 어렵습니다. 자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="272">
+      <c r="A272" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B272" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 3
+   - 생성된 응답은 경영정보학과의 평균 성적과 관련된 정보를 포함하고 있지만, 소프트웨어공학과의 성적 기준과 경쟁률에 대한 정보는 원본 텍스트와 관련이 없습니다. 따라서 일부 사실은 정확하지만, 전체적으로는 원본 텍스트의 핵심 정보를 충분히 반영하지 못하고 있습니다.
+2. Consistency Score (1-5): 2
+   - 생성된 응답은 원본 텍스트의 내용과 일관성이 부족합니다. 원본 텍스트는 경영정보학과의 합격 가능성에 대한 정보를 제공하는 반면, 생성된 응답은 소프트웨어공학과에 대한 정보로 전환되어 일관성이 떨어집니다.
+3. Relevance Score (1-5): 2
+   - 생성된 응답은 경영정보학과에 대한 질문에 대한 직접적인 답변이 아닌 소프트웨어공학과에 대한 정보로 구성되어 있어 관련성이 낮습니다. 원본 텍스트의 주제와는 다소 벗어난 내용입니다.
+4. Fluency Score (1-5): 4
+   - 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 구조를 가지고 있습니다. 그러나 일부 문장은 다소 복잡하게 구성되어 있어 약간의 가독성 저하가 있을 수 있습니다.
+5. Coherence Score (1-5): 3
+   - 생성된 응답은 여러 가지 요소를 나열하고 있지만, 전체적으로 논리적인 흐름이 부족합니다. 각 요소 간의 연결이 명확하지 않아 일관된 주제를 유지하지 못하고 있습니다.
+6. Accuracy Score (1-5): 3
+   - 생성된 응답은 일부 정확한 정보를 포함하고 있지만, 원본 텍스트의 핵심 사실을 충분히 반영하지 못하고 있습니다. 특히, 경영정보학과에 대한 정보가 아닌 소프트웨어공학과에 대한 정보가 포함되어 있어 정확성이 떨어집니다.
+7. Multidimensional Quality Score (1-5): 2
+   - 생성된 응답은 여러 차원에서 낮은 점수를 받았으며, 특히 일관성과 관련성에서 큰 문제가 있습니다. 전반적으로 원본 텍스트의 요구 사항을 충족하지 못하고 있습니다.
+8. Semantic Appropriateness Score (1-5): 3
+   - 생성된 응답은 의미적으로 적절한 부분도 있지만, 원본 텍스트의 맥락과는 다소 동떨어진 내용이 포함되어 있어 의미적으로 완벽하게 적절하다고 보기는 어렵습니다.
+9. Understandability Score (1-5): 4
+   - 생성된 응답은 전반적으로 이해하기 쉬운 구조를 가지고 있지만, 일부 내용이 원본 텍스트와의 관련성이 떨어져 혼란을 줄 수 있습니다. 그러나 문장 자체는 명확하게 전달되고 있습니다.
+{
+    "Factuality Score": 3,
+    "Consistency Score": 2,
+    "Relevance Score": 2,
+    "Fluency Score": 4,
+    "Coherence Score": 3,
+    "Accuracy Score": 3,
+    "Multidimensional Quality Score": 2,
+    "Semantic Appropriateness Score": 3,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C272" t="n">
+        <v>0.6209663952060535</v>
+      </c>
+      <c r="D272" t="inlineStr">
+        <is>
+          <t>경영정보학과 정시 성적 3.75 인데 최초등록자로 가능할까요?</t>
+        </is>
+      </c>
+      <c r="E272" t="inlineStr">
+        <is>
+          <t>2024학년도 모집단위의 경우, 경영정보학과에 대한 지원을 위해서는 수능 성적이 중요한 요소 중 하나입니다. 하지만 단순히 수능 점수만으로 결정되는 것은 아닙니다. 다음과 같은 절차와 기준을 고려해야 합니다:
+1. **성적 기준**: 
+   - 2024학년도 모집단위의 경우, 수능 성적이 중요합니다. 예를 들어, 소프트웨어공학과의 경우, 국어 + 수학 + 탐구(2개) (가산점 포함) 표준 변환 점수 합의 평균은 317.87였습니다.
+2. **경쟁률**:
+   - 경영정보학과의 경우, 지원 인원이 많을 가능성이 있습니다. 예를 들어, 소프트웨어공학과는 지원 인원이 105명으로 많은 수가 지원할 수 있습니다.
+3. **성적 평균 및 표준 편차**:
+   - 성적의 평균과 표준 편차를 고려해야 합니다. 예를 들어, 소프트웨어공학과의 경우, 국어 + 수학 + 탐구(2개) (가산점 포함) 표준 변환 점수 합의 평균은 317.87이고, 표준 편차는 7.35였습니다.
+4. **성적 등급**:
+   - 영어 등급의 평균과 표준 편차도 고려해야 합니다. 예를 들어, 소프트웨어공학과의 경우, 영어 등급의 평균은 3.77이고, 표준 편차는 0.67였습니다.
+5. **개인 성적**:
+   - 개인의 수능 점수가 3.75라는 것은 상대적으로 좋은 성적이지만, 경쟁률과 전체 지원자의 성적 분포를 고려해야 합니다.
+따라서, 단순히 3.75라는 점수만으로 최초 등록자로 확정되는 것은 어렵습니다. 하지만 다음과 같은 방법을 통해 가능성을 높일 수 있습니다:
+- **추가 지원 자료 제출**: 학교생활기록부, 추천서 등을 잘 준비하고 제출합니다.
+- **면접 준비**: 면접에서도 자신의 강점과 지원 동기를 잘 전달할 수 있도록 준비합니다.
+결론적으로, 3.75라는 점수는 좋은 성적입니다만, 경쟁률과 전체 지원자의 성적 분포를 고려해야 하므로 최초 등록자로 확정되는 것은 어렵습니다. 하지만 충분히 가능성을 높일 수 있습니다.</t>
+        </is>
+      </c>
+      <c r="F272" t="inlineStr">
+        <is>
+          <t>경영정보학과의 최초등록자 데이터를 기준으로 보면, 경영정보학과의 영어 등급 평균은 2.88이고, 수능 4개 영역 등급 평균은 3.88입니다.
+따라서, 현재 정시 등급이 3.75이라면 경영정보학과의 평균 등급보다 높은 성적을 가지고 있어 합격 가능성이 높습니다. 즉, 최초합격 가능성은 높아보입니다. 
+자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="273">
+      <c r="A273" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B273" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 3
+   - 설명: 생성된 응답에서 제공된 정보 중 일부는 원본 텍스트와 일치하지 않거나 정확하지 않습니다. 예를 들어, 영어 등급의 평균이 3.25로 언급되었으나 원본 텍스트에서는 2.88로 명시되어 있습니다. 또한, 수능 4개 영역 등급 평균이 3.88이라는 정보는 누락되었습니다.
+2. Consistency Score (1-5): 3
+   - 설명: 생성된 응답은 원본 텍스트의 일부 정보와 일치하지만, 다른 정보는 상충합니다. 예를 들어, 경쟁률과 충원 합격자 수에 대한 정보는 원본 텍스트에 포함되어 있지 않으며, 이는 일관성을 떨어뜨립니다.
+3. Relevance Score (1-5): 4
+   - 설명: 생성된 응답은 원본 텍스트의 주제와 관련이 있으며, 지원자의 점수와 합격 가능성에 대한 정보를 제공합니다. 그러나 원본 텍스트의 핵심 정보인 평균 등급에 대한 언급이 부족하여 완전한 관련성을 갖추지 못했습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 문법적으로 올바르며 읽기 쉽습니다. 그러나 일부 문장은 다소 복잡하게 구성되어 있어 약간의 유창성 저하가 있습니다.
+5. Coherence Score (1-5): 4
+   - 설명: 생성된 응답은 논리적으로 잘 구성되어 있으며, 정보가 명확하게 전달됩니다. 그러나 일부 정보가 원본 텍스트와 일치하지 않아 완전한 일관성을 제공하지는 않습니다.
+6. Accuracy Score (1-5): 3
+   - 설명: 생성된 응답은 일부 정확한 정보를 포함하고 있지만, 원본 텍스트의 주요 사실과 일치하지 않는 부분이 있어 정확성이 떨어집니다.
+7. Multidimensional Quality Score (1-5): 3
+   - 설명: 생성된 응답은 여러 차원에서 중간 정도의 품질을 보입니다. 사실성과 일관성에서 부족함이 있으며, 관련성과 유창성은 상대적으로 좋지만 전반적인 품질은 개선이 필요합니다.
+8. Semantic Appropriateness Score (1-5): 4
+   - 설명: 생성된 응답은 원본 텍스트의 의미와 맥락에 적절하게 부합합니다. 그러나 일부 정보의 부정확성으로 인해 의미 전달이 완벽하지는 않습니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 이해하기 쉽고 명확하게 작성되었습니다. 그러나 일부 복잡한 문장 구조로 인해 약간의 혼란을 줄 수 있습니다.
+{
+    "Factuality Score": 3,
+    "Consistency Score": 3,
+    "Relevance Score": 4,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 3,
+    "Multidimensional Quality Score": 3,
+    "Semantic Appropriateness Score": 4,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C273" t="n">
+        <v>0.5177137861276476</v>
+      </c>
+      <c r="D273" t="inlineStr">
+        <is>
+          <t>경영정보학과 정시 성적이 4.2입니다. 최초등록자로 가능할까요?</t>
+        </is>
+      </c>
+      <c r="E273" t="inlineStr">
+        <is>
+          <t>4.2라는 점수만으로는 확정적으로 결정하기 어렵습니다. 경영정보학과의 최종 등록자를 보면 다음과 같은 정보가 있습니다:
+- 모집인원: 9명
+- 지원 인원: 95명
+- 경쟁률: 10.56대1
+- 충원 합격 (후보순위): 33명
+- 국어 + 수학 + 탐구(2개) (가산점 포함) 표준 변환 점수 합의 평균: 313.13
+- 영어 등급의 평균: 3.25
+이 정보를 바탕으로 다음과 같은 판단을 할 수 있습니다:
+1. 경쟁률이 매우 높습니다 (10대1 이상).
+2. 충원 합격자 수가 많아서 많은 지원자가 선발될 가능성이 있습니다.
+3. 표준 변환 점수 평균이 313.13으로 상당히 높습니다.
+4.2라는 점수는 평균보다 낮은 편입니다. 그러나 최종 등록자 중에는 4점대의 지원자가 있습니다. 따라서 단순히 점수가 낮다고 해서 불가능한 것은 아닙니다.
+추천 사항:
+1. 다른 과도 함께 지원해보는 것이 좋습니다.
+2. 학생부와 면접 준비를 철저하게 하세요.
+3. 추가 지원 자격을 갖춘다면, 다른 전형(예: 실기/실적)도 고려해 보세요.
+결론적으로 4.2점수만으로는 확정적으로 가능하지 않지만, 충분히 도전할 가치가 있습니다.</t>
+        </is>
+      </c>
+      <c r="F273" t="inlineStr">
+        <is>
+          <t>경영정보학과의 최초등록자 데이터를 기준으로 보면, 경영정보학과의 영어 등급 평균은 2.88이고, 수능 4개 영역 등급 평균은 3.88입니다. 
+따라서, 현재 정시 등급이 4.2이라면 경영정보학과의 평균 등급보다 낮은 성적을 가지고 있어 합격 가능성이 낮습니다. 즉, 최초합격 가능성은 적습니다. 
+자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="274">
+      <c r="A274" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B274" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 4
+   - 설명: 생성된 응답은 경영정보학과의 평균 등급과 관련된 정보를 제공하고 있으며, 5.33이라는 성적이 평균 등급보다 낮다는 점을 언급하고 있습니다. 그러나, 수능 등급과 점수에 대한 구체적인 계산이 다소 불확실하게 제시되어 있어 완전한 정확성을 보장하지는 않습니다.
+2. Consistency Score (1-5): 3
+   - 설명: 생성된 응답은 원본 텍스트의 정보와 일부 일치하지만, 수능 성적 산출 방법에 대한 추가적인 설명이 포함되어 있어 일관성이 떨어질 수 있습니다. 원본 텍스트의 핵심 메시지와는 다소 다른 방향으로 나아가고 있습니다.
+3. Relevance Score (1-5): 5
+   - 설명: 생성된 응답은 원본 텍스트의 주제와 관련이 깊으며, 합격 가능성에 대한 분석을 제공하고 있습니다. 따라서 매우 관련성이 높습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 문법적으로 올바르며 읽기 쉬운 구조를 가지고 있습니다. 다만, 일부 문장이 다소 길어 가독성이 떨어질 수 있습니다.
+5. Coherence Score (1-5): 4
+   - 설명: 생성된 응답은 논리적으로 잘 구성되어 있으며, 각 점이 자연스럽게 연결되어 있습니다. 그러나 일부 부분에서 논리적 흐름이 약간 끊길 수 있습니다.
+6. Accuracy Score (1-5): 4
+   - 설명: 응답은 수능 성적에 대한 정보와 합격 가능성에 대한 분석을 제공하고 있지만, 수능 등급과 점수의 관계에 대한 설명이 다소 모호하여 완전한 정확성을 보장하지는 않습니다.
+7. Multidimensional Quality Score (1-5): 4
+   - 설명: 생성된 응답은 여러 품질 차원에서 잘 수행되고 있으며, 특히 관련성과 유창성에서 강점을 보입니다. 그러나 일관성과 정확성에서 약간의 개선이 필요합니다.
+8. Semantic Appropriateness Score (1-5): 4
+   - 설명: 생성된 응답은 원본 텍스트의 의미와 맥락에 잘 부합하지만, 일부 추가 정보가 원본의 의도와 다소 어긋날 수 있습니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 이해하기 쉽지만, 일부 문장이 길어져서 약간의 혼란을 줄 수 있습니다.
+{
+    "Factuality Score": 4,
+    "Consistency Score": 3,
+    "Relevance Score": 5,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 4,
+    "Multidimensional Quality Score": 4,
+    "Semantic Appropriateness Score": 4,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C274" t="n">
+        <v>0.6081392565482472</v>
+      </c>
+      <c r="D274" t="inlineStr">
+        <is>
+          <t>정시 성적이 5.33인데 동의대학교 경영정보학과 일반학생전형으로 합격 가능할까요?</t>
+        </is>
+      </c>
+      <c r="E274" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대학교 경영정보학과의 경우, 수능 전형성적 산출방법은 다음과 같습니다:
+- 국어 표준점수 + 수학 표준점수 + 영어 등급점수 + 탐구 표준점수
+이에 따라 성적이 5.33인 경우는 수능 영역별로 다음과 같이 분석됩니다:
+1. **국어, 수학, 영어, 탐구** 중에서 상위 4개 영역의 점수를 합산합니다.
+2. 5.33은 대략적으로 수능 등급이 5등급 정도입니다. 
+3. 5등급의 경우 등급점수가 약 107점 정도 됩니다.
+따라서, 5.33이라는 성적만으로는 확실한 합격을 보장하기 어렵습니다. 경쟁률과 모집인원 등을 고려하면 다음과 같은 점수대가 필요할 것으로 예상됩니다:
+- 평균적인 경쟁률은 4:1 정도로 추정되므로, 약 300점 이상이 필요할 수 있습니다.
+- 최소 합격선은 280점 이상으로 보입니다.
+따라서, 5.33이라는 점수만으로는 불확실성이 크며, 다른 영역의 성적도 고려해야 합니다. 
+추가적으로:
+1. **국어와 수학**의 표준점수가 중요합니다.
+2. **탐구 영역**에서 좋은 성적이 필요합니다.
+따라서, 5.33이라는 점수로는 합격 가능성이 낮다고 볼 수 있습니다. 더 높은 국어/수학 점수와 탐구 영역의 성적을 보유하고 있다면 더 큰 가능성이 있을 것입니다. 
+결론적으로, 현재 정보만으로는 확실한 답변을 드리기 어렵습니다. 정확한 합격 가능성을 확인하려면 동의대학교 입학처 웹사이트나 전화로 문의하시는 것이 좋겠습니다.</t>
+        </is>
+      </c>
+      <c r="F274" t="inlineStr">
+        <is>
+          <t>경영정보학과의 최종등록자 데이터를 기준으로 보면, 경영정보학과의 영어 등급 평균은 3.25이고, 수능 4개 영역 등급 평균은 4.31입니다. 따라서, 현재 정시 등급이 5.33이라면 경영정보학과의 평균 등급보다 낮은 성적을 가지고 있어 합격 가능성이 낮습니다. 자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="275">
+      <c r="A275" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B275" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 3
+   - 설명: 생성된 응답은 일부 사실을 포함하고 있지만, 영어 등급 평균이 4.53으로 언급된 부분은 원본 텍스트의 3.82와 일치하지 않으며, 수능 4개 영역 등급 평균도 4.74로 원본과 다릅니다. 따라서 일부 사실이 부정확합니다.
+2. Consistency Score (1-5): 3
+   - 설명: 생성된 응답은 원본 텍스트의 일부 정보를 반영하고 있지만, 영어 등급 평균과 수능 등급 평균에 대한 불일치로 인해 일관성이 떨어집니다. 또한, 합격 가능성에 대한 평가가 원본과 다르게 제시되어 있습니다.
+3. Relevance Score (1-5): 4
+   - 설명: 생성된 응답은 바이오응용공학부의 입학 관련 정보와 지원자의 성적에 대한 평가를 포함하고 있어 주제와 관련성이 높습니다. 그러나 원본 텍스트의 핵심 정보와는 다소 차이가 있습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 구조를 가지고 있습니다. 다만, 일부 문장이 길어 가독성이 떨어질 수 있습니다.
+5. Coherence Score (1-5): 4
+   - 설명: 생성된 응답은 논리적으로 잘 구성되어 있으며, 각 항목이 명확하게 구분되어 있습니다. 그러나 일부 정보의 불일치로 인해 완전한 일관성은 부족합니다.
+6. Accuracy Score (1-5): 3
+   - 설명: 생성된 응답은 일부 정확한 정보를 포함하고 있지만, 평균 등급에 대한 잘못된 정보로 인해 정확성이 떨어집니다. 
+7. Multidimensional Quality Score (1-5): 3
+   - 설명: 생성된 응답은 여러 차원에서 평균 이상의 성과를 보이지만, 사실성과 일관성에서의 문제로 인해 전반적인 품질이 저하됩니다.
+8. Semantic Appropriateness Score (1-5): 4
+   - 설명: 생성된 응답은 주제와 관련된 의미를 잘 전달하고 있으며, 전반적으로 적절한 맥락을 유지하고 있습니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 이해하기 쉬우며, 정보가 명확하게 전달되고 있습니다. 다만, 일부 복잡한 문장 구조로 인해 약간의 혼란이 있을 수 있습니다.
+{
+    "Factuality Score": 3,
+    "Consistency Score": 3,
+    "Relevance Score": 4,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 3,
+    "Multidimensional Quality Score": 3,
+    "Semantic Appropriateness Score": 4,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C275" t="n">
+        <v>0.6763622194684531</v>
+      </c>
+      <c r="D275" t="inlineStr">
+        <is>
+          <t>동의대식 정시 성적 3.33 정도인데 바이오응용공학부 최초등록자로 가능할까요?</t>
+        </is>
+      </c>
+      <c r="E275" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대학교 바이오응용공학부의 경우, 수능 전형성적 산출방법은 다음과 같습니다:
+- 국어 표준점수 + 수학 표준점수 + 영어 등급점수 + 탐구 표준점수
+주요 성적 데이터를 보면:
+- 지원 인원: 238명
+- 모집인원: 99명
+- 경쟁률: 약 2.40
+- 국어 + 수학 + 탐구(2개) (가산점 포함) 표준 변환 점수 합의 평균: 284.86
+- 영어 등급의 평균: 4.53
+성적 3.33은 영어 등급으로 대략 B등급 정도입니다.
+이러한 데이터를 바탕으로 다음과 같은 결론을 내릴 수 있습니다:
+1. **영어 점수**: 지원자님의 영어 점수가 B등급이라면, 이는 평균보다 약간 낮은 수준입니다. 하지만 경쟁률이 2.40이고 모집인원이 많아서, 영어 점수만으로는 합격 가능성은 낮지만 여전히 가능합니다.
+2. **국어 + 수학 + 탐구**: 평균 점수가 284.86이며, 지원자님의 국어 + 수학 + 탐구(2개) 표준 변환 점수 합이 이보다 낮다면, 경쟁력을 높이는 것이 중요합니다.
+3. **전반적인 평가**: 동의대학교는 전반적으로 성적과 영어 등급을 중시하지만, 경쟁률이 상대적으로 낮은 편입니다. 따라서 지원자님의 경우에도 합격 가능성은 있지만, 다른 지원자의 성적이 높다면 어려울 수 있습니다.
+결론적으로, 3.33이라는 영어 점수는 약간 부족하지만, 여전히 가능성이 있습니다. 그러나 경쟁력을 높이기 위해 국어 + 수학 + 탐구의 점수가 더 높아져야 합니다. 또한 지원자의 전반적인 성적과 활동 등이 중요하므로, 모든 자료를 잘 준비하고 제출하는 것이 중요합니다.
+추가적으로, 동의대학교 입학처 웹사이트나 학교 관계자에게 직접 문의하여 최신 정보와 더 구체적인 조언을 받는 것도 좋습니다.</t>
+        </is>
+      </c>
+      <c r="F275" t="inlineStr">
+        <is>
+          <t>바이오응용공학부의 최초등록자 데이터를 기준으로 보면, 바이오응용공학부의 영어 등급 평균은 3.82이고, 수능 4개 영역 등급 평균은 4.74입니다. 
+따라서, 현재 정시 등급이 3.33이라면 바이오응용공학부의 평균 등급보다 높은 성적을 가지고 있어 합격 가능성이 높습니다. 즉, 최초합격 가능성은 있습니다. 
+자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="276">
+      <c r="A276" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B276" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 4
+   - 생성된 응답은 방사선학과의 평균 등급과 관련된 정보를 포함하고 있으며, 4.4등급이 평균보다 낮다는 점을 언급하고 있습니다. 그러나 방사선학과의 구체적인 모집단위와 모집인원에 대한 정보가 부족하다는 점에서 약간의 부정확성이 있습니다.
+2. Consistency Score (1-5): 4
+   - 생성된 응답은 원본 텍스트의 정보와 일관되며, 방사선학과의 성적 요구사항에 대한 추가적인 정보를 제공합니다. 그러나 일부 내용은 원본 텍스트에서 명시된 정보와 다소 차이가 있을 수 있습니다.
+3. Relevance Score (1-5): 5
+   - 생성된 응답은 방사선학과 지원에 필요한 정보와 관련된 내용을 다루고 있으며, 원본 텍스트의 주제와 직접적으로 관련이 있습니다.
+4. Fluency Score (1-5): 4
+   - 생성된 응답은 전반적으로 문법적으로 올바르며 읽기 쉬운 구조를 가지고 있습니다. 그러나 일부 문장은 다소 복잡하게 느껴질 수 있습니다.
+5. Coherence Score (1-5): 4
+   - 생성된 응답은 논리적으로 잘 구성되어 있으며, 각 항목이 명확하게 구분되어 있습니다. 그러나 일부 부분에서 더 명확한 연결이 필요할 수 있습니다.
+6. Accuracy Score (1-5): 4
+   - 생성된 응답은 방사선학과의 성적 요구사항에 대한 정확한 정보를 제공하고 있으나, 특정 과목에 대한 요구사항에 대한 구체적인 언급이 부족합니다.
+7. Multidimensional Quality Score (1-5): 4
+   - 생성된 응답은 여러 차원에서 좋은 품질을 보여주며, 사실성, 일관성, 관련성, 정확성 모두에서 긍정적인 평가를 받을 수 있습니다.
+8. Semantic Appropriateness Score (1-5): 4
+   - 생성된 응답은 원본 텍스트의 의미와 맥락에 적절하게 부합하며, 방사선학과 지원에 대한 정보를 잘 전달하고 있습니다.
+9. Understandability Score (1-5): 4
+   - 생성된 응답은 전반적으로 이해하기 쉬우나, 일부 문장은 다소 복잡하게 느껴질 수 있어 약간의 혼란을 줄 수 있습니다.
+{
+    "Factuality Score": 4,
+    "Consistency Score": 4,
+    "Relevance Score": 5,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 4,
+    "Multidimensional Quality Score": 4,
+    "Semantic Appropriateness Score": 4,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C276" t="n">
+        <v>0.6544587931629375</v>
+      </c>
+      <c r="D276" t="inlineStr">
+        <is>
+          <t>제가 지금 현재 정시 등급이 4.4정도고, 일반학생전형 생각중인데, 제 성적으로 방사선학과 갈 수 있을까요?</t>
+        </is>
+      </c>
+      <c r="E276" t="inlineStr">
+        <is>
+          <t>2024학년도에 방사선학과를 지원하려면 몇 가지 정보가 필요합니다:
+1. **방사선학과의 모집단위와 모집인원**: 현재 제공된 정보에서 방사선학과의 모집단위와 모집인원이 명시되어 있지 않습니다. 해당 학과의 모집단위와 모집인원을 확인해야 합니다.
+2. **성적 평균 및 등급 분포**:
+   - 4.4등급은 현재 성적이지만, 방사선학과는 특정 과목(특히 수학)에 대한 요구사항이 있을 수 있습니다.
+   - 일반학생전형의 경우, 수능 점수와 등급뿐만 아니라 학교생활기록부 등의 평가도 이루어집니다.
+3. **수능 성적**:
+   - 방사선학과는 주로 과학 관련 지식이 필요하므로 수학과 과학 영역의 성적이 중요할 것입니다.
+   - 예를 들어, 수능 수학(미적분 또는 기하)과 과학탐구 영역의 성적이 높아야 할 가능성이 있습니다.
+4. **전형 요소**:
+   - 일반학생전형은 종합적인 평가를 통해 학생을 선발하기 때문에, 단순히 등급만으로 결정되는 것이 아닙니다.
+   - 학교생활기록부, 면접 등의 결과도 고려됩니다.
+5. **모집요강 확인**:
+   - 방사선학과의 모집요강을 꼭 확인해보세요. 특정 과목의 성적 요구사항이나 추가적인 평가 요소가 명시되어 있을 수 있습니다.
+   - 입학처 홈페이지나 해당 대학의 공지사항을 통해 최신 정보를 얻으세요.
+6. **추천**:
+   - 현재 성적이 방사선학과에 충분한지 판단하기 위해서는 해당 학과의 모집요강을 철저히 분석해야 합니다.
+   - 가능하다면 입학처나 관련 교수님에게 상담을 받으시는 것도 도움이 될 수 있습니다.
+따라서, 현재의 4.4등급만으로 방사선학과에 확실하게 지원할 수 있는 것은 아닙니다. 모집요강과 성적 분석을 통해 최종 결정을 내리는 것이 좋습니다.</t>
+        </is>
+      </c>
+      <c r="F276" t="inlineStr">
+        <is>
+          <t>방사선학과의 최종등록자 데이터를 기준으로 보면, 방사선학과의 영어 등급 평균은 2.8이고, 수능 4개 영역 등급 평균은 3.82입니다. 
+따라서, 현재 정시 등급이 4.4이라면 방사선학과의 평균 등급보다 낮은 성적을 가지고 있어 합격 가능성이 낮습니다.
+자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="277">
+      <c r="A277" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B277" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 3
+   - 설명: 생성된 응답은 방사선학과의 평균 등급과 관련된 정보를 제공하지만, 원본 텍스트에서 언급된 평균 등급(영어 2.8, 수능 3.82)과는 다르게 경쟁률과 합격 점수에 대한 새로운 정보를 추가하고 있습니다. 그러나 2.66이라는 점수가 평균보다 낮다고 언급한 부분은 원본 텍스트의 해석과 다소 상충합니다.
+2. Consistency Score (1-5): 3
+   - 설명: 생성된 응답은 원본 텍스트의 내용을 일부 반영하고 있지만, 2.66이라는 점수가 위험할 수 있다고 언급함으로써 원본 텍스트의 긍정적인 해석과 일치하지 않습니다. 따라서 일관성이 부족합니다.
+3. Relevance Score (1-5): 4
+   - 설명: 생성된 응답은 방사선학과의 경쟁률과 합격 점수에 대한 정보를 제공하며, 질문의 맥락에 적절하게 대응하고 있습니다. 그러나 원본 텍스트의 핵심 내용과는 약간의 차이가 있습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 구조를 가지고 있습니다. 다만, 일부 문장이 다소 복잡하게 느껴질 수 있습니다.
+5. Coherence Score (1-5): 4
+   - 설명: 생성된 응답은 논리적으로 잘 구성되어 있으며, 각 요소가 자연스럽게 연결되어 있습니다. 그러나 원본 텍스트와의 연결성이 약간 떨어지는 부분이 있습니다.
+6. Accuracy Score (1-5): 3
+   - 설명: 생성된 응답은 2.66이라는 점수에 대한 해석이 원본 텍스트와 다르게 나타나며, 평균 등급에 대한 정보가 부족합니다. 따라서 정확성에서 다소 부족합니다.
+7. Multidimensional Quality Score (1-5): 3
+   - 설명: 생성된 응답은 여러 차원에서 평균적인 성과를 보이지만, 원본 텍스트와의 일관성 및 정확성에서 부족함이 있어 전반적인 품질이 떨어집니다.
+8. Semantic Appropriateness Score (1-5): 4
+   - 설명: 생성된 응답은 질문의 맥락에 적절하게 의미를 전달하고 있으며, 전반적으로 적절한 의미를 가지고 있습니다. 그러나 원본 텍스트와의 차이가 있어 완벽하지는 않습니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 명확하고 이해하기 쉬운 구조를 가지고 있습니다. 다만, 일부 문장이 복잡하게 느껴질 수 있습니다.
+{
+    "Factuality Score": 3,
+    "Consistency Score": 3,
+    "Relevance Score": 4,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 3,
+    "Multidimensional Quality Score": 3,
+    "Semantic Appropriateness Score": 4,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C277" t="n">
+        <v>0.5058650389230102</v>
+      </c>
+      <c r="D277" t="inlineStr">
+        <is>
+          <t>방사선학과 정시로 2.66은 좀 위험할까요?</t>
+        </is>
+      </c>
+      <c r="E277" t="inlineStr">
+        <is>
+          <t>2024학년도 방사선학과의 경쟁률과 합격 점수를 고려해보면, 평균적인 지원자들의 국어 + 수학 + 탐구(2개) (가산점 포함) 표준 변환 점수 합은 338.76으로 보입니다. 이에 비춰볼 때, 2.66이라는 점수는 약간 낮은 편이므로 위험할 수 있습니다.
+다만, 정시모집의 경우 여러 요소가 고려되므로 다음과 같은 점들을 고려해보세요:
+1. **면접 성적**: 면접에서도 좋은 평점을 받으면 전체적인 경쟁력을 높일 수 있습니다.
+2. **서류평가**: 서류평가에서 학업역량과 전공적합성 등이 잘 반영되어 있으면 도움이 될 수 있습니다.
+3. **추천서 및 자기소개서**: 강력한 추천서나 자기소개서가 있다면 이도 큰 장점이 될 수 있습니다.
+따라서, 2.66이라는 점수는 약간 낮은 편이지만, 다른 평가 요인들을 잘 활용한다면 충분히 경쟁력을 갖출 수 있을 것입니다. 추가적으로 면접 준비와 서류 작성에 신경을 써보시는 것이 좋겠습니다.</t>
+        </is>
+      </c>
+      <c r="F277" t="inlineStr">
+        <is>
+          <t>방사선학과의 최종등록자 데이터를 기준으로 보면, 방사선학과의 영어 등급 평균은 2.8이고, 수능 4개 영역 등급 평균은 3.82입니다. 
+따라서, 현재 정시 등급이 2.66이라면 이는 귀하의 성적이 평균보다 높음을 의미합니다. 따라서, 귀하는 방사선학과에 합격할 가능성이 있다고 볼 수 있습니다. 
+자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="278">
+      <c r="A278" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B278" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 4
+   - 설명: 생성된 응답은 3.66의 GPA가 좋은 점수라고 언급하며, 합격 여부는 여러 요소에 따라 결정된다고 설명합니다. 이는 원본 텍스트의 내용과 일치하지만, 원본에서 제공된 평균 점수(4.12)와 경쟁률에 대한 구체적인 정보는 포함되지 않았습니다. 따라서 일부 정보가 누락되어 있지만, 전반적으로 사실에 기반한 내용입니다.
+2. Consistency Score (1-5): 3
+   - 설명: 생성된 응답은 원본 텍스트의 내용과 일부 일치하지만, 전형 유형에 대한 추가적인 정보와 GPA의 중요성을 강조합니다. 그러나 원본에서 언급된 경쟁률의 변화와 평균 점수에 대한 언급이 없기 때문에 일관성이 떨어진다고 평가할 수 있습니다.
+3. Relevance Score (1-5): 5
+   - 설명: 생성된 응답은 질문자의 GPA와 합격 가능성에 대한 정보를 제공하며, 원본 텍스트의 주요 주제와 관련이 깊습니다. 따라서 매우 관련성이 높습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 구조를 가지고 있습니다. 다만, 일부 문장이 다소 길어 가독성이 떨어질 수 있는 부분이 있습니다.
+5. Coherence Score (1-5): 4
+   - 설명: 생성된 응답은 논리적으로 잘 구성되어 있으며, 각 요소가 명확하게 연결되어 있습니다. 그러나 원본 텍스트와의 연결이 약간 부족하여 완전한 일관성을 제공하지는 않습니다.
+6. Accuracy Score (1-5): 4
+   - 설명: 생성된 응답은 GPA와 관련된 정보와 합격 가능성에 대한 일반적인 요소를 정확하게 설명하고 있습니다. 그러나 원본 텍스트의 구체적인 수치나 정보는 포함되지 않았습니다.
+7. Multidimensional Quality Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 높은 품질을 유지하고 있으며, 사실성, 관련성, 유창성, 일관성에서 좋은 점수를 받았습니다. 그러나 일부 정보의 누락으로 인해 완벽하지는 않습니다.
+8. Semantic Appropriateness Score (1-5): 4
+   - 설명: 생성된 응답은 원본 텍스트의 의미와 맥락에 적절하게 부합합니다. 그러나 원본의 특정 세부사항이 누락되어 있어 완전한 적합성은 아닙니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 이해하기 쉽고 명확하게 작성되었습니다. 그러나 일부 문장이 길어 다소 복잡하게 느껴질 수 있습니다.
+{
+    "Factuality Score": 4,
+    "Consistency Score": 3,
+    "Relevance Score": 5,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 4,
+    "Multidimensional Quality Score": 4,
+    "Semantic Appropriateness Score": 4,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C278" t="n">
+        <v>0.5667603550847777</v>
+      </c>
+      <c r="D278" t="inlineStr">
+        <is>
+          <t>제 정시 성적이 3.66이 나오는데요, 경찰행정학전공 농어촌 전형으로 지원했는데 합격할 수 있을까요?</t>
+        </is>
+      </c>
+      <c r="E278" t="inlineStr">
+        <is>
+          <t>3.66의 GPA는 좋은 점수입니다만, 합격 여부는 여러 요소에 따라 결정됩니다. 아래 몇 가지를 고려해보세요:
+1. **전형 유형**: 농어촌 전형은 일반적으로 낮은 성적도 받아들일 수 있는 경향이 있습니다.
+2. **학교 평균 점수**: 지원하는 대학의 전체 학생들의 GPA 평균을 확인해보세요. 이 정보는 대학 웹사이트에서 찾을 수 있습니다.
+3. **전형 요소 비율**:
+   - 서류 평가: 60-70% (학생부, 면접 등)
+   - 실기/실적: 10-40%
+   - 수능: 20-50%
+4. **면접 및 서류 평가**: 학생부와 면접에서 좋은 평가를 받는 것이 중요합니다.
+5. **동점자 처리 기준**: 동점자가 있을 경우, 면접 성적이나 서류 평가 등이 추가로 고려됩니다.
+6. **전공 적합성**: 지원 전공과 관련된 활동이나 경험을 잘 보여줄 수 있어야 합니다.
+7. **추천서 및 기타 서류**: 추천서나 자기소개서 등이 있다면 긍정적인 평가를 받는 것이 도움이 될 수 있습니다.
+8. **지역적 요인**: 농어촌 전형의 특성상 지역적 배려도 고려됩니다.
+현재 정보만으로는 확실한 답변을 드리기 어렵습니다. 하지만 3.66이라는 좋은 성적이 있다면, 합격 가능성은 있습니다. 추가적으로 면접 준비와 서류 작성에 신경 쓰시고, 지원 전공과 관련된 활동이나 경험을 잘 보여주시면 더 높은 확률로 합격할 수 있을 것입니다.
+추가 정보나 자세한 질문이 있으시다면 언제든지 물어보세요.</t>
+        </is>
+      </c>
+      <c r="F278" t="inlineStr">
+        <is>
+          <t>제공된 정보에 따르면, 경찰행정학과의 2024학년도 수능(일반학생전형) 최종등록자 평균 수능 4개 영역 등급은 4.12입니다. 귀하의 성적이 3.66이라면, 이는 평균보다 높은 성적입니다. 
+경쟁률이 2020년도에 비해 낮아졌다는 점도 긍정적인 요소로 작용할 수 있습니다. 경쟁률이 낮아지면 합격 가능성이 상대적으로 높아질 수 있기 때문입니다.
+따라서, 귀하의 성적이 평균보다 높고 경쟁률이 낮아진 점을 고려할 때, 희망을 가져도 될 것으로 보입니다. 다만, 최종 결과는 여러 변수에 따라 달라질 수 있으므로, 최선을 다해 준비하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="279">
+      <c r="A279" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B279" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 3
+   - 설명: 생성된 응답은 예비 25번의 순위에 대한 일반적인 정보와 여러 요인들이 합격 가능성에 미치는 영향을 언급하고 있지만, 원문에서 제공된 특정 학과 목록에 대한 언급이 없고, 합격 가능성에 대한 구체적인 정보가 부족하여 사실성 점수가 낮아졌습니다.
+2. Consistency Score (1-5): 3
+   - 설명: 생성된 응답은 원문에서 언급된 예비 25번의 순위와 관련된 정보를 제공하지만, 원문에서 제시된 특정 학과 목록과의 일관성이 부족합니다. 따라서 일관성 점수가 중간 수준입니다.
+3. Relevance Score (1-5): 4
+   - 설명: 생성된 응답은 예비 25번의 순위와 합격 가능성에 대한 정보를 제공하며, 원문과 관련된 주제를 다루고 있습니다. 그러나 원문에서 제시된 특정 학과 목록에 대한 언급이 없어서 약간의 관련성 부족이 있습니다.
+4. Fluency Score (1-5): 5
+   - 설명: 생성된 응답은 문법적으로 정확하고 읽기 쉽게 작성되어 있습니다. 문장 구조와 표현이 매끄럽고 자연스럽습니다.
+5. Coherence Score (1-5): 4
+   - 설명: 생성된 응답은 논리적으로 잘 구성되어 있으며, 각 요인이 합격 가능성에 미치는 영향을 순차적으로 설명하고 있습니다. 그러나 원문과의 연결이 약간 부족하여 완전한 일관성은 아닙니다.
+6. Accuracy Score (1-5): 3
+   - 설명: 생성된 응답은 합격 가능성에 대한 일반적인 정보를 제공하지만, 원문에서 제공된 구체적인 학과 목록과 관련된 정보가 누락되어 있어 정확성 점수가 낮아졌습니다.
+7. Multidimensional Quality Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 유용한 정보를 제공하며, 유창성과 일관성 면에서 좋은 점수를 받았습니다. 그러나 사실성과 정확성에서 약간의 부족함이 있어 중간 이상의 점수를 부여합니다.
+8. Semantic Appropriateness Score (1-5): 4
+   - 설명: 생성된 응답은 원문과 관련된 주제를 다루고 있으며, 의미적으로 적절합니다. 그러나 원문에서 제공된 특정 정보와의 연결이 부족하여 완전한 적절성은 아닙니다.
+9. Understandability Score (1-5): 5
+   - 설명: 생성된 응답은 명확하고 이해하기 쉽게 작성되어 있습니다. 정보가 잘 정리되어 있어 독자가 쉽게 이해할 수 있습니다.
+{
+    "Factuality Score": 3,
+    "Consistency Score": 3,
+    "Relevance Score": 4,
+    "Fluency Score": 5,
+    "Coherence Score": 4,
+    "Accuracy Score": 3,
+    "Multidimensional Quality Score": 4,
+    "Semantic Appropriateness Score": 4,
+    "Understandability Score": 5
+}</t>
+        </is>
+      </c>
+      <c r="C279" t="n">
+        <v>0.3657545296064201</v>
+      </c>
+      <c r="D279" t="inlineStr">
+        <is>
+          <t>정시 일반학생 전형으로 원서를 넣었는데 예비 25번이 나왔네요 붙을 확률 있을까요? 가능성 없겠죠?</t>
+        </is>
+      </c>
+      <c r="E279" t="inlineStr">
+        <is>
+          <t>25번의 순위는 동점자 처리 기준에서 상당히 높은 위치입니다. 하지만 붙을 가능성이 완전히 없는 것은 아닙니다. 여러 요인들이 결과에 영향을 미치므로, 다음과 같은 점들을 고려해볼 수 있습니다:
+1. **경쟁률**: 현재의 경쟁률과 지원 인원을 고려하면 25번이 상당히 높은 순위입니다.
+2. **면접 성적**: 면접 평가에서 좋은 성적이 나온다면, 동점자 처리 기준에 따라 더 높은 순위를 받을 수 있습니다.
+3. **서류 평가**: 서류 평가에서도 우수한 점수를 받았다면 이는 긍정적인 요인입니다.
+4. **면접 질문 답변**: 면접에서 지원동기와 학업 계획, 전공적합성 등에 대해 잘 답변했다면 이는 좋은 평가를 받을 수 있습니다.
+5. **출결 및 성적**: 출결과 성적이 우수하다면 이 또한 긍정적인 요인으로 작용할 수 있습니다.
+6. **추천서와 자기소개서**: 추천서나 자기소개서에서 지원자의 적합성을 잘 보여주었다면 이는 추가적으로 긍정적인 평가를 받을 수 있습니다.
+결론적으로, 25번이라는 순위는 높지만, 면접과 서류 평가 등에서 좋은 성적을 얻으면 붙을 가능성이 남아 있습니다. 따라서 최선을 다해 준비하고, 결과를 기다리는 것이 좋겠습니다.</t>
+        </is>
+      </c>
+      <c r="F279" t="inlineStr">
+        <is>
+          <t>귀하께서 지원하신 학과에 따라서 합격될 확률은 달라질 수 있습니다.
+2024년 동의대학교 일반학생전형에서 예비 25번 이상이 합격한 학과는 다음과 같습니다.
+- **영어영문학과**
+- **경영정보학과**
+- **e비즈니스학과**
+- **간호학과**
+- **신소재공학과**
+- **고분자나노공학과**
+- **의생명공학과**
+- **바이오의약공학과**
+- **식품공학과**
+- **산업경영빅데이터공학과**
+귀하께서 지원하신 학과가 위 학과에 포함된다면, 귀하께서 합격하실 확률은 있다고 볼 수 있습니다.
+자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="280">
+      <c r="A280" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B280" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 1  
+   - 생성된 응답은 동의대학교에 법경찰행정학부가 존재한다고 언급하고 있으며, 이는 원본 텍스트와 상충합니다. 원본 텍스트에서는 법경찰행정학부가 존재하지 않는다고 명확히 언급하고 있습니다. 또한, 성적 추정에 대한 정보도 원본 텍스트와 일치하지 않습니다.
+2. Consistency Score (1-5): 1  
+   - 생성된 응답은 원본 텍스트와 여러 면에서 일치하지 않으며, 특히 법경찰행정학부의 존재 여부와 성적 추정에 대한 정보가 서로 모순됩니다. 따라서 일관성이 매우 낮습니다.
+3. Relevance Score (1-5): 2  
+   - 생성된 응답은 동의대학교의 입시 정보에 대한 내용을 포함하고 있지만, 법경찰행정학부에 대한 잘못된 정보로 인해 관련성이 떨어집니다. 원본 텍스트의 핵심 주제와는 다소 동떨어져 있습니다.
+4. Fluency Score (1-5): 4  
+   - 생성된 응답은 문법적으로 잘 구성되어 있으며, 읽기에도 무리가 없습니다. 그러나 내용의 정확성 문제로 인해 전체적인 평가에는 영향을 미칩니다.
+5. Coherence Score (1-5): 3  
+   - 생성된 응답은 논리적으로 연결된 구조를 가지고 있지만, 원본 텍스트와의 불일치로 인해 전체적인 일관성이 떨어집니다. 따라서 어느 정도의 일관성은 있지만, 원본과의 관계에서 혼란을 초래합니다.
+6. Accuracy Score (1-5): 1  
+   - 생성된 응답은 원본 텍스트의 사실과 크게 다르며, 법경찰행정학부의 존재 여부와 성적 추정에 대한 정보가 잘못되었습니다. 따라서 정확성 점수는 매우 낮습니다.
+7. Multidimensional Quality Score (1-5): 1  
+   - 생성된 응답은 사실성, 일관성, 관련성, 정확성 등 여러 차원에서 매우 낮은 점수를 받습니다. 전반적으로 품질이 낮습니다.
+8. Semantic Appropriateness Score (1-5): 2  
+   - 생성된 응답은 원본 텍스트의 의미와 맥락에 맞지 않는 부분이 많습니다. 특히 법경찰행정학부의 존재에 대한 언급이 부적절합니다.
+9. Understandability Score (1-5): 4  
+   - 생성된 응답은 문법적으로 잘 구성되어 있어 이해하기 어렵지 않지만, 내용의 정확성 문제로 인해 혼란을 초래할 수 있습니다.
+{
+    "Factuality Score": 1,
+    "Consistency Score": 1,
+    "Relevance Score": 2,
+    "Fluency Score": 4,
+    "Coherence Score": 3,
+    "Accuracy Score": 1,
+    "Multidimensional Quality Score": 1,
+    "Semantic Appropriateness Score": 2,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C280" t="n">
+        <v>0.7264270879556578</v>
+      </c>
+      <c r="D280" t="inlineStr">
+        <is>
+          <t>동의대학교 법경찰행정학부에 정시로 들어갈려면 평균 성적이 몇 정도 받으면 안정권이거나 문 닫고 들어갈 수 있을까요?</t>
+        </is>
+      </c>
+      <c r="E280" t="inlineStr">
+        <is>
+          <t>2024년 동의대학교 법경찰행정학부의 정시 모집에 대한 정보를 바탕으로 추론해보겠습니다.
+1. **전형별 성적 평균**: 
+   - 나군 수능(일반학생전형)에서 전형요소 반영비율은 100%로, 수능 점수만 반영됩니다.
+   - 나군 실기/실적(일반학생전형)에서는 수능이 30%, 실기가 70%를 차지합니다.
+2. **정원 내 모집인원**: 
+   - 나군 일반 학생은 17명입니다.
+3. **성적 평균 추정**:
+   - 법경찰행정학부는 경쟁률이 높은 학과 중 하나로 알려져 있습니다.
+   - 최근 몇 년간의 입시 결과를 참고하면, 안정적인 합격을 위해서는 90점 이상의 수능 점수를 받는 것이 일반적입니다.
+4. **문 닫고 들어갈 확률**:
+   - '문 닫고 들어가기'는 정시 모집이 마감된 후에도 학생부종합전형 등 다른 전형을 통해 입학할 수 있다는 의미입니다.
+   - 이 경우, 평균 80점 이상의 수능 점수를 받으면 안정적인 입학 가능성이 높습니다.
+따라서, 법경찰행정학부에 정시로 들어갈려면:
+- **안정권**: 90점 이상의 수능 점수를 받는 것이 좋습니다.
+- **문 닫고 들어가기**: 80점 이상의 수능 점수를 받으면 안전한 입학 가능성이 높아집니다.
+이러한 추론은 최근의 입시 경향과 동의대학교의 전형 특성을 고려한 것입니다. 실제 성적은 학생들의 개인적인 성장세, 교사 평가 등 다양한 요인에 따라 달라질 수 있으므로, 최종 결정을 내릴 때는 여러 정보를 종합적으로 고려해야 합니다.</t>
+        </is>
+      </c>
+      <c r="F280" t="inlineStr">
+        <is>
+          <t>동의대학교 정시 모집 전형에는 법경찰행정학부라는 학부는 존재하지않습니다.  
+동의대학교 경찰행정학과의 최종등록자와 최초합격자의 평균 성적을 비교하여 안정권과 문 닫고 들어갈 수 있는 성적을 추정할 수 있습니다.
+- **최종등록자 평균 성적:**
+   - 국어 + 수학 + 탐구(2개) 표준 변환 점수 합: 332.86
+   - 영어 등급: 4.00
+   - 수능 4개 영역 등급: 4.12
+   - 수능 4개 영역 표준 변환 점수 합: 447.86
+- **최초합격자 평균 성적:**
+  - 국어 + 수학 + 탐구(2개) 표준 변환 점수 합: 330.71
+  - 영어 등급: 3.14
+  - 수능 4개 영역 등급: 3.87
+  - 수능 4개 영역 표준 변환 점수 합: 452.57
+### 안정권과 문 닫고 들어갈 수 있는 성적 추정
+- **경찰행정학과:**
+  - 안정권: 최초합격자 평균 성적에 근접한 성적 (국어 + 수학 + 탐구(2개) 표준 변환 점수 합 약 331점 이상, 수능 4개 영역 표준 변환 점수 합 약 453점 이상)
+  - 문 닫고 들어갈 수 있는 성적: 최종등록자 평균 성적에 근접한 성적 (국어 + 수학 + 탐구(2개) 표준 변환 점수 합 약 333점 이상, 수능 4개 영역 표준 변환 점수 합 약 448점 이상)
+이 성적을 기준으로 준비하시면 안정권 또는 문 닫고 들어갈 수 있는 성적을 받을 수 있을 것입니다. 자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="281">
+      <c r="A281" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B281" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 3
+   - 생성된 응답은 보육가정상담학과의 전형 방법과 성적 산출 방식에 대한 정보를 제공하지만, 원본 텍스트에서 언급된 아동학과의 평균 등급과 관련된 정보는 포함되어 있지 않다. 따라서 일부 사실이 누락되었다.
+2. Consistency Score (1-5): 3
+   - 생성된 응답은 보육가정상담학과에 대한 정보를 제공하지만, 원본 텍스트의 아동학과와 관련된 정보와는 일관성이 떨어진다. 두 학과의 정보가 혼합되어 있어 일관성이 부족하다.
+3. Relevance Score (1-5): 4
+   - 생성된 응답은 보육가정상담학과에 대한 정보를 제공하고 있으며, 질문의 맥락과 관련이 있다. 그러나 아동학과에 대한 정보가 누락되어 있어 완전한 관련성을 갖추지 못했다.
+4. Fluency Score (1-5): 4
+   - 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 구조를 가지고 있다. 다만, 일부 문장이 길어 가독성이 떨어질 수 있다.
+5. Coherence Score (1-5): 4
+   - 생성된 응답은 논리적으로 잘 구성되어 있으며, 각 섹션이 명확하게 구분되어 있다. 그러나 아동학과와 보육가정상담학과의 정보가 혼합되어 있어 약간의 혼란을 줄 수 있다.
+6. Accuracy Score (1-5): 3
+   - 생성된 응답은 보육가정상담학과에 대한 정보를 제공하지만, 원본 텍스트의 아동학과와 관련된 평균 등급 정보가 누락되어 있어 정확성이 떨어진다.
+7. Multidimensional Quality Score (1-5): 3
+   - 생성된 응답은 여러 차원에서 평균적인 성과를 보이지만, 원본 텍스트와의 관련성 및 정확성에서 부족함이 있다.
+8. Semantic Appropriateness Score (1-5): 4
+   - 생성된 응답은 보육가정상담학과에 대한 정보를 적절하게 전달하고 있으며, 질문의 맥락에 맞는 의미를 전달하고 있다.
+9. Understandability Score (1-5): 4
+   - 생성된 응답은 전반적으로 이해하기 쉽고 명확하게 작성되어 있다. 그러나 일부 정보가 혼합되어 있어 약간의 혼란을 줄 수 있다.
+{
+    "Factuality Score": 3,
+    "Consistency Score": 3,
+    "Relevance Score": 4,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 3,
+    "Multidimensional Quality Score": 3,
+    "Semantic Appropriateness Score": 4,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C281" t="n">
+        <v>0.5517031775538361</v>
+      </c>
+      <c r="D281" t="inlineStr">
+        <is>
+          <t>정시 산출 등급이 5.33인데 동의대학교 보육가정상담학과에 합격할 수 있을까요?</t>
+        </is>
+      </c>
+      <c r="E281" t="inlineStr">
+        <is>
+          <t>2024년도 동의대학교 보육가정상담학과의 경우, 전형 방법은 수능(일반학생전형)으로 알려져 있습니다. 수능 성적 산출 방식은 다음과 같습니다:
+1. **국어 + 수학 + 탐구 (2개 과목) 표준 변환 점수 합**을 사용합니다.
+2. **영어 등급**도 반영됩니다.
+보육가정상담학과는 인문사회과학대학에 속하며, 일반적으로 국어와 영어의 중요성이 높습니다. 
+주요 정보:
+- **국어 + 수학 + 탐구 (2개 과목) 표준 변환 점수 합** 평균: 308.58
+- **영어 등급**: 평균 3.66
+정시 산출 등급이 5.33인 경우, 이는 대략 B등급에 해당합니다.
+### 분석:
+1. **국어 + 수학 + 탐구 (2개 과목) 표준 변환 점수 합**:
+   - 평균은 308.58이고, 표준 편차는 10.96입니다.
+   - 등급이 5.33인 경우, 이는 대략 B등급에 해당합니다.
+2. **영어 등급**:
+   - 평균은 3.66이며, 표준 편차는 1.37입니다.
+   - 등급이 5.33인 경우, 이는 대략 C등급에 해당합니다.
+### 결론:
+- **국어 + 수학 + 탐구 (2개 과목) 표준 변환 점수 합**에서 5.33은 평균보다 약간 낮지만, 표준 편차를 고려하면 상대적으로 좋은 성적입니다.
+- **영어 등급**에서도 C등급은 중간 수준으로, 평균을 밑돌고 있지만, 합격 가능성은 있습니다.
+따라서, 정시 산출 등급이 5.33인 경우, 보육가정상담학과에 합격할 가능성이 있으나, 경쟁률과 지원자들의 성적 분포를 고려하면 확실한 것은 아닙니다. 최종 합격 여부는 여러 요소가综上所述，如果你的英语等级是5.33（大约相当于C级），而国语+数学+选修两科的标准转换分数总和略低于平均值但仍在可接受范围内，那么你有可能被保育与家庭咨询学专业录取。不过，最终能否录取还需考虑其他因素以及竞争情况。
+建议：
+1. 仔细查看最新的招生简章和具体要求。
+2. 参考往年录取分数线和成绩分布。
+3. 如果可能的话，可以咨询学校的招生办公室获取更准确的信息。
+祝你好运！</t>
+        </is>
+      </c>
+      <c r="F281" t="inlineStr">
+        <is>
+          <t>24학년도 모집단위에서 보육가정상담학과에서 아동학과로 변경되었습니다. 아동학과에 대해서 대답을 해드리겠습니다.
+	아동학과의 최종등록자 데이터를 기준으로 보면, 아동학과의 영어 등급 평균은 6.33이고, 수능 4개 영역 등급 평균은 7.08입니다. 
+	따라서, 현재 정시 등급이 5.33라면 아동학과의 평균 등급보다 높은 성적을 가지고 있어 합격 가능성이 높습니다.
+	자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="282">
+      <c r="A282" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B282" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 3
+   - 설명: 생성된 응답은 충원 합격자 발표 일정에 대한 일부 정보를 제공하지만, 3차 발표 시간이 잘못 기재되어 있습니다. 원본 텍스트에서는 3차 발표가 2024년 2월 15일 19:00부터라고 명시되어 있으나, 생성된 응답에서는 09:00로 잘못 기재되었습니다. 이로 인해 사실성 점수가 낮아졌습니다.
+2. Consistency Score (1-5): 3
+   - 설명: 생성된 응답은 원본 텍스트의 내용과 일부 일치하지만, 발표 시간의 불일치로 인해 일관성이 떨어집니다. 또한, 원본 텍스트에서 언급된 예비 번호에 대한 설명이 다소 축약되어 있어 일관성이 부족합니다.
+3. Relevance Score (1-5): 5
+   - 설명: 생성된 응답은 원본 텍스트의 주제와 관련된 정보를 잘 다루고 있으며, 예비 번호와 합격 가능성에 대한 질문에 적절하게 답변하고 있습니다. 따라서 관련성 점수는 높습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 구조를 가지고 있습니다. 그러나 일부 문장이 다소 복잡하게 구성되어 있어 약간의 유창성 저하가 있습니다.
+5. Coherence Score (1-5): 4
+   - 설명: 생성된 응답은 논리적으로 잘 구성되어 있으며, 정보가 명확하게 전달됩니다. 그러나 발표 시간의 불일치로 인해 전체적인 일관성이 약간 떨어집니다.
+6. Accuracy Score (1-5): 3
+   - 설명: 생성된 응답은 일부 정확한 정보를 포함하고 있지만, 발표 시간의 오류로 인해 정확성 점수가 낮아졌습니다. 또한, 합격 가능성에 대한 설명이 다소 일반적이어서 구체성이 부족합니다.
+7. Multidimensional Quality Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 높은 품질을 유지하고 있으나, 사실성과 일관성에서의 문제로 인해 점수가 다소 낮아졌습니다.
+8. Semantic Appropriateness Score (1-5): 4
+   - 설명: 생성된 응답은 원본 텍스트의 의미와 맥락에 잘 부합하지만, 발표 시간의 오류로 인해 의미 전달이 약간 왜곡되었습니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 이해하기 쉬우나, 일부 복잡한 문장 구조로 인해 약간의 혼란을 줄 수 있습니다.
+{
+    "Factuality Score": 3,
+    "Consistency Score": 3,
+    "Relevance Score": 5,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 3,
+    "Multidimensional Quality Score": 4,
+    "Semantic Appropriateness Score": 4,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C282" t="n">
+        <v>0.7684871458927478</v>
+      </c>
+      <c r="D282" t="inlineStr">
+        <is>
+          <t>동의대 보육가정상담 충원 합격 3차에서 예비 12번 받았는데 합격 가능성 있을까요?</t>
+        </is>
+      </c>
+      <c r="E282" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대학교의 경우, 충원 합격자 발표 및 등록 일정이 다음과 같습니다:
+- **충원 합격자 3차 발표**: 2024. 02. 15.(목) 09:00
+- **충원 합격자 3차 등록**: 2024. 02. 15.(목) 09:00~16:00
+현재까지의 정보로는 충원 합격자 발표가 진행 중이며, 예비 12번을 받았다는 점에서 합격 가능성은 있습니다. 하지만 최종 합격 여부는 해당 과정의 모집인원과 지원자의 경쟁률 등 다양한 요소에 따라 결정됩니다.
+추가적으로 확인해야 할 사항들은 다음과 같습니다:
+1. **모집인원**: 충원 합격자 3차에서 얼마나 많은 인원이 모집되는지 확인해야 합니다.
+2. **경쟁률**: 이미 발표된 충원 합격자들 중 예비 순위를 살펴보면, 현재의 예비 순위가 어느 위치에 있는지를 파악할 수 있습니다.
+3. **기타 지원자의 성적 및 자료 평가**: 다른 지원자의 서류평가 결과와 실기고사 등록 여부 등을 확인해야 합니다.
+이러한 정보를 종합적으로 고려하여 합격 가능성을 판단하는 것이 좋습니다. 만약 추가적인 정보나 도움이 필요하다면, 동의대학교 입학처 웹사이트 또는 직접 연락을 주시는 것을 추천드립니다. 
+[입학 안내 홈페이지](https://ipsi.deu.ac.kr/main.do)를 참조하여 최신 정보와 자세한 내용을 확인하실 수 있습니다.</t>
+        </is>
+      </c>
+      <c r="F282" t="inlineStr">
+        <is>
+          <t>동의대학교의 충원 합격자 발표 및 등록 일정에 따르면, 충원 합격자 발표는 1차, 2차, 그리고 3차 이후로 나뉘어 진행됩니다. 3차 이후의 충원 합격자 발표는 2024년 2월 15일(목) 19:00부터 2024년 2월 20일(화) 18:00까지 개별 전화 통보로 이루어집니다.
+예비 12번을 받으셨다면, 앞선 예비 번호를 받은 지원자들이 등록을 포기하거나 다른 대학에 등록하는 경우, 합격 가능성이 있습니다. 충원 합격은 지원자들의 등록 포기 여부에 따라 달라지므로, 정확한 예측은 어렵습니다. 하지만 예비 번호가 12번이라면, 충원 합격 가능성이 아예 없는 것은 아닙니다.
+충원 합격자 발표 기간 동안 전화 통보를 기다리시고, 다른 대학의 등록 상황도 주시하시기 바랍니다. 간절한 마음이 잘 전달되어 좋은 결과가 있기를 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="283">
+      <c r="A283" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B283" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 2
+   - 생성된 응답은 4.75라는 점수가 높은 점수라고 언급하고 있지만, 원본 텍스트에서는 유아교육학과의 평균 점수가 4.18로, 4.75로 지원하기 어려울 것이라고 명시하고 있습니다. 따라서 사실관계에 대한 정확성이 부족합니다.
+2. Consistency Score (1-5): 2
+   - 생성된 응답은 4.75 점수로 충분히 경쟁력을 갖출 것이라고 주장하지만, 원본 텍스트에서는 이 점수로 유아교육학과에 지원하기 어렵다고 명시하고 있어 일관성이 결여되어 있습니다.
+3. Relevance Score (1-5): 4
+   - 생성된 응답은 유아교육학과에 대한 정보와 지원 시 고려해야 할 사항들을 다루고 있어 관련성이 높지만, 원본 텍스트의 핵심 내용인 4.75 점수의 지원 가능성에 대한 정보와는 다소 차이가 있습니다.
+4. Fluency Score (1-5): 4
+   - 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 구조를 가지고 있습니다. 다만, 일부 문장이 다소 길어 가독성이 떨어질 수 있습니다.
+5. Coherence Score (1-5): 3
+   - 생성된 응답은 여러 가지 요소를 나열하고 있지만, 논리적인 흐름이 다소 부족하여 일관된 주제를 유지하지 못하고 있습니다.
+6. Accuracy Score (1-5): 2
+   - 생성된 응답은 4.75 점수에 대한 해석이 원본 텍스트와 상충하여 정확성이 떨어집니다. 원본 텍스트에서는 이 점수로 유아교육학과에 지원하기 어렵다고 명시하고 있습니다.
+7. Multidimensional Quality Score (1-5): 2
+   - 전반적으로 사실관계, 일관성, 정확성에서 부족함이 있어 다차원적인 품질이 낮습니다.
+8. Semantic Appropriateness Score (1-5): 3
+   - 생성된 응답은 유아교육학과에 대한 정보와 관련된 내용을 다루고 있지만, 원본 텍스트의 맥락과는 다소 어긋나는 부분이 있어 의미적으로 적절하지 않습니다.
+9. Understandability Score (1-5): 4
+   - 생성된 응답은 전반적으로 이해하기 쉬운 구조를 가지고 있으나, 일부 내용이 원본 텍스트와 상충하여 혼란을 줄 수 있습니다.
+{
+    "Factuality Score": 2,
+    "Consistency Score": 2,
+    "Relevance Score": 4,
+    "Fluency Score": 4,
+    "Coherence Score": 3,
+    "Accuracy Score": 2,
+    "Multidimensional Quality Score": 2,
+    "Semantic Appropriateness Score": 3,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C283" t="n">
+        <v>0.696888010948704</v>
+      </c>
+      <c r="D283" t="inlineStr">
+        <is>
+          <t>정시 성적으로 4.75 나오는데 가능할까요? 그리고 유아교육학과는 이 성적으로 어렵겠죠?</t>
+        </is>
+      </c>
+      <c r="E283" t="inlineStr">
+        <is>
+          <t>4.75라는 국어 수학 탐구 영역의 표준 변환 점수 평균은 상당히 높은 점수입니다. 2024학년도 유아교육학과 모집단위에서 지원하는 경우, 이 성적으로는 충분히 경쟁력을 갖추고 있을 것입니다.
+유아교육학과의 특성상 다음과 같은 점들이 중요합니다:
+1. **인성 및 교육적합성**: 유아교육은 학생들의 인성과 교육적합성이 매우 중요한 요소입니다.
+2. **실무 경험**: 많은 학교에서는 실습 경험이나 관련 활동을 요구하거나 고려합니다.
+3. **학업 성적**: 국어, 수학, 탐구 영역의 성적이 높은 것은 이점이 될 것입니다.
+4.75라는 점수는 대부분의 유아교육학과 지원자들보다 높은 성적을 보여주므로 경쟁력을 갖추고 있을 것입니다. 그러나 유아교육학과는 매우 많은 지원자가 있으며, 이 점수만으로는 확실하게 합격할 수 있는 것은 아닙니다.
+추천 사항:
+1. **면접 준비**: 면접에서는 지원동기와 학업 계획을 이야기해야 합니다.
+2. **서류 제출**: 학교생활기록부, 진로 탐색 활동 등과 관련된 서류를 잘 준비하고 제출합니다.
+3. **추천 및 인적 네트워크**: 가능하다면 교사나 유아교육 관련 업계에서의 추천을 받거나 네트워크를 활용할 수 있습니다.
+4.75라는 점수로는 충분히 경쟁력을 갖추고 있을 것입니다. 그러나 유아교육학과 지원은 많은 요소가 고려되므로, 이 성적만으로는 확실하게 합격할 수 있는 것은 아닙니다.</t>
+        </is>
+      </c>
+      <c r="F283" t="inlineStr">
+        <is>
+          <t>정시 성적 4.75로 지원 가능한 학과를 알아보겠습니다. 제공된 데이터에서 최종등록자의 수능 4개 영역 등급 평균을 기준으로 분석해보겠습니다.
+### 지원 가능 학과
+- **국어국문학과**: 4.92 (평균)
+- **중어중국학과**: 5.68 (평균)
+- **일본학과**: 4.87 (평균)
+- **영어영문학과**: 5.16 (평균)
+- **문헌정보학과**: 4.82 (평균)
+- **평생교육·청소년상담학과**: 5.22 (평균)
+- **아동학과**: 7.08 (평균)
+- **금융경영학과**: 5.41 (평균)
+- **재무부동산학과**: 5.82 (평균)
+- **무역학과**: 5.18 (평균)
+- **유통물류학과**: 5.45 (평균)
+- **회계학과**: 4.99 (평균)
+- **국제관광경영학과**: 5.41 (평균)
+- **호텔·컨벤션경영학과**: 6.12 (평균)
+- **외식경영학과**: 4.91 (평균)
+- **의료경영학과**: 5.92 (평균)
+- **식품영양학과**: 5.92 (평균)
+- **기계공학과, 로봇자동화공학과, 자동차공학과**: 6.30 (평균)
+- **조선해양공학과**: 6.16 (평균)
+- **신소재공학과, 고분자나노공학과**: 5.78 (평균)
+- **환경공학과, 화학공학과, 응용화학과**: 5.73 (평균)
+- **의생명공학과, 바이오의약공학과, 식품공학과**: 5.41 (평균)
+- **인간공학과, 제품디자인공학과**: 5.72 (평균)
+- **산업경영빅데이터공학과**: 5.27 (평균)
+- **인공지능학과**: 5.25 (평균)
+- **전기공학과, 전자공학과**: 5.37 (평균)
+- **게임공학과**: 4.78 (평균)
+- **영화학과**: 5.04 (평균)
+### 유아교육학과
+유아교육학과의 경우, 최종등록자의 수능 4개 영역 등급 평균이 4.18로 나타나 있습니다. 따라서, 4.75의 성적으로는 유아교육학과에 지원하기 어려울 것으로 보입니다.
+추가적인 정보나 문의사항이 있으시면 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="284">
+      <c r="A284" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B284" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 4
+   - 설명: 생성된 응답은 보육가정상담학과의 평균 등급과 관련된 정보를 제공하고 있으며, 4.16의 정시 등급이 아동학과의 평균 등급보다 높은 점수라는 점을 언급하고 있습니다. 그러나 아동학과로의 변경에 대한 정보는 정확하지만, 2024년도에 지원할 때 아동학과를 대상으로 해야 한다는 점은 다소 불확실한 정보입니다.
+2. Consistency Score (1-5): 3
+   - 설명: 생성된 응답은 원본 텍스트의 정보와 일부 일치하지만, 아동학과로의 변경에 대한 언급이 추가되어 있어 일관성이 떨어질 수 있습니다. 원본 텍스트는 보육가정상담학과에 대한 정보에 집중하고 있습니다.
+3. Relevance Score (1-5): 5
+   - 설명: 생성된 응답은 원본 텍스트의 주제와 관련이 깊으며, 지원자의 정시 등급과 합격 가능성에 대한 정보를 제공하고 있습니다. 따라서 매우 관련성이 높습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 문법적으로 올바르며 읽기 쉬운 구조를 가지고 있습니다. 다만, 일부 문장이 다소 길어 가독성이 떨어질 수 있습니다.
+5. Coherence Score (1-5): 4
+   - 설명: 생성된 응답은 논리적으로 잘 구성되어 있으며, 각 요소가 자연스럽게 연결되어 있습니다. 그러나 아동학과로의 변경에 대한 언급이 추가되어 있어 약간의 혼란을 줄 수 있습니다.
+6. Accuracy Score (1-5): 4
+   - 설명: 생성된 응답은 원본 텍스트의 사실을 잘 반영하고 있으며, 정시 등급에 대한 평가도 적절합니다. 그러나 아동학과로의 변경에 대한 정보는 다소 불확실할 수 있습니다.
+7. Multidimensional Quality Score (1-5): 4
+   - 설명: 생성된 응답은 여러 차원에서 좋은 품질을 보여주지만, 일관성과 정확성에서 약간의 부족함이 있습니다. 전반적으로는 높은 점수를 받을 수 있습니다.
+8. Semantic Appropriateness Score (1-5): 4
+   - 설명: 생성된 응답은 원본 텍스트의 의미와 맥락에 잘 부합하며, 적절한 정보를 제공합니다. 그러나 아동학과로의 변경에 대한 언급이 다소 혼란을 줄 수 있습니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 이해하기 쉽고 명확하게 작성되어 있습니다. 그러나 일부 문장이 길어 가독성이 떨어질 수 있습니다.
+{
+    "Factuality Score": 4,
+    "Consistency Score": 3,
+    "Relevance Score": 5,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 4,
+    "Multidimensional Quality Score": 4,
+    "Semantic Appropriateness Score": 4,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C284" t="n">
+        <v>0.6717806715017437</v>
+      </c>
+      <c r="D284" t="inlineStr">
+        <is>
+          <t>제가 동의대 정시 환산등급이 4.16인데 보육가정상담학과 일반학생전형으로 추합까지 생각해서 합격이 될까요?</t>
+        </is>
+      </c>
+      <c r="E284" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대학교의 정시모집에서 보육·가정상담학과의 경우, 2023년도에는 보육·가정상담학과였으나 2024년도에는 아동학과로 변경되었습니다. 따라서 2024년도에 지원하실 때는 아동학과를 대상으로 해야 합니다.
+현재의 학생부 등급이 4.16이라면, 이는 상당히 좋은 점수입니다. 하지만 정시모집에서 합격 여부는 여러 요소가 결합되어 결정되므로 단순히 등급만으로 판단하기 어렵습니다. 아래와 같은 요인들을 고려해보세요:
+1. **경쟁률**: 아동학과의 경쟁률을 확인해야 합니다. 만약 경쟁률이 높다면, 4.16등급은 좋은 점수일 수 있지만 여전히 합격하기 어렵게 될 수도 있습니다.
+2. **모집인원 및 지원자 수**: 모집인원과 지원자의 수를 비교하여 대략적인 경쟁률을 예측할 수 있습니다.
+3. **학생부 평균 등급**: 2024년도의 학생부 평균 등급을 확인하고, 자신의 등급이 평균보다 높은지 낮은지를 판단해야 합니다.
+4. **추천서 및 특기사항**: 추천서나 특기사항 등 추가 자료가 있다면 이들도 중요한 요소로 작용할 수 있습니다.
+5. **수능 성적**: 수능 성적이 좋은 경우, 학생부 등급이 조금 낮더라도 합격 가능성은 높아질 수 있습니다.
+6. **전형별 특성**: 일반학생전형의 경우, 학생부 등급과 수능 성적이 중요한 요소로 작용합니다. 따라서 두 가지 모두 고려해야 합니다.
+참고로, 동의대학교의 정시모집에서 아동학과는 경쟁률이 높을 가능성이 있습니다. 따라서 4.16등급만으로 합격할 수 있을지는 불확실합니다. 하지만 좋은 성적을 가지고 있다면 충분히 합격 가능성은 있으므로, 추가 자료 준비와 면접 등도 철저히 준비하는 것이 좋습니다.
+추가적으로, 동의대학교 입학처 웹사이트(https://ipsi.deu.ac.kr/main.do)를 참조하여 최신 정보와 정확한 데이터를 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+      <c r="F284" t="inlineStr">
+        <is>
+          <t>보육가정상담학과의 최종등록자 데이터를 기준으로 보면, 아동학과의 영어 등급 평균은 6.33이고, 수능 4개 영역 등급 평균은 7.08입니다. 
+따라서, 현재 정시 등급이 4.16라면 아동학과의 평균 등급보다 높은 성적을 가지고 있어 합격 가능성이 높습니다. 즉, 추가합격까지 생각해서 합격할 가능성이 높습니다.
+자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="285">
+      <c r="A285" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B285" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 1
+   - 설명: 생성된 응답은 소프트웨어융합학과가 정시로 지원할 수 없다는 원문 내용을 완전히 무시하고 있으며, 정시 지원에 대한 잘못된 정보를 제공하고 있습니다. 따라서 사실성이 매우 낮습니다.
+2. Consistency Score (1-5): 1
+   - 설명: 생성된 응답은 원문과 상충되는 정보를 포함하고 있습니다. 원문은 정시 지원이 불가능하다고 명시하고 있지만, 생성된 응답은 정시 지원에 대한 정보를 제공하고 있어 일관성이 없습니다.
+3. Relevance Score (1-5): 1
+   - 설명: 생성된 응답은 원문과 관련이 없으며, 정시 지원이 불가능하다는 핵심 질문에 대한 답변을 제공하지 않고 있습니다. 따라서 관련성이 매우 낮습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 문법적으로 잘 구성되어 있으며, 읽기에도 무리가 없습니다. 그러나 내용의 부적절함으로 인해 전체적인 평가에 영향을 미칩니다.
+5. Coherence Score (1-5): 3
+   - 설명: 생성된 응답은 여러 정보를 나열하고 있지만, 원문과의 연결이 없기 때문에 일관된 흐름이 부족합니다. 그러나 각 항목은 논리적으로 연결되어 있습니다.
+6. Accuracy Score (1-5): 1
+   - 설명: 생성된 응답은 원문에서 제공된 사실과 완전히 반대되는 정보를 포함하고 있습니다. 따라서 정확성이 매우 낮습니다.
+7. Multidimensional Quality Score (1-5): 1
+   - 설명: 생성된 응답은 사실성, 일관성, 관련성, 정확성 등 모든 차원에서 매우 낮은 점수를 받습니다. 전반적으로 품질이 좋지 않습니다.
+8. Semantic Appropriateness Score (1-5): 1
+   - 설명: 생성된 응답은 원문과의 의미적 일치가 전혀 없으며, 주제와도 맞지 않습니다. 따라서 의미적 적절성이 매우 낮습니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 문법적으로 잘 작성되어 있어 이해하기는 쉽지만, 내용이 부적절하여 전체적인 이해에 혼란을 줄 수 있습니다.
+{
+    "Factuality Score": 1,
+    "Consistency Score": 1,
+    "Relevance Score": 1,
+    "Fluency Score": 4,
+    "Coherence Score": 3,
+    "Accuracy Score": 1,
+    "Multidimensional Quality Score": 1,
+    "Semantic Appropriateness Score": 1,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C285" t="n">
+        <v>0.4695879288149777</v>
+      </c>
+      <c r="D285" t="inlineStr">
+        <is>
+          <t>소프트웨어융합학과 정시로 들어갈 수 있나요? 된다면 평균 몇 등급정도 받아야 하나요?</t>
+        </is>
+      </c>
+      <c r="E285" t="inlineStr">
+        <is>
+          <t>2024학년도에 소프거우리융합학과를 정시로 지원하려는 경우, 다음과 같은 정보가 도움이 될 것입니다:
+1. **모집단위 및 모집인원**: 
+   - 단과대학: ICT공과대학
+   - 모집단위: 소프트웨어융합학과
+   - 모집 인원: 7명
+2. **경쟁률 및 합격 평균 등급**:
+   - 최종등록자 경쟁률: 4.87 (국내외 학생 모두 포함)
+   - 충원 합격 (후보순위): 63명
+   - 국어 + 수학 + 탐구(2개) (가산점 포함) 표준 변환 점수 합의 평균: 434.70
+3. **성적 반영 방식**:
+   - 수능 반영 비율: 100%
+   - 반영 영역 및 가산점: 국어(화법과작문 또는 언어와매체) 25% + 수학(확률과통계 또는 미적분 또는 기하) 25% + 영어 25% + 탐구(사회탐구 또는 과학탐구 또는 직업탐구 - 2개 과목 합) 25%
+4. **평균 등급 예상**:
+   - 평균적으로는 국어, 수학, 영어, 탐구 등급 중 상위 등급을 받은 지원자가 경쟁력을 갖추게 됩니다.
+   - 예를 들어, 국어 1등급, 수학 2등급, 영어 3등급, 탐구 4등급 정도의 성적을 받는 것이 일반적인 경향입니다.
+따라서, 소프트웨어융합학과를 정시로 지원하려면 다음과 같은 등급을 목표로 해야 합니다:
+- 국어: 1등급 이상
+- 수학: 2등급 이상
+- 영어: 3등급 이상
+- 탐구: 4등급 이상
+이러한 성적을 기반으로 경쟁력을 갖추고 지원하면 좋은 결과를 얻을 가능성이 높아집니다. 그러나 최종 합격 가능성은 경쟁률, 지원자들의 성적 분포 등 다양한 요인에 따라 달라질 수 있으므로, 정확한 예측은 어렵습니다.</t>
+        </is>
+      </c>
+      <c r="F285" t="inlineStr">
+        <is>
+          <t>아니요. 소프트웨어융합학과는 정시로 지원할 수 없습니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="286">
+      <c r="A286" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B286" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 4
+   - 설명: 생성된 응답은 소프트웨어융합학과의 평가 방식에 대한 정보를 잘 반영하고 있으며, 서류 평가와 면접 점수의 중요성을 강조하고 있습니다. 그러나 면접 점수와 서류 평가의 비중에 대한 구체적인 수치(40%와 60%)는 원문에 명시되어 있지 않으므로, 이 부분에서 약간의 부정확성이 있습니다.
+2. Consistency Score (1-5): 4
+   - 설명: 생성된 응답은 원문과 일관되게 서류 평가와 면접 점수의 중요성을 설명하고 있습니다. 다만, 면접 점수와 서류 평가의 비중에 대한 구체적인 수치가 원문에 없기 때문에 완전한 일관성은 부족합니다.
+3. Relevance Score (1-5): 5
+   - 설명: 생성된 응답은 원문에서 다루고 있는 주제와 관련이 깊으며, 서류 준비와 세특 내용의 중요성에 대해 잘 설명하고 있습니다. 따라서 매우 관련성이 높습니다.
+4. Fluency Score (1-5): 5
+   - 설명: 생성된 응답은 문법적으로 정확하고, 읽기 쉽게 잘 구성되어 있습니다. 따라서 유창성이 매우 높습니다.
+5. Coherence Score (1-5): 5
+   - 설명: 생성된 응답은 논리적으로 잘 구성되어 있으며, 각 섹션이 자연스럽게 연결되어 있습니다. 따라서 일관성이 매우 높습니다.
+6. Accuracy Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 정확하지만, 면접 점수와 서류 평가의 비중에 대한 구체적인 수치가 원문에 없기 때문에 약간의 부정확성이 있습니다.
+7. Multidimensional Quality Score (1-5): 4
+   - 설명: 생성된 응답은 여러 차원에서 잘 수행되고 있지만, 일부 정보의 정확성에서 약간의 부족함이 있어 4점으로 평가합니다.
+8. Semantic Appropriateness Score (1-5): 5
+   - 설명: 생성된 응답은 원문과 의미적으로 잘 일치하며, 적절한 맥락에서 정보를 전달하고 있습니다.
+9. Understandability Score (1-5): 5
+   - 설명: 생성된 응답은 명확하고 이해하기 쉬우며, 정보가 잘 전달되고 있습니다.
+{
+    "Factuality Score": 4,
+    "Consistency Score": 4,
+    "Relevance Score": 5,
+    "Fluency Score": 5,
+    "Coherence Score": 5,
+    "Accuracy Score": 4,
+    "Multidimensional Quality Score": 4,
+    "Semantic Appropriateness Score": 5,
+    "Understandability Score": 5
+}</t>
+        </is>
+      </c>
+      <c r="C286" t="n">
+        <v>0.7094655289204873</v>
+      </c>
+      <c r="D286" t="inlineStr">
+        <is>
+          <t>소프트웨어 융합과 면접 점수보다 세특 내용을 많이 보시나요? 따로 준비해야하는 서류 존재하나요?</t>
+        </is>
+      </c>
+      <c r="E286" t="inlineStr">
+        <is>
+          <t>소프트웨어융합학과의 경우, 면접 점수와 서류 평가 점수가 각각 중요하게 고려됩니다. 특히 서류 평가는 공동체역량, 학업역량, 전공적합성 등 다양한 영역에서 평가되며, 세특(세부능력 및 특기사항) 내용이 중요한 역할을 합니다.
+### 1. 면접 점수와 서류 평가의 비중
+- **면접 점수**: 40%
+- **서류 평가 점수**: 60%
+따라서, 서류 평가는 전체 점수 중 더 큰 비중을 차지합니다. 따라서 세특 내용을 충분히 준비하고 잘 작성하는 것이 중요합니다.
+### 2. 세특 내용의 중요성
+- **세특 내용**: 이는 지원자의 학업역량과 전공적합성을 보여주는 중요한 부분입니다. 특히, 소프트웨어 관련 활동이나 프로젝트 경험을 자세히 기재해야 합니다.
+### 3. 서류 준비 시 주의사항
+- **정확성**: 세특 내용은 실제 경험이나 활동에 근거해야 합니다. 과장된 내용이나 허위 정보는 부정적 평가를 받을 수 있습니다.
+- **세부적인 설명**: 가능한 한 세부적으로 자신의 활동과 성과를 기재해야 합니다. 단순히 '참여했다'라고만 적지 말고, 어떤 역할을 했으며, 어떤 결과를 얻었는지를 구체적으로 기재해야 합니다.
+### 4. 필요 서류
+- **학교생활기록부**: 이는 학업역량과 전공적합성을 평가하는 중요한 자료입니다.
+- **동아리 활동 및 프로젝트 관련 증빙자료**: 소프트웨어 관련 동아리 활동이나 프로젝트 참여 경력을 증명할 수 있는 자료를 첨부해야 합니다.
+### 5. 참고 자료
+- **면접 질문 공통문항**: 지원동기, 학업역량, 전공적합성 등에 대한 질문이 주어질 수 있으므로, 이에 대해 준비해두는 것이 좋습니다.
+따라서, 세특 내용을 충분히 준비하고 서류를 체계적으로 작성하는 것이 중요합니다. 이를 통해 지원자의 학업역량과 전공적합성을 효과적으로 보여줄 수 있습니다.
+더 궁금한 점이 있으시면 https://ipsi.deu.ac.kr/main.do로 접속하여 자세한 정보를 확인하실 수 있습니다.</t>
+        </is>
+      </c>
+      <c r="F286" t="inlineStr">
+        <is>
+          <t>소프트웨어융합학과는 서류 평가(공동체 역량, 학업 역량, 전공 적합성)과 면접 고사(400점 만점), 
+	학생부 교과성적을 합쳐서 평가합니다. 
+	준비해야하는 서류와 자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="287">
+      <c r="A287" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B287" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 3
+   - 생성된 응답은 지원자의 성적이 4.08이라는 점을 언급하고 있지만, "상대적으로 낮습니다"라는 표현은 다소 부정확합니다. 원본 텍스트에서는 4.08이 최초합격자의 평균 등급인 4.12와 비교했을 때 "약간 높은 수준"이라고 명시하고 있습니다. 따라서, 사실적 정확성에서 일부 오류가 있습니다.
+2. Consistency Score (1-5): 3
+   - 생성된 응답은 원본 텍스트의 정보와 일부 일치하지만, 지원자의 성적에 대한 해석이 다릅니다. 원본 텍스트는 4.08이 평균에 근접하다고 언급하는 반면, 생성된 응답은 이를 낮다고 평가하고 있습니다. 이로 인해 일관성이 떨어집니다.
+3. Relevance Score (1-5): 4
+   - 생성된 응답은 동의대학교 소프트웨어공학부에 대한 정보를 제공하고 있으며, 지원자의 성적과 관련된 내용을 다루고 있습니다. 그러나 원본 텍스트의 핵심 질문에 대한 직접적인 답변이 부족하여 약간의 관련성 저하가 있습니다.
+4. Fluency Score (1-5): 4
+   - 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 구조를 가지고 있습니다. 다만, 일부 문장이 다소 길어 가독성이 떨어질 수 있습니다.
+5. Coherence Score (1-5): 4
+   - 생성된 응답은 논리적으로 잘 구성되어 있으며, 정보가 체계적으로 제시되고 있습니다. 그러나 원본 텍스트와의 연결이 약간 부족하여 완전한 일관성을 유지하지는 못합니다.
+6. Accuracy Score (1-5): 3
+   - 생성된 응답은 일부 정확한 정보를 포함하고 있지만, 지원자의 성적에 대한 해석에서 오류가 있습니다. 원본 텍스트의 평균 등급과 비교했을 때의 해석이 잘못되었습니다.
+7. Multidimensional Quality Score (1-5): 3
+   - 전반적으로 생성된 응답은 여러 차원에서 중간 정도의 품질을 보입니다. 사실성과 일관성에서 다소 부족함이 있으며, 관련성은 높지만 정확성에서 문제가 있습니다.
+8. Semantic Appropriateness Score (1-5): 4
+   - 생성된 응답은 원본 텍스트의 의미와 맥락을 대체로 잘 전달하고 있습니다. 그러나 일부 해석에서 차이가 있어 완전한 적합성은 아닙니다.
+9. Understandability Score (1-5): 4
+   - 생성된 응답은 전반적으로 이해하기 쉽고 명확하게 작성되었습니다. 그러나 일부 문장이 길어 다소 복잡하게 느껴질 수 있습니다.
+{
+    "Factuality Score": 3,
+    "Consistency Score": 3,
+    "Relevance Score": 4,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 3,
+    "Multidimensional Quality Score": 3,
+    "Semantic Appropriateness Score": 4,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C287" t="n">
+        <v>0.7129143265867601</v>
+      </c>
+      <c r="D287" t="inlineStr">
+        <is>
+          <t>정시 성적이 4.08인데 동의대학교 소프트웨어공학부  최초합격자로 가능할까요?</t>
+        </is>
+      </c>
+      <c r="E287" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대학교 ICT융합공과대학 소프트웨어공학부에 대한 정보를 바탕으로 답변 드리겠습니다.
+- **모집인원**: 30명
+- **지원인원**: 146명
+- **경쟁률**: 4.87
+- **충원 합격 (후보순위)**: 63명
+- **국어 + 수학 + 탐구(2개) (가산점 포함) 표준 변환 점수 합의 평균**: 330.11
+- **영어 등급의 평균**: 3.30
+이 정보를 바탕으로, 지원자의 성적이 4.08이라는 점은 상대적으로 낮습니다. 평균적인 국어 + 수학 + 탐구(2개) (가산점 포함) 표준 변환 점수 합의 평균은 330.11이며, 지원자의 성적은 이보다 약간 낮습니다.
+그러나 경쟁률이 높지 않아서, 지원자가 다른 요인들(예: 영어 등급, 수능 4개 영역 등급 등)에서 우수한 점수를 받았다면 가능성이 있을 수 있습니다. 특히, 영어 등급 평균이 3.30이고 지원자의 영어 등급이 높다면 이는 긍정적인 요인이 될 수 있습니다.
+결론적으로, 지원자의 성적이 약간 낮지만, 다른 점수와 학업 역량 등을 고려하면 최초합격 가능성은 있지만 매우 낮습니다. 정확한 확률을 알기 위해서는 동의대학교 입학처 웹사이트나 관련 정보를 확인하는 것이 좋습니다.
+더 자세한 정보나 추가 지원 방법이 필요하시다면, [https://ipsi.deu.ac.kr/main.do](https://ipsi.deu.ac.kr/main.do) 를 참조해보세요.</t>
+        </is>
+      </c>
+      <c r="F287" t="inlineStr">
+        <is>
+          <t>동의대학교 소프트웨어공학부의 2024학년도 수능(일반학생전형) 최초합격자의 수능 4개 영역 등급 평균은 4.12입니다. 따라서, 4.08의 성적은 최초합격자의 평균 등급보다 약간 높은 수준입니다. 
+	최초합격자의 평균 등급과 비교적 근접한 성적이므로, 최초합격 가능성은 있지만 확실하지는 않습니다. 추가적인 요소나 경쟁률에 따라 결과가 달라질 수 있습니다. 
+	정확한 정보는 동의대학교 입학처에 문의하는 것이 좋습니다. 추가적인 문의는 "https://ipsi.deu.ac.kr/main.do"에서 확인할 수 있습니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="288">
+      <c r="A288" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B288" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 2
+   - 생성된 응답은 소프트웨어융합학과의 정시 모집에 대한 구체적인 합격 등급 정보를 제공하지 않으며, 제공된 소스 텍스트와는 다른 정보를 포함하고 있습니다. 특히, 평균 성적에 대한 구체적인 수치가 소스 텍스트에 명시되어 있지 않기 때문에 사실성이 낮습니다.
+2. Consistency Score (1-5): 2
+   - 생성된 응답은 소스 텍스트와 일치하지 않는 정보(예: 평균 성적)를 포함하고 있어 일관성이 떨어집니다. 소스 텍스트는 합격 등급 정보가 없다고 명시하고 있지만, 생성된 응답은 구체적인 성적을 제시하고 있습니다.
+3. Relevance Score (1-5): 3
+   - 생성된 응답은 소스 텍스트의 주제와 관련이 있지만, 소스 텍스트에서 제공된 정보와는 다소 동떨어진 내용을 포함하고 있습니다. 따라서 관련성은 있지만, 정확한 정보와는 거리가 있습니다.
+4. Fluency Score (1-5): 4
+   - 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 구조를 가지고 있습니다. 그러나 일부 문장이 다소 길어 가독성이 떨어질 수 있습니다.
+5. Coherence Score (1-5): 4
+   - 생성된 응답은 논리적으로 잘 구성되어 있으며, 각 항목이 명확하게 구분되어 있습니다. 그러나 소스 텍스트와의 불일치로 인해 전체적인 일관성이 떨어질 수 있습니다.
+6. Accuracy Score (1-5): 2
+   - 생성된 응답은 소스 텍스트의 사실과 일치하지 않는 정보를 포함하고 있어 정확성이 낮습니다. 특히, 평균 성적에 대한 구체적인 수치가 소스 텍스트에 없기 때문에 정확성이 떨어집니다.
+7. Multidimensional Quality Score (1-5): 2
+   - 전반적으로 생성된 응답은 여러 차원에서 낮은 점수를 받고 있으며, 사실성, 일관성, 정확성에서 특히 문제가 있습니다.
+8. Semantic Appropriateness Score (1-5): 3
+   - 생성된 응답은 의미적으로 적절하지만, 소스 텍스트의 맥락과는 다소 어긋나는 부분이 있어 적절성 점수가 낮습니다.
+9. Understandability Score (1-5): 4
+   - 생성된 응답은 전반적으로 이해하기 쉬우나, 소스 텍스트와의 불일치로 인해 혼란을 줄 수 있습니다.
+{
+    "Factuality Score": 2,
+    "Consistency Score": 2,
+    "Relevance Score": 3,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 2,
+    "Multidimensional Quality Score": 2,
+    "Semantic Appropriateness Score": 3,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C288" t="n">
+        <v>0.7006035221275007</v>
+      </c>
+      <c r="D288" t="inlineStr">
+        <is>
+          <t>소프트웨어융합학과 정시 평균 5등급으로 여기 올 수 있나요?</t>
+        </is>
+      </c>
+      <c r="E288" t="inlineStr">
+        <is>
+          <t>2024학년도에 소프트웨어융합학과의 경우, 최종 등록자와 최초 합격자의 평균 성적을 살펴보면 다음과 같습니다:
+- **최종 등록자**:
+  - 국어 + 수학 + 탐구(2개) (가산점 포함) 표준 변환 점수 합의 평균: 317.87
+  - 영어 등급의 평균: 3.77
+  - 수능 4개 영역 등급의 평균: 4.49
+- **최초 합격자**:
+  - 국어 + 수학 + 탐구(2개) (가산점 포함) 표준 변환 점수 합의 평균: 330.11
+  - 영어 등급의 평균: 3.30
+  - 수능 4개 영역 등급의 평균: 4.12
+이러한 데이터를 바탕으로, 소프트웨어융합학과에 지원하려면 대략적으로 5등급 정도는 필요할 것으로 보입니다. 하지만 정확한 합격 가능성을 판단하기 위해서는 여러 요인을 고려해야 합니다:
+1. **경쟁률**: 경쟁률이 높다면, 평균 점수가 더 높아질 수 있습니다.
+2. **개별 지원자의 성적 분포**: 일부 지원자가 매우 높은 점수를 받았을 수도 있습니다.
+3. **전형 방식 및 평가 기준**: 서류평가와 면접 등 다른 평가 요소도 중요한 역할을 합니다.
+따라서, 5등급으로는 가능성이 있지만 확실한 합격을 보장받기 위해서는 더 높은 점수를 받는 것이 좋습니다. 또한, 지원 전에 입학사정관의 면접 및 서류 평가 기준 등을 꼼꼼히 확인하는 것이 중요합니다.
+추가 정보나 자세한 조언이 필요하시다면, [https://ipsi.deu.ac.kr/main.do](https://ipsi.deu.ac.kr/main.do)를 참조해보시는 것을 추천드립니다.</t>
+        </is>
+      </c>
+      <c r="F288" t="inlineStr">
+        <is>
+          <t>소프트웨어융합학과의 정시 모집에 대한 구체적인 합격 등급 정보는 제공된 Context에 포함되어 있지 않습니다. 소프트웨어융합학과는 나군 학생부종합(조기취업형계약학과전형)으로도 모집하며, 이 경우 서류 60%와 면접 40%의 비율로 전형요소를 반영합니다.
+정확한 합격 가능성을 확인하기 위해서는 해당 학과의 최근 합격자 평균 등급이나 입시 결과를 참고해야 합니다. 이러한 정보는 대학의 입학처 홈페이지나 모집요강에서 확인할 수 있습니다. 추가적인 정보가 필요하다면 "https://ipsi.deu.ac.kr/main.do"를 방문하여 문의하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="289">
+      <c r="A289" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B289" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 3
+   - 설명: 생성된 응답은 일부 사실을 포함하고 있지만, 원본 텍스트의 평균 등급과 비교할 때 정확한 수치를 제공하지 않고 있습니다. 예를 들어, "수능 4개 영역 등급의 평균은 5.06"이라는 정보는 원본 텍스트에 명시된 평균 등급과 일치하지 않습니다. 또한, "4등급 정도로 추정된다"는 주장은 명확한 근거 없이 제시되었습니다.
+2. Consistency Score (1-5): 3
+   - 설명: 생성된 응답은 원본 텍스트의 정보와 일부 일치하지만, 다른 수치와 해석이 상충하는 부분이 있습니다. 예를 들어, 원본 텍스트는 4.28이 평균보다 높다고 판단했으나, 생성된 응답에서는 평균보다 약간 낮다고 언급하고 있습니다. 이러한 불일치는 일관성을 떨어뜨립니다.
+3. Relevance Score (1-5): 4
+   - 설명: 생성된 응답은 원본 텍스트의 주제와 관련이 있으며, 지원자의 성적에 대한 분석을 제공합니다. 그러나 원본 텍스트의 특정 세부사항(예: 평균 등급)에 대한 언급이 부족하여 완전한 관련성을 보이지는 않습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 구조를 가지고 있습니다. 그러나 일부 문장은 다소 복잡하게 구성되어 있어 약간의 유창성 저하가 있습니다.
+5. Coherence Score (1-5): 4
+   - 설명: 생성된 응답은 논리적으로 잘 구성되어 있으며, 각 요소가 연결되어 있습니다. 그러나 일부 정보가 원본 텍스트와 일치하지 않아 완전한 일관성을 제공하지는 않습니다.
+6. Accuracy Score (1-5): 3
+   - 설명: 생성된 응답은 일부 정확한 정보를 포함하고 있지만, 원본 텍스트의 수치와 비교할 때 부정확한 부분이 있습니다. 특히, 평균 등급에 대한 정보가 잘못되었습니다.
+7. Multidimensional Quality Score (1-5): 3
+   - 설명: 생성된 응답은 여러 차원에서 중간 정도의 품질을 보입니다. 사실성과 일관성에서 부족함이 있지만, 관련성과 유창성은 양호합니다.
+8. Semantic Appropriateness Score (1-5): 4
+   - 설명: 생성된 응답은 원본 텍스트의 의미와 맥락에 적절하게 부합합니다. 그러나 일부 정보의 정확성이 떨어져 의미 전달에 약간의 혼란을 줄 수 있습니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 이해하기 쉽고 명확하게 작성되었습니다. 그러나 일부 복잡한 문장 구조로 인해 약간의 혼란이 있을 수 있습니다.
+{
+    "Factuality Score": 3,
+    "Consistency Score": 3,
+    "Relevance Score": 4,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 3,
+    "Multidimensional Quality Score": 3,
+    "Semantic Appropriateness Score": 4,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C289" t="n">
+        <v>0.5942340950548426</v>
+      </c>
+      <c r="D289" t="inlineStr">
+        <is>
+          <t>정시 성적이 4.28인데 동의대학교 신소재 공학부 들어갈 수 있을까요?</t>
+        </is>
+      </c>
+      <c r="E289" t="inlineStr">
+        <is>
+          <t>4.28이라는 영어 등급은 대략 4등급 정도로 추정됩니다. 동의대학교 신소재공학과의 경우, 지원자의 성적 분포를 보면 다음과 같습니다:
+- 모집 인원: 56명
+- 지원 인원: 81명
+- 경쟁률: 1.45
+- 충원 합격 (후보순위): 25명
+수능 4개 영역 등급의 평균은 5.06이며, 표준 편차는 1.22입니다.
+당신이 제시한 성적(국어 + 수학 + 탐구 + 영어 = 4.28)은 평균보다 약간 낮습니다. 그러나 경쟁률이 1.45로 낮고, 지원 인원도 많지 않기 때문에 여전히 충분히 가능성이 있습니다.
+특히, 동의대학교는 전형 방법에 따라 다양한 요소를 고려하기 때문에, 학업태도나 활동 경험이 좋은 경우에도 유리할 수 있습니다. 따라서 다음과 같은 점들을 확인해 보시는 것이 좋습니다:
+1. **전공적합성**: 신소재공학과와 관련된 활동이나 경험을 많이 가지고 있는지.
+2. **학업역량**: 학교생활에서 뛰어난 성적을 유지하고, 수업에 적극적으로 참여하는 등 좋은 학업태도를 보였는지.
+3. **공동체역량**: 협력적인 태도와 공동체 활동에 참여한 경험이 있는지.
+이러한 요소들이 잘 반영되어 있다면, 4.28이라는 성적에도 불구하고 충분히 합격할 수 있습니다. 하지만 확실한 것은 아니므로, 최종 결정을 내리기 전까지는 계속해서 준비를 해야 합니다.</t>
+        </is>
+      </c>
+      <c r="F289" t="inlineStr">
+        <is>
+          <t>정확한 답변을 위해서는 더 많은 정보가 필요하지만, 제공된 데이터를 바탕으로 대략적인 판단을 할 수 있습니다.
+### 신소재공학과, 분자나노공학과 (공과대학) - 2024학년도
+- **최초합격자 평균 수능 4개 영역 등급**: 5.32
+- **최종등록자 평균 수능 4개 영역 등급**: 5.78
+### 귀하의 성적
+- **수능 4개 영역 등급**: 4.28
+귀하의 성적이 신소재공학과의 최초합격자와 최종등록자의 평균 등급보다 높습니다. 따라서, 동의대학교 신소재공학과에 합격할 가능성이 높다고 판단됩니다. 
+자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="290">
+      <c r="A290" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B290" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 4
+   - 설명: 생성된 응답은 수능 일반학생전형에서 자기소개서가 필요하지 않다는 사실을 잘 반영하고 있습니다. 그러나 "일부 학과에서 서류평가 영역에 포함될 수 있다"는 추가 정보는 원문에 명시되어 있지 않으므로 약간의 부정확성이 있습니다.
+2. Consistency Score (1-5): 3
+   - 설명: 응답은 원문과 일관된 정보를 제공하지만, 추가된 세부사항이 원문과의 일관성을 약간 해치는 요소가 있습니다. 특히, 자기소개서가 필요하지 않다는 원문의 주장을 보완하는 방식으로 설명되었으나, 일부 학과에서의 서류평가 포함 여부는 원문에 명시되어 있지 않습니다.
+3. Relevance Score (1-5): 5
+   - 설명: 생성된 응답은 질문의 핵심 주제인 자기소개서의 필요성에 대해 매우 관련성이 높습니다. 모든 정보가 질문에 직접적으로 연결되어 있습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 구조를 가지고 있습니다. 다만, 일부 문장이 다소 길어 가독성이 떨어질 수 있습니다.
+5. Coherence Score (1-5): 4
+   - 설명: 응답은 논리적으로 잘 구성되어 있으며, 각 부분이 자연스럽게 연결되어 있습니다. 그러나 추가된 세부사항이 원문과의 연결성을 약간 약화시킬 수 있습니다.
+6. Accuracy Score (1-5): 4
+   - 설명: 응답은 전반적으로 정확하지만, 원문에 없는 정보가 포함되어 있어 완전한 정확성을 보장하지는 않습니다.
+7. Multidimensional Quality Score (1-5): 4
+   - 설명: 응답은 여러 차원에서 잘 수행되고 있으나, 일부 부정확성과 일관성 문제로 인해 완벽하지는 않습니다.
+8. Semantic Appropriateness Score (1-5): 4
+   - 설명: 응답은 의미적으로 적절하며, 질문의 맥락에 잘 맞습니다. 그러나 원문에 없는 정보가 포함되어 있어 약간의 부적절성이 있습니다.
+9. Understandability Score (1-5): 4
+   - 설명: 응답은 전반적으로 이해하기 쉽지만, 일부 긴 문장으로 인해 약간의 혼란을 줄 수 있습니다.
+{
+    "Factuality Score": 4,
+    "Consistency Score": 3,
+    "Relevance Score": 5,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 4,
+    "Multidimensional Quality Score": 4,
+    "Semantic Appropriateness Score": 4,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C290" t="n">
+        <v>0.6395504217816541</v>
+      </c>
+      <c r="D290" t="inlineStr">
+        <is>
+          <t>수능 일반학생전형으로 넣으려고 하는데 자기소개서 써야하나요?</t>
+        </is>
+      </c>
+      <c r="E290" t="inlineStr">
+        <is>
+          <t>2024년 동의대학교의 수능 일반학생전형에서는 자기소개서가 필수적으로 요구되는 것은 아닙니다. 
+- **나군 수능(일반학생전형)**:
+  - 모집단위 중 디자인조형학과, 체육학과는 실기고사 결과를 반영하므로 자기소개서가 필요하지 않습니다.
+  - 나머지 모집단위에서는 자기소개서 제출이 요구되지 않으나, 일부 학과에서 서류평가 영역에 포함될 수 있으니 해당 학과의 전형요소 반영비율을 확인해보세요.
+- **가군 수능(일반학생전형)**:
+  - 모든 모집단위에서는 자기소개서 제출이 요구되지 않습니다. 
+따라서, 일반적으로 수능 일반학생전형으로 지원할 때는 자기소개서를 작성하지 않아도 됩니다. 하지만 서류평가 영역에 포함될 수 있으므로 해당 학과의 전형요소 반영비율을 확인하고 필요하다면 준비해두는 것이 좋습니다.
+자세한 내용은 동의대학교 입학처 웹사이트 (https://ipsi.deu.ac.kr/main.do)를 참조하시거나 직접 문의하시는 것이 가장 정확합니다.</t>
+        </is>
+      </c>
+      <c r="F290" t="inlineStr">
+        <is>
+          <t>아니요. 수능 일반학생전형은 자기소개서가 필요없습니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="291">
+      <c r="A291" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B291" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 3
+   - 생성된 응답은 동의대학교의 수능 정시 모집에 대한 정보를 제공하고 있지만, 원본 텍스트에서 언급된 평균 등급과 표준 편차에 대한 구체적인 내용이 누락되어 있습니다. 또한, 수능 점수 4.5에 대한 합격 가능성에 대한 언급이 부족하여 일부 사실이 정확하지 않거나 불완전합니다.
+2. Consistency Score (1-5): 3
+   - 생성된 응답은 원본 텍스트의 내용과 일부 일치하지만, 추가 모집에 대한 정보와 경쟁률에 대한 세부 사항이 포함되어 있어 일관성이 떨어질 수 있습니다. 원본 텍스트의 주요 포인트와는 다소 다른 방향으로 나아가고 있습니다.
+3. Relevance Score (1-5): 4
+   - 생성된 응답은 동의대학교 수능 정시 모집에 대한 질문에 관련된 정보를 제공하고 있지만, 원본 텍스트의 주요 내용과는 약간의 차이가 있습니다. 그러나 여전히 관련성이 높습니다.
+4. Fluency Score (1-5): 4
+   - 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 구조를 가지고 있습니다. 다만, 일부 문장이 다소 복잡하게 느껴질 수 있습니다.
+5. Coherence Score (1-5): 4
+   - 생성된 응답은 논리적으로 잘 구성되어 있으며, 각 항목이 명확하게 구분되어 있습니다. 그러나 원본 텍스트와의 연결성이 약간 떨어질 수 있습니다.
+6. Accuracy Score (1-5): 3
+   - 생성된 응답은 수능 점수와 관련된 정보는 제공하지만, 원본 텍스트에서 제시된 구체적인 수치나 평균 등급에 대한 정보가 부족하여 정확성이 떨어집니다.
+7. Multidimensional Quality Score (1-5): 3
+   - 전반적으로 생성된 응답은 여러 차원에서 평균적인 성과를 보이고 있지만, 사실성과 일관성에서 부족함이 있어 종합적인 품질이 다소 낮습니다.
+8. Semantic Appropriateness Score (1-5): 4
+   - 생성된 응답은 주제와 관련된 의미를 잘 전달하고 있으며, 전반적으로 적절한 맥락을 유지하고 있습니다.
+9. Understandability Score (1-5): 4
+   - 생성된 응답은 전반적으로 이해하기 쉬우며, 정보가 명확하게 전달되고 있습니다. 다만, 일부 세부 사항이 복잡하게 느껴질 수 있습니다.
+{
+    "Factuality Score": 3,
+    "Consistency Score": 3,
+    "Relevance Score": 4,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 3,
+    "Multidimensional Quality Score": 3,
+    "Semantic Appropriateness Score": 4,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C291" t="n">
+        <v>0.7056224954314395</v>
+      </c>
+      <c r="D291" t="inlineStr">
+        <is>
+          <t>동의대 수능 정시 산출로 4.5나왔는데 추가모집이든 해서 들어갈수 있을까요?</t>
+        </is>
+      </c>
+      <c r="E291" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대학교 수능 정시 모집에서 국어 + 수학 + 탐구(2개) (가산점 포함) 표준 변환 점수 합의 평균과 경쟁률 등을 고려해보겠습니다.
+1. **한의예과 수학(미적분/기하)**:
+   - 지원 인원: 88명
+   - 모집 인원: 11명
+   - 경쟁률: 8.00
+   - 충원 합격 (후보순위): 12명
+   - 평균 점수: 399.33
+2. **한의예과 수학(확률과통계)**:
+   - 지원 인원: 21명
+   - 모집 인원: 3명
+   - 경쟁률: 7.00
+   - 충원 합격 (후보순위): 0명
+   - 평균 점수: 396.29
+3. **공과대학 기계공학과, 로봇자동화공학과, 자동차공학과**:
+   - 지원 인원: 81명
+   - 모집 인원: 56명
+   - 경쟁률: 1.45
+   - 충원 합격 (후보순위): 25명
+4. **공과대학 신소재공학과, 분자나노공학과**:
+   - 지원 인원: 81명
+   - 모집 인원: 56명
+   - 경쟁률: 1.45
+   - 충원 합격 (후보순위): 25명
+5. **인문사회과학대학 경찰행정학과**:
+   - 지원 인원: 29명
+   - 모집 인원: 7명
+   - 경쟁률: 4.14
+   - 충원 합격 (후보순위): 7명
+6. **상경대학 금융경영학과**:
+   - 지원 인원: 58명
+   - 모집 인원: 30명
+   - 경쟁률: 1.93
+   - 충원 합격 (후보순위): 22명
+7. **상경대학 재무부동산학과**:
+   - 지원 인원: 16명
+   - 모집 인원: 10명
+   - 경쟁률: 1.60
+   - 충원 합격 (후보순위): 4명
+8. **상경대학 무역학과**:
+   - 지원 인원: 36명
+   - 모집 인원: 19명
+   - 경쟁률: 1.89
+   - 충원 합격 (후보순위): 13명
+9. **상경대학 유통물류학과**:
+   - 지원 인원: 16명
+   - 모집 인원: 12명
+   - 경쟁률: 1.33
+   - 충원 합격 (후보순위): 4명
+10. **상경대학 경영학과**:
+    - 지원 인원: 65명
+    - 모집 인원: 15명
+    - 경쟁률: 4.33
+    - 충원 합격 (후보순위): 9명
+**결론**: 수능 점수 4.5는 평균보다 낮은 점수입니다. 추가모집이나 재입학 등에서 들어갈 확률은 상당히 낮습니다.
+만약 추가모집이든 해서 들어가고 싶다면, 해당 학과의 충원 합격자 명단을 확인하고, 자신의 점수가 충원 합격자 명단에 포함되어 있는지 확인해보는 것이 좋습니다. 또한, 동의대학교 입학관리팀에 문의하여 자세한 정보를 얻어보시는 것도 도움이 될 것입니다.
+추가로, 동의대학교에서는 정시 모집뿐만 아니라 추가모집도 진행합니다. 따라서, 추가모집이나 재입학 등에서 들어갈 확률은 상당히 낮습니다.</t>
+        </is>
+      </c>
+      <c r="F291" t="inlineStr">
+        <is>
+          <t>동의대학교의 수능 정시 모집에서 합격 가능성을 평가하기 위해서는 각 학과의 평균 등급과 표준 편차를 참고하는 것이 중요합니다. 제공된 데이터에 따르면, 각 학과의 수능 4개 영역 등급 평균과 표준 편차가 나와 있습니다. 
+예를 들어, 인문사회과학대학의 국어국문학과의 경우, 최초 합격자의 수능 4개 영역 등급 평균은 4.65이고, 최종 등록자의 경우 4.92입니다. 
+따라서, 수능 4개 영역 등급이 4.5라면, 일부 학과에서는 합격 가능성이 있을 수 있습니다. 그러나, 각 학과마다 요구하는 등급이 다르므로, 지원하고자 하는 학과의 평균 등급과 비교해보는 것이 중요합니다.
+추가 모집의 경우, 경쟁률이 낮아질 수 있으므로 합격 가능성이 높아질 수 있습니다. 하지만, 추가 모집에 대한 정보는 학교의 공식 홈페이지나 입학처에 문의하는 것이 가장 정확합니다.
+자세한 사항은 동의대학교 입학처에 문의하시기 바랍니다. 추가 정보는 "https://ipsi.deu.ac.kr/main.do"에서 확인할 수 있습니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="292">
+      <c r="A292" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B292" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 4
+   - 설명: 생성된 응답은 신소재공학과의 영어 등급 평균(5.06)과 수능 4개 영역 등급 평균(5.78)을 정확하게 반영하고 있습니다. 그러나 경쟁률과 모집인원 등의 추가 정보는 원본 텍스트에 포함되어 있지 않으므로, 약간의 부정확성이 있습니다.
+2. Consistency Score (1-5): 3
+   - 설명: 생성된 응답은 원본 텍스트의 정보와 일부 일치하지만, 경쟁률과 모집인원에 대한 정보는 원본 텍스트에 명시되어 있지 않아 일관성이 떨어집니다. 따라서 일관성 점수는 중간 정도로 평가됩니다.
+3. Relevance Score (1-5): 5
+   - 설명: 생성된 응답은 원본 텍스트의 주제와 관련된 정보를 잘 다루고 있으며, 합격 가능성에 대한 질문에 적절하게 답변하고 있습니다. 따라서 관련성 점수는 높습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 구조를 가지고 있습니다. 다만, 일부 문장에서 약간의 어색함이 느껴질 수 있습니다.
+5. Coherence Score (1-5): 4
+   - 설명: 생성된 응답은 논리적으로 잘 구성되어 있으며, 정보가 명확하게 전달됩니다. 그러나 일부 정보가 추가되어 있어 약간의 일관성이 떨어질 수 있습니다.
+6. Accuracy Score (1-5): 4
+   - 설명: 생성된 응답은 원본 텍스트의 사실을 잘 반영하고 있지만, 추가된 정보가 원본에 포함되어 있지 않아 정확성 점수는 약간 낮습니다.
+7. Multidimensional Quality Score (1-5): 4
+   - 설명: 생성된 응답은 여러 품질 차원에서 잘 수행하고 있으며, 전반적으로 높은 점수를 받았습니다. 그러나 일부 정보의 추가로 인해 점수가 약간 낮아졌습니다.
+8. Semantic Appropriateness Score (1-5): 4
+   - 설명: 생성된 응답은 원본 텍스트의 의미와 맥락에 잘 부합하지만, 추가된 정보가 원본의 의미를 약간 왜곡할 수 있습니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 명확하고 이해하기 쉬운 구조를 가지고 있습니다. 그러나 일부 문장에서 약간의 혼란을 줄 수 있는 요소가 있습니다.
+{
+    "Factuality Score": 4,
+    "Consistency Score": 3,
+    "Relevance Score": 5,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 4,
+    "Multidimensional Quality Score": 4,
+    "Semantic Appropriateness Score": 4,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C292" t="n">
+        <v>0.6923665007375996</v>
+      </c>
+      <c r="D292" t="inlineStr">
+        <is>
+          <t>동의대학교 신소재 공학부는 정시 몇 등급이면 합격 가능할까요?</t>
+        </is>
+      </c>
+      <c r="E292" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대학교 신소재공학과와 분자나노공학과의 경우, 수능 최종등록자의 통계를 보면 다음과 같은 정보가 있습니다:
+- 모집인원: 56명
+- 지원인원: 81명
+- 경쟁률: 1.45
+수능 성적 평균:
+- 국어 + 수학 + 탐구(2개) (가산점 포함) 표준 변환 점수 합의 평균: 271.64
+- 영어 등급의 평균: 5.06
+이 정보만으로 정확한 등급을 예측하기는 어렵지만, 일반적으로 경쟁률이 1.45인 경우 대략 B등급 내외의 성적이 필요할 것으로 추정됩니다.
+하지만 이는 단순 추정이며, 최종 합격 가능성을 결정하는 요소는 수능 점수뿐만 아니라 서류 평가, 면접 등 다양한 요소를 고려해야 합니다. 따라서 정확한 합격 가능성은 동의대학교 입학처 웹사이트나 상담을 통해 확인하시는 것이 가장 좋습니다.
+추가적으로, 동의대학교 입학 홈페이지(https://ipsi.deu.ac.kr/main.do)를 방문하여 최신 정보와 자세한 전형요강을 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+      <c r="F292" t="inlineStr">
+        <is>
+          <t>신소재학과의 최종등록자 데이터를 기준으로 보면, 신소재공학과의 영어 등급 평균은 5.06이고, 수능 4개 영역 등급 평균은 5.78입니다. 
+따라서, 신소재공학과의 평균 등급보다 높은 성적을 가지고 있으시면 합격 가능성이 올라갑니다.
+자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="293">
+      <c r="A293" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B293" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 3
+   - 설명: 생성된 응답은 작년 신소재공학과의 평균 점수에 대한 정보가 없고, 447점이 높다는 점은 맞지만, 평균 점수가 상승할 수 있는 여러 요인에 대한 추측을 포함하고 있어 사실과 다소 거리가 있습니다.
+2. Consistency Score (1-5): 3
+   - 설명: 생성된 응답은 신소재공학과의 평균 점수에 대한 정보가 부족하고, 여러 요인에 대한 설명이 포함되어 있지만, 원본 텍스트의 주제와 일치하지 않는 부분이 있어 일관성이 떨어집니다.
+3. Relevance Score (1-5): 4
+   - 설명: 생성된 응답은 신소재공학과의 평균 점수와 관련된 요인들을 설명하고 있지만, 원본 텍스트의 질문에 대한 직접적인 답변이 부족하여 약간의 관련성 저하가 있습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 구조를 가지고 있지만, 일부 문장이 다소 길어 가독성이 떨어질 수 있습니다.
+5. Coherence Score (1-5): 4
+   - 설명: 생성된 응답은 여러 요인을 나열하며 논리적인 흐름을 유지하고 있지만, 원본 텍스트와의 연결이 약해 전체적인 일관성이 떨어질 수 있습니다.
+6. Accuracy Score (1-5): 3
+   - 설명: 생성된 응답은 신소재공학과의 평균 점수에 대한 정확한 정보가 부족하고, 여러 요인에 대한 추측이 포함되어 있어 정확성이 떨어집니다.
+7. Multidimensional Quality Score (1-5): 3
+   - 설명: 생성된 응답은 여러 차원에서 평균적인 성과를 보이지만, 사실성과 일관성에서 부족함이 있어 전반적인 품질이 낮습니다.
+8. Semantic Appropriateness Score (1-5): 4
+   - 설명: 생성된 응답은 의미적으로 적절하지만, 원본 텍스트의 맥락과는 다소 차이가 있어 완전한 적절성은 부족합니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 이해하기 쉬운 구조를 가지고 있지만, 일부 문장이 길어 다소 복잡하게 느껴질 수 있습니다.
+{
+    "Factuality Score": 3,
+    "Consistency Score": 3,
+    "Relevance Score": 4,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 3,
+    "Multidimensional Quality Score": 3,
+    "Semantic Appropriateness Score": 4,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C293" t="n">
+        <v>0.6172290491441963</v>
+      </c>
+      <c r="D293" t="inlineStr">
+        <is>
+          <t>제가 동의대학교 정시 표준점수가 447점으로 환산되는데 작년 신소재공학과 표점이 447점보다 1점 정도 위더라구요 (최종 평균)가능성은 있을까요?</t>
+        </is>
+      </c>
+      <c r="E293" t="inlineStr">
+        <is>
+          <t>2023년 동의대학교 정시에서 신소재공학과의 최종 평균 점수가 작년에 비해 약간 높아진 경우는 다음과 같은 요인들을 고려해야 합니다:
+1. 모집 인원 및 지원 인원 변화:
+- 작년보다 모집 인원이 줄었거나 지원 인원이 늘어난다면 평균 점수가 상승할 수 있습니다.
+2. 입학사정관의 평가 결과:
+- 입학사정관들이 더 높은 점수를 부여한 경우 가능합니다.
+3. 성적 분포 변화:
+- 작년보다 높은 점수대의 지원자가 늘어난다면 평균이 상승할 수 있습니다.
+4. 전형 요소 비중 변경:
+- 서류나 면접 등 다른 평가 요소의 비중이 증가했을 때도 가능합니다.
+5. 입학사정관들의 주관성:
+- 각 입학사정관들이 더 높은 점수를 부여한 경우 평균이 상승할 수 있습니다.
+6. 지원자의 경쟁력 변화:
+- 작년보다 더 강력한 지원자가 많아졌을 수도 있습니다.
+7. 전형 방식 변경:
+- 작년과 다른 전형 방식으로 인해 평균 점수가 달라질 수 있습니다.
+8. 입학사정관의 주관적 판단:
+- 각 입학사정관들이 더 높은 점수를 부여한 경우 가능합니다.
+이러한 요인들을 고려하면 작년보다 약간 높아진 평균 점수가 있을 가능성은 있습니다. 하지만 정확히 예측하기는 어렵습니다. 실제 데이터와 입학사정관들의 판단을 바탕으로 최종적인 결과가 결정됩니다.</t>
+        </is>
+      </c>
+      <c r="F293" t="inlineStr">
+        <is>
+          <t>작년 동의대학교 신소재공학과의 최종 등록자 평균 표준 변환 점수는 378.15점이었습니다. 따라서, 귀하의 표준점수 447점은 작년 신소재공학과의 평균 점수보다 훨씬 높습니다. 이 점수라면 신소재공학과에 합격할 가능성이 매우 높다고 할 수 있습니다. 
+추가적인 정보나 문의사항이 있으시면 "https://ipsi.deu.ac.kr/main.do"를 방문해 주시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="294">
+      <c r="A294" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B294" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 3
+   - 생성된 응답은 신소재공학부의 합격 가능성에 대한 정보를 제공하지만, 원본 텍스트에서 제시된 평균 성적과 비교할 때 다소 부정확한 해석이 포함되어 있습니다. 특히, 4.3 등급이 4.1~4.2로 변환된다는 점은 원본 텍스트와 일치하지 않습니다.
+2. Consistency Score (1-5): 3
+   - 생성된 응답은 원본 텍스트의 정보와 일부 일치하지만, 합격 가능성에 대한 결론이 원본의 내용과 상충하는 부분이 있습니다. 원본에서는 합격 가능성이 높다고 언급했으나, 생성된 응답에서는 낮다고 언급하고 있습니다.
+3. Relevance Score (1-5): 4
+   - 생성된 응답은 원본 텍스트의 주제와 관련이 있으며, 신소재공학부의 합격 가능성에 대한 정보를 다루고 있습니다. 그러나 일부 세부 사항은 원본 텍스트와 직접적으로 관련이 없을 수 있습니다.
+4. Fluency Score (1-5): 4
+   - 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 구조를 가지고 있습니다. 그러나 일부 문장은 다소 복잡하게 느껴질 수 있습니다.
+5. Coherence Score (1-5): 4
+   - 생성된 응답은 논리적으로 잘 구성되어 있으며, 각 요인이 명확하게 나열되어 있습니다. 그러나 원본 텍스트와의 일관성이 부족하여 약간의 혼란을 줄 수 있습니다.
+6. Accuracy Score (1-5): 3
+   - 생성된 응답은 일부 정확한 정보를 포함하고 있지만, 원본 텍스트의 평균 성적과 비교할 때 잘못된 해석이 포함되어 있습니다. 특히, 합격 가능성에 대한 판단이 원본과 다릅니다.
+7. Multidimensional Quality Score (1-5): 3
+   - 생성된 응답은 여러 차원에서 평균적인 품질을 보이지만, 사실성과 일관성에서 부족함이 있어 전반적인 품질이 떨어집니다.
+8. Semantic Appropriateness Score (1-5): 4
+   - 생성된 응답은 원본 텍스트의 의미와 대체로 일치하지만, 일부 내용이 원본의 맥락과 다르게 해석될 수 있습니다.
+9. Understandability Score (1-5): 4
+   - 생성된 응답은 전반적으로 이해하기 쉬우나, 일부 복잡한 문장 구조로 인해 약간의 혼란을 줄 수 있습니다.
+{
+    "Factuality Score": 3,
+    "Consistency Score": 3,
+    "Relevance Score": 4,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 3,
+    "Multidimensional Quality Score": 3,
+    "Semantic Appropriateness Score": 4,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C294" t="n">
+        <v>0.6469224168552263</v>
+      </c>
+      <c r="D294" t="inlineStr">
+        <is>
+          <t>제 정시 성적이 현재로선 4.3등급대고 동의대식 성적산출하면 4.1~4.2정도 나올거같은데 신소재공학부 일반학생전형 붙을수있을까요?</t>
+        </is>
+      </c>
+      <c r="E294" t="inlineStr">
+        <is>
+          <t>4.3 등급의 성적이 4.1~4.2로 변환된다면, 신소재공학부(신소재공학과, 고분자나노공학과)의 일반학생전형에 합격 가능성은 낮지만, 아직 최종 결정을 내릴 수 있는 단계는 아닙니다.
+신소재공학부의 모집요강을 확인해야 합니다. 주요 요인으로는:
+1. **수능 반영 영역 및 가산점**:
+   - 국어(25%), 수학(25%), 영어(25%), 탐구(25%)
+   - 가산점은 없으나, 수능 수학(미적분 또는 기하) 응시자는 10%의 표준점수를 가산받습니다.
+2. **모집인원 및 경쟁률**:
+   - 신소재공학과: 모집인원이 제한적이므로 경쟁률이 높을 수 있습니다.
+   - 고분자나노공학과: 동일하게 경쟁률이 높을 가능성이 큽니다.
+3. **성적 평균**:
+   - 일반적으로 신소재공학부의 합격자는 4.0 이상의 등급을 보유하고 있습니다.
+   - 4.1~4.2 등급은 경쟁력이 있지만, 최상위권 학생들과는 차이가 있을 수 있습니다.
+4. **추천서 및 자기소개서**:
+   - 추천서와 자기소개서의 품질도 중요한 요인입니다.
+   - 이러한 부분에서 우수한 내용을 작성한다면 점수만으로 떨어지지 않을 수도 있습니다.
+5. **면접 성적**:
+   - 일부 전형에서는 면접 성적이 중요할 수 있으므로, 준비를 철저히 해야 합니다.
+결론적으로, 4.1~4.2 등급의 성적만으로는 확실한 합격을 보장하기 어렵지만, 최선을 다해 지원한다면 기회는 있습니다. 추천서와 자기소개서 작성에 신경 쓰고, 면접 준비도 철저히 해보세요.
+추가적으로, 동의대학교 입학 홈페이지나 입학처에 문의하시면 더 자세한 정보를 얻을 수 있을 것입니다.</t>
+        </is>
+      </c>
+      <c r="F294" t="inlineStr">
+        <is>
+          <t>동의대학교 신소재공학부(일반학생전형)의 최종등록자 데이터를 바탕으로 판단해보겠습니다.
+	신소재공학부의 최종등록자 평균 성적은 다음과 같습니다:
+	- 국어 + 수학 + 탐구(2개) (가산점 포함) 표준 변환 점수 합: 평균 271.64, 표준 편차 19.52
+	- 영어 등급: 평균 5.06, 표준 편차 1.22
+	- 수능 4개 영역 등급: 평균 5.78, 표준 편차 0.49
+	- 수능 4개 영역 (가산점 포함) 표준 변환 점수 합: 평균 378.15, 표준 편차 21.81
+	귀하의 성적이 4.1~4.2등급대라면, 신소재공학부의 최종등록자 평균 성적과 비교했을 때 다소 높은 편입니다. 특히, 영어 등급과 수능 4개 영역 등급에서 차이가 있을 수 있습니다.
+	따라서, 귀하의 성적이 신소재공학부의 최종등록자 평균 성적과 비교했을 때 다소 높으므로, 합격 가능성은 높습니다. 그러나, 최종 합격 여부는 지원자 전체의 성적 분포와 경쟁률에 따라 달라질 수 있습니다.
+	더 자세한 정보나 상담이 필요하다면, 동의대학교 입학처에 문의하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="295">
+      <c r="A295" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B295" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 2
+   - 설명: 생성된 응답에서 제시된 성적 정보는 원본 텍스트와 일치하지 않습니다. 예를 들어, "국어 + 수학 + 탐구(2개) (가산점 포함) 표준 변환 점수 합의 평균"이 293.11로 제시되었으나 원본에서는 301.87입니다. 영어 등급 평균도 4.53로 제시되었으나 원본에서는 4.13입니다. 이러한 차이로 인해 사실성이 낮습니다.
+2. Consistency Score (1-5): 2
+   - 설명: 생성된 응답은 원본 텍스트와 여러 부분에서 일관성이 없습니다. 성적 평균과 표준 편차가 다르게 제시되어 있어, 정보의 일관성이 결여되어 있습니다.
+3. Relevance Score (1-5): 5
+   - 설명: 생성된 응답은 원본 텍스트의 주제와 관련이 깊습니다. 동의대학교 인공지능학과의 수능 일반학생전형에 대한 성적 정보를 제공하고 있어 매우 관련성이 높습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 구조를 가지고 있습니다. 다만, 일부 문장이 다소 복잡하게 느껴질 수 있습니다.
+5. Coherence Score (1-5): 4
+   - 설명: 생성된 응답은 논리적으로 잘 구성되어 있으며, 정보가 체계적으로 제시되어 있습니다. 그러나 일부 세부 사항에서 일관성이 부족하여 완전한 일관성을 보장하지는 않습니다.
+6. Accuracy Score (1-5): 2
+   - 설명: 생성된 응답의 성적 정보는 원본 텍스트와 여러 차이가 있어 정확성이 낮습니다. 특히 평균 점수와 표준 편차의 수치가 잘못 기재되어 있습니다.
+7. Multidimensional Quality Score (1-5): 3
+   - 설명: 생성된 응답은 관련성은 높지만 사실성과 정확성이 낮아 전반적인 품질이 중간 정도입니다. 일관성과 정확성을 개선할 필요가 있습니다.
+8. Semantic Appropriateness Score (1-5): 4
+   - 설명: 생성된 응답은 원본 텍스트의 의미와 맥락에 적절하게 부합합니다. 그러나 일부 수치의 오류로 인해 의미 전달에 약간의 문제가 있습니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 이해하기 쉽고 명확하게 작성되었습니다. 그러나 일부 수치의 오류로 인해 혼란을 줄 수 있습니다.
+{
+    "Factuality Score": 2,
+    "Consistency Score": 2,
+    "Relevance Score": 5,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 2,
+    "Multidimensional Quality Score": 3,
+    "Semantic Appropriateness Score": 4,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C295" t="n">
+        <v>0.7699181386363169</v>
+      </c>
+      <c r="D295" t="inlineStr">
+        <is>
+          <t>동의대 인공지능학과 수능 일반학생전형으로 가고싶어요 성적좀 알려주세요</t>
+        </is>
+      </c>
+      <c r="E295" t="inlineStr">
+        <is>
+          <t>2024년 동의대학교 인공지능학과 수능 일반학생전형의 최종 등록자들의 성적 정보를 참고해보겠습니다:
+- **모집인원**: 15명
+- **지원인원**: 24명
+- **경쟁률**: 1.60
+- **충원 합격 (후보순위)**: 5명
+**성적 평균 및 표준 편차**:
+- **국어 + 수학 + 탐구(2개) (가산점 포함) 표준 변환 점수 합의 평균**: 293.11
+- **국어 + 수학 + 탐구(2개) (가산점 포함) 표준 변환 점수 합의 표준 편차**: 14.35
+**영어 등급 및 표준 편차**:
+- **영어 등급 평균**: 4.53
+- **영어 등급 표준 편차**: 0.80
+**수능 4개 영역 등급 평균 및 표준 편차**:
+- **수능 4개 영역 등급 평균**: 5.25
+- **수능 4개 영역 등급 표준 편차**: 0.35
+**수능 4개 영역 (가산점 포함) 표준 변환 점수 합의 평균 및 표준 편차**:
+- **수능 4개 영역 (가산점 포함) 표준 변환 점수 합의 평균**: 403.85
+- **수능 4개 영역 (가산점 포함) 표준 변환 점수 합의 표준 편차**: 15.55
+이러한 성적을 기반으로, 수능 성적이 높은 지원자가 많아 경쟁률이 높습니다. 따라서 좋은 성적을 보유하고 있어야 합니다. 특히 국어, 수학, 탐구 영역에서 높은 점수를 받는 것이 중요합니다.
+더 자세한 정보나 추가 질문이 있으시다면 언제든지 알려주세요!</t>
+        </is>
+      </c>
+      <c r="F295" t="inlineStr">
+        <is>
+          <t>동의대학교 인공지능학과의 수능 일반학생전형 최초합격자 성적은 다음과 같습니다:
+- **모집 인원**: 15명
+- **지원 인원**: 24명
+- **경쟁률**: 1.60
+- **충원 합격 (후보순위)**: 5명
+- **국어 + 수학 + 탐구(2개) (가산점 포함) 표준 변환 점수 합**: 평균 301.87, 표준 편차 12.38
+- **영어 등급**: 평균 4.13, 표준 편차 0.71
+- **수능 4개 영역 등급**: 평균 4.98, 표준 편차 0.25
+- **수능 4개 영역 (가산점 포함) 표준 변환 점수 합**: 평균 415.80, 표준 편차 10.49
+이 성적을 참고하여 준비하시기 바랍니다. 추가적인 정보가 필요하면 "https://ipsi.deu.ac.kr/main.do"를 방문해 주세요.</t>
+        </is>
+      </c>
+    </row>
+    <row r="296">
+      <c r="A296" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B296" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 2
+   - 생성된 응답은 동의대학교의 성적 기준에 대한 정보가 아닌 동국대학교에 대한 정보를 제공하고 있습니다. 이는 사실과 일치하지 않으며, 잘못된 정보를 포함하고 있습니다.
+2. Consistency Score (1-5): 2
+   - 생성된 응답은 동의대학교의 성적 기준에 대한 질문에 대해 동국대학교의 정보를 제공하고 있어 일관성이 없습니다. 두 대학의 정보가 혼합되어 있어 일관성이 떨어집니다.
+3. Relevance Score (1-5): 2
+   - 생성된 응답은 질문의 주제와 관련이 적습니다. 동의대학교의 성적 기준에 대한 질문에 동국대학교의 정보로 응답하고 있어 관련성이 낮습니다.
+4. Fluency Score (1-5): 4
+   - 문장은 전반적으로 잘 구성되어 있으며, 문법적으로도 큰 오류가 없습니다. 그러나 주제와의 관련성이 떨어져서 전체적인 흐름이 약간 어색하게 느껴질 수 있습니다.
+5. Coherence Score (1-5): 3
+   - 생성된 응답은 논리적으로 연결된 문장으로 구성되어 있지만, 주제가 일치하지 않아 전체적인 일관성이 떨어집니다. 동국대학교에 대한 정보가 동의대학교의 질문에 적절히 연결되지 않습니다.
+6. Accuracy Score (1-5): 2
+   - 응답은 동의대학교의 성적 기준에 대한 질문에 대해 잘못된 정보를 제공하고 있습니다. 동국대학교의 정보는 사실이지만, 질문의 맥락과 맞지 않습니다.
+7. Multidimensional Quality Score (1-5): 2
+   - 전반적으로 응답은 여러 차원에서 낮은 점수를 받고 있습니다. 사실성, 일관성, 관련성 모두 부족하여 전체적인 품질이 낮습니다.
+8. Semantic Appropriateness Score (1-5): 2
+   - 응답의 의미는 동의대학교의 질문과 맞지 않으며, 주제와 관련이 없는 정보를 제공하고 있습니다. 따라서 의미적으로 적절하지 않습니다.
+9. Understandability Score (1-5): 4
+   - 문장은 명확하게 작성되어 있어 이해하기는 쉽지만, 주제와의 관련성이 떨어져서 혼란을 줄 수 있습니다.
+{
+    "Factuality Score": 2,
+    "Consistency Score": 2,
+    "Relevance Score": 2,
+    "Fluency Score": 4,
+    "Coherence Score": 3,
+    "Accuracy Score": 2,
+    "Multidimensional Quality Score": 2,
+    "Semantic Appropriateness Score": 2,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C296" t="n">
+        <v>0.6713754021653379</v>
+      </c>
+      <c r="D296" t="inlineStr">
+        <is>
+          <t>동의대 정시 성적으로 5.27인데 이 성적으로 추합 가능한가요?</t>
+        </is>
+      </c>
+      <c r="E296" t="inlineStr">
+        <is>
+          <t>5.27이라는 수능 등급은 상당히 높은 점수입니다. 각 단과대학 및 모집단위별로 수능 반영 방식이 다르므로, 정확한 판단을 위해서는 해당 단과대학의 모집요강을 확인해야 합니다.
+일반적으로 동국대학교의 경우, 수능 성적 반영 방식은 다음과 같습니다:
+1. **전반적인 경향**: 대부분의 단과대학에서는 국어(화법과작문 or 언어와매체) / 수학(확률과통계 or 미적분 or 기하) / 영어 / 탐구(사회탐구 or 과학탐구 or 직업탐구 중 2개 과목)의 등급을 반영합니다. 각 영역별로 25%씩 총 100%를 합산하여 평가합니다.
+2. **수능 성적 평균**: 예를 들어, 특정 단과대학에서 국어 + 수학 + 탐구(2개) (가산점 포함) 표준 변환 점수 합의 평균이 300 이상이라면, 5.27 등급은 상당히 높은 성적입니다.
+3. **모집단위별 차이**: 일부 단과대학이나 모집단위에서는 특정 영역에 더 중점을 두고 있을 수 있으므로, 해당 단과대학의 정확한 평균 점수와 표준 편차를 확인해야 합니다.
+4. **경쟁률 및 지원자 수**: 경쟁률이 높은 학과나 모집단위에서는 5.27 등급으로도 충분히 합격할 수 있지만, 경쟁률이 낮은 곳에서는 더 높은 점수를 요구할 수도 있습니다.
+따라서, 정확한 판단을 위해서는:
+1. **해당 단과대학의 모집요강 확인**: 각 단과대학 및 모집단위별로 수능 반영 방식이 다르므로, 해당 단과대학의 모집요강을 꼭 확인해야 합니다.
+2. **최근 입학 결과 확인**: 과거 입학 결과를 참고하여 현재 지원 가능한 학과나 모집단위를 파악할 수 있습니다.
+추후에 더 구체적인 정보가 필요하시다면, 동국대학교 입학처 웹사이트(https://ipsi.deu.ac.kr/main.do)를 참조하거나 직접 문의하시는 것이 좋습니다.</t>
+        </is>
+      </c>
+      <c r="F296" t="inlineStr">
+        <is>
+          <t>동의대학교의 정시 성적을 기준으로 5.27의 성적으로 충원 합격(추합)이 가능한지 확인하기 위해서는 각 학과의 최종 등록자 성적을 비교해보아야 합니다. 아래는 각 학과의 수능 4개 영역 등급 평균과 표준 편차를 기준으로 5.27 성적이 충원 합격 가능한지 확인한 결과입니다:
+1. **인문사회과학대학**
+   - 국어국문학과: 평균 4.92, 표준 편차 0.35
+   - 중어중국학과: 평균 5.68, 표준 편차 0.74
+   - 일본학과: 평균 4.87, 표준 편차 0.13
+   - 영어영문학과: 평균 5.16, 표준 편차 0.66
+   - 문헌정보학과: 평균 4.82, 표준 편차 0.33
+   - 평생교육·청소년상담학과: 평균 5.22, 표준 편차 0.29
+   - 아동학과: 평균 7.08, 표준 편차 0.56
+   - 유아교육과: 평균 4.18, 표준 편차 0.25
+   - 광고홍보학과: 평균 4.47, 표준 편차 0.18
+   - 미디어커뮤니케이션학과: 평균 4.29, 표준 편차 0.23
+   - 법학과: 평균 4.27, 표준 편차 0.27
+   - 경찰행정학과: 평균 4.12, 표준 편차 0.18
+   - 소방방재행정학과: 평균 4.43, 표준 편차 0.40
+   - 행정학과: 평균 4.36, 표준 편차 0.33
+   - 사회복지학과: 평균 4.69, 표준 편차 0.23
+2. **상경대학**
+   - 금융경영학과: 평균 5.41, 표준 편차 0.52
+   - 재무부동산학과: 평균 5.82, 표준 편차 1.25
+   - 무역학과: 평균 5.18, 표준 편차 0.50
+   - 유통물류학과: 평균 5.45, 표준 편차 0.52
+   - 경영학과: 평균 4.69, 표준 편차 0.22
+   - 회계학과: 평균 4.99, 표준 편차 0.41
+   - 경영정보학과: 평균 4.31, 표준 편차 0.23
+   - e비즈니스학과: 평균 4.53, 표준 편차 0.36
+   - 국제관광경영학과: 평균 5.41, 표준 편차 0.56
+   - 호텔·컨벤션경영학과: 평균 6.12, 표준 편차 0.77
+   - 외식경영학과: 평균 4.91, 표준 편차 0.28
+3. **의료보건생활대학**
+   - 간호학과: 평균 3.37, 표준 편차 0.29
+   - 임상병리학과: 평균 4.15, 표준 편차 0.12
+   - 치위생학과: 평균 4.18, 표준 편차 0.20
+   - 방사선학과: 평균 3.82, 표준 편차 0.20
+   - 의료경영학과: 평균 5.92, 표준 편차 1.08
+   - 물리치료학과: 평균 3.62, 표준 편차 0.15
+   - 식품영양학과: 평균 5.92, 표준 편차 1.06
+4. **한의과대학**
+   - 한의예과(수학&lt;미적분/기하&gt;): 평균 1.21, 표준 편차 0.09
+   - 한의예과(수학&lt;확률과통계&gt;): 평균 1.20, 표준 편차 0.05
+5. **공과대학**
+   - 기계공학과, 로봇자동화공학과, 자동차공학과: 평균 6.30, 표준 편차 1.1
+   - 조선해양공학과: 평균 6.16, 표준 편차 1.00
+   - 신소재공학과, 분자나노공학과: 평균 5.78, 표준 편차 0.49
+   - 건축학과(5년제), 건축공학과, 토목공학과, 도시공학과: 평균 4.69, 표준 편차 0.25
+   - 환경공학과, 화학공학과, 응용화학과: 평균 5.73, 표준 편차 0.57
+   - 의생명공학과, 바이오의약공학과, 식품공학과: 평균 5.41, 표준 편차 0.65
+   - 인간공학과, 제품디자인공학과: 평균 5.72, 표준 편차 0.73
+   - 산업경영빅데이터공학과: 평균 5.27, 표준 편차 0.43
+6. **ICT융합공과대학**
+   - 컴퓨터공학과: 평균 4.29, 표준 편차 0.16
+   - 소프트웨어공학부: 평균 4.49, 표준 편차 0.30
+   - 인공지능학과: 평균 5.25, 표준 편차 0.35
+   - 전기공학과, 전자공학과: 평균 5.37, 표준 편차 0.60
+   - 디지털콘텐츠학과: 평균 4.47, 표준 편차 0.24
+   - 게임공학과: 평균 4.78, 표준 편차 0.20
+   - 영화학과: 평균 5.04, 표준 편차 0.76
+7. **예술디자인체육대학**
+   - 패션디자인학과: 평균 4.46, 표준 편차 0.31
+위의 정보를 바탕으로, 5.27의 성적으로 충원 합격이 가능한 학과는 다음과 같습니다:
+- 인문사회과학대학: 중어중국학과, 영어영문학과, 평생교육·청소년상담학과, 아동학과
+- 상경대학: 금융경영학과, 재무부동산학과, 무역학과, 유통물류학과, 호텔·컨벤션경영학과, 외식경영학과
+- 의료보건생활대학: 의료경영학과, 식품영양학과
+- 공과대학: 기계공학과, 로봇자동화공학과, 자동차공학과, 조선해양공학과, 신소재공학과, 분자나노공학과, 환경공학과, 화학공학과, 응용화학과, 의생명공학과, 바이오의약공학과, 식품공학과, 인간공학과, 제품디자인공학과, 산업경영빅데이터공학과
+- ICT융합공과대학: 인공지능학과, 전기공학과, 전자공학과, 영화학과
+위 학과들은 5.27의 성적으로 충원 합격이 가능할 것으로 보입니다. 더 자세한 정보는 동의대학교 입학처에 문의하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="297">
+      <c r="A297" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B297" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 3
+   - 생성된 응답은 소프트웨어공학부의 평균 성적에 대한 정보와 경쟁률, 지원자 수 등의 추가 정보를 제공하지만, 일부 수치(예: 영어 등급 평균, 수능 4개 영역 등급 평균)가 원본 텍스트와 일치하지 않거나 다르게 제시되어 있습니다. 따라서 사실성 점수는 3으로 평가합니다.
+2. Consistency Score (1-5): 3
+   - 생성된 응답은 원본 텍스트의 정보와 일부 일치하지만, 다른 수치와 정보가 포함되어 있어 일관성이 떨어집니다. 특히, 성적 비교 부분에서 원본 텍스트의 평균 성적과의 비교가 명확하지 않아 일관성 점수는 3으로 평가합니다.
+3. Relevance Score (1-5): 5
+   - 생성된 응답은 질문의 주제와 관련된 정보를 잘 다루고 있으며, 소프트웨어공학부에 지원하기 위한 정보와 조언을 포함하고 있어 매우 관련성이 높습니다. 따라서 관련성 점수는 5로 평가합니다.
+4. Fluency Score (1-5): 4
+   - 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 구조를 가지고 있습니다. 다만, 일부 문장이 다소 길어 가독성이 떨어질 수 있어 유창성 점수는 4로 평가합니다.
+5. Coherence Score (1-5): 4
+   - 생성된 응답은 논리적으로 잘 구성되어 있으며, 각 항목이 명확하게 구분되어 있습니다. 그러나 일부 정보가 중복되거나 불필요하게 길어져서 완전한 일관성에는 다소 부족함이 있어 일관성 점수는 4로 평가합니다.
+6. Accuracy Score (1-5): 3
+   - 생성된 응답의 일부 수치가 원본 텍스트와 일치하지 않으며, 특히 성적 비교 부분에서 정확성이 떨어집니다. 따라서 정확성 점수는 3으로 평가합니다.
+7. Multidimensional Quality Score (1-5): 4
+   - 생성된 응답은 전반적으로 관련성, 유창성, 일관성에서 좋은 점수를 받았지만, 사실성과 정확성에서 다소 부족함이 있어 다차원 품질 점수는 4로 평가합니다.
+8. Semantic Appropriateness Score (1-5): 4
+   - 생성된 응답은 원본 텍스트의 의미와 맥락에 잘 맞춰져 있으며, 적절한 정보를 제공합니다. 그러나 일부 수치의 불일치로 인해 완전한 적합성에는 다소 부족함이 있어 의미 적합성 점수는 4로 평가합니다.
+9. Understandability Score (1-5): 4
+   - 생성된 응답은 전반적으로 명확하고 이해하기 쉬운 구조를 가지고 있지만, 일부 문장이 길어져서 다소 복잡하게 느껴질 수 있어 이해 가능성 점수는 4로 평가합니다.
+{
+    "Factuality Score": 3,
+    "Consistency Score": 3,
+    "Relevance Score": 5,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 3,
+    "Multidimensional Quality Score": 4,
+    "Semantic Appropriateness Score": 4,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C297" t="n">
+        <v>0.6297075828606076</v>
+      </c>
+      <c r="D297" t="inlineStr">
+        <is>
+          <t>동의대식 정시 성적 4.2인데 교과로 소프트웨어공학부 가능성 있을까요?</t>
+        </is>
+      </c>
+      <c r="E297" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대학교에서 소프트웨어공학부에 지원하려면, 정시 모집단위와 경쟁률, 지원자들의 성적 분포를 고려해야 합니다. 주요 정보는 다음과 같습니다:
+1. **소프트웨어공학부 모집인원 및 지원자 수**:
+   - 2024학년도 모집 인원: 30명
+   - 지원 인원: 146명
+2. **경쟁률**:
+   - 경쟁률은 4.87입니다.
+3. **성적 평균 및 분산**:
+   - 국어 + 수학 + 탐구(2개) (가산점 포함) 표준 변환 점수 합의 평균: 330.11
+   - 표준 편차: 9.08
+4. **영어 등급**:
+   - 영어 등급 평균: 3.30
+   - 표준 편차: 0.82
+5. **수능 4개 영역 등급 평균 및 분산**:
+   - 수능 4개 영역 등급 평균: 4.12
+   - 표준 편차: 0.32
+6. **최초합격자 성적 분석**:
+   - 최초합격자의 국어 + 수학 + 탐구(2개) (가산점 포함) 표준 변환 점수 합의 평균은 330.11이며, 이는 동의대학교 소프트웨어공학부의 평균 성적과 비슷합니다.
+7. **성적 비교**:
+   - 당신이 제시한 성적(4.2)은 평균보다 약간 낮지만, 경쟁률이 높고 지원자가 많기 때문에 여전히 가능성이 있습니다.
+   - 특히, 수능 4개 영역 등급 평균이 4.12로 비교적 낮아서, 이 부분에서 우수한 성적이 있다면 도움이 될 수 있습니다.
+**결론**: 
+- 동의대학교 소프트웨어공학부는 경쟁률이 높고 지원자가 많지만, 당신의 성적(4.2)은 평균보다 낮지 않으므로 가능성이 있지만, 확실한 것은 아닙니다.
+- 추가적으로 수능 4개 영역 등급이나 다른 특기사항 등을 잘 준비하고, 면접에서도 좋은 모습을 보여야 합니다.
+추가 정보나 자세한 조언이 필요하시면 [https://ipsi.deu.ac.kr/main.do](https://ipsi.deu.ac.kr/main.do)를 참조하거나 입학처에 문의하시는 것이 좋습니다.</t>
+        </is>
+      </c>
+      <c r="F297" t="inlineStr">
+        <is>
+          <t>소프트웨어공학부의 최종등록자 데이터를 기준으로 보면, 소프트웨어공학부의 영어 등급 평균은 3.77이고, 수능 4개 영역 등급 평균은 4.49입니다. 
+따라서, 현재 정시 등급이 4.2라면 소프트웨어공학부의 평균 등급보다 높은 성적을 가지고 있어 합격 가능성이 높습니다.
+자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="298">
+      <c r="A298" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B298" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 3
+   - 생성된 응답은 화학환경공학부의 평균 등급과 관련된 정보를 제공하지만, 3.92라는 점수가 "상당히 낮은 수치"라는 주장은 다소 주관적이며, 원문에서 제시된 합격 가능성과는 상충하는 부분이 있습니다. 따라서, 사실성 점수는 3으로 평가합니다.
+2. Consistency Score (1-5): 3
+   - 생성된 응답은 원문에서 제공된 정보와 일부 일치하지만, 3.92 점수가 낮다고 언급한 부분은 원문에서의 합격 가능성과 모순됩니다. 이로 인해 일관성 점수는 3으로 평가합니다.
+3. Relevance Score (1-5): 4
+   - 생성된 응답은 화학환경공학부에 지원하기 위한 여러 요소를 고려하고 있으며, 원문과 관련된 내용을 다루고 있습니다. 그러나 원문에서 제시된 합격 가능성에 대한 직접적인 언급이 부족하여 점수는 4로 평가합니다.
+4. Fluency Score (1-5): 4
+   - 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 구조를 가지고 있습니다. 다만, 일부 문장이 다소 길어 가독성이 떨어질 수 있어 점수는 4로 평가합니다.
+5. Coherence Score (1-5): 4
+   - 생성된 응답은 논리적으로 잘 구성되어 있으며, 각 요소가 명확하게 연결되어 있습니다. 그러나 일부 부분에서 원문과의 연결이 약해져 있어 점수는 4로 평가합니다.
+6. Accuracy Score (1-5): 3
+   - 생성된 응답은 원문에서 제공된 정보와 일부 일치하지만, 3.92 점수에 대한 해석이 원문과 다르게 나타나 있어 정확성 점수는 3으로 평가합니다.
+7. Multidimensional Quality Score (1-5): 3
+   - 여러 차원에서 평가했을 때, 생성된 응답은 일부 강점과 약점을 가지고 있습니다. 전반적으로 원문과의 일관성이 부족하여 다차원 품질 점수는 3으로 평가합니다.
+8. Semantic Appropriateness Score (1-5): 4
+   - 생성된 응답은 원문과 관련된 의미를 잘 전달하고 있으며, 전반적으로 적절한 맥락을 유지하고 있습니다. 그러나 일부 주관적인 해석이 포함되어 있어 점수는 4로 평가합니다.
+9. Understandability Score (1-5): 4
+   - 생성된 응답은 전반적으로 이해하기 쉬우며, 명확한 정보 전달이 이루어지고 있습니다. 다만, 일부 문장이 길어질 수 있어 점수는 4로 평가합니다.
+{
+    "Factuality Score": 3,
+    "Consistency Score": 3,
+    "Relevance Score": 4,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 3,
+    "Multidimensional Quality Score": 3,
+    "Semantic Appropriateness Score": 4,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C298" t="n">
+        <v>0.6669907379326826</v>
+      </c>
+      <c r="D298" t="inlineStr">
+        <is>
+          <t>동의대식 정시 성적 산출로 3.92 나오는데 화학환경공학부 일반학생전형 가능할까요?</t>
+        </is>
+      </c>
+      <c r="E298" t="inlineStr">
+        <is>
+          <t>3.92라는 점수를 가지고 화학환경공학부(화학공학과, 환경공학과, 응용화학과)의 일반학생전형에 지원 가능한지 판단하기 위해서는 몇 가지 요소들을 고려해야 합니다.
+1. **성적 산출 방법**: 
+   - 화학환경공학부의 경우 수능 4개 영역(국어, 수학, 영어, 탐구) 중 표준점수 및 등급점수 상위 3개 영역의 표준점수 및 등급점수를 합산한 점수 ÷ 2로 산출합니다.
+2. **성적 평균과 편차**:
+   - 제공된 데이터에서 화학환경공학부의 정원 내 모집 인원에 대한 성적 정보가 있습니다.
+     - 국어 + 수학 + 탐구(2개) (가산점 포함) 표준 변환 점수 합의 평균은 378.15이며, 표준 편차는 21.81입니다.
+3. **성적 분포**:
+   - 평균이 378.15이고 표준 편차가 21.81이라는 점에서, 3.92라는 점수는 상당히 낮은 수치로 보입니다.
+   - 이 점수가 실제 성적 산출 점수인 경우, 지원 가능성이 매우 낮습니다.
+4. **경쟁률**:
+   - 화학환경공학부의 모집 인원과 지원 인원을 고려하면 경쟁률이 높아 보입니다.
+     - 정원 내 모집 인원: 62명
+     - 지원 인원: 122명 (경쟁률 1.97)
+따라서, 3.92라는 점수로는 화학환경공학부의 일반학생전형에 충분한 경쟁력을 갖추기 어렵다고 판단됩니다.
+**추천 조치**:
+- 실제 성적 산출 점수가 정확한지 확인하세요.
+- 다른 전형(예: 실기/실적, 학생부종합 등)을 고려해보세요.
+- 대학 입시 컨설팅 서비스를 활용하여 상세한 조언을 받으세요.
+더 자세한 정보나 추가 질문이 있으시다면 언제든지 알려주세요.</t>
+        </is>
+      </c>
+      <c r="F298" t="inlineStr">
+        <is>
+          <t>화학환경공학부의 최종등록자 데이터를 기준으로 보면, 화학환경공학부의 영어 등급 평균은 4.82이고, 수능 4개 영역 등급 평균은 5.73입니다. 
+따라서, 현재 정시 등급이 3.92라면 화학환경공학부의 평균 등급보다 높은 성적을 가지고 있어 합격 가능성이 높습니다. 즉, 추가합격까지 생각해서 합격할 가능성이 높습니다.
+자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="299">
+      <c r="A299" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B299" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 3
+   - 생성된 응답은 동의대학교 화학환경공학부의 수능 일반학생전형에 대한 정보를 제공하고 있지만, 원본 텍스트에서 제시된 구체적인 평균 점수와 비교할 때 일부 정보가 다르거나 추가적인 세부사항이 부족합니다. 예를 들어, 원본 텍스트는 특정 평균 점수와 관련된 정보를 제공하지만, 생성된 응답은 성적 환산에 대한 추정치만 제시하고 있습니다.
+2. Consistency Score (1-5): 3
+   - 생성된 응답은 원본 텍스트의 정보와 일부 일치하지만, 화학공학과, 환경공학과, 응용화학과의 모집 인원과 지원 인원에 대한 정보는 원본 텍스트에 포함되어 있지 않으며, 이는 일관성을 떨어뜨립니다. 또한, 성적 환산 방법에 대한 설명이 원본 텍스트와는 다르게 제시되어 있습니다.
+3. Relevance Score (1-5): 4
+   - 생성된 응답은 동의대학교 화학환경공학부에 대한 질문에 적절하게 관련된 정보를 제공하고 있습니다. 그러나 원본 텍스트의 특정 세부사항을 완전히 반영하지는 않기 때문에 점수를 약간 낮추었습니다.
+4. Fluency Score (1-5): 4
+   - 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 구조를 가지고 있습니다. 그러나 일부 문장이 다소 복잡하게 구성되어 있어 약간의 유창성 저하가 있습니다.
+5. Coherence Score (1-5): 4
+   - 생성된 응답은 논리적으로 잘 구성되어 있으며, 각 항목이 명확하게 연결되어 있습니다. 그러나 일부 정보가 원본 텍스트와 다르게 제시되어 있어 완전한 일관성을 보장하지는 않습니다.
+6. Accuracy Score (1-5): 3
+   - 생성된 응답은 일부 정확한 정보를 포함하고 있지만, 원본 텍스트의 구체적인 수치와 비교할 때 정확성이 떨어집니다. 성적 환산에 대한 추정치가 제공되지만, 이는 원본 텍스트의 정보와 일치하지 않습니다.
+7. Multidimensional Quality Score (1-5): 3
+   - 생성된 응답은 여러 차원에서 평균적인 품질을 보이지만, 사실성과 일관성에서 다소 부족함이 있어 전반적인 점수를 낮추었습니다.
+8. Semantic Appropriateness Score (1-5): 4
+   - 생성된 응답은 원본 텍스트의 의미와 맥락에 적절하게 부합합니다. 그러나 일부 세부사항이 다르게 표현되어 있어 완전한 적합성은 아닙니다.
+9. Understandability Score (1-5): 4
+   - 생성된 응답은 전반적으로 이해하기 쉽고 명확하게 작성되었습니다. 그러나 일부 복잡한 문장 구조로 인해 약간의 혼란을 줄 수 있습니다.
+{
+    "Factuality Score": 3,
+    "Consistency Score": 3,
+    "Relevance Score": 4,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 3,
+    "Multidimensional Quality Score": 3,
+    "Semantic Appropriateness Score": 4,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C299" t="n">
+        <v>0.6838237262201021</v>
+      </c>
+      <c r="D299" t="inlineStr">
+        <is>
+          <t>동의대 화학환경공학부 원서접수 했습니다. 동의대식 정시 성적 4.25인데 수능 일반학생전형으로 가능하나요?</t>
+        </is>
+      </c>
+      <c r="E299" t="inlineStr">
+        <is>
+          <t>2024년 동의대학교 화학공학과(화학공학과, 환경공학과, 응용화학과)는 수능 일반학생전형을 통해 모집하고 있습니다. 성적 산출방법은 다음과 같습니다:
+- 국어 + 수학 + 영어 등급점수 + 탐구 표준점수
+- 또는 (수학(미적분 또는 기하) 응시자는 수학 표준점수 x 0.1 추가)
+당신의 동의대식 정시 성적이 4.25라면, 이는 수능 점수로 환산하면 대략 426-430 정도 됩니다.
+화학환경공학부의 경우 모집인원과 지원 인원이 다음과 같습니다:
+- 화학공학과: 모집인원 15명, 지원인원 24명
+- 환경공학과: 모집인원 15명, 지원인원 24명
+- 응용화학과: 모집인원 15명, 지원인원 24명
+이러한 정보를 바탕으로 다음과 같은 결론을 내릴 수 있습니다:
+1. 경쟁률은 높지 않으나, 정확한 합격 가능성을 판단하기 위해서는 최종 등록자들의 성적 분포와 비교해야 합니다.
+2. 평균적으로 지원자의 성적이 4.25 정도라면 충분히 합격 가능성은 있습니다만, 경쟁률과 지원 인원이 많아서 정확한 예측은 어렵습니다.
+3. 수능 점수를 최대한 높이는 것이 중요하며, 추가적인 실기나 특기사항 등도 고려해야 합니다.
+4. 동의대학교는 실기/실적 전형을 통해 일부 학생들을 선발하기도 하므로, 실기 성적이 좋다면 더 좋은 결과를 얻을 수 있습니다.
+결론적으로 4.25 정도의 성적은 화학환경공학부에 지원하는 데 충분하지만, 최종 합격 여부는 경쟁률과 지원자의 성적 분포 등 다양한 요인에 따라 결정됩니다. 따라서 추가적인 정보 수집과 준비가 필요합니다.</t>
+        </is>
+      </c>
+      <c r="F299" t="inlineStr">
+        <is>
+          <t>동의대학교 화학환경공학부의 수능 일반학생전형 최초합격자 데이터를 바탕으로 판단해보겠습니다.
+- 국어 + 수학 + 탐구(2개) (가산점 포함) 표준 변환 점수 합 평균: 276.61
+- 영어 등급 평균: 4.70
+- 수능 4개 영역 등급 평균: 5.59
+- 수능 4개 영역 (가산점 포함) 표준 변환 점수 합 평균: 385.99
+귀하의 성적 4.25는 최초합격자의 평균값보다 높으므로 합격 가능성이 높은 것으로 판단됩니다.
+자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="300">
+      <c r="A300" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B300" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 4
+   - 생성된 응답은 영화학과의 평균 성적과 관련된 정보를 정확하게 반영하고 있으며, 합격 가능성에 대한 논의도 적절합니다. 그러나 "4.0 이상의 수능 점수"라는 언급은 원문에서 제공된 4.2 점수와의 직접적인 비교가 부족하여 약간의 부정확성이 있습니다.
+2. Consistency Score (1-5): 4
+   - 생성된 응답은 원문에서 제공된 정보와 일관되며, 영화학과의 전형 방식과 관련된 추가 정보를 제공합니다. 그러나 일부 내용은 원문에서 명시된 평균 성적과의 직접적인 연관성이 부족할 수 있습니다.
+3. Relevance Score (1-5): 5
+   - 생성된 응답은 원문에서 제시된 질문과 관련된 모든 주요 포인트를 다루고 있으며, 합격 가능성에 대한 정보를 잘 전달하고 있습니다.
+4. Fluency Score (1-5): 4
+   - 생성된 응답은 전반적으로 문법적으로 올바르며 읽기 쉽습니다. 그러나 일부 문장은 다소 복잡하게 구성되어 있어 약간의 유창성 저하가 있을 수 있습니다.
+5. Coherence Score (1-5): 4
+   - 생성된 응답은 논리적으로 잘 구성되어 있으며, 각 포인트가 명확하게 연결되어 있습니다. 그러나 일부 부분에서 더 명확한 연결이 필요할 수 있습니다.
+6. Accuracy Score (1-5): 4
+   - 생성된 응답은 원문에서 제공된 데이터와 잘 일치하지만, "4.0 이상의 수능 점수"라는 언급이 원문에서의 4.2 점수와의 직접적인 비교가 부족하여 약간의 부정확성이 있습니다.
+7. Multidimensional Quality Score (1-5): 4
+   - 생성된 응답은 전반적으로 높은 품질을 유지하고 있으며, 사실성, 일관성, 관련성, 정확성 등 여러 차원에서 잘 수행되고 있습니다.
+8. Semantic Appropriateness Score (1-5): 4
+   - 생성된 응답은 원문과의 의미적 일치가 높지만, 일부 표현이 원문에서의 맥락과 완전히 일치하지 않을 수 있습니다.
+9. Understandability Score (1-5): 4
+   - 생성된 응답은 전반적으로 이해하기 쉽지만, 일부 문장이 복잡하게 구성되어 있어 약간의 혼란을 줄 수 있습니다.
+{
+    "Factuality Score": 4,
+    "Consistency Score": 4,
+    "Relevance Score": 5,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 4,
+    "Multidimensional Quality Score": 4,
+    "Semantic Appropriateness Score": 4,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C300" t="n">
+        <v>0.6703707653154157</v>
+      </c>
+      <c r="D300" t="inlineStr">
+        <is>
+          <t>이번에 정시전형으로 영화학과 지원했습니다. 정시 성적이 4.2정도 나왔는데 합격 할 수 있을까요?</t>
+        </is>
+      </c>
+      <c r="E300" t="inlineStr">
+        <is>
+          <t>4.0 이상의 수능 점수를 받으셨다면, 영화학과의 경쟁률이 상대적으로 낮은 편이라는 점을 고려할 때 합격 가능성은 있습니다. 하지만 정확한 합격 여부는 여러 요소에 따라 달라질 수 있으므로 다음과 같은 점들을 참고하시기 바랍니다:
+1. **전형 방식**: 영화학과의 경우, 실기/실적 위주 전형일 가능성이 높습니다. 따라서 수능 성적이 좋은 만큼 실기 부분도 잘 준비해야 합니다.
+2. **수능 성적 평균**: 제공된 데이터를 보면, 영화학과의 최종 등록자들의 국어 + 수학 + 탐구(2개) (가산점 포함) 표준 변환 점수 합의 평균은 286.77입니다. 이보다 높으신 점수이므로 경쟁력이 있습니다.
+3. **영어 등급**: 영화학과에서는 영어 등급도 고려할 수 있으니, 3.66이라는 평균을 상회하신 점은 장점으로 작용할 수 있습니다.
+4. **실기 성적**: 실기 부분의 성적이 중요합니다. 이 부분에서 좋은 결과를 얻어야 합니다.
+5. **전형 요소 비율**: 영화학과는 실기/실적 위주 전형일 가능성이 높으므로, 실기 성적이 합격에 큰 영향을 미칠 수 있습니다.
+6. **경쟁률**: 현재 제공된 데이터에서 2.20의 경쟁률이 있으니, 이보다 낮은 점수를 받으신 분들도 있을 수 있습니다.
+결론적으로, 수능 성적만으로는 확실한 합격을 보장할 수 없습니다. 실기 성적이 좋다면 합격 가능성은 높아질 것입니다. 따라서 실기를 잘 준비하고, 입학사정관의 평가를 받을 때도 좋은 모습을 보여주셔야 합니다.
+추가적으로, 입학사정관들이 중요하게 볼 수 있는 요소는 창의성과 표현력이므로, 이 부분에서도 자신만의 독특한 점을 잘 부각시켜보세요.</t>
+        </is>
+      </c>
+      <c r="F300" t="inlineStr">
+        <is>
+          <t>영화학과의 2024학년도 수능(일반학생전형) 최종등록자의 평균 성적을 보면 다음과 같습니다:
+- 국어 + 수학 + 탐구(2개) (가산점 포함) 표준 변환 점수 합: 286.77 (표준 편차: 17.29)
+- 영어 등급: 3.66 (표준 편차: 1.24)
+- 수능 4개 영역 등급: 5.04 (표준 편차: 0.76)
+- 수능 4개 영역 (가산점 포함) 표준 변환 점수 합: 404.43 (표준 편차: 27.09)
+이를 통해, 귀하의 정시 성적이 4.2정도라면 영화학과에 합격할 가능성이 존재한다고 판단됩니다.
+자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="301">
+      <c r="A301" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B301" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 4
+   - 설명: 생성된 응답은 면접 절차를 정확하게 나열하고 있으며, 추가적으로 "이 절차는 모든 면접 형태에서 동일하게 적용됩니다."라는 문장이 포함되어 있습니다. 이 문장은 일반적인 사실로 보이지만, 모든 면접 형태에 적용된다는 주장은 다소 일반화된 표현이므로 완전한 정확성은 아닙니다.
+2. Consistency Score (1-5): 4
+   - 설명: 생성된 응답은 원본 텍스트와 일관되게 면접 절차를 나열하고 있습니다. 그러나 추가된 문장이 원본 텍스트의 내용과 약간의 차이를 보이므로 완전한 일관성은 아닙니다.
+3. Relevance Score (1-5): 5
+   - 설명: 생성된 응답은 원본 텍스트의 주제와 관련이 깊으며, 면접 절차에 대한 정보를 직접적으로 다루고 있습니다.
+4. Fluency Score (1-5): 5
+   - 설명: 생성된 응답은 문법적으로 정확하고 자연스럽게 읽히며, 전반적으로 유창합니다.
+5. Coherence Score (1-5): 4
+   - 설명: 생성된 응답은 논리적으로 잘 구성되어 있으나, 추가된 문장이 원본 텍스트의 흐름과 약간의 차이를 보이므로 완전한 일관성은 아닙니다.
+6. Accuracy Score (1-5): 4
+   - 설명: 면접 절차에 대한 정보는 정확하지만, 모든 면접 형태에 적용된다는 주장은 다소 일반화된 표현이므로 완전한 정확성은 아닙니다.
+7. Multidimensional Quality Score (1-5): 4
+   - 설명: 생성된 응답은 여러 차원에서 잘 수행되고 있으나, 일부 세부 사항에서 완전한 일관성이나 정확성을 결여하고 있습니다.
+8. Semantic Appropriateness Score (1-5): 4
+   - 설명: 생성된 응답은 원본 텍스트의 의미와 맥락에 적절하게 부합하지만, 추가된 문장이 다소 일반화된 표현이므로 완전한 적절성은 아닙니다.
+9. Understandability Score (1-5): 5
+   - 설명: 생성된 응답은 명확하고 이해하기 쉬우며, 정보가 잘 전달됩니다.
+{
+    "Factuality Score": 4,
+    "Consistency Score": 4,
+    "Relevance Score": 5,
+    "Fluency Score": 5,
+    "Coherence Score": 4,
+    "Accuracy Score": 4,
+    "Multidimensional Quality Score": 4,
+    "Semantic Appropriateness Score": 4,
+    "Understandability Score": 5
+}</t>
+        </is>
+      </c>
+      <c r="C301" t="n">
+        <v>0.8489562279508704</v>
+      </c>
+      <c r="D301" t="inlineStr">
+        <is>
+          <t>면접 절차를 알려줘.</t>
+        </is>
+      </c>
+      <c r="E301" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 면접 절차는 다음과 같습니다:
+1. 대기실 입실
+2. 신분 확인
+3. 고사장 앞 이동
+4. 고사장 입실
+5. 지원동기 및 학업계획 발표
+6. 학업역량, 전공적합성 관련 공통문항 발표 및 질의응답
+7. 기타 질의응답 (제출서류 진위 여부 등)
+8. 퇴실
+이 절차는 모든 면접 형태에서 동일하게 적용됩니다.</t>
+        </is>
+      </c>
+      <c r="F301" t="inlineStr">
+        <is>
+          <t>면접 절차는 다음과 같습니다:
+1. 대기실 입실
+2. 신분 확인
+3. 고사장 앞 이동
+4. 고사장 입실
+5. 지원동기 및 학업계획 발표
+6. 학업역량, 전공적합성 관련 공통문항 발표 및 질의응답
+7. 기타 질의응답(제출서류 진위 여부 등)
+8. 퇴실</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/deuChatbot/research_result/version_2(2500_400).xlsx
+++ b/deuChatbot/research_result/version_2(2500_400).xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F301"/>
+  <dimension ref="A1:F402"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -21058,6 +21058,6895 @@
         </is>
       </c>
     </row>
+    <row r="302">
+      <c r="A302" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B302" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 4
+   - 설명: 생성된 응답은 원본 텍스트의 주요 사실을 잘 반영하고 있지만, "각각 기초디자인과 사고의 전환이라는 두 가지 종목 중 하나를 선택하여 응시하게 됩니다."라는 문장은 원본 텍스트에서 명시된 "각 1개씩 선정하여 연결된 주제를 당일 추첨"이라는 내용을 완전히 반영하지 못하고 있습니다. 따라서 약간의 부정확성이 있습니다.
+2. Consistency Score (1-5): 4
+   - 설명: 생성된 응답은 원본 텍스트와 대체로 일관성을 유지하고 있습니다. 그러나 "각각 기초디자인과 사고의 전환이라는 두 가지 종목 중 하나를 선택하여 응시하게 됩니다."라는 부분이 원본의 내용을 완전히 반영하지 않기 때문에 약간의 불일치가 있습니다.
+3. Relevance Score (1-5): 5
+   - 설명: 생성된 응답은 원본 텍스트의 주요 주제와 내용을 잘 다루고 있으며, 실기시험에 대한 정보가 명확하게 전달되고 있습니다.
+4. Fluency Score (1-5): 5
+   - 설명: 생성된 응답은 문법적으로 정확하고 읽기 쉽게 작성되어 있습니다. 문장 구조와 표현이 자연스럽습니다.
+5. Coherence Score (1-5): 5
+   - 설명: 생성된 응답은 논리적으로 잘 구성되어 있으며, 각 항목이 명확하게 구분되어 있어 일관된 흐름을 유지하고 있습니다.
+6. Accuracy Score (1-5): 4
+   - 설명: 응답은 대부분의 사실을 정확하게 반영하고 있지만, 일부 세부사항에서 원본 텍스트와의 차이가 있어 완전한 정확성에는 미치지 못합니다.
+7. Multidimensional Quality Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 높은 품질을 유지하고 있으나, 일부 사실의 정확성과 일관성에서 약간의 부족함이 있습니다.
+8. Semantic Appropriateness Score (1-5): 5
+   - 설명: 생성된 응답은 원본 텍스트의 의미와 맥락에 잘 부합하며, 적절한 의미를 전달하고 있습니다.
+9. Understandability Score (1-5): 5
+   - 설명: 생성된 응답은 명확하고 이해하기 쉬우며, 정보가 잘 정리되어 있어 독자가 쉽게 이해할 수 있습니다.
+{
+    "Factuality Score": 4,
+    "Consistency Score": 4,
+    "Relevance Score": 5,
+    "Fluency Score": 5,
+    "Coherence Score": 5,
+    "Accuracy Score": 4,
+    "Multidimensional Quality Score": 4,
+    "Semantic Appropriateness Score": 5,
+    "Understandability Score": 5
+}</t>
+        </is>
+      </c>
+      <c r="C302" t="n">
+        <v>0.8464022584508997</v>
+      </c>
+      <c r="D302" t="inlineStr">
+        <is>
+          <t>디자인조형학과의 실기시험에 대해서 설명해줘.</t>
+        </is>
+      </c>
+      <c r="E302" t="inlineStr">
+        <is>
+          <t>디자인조형학과의 실기시험은 시각디자인, 산업디자인, 공예디자인이 모집단위이며, 각각 기초디자인과 사고의 전환이라는 두 가지 종목 중 하나를 선택하여 응시하게 됩니다.
+1. **종목별 배점**:
+   - 기초디자인: 700점 (70%)
+   - 사고의 전환: 700점 (70%)
+2. **준비물**:
+   - 볼펜
+   - 연필
+   - 색연필
+   - 수채물감 등 표현에 필요한 도구
+3. **실기주제**:
+   - 주제A와 주제B에서 각 1개씩 선정하여 연결된 주제를 당일 추첨으로 결정합니다.
+     - 예시: 잠자리와 저울 (주제A), 콜라병과 계절 (주제B)
+4. **화지크기**:
+   - 켄트지3절
+5. **시험시간**:
+   - 5시간
+이러한 절차를 통해 디자인조형학과의 실기시험을 응시하게 됩니다.</t>
+        </is>
+      </c>
+      <c r="F302" t="inlineStr">
+        <is>
+          <t>디자인조형학과의 실기시험에 대한 정보는 다음과 같습니다:
+ 모집단위 및 실기종목
+- 모집단위: 시각디자인, 산업디자인, 공예디자인
+- 실기종목: 기초디자인, 사고의 전환
+종목별 배점(비율)
+- 배점 : 700점 (70%)
+실기종목별 준비물, 실기주제, 화지크기 및 시험시간
+1. 기초디자인
+- 준비물 : 볼펜, 연필, 색연필, 수채물감 등 표현에 필요한 도구
+- 실기주제 : 주제A, 주제B에서 각 1개씩 선정하여 연결된 주제를 당일 추첨 (예시: 잠자리와 저울)
+- 주제A: 잠자리, 무궁화, 피망, 고양이, 양파, 달팽이, 오렌지
+- 주제B: 악보, 줄자, 스카치테이프, 자물쇠, 반코팅장갑, 저울, 얼음
+- 조건: 제공된 사물과 이미지 이외의 형상은 표현하지 마시오. 제공된 사물은 모두 1회 이상 표현하시오. 제공된 사물의 색상은 변경하지 마시오.
+- 화지크기 : 켄트지 3절
+- 시험시간 : 5시간
+2.사고의 전환
+- 준비물: 볼펜, 연필, 색연필, 수채물감 등 표현에 필요한 도구
+- 실기주제 : 주제A, 주제B에서 각 1개씩 선정하여 연결된 주제를 당일 추첨 (예시: 콜라병과 계절)
+- 주제A: 콜라병, 포카리스웨트(캔), 마스크, 시계, 맥가이버 칼
+- 주제B: 바이러스, 자유, 여행, 계절, 꿈
+- 화지크기: 켄트지 2절
+- 시험시간: 5시간
+이와 같은 정보는 디자인조형학과 실기시험을 준비하는 데 중요한 요소들입니다. 추가적인 정보나 문의사항이 있다면 "https://ipsi.deu.ac.kr/main.do"를 방문하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="303">
+      <c r="A303" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B303" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 4
+   - 설명: 생성된 응답은 실기종목, 준비물, 실기주제, 화지크기, 시간에 대한 주요 정보를 포함하고 있으며, 대부분의 사실이 정확하게 반영되어 있습니다. 그러나 주제A와 주제B의 구체적인 항목이 누락되어 있어 완전한 정보 제공에는 부족함이 있습니다.
+2. Consistency Score (1-5): 4
+   - 설명: 생성된 응답은 원본 텍스트와 일관되게 정보를 제공하고 있습니다. 실기종목과 준비물, 화지크기, 시간에 대한 내용이 일치하지만, 실기주제에 대한 구체적인 예시가 부족하여 약간의 일관성 저하가 있습니다.
+3. Relevance Score (1-5): 5
+   - 설명: 생성된 응답은 원본 텍스트의 주요 주제와 관련된 정보를 잘 다루고 있으며, 질문에 대한 직접적인 답변을 제공합니다.
+4. Fluency Score (1-5): 5
+   - 설명: 생성된 응답은 문법적으로 정확하고 자연스럽게 읽히며, 문장 구조도 잘 구성되어 있습니다.
+5. Coherence Score (1-5): 5
+   - 설명: 생성된 응답은 논리적으로 잘 구성되어 있으며, 각 정보가 자연스럽게 연결되어 있습니다.
+6. Accuracy Score (1-5): 4
+   - 설명: 생성된 응답은 대부분의 사실이 정확하지만, 주제A와 주제B의 구체적인 항목이 누락되어 있어 정확성에서 약간의 부족함이 있습니다.
+7. Multidimensional Quality Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 높은 품질을 보이며, 사실성, 일관성, 관련성, 유창성, 일관성에서 좋은 점수를 받았습니다. 그러나 일부 세부사항의 누락으로 인해 완벽하지는 않습니다.
+8. Semantic Appropriateness Score (1-5): 5
+   - 설명: 생성된 응답은 원본 텍스트의 의미와 맥락에 잘 부합하며, 적절한 의미를 전달하고 있습니다.
+9. Understandability Score (1-5): 5
+   - 설명: 생성된 응답은 명확하고 이해하기 쉬우며, 정보가 잘 전달되고 있습니다.
+{
+    "Factuality Score": 4,
+    "Consistency Score": 4,
+    "Relevance Score": 5,
+    "Fluency Score": 5,
+    "Coherence Score": 5,
+    "Accuracy Score": 4,
+    "Multidimensional Quality Score": 4,
+    "Semantic Appropriateness Score": 5,
+    "Understandability Score": 5
+}</t>
+        </is>
+      </c>
+      <c r="C303" t="n">
+        <v>0.823517254451792</v>
+      </c>
+      <c r="D303" t="inlineStr">
+        <is>
+          <t>디자인조형학과의 실기종목과 준비물, 실기주제, 화지크기, 시간에 대해서 알려줘.</t>
+        </is>
+      </c>
+      <c r="E303" t="inlineStr">
+        <is>
+          <t>디자인조형학과의 실기종목은 기초디자인 또는 사고의 전환입니다. 준비물로는 볼펜, 연필, 색연필, 수채물감 등 표현에 필요한 도구가 필요합니다.
+실기주제는 주제A와 주제B에서 각 1개씩 선정하여 연결된 주제를 당일 추첨으로 결정합니다. 예시로 잠자리와 저울을 연결하는 경우가 있습니다.
+화지크기는 켄트지3절이며, 시간은 5시간입니다.</t>
+        </is>
+      </c>
+      <c r="F303" t="inlineStr">
+        <is>
+          <t>디자인조형학과의 실기종목, 준비물, 실기주제, 화지크기, 시간에 대한 정보는 다음과 같습니다:
+1.실기종목: 기초디자인
+- 준비물: 볼펜, 연필, 색연필, 수채물감 등 표현에 필요한 도구
+- 실기주제: 주제A, 주제B에서 각 1개씩 선정하여 연결된 주제를 당일 추첨 (예시: 잠자리와 저울)
+- 주제A: 잠자리, 무궁화, 피망, 고양이, 양파, 달팽이, 오렌지
+- 주제B: 악보, 줄자, 스카치테이프, 자물쇠, 반코팅장갑, 저울, 얼음
+- 조건: 제공된 사물과 이미지 이외의 형상은 표현하지 마시오. 제공된 사물은 모두 1회 이상 표현하시오. 제공된 사물의 색상은 변경하지 마시오.
+- 화지크기: 켄트지 3절
+- 시간: 5시간
+2.실기종목: 사고의 전환
+- 준비물: 볼펜, 연필, 색연필, 수채물감 등 표현에 필요한 도구
+- 실기주제: 주제A, 주제B에서 각 1개씩 선정하여 연결된 주제를 당일 추첨 (예시: 콜라병과 계절)
+- 주제A: 콜라병, 포카리스웨트(캔), 마스크, 시계, 맥가이버 칼
+- 주제B: 바이러스, 자유, 여행, 계절, 꿈
+- 화지크기: 켄트지 2절
+- 시간: 5시간</t>
+        </is>
+      </c>
+    </row>
+    <row r="304">
+      <c r="A304" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B304" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 모든 사실을 정확하게 반영하고 있으며, 대회 목록과 관련된 정보가 일치합니다.
+2. Consistency Score (1-5): 5
+   - 생성된 응답은 원본 텍스트와 일관되며, 대회에 대한 정보가 서로 충돌하지 않고 잘 연결되어 있습니다.
+3. Relevance Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 주요 주제와 관련이 있으며, 대회 목록을 직접적으로 다루고 있습니다.
+4. Fluency Score (1-5): 5
+   - 생성된 응답은 문법적으로 정확하고 읽기 쉬우며, 자연스러운 표현을 사용하고 있습니다.
+5. Coherence Score (1-5): 5
+   - 생성된 응답은 논리적으로 잘 구성되어 있으며, 각 대회에 대한 설명이 명확하게 연결되어 있습니다.
+6. Accuracy Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 모든 사실을 정확하게 반영하고 있으며, 정보의 정확성이 높습니다.
+7. Multidimensional Quality Score (1-5): 5
+   - 생성된 응답은 사실성, 일관성, 관련성, 정확성 등 모든 품질 차원에서 우수한 성과를 보이고 있습니다.
+8. Semantic Appropriateness Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 의미와 맥락에 완전히 부합하며, 적절한 의미를 전달하고 있습니다.
+9. Understandability Score (1-5): 5
+   - 생성된 응답은 매우 명확하고 이해하기 쉬우며, 정보가 잘 전달됩니다.
+{
+    "Factuality Score": 5,
+    "Consistency Score": 5,
+    "Relevance Score": 5,
+    "Fluency Score": 5,
+    "Coherence Score": 5,
+    "Accuracy Score": 5,
+    "Multidimensional Quality Score": 5,
+    "Semantic Appropriateness Score": 5,
+    "Understandability Score": 5
+}</t>
+        </is>
+      </c>
+      <c r="C304" t="n">
+        <v>0.9143710108962284</v>
+      </c>
+      <c r="D304" t="inlineStr">
+        <is>
+          <t>경기지도학과 모집종목별 인정대회에는 어떤 대회들이 있는지 알려줘.</t>
+        </is>
+      </c>
+      <c r="E304" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 경기지도학과 모집종목별 인정대회에는 다음과 같은 대회가 있습니다.
+배드민턴(남)의 경우:
+- 한국중·고연맹회장기전국학생선수권대회
+- 대한배드민턴협회장기전국종별배드민턴선수권대회 
+- 전국학교대항배드민턴선수권대회
+- 전국종별배드민턴선수권대회
+- 전국연맹종별배드민턴선수권대회
+- 전국체육대회
+- 각종국제대회 (주니어국제대회)
+- 광역시·도 협회장기 종별대회
+축구(남)의 경우:
+- 춘계한국고등학교축구연맹전
+- 추계한국고등학교축구연맹전
+- 대한축구협회장배전국고등학교축구대회
+- 문화체육관광부장관기전국고등학교축구대회
+- 백운기전국고등학교축구대회
+- 전국고등축구리그(권역별고교축구리그)
+- 전국고등축구리그왕중왕전
+- 무학기전국고등학교축구대회
+- 청룡기전국고등학교축구대회
+- 백록기전국고등학교축구대회
+- 금강대기전국고등학교축구대회
+- 대통령금배전국고등학교축구대회
+- 금석배전국고등학생축구대회
+- 부산MBC전국고등학생축구대회
+- K리그 U18 챔피언십
+- K리그 U18 챔피언십왕중왕전
+이러한 대회의 성적을 기반으로 학생들의 경기실적이 평가됩니다.</t>
+        </is>
+      </c>
+      <c r="F304" t="inlineStr">
+        <is>
+          <t>경기지도학과 모집종목별 인정대회는 다음과 같습니다:
+배드민턴(남)
+- 한국중·고연맹회장기전국학생선수권대회
+- 대한배드민턴협회장기전국종별배드민턴선수권대회
+- 전국학교대항배드민턴선수권대회
+- 전국종별배드민턴선수권대회
+- 전국연맹종별배드민턴선수권대회
+- 전국체육대회
+- 각종국제대회
+- 주니어국제대회(국가대표팀, 주니어팀 소속으로 출전한 대회만 인정)
+- 광역시·도 협회장기 종별대회
+축구(남)
+- 춘계한국고등학교축구연맹전
+- 추계한국고등학교축구연맹전
+- 대한축구협회장배전국고등학교축구대회
+- 문화체육관광부장관기전국고등학교축구대회
+- 문화체육관광부장관배전국고등학교축구대회
+- 백운기전국고등학교축구대회
+- 전국고등축구리그(권역별고교축구리그)
+- 전국고등축구리그왕중왕전
+- 무학기전국고등학교축구대회
+- 청룡기전국고등학교축구대회
+- 백록기전국고등학교축구대회
+- 금강대기전국고등학교축구대회
+- 대통령금배전국고등학교축구대회
+- 금석배전국고등학생축구대회
+- 부산MBC전국고등학생축구대회
+- K리그 U18 챔피언십
+- K리그 U18 챔피언십왕중왕전</t>
+        </is>
+      </c>
+    </row>
+    <row r="305">
+      <c r="A305" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B305" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 모든 사실을 정확하게 반영하고 있습니다. 주제A와 주제B의 내용, 그리고 시험 당일의 주제 선정 방식이 모두 일치합니다.
+2. Consistency Score (1-5): 5
+   - 생성된 응답은 원본 텍스트와 일관되며, 정보의 충돌이나 모순이 없습니다. 모든 내용이 원본과 동일하게 유지되고 있습니다.
+3. Relevance Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 주요 주제와 관련이 깊습니다. 기초디자인 실기시험의 주제에 대한 정보를 직접적으로 다루고 있습니다.
+4. Fluency Score (1-5): 5
+   - 생성된 응답은 문법적으로 정확하고, 문장 구조가 매끄럽습니다. 읽기에도 자연스럽고 이해하기 쉽습니다.
+5. Coherence Score (1-5): 5
+   - 생성된 응답은 논리적으로 잘 구성되어 있으며, 정보의 흐름이 일관됩니다. 각 문장이 서로 잘 연결되어 있습니다.
+6. Accuracy Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 모든 사실을 정확하게 반영하고 있으며, 잘못된 정보나 누락된 내용이 없습니다.
+7. Multidimensional Quality Score (1-5): 5
+   - 생성된 응답은 사실성, 일관성, 관련성, 정확성 등 모든 품질 차원에서 우수한 성과를 보이고 있습니다.
+8. Semantic Appropriateness Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 의미와 맥락에 완전히 부합하며, 적절한 의미를 전달하고 있습니다.
+9. Understandability Score (1-5): 5
+   - 생성된 응답은 매우 명확하고 이해하기 쉬우며, 정보가 잘 전달됩니다.
+{
+    "Factuality Score": 5,
+    "Consistency Score": 5,
+    "Relevance Score": 5,
+    "Fluency Score": 5,
+    "Coherence Score": 5,
+    "Accuracy Score": 5,
+    "Multidimensional Quality Score": 5,
+    "Semantic Appropriateness Score": 5,
+    "Understandability Score": 5
+}</t>
+        </is>
+      </c>
+      <c r="C305" t="n">
+        <v>0.8033996403652768</v>
+      </c>
+      <c r="D305" t="inlineStr">
+        <is>
+          <t>디자인조형학과의 기초디자인 실기시험에 있는 주제들을 모두 알려줘.</t>
+        </is>
+      </c>
+      <c r="E305" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 디자인조형학과의 기초디자인 실기시험에서 사용되는 주제들은 다음과 같습니다:
+- 주제A: 잠자리, 무궁화, 피망, 고양이, 양파, 달팽이, 오렌지
+- 주제B: 악보, 줄자, 스카치테이프, 자물쇠, 반코팅장갑, 저울, 얼음
+위의 주제들은 당일 추첨을 통해 각 1개씩 선정되어 연결된 주제를 만들게 됩니다. 예시로는 "잠자리와 저울"과 같은 주제가 만들어질 수 있습니다.</t>
+        </is>
+      </c>
+      <c r="F305" t="inlineStr">
+        <is>
+          <t>디자인조형학과의 기초디자인 실기시험 주제는 다음과 같습니다:
+- 주제A: 잠자리, 무궁화, 피망, 고양이, 양파, 달팽이, 오렌지
+- 주제B: 악보, 줄자, 스카치테이프, 자물쇠, 반코팅장갑, 저울, 얼음
+시험 당일에는 주제A와 주제B에서 각각 1개씩 선정하여 연결된 주제를 추첨하게 됩니다. 예시로는 "잠자리와 저울"이 있습니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="306">
+      <c r="A306" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B306" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 5
+   - 생성된 응답은 출결 점수가 반영되지 않는다는 사실을 정확하게 반영하고 있으며, 추가적인 정보도 사실에 기반하고 있습니다.
+2. Consistency Score (1-5): 5
+   - 생성된 응답은 원문과 일관되며, 출결 점수가 반영되지 않는다는 주장을 일관되게 유지하고 있습니다.
+3. Relevance Score (1-5): 5
+   - 생성된 응답은 원문에서 다루고 있는 주제와 직접적으로 관련이 있으며, 출결 점수의 반영 여부에 대한 질문에 적절히 답변하고 있습니다.
+4. Fluency Score (1-5): 5
+   - 생성된 응답은 문법적으로 정확하고 자연스럽게 읽히며, 이해하기 쉬운 문장 구조를 가지고 있습니다.
+5. Coherence Score (1-5): 5
+   - 생성된 응답은 논리적으로 잘 구성되어 있으며, 원문과의 연결이 명확합니다.
+6. Accuracy Score (1-5): 5
+   - 생성된 응답은 원문에서 제공하는 정보와 일치하며, 정확한 사실을 전달하고 있습니다.
+7. Multidimensional Quality Score (1-5): 5
+   - 생성된 응답은 모든 품질 차원에서 우수한 성과를 보이며, 사실성, 일관성, 관련성, 정확성 모두에서 높은 점수를 기록하고 있습니다.
+8. Semantic Appropriateness Score (1-5): 5
+   - 생성된 응답은 원문의 의미와 맥락에 완전히 부합하며, 적절한 의미를 전달하고 있습니다.
+9. Understandability Score (1-5): 5
+   - 생성된 응답은 매우 명확하고 이해하기 쉬우며, 독자가 쉽게 따라갈 수 있는 구조를 가지고 있습니다.
+{
+    "Factuality Score": 5,
+    "Consistency Score": 5,
+    "Relevance Score": 5,
+    "Fluency Score": 5,
+    "Coherence Score": 5,
+    "Accuracy Score": 5,
+    "Multidimensional Quality Score": 5,
+    "Semantic Appropriateness Score": 5,
+    "Understandability Score": 5
+}</t>
+        </is>
+      </c>
+      <c r="C306" t="n">
+        <v>0.6960616176585341</v>
+      </c>
+      <c r="D306" t="inlineStr">
+        <is>
+          <t>동의대학교 학생부교과 전형에서 출결 점수가 반영되나요?</t>
+        </is>
+      </c>
+      <c r="E306" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 동의대학교 학생부교과 전형에서 출결 점수가 반영되지 않습니다. 관련 정보에 따르면, 모든 전형 요소 반영 비율에서 출결의 비율은 0%입니다.</t>
+        </is>
+      </c>
+      <c r="F306" t="inlineStr">
+        <is>
+          <t>아니요. 학생부 교과 전형에서는 출결 점수가 반영되지 않습니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="307">
+      <c r="A307" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B307" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 내용을 정확하게 반영하고 있으며, 모집 인원과 전형에 대한 정보가 일치합니다.
+2. Consistency Score (1-5): 5
+   - 생성된 응답은 원본 텍스트와 일관되며, 정보의 충돌이나 모순이 없습니다.
+3. Relevance Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 주요 내용을 직접적으로 다루고 있어 매우 관련성이 높습니다.
+4. Fluency Score (1-5): 5
+   - 생성된 응답은 문법적으로 정확하고 자연스럽게 읽히며, 유창합니다.
+5. Coherence Score (1-5): 5
+   - 생성된 응답은 논리적으로 잘 구성되어 있으며, 일관된 흐름을 유지하고 있습니다.
+6. Accuracy Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 사실을 정확하게 반영하고 있습니다.
+7. Multidimensional Quality Score (1-5): 5
+   - 생성된 응답은 모든 품질 차원에서 우수한 성능을 보이고 있습니다.
+8. Semantic Appropriateness Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 의미와 맥락에 완전히 부합합니다.
+9. Understandability Score (1-5): 5
+   - 생성된 응답은 매우 명확하고 이해하기 쉬운 내용으로 구성되어 있습니다.
+{
+    "Factuality Score": 5,
+    "Consistency Score": 5,
+    "Relevance Score": 5,
+    "Fluency Score": 5,
+    "Coherence Score": 5,
+    "Accuracy Score": 5,
+    "Multidimensional Quality Score": 5,
+    "Semantic Appropriateness Score": 5,
+    "Understandability Score": 5
+}</t>
+        </is>
+      </c>
+      <c r="C307" t="n">
+        <v>0.9277287345780394</v>
+      </c>
+      <c r="D307" t="inlineStr">
+        <is>
+          <t>인문사회과학대학의 국어국문학과에서 가군 일반학생 전형으로 몇 명을 모집하나요?</t>
+        </is>
+      </c>
+      <c r="E307" t="inlineStr">
+        <is>
+          <t>2024년 인문사회과학대학의 국어국문학과에서 가군 일반학생전형으로는 17명을 모집합니다.</t>
+        </is>
+      </c>
+      <c r="F307" t="inlineStr">
+        <is>
+          <t>인문사회과학대학의 국어국문학과에서 가군 일반학생 전형으로 17명을 모집합니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="308">
+      <c r="A308" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B308" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 4
+   - 설명: 생성된 응답은 모집 인원인 28명을 정확하게 언급하고 있으며, 다군 일반학생 전형을 통해 선발된다는 사실도 반영하고 있습니다. 그러나 "교직"이라는 추가 정보는 원본 텍스트에 명시되어 있지 않으므로 약간의 부정확성이 있습니다.
+2. Consistency Score (1-5): 3
+   - 설명: 생성된 응답은 원본 텍스트의 주요 내용을 반영하고 있지만, "교직"이라는 추가 정보가 포함되어 있어 일관성이 떨어질 수 있습니다. 원본 텍스트와의 일관성이 완벽하지 않습니다.
+3. Relevance Score (1-5): 5
+   - 설명: 생성된 응답은 원본 텍스트의 핵심 주제인 모집 인원과 전형에 대해 직접적으로 언급하고 있어 매우 관련성이 높습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 구조를 가지고 있습니다. 다만, 약간의 어색한 표현이 있을 수 있습니다.
+5. Coherence Score (1-5): 4
+   - 설명: 생성된 응답은 논리적으로 잘 구성되어 있으며, 정보가 명확하게 전달됩니다. 그러나 "교직"이라는 추가 정보가 혼란을 줄 수 있습니다.
+6. Accuracy Score (1-5): 4
+   - 설명: 모집 인원과 전형에 대한 정보는 정확하지만, "교직"이라는 정보는 원본 텍스트에 포함되어 있지 않아 정확성에 약간의 문제가 있습니다.
+7. Multidimensional Quality Score (1-5): 4
+   - 설명: 전반적으로 생성된 응답은 여러 차원에서 좋은 성과를 보이고 있지만, 일부 부정확성과 일관성 문제로 인해 완벽하지는 않습니다.
+8. Semantic Appropriateness Score (1-5): 4
+   - 설명: 생성된 응답은 원본 텍스트의 의미와 맥락에 잘 맞지만, "교직"이라는 추가 정보가 의미적으로 적절하지 않을 수 있습니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 이해하기 쉽고 명확하게 전달되지만, 일부 정보가 혼란을 줄 수 있습니다.
+{
+    "Factuality Score": 4,
+    "Consistency Score": 3,
+    "Relevance Score": 5,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 4,
+    "Multidimensional Quality Score": 4,
+    "Semantic Appropriateness Score": 4,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C308" t="n">
+        <v>0.6812667748723151</v>
+      </c>
+      <c r="D308" t="inlineStr">
+        <is>
+          <t>인문사회과학대학의 영어영문학과에서 다군 일반학생 전형으로 몇 명을 모집하나요?</t>
+        </is>
+      </c>
+      <c r="E308" t="inlineStr">
+        <is>
+          <t>28명을 모집합니다.
+인문사회과학대학의 영어영문학과는 다군 수능(일반학생전형)으로 모집하며, 해당 모집단위 및 모집인원에서 인문사회과학대학, 영어영문학과 - 교직으로 28명을 모집하고 있습니다.</t>
+        </is>
+      </c>
+      <c r="F308" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 인문사회과학대학 영어영문학과의 경우, 다군 일반학생 전형을 통해 총 28명의 신입생을 선발합니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="309">
+      <c r="A309" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B309" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 내용을 정확하게 반영하고 있으며, 모집 인원에 대한 정보가 일치합니다.
+2. Consistency Score (1-5): 5
+   - 생성된 응답은 원본 텍스트와 일관되며, 정보의 충돌이나 모순이 없습니다.
+3. Relevance Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 주요 내용을 직접적으로 다루고 있으며, 매우 관련성이 높습니다.
+4. Fluency Score (1-5): 5
+   - 생성된 응답은 문법적으로 정확하고 자연스럽게 읽히며, 유창합니다.
+5. Coherence Score (1-5): 5
+   - 생성된 응답은 논리적으로 잘 구성되어 있으며, 일관된 흐름을 유지하고 있습니다.
+6. Accuracy Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 사실을 정확하게 반영하고 있으며, 오류가 없습니다.
+7. Multidimensional Quality Score (1-5): 5
+   - 생성된 응답은 모든 품질 차원에서 우수한 성능을 보이고 있습니다.
+8. Semantic Appropriateness Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 의미와 맥락에 완전히 부합하며, 적절합니다.
+9. Understandability Score (1-5): 5
+   - 생성된 응답은 매우 명확하고 이해하기 쉬우며, 독자가 쉽게 따라갈 수 있습니다.
+{
+    "Factuality Score": 5,
+    "Consistency Score": 5,
+    "Relevance Score": 5,
+    "Fluency Score": 5,
+    "Coherence Score": 5,
+    "Accuracy Score": 5,
+    "Multidimensional Quality Score": 5,
+    "Semantic Appropriateness Score": 5,
+    "Understandability Score": 5
+}</t>
+        </is>
+      </c>
+      <c r="C309" t="n">
+        <v>0.7773394548845104</v>
+      </c>
+      <c r="D309" t="inlineStr">
+        <is>
+          <t>의료보건생활대학 간호학과 나군 일반학생 전형 모집 인원을 알려줘.</t>
+        </is>
+      </c>
+      <c r="E309" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 의료보건생활대학 간호학과 나군 일반 학생 전형의 정원 내 모집 인원은 22명입니다.</t>
+        </is>
+      </c>
+      <c r="F309" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 의료보건생활대학 간호학과의 경우, 나군 일반학생 전형을 통해 총 22명의 신입생을 선발합니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="310">
+      <c r="A310" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B310" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 내용을 정확하게 반영하고 있으며, 모든 점수와 등급이 일치합니다.
+2. Consistency Score (1-5): 5
+   - 생성된 응답은 원본 텍스트와 일관되며, 정보의 충돌이나 모순이 없습니다.
+3. Relevance Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 주요 주제를 직접적으로 다루고 있으며, 매우 관련성이 높습니다.
+4. Fluency Score (1-5): 5
+   - 생성된 응답은 문법적으로 정확하고, 읽기 쉬운 문장 구조를 가지고 있습니다.
+5. Coherence Score (1-5): 5
+   - 생성된 응답은 논리적으로 잘 구성되어 있으며, 일관된 흐름을 유지하고 있습니다.
+6. Accuracy Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 모든 사실을 정확하게 반영하고 있습니다.
+7. Multidimensional Quality Score (1-5): 5
+   - 생성된 응답은 모든 품질 차원에서 우수한 성능을 보이고 있습니다.
+8. Semantic Appropriateness Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 의미와 맥락에 완전히 부합합니다.
+9. Understandability Score (1-5): 5
+   - 생성된 응답은 매우 명확하고 이해하기 쉬운 내용으로 구성되어 있습니다.
+{
+    "Factuality Score": 5,
+    "Consistency Score": 5,
+    "Relevance Score": 5,
+    "Fluency Score": 5,
+    "Coherence Score": 5,
+    "Accuracy Score": 5,
+    "Multidimensional Quality Score": 5,
+    "Semantic Appropriateness Score": 5,
+    "Understandability Score": 5
+}</t>
+        </is>
+      </c>
+      <c r="C310" t="n">
+        <v>0.9432679787744037</v>
+      </c>
+      <c r="D310" t="inlineStr">
+        <is>
+          <t>수능 영어 등급에 따른 점수를 알려줘.</t>
+        </is>
+      </c>
+      <c r="E310" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 수능 영어 등급에 따른 점수는 다음과 같습니다.
+- 등급 1 : 139점
+- 등급 2 : 131점
+- 등급 3 : 123점
+- 등급 4 : 115점
+- 등급 5 : 107점
+- 등급 6 : 99점
+- 등급 7 : 91점
+- 등급 8 : 83점
+- 등급 9 : 75점</t>
+        </is>
+      </c>
+      <c r="F310" t="inlineStr">
+        <is>
+          <t>수능 영어영역 등급에 따른 점수는 다음과 같습니다:
+- 1등급: 139점
+- 2등급: 131점
+- 3등급: 123점
+- 4등급: 115점
+- 5등급: 107점
+- 6등급: 99점
+- 7등급: 91점
+- 8등급: 83점
+- 9등급: 75점</t>
+        </is>
+      </c>
+    </row>
+    <row r="311">
+      <c r="A311" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B311" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 1
+   - 설명: 생성된 응답은 예술고 학생이 나군 학생부교과 농어촌학생전형으로 지원할 수 있다고 잘못된 정보를 제공하고 있습니다. 원문에서는 예술고 학생이 지원할 수 없다고 명확히 언급하고 있습니다.
+2. Consistency Score (1-5): 1
+   - 설명: 생성된 응답은 원문과 상반된 내용을 담고 있어 일관성이 없습니다. 원문은 예술고 학생이 지원할 수 없다고 명시하고 있는데, 생성된 응답은 지원 가능하다고 주장하고 있습니다.
+3. Relevance Score (1-5): 5
+   - 설명: 생성된 응답은 질문에 대한 직접적인 답변을 제공하고 있으며, 관련된 정보를 포함하고 있습니다. 그러나 그 내용이 사실과 다르기 때문에 유의해야 합니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 문장 구조를 가지고 있습니다. 다만, 내용의 정확성 문제로 인해 신뢰성이 떨어집니다.
+5. Coherence Score (1-5): 4
+   - 설명: 생성된 응답은 논리적으로 연결된 문장으로 구성되어 있으며, 주제에 대한 일관된 흐름을 유지하고 있습니다. 그러나 원문과의 불일치로 인해 전체적인 일관성이 떨어집니다.
+6. Accuracy Score (1-5): 1
+   - 설명: 생성된 응답은 원문에서 제공하는 사실과 완전히 반대되는 내용을 담고 있어 정확성이 매우 낮습니다.
+7. Multidimensional Quality Score (1-5): 1
+   - 설명: 생성된 응답은 사실성, 일관성, 정확성 등 여러 차원에서 매우 낮은 점수를 받습니다. 원문과의 불일치로 인해 전반적인 품질이 저하되었습니다.
+8. Semantic Appropriateness Score (1-5): 1
+   - 설명: 생성된 응답은 원문과 의미적으로 상충하는 내용을 담고 있어 의미적으로 부적절합니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 문법적으로 잘 구성되어 있어 이해하기 쉽지만, 내용의 정확성 문제로 인해 신뢰성이 떨어집니다.
+{
+    "Factuality Score": 1,
+    "Consistency Score": 1,
+    "Relevance Score": 5,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 1,
+    "Multidimensional Quality Score": 1,
+    "Semantic Appropriateness Score": 1,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C311" t="n">
+        <v>0.6733506341062905</v>
+      </c>
+      <c r="D311" t="inlineStr">
+        <is>
+          <t>예술고 학생이 나군 학생부교과 농어촌학생전형으로 지원할 수 있나요?</t>
+        </is>
+      </c>
+      <c r="E311" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 예술고 학생은 나군 학생부교과 농어촌학생전형으로 지원 가능합니다. 하지만 특성화고 교육과정 또는 1년 이상의 직업교육훈련 과정을 이수한 경우에 한해 해당됩니다.
+따라서, 예술고 학생이 나군 학생부교과 농어촌학생전형으로 지원하려면, 특성화고 교육과정 또는 1년 이상의 직업교육훈련 과정을 이수한 경우에만 지원이 가능합니다.</t>
+        </is>
+      </c>
+      <c r="F311" t="inlineStr">
+        <is>
+          <t>아니요, 예술고 학생은 나군 학생부교과 농어촌학생전형으로 지원할 수 없습니다. 지원자격에 따르면 농어촌지역 또는 도서·벽지에 소재한 특수목적고 중 과학고, 국제고, 외국어고, 체육고, 예술고 출신자는 지원할 수 없습니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="312">
+      <c r="A312" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B312" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 2
+   - 설명: 생성된 응답에서 "남은 268~271cm"라는 부분은 사실과 다릅니다. 원본 텍스트에서는 4등급 기록이 218~221 cm로 명확히 제시되어 있습니다. 이로 인해 사실성이 낮아졌습니다.
+2. Consistency Score (1-5): 2
+   - 설명: 생성된 응답은 원본 텍스트와 일치하지 않는 정보를 포함하고 있습니다. "남은 268~271cm"라는 기록은 원본과 상충하며, 이는 일관성을 저해합니다.
+3. Relevance Score (1-5): 5
+   - 설명: 생성된 응답은 원본 텍스트의 주제와 관련이 있으며, 4등급 기록과 배점에 대한 정보를 제공합니다. 따라서 관련성은 높습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 문법적으로 올바르며 읽기 쉽습니다. 그러나 "남은"이라는 표현이 다소 어색하게 느껴질 수 있습니다.
+5. Coherence Score (1-5): 3
+   - 설명: 생성된 응답은 정보가 연결되어 있지만, "남은 268~271cm"라는 부분이 혼란을 초래하여 일관된 흐름을 방해합니다.
+6. Accuracy Score (1-5): 2
+   - 설명: 생성된 응답의 기록 부분에서 잘못된 정보가 포함되어 있어 정확성이 낮습니다. 원본 텍스트의 기록과 배점이 정확히 반영되지 않았습니다.
+7. Multidimensional Quality Score (1-5): 3
+   - 설명: 생성된 응답은 관련성은 높지만, 사실성과 일관성에서 큰 문제를 안고 있어 전반적인 품질이 중간 정도입니다.
+8. Semantic Appropriateness Score (1-5): 3
+   - 설명: 생성된 응답은 의미적으로 적절한 부분도 있지만, 잘못된 정보로 인해 전체적인 의미 전달이 저해됩니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 이해하기 쉽지만, 잘못된 정보로 인해 혼란을 줄 수 있습니다.
+{
+    "Factuality Score": 2,
+    "Consistency Score": 2,
+    "Relevance Score": 5,
+    "Fluency Score": 4,
+    "Coherence Score": 3,
+    "Accuracy Score": 2,
+    "Multidimensional Quality Score": 3,
+    "Semantic Appropriateness Score": 3,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C312" t="n">
+        <v>0.8716118902810458</v>
+      </c>
+      <c r="D312" t="inlineStr">
+        <is>
+          <t>레저스포츠학과 여자 제자리 멀리뛰기 4등급 기록과 배점을 알려줘.</t>
+        </is>
+      </c>
+      <c r="E312" t="inlineStr">
+        <is>
+          <t>레저스포츠학과 여자 제자리 멀리뛰기 4등급의 기록은 남은 268~271cm, 여는 218~221cm이며, 배점은 275점입니다.</t>
+        </is>
+      </c>
+      <c r="F312" t="inlineStr">
+        <is>
+          <t>레저스포츠학과 여자 제자리 멀리뛰기 4등급 기록과 배점은 다음과 같습니다:
+- 기록: 218~221 cm
+- 배점: 275점</t>
+        </is>
+      </c>
+    </row>
+    <row r="313">
+      <c r="A313" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B313" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 1
+   - 설명: 생성된 응답은 출결 반영 비율에 대한 명확한 정보를 제공하지 않고, 오히려 해당 정보를 확인할 수 없다고 언급하고 있습니다. 이는 원본 텍스트의 사실과 상충합니다.
+2. Consistency Score (1-5): 1
+   - 설명: 생성된 응답은 원본 텍스트와 일치하지 않으며, 출결 반영 비율에 대한 정보를 부정하고 있습니다. 따라서 일관성이 없습니다.
+3. Relevance Score (1-5): 2
+   - 설명: 생성된 응답은 원본 텍스트의 주제와 관련이 있지만, 정보가 부족하여 적절한 답변이 아닙니다. 원본 텍스트의 핵심 정보를 다루지 않고 있습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 문법적으로 올바르고 읽기 쉬운 문장으로 구성되어 있습니다. 그러나 정보의 부족으로 인해 완전한 응답으로 느껴지지 않습니다.
+5. Coherence Score (1-5): 3
+   - 설명: 생성된 응답은 논리적으로 연결되어 있지만, 원본 텍스트의 정보와 관련이 없기 때문에 일관된 흐름이 부족합니다.
+6. Accuracy Score (1-5): 1
+   - 설명: 생성된 응답은 원본 텍스트의 사실을 왜곡하고 있으며, 출결 반영 비율에 대한 정확한 정보를 제공하지 않습니다.
+7. Multidimensional Quality Score (1-5): 1
+   - 설명: 생성된 응답은 사실성, 일관성, 관련성, 정확성 등 모든 차원에서 매우 낮은 점수를 받습니다.
+8. Semantic Appropriateness Score (1-5): 2
+   - 설명: 생성된 응답은 원본 텍스트의 의미와 맥락에 부합하지 않으며, 정보가 부족하여 적절하지 않습니다.
+9. Understandability Score (1-5): 3
+   - 설명: 생성된 응답은 문법적으로 이해할 수 있지만, 정보가 부족하여 명확한 이해를 방해합니다.
+{
+    "Factuality Score": 1,
+    "Consistency Score": 1,
+    "Relevance Score": 2,
+    "Fluency Score": 4,
+    "Coherence Score": 3,
+    "Accuracy Score": 1,
+    "Multidimensional Quality Score": 1,
+    "Semantic Appropriateness Score": 2,
+    "Understandability Score": 3
+}</t>
+        </is>
+      </c>
+      <c r="C313" t="n">
+        <v>0.5767342081536544</v>
+      </c>
+      <c r="D313" t="inlineStr">
+        <is>
+          <t>동의대학교 경기지도학과 출결 반영 비율을 알려줘.</t>
+        </is>
+      </c>
+      <c r="E313" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 제공된 정보에서 동의대학교 경기지도학과의 출결 반영 비율에 대한 내용은 확인할 수 없습니다. 추가적인 정보가 필요합니다. 더 자세한 내용을 얻으려면 "https://ipsi.deu.ac.kr/main.do" 웹사이트를 참조해보세요.</t>
+        </is>
+      </c>
+      <c r="F313" t="inlineStr">
+        <is>
+          <t>경기지도학과의 출결 반영 비율은 12%입니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="314">
+      <c r="A314" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B314" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 사실을 정확하게 반영하고 있습니다. 모집 인원과 학과명, 학년도 모두 일치합니다.
+2. Consistency Score (1-5): 5
+   - 생성된 응답은 원본 텍스트와 일관성이 있으며, 정보가 서로 충돌하지 않습니다.
+3. Relevance Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 주요 내용을 직접적으로 다루고 있어 매우 관련성이 높습니다.
+4. Fluency Score (1-5): 5
+   - 생성된 응답은 문법적으로 정확하고 자연스럽게 읽히며, 유창합니다.
+5. Coherence Score (1-5): 5
+   - 생성된 응답은 논리적으로 잘 구성되어 있으며, 일관된 흐름을 가지고 있습니다.
+6. Accuracy Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 모든 사실을 정확하게 반영하고 있습니다.
+7. Multidimensional Quality Score (1-5): 5
+   - 생성된 응답은 모든 품질 차원에서 우수한 성능을 보이고 있습니다.
+8. Semantic Appropriateness Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 의미와 맥락에 완전히 부합합니다.
+9. Understandability Score (1-5): 5
+   - 생성된 응답은 매우 명확하고 이해하기 쉬우며, 독자가 쉽게 따라갈 수 있습니다.
+{
+    "Factuality Score": 5,
+    "Consistency Score": 5,
+    "Relevance Score": 5,
+    "Fluency Score": 5,
+    "Coherence Score": 5,
+    "Accuracy Score": 5,
+    "Multidimensional Quality Score": 5,
+    "Semantic Appropriateness Score": 5,
+    "Understandability Score": 5
+}</t>
+        </is>
+      </c>
+      <c r="C314" t="n">
+        <v>0.9452570864806298</v>
+      </c>
+      <c r="D314" t="inlineStr">
+        <is>
+          <t>동의대 2024학년도 가군에서 물리치료학과에 몇 명을 모집하나요?</t>
+        </is>
+      </c>
+      <c r="E314" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대학교 가군에서 물리치료학과는 4명을 모집합니다.</t>
+        </is>
+      </c>
+      <c r="F314" t="inlineStr">
+        <is>
+          <t>동의대학교 2024학년도 가군에서 물리치료학과는 4명을 모집합니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="315">
+      <c r="A315" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B315" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 날짜 정보를 정확하게 반영하고 있으며, 추가된 정보도 사실에 기반하고 있습니다.
+2. Consistency Score (1-5): 5
+   - 생성된 응답은 원본 텍스트와 일관되며, 날짜와 관련된 정보가 일치합니다.
+3. Relevance Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 주제와 관련된 정보를 제공하며, 실기고사 일정에 대한 질문에 적절하게 답변하고 있습니다.
+4. Fluency Score (1-5): 5
+   - 생성된 응답은 문법적으로 정확하고 자연스럽게 읽히며, 문장 구조도 잘 구성되어 있습니다.
+5. Coherence Score (1-5): 5
+   - 생성된 응답은 논리적으로 잘 연결되어 있으며, 정보가 명확하게 전달됩니다.
+6. Accuracy Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 사실을 정확하게 반영하고 있으며, 추가된 정보도 사실에 기반하고 있습니다.
+7. Multidimensional Quality Score (1-5): 5
+   - 생성된 응답은 모든 품질 차원에서 우수한 성과를 보이고 있습니다.
+8. Semantic Appropriateness Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 의미와 맥락에 적절하게 부합합니다.
+9. Understandability Score (1-5): 5
+   - 생성된 응답은 명확하고 이해하기 쉬우며, 정보가 잘 전달됩니다.
+{
+    "Factuality Score": 5,
+    "Consistency Score": 5,
+    "Relevance Score": 5,
+    "Fluency Score": 5,
+    "Coherence Score": 5,
+    "Accuracy Score": 5,
+    "Multidimensional Quality Score": 5,
+    "Semantic Appropriateness Score": 5,
+    "Understandability Score": 5
+}</t>
+        </is>
+      </c>
+      <c r="C315" t="n">
+        <v>0.4069309753036038</v>
+      </c>
+      <c r="D315" t="inlineStr">
+        <is>
+          <t>2024학년도 나군 실기/실적 전형에서 디자인조형학과의 실기고사 일정은 언제인가요?</t>
+        </is>
+      </c>
+      <c r="E315" t="inlineStr">
+        <is>
+          <t>2024학년도 나군 실기/실적 전형에서 디자인조형학과의 실기고사는 2024. 01. 17.(수)에 있습니다.
+디자인조형학과는 시각디자인, 산업디자인, 공예디자인이 모집단위이며, 실기종목은 기초디자인과 사고의 전환이 있습니다. 각 종목별 배점 비율은 700점(70%)입니다.
+따라서 디자인조형학과의 실기고사는 2024년 1월 17일 수요일에 진행됩니다.</t>
+        </is>
+      </c>
+      <c r="F315" t="inlineStr">
+        <is>
+          <t>2024. 01. 17.(수) 입니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="316">
+      <c r="A316" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B316" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 2
+   - 설명: 생성된 응답은 "수능 최저 학력 기준은 없습니다."라는 사실을 정확히 반영하지 않고 있습니다. 응답은 응용화학과에 대한 수능 최저기준을 확인할 수 없다고 언급하고 있지만, 사실은 기준이 아예 없다는 것입니다. 따라서 사실성 점수는 낮습니다.
+2. Consistency Score (1-5): 2
+   - 설명: 생성된 응답은 원본 텍스트와 일관성이 없습니다. 원본 텍스트는 수능 최저 학력 기준이 없다고 명확히 말하고 있지만, 생성된 응답은 기준이 없다는 점을 간과하고 있습니다. 이로 인해 일관성 점수는 낮습니다.
+3. Relevance Score (1-5): 4
+   - 설명: 생성된 응답은 동의대학교 응용화학과의 수능 최저기준에 대한 질문에 관련된 정보를 제공하고 있습니다. 그러나 원본 텍스트의 핵심 사실을 놓치고 있어 약간의 관련성 부족이 있습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 구조를 가지고 있습니다. 다만, 약간의 어색한 표현이 있을 수 있습니다.
+5. Coherence Score (1-5): 4
+   - 설명: 생성된 응답은 논리적으로 잘 구성되어 있으며, 정보가 일관되게 전달되고 있습니다. 그러나 원본 텍스트와의 연결이 약해져서 완전한 일관성은 부족합니다.
+6. Accuracy Score (1-5): 2
+   - 설명: 생성된 응답은 원본 텍스트의 사실을 정확히 반영하지 않으며, 수능 최저기준이 없다는 점을 명확히 하지 않고 있습니다. 따라서 정확성 점수는 낮습니다.
+7. Multidimensional Quality Score (1-5): 2
+   - 설명: 생성된 응답은 여러 차원에서 낮은 점수를 받고 있으며, 사실성, 일관성, 정확성에서 큰 문제를 보이고 있습니다.
+8. Semantic Appropriateness Score (1-5): 3
+   - 설명: 생성된 응답은 의미적으로 적절하지만, 원본 텍스트의 핵심 사실을 놓치고 있어 의미 전달이 완벽하지 않습니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 이해하기 쉽고 명확하게 작성되어 있습니다. 그러나 원본 텍스트와의 연결이 약해져서 완전한 이해를 방해할 수 있습니다.
+{
+    "Factuality Score": 2,
+    "Consistency Score": 2,
+    "Relevance Score": 4,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 2,
+    "Multidimensional Quality Score": 2,
+    "Semantic Appropriateness Score": 3,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C316" t="n">
+        <v>0.4361358389085618</v>
+      </c>
+      <c r="D316" t="inlineStr">
+        <is>
+          <t>동의대학교의 2024학년도 응용화학과의 수능 최저기준은 어떻게 되나요?</t>
+        </is>
+      </c>
+      <c r="E316" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 제공된 정보에서 동의대학교의 2024학년도 응용화학과에 대한 수능 최저기준을 확인할 수 없습니다. 해당 정보에는 응용화학과와 관련된 데이터가 포함되어 있지 않습니다. 다른 전공이나 학과의 정보만이 제공되어 있습니다.
+더 자세한 정보를 얻으시려면, "https://ipsi. deu. ac. kr/main. do" 웹사이트를 방문하여 확인해 보시는 것이 좋습니다. 해당 사이트에서 동의대학교 응용화학과의 수능 최저기준을 확인하실 수 있을 것입니다.</t>
+        </is>
+      </c>
+      <c r="F316" t="inlineStr">
+        <is>
+          <t>수능 최저 학력 기준은 없습니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="317">
+      <c r="A317" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B317" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 모든 학과를 정확하게 나열하고 있으며, 추가적인 정보도 포함되어 있지 않으므로 사실성이 매우 높습니다.
+2. Consistency Score (1-5): 5
+   - 생성된 응답은 원본 텍스트와 일관되며, 모든 정보가 일치합니다. 따라서 일관성 점수는 최고입니다.
+3. Relevance Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 주제와 관련이 있으며, 신설된 학과에 대한 정보를 직접적으로 다루고 있습니다.
+4. Fluency Score (1-5): 5
+   - 생성된 응답은 문법적으로 정확하고 자연스럽게 읽히며, 유창한 표현을 사용하고 있습니다.
+5. Coherence Score (1-5): 5
+   - 생성된 응답은 논리적으로 잘 구성되어 있으며, 정보의 흐름이 매끄럽습니다.
+6. Accuracy Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 내용을 정확하게 반영하고 있으며, 사실적인 오류가 없습니다.
+7. Multidimensional Quality Score (1-5): 5
+   - 모든 품질 차원에서 생성된 응답은 매우 우수하며, 사실성, 일관성, 관련성, 정확성 모두에서 높은 점수를 받았습니다.
+8. Semantic Appropriateness Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 의미와 맥락에 완전히 부합하며, 적절한 의미를 전달하고 있습니다.
+9. Understandability Score (1-5): 5
+   - 생성된 응답은 매우 명확하고 이해하기 쉬우며, 독자가 쉽게 따라갈 수 있습니다.
+{
+    "Factuality Score": 5,
+    "Consistency Score": 5,
+    "Relevance Score": 5,
+    "Fluency Score": 5,
+    "Coherence Score": 5,
+    "Accuracy Score": 5,
+    "Multidimensional Quality Score": 5,
+    "Semantic Appropriateness Score": 5,
+    "Understandability Score": 5
+}</t>
+        </is>
+      </c>
+      <c r="C317" t="n">
+        <v>0.7720249934206639</v>
+      </c>
+      <c r="D317" t="inlineStr">
+        <is>
+          <t>동의대학교 2024학년도에 신설된 학과는 무엇이 있나요?</t>
+        </is>
+      </c>
+      <c r="E317" t="inlineStr">
+        <is>
+          <t>2024학년도에 동의대학교에서 신설된 학과로는 심리학과와 스마트항만물류학과, 창업투자경영학과, 라이프융합학부(스타트업창업투자학, 뷰티비즈니스학, 라이프생활문화학), 경기지도학과 등이 있습니다.</t>
+        </is>
+      </c>
+      <c r="F317" t="inlineStr">
+        <is>
+          <t>동의대학교 2024학년도에 신설된 학과는 다음과 같습니다:
+1. 심리학과
+2. 스마트항만물류학과
+3. 창업투자경영학과
+4. 라이프융합학부 (스타트업창업투자학, 뷰티비즈니스학, 라이프생활문화학)
+5. 경기지도학과</t>
+        </is>
+      </c>
+    </row>
+    <row r="318">
+      <c r="A318" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B318" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 1
+   - 설명: 생성된 응답은 전형요소 반영비율에 대한 잘못된 정보를 포함하고 있습니다. 원문에서는 서류 70%와 면접 30%로 명시되어 있지만, 생성된 응답에서는 출결이 70%로 잘못 기재되어 있습니다. 이로 인해 사실성이 매우 낮습니다.
+2. Consistency Score (1-5): 1
+   - 설명: 생성된 응답은 원문과 일치하지 않으며, 서로 상충하는 정보를 제공합니다. 원문에서 언급된 전형요소 반영비율과 생성된 응답의 내용이 서로 다르기 때문에 일관성이 없습니다.
+3. Relevance Score (1-5): 2
+   - 설명: 생성된 응답은 원문과 관련된 내용을 포함하고 있지만, 잘못된 정보로 인해 주제와의 관련성이 떨어집니다. 원문에서 요구하는 정보와는 다르게 잘못된 비율을 제시하고 있습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 문법적으로 잘 구성되어 있으며, 읽기에도 무리가 없습니다. 그러나 내용의 정확성이 떨어지기 때문에 전체적인 평가에는 영향을 미칩니다.
+5. Coherence Score (1-5): 3
+   - 설명: 생성된 응답은 구조적으로 어느 정도 일관성을 가지고 있지만, 잘못된 정보로 인해 전체적인 논리적 흐름이 약해집니다. 원문과의 불일치로 인해 완전한 일관성을 유지하지 못합니다.
+6. Accuracy Score (1-5): 1
+   - 설명: 생성된 응답은 원문에서 제공된 정보와 크게 다르며, 사실적으로 부정확합니다. 전형요소 반영비율에 대한 정보가 잘못 기재되어 있습니다.
+7. Multidimensional Quality Score (1-5): 1
+   - 설명: 생성된 응답은 사실성, 일관성, 정확성 등 여러 차원에서 매우 낮은 점수를 받습니다. 전반적으로 원문과의 불일치로 인해 품질이 저하되었습니다.
+8. Semantic Appropriateness Score (1-5): 2
+   - 설명: 생성된 응답은 원문과 관련된 주제를 다루고 있지만, 잘못된 정보로 인해 의미적으로 적절하지 않습니다. 원문의 의도와는 다르게 해석될 수 있습니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 문장이 명확하고 이해하기 쉬운 구조를 가지고 있습니다. 그러나 내용의 정확성이 떨어지기 때문에 전체적인 이해에는 한계가 있습니다.
+{
+    "Factuality Score": 1,
+    "Consistency Score": 1,
+    "Relevance Score": 2,
+    "Fluency Score": 4,
+    "Coherence Score": 3,
+    "Accuracy Score": 1,
+    "Multidimensional Quality Score": 1,
+    "Semantic Appropriateness Score": 2,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C318" t="n">
+        <v>0.7937914791265834</v>
+      </c>
+      <c r="D318" t="inlineStr">
+        <is>
+          <t>동의대학교 2024학년도 나군의 학생부종합(성인학습자전형)의 전형요소 반영비율은 어떻게 되나요?</t>
+        </is>
+      </c>
+      <c r="E318" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대학교 나군의 학생부종합(성인학습자전형)의 전형요소 반영비율은 다음과 같습니다:
+- 학생부 교과: 0%
+- 출결: 70%
+- 서류: 30%
+- 면접: 0%
+- 실기: 0%
+- 수능: 0%
+이와 같이, 이 전형에서는 출결과 서류가 주요 평가 요소로 활용되며, 특히 출결의 반영 비율이 높게 설정되어 있습니다.</t>
+        </is>
+      </c>
+      <c r="F318" t="inlineStr">
+        <is>
+          <t>동의대학교 2024학년도 나군의 학생부종합(성인학습자전형)의 전형요소 반영비율은 서류 70%, 면접 30%입니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="319">
+      <c r="A319" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B319" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 2
+   - 설명: 생성된 응답에서 '한의예과'라는 학과가 언급되었으나, 원본 텍스트에는 '한의예과'가 포함되어 있지 않으며, '의료·보건·생활대학'이 포함되어 있습니다. 따라서 사실성이 낮습니다.
+2. Consistency Score (1-5): 2
+   - 설명: 생성된 응답은 원본 텍스트와 일치하지 않는 정보를 포함하고 있으며, '한의예과'라는 학과가 추가되어 있어 일관성이 떨어집니다.
+3. Relevance Score (1-5): 4
+   - 설명: 생성된 응답은 수능 가산점 적용 학과에 대한 정보를 제공하고 있으나, 잘못된 학과명이 포함되어 있어 약간의 관련성이 떨어집니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 문장으로 구성되어 있습니다.
+5. Coherence Score (1-5): 4
+   - 설명: 생성된 응답은 논리적으로 잘 구성되어 있으며, 주제에 대한 흐름이 자연스럽습니다.
+6. Accuracy Score (1-5): 2
+   - 설명: '한의예과'라는 잘못된 정보가 포함되어 있어 정확성이 낮습니다. 원본 텍스트의 내용을 정확히 반영하지 못하고 있습니다.
+7. Multidimensional Quality Score (1-5): 2
+   - 설명: 여러 차원에서 낮은 점수를 기록하고 있으며, 사실성과 일관성에서 큰 문제가 있습니다.
+8. Semantic Appropriateness Score (1-5): 3
+   - 설명: 생성된 응답은 주제와 관련이 있지만, 잘못된 정보가 포함되어 있어 의미적으로 완벽하게 적절하지는 않습니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 이해하기 쉬우나, 잘못된 정보로 인해 혼란을 줄 수 있습니다.
+{
+    "Factuality Score": 2,
+    "Consistency Score": 2,
+    "Relevance Score": 4,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 2,
+    "Multidimensional Quality Score": 2,
+    "Semantic Appropriateness Score": 3,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C319" t="n">
+        <v>0.8015027197803721</v>
+      </c>
+      <c r="D319" t="inlineStr">
+        <is>
+          <t>동의대학교에서는 수능 가산점을 적용하는 학과는 어디인지 알려주세요.</t>
+        </is>
+      </c>
+      <c r="E319" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 동의대학교에서 수능 가산점을 적용하는 학과는 한의예과, 공과대학, ICT융합공과대학입니다. 이들 학과에서는 수학(미적분 또는 기하) 응시자의 수학 표준점수의 10%를 가산점으로 부여하고 있습니다.</t>
+        </is>
+      </c>
+      <c r="F319" t="inlineStr">
+        <is>
+          <t>동의대학교에서는 다음 모집단위에서 수능 가산점을 적용합니다:
+- 의료·보건·생활대학
+- 공과대학
+- ICT융합공과대학
+이들 모집단위에서 수학(미적분 또는 기하)을 응시한 경우, 수학 취득 표준점수의 10%를 가산점으로 부여합니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="320">
+      <c r="A320" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B320" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 2
+   - 설명: 생성된 응답은 수능 성적을 100% 반영한다고 명시된 원문과는 다르게, 수능 반영 영역과 비율에 대한 구체적인 내용을 추가하고 있습니다. 그러나 원문에서 언급된 '100% 반영'이라는 핵심 사실이 왜곡되었고, 추가된 정보가 원문과 일치하지 않기 때문에 사실성 점수가 낮습니다.
+2. Consistency Score (1-5): 2
+   - 설명: 생성된 응답은 원문과 일치하지 않는 정보를 포함하고 있습니다. 원문은 수능 성적을 100% 반영한다고 명시하고 있지만, 생성된 응답은 반영 영역과 비율에 대한 세부사항을 제공하면서도 원문의 핵심 내용을 일관되게 전달하지 못하고 있습니다.
+3. Relevance Score (1-5): 4
+   - 설명: 생성된 응답은 원문과 관련된 정보를 제공하고 있지만, 원문의 핵심 내용인 '100% 반영'이라는 점을 간과하고 있습니다. 그럼에도 불구하고 수능 성적 반영 방법에 대한 추가적인 정보는 여전히 관련성이 있습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 문법적으로 잘 구성되어 있으며, 읽기에도 무리가 없습니다. 그러나 약간의 어색함이 느껴질 수 있는 부분이 있어 완벽한 유창성 점수는 아닙니다.
+5. Coherence Score (1-5): 3
+   - 설명: 생성된 응답은 여러 정보를 나열하고 있지만, 원문과의 연결성이 부족하여 일관된 흐름이 떨어집니다. 원문의 핵심 메시지와의 연결이 약해 전체적인 일관성이 떨어집니다.
+6. Accuracy Score (1-5): 2
+   - 설명: 생성된 응답은 원문에서 명시된 '100% 반영'이라는 사실을 왜곡하고, 반영 영역과 비율에 대한 잘못된 정보를 포함하고 있습니다. 따라서 정확성 점수가 낮습니다.
+7. Multidimensional Quality Score (1-5): 2
+   - 설명: 여러 차원에서 생성된 응답이 원문과의 일치성이 떨어지며, 사실성, 일관성, 정확성 모두 낮은 점수를 받고 있습니다. 전반적으로 품질이 낮습니다.
+8. Semantic Appropriateness Score (1-5): 3
+   - 설명: 생성된 응답은 원문과 관련된 내용을 다루고 있지만, 원문의 핵심 의미를 왜곡하고 있어 의미적으로 적절하지 않습니다. 그러나 주제와 관련된 정보는 포함되어 있습니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 이해하기 쉬운 구조로 되어 있으며, 정보가 명확하게 전달되고 있습니다. 그러나 원문과의 불일치로 인해 혼란을 줄 수 있는 요소가 있습니다.
+{
+    "Factuality Score": 2,
+    "Consistency Score": 2,
+    "Relevance Score": 4,
+    "Fluency Score": 4,
+    "Coherence Score": 3,
+    "Accuracy Score": 2,
+    "Multidimensional Quality Score": 2,
+    "Semantic Appropriateness Score": 3,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C320" t="n">
+        <v>0.7749469590279837</v>
+      </c>
+      <c r="D320" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대의 가군에서 수능 성적을 어떻게 반영하나요?</t>
+        </is>
+      </c>
+      <c r="E320" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대학교의 가군에서는 수능 성적을 다음과 같이 반영합니다.
+- 모집단위는 전 모집단위입니다.
+- 수능 반영 영역은 국어(화법과작문 or 언어와매체), 수학(확률과통계 or 미적분 or 기하), 영어, 탐구(사회탐구 or 과학탐구 or 직업탐구 중 영역 관계없이 2개 과목)입니다.
+- 반영 영역별 비율은 각각 25%이며, 상위 3개 영역의 경우는 국어, 수학, 영어에 대해 각각 33.33%를 반영합니다.
+이러한 방식으로 수능 성적을 반영하여 학생들의 종합적인 능력을 평가하고 있습니다.</t>
+        </is>
+      </c>
+      <c r="F320" t="inlineStr">
+        <is>
+          <t>동의대학교의 2024학년도 가군 수능(일반학생전형)에서는 수능 성적을 100% 반영합니다. 자세한 수능 성적 반영 방법은 '38페이지 Ⅴ. 수능성적 반영방법'을 참조하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="321">
+      <c r="A321" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B321" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 사실을 정확하게 반영하고 있습니다. 날짜와 학교 이름이 일치합니다.
+2. Consistency Score (1-5): 5
+   - 생성된 응답은 원본 텍스트와 일관되며, 정보가 서로 충돌하지 않습니다.
+3. Relevance Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 주요 내용을 직접적으로 다루고 있어 매우 관련성이 높습니다.
+4. Fluency Score (1-5): 5
+   - 생성된 응답은 문법적으로 정확하고 읽기 쉬운 문장으로 잘 작성되어 있습니다.
+5. Coherence Score (1-5): 5
+   - 생성된 응답은 논리적으로 잘 구성되어 있으며, 일관된 흐름을 가지고 있습니다.
+6. Accuracy Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 모든 사실을 정확하게 반영하고 있습니다.
+7. Multidimensional Quality Score (1-5): 5
+   - 생성된 응답은 모든 품질 차원에서 우수한 성능을 보이고 있습니다.
+8. Semantic Appropriateness Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 의미와 맥락에 완전히 부합합니다.
+9. Understandability Score (1-5): 5
+   - 생성된 응답은 매우 명확하고 이해하기 쉬운 내용으로 잘 전달되고 있습니다.
+{
+    "Factuality Score": 5,
+    "Consistency Score": 5,
+    "Relevance Score": 5,
+    "Fluency Score": 5,
+    "Coherence Score": 5,
+    "Accuracy Score": 5,
+    "Multidimensional Quality Score": 5,
+    "Semantic Appropriateness Score": 5,
+    "Understandability Score": 5
+}</t>
+        </is>
+      </c>
+      <c r="C321" t="n">
+        <v>0.9128408788063518</v>
+      </c>
+      <c r="D321" t="inlineStr">
+        <is>
+          <t>동의대 2024학년도 가군 실기고사 날짜는 언제인가요?</t>
+        </is>
+      </c>
+      <c r="E321" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대학교 가군 실기고사는 2024년 1월 16일(화)에 진행됩니다.</t>
+        </is>
+      </c>
+      <c r="F321" t="inlineStr">
+        <is>
+          <t>동의대학교 2024학년도 가군 실기고사는 2024년 1월 16일(화)에 진행됩니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="322">
+      <c r="A322" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B322" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 1
+   - 설명: 생성된 응답은 원본 텍스트의 내용을 완전히 잘못 전달하고 있습니다. 원본 텍스트에서는 한의예과, 디자인조형학과, 체육학과, 경기지도학과가 제외된다고 명시하고 있지만, 생성된 응답에서는 레저스포츠학과와 태권도학과가 제외되었다고 잘못 언급하고 있습니다. 이는 사실과 크게 다릅니다.
+2. Consistency Score (1-5): 1
+   - 설명: 생성된 응답은 원본 텍스트와 상충되는 정보를 제공합니다. 원본 텍스트의 내용과 생성된 응답의 내용이 서로 모순되므로 일관성이 없습니다.
+3. Relevance Score (1-5): 2
+   - 설명: 생성된 응답은 원본 텍스트와 관련된 주제를 다루고 있지만, 잘못된 정보를 바탕으로 하고 있어 관련성이 낮습니다. 원본 텍스트의 핵심 내용과는 다르게, 다른 학과에 대한 정보를 제공하고 있습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 문법적으로 잘 구성되어 있으며, 읽기에도 무리가 없습니다. 그러나 내용의 정확성과 관련성 문제로 인해 전체적인 평가에 영향을 미칩니다.
+5. Coherence Score (1-5): 3
+   - 설명: 생성된 응답은 내부적으로는 일관된 구조를 가지고 있지만, 원본 텍스트와의 관계에서 비논리적인 부분이 있어 일관성이 떨어집니다.
+6. Accuracy Score (1-5): 1
+   - 설명: 생성된 응답은 원본 텍스트의 사실과 완전히 다릅니다. 잘못된 정보가 포함되어 있어 정확성이 매우 낮습니다.
+7. Multidimensional Quality Score (1-5): 1
+   - 설명: 생성된 응답은 사실성, 일관성, 관련성, 정확성 등 모든 차원에서 매우 낮은 점수를 받습니다. 전반적으로 품질이 좋지 않습니다.
+8. Semantic Appropriateness Score (1-5): 2
+   - 설명: 생성된 응답은 원본 텍스트의 의미와 맥락에서 벗어난 내용을 포함하고 있어 의미적으로 적절하지 않습니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 문법적으로 잘 구성되어 있어 이해하기는 쉽지만, 잘못된 정보로 인해 혼란을 줄 수 있습니다.
+{
+    "Factuality Score": 1,
+    "Consistency Score": 1,
+    "Relevance Score": 2,
+    "Fluency Score": 4,
+    "Coherence Score": 3,
+    "Accuracy Score": 1,
+    "Multidimensional Quality Score": 1,
+    "Semantic Appropriateness Score": 2,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C322" t="n">
+        <v>0.5853723100397712</v>
+      </c>
+      <c r="D322" t="inlineStr">
+        <is>
+          <t>동의대 2024학년도 나군 수능(일반학생전형) 전형에서는 어떤 모집단위가 제외되나요?</t>
+        </is>
+      </c>
+      <c r="E322" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대학교 나군 수능(일반학생전형)에서 레저스포츠학과와 태권도학과는 제외되었습니다. 이는 가군 실기/실적(일반학생전형) 전형요소 반영비율에서 확인할 수 있습니다. 가군 실기/실적(일반학생전형)에서는 레저스포츠학과와 태권도학과가 모집단위로 포함되며, 이들 학과의 경우 수능은 30%를 차지하고 실기는 70%를 차지합니다.</t>
+        </is>
+      </c>
+      <c r="F322" t="inlineStr">
+        <is>
+          <t>동의대학교 2024학년도 나군 수능(일반학생전형) 전형에서는 한의예과, 디자인조형학과와 체육학과, 경기지도학과가 제외됩니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="323">
+      <c r="A323" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B323" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 내용을 정확하게 반영하고 있으며, 수능 최저기준이 적용되지 않는다는 사실을 올바르게 전달하고 있습니다. 추가 정보도 제공하고 있어 사실성을 높이고 있습니다.
+2. Consistency Score (1-5): 5
+   - 생성된 응답은 원본 텍스트와 일관되며, 수능 최저기준이 적용되지 않는다는 점에서 모순이 없습니다. 모든 정보가 일관되게 연결되어 있습니다.
+3. Relevance Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 주제와 관련이 깊으며, 수능 최저기준에 대한 질문에 직접적으로 답변하고 있습니다. 추가적인 정보 링크도 관련성이 높습니다.
+4. Fluency Score (1-5): 5
+   - 생성된 응답은 문법적으로 정확하고 자연스럽게 작성되어 있으며, 읽기에도 무리가 없습니다. 문장 구조가 잘 구성되어 있습니다.
+5. Coherence Score (1-5): 5
+   - 생성된 응답은 논리적으로 잘 구성되어 있으며, 각 문장이 자연스럽게 연결되어 있습니다. 전체적으로 일관된 흐름을 유지하고 있습니다.
+6. Accuracy Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 사실을 정확하게 반영하고 있으며, 추가적인 정보도 사실에 기반하고 있습니다. 정확성이 높습니다.
+7. Multidimensional Quality Score (1-5): 5
+   - 생성된 응답은 사실성, 일관성, 관련성, 정확성 등 모든 차원에서 우수한 성과를 보이고 있습니다. 전반적으로 높은 품질을 유지하고 있습니다.
+8. Semantic Appropriateness Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 의미와 맥락에 잘 맞아떨어지며, 적절한 의미를 전달하고 있습니다. 의미적으로도 적합합니다.
+9. Understandability Score (1-5): 5
+   - 생성된 응답은 명확하고 이해하기 쉬우며, 정보가 잘 전달되고 있습니다. 독자가 쉽게 이해할 수 있는 내용입니다.
+{
+    "Factuality Score": 5,
+    "Consistency Score": 5,
+    "Relevance Score": 5,
+    "Fluency Score": 5,
+    "Coherence Score": 5,
+    "Accuracy Score": 5,
+    "Multidimensional Quality Score": 5,
+    "Semantic Appropriateness Score": 5,
+    "Understandability Score": 5
+}</t>
+        </is>
+      </c>
+      <c r="C323" t="n">
+        <v>0.8076923149532994</v>
+      </c>
+      <c r="D323" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대의 다군 전형에서 수능 최저기준이 적용되나요?</t>
+        </is>
+      </c>
+      <c r="E323" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대학교의 다군 전형에서는 수능 최저기준이 적용되지 않습니다. 이는 전형요소 반영비율에서 명시되어 있습니다. 더 자세한 정보를 원하시면 https://ipsi. deu. ac. kr/main. do 를 참조해보세요.</t>
+        </is>
+      </c>
+      <c r="F323" t="inlineStr">
+        <is>
+          <t xml:space="preserve">2024학년도 동의대의 다군 전형에서는 수능 최저기준이 적용되지 않습니다. </t>
+        </is>
+      </c>
+    </row>
+    <row r="324">
+      <c r="A324" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B324" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 4
+   - 설명: 생성된 응답은 원본 텍스트의 내용을 대체로 정확하게 반영하고 있으나, "디자인공학부"의 분리된 학과가 "디자인조형학과"로 잘못 기재되어 있으며, "모집중지"라는 정보는 원본에 없으므로 일부 부정확성이 존재합니다.
+2. Consistency Score (1-5): 3
+   - 설명: 생성된 응답은 원본 텍스트와 대체로 일치하지만, "디자인공학부"의 분리된 학과에 대한 정보가 다르게 표현되어 있어 일관성이 떨어집니다.
+3. Relevance Score (1-5): 5
+   - 설명: 생성된 응답은 원본 텍스트의 주요 주제와 관련된 정보를 잘 다루고 있으며, 학과 분리에 대한 정보를 명확하게 전달하고 있습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬우나, 일부 표현에서 약간의 어색함이 느껴질 수 있습니다.
+5. Coherence Score (1-5): 4
+   - 설명: 생성된 응답은 논리적으로 잘 구성되어 있으며, 각 학과의 분리 정보를 체계적으로 나열하고 있습니다. 그러나 일부 문장 연결이 매끄럽지 않을 수 있습니다.
+6. Accuracy Score (1-5): 4
+   - 설명: 생성된 응답은 대부분의 정보가 정확하지만, "디자인공학부"에 대한 잘못된 정보가 포함되어 있어 완전한 정확성은 부족합니다.
+7. Multidimensional Quality Score (1-5): 4
+   - 설명: 생성된 응답은 여러 품질 차원에서 좋은 성과를 보이지만, 일부 부정확성과 일관성 문제로 인해 완벽하지는 않습니다.
+8. Semantic Appropriateness Score (1-5): 4
+   - 설명: 생성된 응답은 원본 텍스트의 의미와 맥락에 잘 부합하지만, 일부 표현에서 약간의 차이가 있어 완전한 적합성은 부족합니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 이해하기 쉽고 명확하게 작성되었으나, 일부 문장에서 약간의 혼란을 줄 수 있는 표현이 있습니다.
+{
+    "Factuality Score": 4,
+    "Consistency Score": 3,
+    "Relevance Score": 5,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 4,
+    "Multidimensional Quality Score": 4,
+    "Semantic Appropriateness Score": 4,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C324" t="n">
+        <v>0.8353519210224325</v>
+      </c>
+      <c r="D324" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대에서 어떤 학과가 학부에서 학과로 분리되었나요?</t>
+        </is>
+      </c>
+      <c r="E324" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대학교에서는 다음과 같은 학과들이 학부에서 학과로 분리되었습니다.
+1. 보육·가정상담학부 → 아동학과
+2. 경제금융보험학부 → 금융경영학과
+3. 정보경영학부(경영정보학, e비즈니스학) → 경영정보학과, e비즈니스학과
+4. 부동산금융·자산경영학부 → 부동산자산경영학부(부동산투자학, 부동산개발경영학)
+5. 기계자동차로봇부품공학부(기계공학, 로봇·자동화공학, 자동차공학) → 기계공학과, 로봇자동화공학과, 자동차공학과
+6. 신소재공학부(금속소재공학, 전기전자소재공학, 고분자소재공학) → 신소재공학과, 고분자나노공학과
+7. 건설공학부(건축학(5년제), 건축공학, 토목공학, 도시공학) → 건축학과(5년제), 건축공학과, 토목공학과, 도시공학과
+8. 화학환경공학부(화학공학, 환경공학, 응용화학) → 화학공학과, 환경공학과, 응용화학과
+9. 바이오응용공학부(의생명공학, 바이오의약공학, 식품공학) → 의생명공학과, 바이오의약공학과, 식품공학과
+10. 디자인조형학과(서양화·한국화·환경조형) → 모집중지
+위와 같이 여러 학과들이 분리되었습니다. 더 자세한 정보가 필요하시다면 https://ipsi. deu. ac. kr/main. do를 참조해주세요.</t>
+        </is>
+      </c>
+      <c r="F324" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대에서 학부에서 학과로 분리된 학과는 다음과 같습니다:
+1. 보육가정상담학과 → 아동학과
+2. 경제금융보험학과 → 금융경영학과
+3. 정보경영학부 → 경영정보학과, e비즈니스학과
+4. 부동산금융자산경영학과 → 부동산자산경영학부(부동산투자학, 부동산개발경영학)
+5. 기계자동차로봇부품공학부 → 기계공학과, 로봇자동화공학과, 자동차공학과
+6. 신소재공학부(금속소재공학, 전기전자소재공학, 고분자소재공학) → 신소재공학과, 고분자나노공학과
+7. 건설공학부(건축학(5년제), 건축공학, 토목공학, 도시공학) → 건축학과(5년제), 건축공학과, 토목공학과, 도시공학과
+8. 화학환경공학부(화학공학, 환경공학, 응용화학) → 화학공학과, 환경공학과, 응용화학과
+9. 바이오응용공학부(의생명공학, 바이오의약공학, 식품공학) → 의생명공학과, 바이오의약공학과, 식품공학과
+10. 디자인공학부(인간시스템디자인공학, 제품디자인공학) → 인간공학과, 제품디자인공학과
+11. 산업융합시스템공학부(산업ICT기술공학, 산업경영빅데이터공학) → 산업경영빅데이터공학과
+12. 창의소프트웨어공학부(컴퓨터소프트웨어공학, 응용소프트웨어공학) → 소프트웨어공학부(컴퓨터소프트웨어공학, 응용소프트웨어공학)
+13. 전기전자통신공학부(전기공학, 전자공학, 정보통신공학) → 전기공학과, 전자공학과
+14. 음악학과(성악, 피아노, 관현타악, 실용음악뮤지컬, 뉴미디어작곡) → 음악학과(클래식, 실용음악, 뉴미디어작곡)</t>
+        </is>
+      </c>
+    </row>
+    <row r="325">
+      <c r="A325" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B325" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 4
+   - 설명: 생성된 응답은 원서접수 마감일이 2024년 1월 6일(토) 18시라는 사실을 정확하게 반영하고 있지만, "인터넷"이라는 추가 정보는 원본 텍스트에 명시되어 있지 않아 약간의 부정확성이 있습니다.
+2. Consistency Score (1-5): 4
+   - 설명: 생성된 응답은 원본 텍스트와 대체로 일치하지만, "인터넷"이라는 표현이 추가되어 있어 약간의 일관성 문제를 나타냅니다. 그러나 전체적인 정보는 일관성을 유지하고 있습니다.
+3. Relevance Score (1-5): 5
+   - 설명: 생성된 응답은 원본 텍스트의 주요 내용인 원서접수 마감일에 직접적으로 관련되어 있어 매우 관련성이 높습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 문법적으로 잘 작성되었고 읽기에도 무리가 없지만, "까지"라는 표현이 두 번 사용되어 약간의 어색함이 있습니다.
+5. Coherence Score (1-5): 4
+   - 설명: 생성된 응답은 논리적으로 잘 구성되어 있으며, 전체적으로 이해하기 쉬운 흐름을 가지고 있습니다. 그러나 "인터넷"이라는 추가 정보가 약간의 혼란을 줄 수 있습니다.
+6. Accuracy Score (1-5): 4
+   - 설명: 원본 텍스트의 사실을 잘 반영하고 있지만, "인터넷"이라는 정보가 추가되어 있어 정확성에 약간의 문제가 있습니다.
+7. Multidimensional Quality Score (1-5): 4
+   - 설명: 생성된 응답은 여러 차원에서 좋은 품질을 보여주지만, 약간의 부정확성과 일관성 문제로 인해 완벽하지는 않습니다.
+8. Semantic Appropriateness Score (1-5): 4
+   - 설명: 생성된 응답은 의미적으로 적절하지만, "인터넷"이라는 추가 정보가 원본 텍스트의 맥락과 완전히 일치하지 않아 약간의 부적절성이 있습니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 이해하기 쉽지만, "인터넷"이라는 표현이 추가되어 약간의 혼란을 줄 수 있습니다.
+{
+    "Factuality Score": 4,
+    "Consistency Score": 4,
+    "Relevance Score": 5,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 4,
+    "Multidimensional Quality Score": 4,
+    "Semantic Appropriateness Score": 4,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C325" t="n">
+        <v>0.9224400806934953</v>
+      </c>
+      <c r="D325" t="inlineStr">
+        <is>
+          <t>동의대 2024학년도 전형일정에서 원서접수 마감일은 언제인가요?</t>
+        </is>
+      </c>
+      <c r="E325" t="inlineStr">
+        <is>
+          <t>동의대학교 2024학년도 전형일정에서 원서접수(인터넷)의 마감일은 2024년 1월 6일(토)까지 18시까지입니다.</t>
+        </is>
+      </c>
+      <c r="F325" t="inlineStr">
+        <is>
+          <t>동의대학교 2024학년도 전형일정에서 원서접수 마감일은 2024년 1월 6일(토) 18시입니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="326">
+      <c r="A326" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B326" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 2
+   - 생성된 응답은 학생부종합(성인학습자전형)의 평가 기준이 변경되었다고 언급하고 있지만, 원본 텍스트에서는 전형 요소 변화에 대한 구체적인 내용이 포함되어 있지 않으며, 다른 전형들에 대한 정보도 누락되어 있습니다. 따라서 사실성 점수는 낮습니다.
+2. Consistency Score (1-5): 2
+   - 생성된 응답은 원본 텍스트의 내용과 일치하지 않으며, 원본에서 언급된 여러 전형의 변화에 대한 정보가 누락되어 있습니다. 이로 인해 일관성이 떨어집니다.
+3. Relevance Score (1-5): 3
+   - 생성된 응답은 학생부종합(성인학습자전형)에 대한 정보를 제공하지만, 원본 텍스트의 전체적인 맥락과 다른 전형들에 대한 정보가 부족하여 관련성이 떨어집니다.
+4. Fluency Score (1-5): 4
+   - 생성된 응답은 문법적으로 잘 작성되어 있으며, 읽기에도 무리가 없습니다. 따라서 유창성 점수는 높습니다.
+5. Coherence Score (1-5): 3
+   - 생성된 응답은 특정 전형에 대한 정보를 제공하지만, 원본 텍스트의 여러 전형에 대한 정보와 연결되지 않아 일관된 흐름이 부족합니다.
+6. Accuracy Score (1-5): 2
+   - 생성된 응답은 원본 텍스트의 내용을 정확하게 반영하지 않으며, 전형의 변화에 대한 구체적인 세부 사항이 누락되어 있습니다. 따라서 정확성 점수는 낮습니다.
+7. Multidimensional Quality Score (1-5): 2
+   - 여러 차원에서 평가했을 때, 생성된 응답은 사실성, 일관성, 정확성에서 낮은 점수를 받았기 때문에 전반적인 품질 점수도 낮습니다.
+8. Semantic Appropriateness Score (1-5): 3
+   - 생성된 응답은 특정 전형에 대한 정보를 제공하지만, 원본 텍스트의 맥락과는 다소 어긋나 있습니다. 따라서 의미 적합성 점수는 중간 정도입니다.
+9. Understandability Score (1-5): 4
+   - 생성된 응답은 명확하게 작성되어 있어 이해하기 쉽습니다. 따라서 이해 가능성 점수는 높습니다.
+{
+    "Factuality Score": 2,
+    "Consistency Score": 2,
+    "Relevance Score": 3,
+    "Fluency Score": 4,
+    "Coherence Score": 3,
+    "Accuracy Score": 2,
+    "Multidimensional Quality Score": 2,
+    "Semantic Appropriateness Score": 3,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C326" t="n">
+        <v>0.7166815140652072</v>
+      </c>
+      <c r="D326" t="inlineStr">
+        <is>
+          <t>동의대 2024학년도에 전형 요소 변화가 있는 전형은 무엇이 있나요?</t>
+        </is>
+      </c>
+      <c r="E326" t="inlineStr">
+        <is>
+          <t>2024학년도에 전형 요소 변화가 있는 전형은 학생부종합(성인학습자전형)입니다. 이 전형의 서류 평가 영역별 세부 평가 기준에서, 공동체역량, 학업역량, 전공적합성 모두 평가 요소와 평가 기준이 변경되었습니다.
+- **공동체역량**은 '협업능력'으로 변경되었고, 평가 기준도 '공동체 목표를 위한 협력적 태도, 나눔과 배려, 학교폭력 여부'로 바뀌었습니다.
+- **학업역량**은 '학업에 대한 흥미 및 주도적 노력, 수업시간 적극적 참여, 학업에 대한 성취정도, 학년별 성적 추이'로 평가 기준이 변경되었습니다.
+- **전공적합성**은 '지원전공(계열) 관련 활동과 경험, 지원전공(계열) 관련 학업의지, 학교생활의 적극적 참여'로 평가 기준이 바뀌었습니다.
+위와 같이 2024학년도에 전형 요소 변화가 있는 전형은 학생부종합(성인학습자전형)이며, 이 전형에서 평가 영역별 세부 평가 기준이 변경되었습니다.</t>
+        </is>
+      </c>
+      <c r="F326" t="inlineStr">
+        <is>
+          <t xml:space="preserve">동의대 2024학년도에 전형 요소 변화가 있는 전형은 다음과 같습니다:
+1.  학생부종합(성인학습자전형):
+ - 2023학년도: 특성화고 등을 졸업한 재직자
+ - 2024학년도: 고교 졸업(예정)자 또는 법령에 의한 동등 학력 소지자로서 만 30세 이상인 자
+2.  학생부종합(조기취업형계약학과전형):
+  - 2023학년도: 서류(학생부) 70% + 면접 30%
+  - 2024학년도: 서류(학생부) 60% + 면접 40%
+3. 실기/실적(경기실적우수자전형):
+  - 2023학년도: 학생부교과(출결 포함) 30% + 서류(실적) 70%
+  - 2024학년도: 학생부교과 18% + 출결 12% + 서류(실적) 70%
+4. 반영학기(학생부교과, 실기/실적 위주전형):
+ - 2023학년도: 
+  - 고교 졸업예정자 : 1학년 1학기~3학년 1학기
+  - 고교 졸업자 : 1학년 1학기~3학년 2학기
+ - 2024학년도: 
+  -고교 졸업(예정)자 : 1학년 1학기~3학년 1학기
+5. 반영과목(학생부교과, 실기/실적 위주전형):
+ - 2023학년도:
+  -전 모집단위(한의예과 제외):
+   -국어, 수학, 영어교과 중 석차등급 상위 8과목
+   -8과목을 제외한 국어, 수학, 영어, 한국사, 사회(역사/도덕 포함), 과학교과 중 석차등급 상위 4과목
+   -반영교과 중 진로선택과목 최대 2개 이내 반영 가능
+   -진로선택과목 성적반영: A: 2등급, B: 4등급, C: 6등급
+  -한의예과:
+   -국어, 수학, 영어, 한국사, 사회(역사/도덕 포함), 과학, 한문교과 전과목
+   -진로선택과목: 미반영
+- 2024학년도:
+  -전 모집단위(한의예과 제외):
+   -국어, 수학, 영어, 한국사, 사회(역사/도덕 포함), 과학교과 중 석차등급 상위 12과목
+   -반영교과 중 진로선택과목 최대 2개 이내 반영 가능
+   -진로선택과목 성적반영: A: 1등급, B: 3등급, C: 5등급
+  -한의예과:
+   -국어, 수학, 영어, 한국사, 사회(역사/도덕 포함), 과학, 한문교과 전과목
+   -진로선택과목: 반영교과 전과목 반영
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="327">
+      <c r="A327" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B327" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 내용을 정확하게 반영하고 있으며, 실기 비중이 70%라는 사실을 올바르게 전달하고 있습니다. 추가적으로 수능 비중에 대한 정보도 포함되어 있어 사실성을 높입니다.
+2. Consistency Score (1-5): 5
+   - 생성된 응답은 원본 텍스트와 일관되며, 실기 비중에 대한 정보가 서로 충돌하지 않습니다. 모든 정보가 조화롭게 연결되어 있습니다.
+3. Relevance Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 주요 내용을 직접적으로 다루고 있으며, 실기 비중에 대한 질문에 적절하게 답변하고 있습니다.
+4. Fluency Score (1-5): 5
+   - 생성된 응답은 문법적으로 정확하고 자연스럽게 읽히며, 문장 구조도 잘 구성되어 있습니다. 전반적으로 유창합니다.
+5. Coherence Score (1-5): 5
+   - 생성된 응답은 논리적으로 잘 구성되어 있으며, 정보가 명확하게 연결되어 있어 일관된 흐름을 유지하고 있습니다.
+6. Accuracy Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 사실을 정확하게 반영하고 있으며, 추가된 정보도 사실에 기반하고 있습니다.
+7. Multidimensional Quality Score (1-5): 5
+   - 생성된 응답은 사실성, 일관성, 관련성, 유창성, 일관성, 정확성 등 모든 차원에서 우수한 성과를 보이고 있습니다.
+8. Semantic Appropriateness Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 의미와 맥락에 완전히 부합하며, 적절한 의미를 전달하고 있습니다.
+9. Understandability Score (1-5): 5
+   - 생성된 응답은 명확하고 이해하기 쉬우며, 정보가 잘 전달되어 있습니다.
+{
+    "Factuality Score": 5,
+    "Consistency Score": 5,
+    "Relevance Score": 5,
+    "Fluency Score": 5,
+    "Coherence Score": 5,
+    "Accuracy Score": 5,
+    "Multidimensional Quality Score": 5,
+    "Semantic Appropriateness Score": 5,
+    "Understandability Score": 5
+}</t>
+        </is>
+      </c>
+      <c r="C327" t="n">
+        <v>0.8279405514863314</v>
+      </c>
+      <c r="D327" t="inlineStr">
+        <is>
+          <t>동의대 2024학년도 가군 실기/실적 전형에서 실기 비중은 얼마인가요?</t>
+        </is>
+      </c>
+      <c r="E327" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대학교 가군 실기/실적 전형에서 실기 비중은 70%입니다. 이는 전형요소 반영비율에서 수능이 30%, 실기가 70%로 설정되어 있습니다.</t>
+        </is>
+      </c>
+      <c r="F327" t="inlineStr">
+        <is>
+          <t>동의대학교 2024학년도 가군 실기/실적 전형에서 실기 비중은 70%입니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="328">
+      <c r="A328" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B328" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 5
+   - 생성된 응답은 라이프융합학부의 세부 전공을 정확하게 나열하고 있으며, 원본 텍스트의 내용을 충실히 반영하고 있습니다.
+2. Consistency Score (1-5): 5
+   - 생성된 응답은 원본 텍스트와 일관되며, 전공 목록이 일치합니다. 추가된 정보도 원본의 내용과 충돌하지 않습니다.
+3. Relevance Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 주제와 관련이 있으며, 라이프융합학부의 세부 전공에 대한 정보를 직접적으로 다루고 있습니다.
+4. Fluency Score (1-5): 5
+   - 생성된 응답은 문법적으로 정확하고, 자연스럽게 읽히며, 문장 구조도 잘 구성되어 있습니다.
+5. Coherence Score (1-5): 5
+   - 생성된 응답은 논리적으로 잘 구성되어 있으며, 정보의 흐름이 매끄럽습니다.
+6. Accuracy Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 사실을 정확하게 반영하고 있으며, 잘못된 정보가 없습니다.
+7. Multidimensional Quality Score (1-5): 5
+   - 생성된 응답은 모든 품질 차원에서 우수한 성과를 보이고 있습니다.
+8. Semantic Appropriateness Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 의미와 맥락에 적절하게 부합합니다.
+9. Understandability Score (1-5): 5
+   - 생성된 응답은 명확하고 이해하기 쉬우며, 정보가 잘 전달됩니다.
+{
+    "Factuality Score": 5,
+    "Consistency Score": 5,
+    "Relevance Score": 5,
+    "Fluency Score": 5,
+    "Coherence Score": 5,
+    "Accuracy Score": 5,
+    "Multidimensional Quality Score": 5,
+    "Semantic Appropriateness Score": 5,
+    "Understandability Score": 5
+}</t>
+        </is>
+      </c>
+      <c r="C328" t="n">
+        <v>0.7924902710921546</v>
+      </c>
+      <c r="D328" t="inlineStr">
+        <is>
+          <t>동의대 2024학년도 신설된 학과 중 라이프융합학부의 세부 전공은 어떻게 구성되어 있나요?</t>
+        </is>
+      </c>
+      <c r="E328" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대학교에서 신설된 학과로는 스마트호스피탈리티학과와 라이프융합학부가 있습니다. 이 중에서 라이프융합학부의 세부 전공은 다음과 같습니다:
+1. 스타트업창업투자학
+2. 뷰티비즈니스학
+3. 라이프생활문화학
+이러한 세부 전공들은 미래 융합 분야에서 필요한 다양한 역량을 기르기 위해 설계되었습니다.</t>
+        </is>
+      </c>
+      <c r="F328" t="inlineStr">
+        <is>
+          <t>동의대 2024학년도 신설된 라이프융합학부의 세부 전공은 다음과 같이 구성되어 있습니다:
+ - 스타트업창업투자학
+ - 뷰티비즈니스학
+ - 라이프생활문화학</t>
+        </is>
+      </c>
+    </row>
+    <row r="329">
+      <c r="A329" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B329" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 2
+   - 설명: 생성된 응답은 '태권도학과'를 포함하고 있지만, 원본 텍스트에는 '태권도학과'가 언급되지 않았습니다. 따라서 사실성 점수는 낮습니다.
+2. Consistency Score (1-5): 2
+   - 설명: 생성된 응답은 원본 텍스트와 일치하지 않으며, '태권도학과'라는 정보가 추가되어 있어 일관성이 부족합니다.
+3. Relevance Score (1-5): 4
+   - 설명: 생성된 응답은 실기고사에 참여해야 하는 학과에 대한 정보를 제공하고 있으며, 관련된 일정도 포함되어 있어 대체로 관련성이 높습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 문법적으로 올바르고 읽기 쉬운 구조를 가지고 있습니다. 다만, 약간의 중복된 표현이 있을 수 있습니다.
+5. Coherence Score (1-5): 4
+   - 설명: 생성된 응답은 논리적으로 잘 구성되어 있으며, 정보가 명확하게 전달됩니다. 그러나 원본 텍스트와의 불일치로 인해 완전한 일관성은 없습니다.
+6. Accuracy Score (1-5): 2
+   - 설명: '태권도학과'라는 잘못된 정보가 포함되어 있어 정확성 점수가 낮습니다. 원본 텍스트의 정보와 일치하지 않습니다.
+7. Multidimensional Quality Score (1-5): 3
+   - 설명: 여러 차원에서 평균적인 성과를 보이지만, 사실성과 일관성에서 큰 문제가 있어 전반적인 품질이 떨어집니다.
+8. Semantic Appropriateness Score (1-5): 3
+   - 설명: 생성된 응답은 의미적으로 적절하지만, 원본 텍스트와의 불일치로 인해 의미 전달이 완벽하지 않습니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 이해하기 쉽고 명확하게 작성되었습니다. 다만, 원본 텍스트와의 불일치로 인해 혼란을 줄 수 있습니다.
+{
+    "Factuality Score": 2,
+    "Consistency Score": 2,
+    "Relevance Score": 4,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 2,
+    "Multidimensional Quality Score": 3,
+    "Semantic Appropriateness Score": 3,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C329" t="n">
+        <v>0.6490888522883094</v>
+      </c>
+      <c r="D329" t="inlineStr">
+        <is>
+          <t>동의대 2024학년도 가군에서 실기고사에 참여해야 하는 학과는 어떤 것들이 있나요?</t>
+        </is>
+      </c>
+      <c r="E329" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대학교 가군에서 실기고사에 참여해야 하는 학과는 레저스포츠학과와 태권도학과입니다. 이들 학과는 가군 실기/실적(일반학생전형)으로 모집되며, 실기고사는 2024년 1월 16일에 진행됩니다.
+참고로, 해당 일정은 다음과 같습니다:
+- **일정**: 2024. 01. 16.(화)
+- **비고**: 대기실 및 입실시간 안내는 2024. 01. 12.(금) 14:00 이후에 입학안내 홈페이지에서 확인 가능합니다.
+따라서, 레저스포츠학과와 태권도학과를 지원하는 학생들은 이 일정을 참고하여 준비하시면 됩니다.</t>
+        </is>
+      </c>
+      <c r="F329" t="inlineStr">
+        <is>
+          <t>동의대 2024학년도 가군에서 실기고사에 참여해야 하는 학과는 다음과 같습니다:
+1. 체육학과
+2. 레저스포츠학과</t>
+        </is>
+      </c>
+    </row>
+    <row r="330">
+      <c r="A330" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B330" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 1
+   - 설명: 생성된 응답은 동의대학교의 실기/실적 위주 전형에 대한 정확한 학과 목록을 제공하지 않고, 기계공학과, 로봇자동화공학과, 자동차공학과와 같은 관련 없는 학과를 언급하고 있습니다. 이는 원본 텍스트의 정보와 상충합니다.
+2. Consistency Score (1-5): 1
+   - 설명: 생성된 응답은 원본 텍스트와 일치하지 않으며, 서로 다른 학과를 언급하고 있어 일관성이 없습니다. 원본 텍스트에서 제시된 학과와는 전혀 다른 내용을 포함하고 있습니다.
+3. Relevance Score (1-5): 2
+   - 설명: 생성된 응답은 실기/실적 위주 전형에 대한 정보를 제공하고 있지만, 원본 텍스트에서 요구하는 특정 학과 목록과는 관련이 없습니다. 따라서 관련성이 낮습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 문법적으로 잘 작성되어 있으며, 읽기에도 무리가 없습니다. 그러나 내용의 정확성과 관련성 부족으로 인해 전체적인 품질이 저하됩니다.
+5. Coherence Score (1-5): 3
+   - 설명: 생성된 응답은 논리적으로 연결된 문장으로 구성되어 있지만, 원본 텍스트와의 관련성이 떨어져서 전체적인 일관성이 부족합니다.
+6. Accuracy Score (1-5): 1
+   - 설명: 생성된 응답은 원본 텍스트의 사실과 크게 다르며, 잘못된 정보를 포함하고 있습니다. 따라서 정확성 점수는 매우 낮습니다.
+7. Multidimensional Quality Score (1-5): 1
+   - 설명: 생성된 응답은 사실성, 일관성, 관련성, 정확성 등 모든 차원에서 매우 낮은 점수를 받습니다. 전반적으로 품질이 떨어집니다.
+8. Semantic Appropriateness Score (1-5): 2
+   - 설명: 생성된 응답은 주제와 관련된 내용을 포함하고 있지만, 원본 텍스트의 맥락과는 맞지 않아서 의미적으로 적절하지 않습니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 문장이 명확하고 이해하기 쉬운 편입니다. 그러나 내용의 부정확성으로 인해 전체적인 이해도가 떨어질 수 있습니다.
+{
+    "Factuality Score": 1,
+    "Consistency Score": 1,
+    "Relevance Score": 2,
+    "Fluency Score": 4,
+    "Coherence Score": 3,
+    "Accuracy Score": 1,
+    "Multidimensional Quality Score": 1,
+    "Semantic Appropriateness Score": 2,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C330" t="n">
+        <v>0.5250201985296172</v>
+      </c>
+      <c r="D330" t="inlineStr">
+        <is>
+          <t>동의대 2024학년도에 실기/실적 위주 전형을 지원하려고 하는데, 어떤 학과가 해당되나요?</t>
+        </is>
+      </c>
+      <c r="E330" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대학교에서 실기/실적 위주 전형인 '경기실적우수자전형'은 주로 특정 학과에 적용됩니다. 예를 들어, 기계공학과, 로봇자동화공학과, 자동차공학과 등이 해당될 수 있습니다.
+하지만 정확한 학과 목록을 확인하려면 공식 웹사이트인 "https://ipsi. deu. ac. kr/main. do"를 참조하시거나 대학 관계자에게 문의하시는 것이 좋습니다. 이 웹사이트에서는 최신 정보와 자세한 전형 안내를 제공하고 있습니다.</t>
+        </is>
+      </c>
+      <c r="F330" t="inlineStr">
+        <is>
+          <t xml:space="preserve">동의대 2024학년도 실기/실적 위주 전형 지원 가능한 학과는 다음과 같습니다:
+1. 레저스포츠학과
+2. 태권도학과
+3. 디자인조형학과
+4. 체육학과
+5. 경기지도학과 </t>
+        </is>
+      </c>
+    </row>
+    <row r="331">
+      <c r="A331" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B331" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 4
+   - 설명: 생성된 응답은 대부분의 전공을 정확하게 나열하고 있지만, "스마트업창업투자학"이라는 전공명은 "스타트업창업투자학"으로 잘못 표기되어 있습니다. 이로 인해 약간의 부정확성이 존재합니다.
+2. Consistency Score (1-5): 4
+   - 설명: 생성된 응답은 원본 텍스트와 대체로 일관성을 유지하고 있습니다. 그러나 "신설된 것으로 보입니다"라는 표현은 원본의 명확한 사실을 약간 모호하게 만들 수 있습니다.
+3. Relevance Score (1-5): 5
+   - 설명: 생성된 응답은 원본 텍스트의 주요 내용을 잘 반영하고 있으며, 전공 목록과 학부의 특성을 적절히 설명하고 있습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 유창하게 작성되었으나, "스마트업창업투자학"이라는 표현이 원본과 다르기 때문에 약간의 어색함이 느껴질 수 있습니다.
+5. Coherence Score (1-5): 4
+   - 설명: 응답은 논리적으로 잘 구성되어 있으며, 전공과 학부의 설명이 자연스럽게 이어집니다. 그러나 "신설된 것으로 보입니다"라는 표현이 다소 모호하게 느껴질 수 있습니다.
+6. Accuracy Score (1-5): 4
+   - 설명: 전공 목록은 대부분 정확하지만, 하나의 전공명이 잘못 표기되어 있어 완전한 정확성을 결여하고 있습니다.
+7. Multidimensional Quality Score (1-5): 4
+   - 설명: 전반적으로 응답은 높은 품질을 유지하고 있으나, 몇 가지 세부 사항에서의 부정확성과 모호함이 점수를 낮추는 요소입니다.
+8. Semantic Appropriateness Score (1-5): 4
+   - 설명: 응답은 원본 텍스트의 의미와 맥락에 잘 부합하지만, 일부 표현이 다소 모호하게 느껴질 수 있습니다.
+9. Understandability Score (1-5): 4
+   - 설명: 응답은 전반적으로 이해하기 쉽지만, 일부 표현이 명확하지 않아 약간의 혼란을 줄 수 있습니다.
+{
+    "Factuality Score": 4,
+    "Consistency Score": 4,
+    "Relevance Score": 5,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 4,
+    "Multidimensional Quality Score": 4,
+    "Semantic Appropriateness Score": 4,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C331" t="n">
+        <v>0.9014552564560692</v>
+      </c>
+      <c r="D331" t="inlineStr">
+        <is>
+          <t>동의대의 라이프융합학부에서는 어떤 전공을 제공하나요?</t>
+        </is>
+      </c>
+      <c r="E331" t="inlineStr">
+        <is>
+          <t>동의대학교의 라이프융합학부에서는 다음과 같은 전공을 제공하고 있습니다.
+1. 스마트업창업투자학
+2. 뷰티비즈니스학
+3. 라이프생활문화학
+또한, 이 학부는 신설된 것으로 보입니다. 각 전공은 특정 분야의 지식과 기술을 습득할 수 있는 교육 프로그램을 제공합니다.</t>
+        </is>
+      </c>
+      <c r="F331" t="inlineStr">
+        <is>
+          <t>동의대학교의 라이프융합학부는 신설된 학부로, 다음과 같은 전공을 제공합니다:
+ - 스타트업창업투자학
+ - 뷰티비즈니스학
+ - 라이프생활문화학</t>
+        </is>
+      </c>
+    </row>
+    <row r="332">
+      <c r="A332" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B332" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 2
+   - 설명: 생성된 응답은 특수목적고등학교 출신 학생이 일반학생전형으로 지원할 수 있다는 사실을 언급하고 있지만, 추가적인 조건을 제시하고 있어 원문과의 일치성이 떨어진다. 원문에서는 농어촌학생전형에 대한 정보가 포함되어 있으나, 생성된 응답에서는 이 부분이 누락되었다.
+2. Consistency Score (1-5): 2
+   - 설명: 생성된 응답은 원문과 일치하지 않는 조건을 추가하고 있어 일관성이 부족하다. 원문에서는 특정 조건이 없지만, 생성된 응답에서는 학교 유형과 교육과정에 대한 조건을 제시하고 있다.
+3. Relevance Score (1-5): 4
+   - 설명: 생성된 응답은 질문에 대한 답변을 제공하고 있으며, 관련된 정보를 포함하고 있다. 그러나 원문에서 언급된 농어촌학생전형에 대한 정보가 누락되어 있어 완전한 관련성을 갖추지 못하고 있다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 문법적으로 잘 구성되어 있으며, 읽기에도 무리가 없다. 그러나 중국어로 작성되어 있어 한국어 사용자에게는 다소 불편할 수 있다.
+5. Coherence Score (1-5): 3
+   - 설명: 생성된 응답은 논리적으로 연결되어 있으나, 원문과의 일관성이 부족하여 전체적인 일관성이 떨어진다. 추가된 조건들이 원문과의 연결성을 약화시킨다.
+6. Accuracy Score (1-5): 2
+   - 설명: 생성된 응답은 원문에서 제공하는 정보와 다소 상충하는 내용을 포함하고 있어 정확성이 떨어진다. 특히, 지원 가능 여부에 대한 조건이 원문과 다르게 제시되고 있다.
+7. Multidimensional Quality Score (1-5): 2
+   - 설명: 여러 차원에서 평가했을 때, 생성된 응답은 원문과의 일치성, 정확성, 일관성에서 부족함을 보인다. 전반적으로 낮은 점수를 받을 수밖에 없다.
+8. Semantic Appropriateness Score (1-5): 3
+   - 설명: 생성된 응답은 의미적으로 적절한 부분이 있지만, 원문과의 맥락이 다소 어긋나 있어 완전한 적절성을 갖추지 못하고 있다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 이해하기 쉬운 구조를 가지고 있으나, 언어가 중국어로 되어 있어 한국어 사용자에게는 다소 이해하기 어려울 수 있다.
+{
+    "Factuality Score": 2,
+    "Consistency Score": 2,
+    "Relevance Score": 4,
+    "Fluency Score": 4,
+    "Coherence Score": 3,
+    "Accuracy Score": 2,
+    "Multidimensional Quality Score": 2,
+    "Semantic Appropriateness Score": 3,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C332" t="n">
+        <v>0.6169180159949796</v>
+      </c>
+      <c r="D332" t="inlineStr">
+        <is>
+          <t>나는 특수목적고등학교 학생인데, 동의대 일반학생전형으로 지원 가능한가요?</t>
+        </is>
+      </c>
+      <c r="E332" t="inlineStr">
+        <is>
+          <t>你是特殊目的高中学生，根据提供的信息，你可以尝试以一般学生身份申请동의大学的学生部综合招生。但是具体能否申请还需要确认以下几点：
+1. 你的学校是否属于“一般高”、“自立高”、“科学高”、“国际高”或“外语高”。如果是这些类型之一，则可以申请。
+2. 你需要已经完成“특성화고 교육과정”或至少一年以上的“직업교육훈련과정”。
+如果以上条件都满足，那么你就可以尝试申请。但为了确保信息的准确性，请访问以下网站进行确认：“https://ipsi. deu. ac. kr/main. do”。</t>
+        </is>
+      </c>
+      <c r="F332" t="inlineStr">
+        <is>
+          <t>특수목적고등학교 출신 학생은 일반학생전형으로 지원할 수 있습니다. 다만, 농어촌학생전형의 경우 마이스터고를 제외한 특수목적고등학교 출신자는 지원할 수 없습니다. 일반학생전형에 대한 자세한 정보는 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="333">
+      <c r="A333" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B333" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 2
+   - 설명: 생성된 응답은 중어중국학과의 모집 인원 32명을 언급하고 있지만, 아동학과, 영어영문학과, 일본학과에 대한 정보는 원본 텍스트에 포함되어 있지 않으며, 이들 학과의 모집 인원에 대한 정보는 잘못된 내용입니다. 따라서 사실성 점수는 낮습니다.
+2. Consistency Score (1-5): 2
+   - 설명: 생성된 응답은 원본 텍스트와 일치하지 않는 추가 정보를 포함하고 있어 일관성이 떨어집니다. 중어중국학과와 신소재공학과에 대한 정보는 원본에 포함되어 있지만, 다른 학과에 대한 정보는 원본과 상충합니다.
+3. Relevance Score (1-5): 4
+   - 설명: 생성된 응답은 중어중국학과에 대한 정보를 제공하고 있지만, 다른 학과에 대한 정보는 원본 텍스트의 주요 주제와 관련이 없습니다. 그러나 중어중국학과에 대한 언급은 여전히 관련성이 있습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 구조를 가지고 있습니다. 다만, 일부 문장이 다소 복잡하게 느껴질 수 있습니다.
+5. Coherence Score (1-5): 3
+   - 설명: 생성된 응답은 중어중국학과에 대한 정보와 다른 학과에 대한 정보를 혼합하여 제시하고 있어 논리적인 흐름이 다소 부족합니다. 중어중국학과에 대한 정보는 명확하지만, 다른 학과에 대한 정보는 흐름을 방해합니다.
+6. Accuracy Score (1-5): 2
+   - 설명: 생성된 응답은 중어중국학과의 모집 인원에 대한 정확한 정보를 포함하고 있지만, 다른 학과에 대한 정보는 원본 텍스트와 일치하지 않으며, 잘못된 정보가 포함되어 있습니다.
+7. Multidimensional Quality Score (1-5): 2
+   - 설명: 생성된 응답은 사실성, 일관성, 정확성에서 낮은 점수를 받았으며, 전반적으로 여러 차원에서 품질이 떨어집니다.
+8. Semantic Appropriateness Score (1-5): 3
+   - 설명: 생성된 응답은 중어중국학과에 대한 정보는 적절하지만, 다른 학과에 대한 정보는 원본 텍스트의 맥락과 맞지 않아서 의미적으로 적절하지 않습니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 이해하기 쉬운 구조를 가지고 있지만, 추가된 정보로 인해 혼란스러울 수 있습니다. 중어중국학과에 대한 정보는 명확하게 전달됩니다.
+{
+    "Factuality Score": 2,
+    "Consistency Score": 2,
+    "Relevance Score": 4,
+    "Fluency Score": 4,
+    "Coherence Score": 3,
+    "Accuracy Score": 2,
+    "Multidimensional Quality Score": 2,
+    "Semantic Appropriateness Score": 3,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C333" t="n">
+        <v>0.7677026170146646</v>
+      </c>
+      <c r="D333" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대 나군 전형에서 가장 많이 모집하는 학과는 어떤 학과인가요?</t>
+        </is>
+      </c>
+      <c r="E333" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대학교 나군 전형에서 가장 많이 모집하는 학과를 확인해보겠습니다.
+- 중어중국학과 - 교직: 정원 내 모집 인원은 32명입니다.
+- 아동학과: 정원 내 모집 인원은 10명입니다.
+- 영어영문학과 - 교직: 정원 내 모집 인원은 0명입니다 (다른 학과들에 비해 매우 적습니다).
+- 일본학과 - 교직: 정원 내 모집 인원은 1명입니다.
+따라서, 2024학년도 동의대학교 나군 전형에서 가장 많이 모집하는 학과는 **중어중국학과 - 교직**이며, 정원 내 모집인원이 32명이라는 것을 확인할 수 있습니다.</t>
+        </is>
+      </c>
+      <c r="F333" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대 나군 전형에서 가장 많이 모집하는 학과는 인문사회과학대학의 중어중국학과와 공과대학 신소재공학과로, 나군 일반학생 전형에서 32명을 모집합니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="334">
+      <c r="A334" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B334" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 2
+   - 설명: 생성된 응답은 동의대 학생부교과 농어촌학생전형에 대한 지원 자격을 잘못 설명하고 있습니다. 원문에서는 마이스터고를 제외한 특수목적고등학교 출신자는 지원할 수 없다고 명시되어 있지만, 생성된 응답에서는 일반 고등학교와 자치 고등학교도 지원할 수 있다고 잘못 언급하고 있습니다.
+2. Consistency Score (1-5): 2
+   - 설명: 생성된 응답은 원문과 일치하지 않는 정보를 포함하고 있습니다. 원문에서 명확히 지원할 수 없는 학교 유형을 언급했음에도 불구하고, 생성된 응답에서는 다른 학교 유형이 지원 가능하다고 주장하고 있어 일관성이 부족합니다.
+3. Relevance Score (1-5): 4
+   - 설명: 생성된 응답은 주제와 관련된 정보를 제공하고 있지만, 원문에서 언급된 특정 조건을 잘못 해석하여 관련성이 떨어집니다. 그러나 지원 자격에 대한 추가 정보를 제공하는 점은 긍정적입니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 문법적으로 잘 구성되어 있으며, 읽기에도 무리가 없습니다. 그러나 한국어로 작성된 원문과는 다른 언어로 작성되어 있어, 한국어 사용자에게는 다소 불편할 수 있습니다.
+5. Coherence Score (1-5): 3
+   - 설명: 생성된 응답은 논리적으로 연결된 문장을 가지고 있지만, 원문과의 연결이 약해 전체적인 일관성이 떨어집니다. 원문에서의 핵심 내용을 반영하지 못하고 있습니다.
+6. Accuracy Score (1-5): 2
+   - 설명: 생성된 응답은 원문에서 제공하는 사실과 일치하지 않는 정보를 포함하고 있어 정확성이 낮습니다. 지원 자격에 대한 잘못된 해석이 문제입니다.
+7. Multidimensional Quality Score (1-5): 2
+   - 설명: 여러 차원에서 평가했을 때, 생성된 응답은 사실성, 일관성, 정확성에서 낮은 점수를 받았습니다. 전반적으로 원문과의 일치성이 부족합니다.
+8. Semantic Appropriateness Score (1-5): 3
+   - 설명: 생성된 응답은 의미적으로 적절한 부분도 있지만, 원문과의 맥락이 맞지 않아 일부 내용이 부적절하게 해석되었습니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 이해하기 쉬운 문장으로 구성되어 있으나, 원문과의 불일치로 인해 혼란을 줄 수 있습니다.
+{
+    "Factuality Score": 2,
+    "Consistency Score": 2,
+    "Relevance Score": 4,
+    "Fluency Score": 4,
+    "Coherence Score": 3,
+    "Accuracy Score": 2,
+    "Multidimensional Quality Score": 2,
+    "Semantic Appropriateness Score": 3,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C334" t="n">
+        <v>0.4838923616756291</v>
+      </c>
+      <c r="D334" t="inlineStr">
+        <is>
+          <t>나는 특수목적고등학교 학생인데, 동의대 학생부교과 농어촌학생전형으로 지원 가능한가요?</t>
+        </is>
+      </c>
+      <c r="E334" t="inlineStr">
+        <is>
+          <t>你在特教高中，根据提供的信息来看，你不能通过동의大学的学生部课程-农渔村学生选拔类型进行申请。因为该类型的招生资格中明确指出，只有普通高中、自治高中、科学高中、国际高中和外语高中的学生才有资格申请。
+如果你希望了解更多详细信息或确认你的资格状态，建议访问以下网站以获取更多信息：https://ipsi. deu. ac. kr/main. do
+同时，请注意检查你所在地区的具体招生政策和要求，因为这些可能会有所不同。</t>
+        </is>
+      </c>
+      <c r="F334" t="inlineStr">
+        <is>
+          <t>마이스터고를 제외한 특수목적고등학교 출신자는 동의대 학생부교과 농어촌학생전형으로 지원할 수 없습니다.  지원 자격에 따르면, 농어촌지역 또는 도서·벽지에 소재한 특수목적고 중 과학고, 국제고, 외국어고, 체육고, 예술고 출신자는 지원할 수 없습니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="335">
+      <c r="A335" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B335" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 1
+   - 설명: 생성된 응답은 2024학년도 소프트웨어공학부 합격자 평균 성적에 대한 정보가 포함되어 있다고 주장하지만, 원본 텍스트에서는 해당 정보가 포함되어 있지 않다고 명시하고 있습니다. 따라서 사실과 완전히 일치하지 않으며, 잘못된 정보를 제공합니다.
+2. Consistency Score (1-5): 1
+   - 설명: 생성된 응답은 원본 텍스트와 상충되는 내용을 포함하고 있습니다. 원본 텍스트는 평균 성적에 대한 정보가 없다고 명시하고 있는데, 생성된 응답은 구체적인 성적을 제시하고 있습니다. 이로 인해 일관성이 전혀 없습니다.
+3. Relevance Score (1-5): 1
+   - 설명: 생성된 응답은 원본 텍스트의 주제와 관련이 없습니다. 원본 텍스트는 정보가 없음을 알리고 있지만, 생성된 응답은 구체적인 성적 정보를 제공하여 주제에서 벗어나 있습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 문법적으로 잘 구성되어 있으며, 읽기에도 무리가 없습니다. 그러나 내용의 정확성과 관련성 문제로 인해 전체적인 평가에 영향을 미칩니다.
+5. Coherence Score (1-5): 2
+   - 설명: 생성된 응답은 원본 텍스트와의 연결이 부족하여 일관된 흐름을 유지하지 못합니다. 원본 텍스트의 정보와 상충하는 내용을 포함하고 있어 논리적 일관성이 떨어집니다.
+6. Accuracy Score (1-5): 1
+   - 설명: 생성된 응답은 원본 텍스트의 사실과 완전히 다릅니다. 원본 텍스트는 평균 성적에 대한 정보가 없다고 명시하고 있는데, 생성된 응답은 구체적인 성적을 제시하고 있습니다.
+7. Multidimensional Quality Score (1-5): 1
+   - 설명: 생성된 응답은 사실성, 일관성, 관련성, 정확성 등 모든 차원에서 매우 낮은 점수를 받습니다. 원본 텍스트와의 불일치로 인해 전반적인 품질이 저하되었습니다.
+8. Semantic Appropriateness Score (1-5): 1
+   - 설명: 생성된 응답은 원본 텍스트의 의미와 맥락에 맞지 않습니다. 원본 텍스트는 정보가 없음을 알리는데, 생성된 응답은 잘못된 정보를 제공합니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 문법적으로 명확하고 이해하기 쉬운 구조를 가지고 있습니다. 그러나 내용의 정확성과 관련성 문제로 인해 전체적인 평가에 영향을 미칩니다.
+{
+    "Factuality Score": 1,
+    "Consistency Score": 1,
+    "Relevance Score": 1,
+    "Fluency Score": 4,
+    "Coherence Score": 2,
+    "Accuracy Score": 1,
+    "Multidimensional Quality Score": 1,
+    "Semantic Appropriateness Score": 1,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C335" t="n">
+        <v>0.5838716175099734</v>
+      </c>
+      <c r="D335" t="inlineStr">
+        <is>
+          <t>2024학년도 소프트웨어공학부 합격자 평균 성적을 알려줘.</t>
+        </is>
+      </c>
+      <c r="E335" t="inlineStr">
+        <is>
+          <t>2024학년도 ICT융합공과대학 소프트웨어공학부의 합격자 평균 성적은 국어 + 수학 + 탐구(2개) (가산점 포함) 표준 변환 점수 합의 평균으로, 317.87입니다.</t>
+        </is>
+      </c>
+      <c r="F335" t="inlineStr">
+        <is>
+          <t>제공된 정시 모집요강에는 2024학년도 소프트웨어공학부 합격자 평균 성적에 대한 정보가 포함되어 있지 않습니다. 해당 정보를 확인하려면 "https://ipsi.deu.ac.kr/main.do"를 방문하여 문의하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="336">
+      <c r="A336" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B336" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 1
+   - 설명: 생성된 응답은 2024학년도 소프트웨어공학부 합격자 평균 성적에 대한 정보가 포함되어 있지 않다는 원문과 상충되는 내용을 담고 있습니다. 원문에서는 해당 정보가 없다고 명시하고 있지만, 생성된 응답은 구체적인 성적 수치를 제공하고 있습니다.
+2. Consistency Score (1-5): 1
+   - 설명: 생성된 응답은 원문과 완전히 모순되는 정보를 제공합니다. 원문이 합격자 평균 성적에 대한 정보가 없다고 명시한 반면, 생성된 응답은 구체적인 성적을 제시하고 있어 일관성이 없습니다.
+3. Relevance Score (1-5): 1
+   - 설명: 생성된 응답은 원문에서 요청한 정보와 관련이 없습니다. 원문은 평균 성적에 대한 정보가 없다고 하였고, 생성된 응답은 그와는 전혀 다른 내용을 담고 있습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 문법적으로 잘 구성되어 있으며, 읽기에도 무리가 없습니다. 그러나 내용의 정확성과 관련성 문제로 인해 전체적인 평가에 영향을 미칩니다.
+5. Coherence Score (1-5): 3
+   - 설명: 생성된 응답은 내부적으로는 일관된 구조를 가지고 있지만, 원문과의 관계에서 비논리적입니다. 원문과의 연결이 없기 때문에 전체적인 일관성은 떨어집니다.
+6. Accuracy Score (1-5): 1
+   - 설명: 생성된 응답은 원문에서 제공하지 않는 정보를 포함하고 있으며, 이는 사실과 다릅니다. 따라서 정확성 점수는 매우 낮습니다.
+7. Multidimensional Quality Score (1-5): 1
+   - 설명: 생성된 응답은 사실성, 일관성, 관련성, 정확성 등 모든 차원에서 매우 낮은 점수를 받습니다. 원문과의 관계가 전혀 없기 때문에 전반적인 품질이 떨어집니다.
+8. Semantic Appropriateness Score (1-5): 1
+   - 설명: 생성된 응답은 원문의 의미와 맥락에 맞지 않으며, 원문에서 요청한 정보와는 전혀 다른 내용을 담고 있습니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 문법적으로 잘 구성되어 있어 이해하기 어렵지 않지만, 내용의 부적절성으로 인해 전체적인 이해도에 영향을 미칩니다.
+{
+    "Factuality Score": 1,
+    "Consistency Score": 1,
+    "Relevance Score": 1,
+    "Fluency Score": 4,
+    "Coherence Score": 3,
+    "Accuracy Score": 1,
+    "Multidimensional Quality Score": 1,
+    "Semantic Appropriateness Score": 1,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C336" t="n">
+        <v>0.5027824034528953</v>
+      </c>
+      <c r="D336" t="inlineStr">
+        <is>
+          <t>2024학년도 소프트웨어공학부 최초 합격자 평균 성적을 알려줘.</t>
+        </is>
+      </c>
+      <c r="E336" t="inlineStr">
+        <is>
+          <t>2024학년도 소프트웨어공학부 최초합격자의 국어 + 수학 + 탐구(2개) (가산점 포함) 표준 변환 점수 합의 평균은 330.11입니다. 또한, 영어 등급의 평균은 3.30이며, 수능 4개 영역 등급의 평균은 4.12입니다. 이외에도, 수능 4개 영역 (가산점 포함) 표준 변환 점수 합의 평균은 450.71입니다.</t>
+        </is>
+      </c>
+      <c r="F336" t="inlineStr">
+        <is>
+          <t>제공된 정시 모집요강에는 2024학년도 소프트웨어공학부 합격자 평균 성적에 대한 정보가 포함되어 있지 않습니다. 해당 정보를 확인하려면 "https://ipsi.deu.ac.kr/main.do"를 방문하여 문의하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="337">
+      <c r="A337" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B337" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 2
+   - 설명: 생성된 응답은 합격자 발표 일정에 대한 일부 정보를 포함하고 있지만, 원본 텍스트와 비교했을 때 여러 가지 중요한 세부사항이 누락되었고, 잘못된 정보가 포함되어 있습니다. 예를 들어, 최초 합격자 등록 날짜가 잘못 기재되어 있으며, 충원 합격자 발표의 시간과 방식에 대한 정보도 다릅니다.
+2. Consistency Score (1-5): 2
+   - 설명: 생성된 응답은 원본 텍스트와 일관성이 부족합니다. 발표 일정의 세부사항이 다르게 제시되며, 특히 등록 관련 정보가 추가되어 원본과의 일관성이 떨어집니다.
+3. Relevance Score (1-5): 4
+   - 설명: 생성된 응답은 합격자 발표 일정에 대한 정보를 제공하고 있으나, 원본 텍스트의 핵심 내용과는 일부 차이가 있습니다. 그러나 여전히 관련된 주제를 다루고 있어 높은 점수를 부여합니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 구조를 가지고 있습니다. 다만, 일부 문장이 다소 복잡하게 구성되어 있어 약간의 개선이 필요합니다.
+5. Coherence Score (1-5): 3
+   - 설명: 생성된 응답은 일정한 흐름을 가지고 있으나, 원본 텍스트와의 차이로 인해 논리적인 일관성이 떨어집니다. 특히, 등록 관련 정보가 추가되면서 전체적인 일관성이 약해졌습니다.
+6. Accuracy Score (1-5): 2
+   - 설명: 생성된 응답은 원본 텍스트의 사실과 여러 면에서 다릅니다. 특히 날짜와 시간, 등록 방식에 대한 정보가 부정확하여 낮은 점수를 부여합니다.
+7. Multidimensional Quality Score (1-5): 2
+   - 설명: 생성된 응답은 여러 품질 차원에서 부족한 점이 많습니다. 사실성, 일관성, 정확성 모두에서 낮은 점수를 받았기 때문에 전반적인 품질이 낮습니다.
+8. Semantic Appropriateness Score (1-5): 3
+   - 설명: 생성된 응답은 주제와 관련된 내용을 다루고 있지만, 원본 텍스트의 의미와는 다소 차이가 있어 의미적으로 완벽하게 적절하다고 보기는 어렵습니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 이해하기 쉬운 구조를 가지고 있으며, 정보가 명확하게 전달되고 있습니다. 다만, 일부 복잡한 문장 구조로 인해 약간의 혼란을 줄 수 있습니다.
+{
+    "Factuality Score": 2,
+    "Consistency Score": 2,
+    "Relevance Score": 4,
+    "Fluency Score": 4,
+    "Coherence Score": 3,
+    "Accuracy Score": 2,
+    "Multidimensional Quality Score": 2,
+    "Semantic Appropriateness Score": 3,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C337" t="n">
+        <v>0.8717569841517014</v>
+      </c>
+      <c r="D337" t="inlineStr">
+        <is>
+          <t>합격자 발표 일정을 알려줘.</t>
+        </is>
+      </c>
+      <c r="E337" t="inlineStr">
+        <is>
+          <t>2024년 합격자 발표 일정은 다음과 같습니다.
+1. 최초 합격자 발표 및 등록 : 2024년 2월 2일 금요일 오후 2시에 홈페이지에서 개별 조회 가능합니다.
+2. 최초 합격자 등록 : 2024년 2월 7일 수요일부터 13일 화요일까지 (은행 마감 시간 내) 입금이 가능합니다.
+3. 충원 합격자 1차 발표 및 등록 : 각각 2024년 2월 14일 수요일 오전 9시와 오후 4시에 홈페이지에서 개별 조회가 가능하며, 이날 오후 4시까지 입금이 가능합니다.
+4. 충원 합격자 2차 발표 및 등록 : 각각 2024년 2월 15일 목요일 오전 9시와 오후 4시에 홈페이지에서 개별 조회가 가능하며, 이날 오후 4시까지 입금이 가능합니다.
+5. 충원 합격자 3차 이후 발표 및 등록 : 각각 2024년 2월 15일 목요일 저녁 7시부터 20일 화요일 오후 6시까지 개별 전화 통보를 통해 이루어집니다.
+이상의 일정을 참고하시기 바랍니다.</t>
+        </is>
+      </c>
+      <c r="F337" t="inlineStr">
+        <is>
+          <t>합격자 발표 일정은 다음과 같습니다:
+ - 최초 합격자 발표: 2024년 2월 2일(금) 14:00
+ - 충원 합격자 1차 발표: 2024년 2월 14일(수) 09:00
+ - 충원 합격자 2차 발표: 2024년 2월 15일(목) 09:00
+ - 충원 합격자 3차 이후 발표: 2024년 2월 15일(목) 19:00부터 2024년 2월 20일(화) 18:00까지
+ 모든 발표는 홈페이지를 통해 개별 조회해야 합니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="338">
+      <c r="A338" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B338" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 1
+   - 설명: 생성된 응답은 면접고사의 일정에 대한 구체적인 날짜와 시간이 포함되어 있지 않다고 주장하지만, 원본 텍스트에는 명확하게 "2024. 01. 20.(토)"라는 날짜가 명시되어 있습니다. 따라서 사실과 일치하지 않으며, 여러 가지 부정확한 정보가 포함되어 있습니다.
+2. Consistency Score (1-5): 1
+   - 설명: 생성된 응답은 원본 텍스트의 정보와 상충합니다. 원본 텍스트는 면접고사의 일정이 명확하게 제시되어 있지만, 생성된 응답은 이를 부정하며 모호한 정보를 제공합니다. 이로 인해 일관성이 전혀 없습니다.
+3. Relevance Score (1-5): 2
+   - 설명: 생성된 응답은 면접고사 일정에 대한 질문에 대한 답변으로 적절하지 않습니다. 원본 텍스트의 핵심 정보인 면접 일정이 명확히 제시되어 있음에도 불구하고, 생성된 응답은 관련 없는 정보와 링크를 제공하고 있습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 문법적으로는 비교적 잘 작성되어 있으며, 읽기에도 무리가 없습니다. 그러나 내용의 부적절함으로 인해 전체적인 흐름이 방해받습니다.
+5. Coherence Score (1-5): 3
+   - 설명: 생성된 응답은 일관된 구조를 가지고 있으나, 원본 텍스트와의 관련성이 떨어져서 전체적인 논리적 흐름이 약해집니다. 원본의 정보와 연결되지 않아 일관성이 부족합니다.
+6. Accuracy Score (1-5): 1
+   - 설명: 생성된 응답은 원본 텍스트의 사실을 왜곡하고 있으며, 면접 일정에 대한 정확한 정보를 제공하지 않고 있습니다. 따라서 정확성 점수는 매우 낮습니다.
+7. Multidimensional Quality Score (1-5): 1
+   - 설명: 생성된 응답은 사실성, 일관성, 관련성, 정확성 등 모든 차원에서 매우 낮은 점수를 받습니다. 전반적으로 품질이 떨어집니다.
+8. Semantic Appropriateness Score (1-5): 2
+   - 설명: 생성된 응답은 원본 텍스트의 의미와 맥락에 맞지 않으며, 부적절한 정보와 링크를 포함하고 있습니다. 따라서 의미적으로 적절하지 않습니다.
+9. Understandability Score (1-5): 3
+   - 설명: 생성된 응답은 문법적으로는 이해할 수 있지만, 내용이 원본 텍스트와 관련이 없기 때문에 혼란을 줄 수 있습니다. 따라서 이해 가능성 점수는 중간 정도입니다.
+{
+    "Factuality Score": 1,
+    "Consistency Score": 1,
+    "Relevance Score": 2,
+    "Fluency Score": 4,
+    "Coherence Score": 3,
+    "Accuracy Score": 1,
+    "Multidimensional Quality Score": 1,
+    "Semantic Appropriateness Score": 2,
+    "Understandability Score": 3
+}</t>
+        </is>
+      </c>
+      <c r="C338" t="n">
+        <v>0.3319625119042762</v>
+      </c>
+      <c r="D338" t="inlineStr">
+        <is>
+          <t>면접고사는 언제 보러 가나요</t>
+        </is>
+      </c>
+      <c r="E338" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 제공된 정보로는 면접고사의 일정에 대한 구체적인 날짜와 시간이 포함되어 있지 않습니다. 면접일정은 일반적으로 입학사정관의 평가를 위해 특정 날짜와 시간을 정합니다. 이 정보는 대학 홈페이지나 학생부종합전형 안내서에서 확인할 수 있습니다.
+만약 구체적인 일정이 필요하다면, "https://ipsi. deu. ac. kr/main. do" 링크를 통해 대학의 공식 웹사이트를 방문하여 최신 정보를 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+      <c r="F338" t="inlineStr">
+        <is>
+          <t>나군 평생학습자전형, 성인학습자(정원내)전형, 성인학습자(정원외)전형, 재직자전형, 조기취업형계약학과전형의 면접고사 일정은 2024. 01. 20.(토)입니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="339">
+      <c r="A339" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B339" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 2
+   - 설명: 생성된 응답은 "한의예과의 최저학력 기준이 없습니다"라는 원문 내용을 왜곡하고 있습니다. 원문은 최저학력 기준이 없다고 명확히 언급하고 있지만, 생성된 응답은 이를 추정으로 바꾸어 해석하고 있습니다. 이는 사실과 일치하지 않으므로 낮은 점수를 부여합니다.
+2. Consistency Score (1-5): 2
+   - 설명: 생성된 응답은 원문과 일치하지 않는 정보를 포함하고 있습니다. 원문이 최저학력 기준이 없다고 명시했음에도 불구하고, 응답에서는 일반적으로 최저학력 기준이 적용될 것이라고 언급하고 있어 일관성이 부족합니다.
+3. Relevance Score (1-5): 4
+   - 설명: 생성된 응답은 원문과 관련된 정보를 제공하고 있으며, 추가적인 정보도 포함하고 있습니다. 그러나 원문에서 명확히 언급된 내용을 왜곡하고 있어 완전한 관련성을 보장하지는 않습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 구조를 가지고 있습니다. 다만, 일부 문장이 다소 복잡하게 구성되어 있어 약간의 가독성 저하가 있을 수 있습니다.
+5. Coherence Score (1-5): 3
+   - 설명: 생성된 응답은 논리적인 흐름이 있지만, 원문과의 불일치로 인해 전체적인 일관성이 떨어집니다. 원문과의 연결이 약해져서 응답의 일관성이 다소 부족합니다.
+6. Accuracy Score (1-5): 2
+   - 설명: 생성된 응답은 원문에서 제공된 정보와 상충하는 내용을 포함하고 있습니다. 원문이 최저학력 기준이 없다고 명시했음에도 불구하고, 응답에서는 이를 추정으로 바꾸어 해석하고 있어 정확성이 낮습니다.
+7. Multidimensional Quality Score (1-5): 2
+   - 설명: 생성된 응답은 여러 차원에서 낮은 점수를 받고 있습니다. 사실성, 일관성, 정확성에서 모두 문제가 있어 전반적인 품질이 낮습니다.
+8. Semantic Appropriateness Score (1-5): 3
+   - 설명: 생성된 응답은 원문과 관련된 내용을 다루고 있지만, 원문의 의미를 왜곡하고 있어 의미적으로 완전한 적합성을 보이지 않습니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 이해하기 쉬운 구조를 가지고 있으나, 원문과의 불일치로 인해 혼란을 줄 수 있는 요소가 있습니다.
+{
+    "Factuality Score": 2,
+    "Consistency Score": 2,
+    "Relevance Score": 4,
+    "Fluency Score": 4,
+    "Coherence Score": 3,
+    "Accuracy Score": 2,
+    "Multidimensional Quality Score": 2,
+    "Semantic Appropriateness Score": 3,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C339" t="n">
+        <v>0.5284421497867603</v>
+      </c>
+      <c r="D339" t="inlineStr">
+        <is>
+          <t>한의예과 최저학력기준</t>
+        </is>
+      </c>
+      <c r="E339" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 제공된 정보에서 한의예과의 최저학력기준에 대한 내용이 직접적으로 언급되어 있지 않습니다. 하지만, 전형요소 반영비율에서 "나군 수능(일반학생전형) 한의예과(수학(미적분/기하),수학(확률과 통계))"라는 항목을 확인할 수 있습니다. 이 항목에서는 수능 최저기준이 언급되어 있지 않으므로, 일반적으로 한의예과의 경우 수능 최저학력 기준이 적용될 것으로 추정됩니다.
+더 정확한 정보를 얻기 위해서는 공식 입학 안내 홈페이지 (http://ipsi. deu. ac. kr 또는 http://www. uwayapply. com)를 참조하시거나, 직접 학교 입학관리팀에 문의하시는 것이 좋습니다.</t>
+        </is>
+      </c>
+      <c r="F339" t="inlineStr">
+        <is>
+          <t>동의대 한의예과의 최저학력 기준이 없습니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="340">
+      <c r="A340" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B340" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 2
+   - 생성된 응답은 동의대학교의 수능 최저학력 기준이 없다는 사실을 무시하고, 2024년도에 대한 정보가 제공되지 않았다고 언급하고 있습니다. 이는 사실과 다르며, 잘못된 정보를 포함하고 있습니다.
+2. Consistency Score (1-5): 2
+   - 생성된 응답은 원본 텍스트와 일치하지 않으며, 수능 최저학력 기준이 없다는 내용을 부정하는 정보가 포함되어 있습니다. 따라서 일관성이 부족합니다.
+3. Relevance Score (1-5): 3
+   - 생성된 응답은 수능 최저학력 기준에 대한 질문에 대한 답변을 제공하려고 하지만, 원본 텍스트의 핵심 내용을 반영하지 않고 있습니다. 관련성은 있지만, 주제에서 벗어난 정보가 포함되어 있습니다.
+4. Fluency Score (1-5): 4
+   - 문장은 전반적으로 잘 구성되어 있으며, 문법적으로도 큰 문제가 없습니다. 읽기에도 무리가 없습니다.
+5. Coherence Score (1-5): 3
+   - 응답은 일관된 흐름을 가지고 있지만, 원본 텍스트와의 불일치로 인해 전체적인 일관성이 떨어집니다. 주제와 관련된 정보가 부족합니다.
+6. Accuracy Score (1-5): 2
+   - 응답은 동의대학교의 수능 최저학력 기준이 없다는 사실을 잘못 전달하고 있으며, 이는 정확성에 큰 영향을 미칩니다.
+7. Multidimensional Quality Score (1-5): 2
+   - 여러 차원에서 응답의 질이 낮습니다. 사실성, 일관성, 정확성 모두 부족하여 전반적인 품질이 떨어집니다.
+8. Semantic Appropriateness Score (1-5): 3
+   - 의미적으로는 적절한 부분이 있지만, 원본 텍스트의 맥락과는 맞지 않는 정보가 포함되어 있어 적절성에 문제가 있습니다.
+9. Understandability Score (1-5): 4
+   - 응답은 전반적으로 이해하기 쉽지만, 원본 텍스트와의 불일치로 인해 혼란을 줄 수 있습니다.
+{
+    "Factuality Score": 2,
+    "Consistency Score": 2,
+    "Relevance Score": 3,
+    "Fluency Score": 4,
+    "Coherence Score": 3,
+    "Accuracy Score": 2,
+    "Multidimensional Quality Score": 2,
+    "Semantic Appropriateness Score": 3,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C340" t="n">
+        <v>0.5185788056941878</v>
+      </c>
+      <c r="D340" t="inlineStr">
+        <is>
+          <t>정시 전형으로 지원할 때 수능최저학력기준이 있나요?</t>
+        </is>
+      </c>
+      <c r="E340" t="inlineStr">
+        <is>
+          <t>2024년도에 대한 정확한 수능 최저학력 기준 정보가 제공되지 않았습니다. 일반적으로 각 대학과 학과마다 수능 최저학력 기준이 다르므로, 해당 대학의 공식 홈페이지 (https://ipsi. deu. ac. kr/main. do) 또는 입학 안내 홈페이지를 참조하시거나, 직접 입학처에 문의하시는 것이 가장 정확한 정보를 얻는 방법입니다.</t>
+        </is>
+      </c>
+      <c r="F340" t="inlineStr">
+        <is>
+          <t>동의대학교는 수능 최저학력 기준이 없습니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="341">
+      <c r="A341" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B341" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 2
+   - 설명: 생성된 응답은 1차 충원합격자 발표 일정을 누락하고, 2차 발표 일정만 언급하고 있습니다. 또한, 추가 정보는 원본 텍스트에 포함되어 있지 않은 내용이므로 사실성이 낮습니다.
+2. Consistency Score (1-5): 2
+   - 설명: 생성된 응답은 원본 텍스트의 발표 일정과 일치하지 않으며, 추가 정보는 원본 텍스트와 관련이 없습니다. 따라서 일관성이 떨어집니다.
+3. Relevance Score (1-5): 3
+   - 설명: 생성된 응답은 2차 충원합격자 발표 일정에 대한 정보를 제공하지만, 원본 텍스트의 전체적인 맥락을 충분히 반영하지 못하고 있습니다. 추가 정보는 관련성이 낮습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 문법적으로 올바르고 읽기 쉬운 문장으로 구성되어 있습니다. 그러나 일부 표현이 다소 어색할 수 있습니다.
+5. Coherence Score (1-5): 3
+   - 설명: 생성된 응답은 발표 일정에 대한 정보와 추가 정보를 포함하고 있지만, 두 부분 간의 연결이 약해 전체적인 일관성이 떨어집니다.
+6. Accuracy Score (1-5): 2
+   - 설명: 생성된 응답은 원본 텍스트의 정확한 정보를 반영하지 않으며, 특히 1차 발표 일정이 누락되어 있습니다.
+7. Multidimensional Quality Score (1-5): 2
+   - 설명: 전반적으로 사실성, 일관성, 정확성에서 낮은 점수를 받았으며, 전체적인 품질이 떨어집니다.
+8. Semantic Appropriateness Score (1-5): 3
+   - 설명: 생성된 응답은 일부 적절한 정보를 제공하지만, 원본 텍스트의 맥락과는 다소 어긋나는 부분이 있습니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 이해하기 쉬운 문장으로 구성되어 있으나, 정보의 일관성이 부족하여 혼란을 줄 수 있습니다.
+{
+    "Factuality Score": 2,
+    "Consistency Score": 2,
+    "Relevance Score": 3,
+    "Fluency Score": 4,
+    "Coherence Score": 3,
+    "Accuracy Score": 2,
+    "Multidimensional Quality Score": 2,
+    "Semantic Appropriateness Score": 3,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C341" t="n">
+        <v>0.7126445732899559</v>
+      </c>
+      <c r="D341" t="inlineStr">
+        <is>
+          <t>충원합격자 발표는 언제?</t>
+        </is>
+      </c>
+      <c r="E341" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 충원합격자 발표 일정은 2024년 2월 15일(목) 09:00입니다. 이와 관련된 추가 정보는 다음과 같습니다:
+- 발표 방식: 홈페이지에서 개별 조회 가능합니다.
+- 고지서 교부 방법: 홈페이지에서 출력하거나 입학관리팀에서 수령할 수 있습니다.
+- 등록장소: 학교 지정은행으로 하며, 등록금 고지서에 기재된 정보를 참고해야 합니다.</t>
+        </is>
+      </c>
+      <c r="F341" t="inlineStr">
+        <is>
+          <t>충원합격자 발표 일정은 다음과 같습니다:
+ 1. 1차 충원합격자 발표: 2024년 2월 14일(수) 09:00
+ 2. 2차 충원합격자 발표: 2024년 2월 15일(목) 09:00
+ 3. 3차 이후 충원합격자 발표: 2024년 2월 15일(목) 19:00부터 2024년 2월 20일(화) 18시까지</t>
+        </is>
+      </c>
+    </row>
+    <row r="342">
+      <c r="A342" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B342" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 1
+   - 설명: 생성된 응답은 충원합격자 발표 일정에 대한 구체적인 정보를 제공하지 않고 있으며, 사실과 다르게 "아직 제공되지 않았습니다"라고 언급하고 있습니다. 이는 원본 텍스트의 내용을 완전히 무시한 것입니다.
+2. Consistency Score (1-5): 1
+   - 설명: 생성된 응답은 원본 텍스트와 상충되는 정보를 포함하고 있습니다. 원본 텍스트는 구체적인 발표 일정을 제공하고 있지만, 생성된 응답은 그러한 정보를 부정하고 있습니다.
+3. Relevance Score (1-5): 1
+   - 설명: 생성된 응답은 원본 텍스트의 핵심 주제인 추가합격자 발표 일정과 관련이 없습니다. 오히려 관련 없는 정보로 대체되고 있습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 문법적으로 잘 작성되어 있으며, 읽기에도 무리가 없습니다. 그러나 내용의 부적절함으로 인해 전체적인 평가에 영향을 미칩니다.
+5. Coherence Score (1-5): 3
+   - 설명: 생성된 응답은 일관된 구조를 가지고 있지만, 원본 텍스트와의 관련성이 부족하여 전체적인 일관성이 떨어집니다.
+6. Accuracy Score (1-5): 1
+   - 설명: 생성된 응답은 원본 텍스트의 사실을 왜곡하고 있으며, 정확한 정보를 제공하지 않고 있습니다.
+7. Multidimensional Quality Score (1-5): 1
+   - 설명: 생성된 응답은 사실성, 일관성, 관련성, 정확성 등 모든 차원에서 매우 낮은 점수를 받습니다.
+8. Semantic Appropriateness Score (1-5): 1
+   - 설명: 생성된 응답은 원본 텍스트의 의미와 맥락에 맞지 않으며, 부적절한 내용을 포함하고 있습니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 문법적으로 명확하고 이해하기 쉬운 문장으로 구성되어 있지만, 내용의 부적절함으로 인해 전체적인 이해에 방해가 됩니다.
+{
+    "Factuality Score": 1,
+    "Consistency Score": 1,
+    "Relevance Score": 1,
+    "Fluency Score": 4,
+    "Coherence Score": 3,
+    "Accuracy Score": 1,
+    "Multidimensional Quality Score": 1,
+    "Semantic Appropriateness Score": 1,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C342" t="n">
+        <v>0.4392904978585356</v>
+      </c>
+      <c r="D342" t="inlineStr">
+        <is>
+          <t>추가합격자 발표는 언제?</t>
+        </is>
+      </c>
+      <c r="E342" t="inlineStr">
+        <is>
+          <t>2024학년도 입시 관련 자세한 일정은 아직 제공되지 않았습니다. 추가합격자 발표일정이 공개되면 해당 정보를 알려드리겠습니다. 현재까지의 변경사항과 관련된 내용만을 기반으로 답변하였습니다. 추가합격자 발표일정에 대한 최신 정보는 대학 홈페이지(https://ipsi.deu.ac.kr/main.do)에서 확인해주세요.</t>
+        </is>
+      </c>
+      <c r="F342" t="inlineStr">
+        <is>
+          <t>충원합격자 발표 일정은 다음과 같습니다:
+ 1. 1차 충원합격자 발표: 2024년 2월 14일(수) 09:00
+ 2. 2차 충원합격자 발표: 2024년 2월 15일(목) 09:00
+ 3. 3차 이후 충원합격자 발표: 2024년 2월 15일(목) 19:00부터 2024년 2월 20일(화) 18시까지</t>
+        </is>
+      </c>
+    </row>
+    <row r="343">
+      <c r="A343" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B343" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 2
+   - 설명: 생성된 응답은 추가 모집에 대한 정보가 없다고 주장하지만, 원본 텍스트에서는 추가 모집에 대한 명확한 설명이 포함되어 있습니다. 따라서 사실성이 낮습니다.
+2. Consistency Score (1-5): 2
+   - 설명: 생성된 응답은 원본 텍스트의 내용과 일치하지 않으며, 원본에서 제공된 정보와 상충하는 내용을 포함하고 있습니다. 
+3. Relevance Score (1-5): 3
+   - 설명: 생성된 응답은 원본 텍스트와 관련이 있지만, 원본의 핵심 내용을 제대로 반영하지 못하고 있습니다. 추가 모집에 대한 정보가 없다는 주장은 원본의 내용을 무시하는 것입니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 문법적으로 올바르고 읽기 쉬운 구조를 가지고 있습니다. 그러나 약간의 어색함이 느껴질 수 있습니다.
+5. Coherence Score (1-5): 3
+   - 설명: 생성된 응답은 일관된 구조를 가지고 있지만, 원본 텍스트와의 연결이 부족하여 전체적인 논리적 흐름이 약간 떨어집니다.
+6. Accuracy Score (1-5): 2
+   - 설명: 생성된 응답은 원본 텍스트의 사실을 잘못 해석하고 있으며, 중요한 정보를 누락하고 있습니다.
+7. Multidimensional Quality Score (1-5): 2
+   - 설명: 여러 차원에서 생성된 응답은 낮은 점수를 받으며, 사실성, 일관성, 정확성에서 모두 부족합니다.
+8. Semantic Appropriateness Score (1-5): 3
+   - 설명: 생성된 응답은 의미적으로 적절한 부분이 있지만, 원본 텍스트의 맥락을 잘못 이해하고 있습니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 이해하기 쉽지만, 원본 텍스트와의 관련성이 떨어져 혼란을 줄 수 있습니다.
+{
+    "Factuality Score": 2,
+    "Consistency Score": 2,
+    "Relevance Score": 3,
+    "Fluency Score": 4,
+    "Coherence Score": 3,
+    "Accuracy Score": 2,
+    "Multidimensional Quality Score": 2,
+    "Semantic Appropriateness Score": 3,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C343" t="n">
+        <v>0.4030854359209126</v>
+      </c>
+      <c r="D343" t="inlineStr">
+        <is>
+          <t>추가모집을 하나요?</t>
+        </is>
+      </c>
+      <c r="E343" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 제공된 정보로는 추가 모집에 대한 내용이 명시되어 있지 않습니다. 추가 모집에 대한 자세한 정보를 얻으려면 "https://ipsi. deu. ac. kr/main. do" 웹사이트를 참조해 보시기 바랍니다.</t>
+        </is>
+      </c>
+      <c r="F343" t="inlineStr">
+        <is>
+          <t>2024년 1월 2일(화) 이후 수시모집 등록자의 등록(입학) 포기로 인한 결원은 정시 일반학생전형 모집인원으로 이월하여 추가로 합격자를 선발합니다. 정시모집 모집단위별 등록인원이 모집인원에 미달된 경우에는 그 인원을 추가모집으로 이월하여 모집합니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="344">
+      <c r="A344" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B344" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 3  
+   - 생성된 응답은 평생학습자전형에 대한 일부 정보를 포함하고 있지만, 원본 텍스트의 세부사항(예: 모집인원, 제출기간 및 장소 등)을 생략하고 있습니다. 따라서 일부 사실이 누락되어 있어 점수를 3으로 평가합니다.
+2. Consistency Score (1-5): 3  
+   - 생성된 응답은 원본 텍스트의 일부 요소와 일치하지만, 전형의 세부사항이 다르게 표현되어 있어 일관성이 떨어집니다. 예를 들어, 면접 평가 방법에 대한 정보가 추가되었으나, 원본 텍스트의 정보와는 다소 차이가 있습니다. 따라서 점수를 3으로 평가합니다.
+3. Relevance Score (1-5): 4  
+   - 생성된 응답은 평생학습자전형에 대한 정보를 제공하고 있으며, 주제와 관련이 있습니다. 그러나 원본 텍스트의 특정 세부사항이 누락되어 있어 완전한 관련성을 보장하지는 않습니다. 따라서 점수를 4로 평가합니다.
+4. Fluency Score (1-5): 5  
+   - 생성된 응답은 문법적으로 정확하고 읽기 쉽게 작성되어 있습니다. 따라서 점수를 5로 평가합니다.
+5. Coherence Score (1-5): 4  
+   - 생성된 응답은 논리적으로 잘 구성되어 있으며, 각 항목이 명확하게 구분되어 있습니다. 그러나 원본 텍스트와의 차이로 인해 완전한 일관성을 보장하지는 않습니다. 따라서 점수를 4로 평가합니다.
+6. Accuracy Score (1-5): 3  
+   - 생성된 응답은 일부 정확한 정보를 포함하고 있지만, 원본 텍스트의 중요한 세부사항이 누락되어 있어 정확성 점수가 낮습니다. 따라서 점수를 3으로 평가합니다.
+7. Multidimensional Quality Score (1-5): 4  
+   - 생성된 응답은 전반적으로 양호한 품질을 보이며, 특히 유창성과 관련성에서 좋은 점수를 받았습니다. 그러나 사실성과 정확성에서 일부 부족함이 있어 점수를 4로 평가합니다.
+8. Semantic Appropriateness Score (1-5): 4  
+   - 생성된 응답은 원본 텍스트의 의미와 맥락에 적절하게 부합하지만, 일부 세부사항이 누락되어 있어 완전한 적합성을 보장하지는 않습니다. 따라서 점수를 4로 평가합니다.
+9. Understandability Score (1-5): 5  
+   - 생성된 응답은 명확하고 이해하기 쉬운 방식으로 작성되어 있습니다. 따라서 점수를 5로 평가합니다.
+{
+    "Factuality Score": 3,
+    "Consistency Score": 3,
+    "Relevance Score": 4,
+    "Fluency Score": 5,
+    "Coherence Score": 4,
+    "Accuracy Score": 3,
+    "Multidimensional Quality Score": 4,
+    "Semantic Appropriateness Score": 4,
+    "Understandability Score": 5
+}</t>
+        </is>
+      </c>
+      <c r="C344" t="n">
+        <v>0.6742320428962967</v>
+      </c>
+      <c r="D344" t="inlineStr">
+        <is>
+          <t>평생학습자전형에 대해 알려줘.</t>
+        </is>
+      </c>
+      <c r="E344" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 평생학습자전형은 다양한 경력과 학력을 가진 성인을 대상으로 하는 입학 전형입니다. 이 전형에서는 지원자의 학업역량, 공동체역량, 전공적합성 등을 종합적으로 평가합니다.
+1. **제출서류**:
+   - 고교 졸업(예정)자: 고교 학교생활기록부 1부
+   - 검정고시 출신자: 검정고시 합격증서 사본 또는 합격증명서 1부, 검정고시 성적증명서 1부
+   - 외국고교 졸업(예정)자: 공증받은 외국고교 졸업(예정)증명서 1부, 공증받은 외국고교 성적증명서 1부
+2. **전형요소 반영비율**:
+   - 학생부종합(평생학습자전형): 서류 70%, 면접 30%
+3. **면접평가 영역 및 배점**:
+   - 학업역량: 문제해결능력, 1등급 180점, 2등급 166.5점, 3등급 153점, 4등급 139.5점, 5등급 126점
+   - 전공적합성: 진로정보 탐색능력, 1등급 120점, 2등급 111점, 3등급 102점, 4등급 93점, 5등급 84점
+4. **면접평가 방법**:
+   - 면접종류: 개별면접
+   - 면접시간: 1인당 10분 이내
+   - 면접방법: 입학사정관 2인이 평가위원이 되어 수험생 1명을 대상으로 개별적 평가
+5. **동점자 처리기준**:
+   - 순위 1: 면접고사 성적 상위자
+   - 순위 2: 서류평가 공동체역량 영역 성적 상위자
+   - 순위 3: 서류평가 전공적합성 영역 성적 상위자
+이러한 정보를 바탕으로 평생학습자전형에 지원할 수 있습니다. 추가로 궁금한 점이 있다면 언제든지 물어보세요.</t>
+        </is>
+      </c>
+      <c r="F344" t="inlineStr">
+        <is>
+          <t>평생학습자전형에 대한 정보는 다음과 같습니다.  
+모집단위 및 모집인원
+  - 미래융합대학 라이프융합학부
+  - 전형명: 학생부종합(평생학습자전형)
+  - 모집인원: 11명
+ 지원자격
+ - 평생학습자전형: 고교 졸업(예정)자 또는 법령에 의한 동등학력 소지자
+전형요소 반영 비율
+ - 서류: 70%
+ - 면접: 30%
+ 제출서류
+ - 고교 졸업(예정)자:
+  - 고교 학교생활기록부 1부 (학생부 온라인 제공 동의자는 제출할 필요 없음)
+- 검정고시출신자:
+  - 검정고시 합격증서 사본 또는 합격증명서 1부
+  - 검정고시 성적증명서 1부 (온라인 제공 동의자는 제출할 필요 없음)
+  - 학교생활기록부 대체 서류 (제출여부 선택 가능)
+ - 외국고교 졸업(예정)자:
+  - 공증받은 외국고교 졸업(예정)증명서 1부
+  - 공증받은 외국고교 성적증명서 1부
+  - 학교생활기록부 대체 서류(제출여부 선택 가능)
+  - 외국어로 작성된 경우, 원본과 공증받은 한국어 번역본을 함께 제출
+  - 고교 졸업(예정)증명서, 성적증명서는 해당국가의 정부기관으로부터 아포스티유 확인서 또는 해당국가 주재 한국영사관에서 영사 확인을 발급받아 제출(단, 교육부에서 인정한 재외한국학교는 영사확인 없이 증명서 원본 제출 가능)
+  - 만점이 명시된 고교성적 체계자료를 성적증명서 뒤에 첨부
+  - 최종 등록자 중 외국고교 졸업예정자는 졸업 이후 졸업증명서(아포스티유 확인서 또는 영사확인 
+발급)를 2024. 02. 16.(금)까지 추가 제출하여야 합니다.
+제출기간 및 장소
+ - 제출기간: 2024. 01. 03.(수) ~ 01. 12.(금) 17:00까지 도착분에 한함
+ - 제출장소: (우: 47340) 부산광역시 부산진구 엄광로 176, 동의대학교 입학관리팀
+ 추가사항
+ - 검정고시출신자 및 외국고교 졸업(예정)자의 제출서류 중 학교생활기록부 대체 서류는 선택 제출서류로 ‘학교생활기록부 대체 서류’ 양식을 참조.
+ 자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인할 수 있습니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="345">
+      <c r="A345" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B345" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 2
+   - 설명: 생성된 응답은 평생학습자전형의 지원자격에 대한 구체적인 내용을 추가했지만, 원본 텍스트에서 언급된 "고교 졸업(예정)자 또는 법령에 의한 동등학력 소지자"라는 기본 요건을 포함하지 않고 있습니다. 따라서 사실성 점수는 낮습니다.
+2. Consistency Score (1-5): 2
+   - 설명: 생성된 응답은 원본 텍스트와 일치하지 않는 추가 정보를 포함하고 있으며, 원본의 핵심 요건을 무시하고 있습니다. 이로 인해 일관성 점수는 낮습니다.
+3. Relevance Score (1-5): 3
+   - 설명: 생성된 응답은 평생학습자전형의 지원자격에 대한 정보를 제공하지만, 원본 텍스트의 핵심 요건을 포함하지 않아 관련성이 떨어집니다. 그러나 추가적인 정보는 여전히 관련이 있습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 문법적으로 잘 작성되어 있으며, 읽기에도 무리가 없습니다. 따라서 유창성 점수는 높습니다.
+5. Coherence Score (1-5): 4
+   - 설명: 생성된 응답은 논리적으로 잘 구성되어 있으며, 각 항목이 명확하게 구분되어 있습니다. 따라서 일관성 점수는 높습니다.
+6. Accuracy Score (1-5): 2
+   - 설명: 생성된 응답은 원본 텍스트의 핵심 사실을 누락하고 있으며, 잘못된 정보가 포함되어 있습니다. 따라서 정확성 점수는 낮습니다.
+7. Multidimensional Quality Score (1-5): 2
+   - 설명: 여러 차원에서 평가했을 때, 생성된 응답은 사실성, 일관성, 정확성에서 낮은 점수를 받았으므로 전반적인 품질 점수도 낮습니다.
+8. Semantic Appropriateness Score (1-5): 3
+   - 설명: 생성된 응답은 의미적으로 적절한 부분이 있지만, 원본 텍스트의 핵심 요건을 무시하고 있어 의미적 적절성 점수는 중간입니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 이해하기 쉬우며, 명확하게 작성되어 있습니다. 따라서 이해 가능성 점수는 높습니다.
+{
+    "Factuality Score": 2,
+    "Consistency Score": 2,
+    "Relevance Score": 3,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 2,
+    "Multidimensional Quality Score": 2,
+    "Semantic Appropriateness Score": 3,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C345" t="n">
+        <v>0.7255982431838889</v>
+      </c>
+      <c r="D345" t="inlineStr">
+        <is>
+          <t>평생학습자전형 지원자격은?</t>
+        </is>
+      </c>
+      <c r="E345" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 평생학습자전형의 지원 자격은 다음과 같습니다:
+1. **고교 졸업(예정)자**:
+   - 고교 학교생활기록부 1부를 제출합니다.
+   - 학생부 온라인 제공 동의자가 있는 경우, 제출할 필요가 없습니다.
+2. **검정고시 출신자**:
+   - 검정고시 합격증서 사본 또는 합격증명서 1부를 제출합니다.
+   - 검정고시 성적증명서 1부를 제출합니다.
+   - 학교생활기록부 대체 서류(제출 여부 선택 가능)를 제출합니다.
+3. **외국고교 졸업(예정)자**:
+   - 공증받은 외국고교 졸업(예정)증명서 1부를 제출합니다.
+   - 공증받은 외국고교 성적증명서 1부를 제출합니다.
+   - 학교생활기록부 대체 서류(제출 여부 선택 가능)를 제출합니다.
+   - 만점이 명시된 고교성적 체계자료를 성적증명서 뒤에 첨부해야 합니다.
+4. **재직자**:
+   - 산업체 적용 범위: 국가·지방자치단체 및 공공단체(소속 직원의 경우), 근로기준법 제11조에 의거 상시근로자 5인(사업주 포함) 이상 사업체, 4대 보험 중 1개 이상 가입 사업체 (창업·자영업자 포함)
+   - 단, 4대 보험 가입 대상 사업체가 아닌 1차 산업 종사자는 국가·지방자치단체가 발급하는 공적증명서 확인을 통해 인정할 수 있습니다.
+5. **재직기간**:
+   - 2024년 3월 1일 기준으로 총 재직기간이 3년 이상(예정)이어야 합니다.
+   - 재직기간은 제출한 지원 자격 증빙 서류 상으로 증명되는 기간만 산정됩니다.
+   - 2개 이상의 산업체에 재직한 경우 총 재직기간을 합산하여 산정하되, 중복되는 기간은 이중으로 합산하지 않습니다.
+   - 군 의무 복무 경력도 재직기간으로 인정됩니다.
+이러한 자격 요건을 충족하면 평생학습자전형에 지원할 수 있습니다.</t>
+        </is>
+      </c>
+      <c r="F345" t="inlineStr">
+        <is>
+          <t>평생학습자전형의 지원자격은 다음과 같습니다
+ - 고교 졸업(예정)자 또는 법령에 의한 동등학력 소지자</t>
+        </is>
+      </c>
+    </row>
+    <row r="346">
+      <c r="A346" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B346" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 2
+   - 설명: 생성된 응답은 실기고사 대기실 및 입실시간에 대한 정보가 아닌, 실기고사 준비에 대한 내용을 포함하고 있습니다. 원본 텍스트의 핵심 정보인 입실시간과 대기실에 대한 언급이 없으며, 제공된 정보는 부정확합니다.
+2. Consistency Score (1-5): 2
+   - 설명: 생성된 응답은 원본 텍스트와 일치하지 않으며, 실기고사 준비에 대한 정보가 포함되어 있지만, 원본의 주제와는 상충하는 내용입니다. 원본 텍스트의 정보와 일관성이 부족합니다.
+3. Relevance Score (1-5): 3
+   - 설명: 생성된 응답은 실기고사와 관련된 내용을 다루고 있지만, 원본 텍스트의 핵심 정보인 대기실 및 입실시간에 대한 정보는 포함되어 있지 않아 관련성이 떨어집니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 문법적으로 잘 구성되어 있으며, 읽기에도 무리가 없습니다. 그러나 일부 문장이 길어 가독성이 떨어질 수 있습니다.
+5. Coherence Score (1-5): 4
+   - 설명: 생성된 응답은 주제별로 잘 나누어져 있으며, 각 항목이 논리적으로 연결되어 있습니다. 그러나 원본 텍스트와의 연결이 부족하여 전체적인 일관성은 떨어집니다.
+6. Accuracy Score (1-5): 2
+   - 설명: 생성된 응답은 원본 텍스트의 사실과 일치하지 않으며, 실기고사에 대한 구체적인 정보는 제공하지만, 원본의 핵심 사실을 반영하지 못하고 있습니다.
+7. Multidimensional Quality Score (1-5): 2
+   - 설명: 생성된 응답은 여러 차원에서 낮은 점수를 받았으며, 사실성, 일관성, 정확성에서 부족함이 있습니다. 전반적으로 원본 텍스트와의 관계가 약합니다.
+8. Semantic Appropriateness Score (1-5): 3
+   - 설명: 생성된 응답은 실기고사와 관련된 내용을 다루고 있지만, 원본 텍스트의 맥락과는 다소 어긋나 있습니다. 주제는 적절하나, 정보의 초점이 맞지 않습니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 이해하기 쉬우며, 명확하게 작성되었습니다. 그러나 원본 텍스트와의 관련성이 부족하여 혼란을 줄 수 있습니다.
+{
+    "Factuality Score": 2,
+    "Consistency Score": 2,
+    "Relevance Score": 3,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 2,
+    "Multidimensional Quality Score": 2,
+    "Semantic Appropriateness Score": 3,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C346" t="n">
+        <v>0.4376197796820556</v>
+      </c>
+      <c r="D346" t="inlineStr">
+        <is>
+          <t>실기고사는 어디로 가면 되나요?</t>
+        </is>
+      </c>
+      <c r="E346" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 실기고사는 모집단위에 따라 다르게 준비해야 합니다.
+1. **디자인조형학과** (시각디자인, 산업디자인, 공예디자인):
+   - **실기종목**: 기초디자인, 사고의 전환
+   - **준비물**: 볼펜, 연필, 색연필, 수채물감 등 표현에 필요한 도구
+   - **주제**: 주제A와 주제B에서 각 1개씩 선정하여 연결된 주제를 당일 추첨 (예시: 잠자리와 저울)
+   - **화지크기**: 켄트지3절
+   - **시간**: 5시간
+2. **체육학과**:
+   - **실기종목**: 제자리 멀리뛰기, 메디신볼 던지기, Z-런 (각 모집단위별로 배점이 다름)
+   - **준비물 및 시간**: 각 실기종목에 따라 다르게 준비해야 합니다.
+따라서, 실기고사는 모집단위와 실기종목에 따라 준비가 필요합니다. 각 모집단위의 공지사항을 확인하여 정확한 준비를 하시길 바랍니다.</t>
+        </is>
+      </c>
+      <c r="F346" t="inlineStr">
+        <is>
+          <t>실기고사 대기실 및 입실시간은 2024. 01. 12.(금) 14:00 이후 입학안내 홈페이지에서 조회 가능합니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="347">
+      <c r="A347" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B347" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 2
+   - 설명: 생성된 응답은 실기고사 대기실 및 입실시간에 대한 정보가 아닌, 체육학과의 실기고사 종목에 대한 내용을 담고 있습니다. 원본 텍스트의 핵심 정보인 입실시간과 대기실에 대한 언급이 없으며, 잘못된 정보가 포함되어 있습니다.
+2. Consistency Score (1-5): 2
+   - 설명: 생성된 응답은 원본 텍스트와 일치하지 않으며, 실기고사에 대한 다른 정보를 제공합니다. 원본 텍스트의 내용과 상충하는 부분이 있어 일관성이 부족합니다.
+3. Relevance Score (1-5): 3
+   - 설명: 생성된 응답은 체육학과의 실기고사에 대한 정보를 제공하지만, 원본 텍스트의 주제인 대기실 및 입실시간과는 관련이 적습니다. 따라서 관련성 점수는 중간 정도로 평가됩니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 문법적으로 잘 작성되어 있으며, 읽기에도 무리가 없습니다. 다만, 원본 텍스트와의 관련성이 떨어지기 때문에 전체적인 흐름이 약간 어색할 수 있습니다.
+5. Coherence Score (1-5): 3
+   - 설명: 생성된 응답은 체육학과의 실기고사에 대한 정보를 제공하지만, 원본 텍스트와의 연결이 부족하여 일관된 논리적 흐름이 약간 떨어집니다.
+6. Accuracy Score (1-5): 2
+   - 설명: 생성된 응답은 원본 텍스트의 사실과 일치하지 않으며, 실기고사 대기실 및 입실시간에 대한 정보가 누락되어 있습니다. 따라서 정확성 점수는 낮습니다.
+7. Multidimensional Quality Score (1-5): 2
+   - 설명: 생성된 응답은 여러 차원에서 원본 텍스트와의 일치성이 부족하며, 정보의 정확성, 일관성, 관련성 모두 낮은 점수를 받았습니다.
+8. Semantic Appropriateness Score (1-5): 3
+   - 설명: 생성된 응답은 체육학과의 실기고사에 대한 정보를 제공하지만, 원본 텍스트의 맥락과는 맞지 않기 때문에 의미적으로 적절하지 않습니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 문장이 명확하고 이해하기 쉬우나, 원본 텍스트와의 관련성이 떨어져서 전체적인 이해에 혼란을 줄 수 있습니다.
+{
+    "Factuality Score": 2,
+    "Consistency Score": 2,
+    "Relevance Score": 3,
+    "Fluency Score": 4,
+    "Coherence Score": 3,
+    "Accuracy Score": 2,
+    "Multidimensional Quality Score": 2,
+    "Semantic Appropriateness Score": 3,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C347" t="n">
+        <v>0.2514808457060301</v>
+      </c>
+      <c r="D347" t="inlineStr">
+        <is>
+          <t>체육학과의 실기고사는 어디로 가면 되나요?</t>
+        </is>
+      </c>
+      <c r="E347" t="inlineStr">
+        <is>
+          <t>체육학과의 실기고사는 메디신볼 던지기, 제자리 멀리뛰기, Z-런 중 하나를 치르게 됩니다. 모집단위별로 선택할 수 있는 종목이 다르므로, 정확한 정보를 얻으려면 해당 모집단위의 공고나 입학처 웹사이트를 확인해보시는 것이 좋습니다.
+예를 들어:
+- 체육학과에서 메디신볼 던지기를 치르게 됩니다.
+- 체육학과에서 제자리 멀리뛰기를 치르게 됩니다.
+- 체육학과에서 Z-런을 치르게 됩니다.
+모집단위별로 선택할 수 있는 종목이 다르므로, 정확한 정보를 얻으려면 해당 모집단위의 공고나 입학처 웹사이트를 확인해보시는 것이 좋습니다.</t>
+        </is>
+      </c>
+      <c r="F347" t="inlineStr">
+        <is>
+          <t>실기고사 대기실 및 입실시간은 2024. 01. 12.(금) 14:00 이후 입학안내 홈페이지에서 조회 가능합니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="348">
+      <c r="A348" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B348" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 2
+   - 설명: 생성된 응답은 수시 충원합격자 발표에 대한 정확한 정보를 제공하지 않습니다. 원본 텍스트에서는 전화로 개별 연락을 하지 않는다고 명시하고 있지만, 생성된 응답에서는 합격자에게 개별 전화 통보가 이루어질 것이라고 언급하고 있어 사실과 다릅니다.
+2. Consistency Score (1-5): 2
+   - 설명: 생성된 응답은 원본 텍스트와 일치하지 않는 정보를 포함하고 있습니다. 원본에서는 3차 이후에만 개별 전화 통보가 이루어진다고 명시하고 있으나, 생성된 응답은 그 이전에 전화 통보가 이루어질 것이라고 주장하고 있어 일관성이 부족합니다.
+3. Relevance Score (1-5): 4
+   - 설명: 생성된 응답은 수시 충원합격자 발표 일정에 대한 정보를 제공하고 있어 관련성이 높습니다. 그러나 원본 텍스트의 핵심 내용인 전화 통보에 대한 정보와는 상충하는 부분이 있어 완전한 관련성은 아닙니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 문법적으로 잘 작성되어 있으며, 읽기에도 무리가 없습니다. 다만, 일부 표현이 다소 어색할 수 있습니다.
+5. Coherence Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 논리적인 흐름을 가지고 있으며, 발표 일정과 관련된 정보가 잘 연결되어 있습니다. 그러나 전화 통보에 대한 정보가 원본과 상충하여 약간의 일관성이 떨어집니다.
+6. Accuracy Score (1-5): 2
+   - 설명: 생성된 응답은 원본 텍스트의 사실과 다르게 전화 통보가 이루어질 것이라고 언급하고 있어 정확성이 낮습니다.
+7. Multidimensional Quality Score (1-5): 3
+   - 설명: 생성된 응답은 일부 차원에서 긍정적인 평가를 받을 수 있지만, 사실성과 일관성에서 큰 문제를 가지고 있어 전반적인 품질은 중간 정도로 평가됩니다.
+8. Semantic Appropriateness Score (1-5): 3
+   - 설명: 생성된 응답은 의미적으로 적절한 부분이 있지만, 원본 텍스트와의 불일치로 인해 의미 전달이 완벽하지 않습니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 이해하기 쉬우며, 정보가 명확하게 전달되고 있습니다. 그러나 원본과의 불일치로 인해 혼란을 줄 수 있는 요소가 있습니다.
+{
+    "Factuality Score": 2,
+    "Consistency Score": 2,
+    "Relevance Score": 4,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 2,
+    "Multidimensional Quality Score": 3,
+    "Semantic Appropriateness Score": 3,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C348" t="n">
+        <v>0.5972810103546665</v>
+      </c>
+      <c r="D348" t="inlineStr">
+        <is>
+          <t>수시 충원합격자 발표하면 전화 주시는건가요?</t>
+        </is>
+      </c>
+      <c r="E348" t="inlineStr">
+        <is>
+          <t>2024년 2월 15일(목) 19:00부터 2024년 2월 20일(화) 18시까지 충원합격자 발표가 이루어집니다. 이 시점 이후에 합격자에게 개별 전화 통보가 이루어질 것으로 보입니다. 하지만 정확한 절차와 방법은 공지된 일정과 입학 안내 홈페이지를 참고하시거나, https://ipsi. deu. ac. kr/main. do 링크에서 확인하시는 것이 좋습니다.</t>
+        </is>
+      </c>
+      <c r="F348" t="inlineStr">
+        <is>
+          <t>아니요, 수시 충원합격자 발표는 전화로 개별 연락을 하지 않습니다. 최초합격자 및 1차, 2차 충원합격자 발표는 홈페이지를 통해 실시하며, 모든 지원자는 전형 일정에 명시된 합격자 발표일에 합격 여부를 반드시 홈페이지를 통해 확인해야 합니다. 3차 이후 충원합격자 발표 과정에서만 개별 전화 통보가 이루어집니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="349">
+      <c r="A349" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B349" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 내용을 정확하게 반영하고 있으며, 수시모집 결과에 대한 정보가 포함되어 있지 않다는 점을 명확히 전달하고 있습니다.
+2. Consistency Score (1-5): 5
+   - 생성된 응답은 원본 텍스트와 일관되며, 수시모집 결과에 대한 정보가 없다는 점을 반복적으로 강조하고 있습니다.
+3. Relevance Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 주제와 관련이 깊으며, 수시모집 결과에 대한 정보 요청에 적절하게 대응하고 있습니다.
+4. Fluency Score (1-5): 5
+   - 생성된 응답은 문법적으로 정확하고 자연스럽게 읽히며, 문장 구조도 잘 구성되어 있습니다.
+5. Coherence Score (1-5): 5
+   - 생성된 응답은 논리적으로 잘 연결되어 있으며, 정보가 명확하게 전달되고 있습니다.
+6. Accuracy Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 사실을 정확하게 반영하고 있으며, 잘못된 정보가 없습니다.
+7. Multidimensional Quality Score (1-5): 5
+   - 생성된 응답은 모든 품질 차원에서 우수한 성과를 보이고 있습니다.
+8. Semantic Appropriateness Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 의미와 맥락에 완전히 부합하며, 적절한 의미를 전달하고 있습니다.
+9. Understandability Score (1-5): 5
+   - 생성된 응답은 매우 명확하고 이해하기 쉬우며, 독자가 쉽게 따라갈 수 있습니다.
+{
+    "Factuality Score": 5,
+    "Consistency Score": 5,
+    "Relevance Score": 5,
+    "Fluency Score": 5,
+    "Coherence Score": 5,
+    "Accuracy Score": 5,
+    "Multidimensional Quality Score": 5,
+    "Semantic Appropriateness Score": 5,
+    "Understandability Score": 5
+}</t>
+        </is>
+      </c>
+      <c r="C349" t="n">
+        <v>0.8348856900705491</v>
+      </c>
+      <c r="D349" t="inlineStr">
+        <is>
+          <t>2023학년도 경찰행정학과 수시모집 결과는?</t>
+        </is>
+      </c>
+      <c r="E349" t="inlineStr">
+        <is>
+          <t>2023학년도 경찰행정학과의 수시모집 결과에 대한 정보가 제공된 문서 내에서 직접적으로 언급되어 있지 않습니다. 제공된 정보 중에서는 학과 분리, 학과 명칭 변경 등 주요 변경사항들이 나와 있지만, 특정 학과의 수시모집 결과는 포함되어 있지 않습니다.
+만약 2023학년도 경찰행정학과의 수시모집 결과를 알고 싶다면, "https://ipsi.deu.ac.kr/main.do" 웹사이트를 방문하여 최신 정보를 확인하거나, 입학처에 직접 문의하는 것이 가장 정확한 방법입니다.</t>
+        </is>
+      </c>
+      <c r="F349" t="inlineStr">
+        <is>
+          <t>제공된 정시 모집요강에는 2023학년도 경찰행정학과 수시모집 결과에 대한 정보가 포함되어 있지 않습니다. 해당 정보를 확인하려면 "https://ipsi.deu.ac.kr/main.do"를 방문하여 문의하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="350">
+      <c r="A350" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B350" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 1
+   - 설명: 생성된 응답은 수능에 응시하지 않은 학생도 지원할 수 있다고 주장하지만, 원문에서는 정시모집 지원자는 수능에 응시하지 않으면 지원할 수 없다고 명확히 언급하고 있습니다. 따라서 사실과 완전히 상반된 내용을 포함하고 있습니다.
+2. Consistency Score (1-5): 1
+   - 설명: 생성된 응답은 원문과 상충되는 정보를 제공합니다. 원문이 수능 응시 여부에 따라 지원 가능성을 명확히 제한하고 있는 반면, 생성된 응답은 이를 반박하는 내용을 담고 있습니다.
+3. Relevance Score (1-5): 2
+   - 설명: 생성된 응답은 원문과 관련된 내용을 다루고 있지만, 주된 질문에 대한 답변이 아닌 다른 전형에 대한 정보로 흐르고 있습니다. 원문에서의 핵심 주제인 수능 응시 여부와 관련된 정보가 부족합니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 구조를 가지고 있습니다. 그러나 일부 문장에서는 불필요한 반복이 있어 약간의 매끄러움이 떨어질 수 있습니다.
+5. Coherence Score (1-5): 3
+   - 설명: 생성된 응답은 여러 정보를 포함하고 있지만, 주제 간의 연결이 약해 일관된 흐름이 부족합니다. 특히, 중국어 부분이 포함되어 있어 일관성을 해치는 요소가 있습니다.
+6. Accuracy Score (1-5): 1
+   - 설명: 생성된 응답은 원문에서 제공하는 사실과 완전히 반대되는 내용을 포함하고 있어 정확성이 매우 낮습니다.
+7. Multidimensional Quality Score (1-5): 1
+   - 설명: 생성된 응답은 사실성, 일관성, 정확성 등 여러 차원에서 매우 낮은 점수를 받습니다. 원문과의 불일치가 두드러지며, 전반적으로 품질이 낮습니다.
+8. Semantic Appropriateness Score (1-5): 2
+   - 설명: 생성된 응답은 원문과 관련된 주제를 다루고 있지만, 의미적으로 부적절한 주장을 포함하고 있어 적절성이 떨어집니다.
+9. Understandability Score (1-5): 3
+   - 설명: 생성된 응답은 전반적으로 이해할 수 있지만, 주제의 일관성이 부족하여 혼란을 줄 수 있습니다. 특히, 중국어 부분이 포함되어 있어 이해를 더욱 어렵게 만듭니다.
+{
+    "Factuality Score": 1,
+    "Consistency Score": 1,
+    "Relevance Score": 2,
+    "Fluency Score": 4,
+    "Coherence Score": 3,
+    "Accuracy Score": 1,
+    "Multidimensional Quality Score": 1,
+    "Semantic Appropriateness Score": 2,
+    "Understandability Score": 3
+}</t>
+        </is>
+      </c>
+      <c r="C350" t="n">
+        <v>0.4049553473239101</v>
+      </c>
+      <c r="D350" t="inlineStr">
+        <is>
+          <t>정시에 수능 응시하지 않아도 지원할 수 있나요?</t>
+        </is>
+      </c>
+      <c r="E350" t="inlineStr">
+        <is>
+          <t>2024학년도에 수능 응시하지 않은 학생도 지원이 가능합니다. 전형별로 다양한 지원 자격이 있으며, 일부 전형에서는 수능 응시 여부와 관계없이 지원이 가능한 경우가 있습니다.
+특히, 학생부종합 평가를 기반으로 하는 전형에서는 수능 점수보다는 학생부 성적과 면접 등을 통해 지원자의 적합성을 판단합니다. 따라서 수능 응시 여부와 관계없이 지원이 가능한 전형들이 있습니다.
+具体的来说，2024年，即使没有参加高考的学生也可以申请。每年的招生标准会有所不同，但通常有一些基于学生档案综合评估的招生类型，在这些类型中，高考成绩并不是决定性因素，而是通过学生的学业成绩和面试等来判断其是否适合。
+为了获取更详细的信息，请访问以下网站进行确认：“https://ipsi. deu. ac. kr/main. do”。</t>
+        </is>
+      </c>
+      <c r="F350" t="inlineStr">
+        <is>
+          <t>아니요, 정시모집 지원자는 수능에 응시하지 않으면 지원할 수 없습니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="351">
+      <c r="A351" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B351" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 1
+   - 설명: 생성된 응답은 고등학교 졸업 후 10년이 지나도 정시 지원이 가능하다는 원문과 상반된 내용을 담고 있습니다. 원문에서는 지원이 가능하다고 명시하고 있지만, 생성된 응답에서는 지원할 수 없다고 주장하고 있습니다. 이는 명백한 사실 오류입니다.
+2. Consistency Score (1-5): 1
+   - 설명: 생성된 응답은 원문과 완전히 모순되는 내용을 포함하고 있습니다. 원문에서 정시 지원이 가능하다고 한 반면, 생성된 응답은 지원할 수 없다고 하여 일관성이 전혀 없습니다.
+3. Relevance Score (1-5): 2
+   - 설명: 생성된 응답은 원문과 관련된 내용을 다루고 있지만, 주된 질문에 대한 답변이 잘못되어 있어 관련성이 낮습니다. 원문에서 다루는 핵심 사항을 잘못 해석하고 있습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 문법적으로 잘 구성되어 있으며, 읽기에도 무리가 없습니다. 그러나 내용의 정확성 문제로 인해 전체적인 평가에 영향을 미칩니다.
+5. Coherence Score (1-5): 3
+   - 설명: 생성된 응답은 논리적으로 연결된 문장으로 구성되어 있지만, 원문과의 불일치로 인해 전체적인 일관성이 떨어집니다. 주제에 대한 명확한 흐름이 부족합니다.
+6. Accuracy Score (1-5): 1
+   - 설명: 생성된 응답은 원문에서 제공하는 정보와 완전히 반대되는 내용을 포함하고 있어 정확성이 매우 낮습니다. 원문에서의 사실을 왜곡하고 있습니다.
+7. Multidimensional Quality Score (1-5): 1
+   - 설명: 생성된 응답은 사실성, 일관성, 관련성, 정확성 등 모든 차원에서 매우 낮은 점수를 받습니다. 전반적으로 원문과의 불일치가 심각합니다.
+8. Semantic Appropriateness Score (1-5): 1
+   - 설명: 생성된 응답은 원문과의 의미적 일치가 전혀 없으며, 주제와 관련된 적절한 의미를 전달하지 못하고 있습니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 문법적으로 잘 구성되어 있어 이해하기는 쉽지만, 내용의 정확성 문제로 인해 전체적인 이해에 혼란을 줄 수 있습니다.
+{
+    "Factuality Score": 1,
+    "Consistency Score": 1,
+    "Relevance Score": 2,
+    "Fluency Score": 4,
+    "Coherence Score": 3,
+    "Accuracy Score": 1,
+    "Multidimensional Quality Score": 1,
+    "Semantic Appropriateness Score": 1,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C351" t="n">
+        <v>0.6647201030278347</v>
+      </c>
+      <c r="D351" t="inlineStr">
+        <is>
+          <t>고등학교 졸업한지 10년이 지났는데 정시 지원 가능한가요?</t>
+        </is>
+      </c>
+      <c r="E351" t="inlineStr">
+        <is>
+          <t>10년이 지난 후에도 정시로 지원할 수 있는 방법은 없습니다. 대학입학전형의 경우, 일반적으로 고등학교 졸업 후 3년 이내에 지원해야 합니다. 만약 10년이 지났다면 재수나 다른 교육 경로를 통해 다시 고등학교 학력을 취득하거나, 대학에서 인정하는 특정한 자격증을 취득하여 지원할 수 있는 방법이 있습니다.
+하지만 이러한 경우에도 각 대학의 정시 모집요강과 지원 조건을 충분히 확인해야 합니다. 또한, 10년 동안의 경력이나 교육 배경을 고려해 특별전형 등을 통해 지원하는 것이 더 적합할 수 있습니다.
+자세한 내용은 "https://ipsi.deu.ac.kr/main.do"를 참조하시거나, 동의대학교 입학처에 문의하시는 것을 추천드립니다.</t>
+        </is>
+      </c>
+      <c r="F351" t="inlineStr">
+        <is>
+          <t>네, 고등학교 졸업한지 10년이 지났더라도 정시 지원이 가능합니다. "고교유형별 지원자격" 표에 따르면, 일반고, 자율고, 특수목적고, 특성화고, 영재학교, 기타 학교, 검정고시, 외국고 출신자 모두 정시 지원이 가능합니다. 따라서 고등학교 졸업 시기와 상관없이 지원할 수 있습니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="352">
+      <c r="A352" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B352" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 모든 사실을 정확하게 반영하고 있으며, 일정과 비고 내용이 일치합니다.
+2. Consistency Score (1-5): 5
+   - 생성된 응답은 원본 텍스트와 일관되며, 모든 정보가 충돌 없이 잘 연결되어 있습니다.
+3. Relevance Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 주요 주제와 핵심 사항을 직접적으로 다루고 있어 매우 관련성이 높습니다.
+4. Fluency Score (1-5): 4
+   - 생성된 응답은 전반적으로 유창하게 작성되었으나, 일부 문장에서 약간의 어색함이 느껴질 수 있습니다.
+5. Coherence Score (1-5): 5
+   - 생성된 응답은 논리적으로 잘 구성되어 있으며, 정보의 흐름이 매끄럽습니다.
+6. Accuracy Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 모든 세부 사항을 정확하게 반영하고 있습니다.
+7. Multidimensional Quality Score (1-5): 5
+   - 생성된 응답은 사실성, 일관성, 관련성, 유창성, 정확성 등 모든 차원에서 우수한 성과를 보이고 있습니다.
+8. Semantic Appropriateness Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 의미와 맥락에 완전히 부합하며, 적절한 의미를 전달하고 있습니다.
+9. Understandability Score (1-5): 5
+   - 생성된 응답은 매우 명확하고 이해하기 쉬우며, 정보가 잘 전달됩니다.
+{
+    "Factuality Score": 5,
+    "Consistency Score": 5,
+    "Relevance Score": 5,
+    "Fluency Score": 4,
+    "Coherence Score": 5,
+    "Accuracy Score": 5,
+    "Multidimensional Quality Score": 5,
+    "Semantic Appropriateness Score": 5,
+    "Understandability Score": 5
+}</t>
+        </is>
+      </c>
+      <c r="C352" t="n">
+        <v>0.825721231462565</v>
+      </c>
+      <c r="D352" t="inlineStr">
+        <is>
+          <t>동의대학교 정시 일정에 대해 설명해주세요.</t>
+        </is>
+      </c>
+      <c r="E352" t="inlineStr">
+        <is>
+          <t>2024년 동의대학교 정시 모집일정을 살펴보겠습니다.
+1. **모집인원 확정 공고**:
+   - 날짜: 2024. 01. 02.(화)
+   - 비고: 입학안내 홈페이지 공고
+2. **원서접수(인터넷)**:
+   - 날짜: 2024. 01. 03.(수) ~ 2024. 01. 06.(토), 마감일 18시까지
+   - 비고: http://ipsi. deu. ac. kr 또는 http://www. uwayapply. com
+3. **서류 제출 (제출서류가 있는 경우)**:
+   - 날짜: 2024. 01. 03.(수) ~ 2024. 01. 12.(금), 마감일 17시까지 도착
+   - 비고: 서류 제출대상 (Ⅳ. 전형별 세부 안내 참조) 제출방법 : 접수사이트에서 우편발송용 표지를 출력하여 부착 후 제출 또는 우편발송
+4. **&lt;가&gt;군 실기고사 레저스포츠학과 태권도학과**:
+   - 날짜: 2024. 01. 16.(화)
+   - 비고: 대기실 및 입실시간 안내 2024. 01. 12.(금) 14:00 이후 입학안내 홈페이지에서 조회
+5. **&lt;나&gt;군 실기고사 디자인조형학과 (시각디자인, 산업디자인, 공예디자인) 체육학과**:
+   - 날짜: 2024. 01. 17.(수)
+   - 비고: 대기실 및 입실시간 안내 2024. 01. 12.(금) 14:00 이후 입학안내 홈페이지에서 조회
+6. **합격자 발표 및 등록금 납부**:
+   - 최초 합격자 발표: 2024. 02. 02.(금) 14:00
+     - *발표*: 홈페이지에서 개별 조회
+     - *고지서 교부*: 홈페이지에서 출력 또는 입학관리팀에서 수령
+     - *등록장소*: 학교 지정은행(등록금 고지서에 기재)
+   - 최초 합격자 등록: 2024. 02. 07.(수) ~ 02. 13.(화), (은행마감시간 내)
+     - *발표*: 홈페이지에서 개별 조회
+     - *고지서 교부*: 홈페이지에서 출력 또는 입학관리팀에서 수령
+     - *등록장소*: 학교 지정은행(등록금 고지서에 기재)
+   - 충원 합격자 1차 (인터넷) 발표: 2024. 02. 14.(수) 09:00
+     - *발표*: 홈페이지에서 개별 조회
+     - *고지서 교부*: 홈페이지에서 출력 또는 입학관리팀에서 수령
+     - *등록장소*: 학교 지정은행(등록금 고지서에 기재)
+   - 충원 합격자 1차 (인터넷) 등록: 2024. 02. 14.(수) 09:00 ~ 16:00
+     - *발표*: 홈페이지에서 개별 조회
+     - *고지서 교부*: 홈페이지에서 출력 또는 입학관리팀에서 수령
+     - *등록장소*: 학교 지정은행(등록금 고지서에 기재)
+   - 충원 합격자 2차 (인터넷) 발표: 2024. 02. 15.(목) 09:00
+     - *발표*: 홈페이지에서 개별 조회
+     - *고지서 교부*: 홈페이지에서 출력 또는 입학관리팀에서 수령
+     - *등록장소*: 학교 지정은행(등록금 고지서에 기재)
+   - 충원 합격자 2차 (인터넷) 등록: 2024. 02. 15.(목) 09:00 ~ 16:00
+     - *발표*: 홈페이지에서 개별 조회
+     - *고지서 교부*: 홈페이지에서 출력 또는 입학관리팀에서 수령
+     - *등록장소*: 학교 지정은행(등록금 고지서에 기재)
+   - 충원 합격자 3차 이후 (개별 전화 통보) 발표: 2024. 02. 15.(목) 19:00 ~ 2024. 02. 20.(화) 18시까지
+     - *발표*: 홈페이지에서 개별 조회
+     - *고지서 교부*: 홈페이지에서 출력 또는 입학관리팀에서 수령
+     - *등록장소*: 학교 지정은행(등록금 고지서에 기재)
+   - 충원 합격자 3차 이후 (개별 전화 통보) 등록: 개별 전화 통보 시 안내
+이상과 같이 동의대학교 정시 모집일정을 요약하였습니다. 필요하시면 더 자세한 정보를 확인하실 수 있습니다.</t>
+        </is>
+      </c>
+      <c r="F352" t="inlineStr">
+        <is>
+          <t>동의대학교의 2024학년도 정시 일정은 다음과 같습니다
+1. 모집인원 확정 공고
+   - 일정: 2024년 1월 2일(화)
+   - 비고: 입학안내 홈페이지 공고
+2. 원서접수(인터넷)
+   - 일정: 2024년 1월 3일(수) ~ 2024년 1월 6일(토) 마감일 18시까지
+   - 비고: http://ipsi.deu.ac.kr 또는 http://www.uwayapply.com
+3. 서류 제출 (제출서류가 있는 경우)
+   - 일정: 2024년 1월 3일(수) ~ 2024년 1월 12일(금) 마감일 17시까지 도착
+   - 비고: 서류 제출대상 (Ⅳ. 전형별 세부 안내 참조)
+   - 제출방법: 접수사이트에서 우편발송용 표지를 출력하여 부착 후 제출 또는 우편발송
+4. 실기고사
+   - &lt;가&gt;군 실기고사 레저스포츠학과 태권도학과
+     - 일정: 2024년 1월 16일(화)
+     - 비고: 대기실 및 입실시간 안내 2024년 1월 12일(금) 14:00 이후 입학안내 홈페이지에서 조회
+   - &lt;나&gt;군 실기고사 디자인조형학과 (시각디자인, 산업디자인, 공예디자인) 체육학과
+     - 일정: 2024년 1월 17일(수)
+     - 비고: 대기실 및 입실시간 안내 2024년 1월 12일(금) 14:00 이후 입학안내 홈페이지에서 조회
+5. 합격자 발표 및 등록금 납부
+   - 최초 합격자 발표
+     - 일정: 2024년 2월 2일(금) 14:00
+     - 비고: 홈페이지에서 개별 조회, 고지서 교부: 홈페이지에서 출력 또는 입학관리팀에서 수령, 등록장소: 학교 지정은행(등록금 고지서에 기재)
+   - 최초 합격자 등록
+     - 일정: 2024년 2월 7일(수) ~ 2월 13일(화) (은행마감시간 내)
+     - 비고: 홈페이지에서 개별 조회, 고지서 교부: 홈페이지에서 출력 또는 입학관리팀에서 수령, 등록장소: 학교 지정은행(등록금 고지서에 기재)
+   - 충원 합격자 1차 (인터넷) 발표
+     - 일정: 2024년 2월 14일(수) 09:00
+     - 비고: 홈페이지에서 개별 조회, 고지서 교부: 홈페이지에서 출력 또는 입학관리팀에서 수령, 등록장소: 학교 지정은행(등록금 고지서에 기재)
+   - 충원 합격자 1차 (인터넷) 등록
+     - 일정: 2024년 2월 14일(수) 09:00 ~ 16:00
+     - 비고: 홈페이지에서 개별 조회, 고지서 교부: 홈페이지에서 출력 또는 입학관리팀에서 수령, 등록장소: 학교 지정은행(등록금 고지서에 기재)
+   - 충원 합격자 2차 (인터넷) 발표
+     - 일정: 2024년 2월 15일(목) 09:00
+     - 비고: 홈페이지에서 개별 조회, 고지서 교부: 홈페이지에서 출력 또는 입학관리팀에서 수령, 등록장소: 학교 지정은행(등록금 고지서에 기재)
+   - 충원 합격자 2차 (인터넷) 등록
+     - 일정: 2024년 2월 15일(목) 09:00 ~ 16:00
+     - 비고: 홈페이지에서 개별 조회, 고지서 교부: 홈페이지에서 출력 또는 입학관리팀에서 수령, 등록장소: 학교 지정은행(등록금 고지서에 기재)
+   - 충원 합격자 3차 이후 (개별 전화 통보) 발표
+     - 일정: 2024년 2월 15일(목) 19:00 ~ 2024년 2월 20일(화) 18시까지
+     - 비고: 홈페이지에서 개별 조회, 고지서 교부: 홈페이지에서 출력 또는 입학관리팀에서 수령, 등록장소: 학교 지정은행(등록금 고지서에 기재)
+   - 충원 합격자 3차 이후 (개별 전화 통보) 등록
+     - 일정: 개별 전화 통보 시 안내
+     - 비고: 홈페이지에서 개별 조회, 고지서 교부: 홈페이지에서 출력 또는 입학관리팀에서 수령, 등록장소: 학교 지정은행(등록금 고지서에 기재)
+추가 유의사항:
+- 최초합격자 및 1차, 2차 충원합격자 발표는 홈페이지를 통해 실시하며, 모든 지원자는 전형일정에 명시된 합격자 발표일에 합격 여부를 홈페이지를 통해 확인해야 합니다. 별도 개별 연락을 실시하지 않으며, 합격 여부 미확인으로 인해 등록하지 못했다 하더라도 등록(입학) 포기자로 간주합니다.
+- 최초 및 충원합격자는 전형일정에 명시된 등록 일정을 참고하여 지정 기일 내에 등록금을 납부해야 하며, 지정 기일 내에 등록금을 납부하지 않는 경우 입학을 포기하는 것으로 간주합니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="353">
+      <c r="A353" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B353" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 모든 사실을 정확하게 반영하고 있으며, 날짜와 세부 사항이 일치합니다.
+2. Consistency Score (1-5): 5
+   - 생성된 응답은 원본 텍스트와 일관되며, 모든 정보가 충돌 없이 잘 연결되어 있습니다.
+3. Relevance Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 주요 주제와 포인트를 직접적으로 다루고 있어 매우 관련성이 높습니다.
+4. Fluency Score (1-5): 4
+   - 생성된 응답은 전반적으로 유창하게 작성되었으나, 일부 문장에서 약간의 어색함이 느껴질 수 있습니다.
+5. Coherence Score (1-5): 5
+   - 생성된 응답은 논리적으로 잘 구성되어 있으며, 각 항목이 명확하게 연결되어 있습니다.
+6. Accuracy Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 모든 사실을 정확하게 반영하고 있으며, 잘못된 정보가 없습니다.
+7. Multidimensional Quality Score (1-5): 5
+   - 생성된 응답은 사실성, 일관성, 관련성, 정확성 등 모든 품질 차원에서 우수한 성과를 보입니다.
+8. Semantic Appropriateness Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 의미와 맥락에 완전히 부합하며, 적절한 의미를 전달하고 있습니다.
+9. Understandability Score (1-5): 5
+   - 생성된 응답은 매우 명확하고 이해하기 쉬우며, 정보가 잘 전달됩니다.
+{
+    "Factuality Score": 5,
+    "Consistency Score": 5,
+    "Relevance Score": 5,
+    "Fluency Score": 4,
+    "Coherence Score": 5,
+    "Accuracy Score": 5,
+    "Multidimensional Quality Score": 5,
+    "Semantic Appropriateness Score": 5,
+    "Understandability Score": 5
+}</t>
+        </is>
+      </c>
+      <c r="C353" t="n">
+        <v>0.8337244733406624</v>
+      </c>
+      <c r="D353" t="inlineStr">
+        <is>
+          <t>동의대학교 정시 모집 일정에 대해 설명해주세요.</t>
+        </is>
+      </c>
+      <c r="E353" t="inlineStr">
+        <is>
+          <t>2024년 동의대학교 정시 모집 일정은 다음과 같습니다:
+1. **모집인원 확정 공고**: 2024년 1월 2일 (화) 입니다.
+   - 비고는 입학 안내 홈페이지 공고입니다.
+2. **원서접수(인터넷)**: 
+   - 일정은 2024년 1월 3일 (수) ~ 2024년 1월 6일 (토), 마감일은 오후 6시까지 입니다.
+   - 비고는 [http://ipsi. deu. ac. kr] 또는 [http://www. uwayapply. com]를 참조하라는 내용입니다.
+3. **서류 제출**:
+   - 일정은 2024년 1월 3일 (수) ~ 2024년 1월 12일 (금), 마감일은 오후 5시까지 도착해야 합니다.
+   - 비고는 서류 제출 대상에 대해 [Ⅳ. 전형별 세부 안내 참조]를 통해 제출 방법을 확인하라는 내용입니다.
+4. **&lt;가&gt;군 실기고사 (레저스포츠학과, 태권도학과)**:
+   - 일정은 2024년 1월 16일 (화) 입니다.
+   - 비고는 대기실 및 입실 시간 안내를 2024년 1월 12일 (금) 오후 2시 이후에 입학 안내 홈페이지에서 확인할 수 있다는 내용입니다.
+5. **&lt;나&gt;군 실기고사 (디자인조형학과, 체육학과)**:
+   - 일정은 2024년 1월 17일 (수) 입니다.
+   - 비고는 대기실 및 입실 시간 안내를 2024년 1월 12일 (금) 오후 2시 이후에 입학 안내 홈페이지에서 확인할 수 있다는 내용입니다.
+6. **합격자 발표 및 등록금 납부**:
+   - 최초 합격자 발표는 2024년 2월 2일 (금) 오후 2시이며, 비고는 홈페이지에서 개별 조회 가능하고 고지서를 출력하거나 입학 관리팀에서 수령할 수 있다는 내용입니다.
+   - 최초 합격자 등록은 2024년 2월 7일 (수) ~ 13일 (화), 오후 6시까지 이며, 비고는 홈페이지에서 개별 조회 가능하고 고지서를 출력하거나 입학 관리팀에서 수령할 수 있다는 내용입니다.
+   - 충원 합격자 발표 및 등록은 각각 2024년 2월 15일 (목) 오전 9시와 오후 9시부터 시작하며, 비고는 홈페이지에서 개별 조회 가능하고 고지서를 출력하거나 입학 관리팀에서 수령할 수 있다는 내용입니다.
+   - 충원 합격자 등록은 각각 2024년 2월 15일 (목) 오전 9시부터 오후 4시까지 이며, 비고는 홈페이지에서 개별 조회 가능하고 고지서를 출력하거나 입학 관리팀에서 수령할 수 있다는 내용입니다.
+   - 합격자 발표 및 등록금 납부 충원 합격자 3차 이후 (개별 전화 통보)는 2024년 2월 15일 (목) 오후 7시부터 2024년 2월 20일 (화) 오후 6시까지 이며, 비고는 홈페이지에서 개별 조회 가능하고 고지서를 출력하거나 입학 관리팀에서 수령할 수 있다는 내용입니다.
+   - 합격자 발표 및 등록금 납부 충원 합격자 3차 이후 (개별 전화 통보)는 개별 전화 통보 시 안내하며, 비고는 홈페이지에서 개별 조회 가능하고 고지서를 출력하거나 입학 관리팀에서 수령할 수 있다는 내용입니다.
+이상과 같이 동의대학교 정시 모집 일정을 설명하였습니다. 필요하시면 더 자세한 정보를 확인하실 수 있습니다.</t>
+        </is>
+      </c>
+      <c r="F353" t="inlineStr">
+        <is>
+          <t>동의대학교 정시 모집 일정은 다음과 같습니다:
+1. 모집인원 확정 공고: 2024년 1월 2일(화)에 입학안내 홈페이지에 공고됩니다.
+2. 원서접수(인터넷): 2024년 1월 3일(수)부터 2024년 1월 6일(토) 18시까지 진행됩니다. 접수는 [입학안내 홈페이지](http://ipsi.deu.ac.kr) 또는 [유웨이 어플라이](http://www.uwayapply.com)에서 가능합니다.
+3. 서류 제출 (제출서류가 있는 경우): 2024년 1월 3일(수)부터 2024년 1월 12일(금) 17시까지 도착해야 합니다. 서류 제출 대상자는 접수 사이트에서 우편발송용 표지를 출력하여 부착 후 제출하거나 우편으로 발송해야 합니다.
+4. 실기고사 일정:
+   - &lt;가&gt;군 실기고사: 레저스포츠학과, 태권도학과는 2024년 1월 16일(화)에 실시됩니다. 대기실 및 입실시간 안내는 2024년 1월 12일(금) 14:00 이후 입학안내 홈페이지에서 조회할 수 있습니다.
+   - &lt;나&gt;군 실기고사: 디자인조형학과(시각디자인, 산업디자인, 공예디자인), 체육학과는 2024년 1월 17일(수)에 실시됩니다. 대기실 및 입실시간 안내는 2024년 1월 12일(금) 14:00 이후 입학안내 홈페이지에서 조회할 수 있습니다.
+5. 합격자 발표 및 등록금 납부:
+   - 최초 합격자 발표: &lt;가&gt;군, &lt;나&gt;군, &lt;다&gt;군 모두 2024년 2월 2일(금) 14:00에 발표됩니다. 발표는 홈페이지에서 개별 조회할 수 있으며, 고지서는 홈페이지에서 출력하거나 입학관리팀에서 수령할 수 있습니다. 등록장소는 학교 지정은행입니다.
+   - 최초 합격자 등록: 2024년 2월 7일(수)부터 2월 13일(화)까지 은행 마감시간 내에 등록해야 합니다.
+   - 충원 합격자 발표 및 등록:
+     - 1차 발표: 2024년 2월 14일(수) 09:00, 등록은 같은 날 09:00~16:00
+     - 2차 발표: 2024년 2월 15일(목) 09:00, 등록은 같은 날 09:00~16:00
+     - 3차 이후 발표: 2024년 2월 15일(목) 19:00부터 2024년 2월 20일(화) 18:00까지 개별 전화 통보, 등록은 개별 전화 통보 시 안내됩니다.
+모든 지원자는 전형일정에 명시된 합격자 발표일에 홈페이지를 통해 합격 여부를 확인해야 하며, 지정 기일 내에 등록금을 납부하지 않으면 입학을 포기하는 것으로 간주됩니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="354">
+      <c r="A354" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B354" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 1
+   - 설명: 생성된 응답은 동의대학교 정시 모집 전형에서 수능 미응시자가 지원할 수 있다고 주장하고 있지만, 원본 텍스트에서는 수능 성적이 요구되며 수능 미응시자는 지원이 불가능하다고 명확히 언급하고 있습니다. 따라서 사실과 완전히 일치하지 않으며, 여러 가지 부정확한 정보가 포함되어 있습니다.
+2. Consistency Score (1-5): 1
+   - 설명: 생성된 응답은 원본 텍스트와 상충되는 정보를 제공합니다. 원본 텍스트는 수능 미응시자가 지원할 수 없다고 명시하고 있는데, 생성된 응답은 수능 미응시자가 지원 가능한 전형이 있다고 주장하고 있습니다. 이로 인해 일관성이 전혀 없습니다.
+3. Relevance Score (1-5): 2
+   - 설명: 생성된 응답은 동의대학교 정시 모집 전형에 대한 정보를 제공하고 있지만, 원본 텍스트의 핵심 내용인 수능 미응시자의 지원 불가능성을 무시하고 있습니다. 따라서 관련성은 낮습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 문법적으로 잘 작성되어 있으며, 읽기에도 무리가 없습니다. 그러나 내용의 정확성 문제로 인해 전체적인 평가에 영향을 미칠 수 있습니다.
+5. Coherence Score (1-5): 3
+   - 설명: 생성된 응답은 구조적으로는 일관성을 가지고 있지만, 원본 텍스트와의 내용적 불일치로 인해 전체적인 논리적 흐름이 약간 손상되었습니다.
+6. Accuracy Score (1-5): 1
+   - 설명: 생성된 응답은 원본 텍스트의 사실과 완전히 반대되는 정보를 포함하고 있습니다. 수능 미응시자가 지원할 수 있다는 주장은 명백한 오류입니다.
+7. Multidimensional Quality Score (1-5): 1
+   - 설명: 생성된 응답은 사실성, 일관성, 관련성, 정확성 등 모든 차원에서 매우 낮은 점수를 받습니다. 전반적으로 품질이 매우 낮습니다.
+8. Semantic Appropriateness Score (1-5): 1
+   - 설명: 생성된 응답은 원본 텍스트의 의미와 맥락에 맞지 않으며, 잘못된 정보를 전달하고 있습니다. 따라서 의미적으로 부적절합니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 문법적으로 잘 구성되어 있어 이해하기는 쉽지만, 내용의 정확성 문제로 인해 혼란을 초래할 수 있습니다.
+{
+    "Factuality Score": 1,
+    "Consistency Score": 1,
+    "Relevance Score": 2,
+    "Fluency Score": 4,
+    "Coherence Score": 3,
+    "Accuracy Score": 1,
+    "Multidimensional Quality Score": 1,
+    "Semantic Appropriateness Score": 1,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C354" t="n">
+        <v>0.6585732656368869</v>
+      </c>
+      <c r="D354" t="inlineStr">
+        <is>
+          <t>동의대학교 정시 모집 전형 중 수능 미응시자도 지원 가능한 전형은 어떤 것이 있나요?</t>
+        </is>
+      </c>
+      <c r="E354" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대학교 정시모집에서 수능 미응시자도 지원이 가능한 전형은 "학생부종합(평생학습자전형)"입니다. 이 전형은 고교 졸업(예정)자 또는 법령에 의한 동등 학력 소지자를 대상으로 합니다.
+추가 정보:
+- 모집인원: 17명
+- 모집단위 및 계열: 인문사회과학대학 - 인문사회 - 국어국문학과 - 교직
+이 전형은 수능 미응시자도 지원 가능하며, 학생부 종합 평가를 통해 선발됩니다.</t>
+        </is>
+      </c>
+      <c r="F354" t="inlineStr">
+        <is>
+          <t>동의대학교 정시 모집 전형에서는 수능 성적자료의 온라인 제공에 동의하는 것으로 간주되며, 수능 성적이 요구됩니다. 따라서 수능 미응시자는 지원이 불가능합니다. 자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="355">
+      <c r="A355" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B355" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 4
+   - 생성된 응답은 전자공학과의 충원 합격이 36명까지 이루어졌다는 사실을 정확하게 반영하고 있습니다. 그러나 "후보순위"라는 표현은 원문에 명시되어 있지 않으므로 약간의 부정확성이 있습니다.
+2. Consistency Score (1-5): 3
+   - 생성된 응답은 원문과 일치하는 부분이 있지만, "충원 합격 차수에 대한 정보가 존재하지 않는다"는 원문의 내용을 명확히 반영하지 못하고 있습니다. 이로 인해 일관성이 떨어집니다.
+3. Relevance Score (1-5): 5
+   - 생성된 응답은 원문에서 다루고 있는 주제와 관련이 깊으며, 전자공학과의 충원 합격에 대한 정보를 직접적으로 다루고 있습니다.
+4. Fluency Score (1-5): 4
+   - 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 문장 구조를 가지고 있습니다. 다만, 약간의 어색한 표현이 있을 수 있습니다.
+5. Coherence Score (1-5): 4
+   - 생성된 응답은 논리적으로 잘 구성되어 있으며, 정보가 일관되게 전달되고 있습니다. 그러나 원문과의 연결이 약간 부족합니다.
+6. Accuracy Score (1-5): 4
+   - 생성된 응답은 전자공학과의 충원 합격에 대한 정확한 정보를 제공하고 있지만, 원문에서 언급된 "충원 합격 차수에 대한 정보가 존재하지 않는다"는 점을 누락하고 있습니다.
+7. Multidimensional Quality Score (1-5): 4
+   - 전반적으로 생성된 응답은 여러 품질 차원에서 잘 수행되고 있으며, 특히 관련성과 정확성이 높습니다. 그러나 일관성과 사실성에서 약간의 부족함이 있습니다.
+8. Semantic Appropriateness Score (1-5): 4
+   - 생성된 응답은 원문의 의미와 맥락에 잘 부합하지만, "후보순위"라는 표현이 원문에 없기 때문에 약간의 의미적 부적절성이 있습니다.
+9. Understandability Score (1-5): 4
+   - 생성된 응답은 전반적으로 이해하기 쉽고 명확하게 작성되어 있습니다. 그러나 일부 표현이 다소 복잡할 수 있습니다.
+{
+    "Factuality Score": 4,
+    "Consistency Score": 3,
+    "Relevance Score": 5,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 4,
+    "Multidimensional Quality Score": 4,
+    "Semantic Appropriateness Score": 4,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C355" t="n">
+        <v>0.7550347475512125</v>
+      </c>
+      <c r="D355" t="inlineStr">
+        <is>
+          <t>전년도에 전자공학과의 충원 합격은 몇차까지 이루어졌습니까?</t>
+        </is>
+      </c>
+      <c r="E355" t="inlineStr">
+        <is>
+          <t>2024학년도 모집단위인 전자공학과의 경우, 충원 합격 (후보순위)이 36까지 이루어졌습니다. 이 정보는 제공된 데이터에서 전자공학과에 대한 부분을 참조하여 확인할 수 있습니다. 만약 더 자세한 정보가 필요하시다면, 해당 대학의 입학 안내 홈페이지를 방문해 보시는 것이 좋겠습니다. "https://ipsi.deu.ac.kr/main.do"</t>
+        </is>
+      </c>
+      <c r="F355" t="inlineStr">
+        <is>
+          <t>동의대학교 정시 모집 전형에는 충원 합격 차수에 대한 정보가 존재하지않습니다.
+전년도의 전자공학과의 충원 합격은 36명까지 이루어졌습니다.
+자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="356">
+      <c r="A356" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B356" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 1
+   - 설명: 생성된 응답은 동의대학교 입학관리팀의 전화번호가 포함되어 있지 않다고 주장하지만, 원본 텍스트에는 명확하게 전화번호가 제공되어 있습니다. 따라서 사실성이 매우 낮습니다.
+2. Consistency Score (1-5): 1
+   - 설명: 생성된 응답은 원본 텍스트와 상충되는 정보를 제공합니다. 원본 텍스트에 명시된 전화번호를 무시하고 잘못된 주장을 하고 있어 일관성이 없습니다.
+3. Relevance Score (1-5): 2
+   - 설명: 생성된 응답은 원본 텍스트의 주요 정보인 전화번호를 무시하고 있으며, 관련성이 낮습니다. 그러나 웹사이트 링크를 언급하여 일부 관련성을 유지하고 있습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 문법적으로 올바르고 읽기 쉬운 구조를 가지고 있습니다. 그러나 내용의 정확성 문제로 인해 전체적인 흐름이 방해받고 있습니다.
+5. Coherence Score (1-5): 3
+   - 설명: 생성된 응답은 일관된 구조를 가지고 있지만, 원본 텍스트와의 불일치로 인해 논리적 흐름이 약간 손상되었습니다.
+6. Accuracy Score (1-5): 1
+   - 설명: 생성된 응답은 원본 텍스트의 사실을 왜곡하고 있으며, 전화번호에 대한 잘못된 정보를 제공합니다. 따라서 정확성이 매우 낮습니다.
+7. Multidimensional Quality Score (1-5): 1
+   - 설명: 생성된 응답은 사실성, 일관성, 관련성, 정확성 등 모든 차원에서 매우 낮은 점수를 받고 있습니다.
+8. Semantic Appropriateness Score (1-5): 2
+   - 설명: 생성된 응답은 원본 텍스트의 의미와 맥락을 잘못 전달하고 있으며, 전화번호에 대한 정보가 없다고 주장하는 것은 부적절합니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 문법적으로 명확하고 이해하기 쉬운 표현을 사용하고 있지만, 내용의 정확성 문제로 인해 혼란을 초래할 수 있습니다.
+{
+    "Factuality Score": 1,
+    "Consistency Score": 1,
+    "Relevance Score": 2,
+    "Fluency Score": 4,
+    "Coherence Score": 3,
+    "Accuracy Score": 1,
+    "Multidimensional Quality Score": 1,
+    "Semantic Appropriateness Score": 2,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C356" t="n">
+        <v>0.6998866618005622</v>
+      </c>
+      <c r="D356" t="inlineStr">
+        <is>
+          <t>동의대학교 입학처 전화번호는 무엇입니까?</t>
+        </is>
+      </c>
+      <c r="E356" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 제공된 정보에는 동의대학교 입학처의 전화번호가 포함되어 있지 않습니다. "https://ipsi.deu.ac.kr/main.do" 웹사이트를 방문하여 최신 연락처 정보를 확인해 보세요.</t>
+        </is>
+      </c>
+      <c r="F356" t="inlineStr">
+        <is>
+          <t>동의대학교 입학관리팀 연락처는 051-890-4379~89입니다. 자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="357">
+      <c r="A357" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B357" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 2
+   - 설명: 생성된 응답은 전화 통화가 되지 않는 경우 학생이 홈페이지에서 합격 여부를 확인할 수 있다고 언급하고 있지만, 원문에서는 전화 연락이 두절되면 해당 지원자가 등록 의사가 없는 것으로 간주된다고 명시하고 있습니다. 따라서 사실관계에 여러 가지 오류가 있습니다.
+2. Consistency Score (1-5): 2
+   - 설명: 생성된 응답은 원문과 상충되는 내용을 포함하고 있습니다. 원문에서는 전화 통화가 되지 않으면 등록 포기자로 처리된다고 명시되어 있으나, 생성된 응답은 홈페이지에서 확인할 수 있다고 하여 서로 모순되는 정보를 제공합니다.
+3. Relevance Score (1-5): 3
+   - 설명: 생성된 응답은 원문과 관련된 내용을 다루고 있지만, 원문에서 강조하는 전화 통화의 중요성에 대한 언급이 부족합니다. 따라서 관련성은 있지만, 핵심적인 내용이 누락되어 있습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 구조를 가지고 있습니다. 그러나 약간의 어색한 표현이 있을 수 있습니다.
+5. Coherence Score (1-5): 3
+   - 설명: 생성된 응답은 논리적으로 연결되어 있지만, 원문과의 일관성이 부족하여 전체적인 일관성이 떨어집니다. 원문과의 연결이 약해 응답의 일관성이 떨어집니다.
+6. Accuracy Score (1-5): 2
+   - 설명: 생성된 응답은 원문에서 제시된 사실과 여러 가지로 다릅니다. 특히, 전화 통화가 되지 않는 경우의 처리 방식에 대한 설명이 잘못되어 있습니다.
+7. Multidimensional Quality Score (1-5): 2
+   - 설명: 생성된 응답은 여러 차원에서 원문과의 일관성이 부족하고, 사실관계에 오류가 있어 전반적인 품질이 낮습니다.
+8. Semantic Appropriateness Score (1-5): 3
+   - 설명: 생성된 응답은 의미적으로 적절한 부분도 있지만, 원문과의 맥락에서 벗어난 부분이 있어 의미 전달이 완벽하지 않습니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 이해하기 쉬운 구조를 가지고 있으나, 원문과의 차이로 인해 혼란을 줄 수 있는 요소가 있습니다.
+{
+    "Factuality Score": 2,
+    "Consistency Score": 2,
+    "Relevance Score": 3,
+    "Fluency Score": 4,
+    "Coherence Score": 3,
+    "Accuracy Score": 2,
+    "Multidimensional Quality Score": 2,
+    "Semantic Appropriateness Score": 3,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C357" t="n">
+        <v>0.458260084235915</v>
+      </c>
+      <c r="D357" t="inlineStr">
+        <is>
+          <t>3차 이후 충원합격자에 대해 개별 전화 통보를 할 때 전화 통화가 되지 않으면 어떻게 처리되나요?</t>
+        </is>
+      </c>
+      <c r="E357" t="inlineStr">
+        <is>
+          <t>3차 이후 충원합격자에 대한 개별 전화 통보 시 전화 통화가 되지 않는 경우, 해당 학생은 홈페이지에서 개별 조회를 통해 합격 여부를 확인할 수 있습니다. 또한 고지서는 홈페이지에서 출력하거나 입학관리팀에서 수령 가능하며, 등록장소는 학교 지정은행(등록금 고지서에 기재)입니다.
+따라서 전화 통화가 되지 않아도 홈페이지와 고지서를 통해 필요한 정보를 얻을 수 있습니다.</t>
+        </is>
+      </c>
+      <c r="F357" t="inlineStr">
+        <is>
+          <t>3차 이후 충원합격자 발표 과정에서 전화 연락이 두절되어(3회 통화 시도) 충원합격 통보가 어려운 경우, 해당 지원자는 등록 의사가 없는 것으로 간주되어 등록 포기자로 처리됩니다. 따라서 충원합격자 발표 기간(2024년 2월 15일(목)~2024년 2월 20일(화)) 동안 전화 연락을 받을 수 있도록 유의해야 합니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="358">
+      <c r="A358" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B358" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 2
+   - 생성된 응답은 농어촌학생전형에 필요한 서류에 대한 정보가 아닌, 고교 졸업자 및 외국고교 졸업자에 대한 서류를 나열하고 있습니다. 이는 원본 텍스트의 내용과 일치하지 않으며, 주요 정보가 누락되어 있습니다.
+2. Consistency Score (1-5): 2
+   - 생성된 응답은 원본 텍스트와 일치하지 않는 정보를 포함하고 있으며, 서로 다른 전형에 대한 서류를 혼합하여 제시하고 있습니다. 이로 인해 일관성이 떨어집니다.
+3. Relevance Score (1-5): 2
+   - 생성된 응답은 원본 텍스트의 주제와 관련이 적고, 농어촌학생전형에 대한 구체적인 서류 목록을 제공하지 않기 때문에 관련성이 낮습니다.
+4. Fluency Score (1-5): 4
+   - 문법적으로는 잘 작성되어 있으며, 읽기에도 무리가 없습니다. 그러나 내용의 정확성과 관련성 부족으로 인해 전체적인 평가에 영향을 미칩니다.
+5. Coherence Score (1-5): 3
+   - 생성된 응답은 여러 전형에 대한 서류를 나열하고 있지만, 원본 텍스트의 흐름과는 다르게 구성되어 있어 일관된 논리적 흐름이 부족합니다.
+6. Accuracy Score (1-5): 2
+   - 생성된 응답은 원본 텍스트의 사실과 일치하지 않으며, 잘못된 정보가 포함되어 있습니다. 특히, 농어촌학생전형에 대한 서류가 아닌 다른 전형에 대한 서류를 나열하고 있습니다.
+7. Multidimensional Quality Score (1-5): 2
+   - 전반적으로 생성된 응답은 사실성, 일관성, 관련성, 정확성에서 낮은 점수를 받았으며, 품질이 낮습니다.
+8. Semantic Appropriateness Score (1-5): 2
+   - 생성된 응답은 원본 텍스트의 의미와 맥락에 맞지 않으며, 부적절한 정보가 포함되어 있습니다.
+9. Understandability Score (1-5): 4
+   - 문장은 명확하게 작성되어 있어 이해하기는 쉽지만, 내용의 부정확성으로 인해 전체적인 이해에 혼란을 줄 수 있습니다.
+{
+    "Factuality Score": 2,
+    "Consistency Score": 2,
+    "Relevance Score": 2,
+    "Fluency Score": 4,
+    "Coherence Score": 3,
+    "Accuracy Score": 2,
+    "Multidimensional Quality Score": 2,
+    "Semantic Appropriateness Score": 2,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C358" t="n">
+        <v>0.6629655004220574</v>
+      </c>
+      <c r="D358" t="inlineStr">
+        <is>
+          <t>농어촌학생전형으로 지원 시 제출해야할 서류를 알려줘</t>
+        </is>
+      </c>
+      <c r="E358" t="inlineStr">
+        <is>
+          <t>농어촌학생전형으로 지원시 제출해야하는 서류는 다음과 같습니다.
+1. **고교 졸업(예정)자**:
+   - 고교 졸업증명서
+   - 지원자 본인, 부모 초본 각 1부 (총 3부)
+2. **검정고시출신자 / 외국고교 졸업(예정)자**:
+   - 검정고시 합격증서 사본 또는 합격증명서 1부
+   - 검정고시 성적증명서 1부 (온라인 제공 동의자는 제출할 필요 없음)
+   - 학교생활기록부 대체 서류 (제출여부 선택 가능)
+3. **외국고교 졸업(예정)자**:
+   - 공증받은 외국고교 졸업(예정)증명서 1부
+   - 공증받은 외국고교 성적증명서 1부
+   - 학교생활기록부 대체 서류 (제출여부 선택 가능)
+     ※ 외국어로 작성된 경우, 원본과 공증받은 한국어 번역본을 함께 제출해야 합니다.
+     ※ 고교 졸업(예정)증명서, 성적증명서는 해당국가의 정부기관으로부터 아포스티유 확인서 또는 해당국가 주재 한국영사관에서 영사 확인을 발급받아 제출해야 합니다. (단, 교육부에서 인정한 재외한국학교는 영사확인 없이 증명서 원본 제출 가능)
+     ∘ 아포스티유 협약국 : 아포스티유 확인서(고교 소재국 지정기관), 영사확인(고교 소재국 한국영사관) 중 택 1
+     ∘ 아포스티유 비협약국 : 영사확인(고교 소재국 한국영사관)
+     ※ 만점이 명시된 고교성적 체계자료를 성적증명서 뒤에 첨부해야 합니다. (성적증명서에 기재된 경우에는 별도로 제출할 필요 없음)
+4. **최종 등록자 중 외국고교 졸업예정자는 졸업 이후 졸업증명서(아포스티유 확인서 또는 영사확인 발급)를 2024. 02. 16.(금)까지 추가 제출해야 합니다.**
+위와 같은 서류들을 준비하여 제출하면 됩니다.</t>
+        </is>
+      </c>
+      <c r="F358" t="inlineStr">
+        <is>
+          <t>농어촌학생전형으로 지원 시 제출해야 할 서류는 다음과 같습니다
+6년 과정
+지원자 본인의 가족관계증명서 1부
+지원자 본인, 부, 모의 주민등록초본 각 1부 (총 3부)
+중학교 학교생활기록부 1부
+교육기관(초·중·고교), 공공기관, 무인민원발급기, 인터넷 정부24에서 발급
+고등학교 학교생활기록부 1부 (학생부 온라인 제공 비대상교 및 미동의자)
+부모가 사망한 경우: 사망한 부 또는 모의 기본증명서 1부 (기본증명서에 ‘사망’이 명시되어 있지 않은 경우 제적등본 1부 추가 제출)
+부모가 이혼한 경우: 친권이 있는 부 또는 모의 혼인관계증명서(상세) 1부, 본인의 기본증명서(상세) 1부 추가 제출
+12년 과정
+지원자 본인의 주민등록초본 1부
+초등학교 학교생활기록부 1부
+중학교 학교생활기록부 1부
+고등학교 학교생활기록부 1부 (학생부 온라인 제공 비대상교 및 미동의자)
+중·고등학교 재학 시 부, 모 모두 농어촌(읍·면)지역에서 거주한 자는 ‘6년과정' 서류 제출 가능
+교육기관(초·중·고교), 공공기관, 무인민원발급기, 인터넷 정부24에서 발급
+추가 정보
+제출기간: 2024. 01. 03.(수) ~ 01. 12.(금) 17:00까지 도착분에 한함
+제출장소: (우: 47340) 부산광역시 부산진구 엄광로 176, 동의대학교 입학관리팀
+주의사항: 제출서류 미제출자는 불합격 처리됩니다. 
+주민등록초본, 가족관계증명서, 혼인관계증명서, 기본증명서는 주민등록번호 전체가 기재되어 있어야 하며, 주소변동사항이 포함된 서류를 발급받아 제출하여야 합니다.
+상기 서류는 2024년 1월 1일 이후에 발급된 서류에 한해 제출해야 합니다. 
+최종등록자 중 고교 졸업예정자는 졸업 이후 지원자격 증빙서류를 2024. 02. 16.(금)까지 추가 제출하여야 합니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="359">
+      <c r="A359" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B359" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 3
+   - 설명: 생성된 응답은 필요한 서류의 일부만 언급하고 있으며, 초등학교와 중학교 학교생활기록부, 고등학교 학교생활기록부에 대한 언급이 없습니다. 따라서 사실성 점수는 3으로 평가합니다.
+2. Consistency Score (1-5): 3
+   - 설명: 생성된 응답은 원본 텍스트와 일부 일치하지만, 모든 필요한 서류를 포함하지 않기 때문에 일관성 점수는 3으로 평가합니다.
+3. Relevance Score (1-5): 5
+   - 설명: 생성된 응답은 원본 텍스트의 주제와 관련이 있으며, 농어촌학생전형 지원 시 필요한 서류에 대한 정보를 제공합니다. 따라서 관련성 점수는 5로 평가합니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 문법적으로 올바르며 읽기 쉽지만, 약간의 어색함이 느껴질 수 있습니다. 따라서 유창성 점수는 4로 평가합니다.
+5. Coherence Score (1-5): 4
+   - 설명: 생성된 응답은 논리적으로 잘 구성되어 있으며, 정보가 명확하게 전달됩니다. 따라서 일관성 점수는 4로 평가합니다.
+6. Accuracy Score (1-5): 3
+   - 설명: 생성된 응답은 일부 정확한 정보를 포함하고 있지만, 모든 필요한 서류를 포함하지 않기 때문에 정확성 점수는 3으로 평가합니다.
+7. Multidimensional Quality Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 양호하지만, 사실성과 정확성에서 일부 부족함이 있어 다차원 품질 점수는 4로 평가합니다.
+8. Semantic Appropriateness Score (1-5): 4
+   - 설명: 생성된 응답은 의미적으로 적절하며, 원본 텍스트의 맥락과 잘 맞습니다. 따라서 의미 적합성 점수는 4로 평가합니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 명확하고 이해하기 쉬우며, 정보가 잘 전달됩니다. 따라서 이해 가능성 점수는 4로 평가합니다.
+{
+    "Factuality Score": 3,
+    "Consistency Score": 3,
+    "Relevance Score": 5,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 3,
+    "Multidimensional Quality Score": 4,
+    "Semantic Appropriateness Score": 4,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C359" t="n">
+        <v>0.8346859816789737</v>
+      </c>
+      <c r="D359" t="inlineStr">
+        <is>
+          <t>농어촌학생전형으로 지원 시 12년 과정이 제출해야할 서류를 알려줘.</t>
+        </is>
+      </c>
+      <c r="E359" t="inlineStr">
+        <is>
+          <t>12년 과정의 농어촌학생전형 지원 시 필요한 서류는 다음과 같습니다.
+- 고교 졸업증명서
+- 지원자 본인 초본 1부
+위와 같은 서류들을 제출해야 합니다.</t>
+        </is>
+      </c>
+      <c r="F359" t="inlineStr">
+        <is>
+          <t>농어촌학생전형으로 지원 시 12년 과정이 제출해야 할 서류는 다음과 같습니다
+1. 지원자 본인의 주민등록초본 1부
+2. 초등학교 학교생활기록부 1부
+3. 중학교 학교생활기록부 1부
+4. 고등학교 학교생활기록부 1부 (학생부 온라인 제공 비대상교 및 미동의자)
+추가로, 최종등록자라면 다음 서류도 제출해야 합니다
+1. 고교 졸업증명서
+2. 지원자 본인의 주민등록초본 1부 주민등록초본은 고교 졸업 이후 발급된 것이어야 하며, 주소변동사항이 포함된 서류를 발급받아 제출해야 합니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="360">
+      <c r="A360" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B360" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 4
+   - 생성된 응답은 기회균등 전형이 존재하지 않는다는 사실을 정확하게 반영하고 있으며, 이전 학년도에 대한 언급도 포함되어 있어 사실적 정확성이 높습니다. 그러나 "현재 정보로는 해당 전형이 없어 보입니다"라는 표현은 다소 모호하게 느껴질 수 있습니다.
+2. Consistency Score (1-5): 4
+   - 생성된 응답은 원본 텍스트와 일관되게 기회균등 전형이 없다는 내용을 전달하고 있습니다. 다만, "이전 학년도에는 일부 대학에서 저소득층 지원을 위해 특별한 전형을 운영하였으나"라는 부분은 원본 텍스트에 명시되어 있지 않으므로 약간의 일관성 저하가 있습니다.
+3. Relevance Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 주제와 관련이 깊으며, 기회균등 전형에 대한 질문에 직접적으로 답변하고 있습니다.
+4. Fluency Score (1-5): 4
+   - 문장은 전반적으로 잘 구성되어 있으며, 읽기 쉽고 자연스럽습니다. 그러나 "해당 전형이 없어 보입니다"라는 표현이 다소 어색하게 느껴질 수 있습니다.
+5. Coherence Score (1-5): 4
+   - 응답은 논리적으로 잘 연결되어 있으며, 주제에 대한 흐름이 자연스럽습니다. 그러나 이전 학년도에 대한 언급이 원본 텍스트와의 연결성을 약간 떨어뜨릴 수 있습니다.
+6. Accuracy Score (1-5): 4
+   - 응답은 전반적으로 정확하지만, "현재 정보로는 해당 전형이 없어 보입니다"라는 표현이 다소 주관적일 수 있어 정확성에 약간의 의문을 제기할 수 있습니다.
+7. Multidimensional Quality Score (1-5): 4
+   - 응답은 여러 차원에서 높은 품질을 보이며, 사실성, 일관성, 관련성, 정확성 모두에서 좋은 점수를 받을 수 있습니다.
+8. Semantic Appropriateness Score (1-5): 4
+   - 응답은 원본 텍스트의 의미와 맥락에 잘 맞아떨어지지만, 일부 표현이 다소 모호하게 느껴질 수 있습니다.
+9. Understandability Score (1-5): 4
+   - 응답은 전반적으로 이해하기 쉽지만, 일부 표현이 다소 복잡하게 느껴질 수 있어 완벽한 이해를 방해할 수 있습니다.
+{
+    "Factuality Score": 4,
+    "Consistency Score": 4,
+    "Relevance Score": 5,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 4,
+    "Multidimensional Quality Score": 4,
+    "Semantic Appropriateness Score": 4,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C360" t="n">
+        <v>0.66292962442975</v>
+      </c>
+      <c r="D360" t="inlineStr">
+        <is>
+          <t>정시모집에서 저소득 기회균등 전형에 대해서 알려줘.</t>
+        </is>
+      </c>
+      <c r="E360" t="inlineStr">
+        <is>
+          <t>2024학년도 정시모집에서는 저소득 기회균등 전형이 없습니다. 이전 학년도에는 일부 대학에서 저소득층 지원을 위해 특별한 전형을 운영하였으나, 현재 정보로는 해당 전형이 없어 보입니다.
+더 자세한 내용이나 변경사항이 있다면, "https://ipsi.deu.ac.kr/main.do" 웹사이트를 참조해보시거나 대학 입학처에 직접 문의하시기 바랍니다.</t>
+        </is>
+      </c>
+      <c r="F360" t="inlineStr">
+        <is>
+          <t>동의대학교 정시 모집 전형에는 기회균등 전형이라는 전형이 존재하지 않습니다. 자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="361">
+      <c r="A361" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B361" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 3
+   - 설명: 생성된 응답은 2.5 등급이 절사되지 않고 그대로 반영된다고 주장하고 있지만, 원본 텍스트에서는 절사 여부에 대한 구체적인 정보가 없다고 명시하고 있습니다. 따라서, 생성된 응답은 원본 텍스트의 내용을 완전히 반영하지 못하고 있습니다.
+2. Consistency Score (1-5): 3
+   - 설명: 생성된 응답은 원본 텍스트와 일부 일치하지만, 절사 여부에 대한 정보가 없다는 점에서 일관성이 부족합니다. 원본 텍스트는 명확한 정보를 제공하지 않기 때문에, 생성된 응답의 주장은 일관성이 떨어집니다.
+3. Relevance Score (1-5): 4
+   - 설명: 생성된 응답은 질문에 대한 답변을 제공하고 있으며, 관련된 정보를 포함하고 있습니다. 그러나 원본 텍스트의 핵심 내용인 절사 여부에 대한 불확실성을 간과하고 있습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 문장으로 구성되어 있습니다. 다만, 일부 문장에서 약간의 어색함이 느껴질 수 있습니다.
+5. Coherence Score (1-5): 4
+   - 설명: 생성된 응답은 논리적으로 잘 구성되어 있으며, 주제에 대한 일관된 흐름을 유지하고 있습니다. 그러나 원본 텍스트와의 연결이 약간 부족합니다.
+6. Accuracy Score (1-5): 3
+   - 설명: 생성된 응답은 2.5 등급이 절사되지 않는다고 주장하지만, 원본 텍스트에서는 이에 대한 명확한 정보가 없으므로 정확성이 떨어집니다.
+7. Multidimensional Quality Score (1-5): 3
+   - 설명: 생성된 응답은 여러 차원에서 중간 정도의 품질을 보이고 있으며, 일부는 잘 수행되었지만, 원본 텍스트와의 불일치로 인해 전반적인 품질이 저하되었습니다.
+8. Semantic Appropriateness Score (1-5): 3
+   - 설명: 생성된 응답은 의미적으로 적절한 부분이 있지만, 원본 텍스트의 맥락을 완전히 반영하지 못하고 있습니다. 따라서 의미적 적절성이 떨어집니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 이해하기 쉬운 문장으로 구성되어 있으며, 명확한 정보를 제공합니다. 그러나 원본 텍스트와의 연결이 부족하여 약간의 혼란을 줄 수 있습니다.
+{
+    "Factuality Score": 3,
+    "Consistency Score": 3,
+    "Relevance Score": 4,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 3,
+    "Multidimensional Quality Score": 3,
+    "Semantic Appropriateness Score": 3,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C361" t="n">
+        <v>0.6344429764018211</v>
+      </c>
+      <c r="D361" t="inlineStr">
+        <is>
+          <t>수능 최저등급에서 사탐 2 과목 평균산출이라고 나와있는데 만약 2.5등급이 나오면 절사하나요? 아님 그대로 2.5등급으로 보는건가요?</t>
+        </is>
+      </c>
+      <c r="E361" t="inlineStr">
+        <is>
+          <t>2.5 등급이 나오더라도 절사하여 3등급으로 처리하지 않습니다. 수능 사탐 2 과목 평균산출 시 2.5 등급은 그대로 2.5 등급으로 반영됩니다.
+만약 특정 학교나 전형에서 다르게 처리한다고 명시되어 있다면 해당 조항을 따르지만, 일반적으로는 2.5 등급이 나오더라도 그대로 반영합니다.
+더 자세한 내용이 필요하시다면 https://ipsi. deu. ac. kr/main. do 를 참조해보세요.</t>
+        </is>
+      </c>
+      <c r="F361" t="inlineStr">
+        <is>
+          <t>제공된 데이터에는 수능 최저등급에 대한 구체적인 절사 여부에 대한 정보가 포함되어 있지 않습니다. 따라서, 수능 최저등급에서 사탐 2 과목 평균산출 시 2.5등급이 나올 경우 절사 여부에 대한 정확한 정보를 확인하려면 입학안내 홈페이지(http://ipsi.deu.ac.kr)에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="362">
+      <c r="A362" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B362" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 2
+   - 설명: 생성된 응답은 "정시 충원 합격자 발표는 총 4차로 이루어집니다."라고 언급하고 있지만, 원본 텍스트에서는 3차까지 발표가 이루어진다고 명시되어 있습니다. 따라서 사실과 일치하지 않으며, 잘못된 정보를 포함하고 있습니다.
+2. Consistency Score (1-5): 2
+   - 설명: 생성된 응답은 원본 텍스트와 일치하지 않는 정보를 제공하고 있습니다. 원본 텍스트는 3차까지 발표가 이루어진다고 명시하고 있지만, 생성된 응답은 4차로 이루어진다고 하여 일관성이 부족합니다.
+3. Relevance Score (1-5): 5
+   - 설명: 생성된 응답은 원본 텍스트의 주요 내용을 잘 반영하고 있으며, 발표 일정에 대한 정보를 포함하고 있어 관련성이 높습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 문법적으로 잘 작성되어 있으며, 읽기에도 무리가 없습니다. 다만, 약간의 어색함이 느껴질 수 있습니다.
+5. Coherence Score (1-5): 4
+   - 설명: 생성된 응답은 논리적으로 잘 구성되어 있으며, 발표 일정에 대한 정보가 명확하게 전달되고 있습니다. 그러나 4차 발표에 대한 언급이 원본과 다르기 때문에 완전한 일관성은 없습니다.
+6. Accuracy Score (1-5): 2
+   - 설명: 생성된 응답은 원본 텍스트의 사실과 다르게 4차 발표가 있다고 잘못된 정보를 제공하고 있습니다. 따라서 정확성 점수가 낮습니다.
+7. Multidimensional Quality Score (1-5): 3
+   - 설명: 생성된 응답은 관련성은 높지만, 사실성과 일관성에서 큰 문제가 있어 전반적인 품질이 떨어집니다.
+8. Semantic Appropriateness Score (1-5): 3
+   - 설명: 생성된 응답은 원본 텍스트의 의미와 다르게 해석될 수 있는 부분이 있어 의미적으로 적절하지 않습니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 이해하기 쉬우나, 잘못된 정보로 인해 혼란을 줄 수 있습니다.
+{
+    "Factuality Score": 2,
+    "Consistency Score": 2,
+    "Relevance Score": 5,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 2,
+    "Multidimensional Quality Score": 3,
+    "Semantic Appropriateness Score": 3,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C362" t="n">
+        <v>0.850453648479064</v>
+      </c>
+      <c r="D362" t="inlineStr">
+        <is>
+          <t>정시 충원 합격자 발표는 몇차까지 있나요?</t>
+        </is>
+      </c>
+      <c r="E362" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 정시 충원 합격자 발표는 총 4차로 이루어집니다.
+1. **1차 발표**: 2024년 2월 14일(수) 09:00에 이루어집니다.
+2. **2차 발표**: 2024년 2월 15일(목) 09:00에 이루어집니다.
+3. **3차 이후 발표**: 2024년 2월 15일(목) 19:00부터 2024년 2월 20일(화) 18시까지 개별 전화 통보를 통해 이루어집니다.
+이와 같이 총 4차로 합격자 발표가 이루어집니다.</t>
+        </is>
+      </c>
+      <c r="F362" t="inlineStr">
+        <is>
+          <t>정시 충원 합격자 발표는 3차까지 있으며, 3차 이후에는 개별 전화 통보로 발표됩니다. - 1차 발표: 2024. 02. 14.(수) 09:00 - 2차 발표: 2024. 02. 15.(목) 09:00 - 3차 이후 발표: 2024. 02. 15.(목) 19:00 ~ 2024. 02. 20.(화) 18시까지 3차 이후 발표는 개별 전화 통보로 진행됩니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="363">
+      <c r="A363" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B363" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 4
+   - 생성된 응답은 수능 점수와 관련된 여러 요소를 잘 설명하고 있으며, 평균 점수와 경쟁률에 대한 정보도 포함되어 있습니다. 그러나 모집인원과 지원인원에 대한 구체적인 수치가 원문에 명시되어 있지 않으므로, 이 부분에서 약간의 불확실성이 존재합니다.
+2. Consistency Score (1-5): 4
+   - 생성된 응답은 원문에서 제공된 정보와 일관되게 설명하고 있으며, 추가 합격 가능성에 대한 논의도 원문과 일치합니다. 다만, 일부 세부 사항에서 원문과의 일치성이 떨어질 수 있습니다.
+3. Relevance Score (1-5): 5
+   - 생성된 응답은 원문에서 제기된 질문에 직접적으로 관련된 내용을 다루고 있으며, 추가 합격 가능성에 대한 정보를 명확하게 제공합니다.
+4. Fluency Score (1-5): 4
+   - 생성된 응답은 전반적으로 문법적으로 올바르며, 읽기 쉽게 작성되었습니다. 그러나 일부 문장에서 약간의 어색함이 느껴질 수 있습니다.
+5. Coherence Score (1-5): 4
+   - 생성된 응답은 논리적으로 잘 구성되어 있으며, 각 요소가 명확하게 연결되어 있습니다. 그러나 일부 부분에서 더 매끄럽게 연결될 수 있는 여지가 있습니다.
+6. Accuracy Score (1-5): 4
+   - 생성된 응답은 원문에서 제공된 정보와 대체로 일치하며, 수치와 관련된 정보도 정확하게 반영하고 있습니다. 그러나 일부 세부 사항에서 정확성이 떨어질 수 있습니다.
+7. Multidimensional Quality Score (1-5): 4
+   - 생성된 응답은 여러 품질 차원에서 잘 수행되고 있으며, 전반적으로 높은 점수를 기록하고 있습니다. 그러나 일부 세부 사항에서 개선의 여지가 있습니다.
+8. Semantic Appropriateness Score (1-5): 4
+   - 생성된 응답은 원문과 의미적으로 잘 일치하며, 질문에 대한 적절한 답변을 제공합니다. 그러나 일부 표현에서 더 명확하게 전달될 수 있는 부분이 있습니다.
+9. Understandability Score (1-5): 4
+   - 생성된 응답은 전반적으로 이해하기 쉽고 명확하게 작성되었습니다. 그러나 일부 문장에서 약간의 혼란을 줄 수 있는 표현이 있을 수 있습니다.
+{
+    "Factuality Score": 4,
+    "Consistency Score": 4,
+    "Relevance Score": 5,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 4,
+    "Multidimensional Quality Score": 4,
+    "Semantic Appropriateness Score": 4,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C363" t="n">
+        <v>0.6447939101526483</v>
+      </c>
+      <c r="D363" t="inlineStr">
+        <is>
+          <t>e비즈니스학과 수능 성적이 4.6이면 정시 전형으로 추가 합격 가능할까요?</t>
+        </is>
+      </c>
+      <c r="E363" t="inlineStr">
+        <is>
+          <t>4.6이라는 수능 점수만으로는 e비즈니스학과의 정시 전형에서 추가 합격 가능 여부를 판단하기 어렵습니다. 이유는 다음과 같습니다:
+1. **모집인원 및 지원 인원**: e비즈니스학과의 모집인원은 10명이고, 지원 인원이 89명으로 높은 경쟁률을 보입니다.
+2. **경쟁률**: 지원 인원 대비 모집인원이 적지 않은데, 경쟁률이 8.90이라는 매우 높은 수치를 보여줍니다. 이는 추가 합격 가능성에 부정적인 영향을 미칠 수 있습니다.
+3. **평균 점수 및 표준 편차**: e비즈니스학과의 평균 국어+수학+탐구(2개) (가산점 포함) 표준 변환 점수 합은 426.25이며, 이 값이 지원자의 수능 성적을 상대적으로 높게 보여줄 것입니다.
+4. **영어 등급**: 영어 등급의 평균이 3.66이고, 지원자의 영어 등급이 이보다 낮다면 추가 합격 가능성은 더욱 낮아질 수 있습니다.
+5. **전형 요소 반영 비율**: 다군 수능(일반학생전형)에서는 수능 성적이 100% 반영되므로, 수능 점수가 중요한 역할을 합니다.
+따라서, 4.6이라는 수능 점수만으로는 정시 전형에서 추가 합격 가능 여부를 판단하기 어렵습니다. 지원자의 총 평균 점수, 영어 등급, 그리고 다른 요소들을 고려해야 합니다. 또한, 각 모집단위의 충원 합격자 수와 경쟁률을 확인하여 더 정확한 판단이 가능합니다.
+추가 정보를 원하시면, "https://ipsi. deu. ac. kr/main. do" 링크를 참조해 보시는 것을 추천드립니다.</t>
+        </is>
+      </c>
+      <c r="F363" t="inlineStr">
+        <is>
+          <t>제공된 컨텍스트에 따라 e-비즈니스학과(e-비즈니스학과)의 최초 합격자 및 최종 등록생의 평균 점수는 다음과 같습니다:
+- 최초합격자:
+  - 국어 + 수학 + 탐구(2개) (가산점 포함) 표준 환산 점수 합: 317.20 (평균)
+  - 영어 등급 3.20 (평균)
+  - 수능 4개 영역 등급 4.17 (평균)
+  - 수능 4개 영역 (가산점 포함) 표준 변환 점수 합: 438.60 (평균)
+- 최종 등록 학생:
+  - 국어 + 수학 + 탐구(2개) (가산점 포함) 표준 변환 점수 합: 308.58 (평균)
+  - 영어 등급 3.66 (평균)
+  - 수능 4개 영역 등급 4.53 (평균)
+  - 수능 4개 영역 (가산점 포함) 표준 변환 점수 합: 426.25 (평균)
+수능 4개 영역 등급이 4.6점이라면 최초 합격자(4.17점)와 최종 등록자(4.53점) 모두 평균을 약간 상회하는 수준입니다. 반드시 합격이 보장되는 것은 아니지만 다른 영역(국어, 수학, 탐구, 영어) 성적이 경쟁력이 있다면 충원 합격(추가모집)을 통해 합격할 가능성이 있습니다. 
+보다 정확한 평가를 위해 총 표준 변환 점수 합과 제공된 평균을 비교하는 것이 좋습니다. 총점이 평균에 근접하거나 그 이상이면 충원 합격을 통해 합격할 가능성이 더 높을 수 있습니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="364">
+      <c r="A364" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B364" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 3
+   - 설명: 생성된 응답은 e비즈니스학과의 경쟁률, 충원 합격자 수, 지원 인원 등의 정보를 포함하고 있지만, 영어 등급 평균과 수능 4개 영역 등급 평균에 대한 정보가 원본 텍스트와 다릅니다. 원본 텍스트에서는 영어 등급 평균이 3.66이고 수능 4개 영역 등급 평균이 4.53이라고 명시되어 있으나, 생성된 응답에서는 각각 4.00과 5.03으로 제시되어 있습니다. 이로 인해 사실성 점수는 3으로 평가됩니다.
+2. Consistency Score (1-5): 3
+   - 설명: 생성된 응답은 원본 텍스트의 일부 정보와 일치하지만, 다른 정보는 상충합니다. 예를 들어, 영어 등급 평균과 수능 4개 영역 등급 평균이 원본과 다르게 제시되어 있어 일관성이 떨어집니다. 따라서 일관성 점수는 3으로 평가됩니다.
+3. Relevance Score (1-5): 5
+   - 설명: 생성된 응답은 원본 텍스트의 주제와 관련된 정보를 제공하며, e비즈니스학과의 합격 가능성에 대한 질문에 직접적으로 답변하고 있습니다. 따라서 관련성 점수는 5로 평가됩니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 구조를 가지고 있습니다. 그러나 일부 문장에서 약간의 어색함이 느껴질 수 있어 점수는 4로 평가됩니다.
+5. Coherence Score (1-5): 4
+   - 설명: 생성된 응답은 논리적으로 잘 구성되어 있으며, 각 문장이 서로 연결되어 있습니다. 그러나 일부 정보가 원본과 다르기 때문에 완전한 일관성은 부족합니다. 따라서 일관성 점수는 4로 평가됩니다.
+6. Accuracy Score (1-5): 3
+   - 설명: 생성된 응답은 일부 정확한 정보를 포함하고 있지만, 원본 텍스트의 주요 사실과 다르게 제시된 부분이 있어 정확성 점수는 3으로 평가됩니다.
+7. Multidimensional Quality Score (1-5): 4
+   - 설명: 생성된 응답은 관련성, 유창성, 일관성 등에서 좋은 점수를 받았지만, 사실성과 정확성에서 다소 부족함이 있어 종합적인 품질 점수는 4로 평가됩니다.
+8. Semantic Appropriateness Score (1-5): 4
+   - 설명: 생성된 응답은 원본 텍스트의 의미와 맥락에 적절하게 부합하지만, 일부 정보의 불일치로 인해 완전한 적합성은 부족합니다. 따라서 점수는 4로 평가됩니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 명확하고 이해하기 쉬운 구조를 가지고 있지만, 일부 정보의 불일치로 인해 혼란을 줄 수 있습니다. 따라서 이해 가능성 점수는 4로 평가됩니다.
+{
+    "Factuality Score": 3,
+    "Consistency Score": 3,
+    "Relevance Score": 5,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 3,
+    "Multidimensional Quality Score": 4,
+    "Semantic Appropriateness Score": 4,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C364" t="n">
+        <v>0.6477327277290568</v>
+      </c>
+      <c r="D364" t="inlineStr">
+        <is>
+          <t>정시 등급 5.3이면 동의대학교에 e비즈니스학과에 최초 합격 가능성 있을까?</t>
+        </is>
+      </c>
+      <c r="E364" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대학교 e비즈니스학과의 경쟁률은 1.60이며, 충원 합격자는 36명입니다. 지원 인원이 105명으로 많은 지원자가 있습니다.
+국어 + 수학 + 탐구(2개) (가산점 포함) 표준 변환 점수 합의 평균은 298.21이며, 이는 정시 등급 5.3에 해당하는 점수가 상대적으로 낮습니다.
+영어 등급의 평균은 4.00이며, 이 역시 정시 등급 5.3에 비해 높습니다.
+수능 4개 영역 등급의 평균은 5.03이며, 이는 정시 등급 5.3과 유사합니다.
+따라서 정시 등급 5.3이면 동의대학교 e비즈니스학과에 최초 합격 가능성은 높지 않을 것으로 보입니다. 경쟁률이 낮고 충원 합격 인원도 많은 만큼, 이 점수로는 충분히 합격할 수 있는 위치에 있지 않을 것 같습니다.
+만약 더 자세한 정보를 원하시면 "https://ipsi. deu. ac. kr/main. do" 웹사이트를 참조해보시는 것이 좋을 것 같습니다.</t>
+        </is>
+      </c>
+      <c r="F364" t="inlineStr">
+        <is>
+          <t>e비즈니스학과의 최종등록자 데이터를 기준으로 보면, e비즈니스학과의 영어 등급 평균은 3.66이고, 수능 4개 영역 등급 평균은 4.53입니다. 따라서, 현재 정시 등급이 5.3이라면 e비즈니스학과에 합격하기 어려울 수 있습니다. e비즈니스학과의 평균 등급보다 높은 성적을 가지고 있어야 합격 가능성이 높아집니다. 자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="365">
+      <c r="A365" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B365" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 3
+   - 설명: 생성된 응답은 특정 학생의 합격 여부를 판단하기 어렵다고 언급하고 있지만, 원본 텍스트에서 제공된 정보에 대한 명확한 해석이 부족하다. 원본 텍스트는 예비 38번의 합격 가능성이 낮다고 명시하고 있으나, 생성된 응답은 그에 대한 직접적인 언급이 없다.
+2. Consistency Score (1-5): 3
+   - 설명: 생성된 응답은 원본 텍스트의 내용을 일부 반영하고 있으나, 예비 38번의 합격 가능성에 대한 명확한 결론을 제시하지 않아 일관성이 떨어진다. 원본 텍스트의 주장을 명확히 지지하지 않기 때문에 일관성 점수가 낮다.
+3. Relevance Score (1-5): 4
+   - 설명: 생성된 응답은 예비 합격과 관련된 정보와 조언을 제공하고 있지만, 원본 텍스트의 핵심 주제인 예비 38번의 합격 가능성에 대한 직접적인 답변이 부족하다. 그러나 전반적으로 관련된 정보를 제공하고 있어 높은 점수를 부여했다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 문법적으로 잘 구성되어 있으며, 읽기에도 무리가 없다. 다만, 일부 문장이 다소 길어 가독성이 떨어질 수 있다.
+5. Coherence Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 논리적인 흐름을 가지고 있으며, 각 문장이 서로 연결되어 있다. 그러나 원본 텍스트의 주제와의 연결이 약해 다소 일관성이 떨어질 수 있다.
+6. Accuracy Score (1-5): 3
+   - 설명: 생성된 응답은 원본 텍스트의 정보와 일치하지 않는 부분이 있으며, 예비 38번의 합격 가능성에 대한 명확한 판단을 제공하지 않는다. 따라서 정확성 점수가 낮다.
+7. Multidimensional Quality Score (1-5): 3
+   - 설명: 생성된 응답은 여러 차원에서 중간 정도의 품질을 보인다. 일부 정보는 유용하지만, 원본 텍스트의 핵심 내용을 충분히 반영하지 못하고 있다.
+8. Semantic Appropriateness Score (1-5): 4
+   - 설명: 생성된 응답은 원본 텍스트의 맥락과 관련된 의미를 전달하고 있으나, 특정 학생의 합격 여부에 대한 명확한 판단을 회피하고 있어 다소 아쉬운 점이 있다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 이해하기 쉬우나, 일부 문장이 길어질 경우 이해하는 데 어려움이 있을 수 있다. 전반적으로 명확한 표현이 사용되었다.
+{
+    "Factuality Score": 3,
+    "Consistency Score": 3,
+    "Relevance Score": 4,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 3,
+    "Multidimensional Quality Score": 3,
+    "Semantic Appropriateness Score": 4,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C365" t="n">
+        <v>0.5535777410050028</v>
+      </c>
+      <c r="D365" t="inlineStr">
+        <is>
+          <t>e비즈니스학전공 예비 38번 이정도면 예비합격 가능할까요?</t>
+        </is>
+      </c>
+      <c r="E365" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 제공된 정보만으로는 특정 학생의 합격 여부를 정확히 판단하기 어렵습니다. 전형일정과 모집인원, 전형요소 반영 비율 등을 고려해야 합니다.
+가군 수능(일반학생전형)에서는 e비즈니스학전공에 대한 모집이 이루어지지 않았으며, 나군 학생부종합(조기취업형계약학과전형)에서도 e비즈니스학전공에 대한 모집단위가 없습니다. 따라서 현재 정보로는 이정도의 성적이나 경력으로 e비즈니스학전공에 합격할 수 있는지 판단하기 어렵습니다.
+추천드리면, 입학사정관이 평가하는 전형인 나군 학생부종합(조기취업형계약학과전형)의 경우 서류평가와 면접평가를 통해 합격 여부가 결정됩니다. 따라서:
+1. **서류평가**에서 공동체역량, 학업역량, 전공적합성 등 평가영역을 잘 준비해야 합니다.
+2. **면접평가**에서도 지원동기와 학업계획, 전공적합성 등을 명확히 설명할 수 있어야 합니다.
+더 자세한 정보를 얻으시려면, https://ipsi. deu. ac. kr/main. do 웹사이트를 참조하시거나 입학관리팀에 문의하시는 것이 좋습니다.</t>
+        </is>
+      </c>
+      <c r="F365" t="inlineStr">
+        <is>
+          <t>e비즈니스학과의 최종등록자 데이터를 기준으로 보면, 충원합격(후보 순위) 31번까지 충원합격 된 것으로 나온다. 따라서, 현재 예비 38번이라면 e비즈니스학과에 예비 합격할 가능성이 낮습니다. 자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="366">
+      <c r="A366" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B366" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 3
+   - 설명: 생성된 응답은 간호학과의 평균 등급과 경쟁률에 대한 정보를 제공하지만, 수능 4개 영역의 평균 점수와 표준 편차에 대한 정보는 원본 텍스트에 포함되어 있지 않으며, 이 정보의 출처가 불분명합니다. 따라서 일부 사실이 정확하지 않거나 출처가 불확실합니다.
+2. Consistency Score (1-5): 3
+   - 설명: 생성된 응답은 원본 텍스트의 내용을 바탕으로 하고 있지만, 추가된 정보가 원본과 일치하지 않거나 모순될 수 있는 부분이 있습니다. 예를 들어, 경쟁률과 평균 점수에 대한 정보는 원본 텍스트에 명시되어 있지 않으므로 일관성이 떨어집니다.
+3. Relevance Score (1-5): 5
+   - 설명: 생성된 응답은 질문에 대한 직접적인 답변을 제공하며, 간호학과에 합격할 가능성에 대한 정보를 잘 다루고 있습니다. 원본 텍스트의 주요 주제와 관련이 깊습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 구조를 가지고 있습니다. 그러나 일부 문장에서 약간의 어색함이 느껴질 수 있습니다.
+5. Coherence Score (1-5): 4
+   - 설명: 생성된 응답은 논리적으로 잘 구성되어 있으며, 각 항목이 명확하게 구분되어 있습니다. 그러나 일부 정보가 원본 텍스트와의 연결이 약해 보일 수 있습니다.
+6. Accuracy Score (1-5): 3
+   - 설명: 생성된 응답에서 제공된 정보 중 일부는 원본 텍스트에 명시된 사실과 일치하지 않거나 출처가 불분명합니다. 특히 평균 점수와 표준 편차에 대한 정보는 확인할 수 없습니다.
+7. Multidimensional Quality Score (1-5): 3
+   - 설명: 생성된 응답은 일부 차원에서 강점을 보이지만, 사실성과 일관성에서 약점을 보입니다. 전반적으로 평균적인 품질을 가지고 있습니다.
+8. Semantic Appropriateness Score (1-5): 4
+   - 설명: 생성된 응답은 원본 텍스트의 의미와 맥락에 잘 부합하며, 적절한 정보를 제공합니다. 그러나 일부 추가 정보는 맥락에서 벗어날 수 있습니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 명확하고 이해하기 쉬운 구조를 가지고 있습니다. 그러나 일부 정보가 추가되어 혼란을 줄 수 있습니다.
+{
+    "Factuality Score": 3,
+    "Consistency Score": 3,
+    "Relevance Score": 5,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 3,
+    "Multidimensional Quality Score": 3,
+    "Semantic Appropriateness Score": 4,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C366" t="n">
+        <v>0.6152922080172352</v>
+      </c>
+      <c r="D366" t="inlineStr">
+        <is>
+          <t>정시 성적 3.44인데 동의대학교 간호학과에 합격 가능성 없을까요?</t>
+        </is>
+      </c>
+      <c r="E366" t="inlineStr">
+        <is>
+          <t>3.44이라는 점수를 가지고 동의대학교 간호학과에 합격할 확률은 매우 낮습니다. 이유는 다음과 같습니다:
+1. **경쟁률**: 동의대학교 간호학과의 경쟁률이 6.59입니다. 이는 지원 인원이 모집 인원보다 훨씬 많은 것을 의미합니다.
+2. **평균 점수**: 동의대학교 간호학과의 수능 4개 영역 (가산점 포함) 표준 변환 점수 합의 평균은 481.70입니다. 이는 매우 높은 점수를 요구하는 것을 의미합니다.
+3. **표준 편차**: 동의대학교 간호학과의 수능 4개 영역 (가산점 포함) 표준 변환 점수 합의 표준 편차는 6.87입니다. 이는 성적 분포가 넓다는 것을 의미하며, 평균보다 낮은 점수를 가진 지원자들도 존재합니다.
+4. **충원 합격**: 동의대학교 간호학과의 충원 합격 (후보순위)은 37입니다. 이는 매우 높은 수치로, 많은 지원자가 합격을 받았음을 의미합니다.
+따라서, 3.44이라는 점수를 가지고 동의대학교 간호학과에 합격할 확률은 매우 낮습니다. 다른 대학이나 전형을 고려해보는 것이 좋을 것 같습니다. 더 자세한 정보나 도움이 필요하시다면 "https://ipsi. deu. ac. kr/main. do"를 참조해보세요.</t>
+        </is>
+      </c>
+      <c r="F366" t="inlineStr">
+        <is>
+          <t>간호학과의 최종등록자 데이터를 기준으로 보면, 간호학과의 영어 등급 평균은 2.34이고, 수능 4개 영역 등급 평균은 3.37입니다. 따라서, 현재 정시 등급이 3.44이라면 간호학과에 합격하기 어려울 수 있습니다. 간호학과의 평균 등급보다 높은 성적을 가지고 있어야 합격 가능성이 높아집니다. 자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="367">
+      <c r="A367" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B367" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 2
+   - 설명: 생성된 응답은 동의대학교 간호학과의 평균 영어 등급과 수능 4개 영역 등급 평균에 대한 정보를 잘못 해석하고 있습니다. 원문에서는 2.52라는 성적이 평균 등급보다 높다고 언급했지만, 생성된 응답에서는 지원에 어려움이 있을 수 있다고 하여 사실과 다릅니다.
+2. Consistency Score (1-5): 2
+   - 설명: 생성된 응답은 원문과 일치하지 않는 정보를 제공합니다. 원문은 2.52라는 성적이 합격 가능성이 높다고 명시했으나, 생성된 응답은 반대로 어려움이 있을 수 있다고 주장하여 일관성이 부족합니다.
+3. Relevance Score (1-5): 4
+   - 설명: 생성된 응답은 동의대학교 간호학과에 지원하는 데 필요한 정보와 조언을 제공하고 있지만, 원문에서 제시한 주요 사실과는 다소 동떨어진 내용이 포함되어 있습니다. 그러나 여전히 관련된 주제를 다루고 있습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 구조를 가지고 있습니다. 다만, 일부 문장이 다소 복잡하게 느껴질 수 있습니다.
+5. Coherence Score (1-5): 4
+   - 설명: 생성된 응답은 논리적으로 잘 구성되어 있으며, 각 단계가 명확하게 연결되어 있습니다. 그러나 원문과의 연결성이 떨어지는 부분이 있어 완전한 일관성은 부족합니다.
+6. Accuracy Score (1-5): 2
+   - 설명: 생성된 응답은 원문에서 제공한 사실을 잘못 해석하고 있으며, 평균 등급에 대한 정보가 부정확합니다. 이는 응답의 정확성을 크게 저하시킵니다.
+7. Multidimensional Quality Score (1-5): 3
+   - 설명: 생성된 응답은 일부 차원에서 양호하지만, 사실성과 일관성에서 큰 문제를 보이고 있어 전반적인 품질이 떨어집니다.
+8. Semantic Appropriateness Score (1-5): 3
+   - 설명: 생성된 응답은 원문과 관련된 주제를 다루고 있지만, 의미적으로 부적절한 해석이 포함되어 있어 적절성 점수가 낮습니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 이해하기 쉬우나, 일부 내용이 원문과의 연결이 부족하여 혼란을 줄 수 있습니다.
+{
+    "Factuality Score": 2,
+    "Consistency Score": 2,
+    "Relevance Score": 4,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 2,
+    "Multidimensional Quality Score": 3,
+    "Semantic Appropriateness Score": 3,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C367" t="n">
+        <v>0.5905200539296009</v>
+      </c>
+      <c r="D367" t="inlineStr">
+        <is>
+          <t>정시 성적이 2.52인데 동의대학교 간호학과 최종 합격 가능할까요?</t>
+        </is>
+      </c>
+      <c r="E367" t="inlineStr">
+        <is>
+          <t>2.52라는 성적은 동의대학교 간호학과에 지원하는 데 어려움이 있을 수 있습니다. 동의대학교 간호학과의 경쟁률과 충원 합격 점수를 고려하면, 평균적인 경우 3.0 이상의 영어 등급과 420점 이상의 수능 표준 변환 점수가 필요합니다.
+하지만 이는 일반적인 추정이며, 개인의 특성과 서류평가 결과에 따라 달라질 수 있습니다. 특히 서류평가에서 우수한 성적을 받거나 면접에서 좋은 평가를 받으면 합격 가능성은 높아집니다.
+따라서 다음과 같은 절차를 따르는 것이 좋습니다:
+1. **서류 준비**: 정확하고 충실한 서류를 제출합니다.
+2. **면접 준비**: 면접에서 자신의 열정과 적합성을 잘 표현할 수 있도록 준비합니다.
+3. **영어 성적 향상**: 가능하다면 영어 등급을 높이는 것이 도움이 될 수 있습니다.
+또한, 동의대학교 간호학과의 정원 외 모집에 지원하는 것도 고려해볼 만합니다. 이 경우 서류평가와 면접 평가가 더 중요하게 작용할 수 있습니다.
+마지막으로, 최종 결정을 내리기 전에 "https://ipsi. deu. ac. kr/main. do"를 방문하여 동의대학교 간호학과의 정확한 모집요강과 지원 절차를 확인하는 것이 좋습니다.</t>
+        </is>
+      </c>
+      <c r="F367" t="inlineStr">
+        <is>
+          <t>간호학과의 최종등록자 데이터를 보면, 평균 영어 등급은 2.34이고,  수능 4개 영역 등급 평균은 3.37입니다. 
+따라서, 현재 정시 등급이 2.52이라면 간호학과의 평균 등급보다 높은 성적을 가지고 있기 때문에 합격 가능성이 높습니다. 
+자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="368">
+      <c r="A368" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B368" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 3
+   - 설명: 생성된 응답은 간호학과의 전형에 대한 정보와 학생부종합 평가의 중요성을 언급하고 있지만, 원본 텍스트에서 제시된 정시 성적과 관련된 구체적인 데이터(영어 등급 평균과 수능 4개 영역 등급 평균)에 대한 언급이 부족합니다. 따라서 일부 사실이 누락되어 있어 점수를 3으로 평가합니다.
+2. Consistency Score (1-5): 3
+   - 설명: 생성된 응답은 간호학과에 지원하기 위한 전형에 대한 정보를 제공하지만, 원본 텍스트의 내용과는 다소 다른 방향으로 전개됩니다. 원본 텍스트는 정시 성적이 낮을 경우 합격 가능성이 낮다고 명시하고 있으나, 생성된 응답은 학생부종합 평가의 중요성을 강조하고 있습니다. 이로 인해 일관성이 떨어져 점수를 3으로 평가합니다.
+3. Relevance Score (1-5): 4
+   - 설명: 생성된 응답은 간호학과에 지원하기 위한 정보와 관련된 내용을 다루고 있어 전반적으로 관련성이 높습니다. 그러나 원본 텍스트의 핵심 내용인 정시 성적에 대한 직접적인 언급이 부족하여 점수를 4로 평가합니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 문법적으로 올바르고 읽기 쉬운 구조를 가지고 있습니다. 다만, 일부 문장이 다소 길어 가독성이 떨어질 수 있어 점수를 4로 평가합니다.
+5. Coherence Score (1-5): 4
+   - 설명: 생성된 응답은 논리적으로 잘 구성되어 있으며, 각 문장이 자연스럽게 연결되어 있습니다. 그러나 원본 텍스트와의 연결성이 약간 떨어져 있어 점수를 4로 평가합니다.
+6. Accuracy Score (1-5): 3
+   - 설명: 생성된 응답은 간호학과에 대한 정보와 학생부종합 평가의 중요성을 언급하지만, 원본 텍스트의 구체적인 수치와 사실을 반영하지 않아 정확성이 떨어집니다. 따라서 점수를 3으로 평가합니다.
+7. Multidimensional Quality Score (1-5): 3
+   - 설명: 생성된 응답은 여러 차원에서 평균적인 성과를 보이지만, 사실성과 일관성에서 부족함이 있어 전반적인 품질이 떨어집니다. 따라서 점수를 3으로 평가합니다.
+8. Semantic Appropriateness Score (1-5): 4
+   - 설명: 생성된 응답은 원본 텍스트의 맥락과 관련된 의미를 잘 전달하고 있으나, 일부 내용이 원본 텍스트와 다르게 해석될 수 있어 점수를 4로 평가합니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 이해하기 쉬운 내용으로 구성되어 있으나, 일부 문장이 길어질 경우 이해하기 어려울 수 있어 점수를 4로 평가합니다.
+{
+    "Factuality Score": 3,
+    "Consistency Score": 3,
+    "Relevance Score": 4,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 3,
+    "Multidimensional Quality Score": 3,
+    "Semantic Appropriateness Score": 4,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C368" t="n">
+        <v>0.5927806475011151</v>
+      </c>
+      <c r="D368" t="inlineStr">
+        <is>
+          <t>정시 성적이 3.7인데 정시 전형으로 간호학과에 합격할 수 있을까요?</t>
+        </is>
+      </c>
+      <c r="E368" t="inlineStr">
+        <is>
+          <t>2024학년도의 정시 모집군 변경사항을 보면, 간호학과는 특정 전형에 포함되어 있지 않습니다. 따라서 간호학과에 지원하려면 일반전형이나 특별전형 등을 통해 지원해야 합니다.
+학생부종합 평가영역에서 학업역량이 중요한 요소 중 하나로 반영되므로, 정시 성적이 3.7이라면 학생부의 교과성적을 잘 보여줘야 합니다. 특히 간호학과에서는 인문사회과학적 기초지식과 실기능력이 요구되는 만큼, 관련 과목의 성적과 활동 경력을 잘 준비해두시는 것이 중요합니다.
+또한, 학생부종합 평가에서 공동체역량이나 전공적합성 등도 중요한 요소로 작용하므로, 이러한 부분을 강화하는 것도 필요합니다. 
+입학사정관이 지원자의 전체적인 성장을 종합적으로 판단하기 때문에, 지원자 개인의 특성을 잘 보여줄 수 있는 자료들을 준비하시기 바랍니다.
+더 자세한 정보를 얻으시려면 https://ipsi. deu.ac.kr/main.do 웹사이트를 참조하거나 입학처에 문의하시는 것이 좋습니다.</t>
+        </is>
+      </c>
+      <c r="F368" t="inlineStr">
+        <is>
+          <t>간호학과의 최종등록자 데이터를 기준으로 보면, 간호학과의 영어 등급 평균은 2.34이고, 수능 4개 영역 등급 평균은 3.37입니다. 따라서, 현재 정시 등급이 3.7이라면 간호학과의 평균 등급보다 낮은 성적을 가지고 있기 때문에 합격 가능성이 낮습니다. 자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="369">
+      <c r="A369" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B369" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 3
+   - 설명: 생성된 응답은 간호학과의 정시 모집요강에 대한 정보를 제공하고 있지만, 원본 텍스트에서 언급된 평균 등급과 비교하여 합격 가능성에 대한 명확한 결론을 제시하지 않고 있습니다. 따라서 일부 사실이 누락되었거나 왜곡된 것으로 평가됩니다.
+2. Consistency Score (1-5): 3
+   - 설명: 생성된 응답은 원본 텍스트의 정보와 일부 일치하지만, 정시 성적이 2.58인 경우 국어와 수학 점수가 충족하지 못한다고 언급하면서도 영어 점수만 충족하면 가능하다고 하여 모순된 정보를 제공합니다. 이로 인해 일관성이 떨어집니다.
+3. Relevance Score (1-5): 4
+   - 설명: 생성된 응답은 간호학과의 정시 모집요강에 대한 정보를 제공하며, 질문의 주제와 관련이 있습니다. 그러나 원본 텍스트의 핵심 내용인 평균 등급과 합격 가능성에 대한 직접적인 언급이 부족하여 약간의 관련성 저하가 있습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 구조를 가지고 있습니다. 그러나 일부 문장에서 약간의 어색함이 느껴질 수 있습니다.
+5. Coherence Score (1-5): 4
+   - 설명: 생성된 응답은 논리적으로 잘 구성되어 있으며, 각 항목이 명확하게 구분되어 있습니다. 그러나 결론 부분에서의 모순으로 인해 완전한 일관성을 유지하지 못합니다.
+6. Accuracy Score (1-5): 3
+   - 설명: 생성된 응답은 일부 정확한 정보를 포함하고 있지만, 원본 텍스트의 평균 등급과 합격 가능성에 대한 명확한 해석이 부족하여 정확성이 떨어집니다.
+7. Multidimensional Quality Score (1-5): 3
+   - 설명: 생성된 응답은 여러 차원에서 평균적인 성과를 보이지만, 사실성과 일관성에서의 문제로 인해 전반적인 품질이 저하됩니다.
+8. Semantic Appropriateness Score (1-5): 4
+   - 설명: 생성된 응답은 주제와 관련된 의미를 잘 전달하고 있으며, 전반적으로 적절한 맥락을 유지하고 있습니다. 그러나 일부 정보의 왜곡으로 인해 완전한 적절성은 부족합니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 이해하기 쉽고 명확하게 작성되어 있습니다. 그러나 일부 문장에서의 모순으로 인해 약간의 혼란을 초래할 수 있습니다.
+{
+    "Factuality Score": 3,
+    "Consistency Score": 3,
+    "Relevance Score": 4,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 3,
+    "Multidimensional Quality Score": 3,
+    "Semantic Appropriateness Score": 4,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C369" t="n">
+        <v>0.6204425101425043</v>
+      </c>
+      <c r="D369" t="inlineStr">
+        <is>
+          <t>정시 성적이 2.58인데 동의대학교 간호학과에 정시 전형으로 합격할 수 있을까요?</t>
+        </is>
+      </c>
+      <c r="E369" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대학교 간호학과의 정시 모집요강을 확인해보겠습니다.
+1. **전형명**: 정시모집(일반학생전형)
+2. **모집단위**: 간호학과
+**정시 모집요강**:
+- **성적 산출방법**: 국어 표준점수 + 수학 표준점수 + 영어 등급점수 + 탐구 표준점수
+- **영어 등급 점수**: 4등급이 123점, 5등급이 107점 등으로 변환됩니다.
+- **정시 성적 기준**:
+  - 국어: 100점 이상
+  - 수학: 90점 이상
+  - 영어: 4등급 이상 (123점 이상)
+  - 탐구: 50점 이상
+이에 따라, 정시 성적이 2.58이라면 국어와 수학 점수는 충족하지 못하였습니다. 하지만 간호학과의 경우 영어 등급 점수가 4등급 이상이므로, 영어 점수만 충족하면 가능합니다.
+**결론**: 정시 성적이 2.58이라면 국어와 수학 점수가 충족하지 못하였으므로, 간호학과에 정시 전형으로 합격하기는 어렵습니다. 하지만 영어 등급이 4등급 이상이라면 가능성이 있습니다.
+더 자세한 정보를 얻기 위해서는 동의대학교 입학처 홈페이지나 전화로 문의하시는 것이 좋겠습니다. https://ipsi. deu.ac.kr/main.do 링크에서 확인해보세요.</t>
+        </is>
+      </c>
+      <c r="F369" t="inlineStr">
+        <is>
+          <t>간호학과의 최종등록자 데이터를 기준으로 보면, 간호학과의 영어 등급 평균은 2.34이고, 수능 4개 영역 등급 평균은 3.37입니다. 따라서, 현재 정시 등급이 2.58이라면 간호학과의 평균 등급보다 높은 성적을 가지고 있기 때문에 합격 가능성이 높습니다. 자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="370">
+      <c r="A370" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B370" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 2
+   - 설명: 생성된 응답은 게임공학과에 대한 모집 정보가 없다고 언급하고 있지만, 원본 텍스트에서는 예비 7번의 합격 가능성이 낮다고 명확히 언급하고 있습니다. 따라서, 응답은 원본의 사실과 일치하지 않으며, 잘못된 정보를 포함하고 있습니다.
+2. Consistency Score (1-5): 2
+   - 설명: 생성된 응답은 원본 텍스트의 내용과 일치하지 않으며, 예비 7번의 합격 가능성에 대한 명확한 정보를 제공하지 않고 있습니다. 원본 텍스트는 예비 7번의 합격 가능성이 낮다고 명시하고 있으나, 생성된 응답은 이를 부정하는 내용으로 일관성이 부족합니다.
+3. Relevance Score (1-5): 3
+   - 설명: 생성된 응답은 게임공학과에 대한 정보와 관련된 질문에 대한 답변을 시도하고 있지만, 원본 텍스트의 핵심 내용인 예비 7번의 합격 가능성에 대한 직접적인 언급이 부족합니다. 따라서, 관련성 점수가 낮습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 구조를 가지고 있습니다. 그러나 일부 문장은 다소 복잡하게 느껴질 수 있습니다.
+5. Coherence Score (1-5): 3
+   - 설명: 생성된 응답은 여러 가지 정보를 포함하고 있지만, 원본 텍스트의 핵심 메시지와의 연결이 부족하여 일관된 흐름이 떨어집니다. 예비 7번의 합격 가능성에 대한 명확한 결론이 부족합니다.
+6. Accuracy Score (1-5): 2
+   - 설명: 생성된 응답은 원본 텍스트의 사실을 왜곡하고 있으며, 예비 7번의 합격 가능성에 대한 잘못된 해석을 포함하고 있습니다. 원본 텍스트의 정보와 일치하지 않습니다.
+7. Multidimensional Quality Score (1-5): 2
+   - 설명: 생성된 응답은 여러 차원에서 낮은 점수를 받았으며, 사실성, 일관성, 정확성에서 큰 문제를 보이고 있습니다. 전반적으로 원본 텍스트와의 관계가 약합니다.
+8. Semantic Appropriateness Score (1-5): 3
+   - 설명: 생성된 응답은 의미적으로 적절한 부분도 있지만, 원본 텍스트의 맥락과는 다소 동떨어진 내용이 포함되어 있습니다. 예비 7번에 대한 정보가 부족하여 의미 전달이 불완전합니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 이해하기 쉬운 구조를 가지고 있지만, 원본 텍스트의 핵심 메시지와의 연결이 부족하여 일부 독자에게 혼란을 줄 수 있습니다.
+{
+    "Factuality Score": 2,
+    "Consistency Score": 2,
+    "Relevance Score": 3,
+    "Fluency Score": 4,
+    "Coherence Score": 3,
+    "Accuracy Score": 2,
+    "Multidimensional Quality Score": 2,
+    "Semantic Appropriateness Score": 3,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C370" t="n">
+        <v>0.6330514433628209</v>
+      </c>
+      <c r="D370" t="inlineStr">
+        <is>
+          <t>게임공학과 예비번호 7번인데요 붙을까요?</t>
+        </is>
+      </c>
+      <c r="E370" t="inlineStr">
+        <is>
+          <t>현재 제공된 정보로는 게임공학과에 대한 모집 정보가 없습니다. 게임공학과의 경우, 해당 학교에서 정원 외 모집을 하는 조기취업형 계약학과 전형에 포함되어 있는지 확인이 필요합니다.
+조기취업형 계약학과 전형의 경우, 정원 외 모집단위 및 모집인원 정보를 참조할 수 있습니다. 제공된 정보 중에서 게임공학과와 관련된 정보는 없습니다.
+따라서, 현재로서는 7번 예비번호가 게임공학과에 지원했을 때 붙을 수 있는지 확신하기 어렵습니다. 
+추천되는 방법은:
+1. 해당 학교의 공식 웹사이트를 확인하여 게임공학과에 대한 모집 정보를 찾아보세요.
+2. 입학처로 직접 문의해 보세요.
+이런 방식으로 최종적인 지원 가능성을 파악할 수 있을 것입니다.</t>
+        </is>
+      </c>
+      <c r="F370" t="inlineStr">
+        <is>
+          <t>게임공학과의 최종등록자 데이터를 기준으로 보면, 충원합격(후보 순위) 3번까지 충원합격 된 것으로 나온다. 따라서, 현재 예비 7번이라면 게임공학과에 예비 합격할 가능성이 낮다. 자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="371">
+      <c r="A371" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B371" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 3
+   - 설명: 생성된 응답은 수능 점수 4.16이 상대적으로 낮다고 언급하고 있으며, 경쟁률과 충원 합격자 수에 대한 정보를 제공하고 있습니다. 그러나 원본 텍스트에서 언급된 "합격 가능성이 높다"는 점과는 상충되는 내용이 포함되어 있어 사실성 점수가 낮아졌습니다.
+2. Consistency Score (1-5): 3
+   - 설명: 생성된 응답은 원본 텍스트의 정보와 일부 일치하지만, 수능 점수에 대한 해석이 다르기 때문에 일관성이 떨어집니다. 원본에서는 합격 가능성이 높다고 했으나, 생성된 응답에서는 가능성이 낮다고 언급하고 있습니다.
+3. Relevance Score (1-5): 5
+   - 설명: 생성된 응답은 원본 텍스트의 주제와 관련된 정보를 잘 다루고 있으며, 수능 점수와 추가 합격 가능성에 대한 논의가 포함되어 있어 매우 관련성이 높습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 구조를 가지고 있습니다. 다만, 일부 문장에서 약간의 어색함이 느껴질 수 있습니다.
+5. Coherence Score (1-5): 4
+   - 설명: 생성된 응답은 논리적으로 잘 구성되어 있으며, 각 문장이 자연스럽게 이어집니다. 그러나 일부 정보가 중복되거나 불필요하게 길어질 수 있습니다.
+6. Accuracy Score (1-5): 3
+   - 설명: 생성된 응답은 수능 점수와 관련된 정보는 정확하지만, 합격 가능성에 대한 해석이 원본 텍스트와 상충하여 정확성 점수가 낮아졌습니다.
+7. Multidimensional Quality Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 높은 품질을 유지하고 있으나, 사실성과 일관성에서 약간의 문제가 있어 점수가 다소 낮아졌습니다.
+8. Semantic Appropriateness Score (1-5): 4
+   - 설명: 생성된 응답은 원본 텍스트의 의미와 맥락에 잘 맞춰져 있으며, 적절한 정보를 제공합니다. 다만, 일부 해석에서 차이가 있어 점수가 낮아졌습니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 이해하기 쉬우나, 일부 문장이 길어져서 약간의 혼란을 줄 수 있습니다.
+{
+    "Factuality Score": 3,
+    "Consistency Score": 3,
+    "Relevance Score": 5,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 3,
+    "Multidimensional Quality Score": 4,
+    "Semantic Appropriateness Score": 4,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C371" t="n">
+        <v>0.6883952898104777</v>
+      </c>
+      <c r="D371" t="inlineStr">
+        <is>
+          <t>수능 성적이 4.16인데 정시 전형으로 동의대학교 게임공학과에 지원하면 추가 합격이 가능할까요?</t>
+        </is>
+      </c>
+      <c r="E371" t="inlineStr">
+        <is>
+          <t>4.16이라는 수능 점수는 게임공학과의 경쟁률을 고려할 때 상대적으로 낮은 점수입니다. 게임공학과의 경우 모집인원이 3명이고 지원 인원이 16명으로, 경쟁률이 5.33이며 충원 합격자는 3명입니다.
+수능 4개 영역 등급의 평균은 4.78이며, 표준 편차는 0.20입니다. 이 점수대에서는 대부분의 지원자가 충원 합격을 받았습니다. 따라서 수능 성적이 4.16인 경우 추가 합격 가능성은 낮다고 볼 수 있습니다.
+하지만 정시 전형으로 동의대학교 게임공학과에 지원하는 경우에는 추가 합격이 가능할 수도 있습니다. 이는 각 모집단위별로 충원된 인원을 기준으로 하여 남아있는 인원이 있을 경우에 해당합니다. 따라서 최종적으로 추가 합격 가능성은 입시 결과 발표를 통해 확인해야 합니다.
+추가 정보를 얻기 위해서는 동의대학교 입학사정관이나 관련 웹사이트(https://ipsi. deu.ac.kr/main.do)를 참조하여 자세한 내용을 확인해보시는 것이 좋습니다.</t>
+        </is>
+      </c>
+      <c r="F371" t="inlineStr">
+        <is>
+          <t>게임공학과의 최종등록자 데이터를 기준으로 보면, 게임공학과의 영어 등급 평균은 3.25이고, 수능 4개 영역 등급 평균은 4.78입니다. 따라서, 현재 정시 등급이 4.16이라면 게임공학과의 평균 등급보다 높은 성적을 가지고 있어 합격 가능성이 높습니다. 단, 추가 합격 몇 번을 받을지는 예측하기 어렵습니다. 자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="372">
+      <c r="A372" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B372" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 4
+   - 설명: 생성된 응답은 경영정보학과의 평균 등급과 관련된 정보를 제공하고 있으며, 3.75의 성적이 평균보다 높다는 점을 언급하고 있습니다. 그러나 최초 등록자로 지원 가능성에 대한 명확한 결론을 내리지 않고 조건을 확인하라고 하여 다소 모호한 부분이 있습니다.
+2. Consistency Score (1-5): 3
+   - 설명: 생성된 응답은 원본 텍스트의 정보와 일치하는 부분이 있지만, 최초 등록자로 지원 가능성에 대한 결론을 내리지 않고 조건을 확인하라고 하여 일관성이 떨어지는 부분이 있습니다.
+3. Relevance Score (1-5): 5
+   - 설명: 생성된 응답은 질문의 주제와 관련이 깊으며, 경영정보학과의 정시 모집군과 성적에 대한 정보를 적절히 다루고 있습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 문법적으로 올바르며 읽기 쉬운 구조를 가지고 있습니다. 다만, 약간의 어색한 표현이 있을 수 있습니다.
+5. Coherence Score (1-5): 4
+   - 설명: 생성된 응답은 논리적으로 잘 구성되어 있으며, 각 문장이 자연스럽게 연결되어 있습니다. 그러나 최초 등록자 지원 가능성에 대한 결론이 부족하여 완전한 일관성을 제공하지는 않습니다.
+6. Accuracy Score (1-5): 4
+   - 설명: 생성된 응답은 원본 텍스트의 사실을 잘 반영하고 있으며, 성적 기준에 대한 정보도 정확하게 전달하고 있습니다. 그러나 최초 등록자 지원 가능성에 대한 명확한 기준이 부족합니다.
+7. Multidimensional Quality Score (1-5): 4
+   - 설명: 생성된 응답은 여러 품질 차원에서 잘 수행되고 있으며, 전반적으로 높은 점수를 받을 수 있습니다. 그러나 일부 일관성과 명확성에서 약간의 부족함이 있습니다.
+8. Semantic Appropriateness Score (1-5): 4
+   - 설명: 생성된 응답은 원본 텍스트의 의미와 맥락에 잘 부합하며, 적절한 정보를 제공합니다. 다만, 최초 등록자 지원 가능성에 대한 명확한 언급이 부족합니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 이해하기 쉬우며, 정보가 명확하게 전달되고 있습니다. 그러나 일부 문장에서 약간의 혼란을 줄 수 있는 표현이 있을 수 있습니다.
+{
+    "Factuality Score": 4,
+    "Consistency Score": 3,
+    "Relevance Score": 5,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 4,
+    "Multidimensional Quality Score": 4,
+    "Semantic Appropriateness Score": 4,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C372" t="n">
+        <v>0.6951678313130814</v>
+      </c>
+      <c r="D372" t="inlineStr">
+        <is>
+          <t>경영정보학과 정시 성적 3.75 인데 최초등록자로 가능할까요?</t>
+        </is>
+      </c>
+      <c r="E372" t="inlineStr">
+        <is>
+          <t>2024학년도에 경영정보학과의 정시 모집군에서 성적 3.75을 가진 학생이 최초 등록자로 지원 가능한지 확인하기 위해서는 해당 학과와 전형의 세부 조건을 살펴봐야 합니다.
+현재 제공된 정보만으로는 경영정보학과 정시 모집군에서 성적 3.75을 가진 최초 등록자의 지원 가능 여부를 단정 짓기 어렵습니다. 학교 홈페이지나 입학처에 직접 문의하여 해당 전형의 세부 조건, 특히 최초 등록자로 지원 가능한 성적 기준 등을 확인해 보시는 것이 좋겠습니다.
+입학 관련 자세한 정보는 https://ipsi.deu.ac.kr/main.do를 방문하시거나 동의대학교 입학처에 문의하시는 것을 추천드립니다.</t>
+        </is>
+      </c>
+      <c r="F372" t="inlineStr">
+        <is>
+          <t>경영정보학과의 최초등록자 데이터를 기준으로 보면, 경영정보학과의 영어 등급 평균은 2.88이고, 수능 4개 영역 등급 평균은 3.88입니다.
+따라서, 현재 정시 등급이 3.75이라면 경영정보학과의 평균 등급보다 높은 성적을 가지고 있어 합격 가능성이 높습니다. 즉, 최초합격 가능성은 높아보입니다. 
+자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="373">
+      <c r="A373" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B373" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 3
+   - 설명: 생성된 응답은 경영정보학과의 정시모집군과 성적 산출 방법에 대한 정보를 제공하지만, 원본 텍스트에서 언급된 평균 등급(영어 2.88, 수능 3.88)과 현재 정시 등급(4.2)과의 관계를 명확히 반영하지 못하고 있습니다. 따라서 사실성 점수는 3으로 평가합니다.
+2. Consistency Score (1-5): 3
+   - 설명: 생성된 응답은 원본 텍스트의 정보와 일부 일치하지만, 정시모집군과 성적 산출 방법에 대한 추가 정보를 제공하면서 원본의 주장을 완전히 일관되게 유지하지 못합니다. 이로 인해 일관성 점수는 3으로 평가합니다.
+3. Relevance Score (1-5): 4
+   - 설명: 생성된 응답은 경영정보학과에 지원하기 위한 정보와 관련된 내용을 다루고 있지만, 원본 텍스트의 핵심 내용인 합격 가능성에 대한 직접적인 언급이 부족합니다. 따라서 관련성 점수는 4로 평가합니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 구조를 가지고 있습니다. 그러나 일부 문장이 다소 복잡하게 느껴질 수 있어 유창성 점수는 4로 평가합니다.
+5. Coherence Score (1-5): 4
+   - 설명: 생성된 응답은 논리적으로 잘 구성되어 있으며, 정보가 명확하게 전달됩니다. 그러나 원본 텍스트와의 연결이 약간 부족하여 일관성 점수는 4로 평가합니다.
+6. Accuracy Score (1-5): 3
+   - 설명: 생성된 응답은 경영정보학과의 지원 조건에 대한 정보를 제공하지만, 원본 텍스트의 구체적인 수치와 비교할 때 정확성이 떨어집니다. 따라서 정확성 점수는 3으로 평가합니다.
+7. Multidimensional Quality Score (1-5): 3
+   - 설명: 생성된 응답은 여러 차원에서 평균적인 성과를 보이지만, 원본 텍스트의 핵심 정보를 충분히 반영하지 못하고 있어 다차원 품질 점수는 3으로 평가합니다.
+8. Semantic Appropriateness Score (1-5): 4
+   - 설명: 생성된 응답은 원본 텍스트의 의미와 맥락에 적절하게 부합하지만, 일부 정보가 누락되어 있어 의미적 적절성 점수는 4로 평가합니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 이해하기 쉽고 명확하게 작성되었지만, 일부 문장이 복잡할 수 있어 이해 가능성 점수는 4로 평가합니다.
+{
+    "Factuality Score": 3,
+    "Consistency Score": 3,
+    "Relevance Score": 4,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 3,
+    "Multidimensional Quality Score": 3,
+    "Semantic Appropriateness Score": 4,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C373" t="n">
+        <v>0.6377482177651671</v>
+      </c>
+      <c r="D373" t="inlineStr">
+        <is>
+          <t>경영정보학과 정시 성적이 4.2입니다. 최초등록자로 가능할까요?</t>
+        </is>
+      </c>
+      <c r="E373" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대학교에서 경영정보학과에 지원하려면, 정시모집군과 전형요소 반영비율을 확인해야 합니다.
+현재 제공된 정보만으로는 경영정보학과의 정시모집군이 명확하지 않습니다. 일반적으로 경영정보학과는 가군(일반학생전형)에 해당하며, 이 경우 성적 산출방법은 다음과 같습니다:
+- 국어 표준점수
+- 수학 표준점수
+- 영어 등급점수
+- 탐구 표준점수
+성적이 4.2라면, 이는 학생부 교과성적으로 반영됩니다. 하지만 정확한 가능 여부를 판단하기 위해서는:
+1. 경영정보학과의 정시모집군이 무엇인지 확인해야 합니다.
+2. 해당 모집군에서 성적 산출방법이 어떻게 되는지 파악해야 합니다.
+현재 정보로는 경영정보학과에 지원 가능 여부를 단정 짓기 어렵습니다. 더 자세한 정보를 얻으시려면 동의대학교 입학처 웹사이트나 전화로 문의하시는 것이 좋겠습니다. 필요하다면 "https://ipsi. deu.ac.kr/main.do" 링크를 참조하여 확인해 보세요.</t>
+        </is>
+      </c>
+      <c r="F373" t="inlineStr">
+        <is>
+          <t>경영정보학과의 최초등록자 데이터를 기준으로 보면, 경영정보학과의 영어 등급 평균은 2.88이고, 수능 4개 영역 등급 평균은 3.88입니다. 
+따라서, 현재 정시 등급이 4.2이라면 경영정보학과의 평균 등급보다 낮은 성적을 가지고 있어 합격 가능성이 낮습니다. 즉, 최초합격 가능성은 적습니다. 
+자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="374">
+      <c r="A374" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B374" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 3
+   - 설명: 생성된 응답은 경영정보학과의 합격 가능성에 대한 여러 요소를 언급하고 있지만, 원본 텍스트에서 제시된 평균 성적과 비교했을 때 4.2의 성적이 낮다는 점을 명확히 반영하지 않고 있습니다. 따라서 일부 사실이 누락되거나 왜곡된 부분이 있습니다.
+2. Consistency Score (1-5): 3
+   - 설명: 생성된 응답은 원본 텍스트의 정보와 일부 일치하지만, 4.2의 성적이 평균보다 낮다는 점을 간과하고 있습니다. 이로 인해 일관성이 떨어지는 부분이 있습니다.
+3. Relevance Score (1-5): 4
+   - 설명: 생성된 응답은 경영정보학과의 합격 가능성에 대한 질문에 관련된 정보를 제공하고 있지만, 원본 텍스트의 핵심 내용인 평균 성적과의 비교가 부족합니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 구조를 가지고 있습니다. 그러나 일부 문장이 다소 길어 가독성이 떨어질 수 있습니다.
+5. Coherence Score (1-5): 4
+   - 설명: 생성된 응답은 논리적으로 잘 구성되어 있으며, 각 요소가 명확하게 연결되어 있습니다. 그러나 원본 텍스트와의 연결이 약해지는 부분이 있습니다.
+6. Accuracy Score (1-5): 3
+   - 설명: 생성된 응답은 경영정보학과의 합격 가능성에 대한 여러 요소를 언급하지만, 원본 텍스트의 평균 성적과의 비교가 부족하여 정확성이 떨어집니다.
+7. Multidimensional Quality Score (1-5): 3
+   - 설명: 생성된 응답은 여러 차원에서 적절한 정보를 제공하지만, 원본 텍스트와의 일관성 및 정확성이 부족하여 전반적인 품질이 떨어집니다.
+8. Semantic Appropriateness Score (1-5): 4
+   - 설명: 생성된 응답은 질문의 맥락에 적절하게 반응하고 있으며, 의미적으로 적절한 정보를 제공합니다. 그러나 원본 텍스트의 핵심 내용을 충분히 반영하지 못한 점이 아쉽습니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 이해하기 쉬운 구조를 가지고 있으며, 명확한 설명을 제공합니다. 그러나 일부 문장이 길어 다소 복잡하게 느껴질 수 있습니다.
+{
+    "Factuality Score": 3,
+    "Consistency Score": 3,
+    "Relevance Score": 4,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 3,
+    "Multidimensional Quality Score": 3,
+    "Semantic Appropriateness Score": 4,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C374" t="n">
+        <v>0.5873152630001116</v>
+      </c>
+      <c r="D374" t="inlineStr">
+        <is>
+          <t>정시 성적이 4.2인데 경영정보학과 최초 합격이 가능할까요?</t>
+        </is>
+      </c>
+      <c r="E374" t="inlineStr">
+        <is>
+          <t>4.2의 성적을 가지고 경영정보학과 최초 합격이 가능한지에 대한 답변은 확정적으로 말하기 어렵습니다. 이유는 다음과 같습니다:
+1. **전형 요소 반영 비율**: 경영정보학과의 경우, 전형요소 반영비율이 60%로 높습니다. 이는 면접 점수와 학생부 교과 성적이 중요하게 반영되기 때문입니다.
+2. **면접 및 학생부 성적**: 면접에서 좋은 평가를 받고, 학생부 교과 성적이 4.2라면 중간적인 성적을 보여주고 있는 것입니다. 이는 합격 가능성에 긍정적으로 작용할 수 있습니다.
+3. **전형 요소 반영 비율**: 경영정보학과의 경우, 서류(학생부) 점수가 60%를 차지하고 있어 학생부 성적이 중요합니다. 따라서 학생부 교과 성적을 잘 보여주고, 면접에서도 좋은 평가를 받는다면 최초 합격 가능성은 있습니다.
+4. **모집인원 및 경쟁률**: 모집인원과 경쟁률도 중요한 요소입니다. 만약 해당 전형의 모집인원이 많지 않고 경쟁률이 낮다면, 4.2의 성적을 가지고 최초 합격 가능성은 높아질 수 있습니다.
+따라서, 정확한 답변을 위해서는 면접 준비와 학생부 교과 성적을 잘 보여주는 것이 중요합니다. 또한, 입학사정관이 평가하는 요소들을 잘 이해하고 준비하는 것이 필요합니다. 더 자세한 정보를 얻기 위해서는 해당 대학의 입학처 웹사이트나 전화로 문의하시는 것을 추천드립니다.</t>
+        </is>
+      </c>
+      <c r="F374" t="inlineStr">
+        <is>
+          <t>경영정보학과의 최초등록자 데이터를 기준으로 보면, 경영정보학과의 영어 등급 평균은 2.88이고, 수능 4개 영역 등급 평균은 3.88입니다. 
+따라서, 현재 정시 등급이 4.2이라면 경영정보학과의 평균 등급보다 낮은 성적을 가지고 있어 합격 가능성이 낮습니다. 즉, 최초합격 가능성은 적습니다. 
+자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="375">
+      <c r="A375" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B375" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 4
+   - 설명: 생성된 응답은 경영정보학과의 수능 전형 성적 산출 방법에 대한 정보를 제공하고 있으며, 주어진 성적 5.33이 영어 등급을 의미한다고 언급하고 있습니다. 그러나, 원본 텍스트에서 제시된 평균 등급과 비교하여 합격 가능성이 낮다는 점을 명확히 언급하지 않았습니다. 따라서, 일부 사실이 누락되어 있어 4점을 부여합니다.
+2. Consistency Score (1-5): 3
+   - 설명: 생성된 응답은 원본 텍스트의 정보와 일치하는 부분이 있지만, 합격 가능성에 대한 결론이 명확하지 않아 일관성이 떨어집니다. 원본 텍스트는 합격 가능성이 낮다고 명시했으나, 생성된 응답은 이를 명확히 반영하지 않고 있습니다. 따라서 3점을 부여합니다.
+3. Relevance Score (1-5): 5
+   - 설명: 생성된 응답은 원본 텍스트의 주제와 관련된 정보를 제공하며, 수능 전형 성적 산출 방법과 합격 가능성에 대한 논의를 포함하고 있습니다. 따라서 5점을 부여합니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 구조를 가지고 있습니다. 다만, 일부 문장이 다소 길어 가독성이 떨어질 수 있어 4점을 부여합니다.
+5. Coherence Score (1-5): 4
+   - 설명: 생성된 응답은 논리적인 흐름을 가지고 있으며, 각 문장이 서로 연결되어 있습니다. 그러나, 합격 가능성에 대한 결론이 명확하지 않아 약간의 일관성이 부족하므로 4점을 부여합니다.
+6. Accuracy Score (1-5): 4
+   - 설명: 생성된 응답은 수능 전형 성적 산출 방법에 대한 정확한 정보를 제공하고 있지만, 원본 텍스트의 평균 등급과 비교하여 합격 가능성에 대한 명확한 판단이 부족합니다. 따라서 4점을 부여합니다.
+7. Multidimensional Quality Score (1-5): 4
+   - 설명: 생성된 응답은 여러 차원에서 양호한 성과를 보이고 있으나, 합격 가능성에 대한 명확한 결론이 부족하여 전반적인 품질이 약간 떨어집니다. 따라서 4점을 부여합니다.
+8. Semantic Appropriateness Score (1-5): 4
+   - 설명: 생성된 응답은 원본 텍스트의 의미와 맥락에 적절하게 부합하지만, 합격 가능성에 대한 결론이 명확하지 않아 약간의 부적절함이 있습니다. 따라서 4점을 부여합니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 이해하기 쉬운 구조를 가지고 있으나, 일부 문장이 길어 다소 복잡하게 느껴질 수 있습니다. 따라서 4점을 부여합니다.
+{
+    "Factuality Score": 4,
+    "Consistency Score": 3,
+    "Relevance Score": 5,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 4,
+    "Multidimensional Quality Score": 4,
+    "Semantic Appropriateness Score": 4,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C375" t="n">
+        <v>0.6881547023985779</v>
+      </c>
+      <c r="D375" t="inlineStr">
+        <is>
+          <t>정시 성적이 5.33인데 동의대학교 경영정보학과 일반학생전형으로 합격 가능할까요?</t>
+        </is>
+      </c>
+      <c r="E375" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대학교 경영정보학과의 수능 전형성적 산출방법은 다음과 같습니다:
+- 국어 표준점수 + 
+- 수학 표준점수 + 
+- 영어 등급점수 + 
+- 탐구 표준점수
+주어진 성적이 5.33이므로, 이는 영어의 등급을 의미합니다. 주어진 정보만으로는 국어, 수학, 탐구 등의 점수를 알 수 없으므로, 정확한 합격 여부를 판단하기 어렵습니다.
+영어 등급에 따른 점수 변환표를 확인해야 합니다. 주어진 정보로는 해당 등급의 점수가 139점 이상이어야 하는 것으로 추정됩니다 (등급 5일 때).
+따라서, 정확한 합격 여부를 판단하기 위해서는:
+1. 국어, 수학, 탐구 등의 표준점수 확인
+2. 영어 등급에 따른 점수 변환표 확인
+위의 두 가지 정보가 필요합니다.
+추가적으로, 동의대학교 경영정보학과의 정시 모집군을 확인해야 합니다. 만약 해당 학과가 특정 정시 모집군에 속한다면, 그 모집군의 기준 점수가 더 고려되어야 할 수 있습니다.
+위와 같은 정보를 바탕으로 합격 가능성을 판단하거나, 필요하다면 동의대학교 입학처 웹사이트 (https://ipsi. deu.ac.kr/main.do)를 참조하여 자세한 내용을 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+      <c r="F375" t="inlineStr">
+        <is>
+          <t>경영정보학과의 최종등록자 데이터를 기준으로 보면, 경영정보학과의 영어 등급 평균은 3.25이고, 수능 4개 영역 등급 평균은 4.31입니다. 따라서, 현재 정시 등급이 5.33이라면 경영정보학과의 평균 등급보다 낮은 성적을 가지고 있어 합격 가능성이 낮습니다. 자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="376">
+      <c r="A376" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B376" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 2
+   - 설명: 생성된 응답은 바이오응용공학부의 평균 성적에 대한 정보와 최초등록자에 대한 가능성을 다루고 있지만, 원본 텍스트의 주요 사실을 왜곡하고 있습니다. 원본 텍스트는 3.33의 성적이 평균보다 높다고 언급했으나, 생성된 응답은 이 성적이 낮을 수 있다고 주장하고 있습니다.
+2. Consistency Score (1-5): 2
+   - 설명: 생성된 응답은 원본 텍스트와 일관성이 부족합니다. 원본 텍스트는 3.33의 성적이 합격 가능성이 높다고 명시했지만, 생성된 응답은 이 성적이 낮을 수 있다고 하여 상반된 정보를 제공합니다.
+3. Relevance Score (1-5): 4
+   - 설명: 생성된 응답은 바이오응용공학부의 입학 관련 정보와 평가 요소에 대해 다루고 있어 관련성이 높습니다. 그러나 원본 텍스트의 핵심 질문에 대한 직접적인 답변이 부족합니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 구조를 가지고 있습니다. 다만, 일부 문장이 길어 가독성이 떨어질 수 있습니다.
+5. Coherence Score (1-5): 4
+   - 설명: 생성된 응답은 논리적으로 잘 구성되어 있으며, 각 요소가 연결되어 있습니다. 그러나 원본 텍스트와의 연결이 약해 일관성이 떨어질 수 있습니다.
+6. Accuracy Score (1-5): 2
+   - 설명: 생성된 응답은 원본 텍스트의 사실을 왜곡하고 있으며, 3.33의 성적에 대한 해석이 부정확합니다. 원본 텍스트는 이 성적이 합격 가능성이 높다고 했으나, 생성된 응답은 반대의 주장을 하고 있습니다.
+7. Multidimensional Quality Score (1-5): 2
+   - 설명: 생성된 응답은 여러 차원에서 원본 텍스트와의 일치성이 낮고, 사실성, 일관성, 정확성에서 부족함을 보입니다.
+8. Semantic Appropriateness Score (1-5): 3
+   - 설명: 생성된 응답은 주제와 관련된 내용을 다루고 있지만, 원본 텍스트의 의미와는 다소 어긋나는 부분이 있습니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 이해하기 쉬우나, 원본 텍스트와의 관계가 명확하지 않아 혼란을 줄 수 있습니다.
+{
+    "Factuality Score": 2,
+    "Consistency Score": 2,
+    "Relevance Score": 4,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 2,
+    "Multidimensional Quality Score": 2,
+    "Semantic Appropriateness Score": 3,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C376" t="n">
+        <v>0.752157289545188</v>
+      </c>
+      <c r="D376" t="inlineStr">
+        <is>
+          <t>동의대식 정시 성적 3.33 정도인데 바이오응용공학부 최초등록자로 가능할까요?</t>
+        </is>
+      </c>
+      <c r="E376" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대학교 바이오응용공학부의 경우, 학생부종합 평가영역에서 성적 반영방법이 변경되었습니다. 2023년도에는 국어, 수학, 영어교과 중 석차등급 상위 8과목을 반영하였으나, 2024년도에는 반영과목이 12과목으로 늘어났습니다.
+현재 성적 3.33은 비교적 좋은 성적입니다. 하지만 바이오응용공학부는 전반적으로 높은 경쟁률을 보이는 학과 중 하나로, 특히 성적이 중요한 요소가 됩니다. 따라서 성적 3.33 정도에서는 최초등록자로 선발될 확률이 낮을 수 있습니다.
+하지만 정확한 가능성을 판단하기 위해서는 다음과 같은 점들을 고려해야 합니다:
+1. **성적 외 평가 요소**: 학생부 교과 성적 외에 공동체역량, 학업역량, 전공적합성 등 다양한 평가 영역이 반영됩니다. 따라서 성적이 조금 부족해도 다른 평가 영역에서 우수한 점수를 받으면 선발될 가능성이 있습니다.
+2. **학과 특성**: 바이오응용공학부는 과학적 지식과 실무 능력이 요구되는 학문 분야로, 이에 대한 관심과 열정도 중요한 평가 요소입니다.
+3. **면접 및 서류평가**: 일부 전형에서는 면접이나 서류평가를 통해 지원자의 적합성을 판단하기 때문에, 성적이 부족해도 면접에서 좋은 인상을 주거나 서류가 우수하다면 선발될 수 있습니다.
+따라서 성적 3.33 정도로 바이오응용공학부 최초등록자로 선발될 확률은 낮지만, 성적 외 평가 요소를 잘 준비한다면 선발 가능성은 열려있습니다. 자세한 정보는 동의대학교 입학처 웹사이트나 전화 상담을 통해 확인하시기 바랍니다.
+추가적으로 궁금하신 점이 있으면 https://ipsi. deu.ac.kr/main.do 를 참조하거나, 동의대학교 입학처에 문의해보시는 것을 추천드립니다.</t>
+        </is>
+      </c>
+      <c r="F376" t="inlineStr">
+        <is>
+          <t>바이오응용공학부의 최초등록자 데이터를 기준으로 보면, 바이오응용공학부의 영어 등급 평균은 3.82이고, 수능 4개 영역 등급 평균은 4.74입니다. 
+따라서, 현재 정시 등급이 3.33이라면 바이오응용공학부의 평균 등급보다 높은 성적을 가지고 있어 합격 가능성이 높습니다. 즉, 최초합격 가능성은 있습니다. 
+자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="377">
+      <c r="A377" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B377" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 2
+   - 설명: 생성된 응답은 방사선학과의 모집인원과 전형요소에 대한 정보를 제공하고 있지만, 방사선학과의 평균 등급에 대한 정보와 현재 정시 등급이 4.4라는 점을 고려할 때, 합격 가능성이 낮다는 원래의 사실과 상충하는 내용을 포함하고 있습니다. 따라서 사실성 점수는 낮습니다.
+2. Consistency Score (1-5): 2
+   - 설명: 생성된 응답은 방사선학과의 평균 등급보다 낮은 성적을 가지고 있어 합격 가능성이 낮다는 원래의 내용과 모순되는 정보를 제공합니다. 이는 일관성 점수를 낮추는 요소입니다.
+3. Relevance Score (1-5): 4
+   - 설명: 생성된 응답은 방사선학과에 대한 정보를 제공하고 있으며, 질문자의 관심사와 관련이 있지만, 원래의 질문에 대한 직접적인 답변은 부족합니다. 따라서 관련성 점수는 높지만 완벽하지는 않습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 구조를 가지고 있습니다. 그러나 일부 문장에서 약간의 어색함이 느껴질 수 있습니다.
+5. Coherence Score (1-5): 3
+   - 설명: 생성된 응답은 여러 정보를 포함하고 있지만, 논리적인 흐름이 다소 부족하여 일관된 주제를 유지하지 못하고 있습니다. 따라서 일관성 점수는 중간 정도입니다.
+6. Accuracy Score (1-5): 2
+   - 설명: 생성된 응답은 방사선학과의 평균 등급과 관련된 사실을 왜곡하고 있으며, 합격 가능성에 대한 잘못된 결론을 도출하고 있습니다. 따라서 정확성 점수는 낮습니다.
+7. Multidimensional Quality Score (1-5): 2
+   - 설명: 여러 차원에서 생성된 응답이 낮은 점수를 받고 있으며, 사실성, 일관성, 정확성에서 문제가 있습니다. 따라서 전반적인 품질 점수는 낮습니다.
+8. Semantic Appropriateness Score (1-5): 3
+   - 설명: 생성된 응답은 방사선학과에 대한 정보를 제공하지만, 원래의 질문과는 다소 동떨어진 내용이 포함되어 있어 의미적으로 적절하지 않은 부분이 있습니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 이해하기 쉬운 구조를 가지고 있지만, 일부 내용이 혼란스러울 수 있어 완벽하게 명확하지는 않습니다.
+{
+    "Factuality Score": 2,
+    "Consistency Score": 2,
+    "Relevance Score": 4,
+    "Fluency Score": 4,
+    "Coherence Score": 3,
+    "Accuracy Score": 2,
+    "Multidimensional Quality Score": 2,
+    "Semantic Appropriateness Score": 3,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C377" t="n">
+        <v>0.6232710765773301</v>
+      </c>
+      <c r="D377" t="inlineStr">
+        <is>
+          <t>제가 지금 현재 정시 등급이 4.4정도고, 일반학생전형 생각중인데, 제 성적으로 방사선학과 갈 수 있을까요?</t>
+        </is>
+      </c>
+      <c r="E377" t="inlineStr">
+        <is>
+          <t>2024학년도에 방사선학과의 모집인원 및 전형요소를 확인해보겠습니다.
+방사선학과는 공과대학의 학과로, 2023년도에는 로봇자동화공학과와 함께 28명을 모집하였습니다. 그러나 2024년도에 방사선학과가 신설되었음을 확인할 수 있습니다.
+전형요소 반영비율은 다음과 같습니다:
+- 수능: 100%
+- 실기: -
+따라서, 현재 성적인 4.4정시 등급으로는 충분히 합격 가능할 것으로 보입니다. 하지만 정확한 모집인원과 전형요소를 확인하시기 바랍니다.
+추가적으로, 방사선학과의 입학전형 안내 및 모집인원은 공과대학 홈페이지에서 확인하실 수 있으니, 해당 페이지를 참조해보시는 것이 좋겠습니다. 필요하다면 "https://ipsi. deu.ac.kr/main.do" 링크를 통해 공고를 확인하시기 바랍니다.
+이 정보가 도움이 되길 바랍니다. 추가로 궁금한 점이 있으면 언제든지 물어보세요.</t>
+        </is>
+      </c>
+      <c r="F377" t="inlineStr">
+        <is>
+          <t>방사선학과의 최종등록자 데이터를 기준으로 보면, 방사선학과의 영어 등급 평균은 2.8이고, 수능 4개 영역 등급 평균은 3.82입니다. 
+따라서, 현재 정시 등급이 4.4이라면 방사선학과의 평균 등급보다 낮은 성적을 가지고 있어 합격 가능성이 낮습니다.
+자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="378">
+      <c r="A378" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B378" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 3
+   - 설명: 생성된 응답은 방사선학과의 경쟁률에 대한 정보를 제공하지만, 원본 텍스트에서 언급된 평균 등급과 관련된 정보는 포함되어 있지 않습니다. 또한, 경쟁률 계산이 실제 데이터와 일치하는지 확인할 수 없으므로 일부 사실성이 결여되어 있습니다.
+2. Consistency Score (1-5): 3
+   - 설명: 생성된 응답은 원본 텍스트의 내용과 관련이 있지만, 경쟁률에 대한 새로운 정보를 추가하면서 원본의 평균 등급 정보와는 일관성이 떨어집니다. 경쟁률에 대한 언급이 원본의 성적 정보와 어떻게 연결되는지 명확하지 않습니다.
+3. Relevance Score (1-5): 4
+   - 설명: 생성된 응답은 방사선학과의 경쟁률에 대한 정보를 제공하며, 이는 원본 텍스트의 주제와 관련이 있습니다. 그러나 원본 텍스트의 성적 평균과의 연결이 부족하여 완전한 관련성을 갖추지 못했습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 구조를 가지고 있습니다. 다만, 일부 문장에서 약간의 어색함이 느껴질 수 있습니다.
+5. Coherence Score (1-5): 4
+   - 설명: 생성된 응답은 논리적으로 잘 구성되어 있으며, 각 문장이 자연스럽게 이어집니다. 그러나 원본 텍스트와의 연결이 명확하지 않아 약간의 일관성이 떨어질 수 있습니다.
+6. Accuracy Score (1-5): 3
+   - 설명: 생성된 응답에서 제시된 경쟁률 계산이 정확한지 확인할 수 없으며, 원본 텍스트의 평균 등급 정보와의 관련성이 부족합니다. 따라서 정확성 점수가 낮습니다.
+7. Multidimensional Quality Score (1-5): 3
+   - 설명: 생성된 응답은 여러 차원에서 평균적인 성과를 보이지만, 사실성과 일관성에서 부족함이 있어 전반적인 품질이 떨어집니다.
+8. Semantic Appropriateness Score (1-5): 4
+   - 설명: 생성된 응답은 방사선학과의 경쟁률에 대한 의미를 잘 전달하고 있으며, 원본 텍스트의 맥락과도 어느 정도 일치합니다. 그러나 원본의 성적 정보와의 연결이 부족합니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 이해하기 쉬우며, 정보가 명확하게 전달됩니다. 다만, 원본 텍스트와의 연결이 부족하여 일부 독자에게 혼란을 줄 수 있습니다.
+{
+    "Factuality Score": 3,
+    "Consistency Score": 3,
+    "Relevance Score": 4,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 3,
+    "Multidimensional Quality Score": 3,
+    "Semantic Appropriateness Score": 4,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C378" t="n">
+        <v>0.5585553571594639</v>
+      </c>
+      <c r="D378" t="inlineStr">
+        <is>
+          <t>방사선학과 정시로 2.66은 좀 위험할까요?</t>
+        </is>
+      </c>
+      <c r="E378" t="inlineStr">
+        <is>
+          <t>2.66이라는 경쟁률을 방사선학과에 적용해보겠습니다.
+방사선학과의 지원 인원이 36명이고, 모집인원이 5명입니다. 따라서 경쟁률은 7.20입니다 (36 / 5 = 7.20).
+현재 제시된 경쟁률 2.66은 실제 경쟁률 7.20에 비해 상당히 낮습니다. 이는 충분한 안전Margin을 가지고 있는 수치로 보입니다.
+하지만, 정확한 판단을 위해서는 다음과 같은 점들을 고려해야 합니다:
+1. 최근 몇 년간의 경쟁률 추세를 확인합니다.
+2. 해당 학과의 입학사정관들의 평균적인 기준을 파악합니다.
+3. 지원자의 개인적 자질, 면접 성적 등 다른 요소들을 고려합니다.
+현재 상황에서 2.66이라는 경쟁률은 크게 위험하지 않아 보입니다. 하지만, 최종 결정을 내리기 위해서는 추가적인 정보를 수집하는 것이 좋습니다. 필요하다면 "https://ipsi. deu. ac. kr/main. do" 링크를 참조하여 더 자세한 정보를 얻으시길 바랍니다.</t>
+        </is>
+      </c>
+      <c r="F378" t="inlineStr">
+        <is>
+          <t>방사선학과의 최종등록자 데이터를 기준으로 보면, 방사선학과의 영어 등급 평균은 2.8이고, 수능 4개 영역 등급 평균은 3.82입니다. 
+따라서, 현재 정시 등급이 2.66이라면 이는 귀하의 성적이 평균보다 높음을 의미합니다. 따라서, 귀하는 방사선학과에 합격할 가능성이 있다고 볼 수 있습니다. 
+자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="379">
+      <c r="A379" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B379" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 2
+   - 설명: 생성된 응답은 경찰행정학과의 평균 성적과 경쟁률에 대한 정보를 잘못 해석하고 있습니다. 원문에서는 3.66의 성적이 평균보다 높다고 언급했으나, 생성된 응답에서는 합격 가능성이 낮다고 주장하고 있습니다. 이는 사실과 상충하는 내용입니다.
+2. Consistency Score (1-5): 2
+   - 설명: 생성된 응답은 원문에서 제공된 정보와 일관성이 없습니다. 원문은 3.66의 성적이 평균보다 높고 경쟁률이 낮아졌다고 긍정적으로 언급했지만, 생성된 응답은 반대로 합격 가능성이 낮다고 주장하고 있습니다.
+3. Relevance Score (1-5): 4
+   - 설명: 생성된 응답은 원문에서 언급된 주제와 관련이 있지만, 원문에서 제공된 긍정적인 요소를 간과하고 있습니다. 그러나 농어촌 전형에 대한 추가 정보를 제공하여 관련성을 유지하고 있습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 구조를 가지고 있습니다. 다만, 일부 문장이 다소 복잡하게 느껴질 수 있습니다.
+5. Coherence Score (1-5): 4
+   - 설명: 생성된 응답은 논리적으로 잘 구성되어 있으며, 각 문장이 자연스럽게 연결되어 있습니다. 그러나 원문과의 일관성이 부족하여 전체적인 일관성은 떨어집니다.
+6. Accuracy Score (1-5): 2
+   - 설명: 생성된 응답은 원문에서 제공된 사실을 잘못 해석하고 있으며, 3.66의 성적이 평균보다 높다는 점을 간과하고 있습니다. 이는 정확성에 큰 영향을 미칩니다.
+7. Multidimensional Quality Score (1-5): 2
+   - 설명: 생성된 응답은 여러 차원에서 원문과의 일관성이 부족하고, 사실적 정확성도 떨어지며, 긍정적인 요소를 간과하고 있습니다. 전반적으로 낮은 품질을 보입니다.
+8. Semantic Appropriateness Score (1-5): 3
+   - 설명: 생성된 응답은 원문과 관련된 내용을 다루고 있지만, 의미적으로 원문에서 전달하고자 하는 긍정적인 메시지를 왜곡하고 있습니다. 따라서 적절성 점수는 중간 정도입니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 이해하기 쉬운 구조를 가지고 있으며, 명확한 정보를 제공합니다. 그러나 원문과의 일관성이 부족하여 혼란을 줄 수 있습니다.
+{
+    "Factuality Score": 2,
+    "Consistency Score": 2,
+    "Relevance Score": 4,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 2,
+    "Multidimensional Quality Score": 2,
+    "Semantic Appropriateness Score": 3,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C379" t="n">
+        <v>0.5160655532539488</v>
+      </c>
+      <c r="D379" t="inlineStr">
+        <is>
+          <t>제 정시 성적이 3.66이 나오는데요, 경찰행정학전공 농어촌 전형으로 지원했는데 합격할 수 있을까요?</t>
+        </is>
+      </c>
+      <c r="E379" t="inlineStr">
+        <is>
+          <t>3.66의 성적을 가지고 경찰행정학전공 농어촌 전형에 지원하셨다면, 합격 가능성은 낮을 것으로 예상됩니다. 농어촌 전형은 주로 농어촌 지역 출신이나 특별한 사회적 배경을 가진 지원자들을 대상으로 하며, 일반적으로 성적이 낮은 편입니다.
+하지만 정확한 합격 가능성 판단을 위해서는 다음과 같은 정보가 필요합니다:
+1. 해당 대학의 농어촌 전형에서 요구하는 최저 성적 기준
+2. 지원자의 경쟁률
+3. 다른 지원자들의 성적 분포
+대부분의 경우, 일반적인 정시 합격 기준보다 낮은 성적이 필요합니다. 그러나 3.66이라는 성적을 가지고 농어촌 전형에 지원하는 것은 매우 힘든 경쟁률을 맞이하게 될 것입니다.
+따라서, 최선의 방법은 입학사정관 제도나 일반전형 등 다른 합격 가능성을 고려해 보는 것이 좋습니다. 또한, 대학 홈페이지에서 제공되는 전형별 세부 안내를 확인하시거나, 입학처에 직접 문의하시는 것을 추천드립니다.
+더 자세한 정보를 얻기 위해서는 https://ipsi. deu. ac. kr/main. do 를 방문해 보시는 것이 좋습니다.</t>
+        </is>
+      </c>
+      <c r="F379" t="inlineStr">
+        <is>
+          <t>제공된 정보에 따르면, 경찰행정학과의 2024학년도 수능(일반학생전형) 최종등록자 평균 수능 4개 영역 등급은 4.12입니다. 귀하의 성적이 3.66이라면, 이는 평균보다 높은 성적입니다. 
+경쟁률이 2020년도에 비해 낮아졌다는 점도 긍정적인 요소로 작용할 수 있습니다. 경쟁률이 낮아지면 합격 가능성이 상대적으로 높아질 수 있기 때문입니다.
+따라서, 귀하의 성적이 평균보다 높고 경쟁률이 낮아진 점을 고려할 때, 희망을 가져도 될 것으로 보입니다. 다만, 최종 결과는 여러 변수에 따라 달라질 수 있으므로, 최선을 다해 준비하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="380">
+      <c r="A380" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B380" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 3
+   - 설명: 생성된 응답은 동점자 처리 기준에 대한 정보를 제공하지만, 원본 텍스트에서 언급된 특정 학과와 예비 번호에 대한 정보는 포함되어 있지 않습니다. 따라서 일부 사실이 누락되어 있습니다.
+2. Consistency Score (1-5): 3
+   - 설명: 생성된 응답은 동점자 처리에 대한 정보를 제공하지만, 원본 텍스트의 내용과는 다소 다른 방향으로 진행됩니다. 원본 텍스트의 핵심 내용인 합격 가능성에 대한 정보가 충분히 반영되지 않았습니다.
+3. Relevance Score (1-5): 4
+   - 설명: 생성된 응답은 동점자 처리와 관련된 정보를 제공하여 질문에 대한 답변을 시도하고 있지만, 원본 텍스트의 주요 내용인 합격 가능성에 대한 정보가 부족합니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 구조를 가지고 있습니다. 그러나 일부 문장에서 약간의 어색함이 느껴질 수 있습니다.
+5. Coherence Score (1-5): 4
+   - 설명: 생성된 응답은 논리적으로 잘 구성되어 있으며, 동점자 처리 기준에 대한 설명이 일관되게 이어집니다. 그러나 원본 텍스트와의 연결이 약해지는 부분이 있습니다.
+6. Accuracy Score (1-5): 3
+   - 설명: 생성된 응답은 동점자 처리 기준에 대한 정보를 제공하지만, 원본 텍스트의 특정 세부사항이 누락되어 있어 정확성이 떨어집니다.
+7. Multidimensional Quality Score (1-5): 3
+   - 설명: 생성된 응답은 여러 차원에서 평균적인 성과를 보이지만, 원본 텍스트의 핵심 내용을 충분히 반영하지 못하고 있습니다.
+8. Semantic Appropriateness Score (1-5): 4
+   - 설명: 생성된 응답은 질문의 맥락에 맞는 의미를 전달하고 있지만, 원본 텍스트의 특정 세부사항이 누락되어 있어 완전한 적합성은 부족합니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 이해하기 쉬운 구조를 가지고 있으며, 정보가 명확하게 전달됩니다. 그러나 원본 텍스트와의 연결이 약해질 수 있습니다.
+{
+    "Factuality Score": 3,
+    "Consistency Score": 3,
+    "Relevance Score": 4,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 3,
+    "Multidimensional Quality Score": 3,
+    "Semantic Appropriateness Score": 4,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C380" t="n">
+        <v>0.4841310029525832</v>
+      </c>
+      <c r="D380" t="inlineStr">
+        <is>
+          <t>정시 일반학생 전형으로 원서를 넣었는데 예비 25번이 나왔네요 붙을 확률 있을까요? 가능성 없겠죠?</t>
+        </is>
+      </c>
+      <c r="E380" t="inlineStr">
+        <is>
+          <t>25번의 동점자 처리 순위는 상당히 높은 위치입니다. 하지만 아직 최종 합격자 발표가 이루어지지 않았으므로, 최종 결과를 기다리는 것이 가장 좋습니다.
+현재 정보로는 동점자 처리 기준이 다음과 같습니다:
+- 1순위: 수능 국어(표준점수), 수학(표준점수), 영어(등급에 따른 점수)영역의 합계점수 상위자
+- 2순위: 인문사회과학대학, 상경대학 모집단위 수능 국어영역 표준점수 상위자
+- 3순위: 공과대학, ICT융합공과대학 모집단위 수능 수학(미적분 또는 기하) 응시자
+따라서 동점자 처리 순위가 높은 경우에도 최종 합격이 가능합니다. 하지만 확실한 것은 아닙니다.
+최종 합격 여부는 합격자 발표와 등록금 납부를 통해 확인할 수 있습니다. 합격자 발표일(2024년 2월 2일)을 기다리시거나, 학교 입학관리팀에 문의하시면 더 정확한 정보를 얻으실 수 있습니다.
+https://ipsi. deu. ac. kr/main. do 에서 추가적인 정보를 확인해 보세요.</t>
+        </is>
+      </c>
+      <c r="F380" t="inlineStr">
+        <is>
+          <t>귀하께서 지원하신 학과에 따라서 합격될 확률은 달라질 수 있습니다.
+2024년 동의대학교 일반학생전형에서 예비 25번 이상이 합격한 학과는 다음과 같습니다.
+- **영어영문학과**
+- **경영정보학과**
+- **e비즈니스학과**
+- **간호학과**
+- **신소재공학과**
+- **고분자나노공학과**
+- **의생명공학과**
+- **바이오의약공학과**
+- **식품공학과**
+- **산업경영빅데이터공학과**
+귀하께서 지원하신 학과가 위 학과에 포함된다면, 귀하께서 합격하실 확률은 있다고 볼 수 있습니다.
+자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="381">
+      <c r="A381" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B381" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 2  
+   - 생성된 응답은 동의대학교 법경찰행정학부에 대한 정보를 제공하고 있으나, 해당 학부는 존재하지 않으며, 경찰행정학과에 대한 정보와 혼동하고 있습니다. 또한, 평균 성적에 대한 수치도 원본 텍스트와 일치하지 않으며, 잘못된 정보를 포함하고 있습니다.
+2. Consistency Score (1-5): 2  
+   - 생성된 응답은 원본 텍스트와 일관성이 부족합니다. 원본 텍스트는 경찰행정학과에 대한 성적 정보를 제공하는 반면, 생성된 응답은 법경찰행정학부에 대한 정보를 제공하고 있어 서로 상충하는 내용이 포함되어 있습니다.
+3. Relevance Score (1-5): 3  
+   - 생성된 응답은 동의대학교의 입학 정보에 대한 질문에 대한 답변을 시도하고 있으나, 법경찰행정학부에 대한 잘못된 정보로 인해 관련성이 떨어집니다. 경찰행정학과에 대한 정보는 포함되어 있지만, 주제와의 관련성이 약합니다.
+4. Fluency Score (1-5): 4  
+   - 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 구조를 가지고 있습니다. 그러나 일부 문장이 다소 복잡하게 구성되어 있어 약간의 가독성 저하가 있을 수 있습니다.
+5. Coherence Score (1-5): 3  
+   - 생성된 응답은 정보가 나열되어 있으나, 전체적인 논리적 흐름이 부족합니다. 법경찰행정학부와 경찰행정학과의 혼동으로 인해 일관된 주제를 유지하지 못하고 있습니다.
+6. Accuracy Score (1-5): 2  
+   - 생성된 응답은 원본 텍스트의 사실과 일치하지 않는 정보가 포함되어 있습니다. 특히, 법경찰행정학부에 대한 정보는 사실이 아니며, 평균 성적에 대한 수치도 정확하지 않습니다.
+7. Multidimensional Quality Score (1-5): 2  
+   - 전반적으로 생성된 응답은 여러 차원에서 낮은 점수를 받고 있습니다. 사실성, 일관성, 정확성에서 문제가 있으며, 주제와의 관련성도 떨어집니다.
+8. Semantic Appropriateness Score (1-5): 3  
+   - 생성된 응답은 주제와 관련된 정보를 제공하려고 하지만, 잘못된 정보로 인해 의미적으로 적절하지 않은 부분이 있습니다. 법경찰행정학부에 대한 언급은 부적절합니다.
+9. Understandability Score (1-5): 4  
+   - 전반적으로 이해하기 쉬운 문장 구조를 가지고 있으나, 주제의 혼동으로 인해 일부 내용이 명확하지 않을 수 있습니다.
+{
+    "Factuality Score": 2,
+    "Consistency Score": 2,
+    "Relevance Score": 3,
+    "Fluency Score": 4,
+    "Coherence Score": 3,
+    "Accuracy Score": 2,
+    "Multidimensional Quality Score": 2,
+    "Semantic Appropriateness Score": 3,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C381" t="n">
+        <v>0.7501535157933229</v>
+      </c>
+      <c r="D381" t="inlineStr">
+        <is>
+          <t>동의대학교 법경찰행정학부에 정시로 들어갈려면 평균 성적이 몇 정도 받으면 안정권이거나 문 닫고 들어갈 수 있을까요?</t>
+        </is>
+      </c>
+      <c r="E381" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대학교 법경찰행정학부에 대한 정보를 바탕으로 추정해보겠습니다.
+- **모집인원**: 7명
+- **지원인원**: 40명
+- **경쟁률**: 5.71 (40 / 7)
+- **충원 합격 (후보순위)**: 13명
+이 정보를 바탕으로, 안정적인 충원 합격을 위해서는 평균 성적이 높은 수준이 필요할 것으로 보입니다. 경쟁률이 높고 모집인원이 적기 때문에, 평균 성적은 상대적으로 높아야 합니다.
+- **국어 + 수학 + 탐구(2개) (가산점 포함) 표준 변환 점수 합의 평균**: 315.78
+- **영어 등급의 평균**: 3.11
+이 중에서, **표준 변환 점수**는 대체로 높은 수치를 받을 필요가 있습니다. 표준 변환 점수가 300점 이상인 경우가 많으므로, 이 정도 수준의 성적을 받으면 안정권에 들어갈 가능성이 높아 보입니다.
+- **수능 4개 영역 등급의 평균**: 4.27
+이 평균 등급을 기반으로, **등급 평균**도 상대적으로 높은 수준이어야 합니다. 4.3 이상의 등급 평균을 받으면 안정적인 충원 합격 가능성이 높아 보입니다.
+따라서, **국어 + 수학 + 탐구(2개) (가산점 포함) 표준 변환 점수 합**이 310점 이상이고, **영어 등급 평균**이 4.0 이상인 경우를 목표로 하면 안정권에 들어갈 가능성이 높아 보입니다.
+만약 이 수치를 넘어서서 320점 이상의 표준 변환 점수와 4.5 이상의 영어 등급을 받으면, 문 닫고 들어갈 수 있을 정도로 안전한 성적을 받을 수 있습니다.
+이 정보는 추정이며, 실제 입학 결과는 여러 요인에 따라 달라질 수 있으므로, 최종 결정 전에는 공식적인 입학정보 사이트를 확인하시기 바랍니다. (https://ipsi. deu. ac. kr/main. do)</t>
+        </is>
+      </c>
+      <c r="F381" t="inlineStr">
+        <is>
+          <t>동의대학교 정시 모집 전형에는 법경찰행정학부라는 학부는 존재하지않습니다.  
+동의대학교 경찰행정학과의 최종등록자와 최초합격자의 평균 성적을 비교하여 안정권과 문 닫고 들어갈 수 있는 성적을 추정할 수 있습니다.
+- **최종등록자 평균 성적:**
+   - 국어 + 수학 + 탐구(2개) 표준 변환 점수 합: 332.86
+   - 영어 등급: 4.00
+   - 수능 4개 영역 등급: 4.12
+   - 수능 4개 영역 표준 변환 점수 합: 447.86
+- **최초합격자 평균 성적:**
+  - 국어 + 수학 + 탐구(2개) 표준 변환 점수 합: 330.71
+  - 영어 등급: 3.14
+  - 수능 4개 영역 등급: 3.87
+  - 수능 4개 영역 표준 변환 점수 합: 452.57
+### 안정권과 문 닫고 들어갈 수 있는 성적 추정
+- **경찰행정학과:**
+  - 안정권: 최초합격자 평균 성적에 근접한 성적 (국어 + 수학 + 탐구(2개) 표준 변환 점수 합 약 331점 이상, 수능 4개 영역 표준 변환 점수 합 약 453점 이상)
+  - 문 닫고 들어갈 수 있는 성적: 최종등록자 평균 성적에 근접한 성적 (국어 + 수학 + 탐구(2개) 표준 변환 점수 합 약 333점 이상, 수능 4개 영역 표준 변환 점수 합 약 448점 이상)
+이 성적을 기준으로 준비하시면 안정권 또는 문 닫고 들어갈 수 있는 성적을 받을 수 있을 것입니다. 자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="382">
+      <c r="A382" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B382" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 4
+   - 설명: 생성된 응답은 보육가정상담학과의 합격 가능성에 대한 여러 요인을 언급하고 있으며, 이는 사실적인 정보에 기반하고 있습니다. 그러나 아동학과의 평균 등급에 대한 구체적인 언급이 없어서 약간의 정보 누락이 있습니다.
+2. Consistency Score (1-5): 3
+   - 설명: 생성된 응답은 보육가정상담학과에 대한 정보를 제공하지만, 아동학과의 평균 등급에 대한 정보와는 일치하지 않습니다. 두 학과의 정보가 혼동될 수 있어 일관성이 떨어집니다.
+3. Relevance Score (1-5): 5
+   - 설명: 생성된 응답은 질문에 대한 직접적인 답변을 제공하며, 보육가정상담학과의 합격 가능성에 대한 정보를 잘 다루고 있습니다. 따라서 매우 관련성이 높습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 문법적으로 올바르며 읽기 쉽습니다. 다만, 일부 문장에서 약간의 어색함이 느껴질 수 있습니다.
+5. Coherence Score (1-5): 4
+   - 설명: 생성된 응답은 논리적으로 잘 구성되어 있으며, 각 요인이 어떻게 합격 가능성에 영향을 미치는지를 설명하고 있습니다. 그러나 아동학과와 보육가정상담학과의 혼동이 있을 수 있어 완전한 일관성은 부족합니다.
+6. Accuracy Score (1-5): 4
+   - 설명: 응답은 전반적으로 정확한 정보를 제공하고 있으나, 아동학과의 평균 등급에 대한 구체적인 수치가 누락되어 있어 약간의 정확성 부족이 있습니다.
+7. Multidimensional Quality Score (1-5): 4
+   - 설명: 생성된 응답은 여러 품질 차원에서 잘 수행되고 있으며, 특히 관련성과 유창성에서 높은 점수를 받습니다. 그러나 일관성과 정확성에서 약간의 부족함이 있습니다.
+8. Semantic Appropriateness Score (1-5): 4
+   - 설명: 생성된 응답은 질문의 맥락에 적절하게 의미를 전달하고 있으며, 보육가정상담학과에 대한 정보를 잘 반영하고 있습니다. 그러나 아동학과와의 혼동이 있을 수 있습니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 명확하고 이해하기 쉬우며, 정보가 잘 전달되고 있습니다. 다만, 일부 부분에서 혼동을 줄 수 있는 요소가 있어 완전한 이해를 방해할 수 있습니다.
+{
+    "Factuality Score": 4,
+    "Consistency Score": 3,
+    "Relevance Score": 5,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 4,
+    "Multidimensional Quality Score": 4,
+    "Semantic Appropriateness Score": 4,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C382" t="n">
+        <v>0.6433192901561382</v>
+      </c>
+      <c r="D382" t="inlineStr">
+        <is>
+          <t>정시 산출 등급이 5.33인데 동의대학교 보육가정상담학과에 합격할 수 있을까요?</t>
+        </is>
+      </c>
+      <c r="E382" t="inlineStr">
+        <is>
+          <t>5.33 등급을 가진 학생이 동의대학교 보육가정상담학과에 합격할 수 있는지는 여러 요인에 따라 달라집니다.
+1. **등급 기준**: 각 모집단위별로 정해진 등급 기준이 있습니다. 보육가정상담학과의 경우, 해당 년도의 기준을 확인해야 합니다.
+2. **전형 방식**: 동의대학교는 다양한 전형 방법을 사용합니다 (예: 수능 전형, 학생부 종합 평가 등). 각 전형방식에 따라 성적 기준이 달라질 수 있습니다.
+현재 제공된 정보만으로는 정확한 판단이 어렵습니다. 보육가정상담학과의 2024년도 모집요강을 확인하시거나, 동의대학교 입학처 웹사이트를 참조하여 최신 정보를 얻으시는 것이 좋겠습니다.
+더 자세한 정보를 원하신다면, https://ipsi. deu.ac.kr/main.do 를 방문해 보세요. 해당 사이트에서 가장 정확하고 최신의 정보를 얻을 수 있습니다.</t>
+        </is>
+      </c>
+      <c r="F382" t="inlineStr">
+        <is>
+          <t>24학년도 모집단위에서 보육가정상담학과에서 아동학과로 변경되었습니다. 아동학과에 대해서 대답을 해드리겠습니다.
+	아동학과의 최종등록자 데이터를 기준으로 보면, 아동학과의 영어 등급 평균은 6.33이고, 수능 4개 영역 등급 평균은 7.08입니다. 
+	따라서, 현재 정시 등급이 5.33라면 아동학과의 평균 등급보다 높은 성적을 가지고 있어 합격 가능성이 높습니다.
+	자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="383">
+      <c r="A383" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B383" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 4
+   - 생성된 응답은 충원 합격자 발표 및 등록 일정에 대한 정보와 예비 번호에 따른 합격 가능성에 대해 정확하게 언급하고 있습니다. 그러나 "합격 가능성을 높여줍니다"라는 표현은 다소 주관적이며, 예비 번호가 12번이라는 사실 외에 다른 요인들(경쟁률, 평균 점수 등)을 고려해야 한다는 점을 강조하고 있습니다. 이로 인해 약간의 주관성이 포함되어 있어 점수를 4로 평가합니다.
+2. Consistency Score (1-5): 4
+   - 생성된 응답은 원본 텍스트의 내용과 일관되며, 예비 번호에 따른 합격 가능성에 대한 설명이 잘 연결되어 있습니다. 그러나 "상대적으로 좋은 위치에 있을 수 있습니다"라는 표현은 다소 모호하여 일관성에 약간의 영향을 미칠 수 있습니다. 따라서 점수를 4로 평가합니다.
+3. Relevance Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 주요 주제와 관련이 깊으며, 예비 번호와 합격 가능성에 대한 정보를 직접적으로 다루고 있습니다. 따라서 점수를 5로 평가합니다.
+4. Fluency Score (1-5): 4
+   - 생성된 응답은 전반적으로 문법적으로 올바르며 읽기 쉽습니다. 그러나 일부 문장에서 약간의 어색함이 느껴질 수 있어 점수를 4로 평가합니다.
+5. Coherence Score (1-5): 4
+   - 생성된 응답은 논리적으로 잘 구성되어 있으며, 각 요인이 어떻게 합격 가능성에 영향을 미치는지를 명확하게 설명하고 있습니다. 그러나 일부 문장이 다소 복잡하게 느껴질 수 있어 점수를 4로 평가합니다.
+6. Accuracy Score (1-5): 4
+   - 생성된 응답은 원본 텍스트의 사실을 잘 반영하고 있으며, 예비 번호에 따른 합격 가능성에 대한 설명도 적절합니다. 그러나 "평균 점수보다 낮은 위치에 있을 수 있습니다"라는 부분은 다소 주관적일 수 있어 점수를 4로 평가합니다.
+7. Multidimensional Quality Score (1-5): 4
+   - 생성된 응답은 여러 품질 차원에서 잘 수행되고 있으며, 전반적으로 높은 점수를 받았습니다. 그러나 일부 주관적인 표현이 포함되어 있어 점수를 4로 평가합니다.
+8. Semantic Appropriateness Score (1-5): 4
+   - 생성된 응답은 원본 텍스트의 의미와 맥락에 잘 부합하며, 예비 번호에 따른 합격 가능성에 대한 설명이 적절합니다. 그러나 일부 표현이 다소 주관적일 수 있어 점수를 4로 평가합니다.
+9. Understandability Score (1-5): 4
+   - 생성된 응답은 전반적으로 명확하고 이해하기 쉬우나, 일부 문장이 복잡하게 느껴질 수 있어 점수를 4로 평가합니다.
+{
+    "Factuality Score": 4,
+    "Consistency Score": 4,
+    "Relevance Score": 5,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 4,
+    "Multidimensional Quality Score": 4,
+    "Semantic Appropriateness Score": 4,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C383" t="n">
+        <v>0.699569615317652</v>
+      </c>
+      <c r="D383" t="inlineStr">
+        <is>
+          <t>동의대 보육가정상담 충원 합격 3차에서 예비 12번 받았는데 합격 가능성 있을까요?</t>
+        </is>
+      </c>
+      <c r="E383" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대학교 보육가정상담 충원 합격 3차에서 예비 12번을 받으셨다면, 이는 합격 가능성을 높여줍니다. 하지만 최종 합격 여부는 여러 요인에 따라 결정되며, 경쟁률과 지원자의 평균 점수가 중요한 역할을 합니다.
+현재 제공된 정보만으로 판단하면 다음과 같은 점들을 고려해야 합니다:
+1. **경쟁률**: 충원 합격 3차의 경우 경쟁률이 낮아지므로, 예비 12번을 받으셨다면 상대적으로 좋은 위치에 있을 수 있습니다.
+2. **평균 점수**: 평균 점수가 높은 지원자들이 더 많은 기회를 얻는다는 점을 고려해야 합니다. 예비 12번을 받으셨다면, 평균 점수보다 낮은 위치에 있을 수 있습니다.
+3. **기타 요인**: 실기/실적(일반학생전형)의 경우 실기가 포함되므로, 실기 성적이 좋은 지원자들은 더 유리할 수 있습니다.
+따라서 예비 12번을 받으셨다면 합격 가능성은 높지만, 최종 합격 여부는 학교에서 발표하는 최종 결과를 기다려야 합니다. 입학 안내 홈페이지를 통해 최신 정보를 확인하시거나, 학교에 직접 문의하시는 것이 좋습니다.
+더 자세한 정보나 추가 질문이 있으시다면 알려주세요!</t>
+        </is>
+      </c>
+      <c r="F383" t="inlineStr">
+        <is>
+          <t>동의대학교의 충원 합격자 발표 및 등록 일정에 따르면, 충원 합격자 발표는 1차, 2차, 그리고 3차 이후로 나뉘어 진행됩니다. 3차 이후의 충원 합격자 발표는 2024년 2월 15일(목) 19:00부터 2024년 2월 20일(화) 18:00까지 개별 전화 통보로 이루어집니다.
+예비 12번을 받으셨다면, 앞선 예비 번호를 받은 지원자들이 등록을 포기하거나 다른 대학에 등록하는 경우, 합격 가능성이 있습니다. 충원 합격은 지원자들의 등록 포기 여부에 따라 달라지므로, 정확한 예측은 어렵습니다. 하지만 예비 번호가 12번이라면, 충원 합격 가능성이 아예 없는 것은 아닙니다.
+충원 합격자 발표 기간 동안 전화 통보를 기다리시고, 다른 대학의 등록 상황도 주시하시기 바랍니다. 간절한 마음이 잘 전달되어 좋은 결과가 있기를 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="384">
+      <c r="A384" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B384" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 2
+   - 생성된 응답은 유아교육학과에 지원할 수 있다고 언급하지만, 원본 텍스트에서는 4.75의 성적으로는 지원하기 어렵다고 명확히 설명하고 있습니다. 이로 인해 사실성이 낮아졌습니다.
+2. Consistency Score (1-5): 2
+   - 생성된 응답은 원본 텍스트와 상반된 정보를 제공합니다. 원본에서는 지원이 어렵다고 명시했으나, 생성된 응답에서는 가능하다고 하여 일관성이 결여되어 있습니다.
+3. Relevance Score (1-5): 4
+   - 생성된 응답은 유아교육학과에 대한 정보와 지원 전략을 다루고 있어 관련성이 높지만, 원본의 핵심 내용인 성적에 대한 지원 가능성에 대한 정보와는 다소 차이가 있습니다.
+4. Fluency Score (1-5): 4
+   - 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 구조를 가지고 있습니다. 다만, 일부 문장이 길어 가독성이 떨어질 수 있습니다.
+5. Coherence Score (1-5): 4
+   - 생성된 응답은 논리적으로 잘 구성되어 있으며, 각 요소가 잘 연결되어 있습니다. 그러나 원본과의 불일치로 인해 전체적인 일관성이 떨어질 수 있습니다.
+6. Accuracy Score (1-5): 2
+   - 생성된 응답은 원본 텍스트의 사실과 상충하는 내용을 포함하고 있어 정확성이 낮습니다. 특히 지원 가능성에 대한 정보가 잘못 전달되었습니다.
+7. Multidimensional Quality Score (1-5): 3
+   - 여러 차원에서 평균적인 성과를 보이지만, 사실성과 일관성에서 큰 문제가 있어 전반적인 품질이 떨어집니다.
+8. Semantic Appropriateness Score (1-5): 3
+   - 생성된 응답은 의미적으로 적절한 부분도 있지만, 원본의 맥락과는 다소 어긋나는 부분이 있어 적절성이 떨어집니다.
+9. Understandability Score (1-5): 4
+   - 전반적으로 이해하기 쉬운 내용이지만, 원본과의 불일치로 인해 혼란을 줄 수 있습니다.
+{
+    "Factuality Score": 2,
+    "Consistency Score": 2,
+    "Relevance Score": 4,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 2,
+    "Multidimensional Quality Score": 3,
+    "Semantic Appropriateness Score": 3,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C384" t="n">
+        <v>0.7575020305292014</v>
+      </c>
+      <c r="D384" t="inlineStr">
+        <is>
+          <t>정시 성적으로 4.75 나오는데 가능할까요? 그리고 유아교육학과는 이 성적으로 어렵겠죠?</t>
+        </is>
+      </c>
+      <c r="E384" t="inlineStr">
+        <is>
+          <t>4.75라는 성적을 가지고 정시로 유아교육학과에 지원하는 것은 가능하지만, 경쟁률이 매우 높기 때문에 어려울 수 있습니다.
+유아교육학과의 경우, 학생부종합전형에서 공동체역량, 학업역량, 전공적합성 등 다양한 영역을 평가합니다. 따라서 단순히 성적이 높다고 해서 유리한 것은 아닙니다. 성적 외에도 다음과 같은 요소들이 중요하게 작용할 수 있습니다:
+1. **공동체역량**: 학교생활기록부에서의 활동, 동아리 참여, 자원봉사 등.
+2. **학업역량**: 과목별 성적 외에 진로 탐색 활동, 창의적 체험활동 등.
+3. **전공적합성**: 지원하는 전공과 관련된 교내 활동, 특기사항 등.
+따라서 4.75라는 성적을 가지고 유아교육학과에 지원하려면, 학교생활기록부에서의 다양한 활동이 중요하게 작용할 수 있습니다. 특히 공동체역량 영역에서는 활발한 참여와 모범적인 행동이 인정받을 것입니다.
+추가적으로, 정시모집군 변경사항을 확인하여 유아교육학과에 해당하는 정시모집군이 어떤지 파악하고, 그에 따른 지원 전략을 세우는 것이 좋습니다. 필요하다면, 입학처나 학교 관계자에게 상담을 받는 것도 도움이 될 수 있습니다.
+더 자세한 정보를 얻기 위해서는 "https://ipsi.deu.ac.kr/main.do" 링크를 참조해 보시거나, 직접 입학처에 문의하시면 좋겠습니다.</t>
+        </is>
+      </c>
+      <c r="F384" t="inlineStr">
+        <is>
+          <t>정시 성적 4.75로 지원 가능한 학과를 알아보겠습니다. 제공된 데이터에서 최종등록자의 수능 4개 영역 등급 평균을 기준으로 분석해보겠습니다.
+### 지원 가능 학과
+- **국어국문학과**: 4.92 (평균)
+- **중어중국학과**: 5.68 (평균)
+- **일본학과**: 4.87 (평균)
+- **영어영문학과**: 5.16 (평균)
+- **문헌정보학과**: 4.82 (평균)
+- **평생교육·청소년상담학과**: 5.22 (평균)
+- **아동학과**: 7.08 (평균)
+- **금융경영학과**: 5.41 (평균)
+- **재무부동산학과**: 5.82 (평균)
+- **무역학과**: 5.18 (평균)
+- **유통물류학과**: 5.45 (평균)
+- **회계학과**: 4.99 (평균)
+- **국제관광경영학과**: 5.41 (평균)
+- **호텔·컨벤션경영학과**: 6.12 (평균)
+- **외식경영학과**: 4.91 (평균)
+- **의료경영학과**: 5.92 (평균)
+- **식품영양학과**: 5.92 (평균)
+- **기계공학과, 로봇자동화공학과, 자동차공학과**: 6.30 (평균)
+- **조선해양공학과**: 6.16 (평균)
+- **신소재공학과, 고분자나노공학과**: 5.78 (평균)
+- **환경공학과, 화학공학과, 응용화학과**: 5.73 (평균)
+- **의생명공학과, 바이오의약공학과, 식품공학과**: 5.41 (평균)
+- **인간공학과, 제품디자인공학과**: 5.72 (평균)
+- **산업경영빅데이터공학과**: 5.27 (평균)
+- **인공지능학과**: 5.25 (평균)
+- **전기공학과, 전자공학과**: 5.37 (평균)
+- **게임공학과**: 4.78 (평균)
+- **영화학과**: 5.04 (평균)
+### 유아교육학과
+유아교육학과의 경우, 최종등록자의 수능 4개 영역 등급 평균이 4.18로 나타나 있습니다. 따라서, 4.75의 성적으로는 유아교육학과에 지원하기 어려울 것으로 보입니다.
+추가적인 정보나 문의사항이 있으시면 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="385">
+      <c r="A385" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B385" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 2
+   - 생성된 응답은 보육가정상담학과의 일반학생전형에 대한 정보를 제공하고 있지만, 원본 텍스트에서 제시된 아동학과의 평균 등급과 관련된 정보는 포함되어 있지 않으며, 주어진 질문에 대한 직접적인 답변이 부족하다. 또한, 원본 텍스트의 핵심 정보가 누락되어 있다.
+2. Consistency Score (1-5): 2
+   - 생성된 응답은 원본 텍스트와 일관성이 부족하다. 원본 텍스트는 특정한 등급에 대한 합격 가능성을 언급하고 있지만, 생성된 응답은 일반적인 전형 정보에 초점을 맞추고 있어 원본의 내용과 상충된다.
+3. Relevance Score (1-5): 3
+   - 생성된 응답은 보육가정상담학과의 전형에 대한 정보를 제공하지만, 질문자가 원하는 합격 가능성에 대한 직접적인 답변이 부족하여 관련성이 떨어진다. 원본 텍스트의 핵심 주제와는 다소 거리가 있다.
+4. Fluency Score (1-5): 4
+   - 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 구조를 가지고 있다. 그러나 일부 문장은 다소 복잡하게 구성되어 있어 이해하기 어려울 수 있다.
+5. Coherence Score (1-5): 3
+   - 생성된 응답은 여러 주제를 다루고 있지만, 논리적인 흐름이 다소 부족하다. 원본 텍스트의 주제와 관련된 정보가 명확하게 연결되지 않아 일관성이 떨어진다.
+6. Accuracy Score (1-5): 2
+   - 생성된 응답은 원본 텍스트의 구체적인 사실을 반영하지 않으며, 질문에 대한 정확한 답변을 제공하지 않는다. 원본의 핵심 정보가 누락되어 있어 정확성이 낮다.
+7. Multidimensional Quality Score (1-5): 2
+   - 생성된 응답은 여러 품질 차원에서 낮은 점수를 받았다. 사실성, 일관성, 관련성, 정확성 모두 부족하여 전반적인 품질이 낮다.
+8. Semantic Appropriateness Score (1-5): 3
+   - 생성된 응답은 의미적으로 적절한 부분도 있지만, 원본 텍스트의 맥락과는 다소 동떨어진 내용이 포함되어 있어 의미의 일관성이 떨어진다.
+9. Understandability Score (1-5): 4
+   - 생성된 응답은 전반적으로 이해하기 쉬운 문장 구조를 가지고 있지만, 일부 내용이 복잡하게 표현되어 있어 완전한 이해를 방해할 수 있다.
+{
+    "Factuality Score": 2,
+    "Consistency Score": 2,
+    "Relevance Score": 3,
+    "Fluency Score": 4,
+    "Coherence Score": 3,
+    "Accuracy Score": 2,
+    "Multidimensional Quality Score": 2,
+    "Semantic Appropriateness Score": 3,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C385" t="n">
+        <v>0.5063848142742808</v>
+      </c>
+      <c r="D385" t="inlineStr">
+        <is>
+          <t>제가 동의대 정시 환산등급이 4.16인데 보육가정상담학과 일반학생전형으로 추합까지 생각해서 합격이 될까요?</t>
+        </is>
+      </c>
+      <c r="E385" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대학교 보육가정상담학과의 일반학생전형에 대한 정보를 제공하겠습니다.
+보육가정상담학과의 일반학생전형은 학생부종합 평가를 통해 선발되며, 주요 평가 영역은 공동체역량, 학업역량, 전공적합성입니다. 또한, 2024학년도에는 학생부 교과성적 반영방법이 변경되었는데, 이는 전반적으로 과목의 석차등급을 더 많이 반영하게 되었습니다.
+현재您的问题似乎是在询问关于东国大学保育·家庭咨询学专业的普通学生录取情况。根据您提供的信息，2024年东国大学保育·家庭咨询学专业采用综合评价的方式进行招生，并且主要评估领域包括：社会贡献能力、学业能力和专业适应性。
+此外，2024年的学生学业成绩评价方式也有所变化，更加注重各科目的等级排名。您目前的换算等第为4.16，这个成绩在一定程度上反映了您的学术水平和学习能力。
+为了更准确地判断您是否能够被录取，建议参考以下几点：
+1. **共同社会贡献能力**：这包括您的社团活动、志愿服务经历等。
+2. **学业能力**：根据您提供的换算等第4.16来看，这个成绩在一定程度上反映了您的学术水平。但具体还需要看各科目的等级排名是否符合学校的要求。
+3. **专业适应性**：这主要考察您对专业的兴趣和适合度。
+综合以上因素，如果您的共同社会贡献能力较强，并且学业能力和专业适应性也较好，那么被录取的可能性较大。但是最终能否被录取还需参考具体的招生标准和流程，请务必关注东国大学的官方通知或咨询相关部门以获取最准确的信息。
+如需更多信息，建议访问东国大学官网（https://ipsi. deu.ac.kr/main.do）查看最新的招生信息和要求。</t>
+        </is>
+      </c>
+      <c r="F385" t="inlineStr">
+        <is>
+          <t>보육가정상담학과의 최종등록자 데이터를 기준으로 보면, 아동학과의 영어 등급 평균은 6.33이고, 수능 4개 영역 등급 평균은 7.08입니다. 
+따라서, 현재 정시 등급이 4.16라면 아동학과의 평균 등급보다 높은 성적을 가지고 있어 합격 가능성이 높습니다. 즉, 추가합격까지 생각해서 합격할 가능성이 높습니다.
+자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="386">
+      <c r="A386" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B386" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 1
+   - 설명: 생성된 응답은 소프트웨어융합학과에 대한 잘못된 정보를 포함하고 있습니다. 원문에서는 소프트웨어융합학과가 정시로 지원할 수 없다고 명확히 언급하고 있지만, 생성된 응답은 소프트웨어공학부에 대한 지원 조건을 설명하고 있어 사실과 다릅니다.
+2. Consistency Score (1-5): 1
+   - 설명: 생성된 응답은 원문과 상충되는 정보를 제공합니다. 원문은 소프트웨어융합학과에 대한 지원 불가를 명시하고 있으나, 생성된 응답은 정시 지원이 가능하다는 내용을 담고 있어 일관성이 없습니다.
+3. Relevance Score (1-5): 1
+   - 설명: 생성된 응답은 원문과 관련이 없습니다. 원문이 소프트웨어융합학과의 정시 지원 불가에 대한 질문에 대한 답변인 반면, 생성된 응답은 소프트웨어공학부에 대한 지원 조건을 설명하고 있어 주제와 관련이 없습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 문법적으로 잘 작성되어 있으며, 읽기에도 무리가 없습니다. 그러나 내용의 정확성과 관련성 부족으로 인해 전체적인 품질이 저하됩니다.
+5. Coherence Score (1-5): 3
+   - 설명: 생성된 응답은 내부적으로는 일관된 구조를 가지고 있지만, 원문과의 관계가 명확하지 않아 전체적인 일관성이 떨어집니다.
+6. Accuracy Score (1-5): 1
+   - 설명: 생성된 응답은 사실과 다르며, 소프트웨어융합학과에 대한 잘못된 정보를 포함하고 있습니다. 원문과의 비교에서 심각한 부정확성을 보입니다.
+7. Multidimensional Quality Score (1-5): 1
+   - 설명: 생성된 응답은 사실성, 일관성, 관련성, 정확성 등 모든 차원에서 낮은 점수를 받습니다. 전반적으로 원문과의 관계가 매우 부적절합니다.
+8. Semantic Appropriateness Score (1-5): 1
+   - 설명: 생성된 응답은 원문의 의미와 맥락에 맞지 않으며, 잘못된 정보를 전달하고 있습니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 문법적으로는 명확하고 이해하기 쉬운 구조를 가지고 있지만, 내용의 부정확성으로 인해 전체적인 이해에 혼란을 줄 수 있습니다.
+{
+    "Factuality Score": 1,
+    "Consistency Score": 1,
+    "Relevance Score": 1,
+    "Fluency Score": 4,
+    "Coherence Score": 3,
+    "Accuracy Score": 1,
+    "Multidimensional Quality Score": 1,
+    "Semantic Appropriateness Score": 1,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C386" t="n">
+        <v>0.4595738891543919</v>
+      </c>
+      <c r="D386" t="inlineStr">
+        <is>
+          <t>소프트웨어융합학과 정시로 들어갈 수 있나요? 된다면 평균 몇 등급정도 받아야 하나요?</t>
+        </is>
+      </c>
+      <c r="E386" t="inlineStr">
+        <is>
+          <t>2024학년도에 소프트웨어공학부를 정시로 지원하려는 경우, 지원 자격은 고교 졸업(예정)자 또는 법령에 의한 동등 학력 소지자로서 만 30세 이상인 자입니다. 평균 등급을 보면, 국어+수학+탐구(2개) (가산점 포함) 표준 변환 점수 합의 평균은 317.87이며, 영어 등급의 평균은 3.77입니다.
+따라서 소프트웨어공학부를 정시로 지원하려면 다음과 같은 조건을 충족해야 합니다:
+- 고교 졸업(예정)자 또는 법령에 의한 동등 학력 소지자로서 만 30세 이상인 자
+- 국어+수학+탐구(2개) (가산점 포함) 표준 변환 점수 합의 평균은 317.87 이상을 받아야 합니다.
+- 영어 등급의 평균은 3.77 이상을 받아야 합니다.
+이러한 조건을 충족하면 소프트웨어공학부를 정시로 지원할 수 있습니다. 그러나 경쟁률이 높기 때문에, 더 높은 점수와 등급을 받는 것이 유리할 것입니다. 자세한 정보는 https://ipsi. deu.ac.kr/main.do 웹사이트에서 확인해 보세요.</t>
+        </is>
+      </c>
+      <c r="F386" t="inlineStr">
+        <is>
+          <t>아니요. 소프트웨어융합학과는 정시로 지원할 수 없습니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="387">
+      <c r="A387" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B387" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 3
+   - 설명: 생성된 응답은 서류 평가와 면접 평가의 비율에 대한 구체적인 정보를 제공하지만, 원본 텍스트에서 명시된 서류 평가의 구체적인 요소(공동체 역량, 학업 역량, 전공 적합성)에 대한 언급이 부족합니다. 또한, "따로 준비해야 하는 서류는 없습니다"라는 부분은 원본 텍스트의 내용과 일치하지 않으며, 원본에서는 준비해야 하는 서류에 대한 정보가 제공됩니다.
+2. Consistency Score (1-5): 3
+   - 설명: 생성된 응답은 원본 텍스트의 일부 내용을 반영하고 있지만, 서류 평가의 비율과 관련된 정보는 원본 텍스트와 일치하지 않습니다. 원본 텍스트는 서류 평가와 면접 고사를 합쳐서 평가한다고 명시하고 있으나, 생성된 응답은 비율을 제시하여 혼란을 초래합니다.
+3. Relevance Score (1-5): 4
+   - 설명: 생성된 응답은 소프트웨어융합학과의 평가 방식에 대한 질문에 잘 대응하고 있으며, 관련된 정보를 제공하고 있습니다. 그러나 원본 텍스트의 특정 세부 사항을 놓치고 있어 완전한 관련성을 갖추지 못했습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 구조를 가지고 있습니다. 다만, 일부 문장이 다소 길어 가독성이 떨어질 수 있습니다.
+5. Coherence Score (1-5): 4
+   - 설명: 생성된 응답은 논리적으로 잘 구성되어 있으며, 각 문단이 주제를 잘 연결하고 있습니다. 그러나 원본 텍스트와의 일관성이 부족하여 완전한 일관성을 보이지는 않습니다.
+6. Accuracy Score (1-5): 3
+   - 설명: 생성된 응답은 일부 정확한 정보를 포함하고 있지만, 원본 텍스트의 세부 사항을 정확히 반영하지 못하고 있습니다. 특히, 서류 평가의 비율과 관련된 정보는 원본과 다릅니다.
+7. Multidimensional Quality Score (1-5): 3
+   - 설명: 생성된 응답은 여러 차원에서 평균적인 품질을 보이고 있으나, 사실성과 일관성에서 부족함이 있어 전반적인 품질이 떨어집니다.
+8. Semantic Appropriateness Score (1-5): 4
+   - 설명: 생성된 응답은 원본 텍스트의 의미와 맥락에 적절하게 부합하고 있습니다. 그러나 일부 세부 사항에서 원본과의 차이가 있어 완전한 적합성을 보이지는 않습니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 이해하기 쉽고 명확하게 작성되었습니다. 그러나 일부 문장이 길어질 경우 이해하기 어려울 수 있습니다.
+{
+    "Factuality Score": 3,
+    "Consistency Score": 3,
+    "Relevance Score": 4,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 3,
+    "Multidimensional Quality Score": 3,
+    "Semantic Appropriateness Score": 4,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C387" t="n">
+        <v>0.6896632847116972</v>
+      </c>
+      <c r="D387" t="inlineStr">
+        <is>
+          <t>소프트웨어 융합과 면접 점수보다 세특 내용을 많이 보시나요? 따로 준비해야하는 서류 존재하나요?</t>
+        </is>
+      </c>
+      <c r="E387" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 소프트웨어융합학과의 경우, 서류평가와 면접평가의 비율이 각각 60%와 40%입니다. 따라서 서류 평가에서의 내용이 더 중요하게 작용할 것입니다.
+서류 평가에서는 학업역량과 전공적합성에 중점을 둘 필요가 있습니다. 특히, 창의적 체험활동, 동아리 활동, 진로활동 등에서 소프트웨어 관련 경험을 강조해야 합니다. 또한, 지원동기와 학업계획, 학업역량 및 전공적합성에 대한 공통문항 답변에서도 소프트웨어 분야의 지식과 이해를 보여주어야 합니다.
+면접에서는 면접평가 질문 공통문항을 참고하여 준비해야 합니다. 지원동기와 학업계획, 고교(직장) 생활 중 학업에 대한 어려움과 해결하기 위한 노력, 본인이 의미를 두고 노력했던 소프트웨어 관련 교내 활동 등을 강조할 수 있습니다.
+따로 준비해야 하는 서류는 없습니다. 제출된 서류가 진실성을 유지하고, 지원자의 능력과 적합성을 잘 보여주도록 작성하면 됩니다.</t>
+        </is>
+      </c>
+      <c r="F387" t="inlineStr">
+        <is>
+          <t>소프트웨어융합학과는 서류 평가(공동체 역량, 학업 역량, 전공 적합성)과 면접 고사(400점 만점), 
+	학생부 교과성적을 합쳐서 평가합니다. 
+	준비해야하는 서류와 자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="388">
+      <c r="A388" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B388" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 2
+   - 설명: 생성된 응답은 동의대학교 소프트웨어공학부의 최초합격자 평균 점수(4.12)와 비교하여 4.08이 낮은 점수라고 언급하고 있으나, 실제로는 4.08이 평균 점수보다 약간 높은 수준이라고 명시된 원문과 상충합니다. 또한, 평균 점수와 관련된 수치(330.11)는 원문에 포함되어 있지 않으며, 이는 잘못된 정보입니다.
+2. Consistency Score (1-5): 2
+   - 설명: 생성된 응답은 원문에서 제시된 정보와 일관되지 않습니다. 원문에서는 4.08이 최초합격자의 평균 등급과 비교적 근접하다고 언급했으나, 생성된 응답에서는 이를 반대로 해석하고 있습니다. 또한, 경쟁률과 관련된 수치(4.87)도 원문에 언급되지 않아 일관성이 떨어집니다.
+3. Relevance Score (1-5): 4
+   - 설명: 생성된 응답은 원문에서 다루고 있는 주제와 관련이 있지만, 원문에서 제공된 정보와는 다소 다른 방향으로 전개되고 있습니다. 그러나 여전히 합격 가능성에 대한 논의는 관련성이 있습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 구조를 가지고 있습니다. 다만, 일부 문장이 다소 복잡하게 구성되어 있어 약간의 가독성 저하가 있을 수 있습니다.
+5. Coherence Score (1-5): 3
+   - 설명: 생성된 응답은 여러 요인을 나열하고 있지만, 각 요인 간의 연결이 매끄럽지 않아 전체적인 일관성이 떨어집니다. 정보가 분산되어 있어 독자가 이해하기 어려울 수 있습니다.
+6. Accuracy Score (1-5): 2
+   - 설명: 생성된 응답은 원문에서 제공된 사실과 여러 가지로 상충하는 정보를 포함하고 있습니다. 특히, 평균 점수와 관련된 잘못된 수치가 포함되어 있어 정확성이 낮습니다.
+7. Multidimensional Quality Score (1-5): 2
+   - 설명: 생성된 응답은 사실성, 일관성, 정확성에서 낮은 점수를 받았으며, 전반적으로 원문과의 관계에서 부정확한 정보를 포함하고 있습니다. 따라서 다차원적인 품질이 낮습니다.
+8. Semantic Appropriateness Score (1-5): 3
+   - 설명: 생성된 응답은 원문과 관련된 주제를 다루고 있지만, 일부 정보가 잘못되거나 왜곡되어 있어 의미적으로 적절하지 않은 부분이 있습니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 이해하기 쉬운 구조를 가지고 있으나, 일부 정보의 왜곡으로 인해 혼란을 줄 수 있는 요소가 있습니다.
+{
+    "Factuality Score": 2,
+    "Consistency Score": 2,
+    "Relevance Score": 4,
+    "Fluency Score": 4,
+    "Coherence Score": 3,
+    "Accuracy Score": 2,
+    "Multidimensional Quality Score": 2,
+    "Semantic Appropriateness Score": 3,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C388" t="n">
+        <v>0.7392345293486197</v>
+      </c>
+      <c r="D388" t="inlineStr">
+        <is>
+          <t>정시 성적이 4.08인데 동의대학교 소프트웨어공학부  최초합격자로 가능할까요?</t>
+        </is>
+      </c>
+      <c r="E388" t="inlineStr">
+        <is>
+          <t>4.08이라는 점수는 동의대학교 소프트웨어공학부의 최초합격자 평균 점수(330.11)와 비교하면 상당히 낮은 점수입니다. 그러나 정시 합격 가능성은 여러 요인에 따라 달라질 수 있습니다.
+1. **경쟁률**: 4.87이라는 경쟁률을 고려할 때, 평균점수가 높은 지원자들이 많이 있어 낮은 점수라도 충원합격(후보순위)에 포함될 가능성이 있습니다.
+2. **지원 인원과 모집인원**: 지원 인원이 146명이고 모집인원이 30명이라는 점을 고려하면, 경쟁률은 높지만 충원합격(후보순위)에 포함될 가능성이 있습니다.
+3. **개별 평가 요소**: 서류평가와 면접평가에서 좋은 성적을 받으면 합격 가능성은 높아질 수 있습니다.
+따라서, 4.08이라는 점수로는 최초합격자로 선발될 확률이 낮지만, 충원합격(후보순위)에 포함될 가능성이 있습니다. 정확한 합격 가능성은 입학사정관의 평가 결과와 지원자의 전체적인 경쟁력을 고려해야 합니다.
+추천되는 조치는:
+- **자기소개서 및 서류평가 영역 강화**: 공동체역량, 학업역량, 전공적합성 등 서류평가 영역에서 좋은 점수를 받도록 노력하세요.
+- **면접 준비**: 면접 평가 기준에 맞춰 지원동기와 학업계획을 명확하게 준비하고, 전공적합성을 잘 설명할 수 있도록 합니다.
+더 자세한 정보는 https://ipsi. deu. ac. kr/main. do를 참조하시거나 입학처에 문의하시는 것이 좋습니다.</t>
+        </is>
+      </c>
+      <c r="F388" t="inlineStr">
+        <is>
+          <t>동의대학교 소프트웨어공학부의 2024학년도 수능(일반학생전형) 최초합격자의 수능 4개 영역 등급 평균은 4.12입니다. 따라서, 4.08의 성적은 최초합격자의 평균 등급보다 약간 높은 수준입니다. 
+	최초합격자의 평균 등급과 비교적 근접한 성적이므로, 최초합격 가능성은 있지만 확실하지는 않습니다. 추가적인 요소나 경쟁률에 따라 결과가 달라질 수 있습니다. 
+	정확한 정보는 동의대학교 입학처에 문의하는 것이 좋습니다. 추가적인 문의는 "https://ipsi.deu.ac.kr/main.do"에서 확인할 수 있습니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="389">
+      <c r="A389" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B389" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 2
+   - 생성된 응답은 소프트웨어융합학과의 정시 모집에 대한 구체적인 합격 등급 정보를 제공하지 않으며, 제공된 정보와는 다른 세부사항(지원 인원, 경쟁률 등)을 포함하고 있습니다. 이는 원본 텍스트와의 일치성이 떨어집니다.
+2. Consistency Score (1-5): 2
+   - 생성된 응답은 원본 텍스트의 내용과 일치하지 않는 정보(예: 지원 인원, 경쟁률 등)를 포함하고 있어 일관성이 부족합니다. 원본 텍스트는 합격 등급 정보가 없다고 명시하고 있지만, 생성된 응답은 구체적인 수치를 제시하고 있습니다.
+3. Relevance Score (1-5): 3
+   - 생성된 응답은 원본 텍스트의 주제와 관련이 있지만, 제공된 정보가 원본 텍스트의 핵심 내용과는 다소 동떨어져 있습니다. 원본 텍스트는 합격 등급 정보의 부재를 강조하고 있으나, 생성된 응답은 구체적인 수치를 제시하여 주제를 벗어났습니다.
+4. Fluency Score (1-5): 4
+   - 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 구조를 가지고 있습니다. 그러나 일부 문장은 다소 복잡하게 구성되어 있어 약간의 가독성 저하가 있을 수 있습니다.
+5. Coherence Score (1-5): 3
+   - 생성된 응답은 정보가 나열되어 있지만, 논리적인 흐름이 다소 부족합니다. 특히, 원본 텍스트의 핵심 메시지와의 연결이 약해 보입니다.
+6. Accuracy Score (1-5): 2
+   - 생성된 응답은 원본 텍스트의 사실과 일치하지 않는 정보(예: 경쟁률, 충원 합격자 수 등)를 포함하고 있어 정확성이 떨어집니다.
+7. Multidimensional Quality Score (1-5): 2
+   - 전반적으로 생성된 응답은 사실성, 일관성, 정확성에서 낮은 점수를 받고 있으며, 이로 인해 다차원적인 품질이 낮습니다.
+8. Semantic Appropriateness Score (1-5): 3
+   - 생성된 응답은 원본 텍스트의 의미와 다소 일치하지만, 제공된 정보가 원본의 맥락과는 다르게 해석될 수 있어 의미적으로 적절성이 떨어집니다.
+9. Understandability Score (1-5): 4
+   - 생성된 응답은 전반적으로 이해하기 쉬운 구조를 가지고 있으나, 일부 정보가 원본 텍스트와의 연결이 약해 이해하는 데 혼란을 줄 수 있습니다.
+{
+    "Factuality Score": 2,
+    "Consistency Score": 2,
+    "Relevance Score": 3,
+    "Fluency Score": 4,
+    "Coherence Score": 3,
+    "Accuracy Score": 2,
+    "Multidimensional Quality Score": 2,
+    "Semantic Appropriateness Score": 3,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C389" t="n">
+        <v>0.6594209420627576</v>
+      </c>
+      <c r="D389" t="inlineStr">
+        <is>
+          <t>소프트웨어융합학과 정시 평균 5등급으로 여기 올 수 있나요?</t>
+        </is>
+      </c>
+      <c r="E389" t="inlineStr">
+        <is>
+          <t>2024학년도에 소프트웨어공학부(소프트웨어융합학과)의 경우, 지원 인원이 146명이고 경쟁률이 4.87이며, 충원 합격자는 63명입니다. 평균적으로 국어+수학+탐구(2개) (가산점 포함) 표준 변환 점수 합의 평균은 317.87이고, 영어 등급의 평균은 3.77이며, 수능 4개 영역 등급의 평균은 4.49입니다.
+이러한 정보를 바탕으로, 정시 모집에서 평균 5등급으로 여기는 것은 경쟁률과 충원 합격자 수에 비해 상대적으로 낮은 점수일 것입니다. 그러나 이는 단순히 평균을 기준으로 판단하는 것이 아니라, 지원자의 전체 성적 분포와 모집 인원 등을 고려해야 합니다.
+따라서, 정시 모집에서 5등급으로 여기는 것은 가능하지만, 실제 경쟁률과 충원 합격자 수를 고려할 때 상대적으로 낮은 점수일 것입니다. 더 자세한 정보를 얻기 위해서는 해당 대학의 입학처 웹사이트나 전문가와 상담하는 것이 좋습니다.
+더 궁금하신 사항이 있으시면 https://ipsi. deu. ac. kr/main. do 를 참조하시거나, 직접 입학처에 문의해보세요.</t>
+        </is>
+      </c>
+      <c r="F389" t="inlineStr">
+        <is>
+          <t>소프트웨어융합학과의 정시 모집에 대한 구체적인 합격 등급 정보는 제공된 Context에 포함되어 있지 않습니다. 소프트웨어융합학과는 나군 학생부종합(조기취업형계약학과전형)으로도 모집하며, 이 경우 서류 60%와 면접 40%의 비율로 전형요소를 반영합니다.
+정확한 합격 가능성을 확인하기 위해서는 해당 학과의 최근 합격자 평균 등급이나 입시 결과를 참고해야 합니다. 이러한 정보는 대학의 입학처 홈페이지나 모집요강에서 확인할 수 있습니다. 추가적인 정보가 필요하다면 "https://ipsi.deu.ac.kr/main.do"를 방문하여 문의하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="390">
+      <c r="A390" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B390" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 2
+   - 설명: 생성된 응답은 원본 텍스트의 정보와 상충하는 내용을 포함하고 있습니다. 원본에서는 4.28이라는 점수가 신소재공학과의 평균 등급보다 높다고 판단되며 합격 가능성이 높다고 언급하고 있지만, 생성된 응답에서는 합격하기 어려울 가능성이 높다고 주장하고 있습니다.
+2. Consistency Score (1-5): 2
+   - 설명: 생성된 응답은 원본 텍스트와 일관성이 없습니다. 원본에서는 합격 가능성이 높다고 했으나, 생성된 응답에서는 반대로 합격이 어려울 것이라고 하여 서로 모순된 정보를 제공합니다.
+3. Relevance Score (1-5): 4
+   - 설명: 생성된 응답은 원본 텍스트의 주제와 관련이 있지만, 원본의 결론과는 다르게 해석하고 있습니다. 경쟁률과 충원 합격 점수에 대한 추가 정보를 제공하여 관련성을 높이고 있으나, 원본의 핵심 메시지와는 다릅니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 문장 구조를 가지고 있습니다. 다만, 일부 문장에서 약간의 어색함이 느껴질 수 있습니다.
+5. Coherence Score (1-5): 4
+   - 설명: 생성된 응답은 논리적으로 잘 구성되어 있으며, 각 문장이 자연스럽게 이어집니다. 그러나 원본과의 불일치로 인해 전체적인 일관성이 떨어질 수 있습니다.
+6. Accuracy Score (1-5): 2
+   - 설명: 생성된 응답은 원본 텍스트의 사실과 상충하는 내용을 포함하고 있어 정확성이 낮습니다. 원본의 데이터와 결론을 잘못 해석하고 있습니다.
+7. Multidimensional Quality Score (1-5): 2
+   - 설명: 생성된 응답은 여러 차원에서 원본 텍스트와의 불일치가 많아 전반적인 품질이 낮습니다. 사실성, 일관성, 정확성에서 모두 낮은 점수를 받았습니다.
+8. Semantic Appropriateness Score (1-5): 3
+   - 설명: 생성된 응답은 원본의 의미와 다르게 해석하고 있어 의미적으로 적절하지 않은 부분이 있습니다. 그러나 일부 정보는 여전히 관련성이 있습니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 이해하기 쉬운 문장으로 구성되어 있습니다. 그러나 원본과의 불일치로 인해 혼란을 줄 수 있습니다.
+{
+    "Factuality Score": 2,
+    "Consistency Score": 2,
+    "Relevance Score": 4,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 2,
+    "Multidimensional Quality Score": 2,
+    "Semantic Appropriateness Score": 3,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C390" t="n">
+        <v>0.6110298268520601</v>
+      </c>
+      <c r="D390" t="inlineStr">
+        <is>
+          <t>정시 성적이 4.28인데 동의대학교 신소재 공학부에 합격할 수 있을까요?</t>
+        </is>
+      </c>
+      <c r="E390" t="inlineStr">
+        <is>
+          <t>4.28이라는 점수는 평균적인 경쟁률과 충원 합격 점수를 고려할 때, 동의대학교 신소재공학과에 합격하기에는 어려울 가능성이 높습니다.
+신소재공학과의 경우:
+- 모집 인원: 20명
+- 지원 인원: 146명
+- 경쟁률: 약 7.3 (146/20)
+- 충원 합격 점수: 평균적으로 4.58 이상이었음
+현재의 점수인 4.28은 이보다 낮으므로, 충분한 경쟁력을 갖추지 못하고 있습니다.
+하지만, 다른 전공이나 대학을 고려해보는 것도 좋은 방법일 수 있습니다. 각 전공별 모집 인원과 지원 인원, 경쟁률 등을 다시 확인하여 적합한 학과를 선택하는 것이 좋습니다. 필요하다면, 동의대학교의 입학처나 관련 홈페이지 (https://ipsi. deu.ac.kr/main.do)에서 자세한 정보를 얻어보시는 것도 도움이 될 것입니다.</t>
+        </is>
+      </c>
+      <c r="F390" t="inlineStr">
+        <is>
+          <t>정확한 답변을 위해서는 더 많은 정보가 필요하지만, 제공된 데이터를 바탕으로 대략적인 판단을 할 수 있습니다.
+### 신소재공학과, 분자나노공학과 (공과대학) - 2024학년도
+- **최초합격자 평균 수능 4개 영역 등급**: 5.32
+- **최종등록자 평균 수능 4개 영역 등급**: 5.78
+### 귀하의 성적
+- **수능 4개 영역 등급**: 4.28
+귀하의 성적이 신소재공학과의 최초합격자와 최종등록자의 평균 등급보다 높습니다. 따라서, 동의대학교 신소재공학과에 합격할 가능성이 높다고 판단됩니다. 
+자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="391">
+      <c r="A391" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B391" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 4
+   - 설명: 생성된 응답은 수능 일반학생전형에 자기소개서가 필요 없다는 사실을 정확하게 반영하고 있습니다. 그러나 추가적인 정보(서류 제출 대상, 전형 요소 반영 비율 등)는 원본 텍스트에 포함되어 있지 않으므로, 약간의 과도한 정보가 포함되어 있습니다.
+2. Consistency Score (1-5): 4
+   - 설명: 생성된 응답은 원본 텍스트와 일관되게 자기소개서가 필요 없다는 내용을 전달하고 있습니다. 다만, 추가적인 설명이 포함되어 있어 약간의 일관성 저하가 있을 수 있습니다.
+3. Relevance Score (1-5): 5
+   - 설명: 생성된 응답은 원본 텍스트의 주제와 관련이 깊으며, 자기소개서의 필요성에 대한 질문에 직접적으로 답변하고 있습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 문장으로 구성되어 있습니다. 그러나 약간의 어색한 표현이 있을 수 있습니다.
+5. Coherence Score (1-5): 4
+   - 설명: 생성된 응답은 논리적으로 잘 구성되어 있으며, 각 문장이 자연스럽게 연결되어 있습니다. 그러나 추가적인 정보가 포함되어 있어 약간의 흐름이 방해받을 수 있습니다.
+6. Accuracy Score (1-5): 4
+   - 설명: 생성된 응답은 수능 일반학생전형에 대한 정확한 정보를 제공하고 있지만, 원본 텍스트에 없는 추가적인 정보가 포함되어 있어 완전한 정확성은 다소 떨어질 수 있습니다.
+7. Multidimensional Quality Score (1-5): 4
+   - 설명: 생성된 응답은 여러 품질 차원에서 잘 수행되고 있으며, 전반적으로 높은 점수를 받을 수 있습니다. 그러나 일부 과도한 정보로 인해 점수가 약간 낮아졌습니다.
+8. Semantic Appropriateness Score (1-5): 4
+   - 설명: 생성된 응답은 원본 텍스트의 의미와 맥락에 잘 부합하지만, 추가적인 정보가 포함되어 있어 약간의 의미적 일관성이 떨어질 수 있습니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 이해하기 쉽고 명확하게 작성되어 있습니다. 그러나 추가적인 정보가 다소 혼란을 줄 수 있습니다.
+{
+    "Factuality Score": 4,
+    "Consistency Score": 4,
+    "Relevance Score": 5,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 4,
+    "Multidimensional Quality Score": 4,
+    "Semantic Appropriateness Score": 4,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C391" t="n">
+        <v>0.7018582008011104</v>
+      </c>
+      <c r="D391" t="inlineStr">
+        <is>
+          <t>수능 일반학생전형으로 넣으려고 하는데 자기소개서 써야하나요?</t>
+        </is>
+      </c>
+      <c r="E391" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 수능 일반학생전형에서는 자기소개서가 필요하지 않습니다. 서류 제출 대상이 없는 경우 자기소개서는 필요하지 않으며, 전형 요소 반영 비율은 수능 100%로 실기 절차가 없으므로 자기소개서 작성은 불필요합니다.
+만약 다른 전형(예: 학생부종합전형 등)에 지원하는 경우 자기소개서가 필요할 수 있으니 해당 전형의 요구사항을 확인해주세요.</t>
+        </is>
+      </c>
+      <c r="F391" t="inlineStr">
+        <is>
+          <t>아니요. 수능 일반학생전형은 자기소개서가 필요없습니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="392">
+      <c r="A392" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B392" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 4
+   - 생성된 응답은 수능 4.5 점수에 대한 합격 가능성을 여러 요인에 따라 설명하고 있으며, 원본 텍스트의 내용과 대체로 일치합니다. 그러나 원본 텍스트에서 언급된 평균 등급과 표준 편차에 대한 구체적인 정보는 포함되어 있지 않아 약간의 정보 누락이 있습니다.
+2. Consistency Score (1-5): 4
+   - 생성된 응답은 원본 텍스트의 내용과 일관되며, 추가 모집에 대한 정보와 관련된 요인들을 잘 설명하고 있습니다. 다만, 원본 텍스트의 특정 세부사항을 생략한 점에서 약간의 일관성 부족이 있습니다.
+3. Relevance Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 주제와 관련이 깊으며, 수능 점수와 추가 모집에 대한 질문에 직접적으로 답변하고 있습니다.
+4. Fluency Score (1-5): 5
+   - 생성된 응답은 문법적으로 정확하고 자연스럽게 읽히며, 문장 구조도 잘 구성되어 있습니다.
+5. Coherence Score (1-5): 5
+   - 생성된 응답은 논리적으로 잘 구성되어 있으며, 각 요인이 어떻게 추가 모집에 영향을 미치는지를 명확하게 설명하고 있습니다.
+6. Accuracy Score (1-5): 4
+   - 생성된 응답은 전반적으로 정확하지만, 원본 텍스트의 구체적인 수치나 데이터에 대한 언급이 부족하여 약간의 정확성 결여가 있습니다.
+7. Multidimensional Quality Score (1-5): 4
+   - 생성된 응답은 여러 품질 차원에서 잘 수행하고 있지만, 일부 세부사항의 누락으로 인해 완벽하지는 않습니다.
+8. Semantic Appropriateness Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 의미와 맥락에 잘 부합하며, 적절한 의미를 전달하고 있습니다.
+9. Understandability Score (1-5): 5
+   - 생성된 응답은 명확하고 이해하기 쉬우며, 독자가 쉽게 따라갈 수 있도록 잘 설명되어 있습니다.
+{
+    "Factuality Score": 4,
+    "Consistency Score": 4,
+    "Relevance Score": 5,
+    "Fluency Score": 5,
+    "Coherence Score": 5,
+    "Accuracy Score": 4,
+    "Multidimensional Quality Score": 4,
+    "Semantic Appropriateness Score": 5,
+    "Understandability Score": 5
+}</t>
+        </is>
+      </c>
+      <c r="C392" t="n">
+        <v>0.6214822192495627</v>
+      </c>
+      <c r="D392" t="inlineStr">
+        <is>
+          <t>동의대 수능 정시 산출로 4.5나왔는데 추가모집이든 해서 들어갈수 있을까요?</t>
+        </is>
+      </c>
+      <c r="E392" t="inlineStr">
+        <is>
+          <t>4.5라는 점수는 상당히 높은 점수입니다. 하지만 추가모집에 들어갈 수 있는지 여부는 여러 요인에 따라 달라질 수 있습니다.
+1. **경쟁률**: 각 모집단위의 경쟁률이 매우 중요합니다. 경쟁률이 높을 경우, 4.5라는 점수로 충원될 가능성은 낮습니다.
+2. **모집인원 및 지원인원**: 모집인원과 지원인원의 비율도 중요한 요소입니다. 예를 들어, 모집인원이 10명이고 지원인원이 80명이라면 경쟁률이 매우 높아서 4.5로 충원될 가능성은 낮습니다.
+3. **모집단위 특성**: 각 모집단위의 특성과 전형방법도 중요합니다. 예를 들어, 특정 단과대학이나 모집단위가 경쟁률이 높고 지원자가 많은 경우, 4.5로 충원될 가능성은 낮을 수 있습니다.
+따라서, 4.5라는 점수로 추가모집에 들어갈 수 있는지 여부는 각 단과대학 및 모집단위의 특성과 경쟁률 등 여러 요인에 따라 달라질 수 있습니다. 정확한 정보를 얻기 위해서는 동의대학교의 공식 웹사이트나 입학처와 직접 문의하는 것이 가장 좋습니다.
+더 자세한 정보를 얻고 싶으시다면, [https://ipsi. deu. ac. kr/main. do](https://ipsi.deu.ac.kr/main.do) 링크를 참조해보세요.</t>
+        </is>
+      </c>
+      <c r="F392" t="inlineStr">
+        <is>
+          <t>동의대학교의 수능 정시 모집에서 합격 가능성을 평가하기 위해서는 각 학과의 평균 등급과 표준 편차를 참고하는 것이 중요합니다. 제공된 데이터에 따르면, 각 학과의 수능 4개 영역 등급 평균과 표준 편차가 나와 있습니다. 
+예를 들어, 인문사회과학대학의 국어국문학과의 경우, 최초 합격자의 수능 4개 영역 등급 평균은 4.65이고, 최종 등록자의 경우 4.92입니다. 
+따라서, 수능 4개 영역 등급이 4.5라면, 일부 학과에서는 합격 가능성이 있을 수 있습니다. 그러나, 각 학과마다 요구하는 등급이 다르므로, 지원하고자 하는 학과의 평균 등급과 비교해보는 것이 중요합니다.
+추가 모집의 경우, 경쟁률이 낮아질 수 있으므로 합격 가능성이 높아질 수 있습니다. 하지만, 추가 모집에 대한 정보는 학교의 공식 홈페이지나 입학처에 문의하는 것이 가장 정확합니다.
+자세한 사항은 동의대학교 입학처에 문의하시기 바랍니다. 추가 정보는 "https://ipsi.deu.ac.kr/main.do"에서 확인할 수 있습니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="393">
+      <c r="A393" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B393" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 2
+   - 생성된 응답은 신소재공학부의 정시 모집군에 대한 정보가 없다고 언급하고 있지만, 원본 텍스트는 신소재학과의 평균 등급에 대한 구체적인 정보를 제공하고 있습니다. 따라서 사실관계가 일치하지 않습니다.
+2. Consistency Score (1-5): 2
+   - 생성된 응답은 원본 텍스트의 정보와 일치하지 않으며, 원본에서 제공된 평균 등급 정보와 관련된 내용이 누락되어 있습니다. 이로 인해 일관성이 떨어집니다.
+3. Relevance Score (1-5): 3
+   - 생성된 응답은 관련 정보를 확인하라는 내용이 포함되어 있지만, 원본 텍스트의 핵심 정보인 평균 등급에 대한 언급이 없으므로 관련성이 낮습니다.
+4. Fluency Score (1-5): 4
+   - 생성된 응답은 문법적으로 잘 작성되어 있으며, 읽기에도 무리가 없습니다. 그러나 약간의 어색함이 느껴질 수 있습니다.
+5. Coherence Score (1-5): 3
+   - 생성된 응답은 정보가 분리되어 있어 논리적인 흐름이 부족합니다. 원본 텍스트와의 연결이 약해 일관된 구조를 갖추지 못했습니다.
+6. Accuracy Score (1-5): 2
+   - 생성된 응답은 원본 텍스트의 사실을 왜곡하고 있으며, 신소재공학부의 평균 등급에 대한 정보가 누락되어 있습니다. 따라서 정확성이 낮습니다.
+7. Multidimensional Quality Score (1-5): 2
+   - 전반적으로 생성된 응답은 사실관계, 일관성, 관련성, 정확성에서 낮은 점수를 받았으므로, 다차원적인 품질이 떨어집니다.
+8. Semantic Appropriateness Score (1-5): 3
+   - 생성된 응답은 원본 텍스트의 의미와는 다소 동떨어져 있지만, 관련 정보를 확인하라는 제안은 적절합니다. 그러나 원본의 핵심 정보가 누락되어 있습니다.
+9. Understandability Score (1-5): 4
+   - 생성된 응답은 전반적으로 이해하기 쉬우나, 원본 텍스트와의 연결이 부족하여 혼란을 줄 수 있습니다.
+{
+    "Factuality Score": 2,
+    "Consistency Score": 2,
+    "Relevance Score": 3,
+    "Fluency Score": 4,
+    "Coherence Score": 3,
+    "Accuracy Score": 2,
+    "Multidimensional Quality Score": 2,
+    "Semantic Appropriateness Score": 3,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C393" t="n">
+        <v>0.4924258637997254</v>
+      </c>
+      <c r="D393" t="inlineStr">
+        <is>
+          <t>동의대학교 신소재 공학부는 정시 몇 등급이면 합격 가능할까요?</t>
+        </is>
+      </c>
+      <c r="E393" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대학교 신소재공학부의 경우, 정시 모집군에 대한 정보가 제공되지 않았습니다. 관련 정보를 확인하기 위해서는 [https://ipsi.ipsi.ipsi.ipsi] 사이트에서 최신 정보를 확인해보시거나, 대학교 입학처 웹사이트나 전화로 문의하시는 것이 좋겠습니다.</t>
+        </is>
+      </c>
+      <c r="F393" t="inlineStr">
+        <is>
+          <t>신소재학과의 최종등록자 데이터를 기준으로 보면, 신소재공학과의 영어 등급 평균은 5.06이고, 수능 4개 영역 등급 평균은 5.78입니다. 
+따라서, 신소재공학과의 평균 등급보다 높은 성적을 가지고 있으시면 합격 가능성이 올라갑니다.
+자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="394">
+      <c r="A394" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B394" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 4
+   - 설명: 생성된 응답은 작년 신소재공학과의 평균 점수와 귀하의 점수를 비교하며, 합격 가능성에 대한 정보를 제공합니다. 그러나 "447점보다 약간 높았다면"이라는 표현은 다소 모호하며, 원문에서 제공된 구체적인 평균 점수(378.15점)와의 비교가 부족합니다.
+2. Consistency Score (1-5): 3
+   - 설명: 생성된 응답은 원문과 일부분 일치하지만, "447점보다 약간 높았다면"이라는 조건부 표현이 원문에서의 명확한 사실과 일치하지 않습니다. 원문은 447점이 평균 점수보다 훨씬 높다고 명시하고 있습니다.
+3. Relevance Score (1-5): 5
+   - 설명: 생성된 응답은 원문에서 제기된 질문과 관련된 내용을 잘 다루고 있으며, 합격 가능성에 대한 정보를 제공하고 있습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 문법적으로 올바르며 읽기 쉽습니다. 다만, 일부 문장이 다소 길어 가독성이 떨어질 수 있습니다.
+5. Coherence Score (1-5): 4
+   - 설명: 생성된 응답은 논리적으로 잘 구성되어 있으며, 각 문장이 자연스럽게 연결되어 있습니다. 그러나 조건부 표현이 포함되어 있어 약간의 혼란을 줄 수 있습니다.
+6. Accuracy Score (1-5): 4
+   - 설명: 생성된 응답은 원문에서 제공된 정보에 기반하고 있지만, 평균 점수에 대한 구체적인 수치가 누락되어 있어 정확성이 다소 떨어집니다.
+7. Multidimensional Quality Score (1-5): 4
+   - 설명: 생성된 응답은 여러 차원에서 잘 수행되고 있으며, 특히 관련성과 유창성에서 높은 점수를 받았습니다. 그러나 일관성과 정확성에서 약간의 부족함이 있습니다.
+8. Semantic Appropriateness Score (1-5): 4
+   - 설명: 생성된 응답은 원문과 의미적으로 잘 연결되어 있으나, 조건부 표현이 다소 혼란을 줄 수 있습니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 이해하기 쉽지만, 일부 문장이 길어져서 약간의 혼란을 줄 수 있습니다.
+{
+    "Factuality Score": 4,
+    "Consistency Score": 3,
+    "Relevance Score": 5,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 4,
+    "Multidimensional Quality Score": 4,
+    "Semantic Appropriateness Score": 4,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C394" t="n">
+        <v>0.7281121350467641</v>
+      </c>
+      <c r="D394" t="inlineStr">
+        <is>
+          <t>제가 동의대학교 정시 표준점수가 447점으로 환산되는데 작년 신소재공학과 표점이 447점보다 1점 정도 위더라구요 (최종 평균)가능성은 있을까요?</t>
+        </is>
+      </c>
+      <c r="E394" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대학교 정시 모집에서 국어+수학+탐구(2개)+영어 등급 점수를 기준으로 표준 변환 점수가 447점인 경우, 작년 신소재공학과의 최종 평균 점수가 447점보다 약간 높았다면, 이는 충분히 가능성이 있습니다.
+하지만 정확한 가능성은 작년의 실제 모집 상황과 경쟁률 등 다양한 요인에 따라 달라질 수 있으므로, 최종 결정을 내리기 전에 "https://ipsi.deu.ac.kr/main.do"를 참조하여 작년의 정시 모집 결과와 관련 정보를 확인하는 것이 좋습니다.
+또한, 작년과 현재의 모집 상황이 유사하다고 가정할 때, 447점 이상의 표준 변환 점수로 충원 합격을 이룰 수 있는 확률은 높아 보입니다.</t>
+        </is>
+      </c>
+      <c r="F394" t="inlineStr">
+        <is>
+          <t>작년 동의대학교 신소재공학과의 최종 등록자 평균 표준 변환 점수는 378.15점이었습니다. 따라서, 귀하의 표준점수 447점은 작년 신소재공학과의 평균 점수보다 훨씬 높습니다. 이 점수라면 신소재공학과에 합격할 가능성이 매우 높다고 할 수 있습니다. 
+추가적인 정보나 문의사항이 있으시면 "https://ipsi.deu.ac.kr/main.do"를 방문해 주시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="395">
+      <c r="A395" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B395" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 3
+   - 생성된 응답은 신소재공학부의 합격 가능성에 대한 여러 요인을 언급하고 있지만, 원본 텍스트에서 제공된 구체적인 성적 데이터와 비교하여 다소 일반적인 정보로 대체되었습니다. 원본 텍스트의 구체적인 성적 평균과 표준 편차에 대한 언급이 부족하여 사실성 점수가 낮아졌습니다.
+2. Consistency Score (1-5): 3
+   - 생성된 응답은 원본 텍스트의 내용과 일치하는 부분이 있지만, 신소재공학부의 합격 가능성에 대한 추가적인 요소를 언급하면서 원본 텍스트의 구체적인 성적 기준을 간과했습니다. 이로 인해 일관성이 떨어지는 부분이 있습니다.
+3. Relevance Score (1-5): 4
+   - 생성된 응답은 원본 텍스트의 주제와 관련이 있으며, 신소재공학부의 합격 가능성에 대한 정보를 제공합니다. 그러나 원본 텍스트의 구체적인 성적 데이터와 비교하는 부분이 부족하여 점수가 다소 낮아졌습니다.
+4. Fluency Score (1-5): 5
+   - 생성된 응답은 문법적으로 정확하고 읽기 쉬운 구조로 작성되어 있습니다. 문장 흐름이 자연스럽고 이해하기 쉽습니다.
+5. Coherence Score (1-5): 4
+   - 생성된 응답은 논리적으로 잘 구성되어 있으며, 각 요소가 명확하게 연결되어 있습니다. 그러나 원본 텍스트의 구체적인 성적 기준을 반영하지 않아 다소 일관성이 떨어지는 부분이 있습니다.
+6. Accuracy Score (1-5): 3
+   - 생성된 응답은 신소재공학부의 합격 가능성에 대한 여러 요인을 언급하지만, 원본 텍스트의 구체적인 성적 기준을 반영하지 않아 정확성이 떨어집니다. 원본 텍스트의 데이터와 비교할 때, 성적에 대한 구체적인 정보가 부족합니다.
+7. Multidimensional Quality Score (1-5): 4
+   - 생성된 응답은 여러 차원에서 양호한 성과를 보이지만, 사실성과 일관성에서 다소 부족함이 있어 전체적인 점수가 낮아졌습니다.
+8. Semantic Appropriateness Score (1-5): 4
+   - 생성된 응답은 원본 텍스트의 의미와 맥락에 적절하게 부합하지만, 구체적인 성적 데이터에 대한 언급이 부족하여 다소 아쉬운 점이 있습니다.
+9. Understandability Score (1-5): 5
+   - 생성된 응답은 명확하고 이해하기 쉬운 언어로 작성되어 있어, 독자가 내용을 쉽게 이해할 수 있습니다.
+{
+    "Factuality Score": 3,
+    "Consistency Score": 3,
+    "Relevance Score": 4,
+    "Fluency Score": 5,
+    "Coherence Score": 4,
+    "Accuracy Score": 3,
+    "Multidimensional Quality Score": 4,
+    "Semantic Appropriateness Score": 4,
+    "Understandability Score": 5
+}</t>
+        </is>
+      </c>
+      <c r="C395" t="n">
+        <v>0.5429590756806675</v>
+      </c>
+      <c r="D395" t="inlineStr">
+        <is>
+          <t>제 정시 성적이 현재로선 4.3등급대고 동의대식 성적산출하면 4.1~4.2정도 나올거같은데 신소재공학부 일반학생전형 붙을수있을까요?</t>
+        </is>
+      </c>
+      <c r="E395" t="inlineStr">
+        <is>
+          <t>4.3 등급대의 정시 성적이 4.1~4.2로 예상된다면, 신소재공학부 일반학생전형에 합격할 수 있을지는 여러 요인에 따라 다릅니다.
+신소재공학부의 경우, 학생부종합 평가를 포함하여 실기/실적과 같은 다양한 요소들이 고려됩니다. 따라서 정시 성적 외에도 다음과 같은 요소들이 중요하게 작용합니다:
+1. **학생부 교과성적**: 반영과목 수와 석차등급이 중요한 역할을 합니다.
+2. **면접 성적**: 면접에서의 발언력, 소통 능력 등도 고려됩니다.
+3. **추천서 및 서류**: 추천서나 자기소개서 등의 서류가 합격에 큰 영향을 줄 수 있습니다.
+현재 상황에서는 정시 성적이 4.1~4.2로 예상되므로, 다음과 같은 조치를 취해보는 것이 좋습니다:
+- **학생부 교과성적 강화**: 반영과목 수와 석차등급을 최대한 높이는 것이 중요합니다.
+- **면접 준비**: 면접에서의 발언력과 소통 능력을 향상시키기 위해 미리 준비해보세요.
+- **추천서 및 서류 작성**: 추천서와 자기소개서를 잘 작성하여 합격 가능성을 높이도록 하세요.
+따라서, 정시 성적만으로는 확실한 합격을 보장할 수 없지만, 위의 조치들을 통해 합격 가능성은 높일 수 있습니다. 자세한 내용은 대학 홈페이지나 입학처에 문의하여 확인하는 것이 좋습니다. 필요하다면 "https://ipsi. deu. ac. kr/main. do"를 참조해보세요.</t>
+        </is>
+      </c>
+      <c r="F395" t="inlineStr">
+        <is>
+          <t>동의대학교 신소재공학부(일반학생전형)의 최종등록자 데이터를 바탕으로 판단해보겠습니다.
+	신소재공학부의 최종등록자 평균 성적은 다음과 같습니다:
+	- 국어 + 수학 + 탐구(2개) (가산점 포함) 표준 변환 점수 합: 평균 271.64, 표준 편차 19.52
+	- 영어 등급: 평균 5.06, 표준 편차 1.22
+	- 수능 4개 영역 등급: 평균 5.78, 표준 편차 0.49
+	- 수능 4개 영역 (가산점 포함) 표준 변환 점수 합: 평균 378.15, 표준 편차 21.81
+	귀하의 성적이 4.1~4.2등급대라면, 신소재공학부의 최종등록자 평균 성적과 비교했을 때 다소 높은 편입니다. 특히, 영어 등급과 수능 4개 영역 등급에서 차이가 있을 수 있습니다.
+	따라서, 귀하의 성적이 신소재공학부의 최종등록자 평균 성적과 비교했을 때 다소 높으므로, 합격 가능성은 높습니다. 그러나, 최종 합격 여부는 지원자 전체의 성적 분포와 경쟁률에 따라 달라질 수 있습니다.
+	더 자세한 정보나 상담이 필요하다면, 동의대학교 입학처에 문의하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="396">
+      <c r="A396" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B396" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 3
+   - 설명: 생성된 응답은 동의대학교 인공지능학과의 수능 전형 성적 산출 방법에 대한 정보를 제공하지만, 원본 텍스트에서 제시된 최초합격자 성적에 대한 구체적인 수치와 정보를 포함하지 않고 있습니다. 따라서 일부 사실이 누락되어 있어 점수를 3으로 평가합니다.
+2. Consistency Score (1-5): 3
+   - 설명: 생성된 응답은 원본 텍스트의 내용과 관련이 있지만, 원본에서 제공된 구체적인 성적 정보와는 일치하지 않습니다. 성적 산출 방법에 대한 설명은 일관성이 있지만, 원본의 성적 데이터와는 상충하는 부분이 있어 점수를 3으로 평가합니다.
+3. Relevance Score (1-5): 4
+   - 설명: 생성된 응답은 동의대학교 인공지능학과의 수능 전형에 대한 정보를 제공하고 있으며, 지원자가 알아야 할 중요한 내용을 다루고 있습니다. 그러나 원본 텍스트의 구체적인 성적 정보와는 관련이 적어 점수를 4로 평가합니다.
+4. Fluency Score (1-5): 5
+   - 설명: 생성된 응답은 문법적으로 정확하고 읽기 쉽게 작성되어 있습니다. 문장 구조와 표현이 매끄러워 점수를 5로 평가합니다.
+5. Coherence Score (1-5): 4
+   - 설명: 생성된 응답은 논리적으로 잘 구성되어 있으며, 성적 산출 방법에 대한 설명이 일관되게 이어집니다. 그러나 원본 텍스트와의 연결성이 부족하여 점수를 4로 평가합니다.
+6. Accuracy Score (1-5): 3
+   - 설명: 생성된 응답은 수능 전형 성적 산출 방법에 대한 정보를 제공하지만, 원본 텍스트의 구체적인 성적 수치와는 다릅니다. 따라서 정확성 측면에서 점수를 3으로 평가합니다.
+7. Multidimensional Quality Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 유용한 정보를 제공하고 있으며, 문법적으로도 우수합니다. 그러나 원본 텍스트의 구체적인 성적 정보가 누락되어 있어 점수를 4로 평가합니다.
+8. Semantic Appropriateness Score (1-5): 4
+   - 설명: 생성된 응답은 동의대학교 인공지능학과의 수능 전형에 대한 적절한 정보를 제공하고 있으나, 원본 텍스트의 구체적인 성적 정보와는 다소 차이가 있어 점수를 4로 평가합니다.
+9. Understandability Score (1-5): 5
+   - 설명: 생성된 응답은 명확하고 이해하기 쉬운 방식으로 작성되어 있어, 독자가 내용을 쉽게 이해할 수 있습니다. 따라서 점수를 5로 평가합니다.
+{
+    "Factuality Score": 3,
+    "Consistency Score": 3,
+    "Relevance Score": 4,
+    "Fluency Score": 5,
+    "Coherence Score": 4,
+    "Accuracy Score": 3,
+    "Multidimensional Quality Score": 4,
+    "Semantic Appropriateness Score": 4,
+    "Understandability Score": 5
+}</t>
+        </is>
+      </c>
+      <c r="C396" t="n">
+        <v>0.690893924609253</v>
+      </c>
+      <c r="D396" t="inlineStr">
+        <is>
+          <t>동의대 인공지능학과 수능 일반학생전형으로 가고싶어요 성적좀 알려주세요</t>
+        </is>
+      </c>
+      <c r="E396" t="inlineStr">
+        <is>
+          <t>2024년 동의대학교 인공지능학과로 지원하려면, 수능 전형성적 산출방법을 확인해야 합니다. 해당 학과는 다군(일반학생전형)에 속하며, 모집단위는 공과대학입니다.
+다군(일반학생전형)의 수능 전형성적 산출방법은 다음과 같습니다:
+- 국어 표준점수
+- 수학 표준점수
+- 영어 등급점수
+- 탐구 표준점수
+- 수학(미적분 또는 기하) 응시자의 경우 수학 표준점수 x 0.1 가산점
+예를 들어, 국어 표준점수가 104, 수학 표준점수가 108, 영어 등급이 4등급, 탐구 표준점수가 57일 때의 산출 예시는 다음과 같습니다:
+- 국어: 104
+- 수학: 108 + (108 x 0.1) = 118.8
+- 영어: 123 (4등급에 해당하는 점수)
+- 탐구: 57
+이를 합산하면:
+(104 + 118.8 + 123 + 57) ÷ 2 = 169.9
+따라서, 최종 산출점수는 169.9가 됩니다.
+실제 성적은 개인의 점수가 달라질 수 있으므로, 이 예시를 참고로 하여 자신의 실제 성적을 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+      <c r="F396" t="inlineStr">
+        <is>
+          <t>동의대학교 인공지능학과의 수능 일반학생전형 최초합격자 성적은 다음과 같습니다:
+- **모집 인원**: 15명
+- **지원 인원**: 24명
+- **경쟁률**: 1.60
+- **충원 합격 (후보순위)**: 5명
+- **국어 + 수학 + 탐구(2개) (가산점 포함) 표준 변환 점수 합**: 평균 301.87, 표준 편차 12.38
+- **영어 등급**: 평균 4.13, 표준 편차 0.71
+- **수능 4개 영역 등급**: 평균 4.98, 표준 편차 0.25
+- **수능 4개 영역 (가산점 포함) 표준 변환 점수 합**: 평균 415.80, 표준 편차 10.49
+이 성적을 참고하여 준비하시기 바랍니다. 추가적인 정보가 필요하면 "https://ipsi.deu.ac.kr/main.do"를 방문해 주세요.</t>
+        </is>
+      </c>
+    </row>
+    <row r="397">
+      <c r="A397" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B397" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 3
+   - 생성된 응답은 동의대학교의 정시 성적에 대한 정보를 제공하고 있지만, 원본 텍스트에서 제시된 구체적인 학과와 성적에 대한 정보가 누락되어 있습니다. 따라서 사실성 점수는 3으로 평가합니다.
+2. Consistency Score (1-5): 3
+   - 생성된 응답은 원본 텍스트의 내용을 일부 반영하고 있으나, 특정 학과의 성적 정보를 제공하지 않고 일반적인 조언을 하고 있어 일관성이 떨어집니다. 따라서 일관성 점수는 3으로 평가합니다.
+3. Relevance Score (1-5): 4
+   - 생성된 응답은 동의대학교의 정시 성적과 관련된 정보를 제공하고 있으나, 구체적인 학과 정보가 부족하여 다소 관련성이 떨어집니다. 따라서 관련성 점수는 4로 평가합니다.
+4. Fluency Score (1-5): 5
+   - 생성된 응답은 문법적으로 정확하고 읽기 쉽게 작성되어 있습니다. 따라서 유창성 점수는 5로 평가합니다.
+5. Coherence Score (1-5): 4
+   - 생성된 응답은 논리적으로 잘 구성되어 있으나, 원본 텍스트의 구체적인 정보가 부족하여 완전한 일관성을 제공하지는 않습니다. 따라서 일관성 점수는 4로 평가합니다.
+6. Accuracy Score (1-5): 3
+   - 생성된 응답은 동의대학교의 정시 성적에 대한 정보를 제공하지만, 구체적인 학과와 성적에 대한 정보가 누락되어 있어 정확성 점수는 3으로 평가합니다.
+7. Multidimensional Quality Score (1-5): 4
+   - 생성된 응답은 여러 차원에서 양호한 성과를 보이지만, 구체적인 정보의 부족으로 인해 전반적인 품질이 다소 떨어집니다. 따라서 다차원 품질 점수는 4로 평가합니다.
+8. Semantic Appropriateness Score (1-5): 4
+   - 생성된 응답은 의미적으로 적절하나, 원본 텍스트의 구체적인 내용을 반영하지 않아 다소 부족합니다. 따라서 의미 적합성 점수는 4로 평가합니다.
+9. Understandability Score (1-5): 5
+   - 생성된 응답은 명확하고 이해하기 쉬운 내용으로 작성되어 있습니다. 따라서 이해 가능성 점수는 5로 평가합니다.
+{
+    "Factuality Score": 3,
+    "Consistency Score": 3,
+    "Relevance Score": 4,
+    "Fluency Score": 5,
+    "Coherence Score": 4,
+    "Accuracy Score": 3,
+    "Multidimensional Quality Score": 4,
+    "Semantic Appropriateness Score": 4,
+    "Understandability Score": 5
+}</t>
+        </is>
+      </c>
+      <c r="C397" t="n">
+        <v>0.5878324890286055</v>
+      </c>
+      <c r="D397" t="inlineStr">
+        <is>
+          <t>동의대 정시 성적으로 5.27인데 이 성적으로 추합 가능한가요?</t>
+        </is>
+      </c>
+      <c r="E397" t="inlineStr">
+        <is>
+          <t>5.27이라는 성적을 가지고 동의대학교에 지원하려면, 해당 학과의 정시 모집단위별로 요구하는 최저학점과 비교해야 합니다. 하지만 위에서 제공된 정보는 동의대학교의 전반적인 변경사항 및 전형 요소를 다루고 있으므로, 특정 단과대학이나 계열의 최저학점을 확인하기 위해서는 동의대학교 입학처 웹사이트나 공식 안내서를 참조해야 합니다.
+특정 단과대학이나 계열의 최저학점 정보를 얻으시려면 다음 링크를 참고해 주세요: [https://ipsi. deu.ac.kr/main.do](https://ipsi.deu.ac.kr/main.do)
+이 웹사이트에서 특정 학과나 계열의 최저학점을 확인하실 수 있습니다. 또한, 입학처에 직접 문의하시면 더 정확한 정보를 얻으실 수 있을 것입니다.
+만약 추가로 도움이 필요하다면 언제든지 다시 질문해 주세요!</t>
+        </is>
+      </c>
+      <c r="F397" t="inlineStr">
+        <is>
+          <t>동의대학교의 정시 성적을 기준으로 5.27의 성적으로 충원 합격(추합)이 가능한지 확인하기 위해서는 각 학과의 최종 등록자 성적을 비교해보아야 합니다. 아래는 각 학과의 수능 4개 영역 등급 평균과 표준 편차를 기준으로 5.27 성적이 충원 합격 가능한지 확인한 결과입니다:
+1. **인문사회과학대학**
+   - 국어국문학과: 평균 4.92, 표준 편차 0.35
+   - 중어중국학과: 평균 5.68, 표준 편차 0.74
+   - 일본학과: 평균 4.87, 표준 편차 0.13
+   - 영어영문학과: 평균 5.16, 표준 편차 0.66
+   - 문헌정보학과: 평균 4.82, 표준 편차 0.33
+   - 평생교육·청소년상담학과: 평균 5.22, 표준 편차 0.29
+   - 아동학과: 평균 7.08, 표준 편차 0.56
+   - 유아교육과: 평균 4.18, 표준 편차 0.25
+   - 광고홍보학과: 평균 4.47, 표준 편차 0.18
+   - 미디어커뮤니케이션학과: 평균 4.29, 표준 편차 0.23
+   - 법학과: 평균 4.27, 표준 편차 0.27
+   - 경찰행정학과: 평균 4.12, 표준 편차 0.18
+   - 소방방재행정학과: 평균 4.43, 표준 편차 0.40
+   - 행정학과: 평균 4.36, 표준 편차 0.33
+   - 사회복지학과: 평균 4.69, 표준 편차 0.23
+2. **상경대학**
+   - 금융경영학과: 평균 5.41, 표준 편차 0.52
+   - 재무부동산학과: 평균 5.82, 표준 편차 1.25
+   - 무역학과: 평균 5.18, 표준 편차 0.50
+   - 유통물류학과: 평균 5.45, 표준 편차 0.52
+   - 경영학과: 평균 4.69, 표준 편차 0.22
+   - 회계학과: 평균 4.99, 표준 편차 0.41
+   - 경영정보학과: 평균 4.31, 표준 편차 0.23
+   - e비즈니스학과: 평균 4.53, 표준 편차 0.36
+   - 국제관광경영학과: 평균 5.41, 표준 편차 0.56
+   - 호텔·컨벤션경영학과: 평균 6.12, 표준 편차 0.77
+   - 외식경영학과: 평균 4.91, 표준 편차 0.28
+3. **의료보건생활대학**
+   - 간호학과: 평균 3.37, 표준 편차 0.29
+   - 임상병리학과: 평균 4.15, 표준 편차 0.12
+   - 치위생학과: 평균 4.18, 표준 편차 0.20
+   - 방사선학과: 평균 3.82, 표준 편차 0.20
+   - 의료경영학과: 평균 5.92, 표준 편차 1.08
+   - 물리치료학과: 평균 3.62, 표준 편차 0.15
+   - 식품영양학과: 평균 5.92, 표준 편차 1.06
+4. **한의과대학**
+   - 한의예과(수학&lt;미적분/기하&gt;): 평균 1.21, 표준 편차 0.09
+   - 한의예과(수학&lt;확률과통계&gt;): 평균 1.20, 표준 편차 0.05
+5. **공과대학**
+   - 기계공학과, 로봇자동화공학과, 자동차공학과: 평균 6.30, 표준 편차 1.1
+   - 조선해양공학과: 평균 6.16, 표준 편차 1.00
+   - 신소재공학과, 분자나노공학과: 평균 5.78, 표준 편차 0.49
+   - 건축학과(5년제), 건축공학과, 토목공학과, 도시공학과: 평균 4.69, 표준 편차 0.25
+   - 환경공학과, 화학공학과, 응용화학과: 평균 5.73, 표준 편차 0.57
+   - 의생명공학과, 바이오의약공학과, 식품공학과: 평균 5.41, 표준 편차 0.65
+   - 인간공학과, 제품디자인공학과: 평균 5.72, 표준 편차 0.73
+   - 산업경영빅데이터공학과: 평균 5.27, 표준 편차 0.43
+6. **ICT융합공과대학**
+   - 컴퓨터공학과: 평균 4.29, 표준 편차 0.16
+   - 소프트웨어공학부: 평균 4.49, 표준 편차 0.30
+   - 인공지능학과: 평균 5.25, 표준 편차 0.35
+   - 전기공학과, 전자공학과: 평균 5.37, 표준 편차 0.60
+   - 디지털콘텐츠학과: 평균 4.47, 표준 편차 0.24
+   - 게임공학과: 평균 4.78, 표준 편차 0.20
+   - 영화학과: 평균 5.04, 표준 편차 0.76
+7. **예술디자인체육대학**
+   - 패션디자인학과: 평균 4.46, 표준 편차 0.31
+위의 정보를 바탕으로, 5.27의 성적으로 충원 합격이 가능한 학과는 다음과 같습니다:
+- 인문사회과학대학: 중어중국학과, 영어영문학과, 평생교육·청소년상담학과, 아동학과
+- 상경대학: 금융경영학과, 재무부동산학과, 무역학과, 유통물류학과, 호텔·컨벤션경영학과, 외식경영학과
+- 의료보건생활대학: 의료경영학과, 식품영양학과
+- 공과대학: 기계공학과, 로봇자동화공학과, 자동차공학과, 조선해양공학과, 신소재공학과, 분자나노공학과, 환경공학과, 화학공학과, 응용화학과, 의생명공학과, 바이오의약공학과, 식품공학과, 인간공학과, 제품디자인공학과, 산업경영빅데이터공학과
+- ICT융합공과대학: 인공지능학과, 전기공학과, 전자공학과, 영화학과
+위 학과들은 5.27의 성적으로 충원 합격이 가능할 것으로 보입니다. 더 자세한 정보는 동의대학교 입학처에 문의하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="398">
+      <c r="A398" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B398" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 2
+   - 설명: 생성된 응답은 정시 성적 4.2에 대한 합격 가능성을 다루고 있지만, 제공된 출처 텍스트의 정보와 일치하지 않는 여러 세부사항이 포함되어 있습니다. 예를 들어, 충원 합격 순위와 평균 점수에 대한 정보는 출처 텍스트에 명시되어 있지 않으며, 정시 성적 4.2가 중등 정도의 성적이라는 주장은 출처의 평균 성적과 모순됩니다.
+2. Consistency Score (1-5): 2
+   - 설명: 생성된 응답은 출처 텍스트의 정보와 일관되지 않습니다. 출처 텍스트는 정시 성적 4.2가 평균보다 높은 성적이라고 언급하고 있지만, 생성된 응답에서는 이를 반박하며 합격하기 어렵다고 주장합니다. 이러한 상반된 정보는 일관성을 떨어뜨립니다.
+3. Relevance Score (1-5): 4
+   - 설명: 생성된 응답은 주제와 관련이 있으며, 정시 성적 4.2에 대한 합격 가능성을 다루고 있습니다. 그러나 일부 세부사항은 출처 텍스트와 관련이 없거나 불필요한 정보로 보입니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 구조를 가지고 있습니다. 그러나 일부 문장은 다소 복잡하게 구성되어 있어 약간의 가독성 저하가 있을 수 있습니다.
+5. Coherence Score (1-5): 3
+   - 설명: 생성된 응답은 논리적인 흐름이 있지만, 출처 텍스트와의 불일치로 인해 전체적인 일관성이 떨어집니다. 정보가 명확하게 연결되지 않아 독자가 혼란스러울 수 있습니다.
+6. Accuracy Score (1-5): 2
+   - 설명: 생성된 응답은 출처 텍스트의 사실과 일치하지 않는 정보가 포함되어 있습니다. 예를 들어, 충원 합격 순위와 평균 점수는 출처에서 제공되지 않은 정보입니다.
+7. Multidimensional Quality Score (1-5): 2
+   - 설명: 생성된 응답은 여러 차원에서 낮은 점수를 받았습니다. 사실성, 일관성, 정확성에서 문제가 있으며, 전반적인 품질이 떨어집니다.
+8. Semantic Appropriateness Score (1-5): 3
+   - 설명: 생성된 응답은 주제와 관련이 있지만, 출처 텍스트의 의미와 다르게 해석될 수 있는 부분이 있습니다. 특히 합격 가능성에 대한 해석이 출처와 상충합니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 이해하기 쉬운 구조를 가지고 있지만, 일부 정보가 혼란을 줄 수 있어 완전한 명확성을 제공하지는 않습니다.
+{
+    "Factuality Score": 2,
+    "Consistency Score": 2,
+    "Relevance Score": 4,
+    "Fluency Score": 4,
+    "Coherence Score": 3,
+    "Accuracy Score": 2,
+    "Multidimensional Quality Score": 2,
+    "Semantic Appropriateness Score": 3,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C398" t="n">
+        <v>0.6423591885027741</v>
+      </c>
+      <c r="D398" t="inlineStr">
+        <is>
+          <t>정시 성적 4.2인데 동의대학교 소프트웨어공학부 합격 가능성 있을까요?</t>
+        </is>
+      </c>
+      <c r="E398" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대학교 소프트웨어공학부에 대한 정보를 바탕으로, 정시 성적 4.2인 경우 충원 합격 (후보순위)은 63이며, 평균 국어 + 수학 + 탐구(2개) (가산점 포함) 표준 변환 점수 합의 평균은 317.87입니다.
+정시 성적 4.2는 대략적으로 중등 정도의 성적이므로, 충원 합격 기준을 넘기기는 어려울 것으로 보입니다. 그러나 정시 모집에서 합격 가능성은 여러 요인에 따라 달라질 수 있습니다:
+1. **개별 지원자의 성적 분포**: 전체 지원자의 성적 분포가 어떻게 되는지에 따라 달라질 수 있습니다.
+2. **학생부 종합 평가 영역의 점수**: 학생부 종합 평가 영역에서 높은 점수가 있으면 이점이 될 수 있습니다.
+3. **면접 성적**: 일부 모집단위에서는 면접 점수가 포함되어 합격 기준을 결정할 수 있습니다.
+따라서, 정시 성적 4.2로 동의대학교 소프트웨어공학부에 합격하기는 어렵다고 판단됩니다. 그러나 최종 합격 여부는 지원자의 전체 평가 결과를 바탕으로 결정되므로, 지원을 하는 것이 좋습니다.
+더 자세한 정보나 추가적인 질문이 있으시다면, https://ipsi. deu. ac. kr/main. do 를 참조하시거나 관계된 부서에 문의해보세요.</t>
+        </is>
+      </c>
+      <c r="F398" t="inlineStr">
+        <is>
+          <t>소프트웨어공학부의 최종등록자 데이터를 기준으로 보면, 소프트웨어공학부의 영어 등급 평균은 3.77이고, 수능 4개 영역 등급 평균은 4.49입니다. 
+따라서, 현재 정시 등급이 4.2라면 소프트웨어공학부의 평균 등급보다 높은 성적을 가지고 있어 합격 가능성이 높습니다.
+자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="399">
+      <c r="A399" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B399" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 3
+   - 설명: 생성된 응답은 화학환경공학부의 모집 상황을 확인하기 어렵다고 언급하고 있지만, 원본 텍스트에서는 3.92의 성적이 합격 가능성이 높다고 명시하고 있습니다. 따라서, 응답이 원본의 정보를 완전히 반영하지 못하고 있습니다.
+2. Consistency Score (1-5): 2
+   - 설명: 생성된 응답은 원본 텍스트의 내용과 상충하는 부분이 있습니다. 원본에서는 3.92의 성적이 합격 가능성이 높다고 했으나, 생성된 응답은 그에 대한 확인이 필요하다고 하여 일관성이 떨어집니다.
+3. Relevance Score (1-5): 4
+   - 설명: 생성된 응답은 화학환경공학부의 모집 상황에 대한 정보를 제공하려고 하지만, 원본 텍스트의 핵심 내용인 성적에 대한 합격 가능성에 대한 직접적인 언급이 부족합니다. 그러나 관련된 웹사이트를 제안하여 어느 정도 관련성을 유지하고 있습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 구조를 가지고 있습니다. 다만, 일부 문장이 다소 길어 가독성이 떨어질 수 있습니다.
+5. Coherence Score (1-5): 4
+   - 설명: 생성된 응답은 논리적으로 잘 구성되어 있으며, 정보가 일관되게 전달되고 있습니다. 그러나 원본 텍스트와의 연결이 약해 다소 일관성이 떨어질 수 있습니다.
+6. Accuracy Score (1-5): 3
+   - 설명: 생성된 응답은 원본 텍스트의 사실을 완전히 반영하지 않으며, 3.92의 성적에 대한 합격 가능성을 간과하고 있습니다. 따라서 정확성 점수가 낮습니다.
+7. Multidimensional Quality Score (1-5): 3
+   - 설명: 생성된 응답은 여러 차원에서 중간 정도의 품질을 보이고 있으며, 일부는 잘 수행되었지만, 원본 텍스트의 핵심 정보를 놓치고 있습니다.
+8. Semantic Appropriateness Score (1-5): 4
+   - 설명: 생성된 응답은 주제와 관련된 의미를 전달하고 있으나, 원본의 핵심 메시지와는 다소 거리가 있습니다. 그럼에도 불구하고 적절한 맥락을 유지하고 있습니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 이해하기 쉬우며, 명확한 언어로 작성되었습니다. 그러나 일부 문장이 길어질 경우 이해하기 어려울 수 있습니다.
+{
+    "Factuality Score": 3,
+    "Consistency Score": 2,
+    "Relevance Score": 4,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 3,
+    "Multidimensional Quality Score": 3,
+    "Semantic Appropriateness Score": 4,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C399" t="n">
+        <v>0.6229026005487193</v>
+      </c>
+      <c r="D399" t="inlineStr">
+        <is>
+          <t>동의대식 정시 성적 산출로 3.92 나오는데 화학환경공학부 일반학생전형 가능할까요?</t>
+        </is>
+      </c>
+      <c r="E399" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 제공된 정보만으로는 화학환경공학부의 모집 상황을 확인하기 어렵습니다. 동의대학교 화학환경공학부의 정시 모집 인원과 지원 인원, 경쟁률 등을 확인해야 합니다.
+이를 위해 다음과 같은 웹사이트를 참조해 보세요: [https://ipsi. deu. ac. kr/main. do](https://ipsi.deu.ac.kr/main.do)
+또한, 동의대학교 화학환경공학부의 정시 모집 인원과 지원 인원, 경쟁률 등을 직접 확인하시면 더욱 정확한 정보를 얻을 수 있습니다.
+만약 웹사이트에서 필요한 정보를 찾지 못하면, 동의대학교 입학처에 문의해 보는 것도 좋은 방법입니다.</t>
+        </is>
+      </c>
+      <c r="F399" t="inlineStr">
+        <is>
+          <t>화학환경공학부의 최종등록자 데이터를 기준으로 보면, 화학환경공학부의 영어 등급 평균은 4.82이고, 수능 4개 영역 등급 평균은 5.73입니다. 
+따라서, 현재 정시 등급이 3.92라면 화학환경공학부의 평균 등급보다 높은 성적을 가지고 있어 합격 가능성이 높습니다. 즉, 추가합격까지 생각해서 합격할 가능성이 높습니다.
+자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="400">
+      <c r="A400" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B400" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 2
+   - 설명: 생성된 응답은 원본 텍스트의 사실과 상충하는 내용을 포함하고 있습니다. 원본 텍스트에서는 4.25의 성적이 합격 가능성이 높다고 판단했으나, 생성된 응답에서는 4.25로 합격하기 어렵다고 주장하고 있습니다. 또한, 성적 평균에 대한 수치도 원본과 다릅니다.
+2. Consistency Score (1-5): 2
+   - 설명: 생성된 응답은 원본 텍스트와 일관성이 없습니다. 원본에서는 4.25가 합격 가능성이 높다고 했지만, 생성된 응답에서는 반대의 주장을 하고 있습니다. 이로 인해 정보의 일관성이 떨어집니다.
+3. Relevance Score (1-5): 4
+   - 설명: 생성된 응답은 원본 텍스트의 주제와 관련이 있지만, 원본의 결론과는 상반된 내용을 포함하고 있습니다. 경쟁률과 성적 평균에 대한 추가 정보를 제공하여 관련성을 높였으나, 원본의 주장을 반박하는 방식으로 진행되었습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 구조를 가지고 있습니다. 그러나 일부 문장에서 약간의 어색함이 느껴질 수 있습니다.
+5. Coherence Score (1-5): 3
+   - 설명: 생성된 응답은 논리적인 흐름이 있지만, 원본 텍스트와의 상충으로 인해 전체적인 일관성이 떨어집니다. 각 항목이 나열되어 있지만, 결론이 원본과 다르기 때문에 일관된 메시지를 전달하지 못합니다.
+6. Accuracy Score (1-5): 2
+   - 설명: 생성된 응답은 원본 텍스트의 사실을 왜곡하고 있습니다. 성적 평균과 관련된 수치가 잘못 제시되었고, 4.25의 성적에 대한 해석이 원본과 다릅니다.
+7. Multidimensional Quality Score (1-5): 2
+   - 설명: 생성된 응답은 여러 차원에서 낮은 점수를 받았습니다. 사실성, 일관성, 정확성에서 문제가 있으며, 전체적으로 원본 텍스트와의 관계가 좋지 않습니다.
+8. Semantic Appropriateness Score (1-5): 3
+   - 설명: 생성된 응답은 원본 텍스트의 의미와 다소 상충하지만, 주제와 관련된 내용을 포함하고 있습니다. 그러나 원본의 결론과 반대되는 주장을 하고 있어 의미적으로 적절하지 않습니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 이해하기 쉬운 구조를 가지고 있으며, 명확한 언어로 작성되었습니다. 그러나 원본과의 상충으로 인해 혼란을 줄 수 있습니다.
+{
+    "Factuality Score": 2,
+    "Consistency Score": 2,
+    "Relevance Score": 4,
+    "Fluency Score": 4,
+    "Coherence Score": 3,
+    "Accuracy Score": 2,
+    "Multidimensional Quality Score": 2,
+    "Semantic Appropriateness Score": 3,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C400" t="n">
+        <v>0.6204386825641481</v>
+      </c>
+      <c r="D400" t="inlineStr">
+        <is>
+          <t>정시 성적이 4.25인데 동의대학교 화학환경공학부에 수능 일반학생전형으로 합격 가능할까요?</t>
+        </is>
+      </c>
+      <c r="E400" t="inlineStr">
+        <is>
+          <t>4.25라는 점수를 가지고 동의대학교 화학환경공학부에 정시로 합격하는 것은 어렵다고 판단됩니다.
+이유는 다음과 같습니다:
+1. **경쟁률**: 동의대학교 화학환경공학부의 경쟁률은 매우 높습니다. 예를 들어, 2024년 모집단위에서 지원 인원이 89명이고 모집인원이 10명이라는 점을 고려하면, 경쟁률은 약 8.9:1입니다.
+2. **성적 평균**: 제공된 데이터를 보면, 수능(일반학생전형)에서 화학환경공학부의 국어+수학+탐구(2개) (가산점 포함) 표준 변환 점수 합의 평균은 308.58입니다.
+3. **성적 분포**: 제공된 데이터를 보면, 수능 4개 영역 등급의 평균은 4.53이며, 이는 4.25보다 높습니다.
+따라서, 4.25라는 점수로는 동의대학교 화학환경공학부에 정시로 합격하기 어렵다고 판단됩니다. 더 높은 성적을 기록하거나 다른 전형을 고려하는 것이 좋을 수 있습니다. 
+더 자세한 정보를 얻기 위해서는 동의대학교 입학처 웹사이트나 "https://ipsi. deu.ac.kr/main.do"에 접속하여 최신 정보를 확인하시거나, 학교 관계자와 상담하시는 것을 추천드립니다.</t>
+        </is>
+      </c>
+      <c r="F400" t="inlineStr">
+        <is>
+          <t>동의대학교 화학환경공학부의 수능 일반학생전형 최초합격자 데이터를 바탕으로 판단해보겠습니다.
+- 국어 + 수학 + 탐구(2개) (가산점 포함) 표준 변환 점수 합 평균: 276.61
+- 영어 등급 평균: 4.70
+- 수능 4개 영역 등급 평균: 5.59
+- 수능 4개 영역 (가산점 포함) 표준 변환 점수 합 평균: 385.99
+귀하의 성적 4.25는 최초합격자의 평균값보다 높으므로 합격 가능성이 높은 것으로 판단됩니다.
+자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="401">
+      <c r="A401" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B401" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 3
+   - 설명: 생성된 응답은 영화학과의 평균 성적에 대한 정보를 포함하고 있지만, "영화학과의 평균 성적이 4.04"라는 부분은 잘못된 정보입니다. 원문에서는 평균 성적이 5.04로 명시되어 있습니다. 이로 인해 사실성 점수가 낮아졌습니다.
+2. Consistency Score (1-5): 3
+   - 설명: 생성된 응답은 원문과 일부 일치하지만, 평균 성적에 대한 잘못된 정보로 인해 일관성이 떨어집니다. 또한, 경쟁 비율과 관련된 정보는 원문에 명시되어 있지 않으므로 일관성이 부족합니다.
+3. Relevance Score (1-5): 4
+   - 설명: 생성된 응답은 질문에 대한 답변을 제공하고 있으며, 영화학과의 입학 가능성에 대한 정보를 포함하고 있습니다. 그러나 일부 내용이 원문과 관련이 없거나 잘못된 정보로 인해 점수가 낮아졌습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 구조를 가지고 있습니다. 그러나 일부 문장이 다른 언어로 작성되어 있어 흐름이 매끄럽지 않습니다.
+5. Coherence Score (1-5): 3
+   - 설명: 응답의 논리적 흐름이 다소 불명확합니다. 특히 다른 언어로 작성된 부분이 포함되어 있어 일관된 주제를 유지하는 데 어려움이 있습니다.
+6. Accuracy Score (1-5): 3
+   - 설명: 응답의 일부 정보는 정확하지만, 평균 성적에 대한 잘못된 정보로 인해 정확성 점수가 낮아졌습니다. 또한, 경쟁 비율과 관련된 정보는 원문에 명시되어 있지 않습니다.
+7. Multidimensional Quality Score (1-5): 3
+   - 설명: 여러 차원에서 응답의 품질이 평균 이하입니다. 사실성, 일관성, 정확성에서 문제가 있으며, 전반적으로 개선이 필요합니다.
+8. Semantic Appropriateness Score (1-5): 3
+   - 설명: 응답의 의미는 대체로 적절하지만, 잘못된 정보와 다른 언어의 사용으로 인해 의미 전달이 명확하지 않습니다.
+9. Understandability Score (1-5): 3
+   - 설명: 응답은 전반적으로 이해할 수 있지만, 다른 언어의 사용과 잘못된 정보로 인해 혼란스러울 수 있습니다.
+{
+    "Factuality Score": 3,
+    "Consistency Score": 3,
+    "Relevance Score": 4,
+    "Fluency Score": 4,
+    "Coherence Score": 3,
+    "Accuracy Score": 3,
+    "Multidimensional Quality Score": 3,
+    "Semantic Appropriateness Score": 3,
+    "Understandability Score": 3
+}</t>
+        </is>
+      </c>
+      <c r="C401" t="n">
+        <v>0.7252811069171176</v>
+      </c>
+      <c r="D401" t="inlineStr">
+        <is>
+          <t>이번에 정시전형으로 영화학과 지원했습니다. 정시 성적이 4.2정도 나왔는데 합격 할 수 있을까요?</t>
+        </is>
+      </c>
+      <c r="E401" t="inlineStr">
+        <is>
+          <t>4.2라는 점수는 수능 4개 영역 등급의 평균을 기준으로 보면, 2024학년도에 지원한 영화학과의 경우 수능 4개 영역 등급의 평균이 5.04였습니다. 따라서您的问题似乎是在询问关于电影学专业的录取情况。根据提供的信息，电影学专业的平均成绩为4.04，而你的成绩是4.2。
+在韩国大学入学考试中，各专业有不同的录取标准和竞争程度。从你提供的数据来看，电影学专业的竞争相对较小（竞争比率为2.20），并且已经有多名学生被录取（充원合格数为6）。此外，平均分也低于你的成绩。
+基于这些信息，你的4.2的成绩应该能够满足电影学专业的录取要求，并且有较高的可能性会被录取。但是最终是否能被录取还取决于具体的招生政策和其他因素，建议你关注学校发布的最新信息和指南，以确保准确了解录取情况。
+如果还有其他疑问或需要进一步的帮助，请访问“https://ipsi.deu.ac.kr/main.do”获取更多信息。</t>
+        </is>
+      </c>
+      <c r="F401" t="inlineStr">
+        <is>
+          <t>영화학과의 2024학년도 수능(일반학생전형) 최종등록자의 평균 성적을 보면 다음과 같습니다:
+- 국어 + 수학 + 탐구(2개) (가산점 포함) 표준 변환 점수 합: 286.77 (표준 편차: 17.29)
+- 영어 등급: 3.66 (표준 편차: 1.24)
+- 수능 4개 영역 등급: 5.04 (표준 편차: 0.76)
+- 수능 4개 영역 (가산점 포함) 표준 변환 점수 합: 404.43 (표준 편차: 27.09)
+이를 통해, 귀하의 정시 성적이 4.2정도라면 영화학과에 합격할 가능성이 존재한다고 판단됩니다.
+자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="402">
+      <c r="A402" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B402" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 4
+   - 설명: 생성된 응답은 면접 절차를 정확하게 나열하고 있으며, 추가적으로 면접 진행 방식에 대한 정보를 제공하고 있습니다. 그러나 원본 텍스트에 포함되지 않은 세부사항이 추가되어 있어 완전한 일치를 이루지 못합니다.
+2. Consistency Score (1-5): 4
+   - 설명: 생성된 응답은 원본 텍스트의 내용과 대체로 일치하지만, 추가된 정보가 원본의 내용과 완전히 일치하지는 않습니다. 면접 진행 방식에 대한 설명이 원본에 없으므로 약간의 불일치가 있습니다.
+3. Relevance Score (1-5): 5
+   - 설명: 생성된 응답은 원본 텍스트의 주제와 관련이 깊으며, 면접 절차에 대한 정보를 직접적으로 다루고 있습니다.
+4. Fluency Score (1-5): 5
+   - 설명: 생성된 응답은 문법적으로 정확하고, 자연스럽게 읽히며, 전반적으로 유창합니다.
+5. Coherence Score (1-5): 4
+   - 설명: 생성된 응답은 논리적으로 잘 구성되어 있지만, 추가된 정보가 원본 텍스트와의 연결이 약간 느슨하여 완전한 일관성을 제공하지는 않습니다.
+6. Accuracy Score (1-5): 4
+   - 설명: 생성된 응답은 면접 절차에 대한 정확한 정보를 제공하지만, 원본 텍스트에 없는 추가 정보가 포함되어 있어 완전한 정확성을 보장하지는 않습니다.
+7. Multidimensional Quality Score (1-5): 4
+   - 설명: 생성된 응답은 여러 품질 차원에서 잘 수행되지만, 원본 텍스트와의 완전한 일치를 이루지 못해 약간의 점수를 잃었습니다.
+8. Semantic Appropriateness Score (1-5): 4
+   - 설명: 생성된 응답은 원본 텍스트의 의미와 맥락에 적절하게 부합하지만, 추가된 정보가 원본의 의미와 완전히 일치하지는 않습니다.
+9. Understandability Score (1-5): 5
+   - 설명: 생성된 응답은 명확하고 이해하기 쉬우며, 정보가 잘 전달됩니다.
+{
+    "Factuality Score": 4,
+    "Consistency Score": 4,
+    "Relevance Score": 5,
+    "Fluency Score": 5,
+    "Coherence Score": 4,
+    "Accuracy Score": 4,
+    "Multidimensional Quality Score": 4,
+    "Semantic Appropriateness Score": 4,
+    "Understandability Score": 5
+}</t>
+        </is>
+      </c>
+      <c r="C402" t="n">
+        <v>0.878950158517761</v>
+      </c>
+      <c r="D402" t="inlineStr">
+        <is>
+          <t>면접 절차를 알려줘.</t>
+        </is>
+      </c>
+      <c r="E402" t="inlineStr">
+        <is>
+          <t>면접 절차는 다음과 같습니다:
+1. 대기실 입실
+2. 신분 확인
+3. 고사장 앞 이동
+4. 고사장 입실
+5. 지원동기 및 학업계획 발표
+6. 학업역량, 전공적합성 관련 공통문항 발표 및 질의응답
+7. 기타 질의응답(제출서류 진위 여부 등)
+8. 퇴실
+이 절차를 따르며, 면접은 입학사정관 2인이 평가위원으로 참여하여 수험생을 대상으로 개별적으로 진행됩니다.</t>
+        </is>
+      </c>
+      <c r="F402" t="inlineStr">
+        <is>
+          <t>면접 절차는 다음과 같습니다:
+1. 대기실 입실
+2. 신분 확인
+3. 고사장 앞 이동
+4. 고사장 입실
+5. 지원동기 및 학업계획 발표
+6. 학업역량, 전공적합성 관련 공통문항 발표 및 질의응답
+7. 기타 질의응답(제출서류 진위 여부 등)
+8. 퇴실</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
